--- a/DataBase/WAW_Arrivals.xlsx
+++ b/DataBase/WAW_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2961" uniqueCount="1075">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3221" uniqueCount="1114">
   <si>
     <t>NUMBER</t>
   </si>
@@ -3237,6 +3237,123 @@
   </si>
   <si>
     <t>7:26 PM</t>
+  </si>
+  <si>
+    <t>(A6-FMM)</t>
+  </si>
+  <si>
+    <t>8:21 PM</t>
+  </si>
+  <si>
+    <t>8:54 PM</t>
+  </si>
+  <si>
+    <t>LO526</t>
+  </si>
+  <si>
+    <t>8:46 PM</t>
+  </si>
+  <si>
+    <t>LO374</t>
+  </si>
+  <si>
+    <t>9:19 PM</t>
+  </si>
+  <si>
+    <t>LO468</t>
+  </si>
+  <si>
+    <t>Billund</t>
+  </si>
+  <si>
+    <t>(BLL)</t>
+  </si>
+  <si>
+    <t>9:17 PM</t>
+  </si>
+  <si>
+    <t>(G-EUPT)</t>
+  </si>
+  <si>
+    <t>9:32 PM</t>
+  </si>
+  <si>
+    <t>LO532</t>
+  </si>
+  <si>
+    <t>9:22 PM</t>
+  </si>
+  <si>
+    <t>9:24 PM</t>
+  </si>
+  <si>
+    <t>9:29 PM</t>
+  </si>
+  <si>
+    <t>9:41 PM</t>
+  </si>
+  <si>
+    <t>9:55 PM</t>
+  </si>
+  <si>
+    <t>LO254</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>(LUX)</t>
+  </si>
+  <si>
+    <t>9:47 PM</t>
+  </si>
+  <si>
+    <t>9:26 PM</t>
+  </si>
+  <si>
+    <t>LO344</t>
+  </si>
+  <si>
+    <t>9:51 PM</t>
+  </si>
+  <si>
+    <t>(F-GKXP)</t>
+  </si>
+  <si>
+    <t>9:57 PM</t>
+  </si>
+  <si>
+    <t>9:52 PM</t>
+  </si>
+  <si>
+    <t>10:24 PM</t>
+  </si>
+  <si>
+    <t>W61536</t>
+  </si>
+  <si>
+    <t>10:11 PM</t>
+  </si>
+  <si>
+    <t>10:40 PM</t>
+  </si>
+  <si>
+    <t>OS627</t>
+  </si>
+  <si>
+    <t>(OE-LWG)</t>
+  </si>
+  <si>
+    <t>10:27 PM</t>
+  </si>
+  <si>
+    <t>W61552</t>
+  </si>
+  <si>
+    <t>Larnaca</t>
+  </si>
+  <si>
+    <t>(LCA)</t>
   </si>
 </sst>
 </file>
@@ -3281,7 +3398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M296"/>
+  <dimension ref="A1:M322"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -14237,6 +14354,968 @@
       </c>
       <c r="M296" s="0"/>
     </row>
+    <row r="297">
+      <c r="A297" t="n" s="0">
+        <v>296.0</v>
+      </c>
+      <c r="B297" t="s" s="0">
+        <v>827</v>
+      </c>
+      <c r="C297" t="s" s="0">
+        <v>703</v>
+      </c>
+      <c r="D297" t="s" s="0">
+        <v>704</v>
+      </c>
+      <c r="E297" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="F297" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="G297" t="s" s="0">
+        <v>705</v>
+      </c>
+      <c r="H297" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I297" t="s" s="0">
+        <v>1075</v>
+      </c>
+      <c r="J297" t="s" s="0">
+        <v>1076</v>
+      </c>
+      <c r="K297" s="0"/>
+      <c r="L297" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="M297" s="0"/>
+    </row>
+    <row r="298">
+      <c r="A298" t="n" s="0">
+        <v>297.0</v>
+      </c>
+      <c r="B298" t="s" s="0">
+        <v>827</v>
+      </c>
+      <c r="C298" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="D298" t="s" s="0">
+        <v>713</v>
+      </c>
+      <c r="E298" t="s" s="0">
+        <v>393</v>
+      </c>
+      <c r="F298" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="G298" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H298" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I298" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="J298" t="s" s="0">
+        <v>1077</v>
+      </c>
+      <c r="K298" s="0"/>
+      <c r="L298" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="M298" s="0"/>
+    </row>
+    <row r="299">
+      <c r="A299" t="n" s="0">
+        <v>298.0</v>
+      </c>
+      <c r="B299" t="s" s="0">
+        <v>827</v>
+      </c>
+      <c r="C299" t="s" s="0">
+        <v>715</v>
+      </c>
+      <c r="D299" t="s" s="0">
+        <v>716</v>
+      </c>
+      <c r="E299" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="F299" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="G299" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H299" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I299" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="J299" t="s" s="0">
+        <v>515</v>
+      </c>
+      <c r="K299" s="0"/>
+      <c r="L299" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="M299" s="0"/>
+    </row>
+    <row r="300">
+      <c r="A300" t="n" s="0">
+        <v>299.0</v>
+      </c>
+      <c r="B300" t="s" s="0">
+        <v>827</v>
+      </c>
+      <c r="C300" t="s" s="0">
+        <v>715</v>
+      </c>
+      <c r="D300" t="s" s="0">
+        <v>718</v>
+      </c>
+      <c r="E300" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="F300" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="G300" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H300" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I300" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="J300" t="s" s="0">
+        <v>728</v>
+      </c>
+      <c r="K300" s="0"/>
+      <c r="L300" t="s" s="0">
+        <v>806</v>
+      </c>
+      <c r="M300" s="0"/>
+    </row>
+    <row r="301">
+      <c r="A301" t="n" s="0">
+        <v>300.0</v>
+      </c>
+      <c r="B301" t="s" s="0">
+        <v>827</v>
+      </c>
+      <c r="C301" t="s" s="0">
+        <v>720</v>
+      </c>
+      <c r="D301" t="s" s="0">
+        <v>721</v>
+      </c>
+      <c r="E301" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="F301" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="G301" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="H301" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I301" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="J301" t="s" s="0">
+        <v>722</v>
+      </c>
+      <c r="K301" s="0"/>
+      <c r="L301" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="M301" s="0"/>
+    </row>
+    <row r="302">
+      <c r="A302" t="n" s="0">
+        <v>301.0</v>
+      </c>
+      <c r="B302" t="s" s="0">
+        <v>827</v>
+      </c>
+      <c r="C302" t="s" s="0">
+        <v>720</v>
+      </c>
+      <c r="D302" t="s" s="0">
+        <v>1078</v>
+      </c>
+      <c r="E302" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="F302" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="G302" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H302" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I302" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="J302" t="s" s="0">
+        <v>1079</v>
+      </c>
+      <c r="K302" s="0"/>
+      <c r="L302" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="M302" s="0"/>
+    </row>
+    <row r="303">
+      <c r="A303" t="n" s="0">
+        <v>302.0</v>
+      </c>
+      <c r="B303" t="s" s="0">
+        <v>827</v>
+      </c>
+      <c r="C303" t="s" s="0">
+        <v>723</v>
+      </c>
+      <c r="D303" t="s" s="0">
+        <v>1080</v>
+      </c>
+      <c r="E303" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="F303" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="G303" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H303" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I303" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="J303" t="s" s="0">
+        <v>1081</v>
+      </c>
+      <c r="K303" s="0"/>
+      <c r="L303" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="M303" s="0"/>
+    </row>
+    <row r="304">
+      <c r="A304" t="n" s="0">
+        <v>303.0</v>
+      </c>
+      <c r="B304" t="s" s="0">
+        <v>827</v>
+      </c>
+      <c r="C304" t="s" s="0">
+        <v>723</v>
+      </c>
+      <c r="D304" t="s" s="0">
+        <v>724</v>
+      </c>
+      <c r="E304" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="F304" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G304" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H304" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I304" t="s" s="0">
+        <v>332</v>
+      </c>
+      <c r="J304" t="s" s="0">
+        <v>731</v>
+      </c>
+      <c r="K304" s="0"/>
+      <c r="L304" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="M304" s="0"/>
+    </row>
+    <row r="305">
+      <c r="A305" t="n" s="0">
+        <v>304.0</v>
+      </c>
+      <c r="B305" t="s" s="0">
+        <v>827</v>
+      </c>
+      <c r="C305" t="s" s="0">
+        <v>723</v>
+      </c>
+      <c r="D305" t="s" s="0">
+        <v>1082</v>
+      </c>
+      <c r="E305" t="s" s="0">
+        <v>1083</v>
+      </c>
+      <c r="F305" t="s" s="0">
+        <v>1084</v>
+      </c>
+      <c r="G305" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H305" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I305" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="J305" t="s" s="0">
+        <v>1085</v>
+      </c>
+      <c r="K305" s="0"/>
+      <c r="L305" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="M305" s="0"/>
+    </row>
+    <row r="306">
+      <c r="A306" t="n" s="0">
+        <v>305.0</v>
+      </c>
+      <c r="B306" t="s" s="0">
+        <v>827</v>
+      </c>
+      <c r="C306" t="s" s="0">
+        <v>726</v>
+      </c>
+      <c r="D306" t="s" s="0">
+        <v>736</v>
+      </c>
+      <c r="E306" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F306" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="G306" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="H306" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="I306" t="s" s="0">
+        <v>1086</v>
+      </c>
+      <c r="J306" t="s" s="0">
+        <v>1087</v>
+      </c>
+      <c r="K306" s="0"/>
+      <c r="L306" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M306" s="0"/>
+    </row>
+    <row r="307">
+      <c r="A307" t="n" s="0">
+        <v>306.0</v>
+      </c>
+      <c r="B307" t="s" s="0">
+        <v>827</v>
+      </c>
+      <c r="C307" t="s" s="0">
+        <v>726</v>
+      </c>
+      <c r="D307" t="s" s="0">
+        <v>729</v>
+      </c>
+      <c r="E307" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="F307" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="G307" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H307" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I307" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="J307" t="s" s="0">
+        <v>720</v>
+      </c>
+      <c r="K307" s="0"/>
+      <c r="L307" t="s" s="0">
+        <v>889</v>
+      </c>
+      <c r="M307" s="0"/>
+    </row>
+    <row r="308">
+      <c r="A308" t="n" s="0">
+        <v>307.0</v>
+      </c>
+      <c r="B308" t="s" s="0">
+        <v>827</v>
+      </c>
+      <c r="C308" t="s" s="0">
+        <v>726</v>
+      </c>
+      <c r="D308" t="s" s="0">
+        <v>1088</v>
+      </c>
+      <c r="E308" t="s" s="0">
+        <v>450</v>
+      </c>
+      <c r="F308" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="G308" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H308" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I308" t="s" s="0">
+        <v>891</v>
+      </c>
+      <c r="J308" t="s" s="0">
+        <v>1089</v>
+      </c>
+      <c r="K308" s="0"/>
+      <c r="L308" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="M308" s="0"/>
+    </row>
+    <row r="309">
+      <c r="A309" t="n" s="0">
+        <v>308.0</v>
+      </c>
+      <c r="B309" t="s" s="0">
+        <v>827</v>
+      </c>
+      <c r="C309" t="s" s="0">
+        <v>732</v>
+      </c>
+      <c r="D309" t="s" s="0">
+        <v>733</v>
+      </c>
+      <c r="E309" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="F309" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="G309" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H309" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I309" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="J309" t="s" s="0">
+        <v>1090</v>
+      </c>
+      <c r="K309" s="0"/>
+      <c r="L309" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="M309" s="0"/>
+    </row>
+    <row r="310">
+      <c r="A310" t="n" s="0">
+        <v>309.0</v>
+      </c>
+      <c r="B310" t="s" s="0">
+        <v>827</v>
+      </c>
+      <c r="C310" t="s" s="0">
+        <v>735</v>
+      </c>
+      <c r="D310" t="s" s="0">
+        <v>740</v>
+      </c>
+      <c r="E310" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="F310" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="G310" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H310" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I310" t="s" s="0">
+        <v>730</v>
+      </c>
+      <c r="J310" t="s" s="0">
+        <v>1091</v>
+      </c>
+      <c r="K310" s="0"/>
+      <c r="L310" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="M310" s="0"/>
+    </row>
+    <row r="311">
+      <c r="A311" t="n" s="0">
+        <v>310.0</v>
+      </c>
+      <c r="B311" t="s" s="0">
+        <v>827</v>
+      </c>
+      <c r="C311" t="s" s="0">
+        <v>735</v>
+      </c>
+      <c r="D311" t="s" s="0">
+        <v>744</v>
+      </c>
+      <c r="E311" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="F311" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="G311" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="H311" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I311" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="J311" t="s" s="0">
+        <v>1092</v>
+      </c>
+      <c r="K311" s="0"/>
+      <c r="L311" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="M311" s="0"/>
+    </row>
+    <row r="312">
+      <c r="A312" t="n" s="0">
+        <v>311.0</v>
+      </c>
+      <c r="B312" t="s" s="0">
+        <v>827</v>
+      </c>
+      <c r="C312" t="s" s="0">
+        <v>1093</v>
+      </c>
+      <c r="D312" t="s" s="0">
+        <v>1094</v>
+      </c>
+      <c r="E312" t="s" s="0">
+        <v>1095</v>
+      </c>
+      <c r="F312" t="s" s="0">
+        <v>1096</v>
+      </c>
+      <c r="G312" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="H312" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I312" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="J312" t="s" s="0">
+        <v>1097</v>
+      </c>
+      <c r="K312" s="0"/>
+      <c r="L312" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M312" s="0"/>
+    </row>
+    <row r="313">
+      <c r="A313" t="n" s="0">
+        <v>312.0</v>
+      </c>
+      <c r="B313" t="s" s="0">
+        <v>827</v>
+      </c>
+      <c r="C313" t="s" s="0">
+        <v>1093</v>
+      </c>
+      <c r="D313" t="s" s="0">
+        <v>746</v>
+      </c>
+      <c r="E313" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F313" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="G313" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H313" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I313" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="J313" t="s" s="0">
+        <v>1098</v>
+      </c>
+      <c r="K313" s="0"/>
+      <c r="L313" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="M313" s="0"/>
+    </row>
+    <row r="314">
+      <c r="A314" t="n" s="0">
+        <v>313.0</v>
+      </c>
+      <c r="B314" t="s" s="0">
+        <v>827</v>
+      </c>
+      <c r="C314" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="D314" t="s" s="0">
+        <v>758</v>
+      </c>
+      <c r="E314" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="F314" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="G314" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H314" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I314" t="s" s="0">
+        <v>928</v>
+      </c>
+      <c r="J314" t="s" s="0">
+        <v>723</v>
+      </c>
+      <c r="K314" s="0"/>
+      <c r="L314" t="s" s="0">
+        <v>889</v>
+      </c>
+      <c r="M314" s="0"/>
+    </row>
+    <row r="315">
+      <c r="A315" t="n" s="0">
+        <v>314.0</v>
+      </c>
+      <c r="B315" t="s" s="0">
+        <v>827</v>
+      </c>
+      <c r="C315" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="D315" t="s" s="0">
+        <v>1099</v>
+      </c>
+      <c r="E315" t="s" s="0">
+        <v>904</v>
+      </c>
+      <c r="F315" t="s" s="0">
+        <v>905</v>
+      </c>
+      <c r="G315" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H315" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I315" t="s" s="0">
+        <v>554</v>
+      </c>
+      <c r="J315" t="s" s="0">
+        <v>1100</v>
+      </c>
+      <c r="K315" s="0"/>
+      <c r="L315" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="M315" s="0"/>
+    </row>
+    <row r="316">
+      <c r="A316" t="n" s="0">
+        <v>315.0</v>
+      </c>
+      <c r="B316" t="s" s="0">
+        <v>827</v>
+      </c>
+      <c r="C316" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="D316" t="s" s="0">
+        <v>750</v>
+      </c>
+      <c r="E316" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="F316" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="G316" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H316" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I316" t="s" s="0">
+        <v>751</v>
+      </c>
+      <c r="J316" t="s" s="0">
+        <v>755</v>
+      </c>
+      <c r="K316" s="0"/>
+      <c r="L316" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="M316" s="0"/>
+    </row>
+    <row r="317">
+      <c r="A317" t="n" s="0">
+        <v>316.0</v>
+      </c>
+      <c r="B317" t="s" s="0">
+        <v>827</v>
+      </c>
+      <c r="C317" t="s" s="0">
+        <v>743</v>
+      </c>
+      <c r="D317" t="s" s="0">
+        <v>753</v>
+      </c>
+      <c r="E317" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F317" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G317" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="H317" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I317" t="s" s="0">
+        <v>1101</v>
+      </c>
+      <c r="J317" t="s" s="0">
+        <v>1102</v>
+      </c>
+      <c r="K317" s="0"/>
+      <c r="L317" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="M317" s="0"/>
+    </row>
+    <row r="318">
+      <c r="A318" t="n" s="0">
+        <v>317.0</v>
+      </c>
+      <c r="B318" t="s" s="0">
+        <v>827</v>
+      </c>
+      <c r="C318" t="s" s="0">
+        <v>745</v>
+      </c>
+      <c r="D318" t="s" s="0">
+        <v>760</v>
+      </c>
+      <c r="E318" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="F318" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="G318" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H318" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I318" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="J318" t="s" s="0">
+        <v>1103</v>
+      </c>
+      <c r="K318" s="0"/>
+      <c r="L318" t="s" s="0">
+        <v>569</v>
+      </c>
+      <c r="M318" s="0"/>
+    </row>
+    <row r="319">
+      <c r="A319" t="n" s="0">
+        <v>318.0</v>
+      </c>
+      <c r="B319" t="s" s="0">
+        <v>827</v>
+      </c>
+      <c r="C319" t="s" s="0">
+        <v>773</v>
+      </c>
+      <c r="D319" t="s" s="0">
+        <v>774</v>
+      </c>
+      <c r="E319" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="F319" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="G319" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="H319" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="I319" t="s" s="0">
+        <v>775</v>
+      </c>
+      <c r="J319" t="s" s="0">
+        <v>1104</v>
+      </c>
+      <c r="K319" s="0"/>
+      <c r="L319" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="M319" s="0"/>
+    </row>
+    <row r="320">
+      <c r="A320" t="n" s="0">
+        <v>319.0</v>
+      </c>
+      <c r="B320" t="s" s="0">
+        <v>827</v>
+      </c>
+      <c r="C320" t="s" s="0">
+        <v>773</v>
+      </c>
+      <c r="D320" t="s" s="0">
+        <v>1105</v>
+      </c>
+      <c r="E320" t="s" s="0">
+        <v>612</v>
+      </c>
+      <c r="F320" t="s" s="0">
+        <v>613</v>
+      </c>
+      <c r="G320" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H320" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I320" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="J320" t="s" s="0">
+        <v>1106</v>
+      </c>
+      <c r="K320" s="0"/>
+      <c r="L320" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="M320" s="0"/>
+    </row>
+    <row r="321">
+      <c r="A321" t="n" s="0">
+        <v>320.0</v>
+      </c>
+      <c r="B321" t="s" s="0">
+        <v>827</v>
+      </c>
+      <c r="C321" t="s" s="0">
+        <v>1107</v>
+      </c>
+      <c r="D321" t="s" s="0">
+        <v>1108</v>
+      </c>
+      <c r="E321" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="F321" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="G321" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="H321" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I321" t="s" s="0">
+        <v>1109</v>
+      </c>
+      <c r="J321" t="s" s="0">
+        <v>1110</v>
+      </c>
+      <c r="K321" s="0"/>
+      <c r="L321" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="M321" s="0"/>
+    </row>
+    <row r="322">
+      <c r="A322" t="n" s="0">
+        <v>321.0</v>
+      </c>
+      <c r="B322" t="s" s="0">
+        <v>827</v>
+      </c>
+      <c r="C322" t="s" s="0">
+        <v>1107</v>
+      </c>
+      <c r="D322" t="s" s="0">
+        <v>1111</v>
+      </c>
+      <c r="E322" t="s" s="0">
+        <v>1112</v>
+      </c>
+      <c r="F322" t="s" s="0">
+        <v>1113</v>
+      </c>
+      <c r="G322" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H322" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I322" t="s" s="0">
+        <v>429</v>
+      </c>
+      <c r="J322" t="s" s="0">
+        <v>769</v>
+      </c>
+      <c r="K322" s="0"/>
+      <c r="L322" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="M322" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/WAW_Arrivals.xlsx
+++ b/DataBase/WAW_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3221" uniqueCount="1114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4241" uniqueCount="1264">
   <si>
     <t>NUMBER</t>
   </si>
@@ -3354,6 +3354,456 @@
   </si>
   <si>
     <t>(LCA)</t>
+  </si>
+  <si>
+    <t>11:55 PM</t>
+  </si>
+  <si>
+    <t>W61472</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>(MAD)</t>
+  </si>
+  <si>
+    <t>11:49 PM</t>
+  </si>
+  <si>
+    <t>1 hours, 4 minutes</t>
+  </si>
+  <si>
+    <t>10:52 PM</t>
+  </si>
+  <si>
+    <t>11:29 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 19 minutes</t>
+  </si>
+  <si>
+    <t>(PH-EZP)</t>
+  </si>
+  <si>
+    <t>11:11 PM</t>
+  </si>
+  <si>
+    <t>Monday, Jan 09</t>
+  </si>
+  <si>
+    <t>5:33 AM</t>
+  </si>
+  <si>
+    <t>QY5546</t>
+  </si>
+  <si>
+    <t>Leipzig</t>
+  </si>
+  <si>
+    <t>(LEJ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHL </t>
+  </si>
+  <si>
+    <t>A306</t>
+  </si>
+  <si>
+    <t>(D-AEAN)</t>
+  </si>
+  <si>
+    <t>5:48 AM</t>
+  </si>
+  <si>
+    <t>5X272</t>
+  </si>
+  <si>
+    <t>Cologne</t>
+  </si>
+  <si>
+    <t>(CGN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPS </t>
+  </si>
+  <si>
+    <t>B752</t>
+  </si>
+  <si>
+    <t>(N427UP)</t>
+  </si>
+  <si>
+    <t>5:36 AM</t>
+  </si>
+  <si>
+    <t>5:50 AM</t>
+  </si>
+  <si>
+    <t>LO6288</t>
+  </si>
+  <si>
+    <t>Zanzibar</t>
+  </si>
+  <si>
+    <t>(ZNZ)</t>
+  </si>
+  <si>
+    <t>6:02 AM</t>
+  </si>
+  <si>
+    <t>6:33 AM</t>
+  </si>
+  <si>
+    <t>LO720</t>
+  </si>
+  <si>
+    <t>LO728</t>
+  </si>
+  <si>
+    <t>6:38 AM</t>
+  </si>
+  <si>
+    <t>6:25 AM</t>
+  </si>
+  <si>
+    <t>LO504</t>
+  </si>
+  <si>
+    <t>LO644</t>
+  </si>
+  <si>
+    <t>6:36 AM</t>
+  </si>
+  <si>
+    <t>6:40 AM</t>
+  </si>
+  <si>
+    <t>LO794</t>
+  </si>
+  <si>
+    <t>6:23 AM</t>
+  </si>
+  <si>
+    <t>UX6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air Europa Express </t>
+  </si>
+  <si>
+    <t>(EC-LKX)</t>
+  </si>
+  <si>
+    <t>6:29 AM</t>
+  </si>
+  <si>
+    <t>LO3850</t>
+  </si>
+  <si>
+    <t>6:16 AM</t>
+  </si>
+  <si>
+    <t>6:18 AM</t>
+  </si>
+  <si>
+    <t>LO3880</t>
+  </si>
+  <si>
+    <t>6:21 AM</t>
+  </si>
+  <si>
+    <t>LO3804</t>
+  </si>
+  <si>
+    <t>LO3942</t>
+  </si>
+  <si>
+    <t>6:42 AM</t>
+  </si>
+  <si>
+    <t>LO726</t>
+  </si>
+  <si>
+    <t>7:44 AM</t>
+  </si>
+  <si>
+    <t>7:50 AM</t>
+  </si>
+  <si>
+    <t>JTD9041</t>
+  </si>
+  <si>
+    <t>7:48 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finnair (Oneworld livery) </t>
+  </si>
+  <si>
+    <t>(OH-LKN)</t>
+  </si>
+  <si>
+    <t>8:09 AM</t>
+  </si>
+  <si>
+    <t>LO402</t>
+  </si>
+  <si>
+    <t>8:02 AM</t>
+  </si>
+  <si>
+    <t>8:00 AM</t>
+  </si>
+  <si>
+    <t>LO530</t>
+  </si>
+  <si>
+    <t>8:16 AM</t>
+  </si>
+  <si>
+    <t>(TC-LTL)</t>
+  </si>
+  <si>
+    <t>(D-AIZZ)</t>
+  </si>
+  <si>
+    <t>8:54 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helvetic Airways </t>
+  </si>
+  <si>
+    <t>E290</t>
+  </si>
+  <si>
+    <t>(HB-AZD)</t>
+  </si>
+  <si>
+    <t>8:47 AM</t>
+  </si>
+  <si>
+    <t>9:03 AM</t>
+  </si>
+  <si>
+    <t>8:44 AM</t>
+  </si>
+  <si>
+    <t>8:58 AM</t>
+  </si>
+  <si>
+    <t>SK2601</t>
+  </si>
+  <si>
+    <t>9:13 AM</t>
+  </si>
+  <si>
+    <t>9:18 AM</t>
+  </si>
+  <si>
+    <t>9:01 AM</t>
+  </si>
+  <si>
+    <t>SK751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nordica </t>
+  </si>
+  <si>
+    <t>(ES-ACC)</t>
+  </si>
+  <si>
+    <t>9:16 AM</t>
+  </si>
+  <si>
+    <t>LO496</t>
+  </si>
+  <si>
+    <t>9:27 AM</t>
+  </si>
+  <si>
+    <t>9:33 AM</t>
+  </si>
+  <si>
+    <t>LO3982</t>
+  </si>
+  <si>
+    <t>Zielona Gora</t>
+  </si>
+  <si>
+    <t>(IEG)</t>
+  </si>
+  <si>
+    <t>9:51 AM</t>
+  </si>
+  <si>
+    <t>10:20 AM</t>
+  </si>
+  <si>
+    <t>10:37 AM</t>
+  </si>
+  <si>
+    <t>10:50 AM</t>
+  </si>
+  <si>
+    <t>10:57 AM</t>
+  </si>
+  <si>
+    <t>(LN-NHA)</t>
+  </si>
+  <si>
+    <t>11:31 AM</t>
+  </si>
+  <si>
+    <t>(A6-EGS)</t>
+  </si>
+  <si>
+    <t>11:24 AM</t>
+  </si>
+  <si>
+    <t>W61316</t>
+  </si>
+  <si>
+    <t>Leeds</t>
+  </si>
+  <si>
+    <t>(LBA)</t>
+  </si>
+  <si>
+    <t>(HA-LVE)</t>
+  </si>
+  <si>
+    <t>11:36 AM</t>
+  </si>
+  <si>
+    <t>(G-TTNB)</t>
+  </si>
+  <si>
+    <t>11:44 AM</t>
+  </si>
+  <si>
+    <t>12:39 PM</t>
+  </si>
+  <si>
+    <t>(SP-LRH)</t>
+  </si>
+  <si>
+    <t>11:19 AM</t>
+  </si>
+  <si>
+    <t>11:22 AM</t>
+  </si>
+  <si>
+    <t>W61312</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>(LPL)</t>
+  </si>
+  <si>
+    <t>KL1363</t>
+  </si>
+  <si>
+    <t>B737</t>
+  </si>
+  <si>
+    <t>(PH-BGQ)</t>
+  </si>
+  <si>
+    <t>12:01 PM</t>
+  </si>
+  <si>
+    <t>LO466</t>
+  </si>
+  <si>
+    <t>11:47 AM</t>
+  </si>
+  <si>
+    <t>(CS-TJI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qatar Airways </t>
+  </si>
+  <si>
+    <t>(A7-BDD)</t>
+  </si>
+  <si>
+    <t>(F-HZUC)</t>
+  </si>
+  <si>
+    <t>12:03 PM</t>
+  </si>
+  <si>
+    <t>12:14 PM</t>
+  </si>
+  <si>
+    <t>12:21 PM</t>
+  </si>
+  <si>
+    <t>12:54 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 34 minutes</t>
+  </si>
+  <si>
+    <t>LO252</t>
+  </si>
+  <si>
+    <t>12:42 PM</t>
+  </si>
+  <si>
+    <t>12:56 PM</t>
+  </si>
+  <si>
+    <t>12:23 PM</t>
+  </si>
+  <si>
+    <t>12:37 PM</t>
+  </si>
+  <si>
+    <t>12:34 PM</t>
+  </si>
+  <si>
+    <t>LO16</t>
+  </si>
+  <si>
+    <t>(EWR)</t>
+  </si>
+  <si>
+    <t>12:46 PM</t>
+  </si>
+  <si>
+    <t>(D-AILX)</t>
+  </si>
+  <si>
+    <t>LO3946</t>
+  </si>
+  <si>
+    <t>1:11 PM</t>
+  </si>
+  <si>
+    <t>12:17 PM</t>
+  </si>
+  <si>
+    <t>0 hours, -38 minutes</t>
+  </si>
+  <si>
+    <t>LO342</t>
+  </si>
+  <si>
+    <t>12:58 PM</t>
+  </si>
+  <si>
+    <t>W61454</t>
+  </si>
+  <si>
+    <t>Catania</t>
+  </si>
+  <si>
+    <t>(CTA)</t>
+  </si>
+  <si>
+    <t>1:29 PM</t>
   </si>
 </sst>
 </file>
@@ -3398,7 +3848,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M322"/>
+  <dimension ref="A1:M424"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -15316,6 +15766,3780 @@
       </c>
       <c r="M322" s="0"/>
     </row>
+    <row r="323">
+      <c r="A323" t="n" s="0">
+        <v>322.0</v>
+      </c>
+      <c r="B323" t="s" s="0">
+        <v>827</v>
+      </c>
+      <c r="C323" t="s" s="0">
+        <v>777</v>
+      </c>
+      <c r="D323" t="s" s="0">
+        <v>784</v>
+      </c>
+      <c r="E323" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="F323" t="s" s="0">
+        <v>785</v>
+      </c>
+      <c r="G323" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H323" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I323" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="J323" t="s" s="0">
+        <v>1114</v>
+      </c>
+      <c r="K323" s="0"/>
+      <c r="L323" t="s" s="0">
+        <v>1033</v>
+      </c>
+      <c r="M323" s="0"/>
+    </row>
+    <row r="324">
+      <c r="A324" t="n" s="0">
+        <v>323.0</v>
+      </c>
+      <c r="B324" t="s" s="0">
+        <v>827</v>
+      </c>
+      <c r="C324" t="s" s="0">
+        <v>777</v>
+      </c>
+      <c r="D324" t="s" s="0">
+        <v>1115</v>
+      </c>
+      <c r="E324" t="s" s="0">
+        <v>1116</v>
+      </c>
+      <c r="F324" t="s" s="0">
+        <v>1117</v>
+      </c>
+      <c r="G324" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H324" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I324" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="J324" t="s" s="0">
+        <v>1118</v>
+      </c>
+      <c r="K324" s="0"/>
+      <c r="L324" t="s" s="0">
+        <v>1119</v>
+      </c>
+      <c r="M324" s="0"/>
+    </row>
+    <row r="325">
+      <c r="A325" t="n" s="0">
+        <v>324.0</v>
+      </c>
+      <c r="B325" t="s" s="0">
+        <v>827</v>
+      </c>
+      <c r="C325" t="s" s="0">
+        <v>799</v>
+      </c>
+      <c r="D325" t="s" s="0">
+        <v>800</v>
+      </c>
+      <c r="E325" t="s" s="0">
+        <v>565</v>
+      </c>
+      <c r="F325" t="s" s="0">
+        <v>566</v>
+      </c>
+      <c r="G325" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H325" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I325" t="s" s="0">
+        <v>608</v>
+      </c>
+      <c r="J325" t="s" s="0">
+        <v>812</v>
+      </c>
+      <c r="K325" s="0"/>
+      <c r="L325" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="M325" s="0"/>
+    </row>
+    <row r="326">
+      <c r="A326" t="n" s="0">
+        <v>325.0</v>
+      </c>
+      <c r="B326" t="s" s="0">
+        <v>827</v>
+      </c>
+      <c r="C326" t="s" s="0">
+        <v>810</v>
+      </c>
+      <c r="D326" t="s" s="0">
+        <v>811</v>
+      </c>
+      <c r="E326" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F326" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="G326" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H326" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I326" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="J326" t="s" s="0">
+        <v>1120</v>
+      </c>
+      <c r="K326" s="0"/>
+      <c r="L326" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="M326" s="0"/>
+    </row>
+    <row r="327">
+      <c r="A327" t="n" s="0">
+        <v>326.0</v>
+      </c>
+      <c r="B327" t="s" s="0">
+        <v>827</v>
+      </c>
+      <c r="C327" t="s" s="0">
+        <v>810</v>
+      </c>
+      <c r="D327" t="s" s="0">
+        <v>814</v>
+      </c>
+      <c r="E327" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="F327" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="G327" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H327" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I327" t="s" s="0">
+        <v>494</v>
+      </c>
+      <c r="J327" t="s" s="0">
+        <v>1121</v>
+      </c>
+      <c r="K327" s="0"/>
+      <c r="L327" t="s" s="0">
+        <v>1122</v>
+      </c>
+      <c r="M327" s="0"/>
+    </row>
+    <row r="328">
+      <c r="A328" t="n" s="0">
+        <v>327.0</v>
+      </c>
+      <c r="B328" t="s" s="0">
+        <v>827</v>
+      </c>
+      <c r="C328" t="s" s="0">
+        <v>822</v>
+      </c>
+      <c r="D328" t="s" s="0">
+        <v>823</v>
+      </c>
+      <c r="E328" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="F328" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="G328" t="s" s="0">
+        <v>560</v>
+      </c>
+      <c r="H328" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I328" t="s" s="0">
+        <v>1123</v>
+      </c>
+      <c r="J328" t="s" s="0">
+        <v>1124</v>
+      </c>
+      <c r="K328" s="0"/>
+      <c r="L328" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="M328" s="0"/>
+    </row>
+    <row r="329">
+      <c r="A329" t="n" s="0">
+        <v>328.0</v>
+      </c>
+      <c r="B329" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C329" t="s" s="0">
+        <v>1126</v>
+      </c>
+      <c r="D329" t="s" s="0">
+        <v>1127</v>
+      </c>
+      <c r="E329" t="s" s="0">
+        <v>1128</v>
+      </c>
+      <c r="F329" t="s" s="0">
+        <v>1129</v>
+      </c>
+      <c r="G329" t="s" s="0">
+        <v>1130</v>
+      </c>
+      <c r="H329" t="s" s="0">
+        <v>1131</v>
+      </c>
+      <c r="I329" t="s" s="0">
+        <v>1132</v>
+      </c>
+      <c r="J329" t="s" s="0">
+        <v>1126</v>
+      </c>
+      <c r="K329" s="0"/>
+      <c r="L329" t="s" s="0">
+        <v>674</v>
+      </c>
+      <c r="M329" s="0"/>
+    </row>
+    <row r="330">
+      <c r="A330" t="n" s="0">
+        <v>329.0</v>
+      </c>
+      <c r="B330" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C330" t="s" s="0">
+        <v>1133</v>
+      </c>
+      <c r="D330" t="s" s="0">
+        <v>1134</v>
+      </c>
+      <c r="E330" t="s" s="0">
+        <v>1135</v>
+      </c>
+      <c r="F330" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="G330" t="s" s="0">
+        <v>1137</v>
+      </c>
+      <c r="H330" t="s" s="0">
+        <v>1138</v>
+      </c>
+      <c r="I330" t="s" s="0">
+        <v>1139</v>
+      </c>
+      <c r="J330" t="s" s="0">
+        <v>1140</v>
+      </c>
+      <c r="K330" s="0"/>
+      <c r="L330" t="s" s="0">
+        <v>684</v>
+      </c>
+      <c r="M330" s="0"/>
+    </row>
+    <row r="331">
+      <c r="A331" t="n" s="0">
+        <v>330.0</v>
+      </c>
+      <c r="B331" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C331" t="s" s="0">
+        <v>1141</v>
+      </c>
+      <c r="D331" t="s" s="0">
+        <v>1142</v>
+      </c>
+      <c r="E331" t="s" s="0">
+        <v>1143</v>
+      </c>
+      <c r="F331" t="s" s="0">
+        <v>1144</v>
+      </c>
+      <c r="G331" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H331" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="I331" t="s" s="0">
+        <v>363</v>
+      </c>
+      <c r="J331" t="s" s="0">
+        <v>1145</v>
+      </c>
+      <c r="K331" s="0"/>
+      <c r="L331" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="M331" s="0"/>
+    </row>
+    <row r="332">
+      <c r="A332" t="n" s="0">
+        <v>331.0</v>
+      </c>
+      <c r="B332" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C332" t="s" s="0">
+        <v>828</v>
+      </c>
+      <c r="D332" t="s" s="0">
+        <v>829</v>
+      </c>
+      <c r="E332" t="s" s="0">
+        <v>830</v>
+      </c>
+      <c r="F332" t="s" s="0">
+        <v>831</v>
+      </c>
+      <c r="G332" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H332" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I332" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="J332" t="s" s="0">
+        <v>1146</v>
+      </c>
+      <c r="K332" s="0"/>
+      <c r="L332" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="M332" s="0"/>
+    </row>
+    <row r="333">
+      <c r="A333" t="n" s="0">
+        <v>332.0</v>
+      </c>
+      <c r="B333" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C333" t="s" s="0">
+        <v>850</v>
+      </c>
+      <c r="D333" t="s" s="0">
+        <v>1147</v>
+      </c>
+      <c r="E333" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="F333" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="G333" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H333" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I333" t="s" s="0">
+        <v>441</v>
+      </c>
+      <c r="J333" t="s" s="0">
+        <v>848</v>
+      </c>
+      <c r="K333" s="0"/>
+      <c r="L333" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="M333" s="0"/>
+    </row>
+    <row r="334">
+      <c r="A334" t="n" s="0">
+        <v>333.0</v>
+      </c>
+      <c r="B334" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C334" t="s" s="0">
+        <v>850</v>
+      </c>
+      <c r="D334" t="s" s="0">
+        <v>1148</v>
+      </c>
+      <c r="E334" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F334" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G334" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H334" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I334" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="J334" t="s" s="0">
+        <v>1149</v>
+      </c>
+      <c r="K334" s="0"/>
+      <c r="L334" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="M334" s="0"/>
+    </row>
+    <row r="335">
+      <c r="A335" t="n" s="0">
+        <v>334.0</v>
+      </c>
+      <c r="B335" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C335" t="s" s="0">
+        <v>1150</v>
+      </c>
+      <c r="D335" t="s" s="0">
+        <v>1151</v>
+      </c>
+      <c r="E335" t="s" s="0">
+        <v>502</v>
+      </c>
+      <c r="F335" t="s" s="0">
+        <v>503</v>
+      </c>
+      <c r="G335" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H335" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I335" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="J335" t="s" s="0">
+        <v>832</v>
+      </c>
+      <c r="K335" s="0"/>
+      <c r="L335" t="s" s="0">
+        <v>684</v>
+      </c>
+      <c r="M335" s="0"/>
+    </row>
+    <row r="336">
+      <c r="A336" t="n" s="0">
+        <v>335.0</v>
+      </c>
+      <c r="B336" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C336" t="s" s="0">
+        <v>1150</v>
+      </c>
+      <c r="D336" t="s" s="0">
+        <v>1152</v>
+      </c>
+      <c r="E336" t="s" s="0">
+        <v>498</v>
+      </c>
+      <c r="F336" t="s" s="0">
+        <v>499</v>
+      </c>
+      <c r="G336" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H336" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I336" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="J336" t="s" s="0">
+        <v>1153</v>
+      </c>
+      <c r="K336" s="0"/>
+      <c r="L336" t="s" s="0">
+        <v>279</v>
+      </c>
+      <c r="M336" s="0"/>
+    </row>
+    <row r="337">
+      <c r="A337" t="n" s="0">
+        <v>336.0</v>
+      </c>
+      <c r="B337" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C337" t="s" s="0">
+        <v>1150</v>
+      </c>
+      <c r="D337" t="s" s="0">
+        <v>844</v>
+      </c>
+      <c r="E337" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="F337" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="G337" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H337" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I337" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="J337" t="s" s="0">
+        <v>1154</v>
+      </c>
+      <c r="K337" s="0"/>
+      <c r="L337" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="M337" s="0"/>
+    </row>
+    <row r="338">
+      <c r="A338" t="n" s="0">
+        <v>337.0</v>
+      </c>
+      <c r="B338" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C338" t="s" s="0">
+        <v>1150</v>
+      </c>
+      <c r="D338" t="s" s="0">
+        <v>846</v>
+      </c>
+      <c r="E338" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="F338" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="G338" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H338" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I338" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="J338" t="s" s="0">
+        <v>837</v>
+      </c>
+      <c r="K338" s="0"/>
+      <c r="L338" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="M338" s="0"/>
+    </row>
+    <row r="339">
+      <c r="A339" t="n" s="0">
+        <v>338.0</v>
+      </c>
+      <c r="B339" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C339" t="s" s="0">
+        <v>843</v>
+      </c>
+      <c r="D339" t="s" s="0">
+        <v>1155</v>
+      </c>
+      <c r="E339" t="s" s="0">
+        <v>454</v>
+      </c>
+      <c r="F339" t="s" s="0">
+        <v>455</v>
+      </c>
+      <c r="G339" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H339" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I339" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="J339" t="s" s="0">
+        <v>1156</v>
+      </c>
+      <c r="K339" s="0"/>
+      <c r="L339" t="s" s="0">
+        <v>538</v>
+      </c>
+      <c r="M339" s="0"/>
+    </row>
+    <row r="340">
+      <c r="A340" t="n" s="0">
+        <v>339.0</v>
+      </c>
+      <c r="B340" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C340" t="s" s="0">
+        <v>845</v>
+      </c>
+      <c r="D340" t="s" s="0">
+        <v>1157</v>
+      </c>
+      <c r="E340" t="s" s="0">
+        <v>565</v>
+      </c>
+      <c r="F340" t="s" s="0">
+        <v>566</v>
+      </c>
+      <c r="G340" t="s" s="0">
+        <v>1158</v>
+      </c>
+      <c r="H340" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I340" t="s" s="0">
+        <v>1159</v>
+      </c>
+      <c r="J340" t="s" s="0">
+        <v>1160</v>
+      </c>
+      <c r="K340" s="0"/>
+      <c r="L340" t="s" s="0">
+        <v>806</v>
+      </c>
+      <c r="M340" s="0"/>
+    </row>
+    <row r="341">
+      <c r="A341" t="n" s="0">
+        <v>340.0</v>
+      </c>
+      <c r="B341" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C341" t="s" s="0">
+        <v>848</v>
+      </c>
+      <c r="D341" t="s" s="0">
+        <v>1161</v>
+      </c>
+      <c r="E341" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="F341" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="G341" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H341" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I341" t="s" s="0">
+        <v>332</v>
+      </c>
+      <c r="J341" t="s" s="0">
+        <v>1162</v>
+      </c>
+      <c r="K341" s="0"/>
+      <c r="L341" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="M341" s="0"/>
+    </row>
+    <row r="342">
+      <c r="A342" t="n" s="0">
+        <v>341.0</v>
+      </c>
+      <c r="B342" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C342" t="s" s="0">
+        <v>848</v>
+      </c>
+      <c r="D342" t="s" s="0">
+        <v>849</v>
+      </c>
+      <c r="E342" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="F342" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="G342" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H342" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I342" t="s" s="0">
+        <v>891</v>
+      </c>
+      <c r="J342" t="s" s="0">
+        <v>1163</v>
+      </c>
+      <c r="K342" s="0"/>
+      <c r="L342" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="M342" s="0"/>
+    </row>
+    <row r="343">
+      <c r="A343" t="n" s="0">
+        <v>342.0</v>
+      </c>
+      <c r="B343" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C343" t="s" s="0">
+        <v>848</v>
+      </c>
+      <c r="D343" t="s" s="0">
+        <v>851</v>
+      </c>
+      <c r="E343" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F343" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G343" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H343" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I343" t="s" s="0">
+        <v>928</v>
+      </c>
+      <c r="J343" t="s" s="0">
+        <v>1150</v>
+      </c>
+      <c r="K343" s="0"/>
+      <c r="L343" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="M343" s="0"/>
+    </row>
+    <row r="344">
+      <c r="A344" t="n" s="0">
+        <v>343.0</v>
+      </c>
+      <c r="B344" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C344" t="s" s="0">
+        <v>848</v>
+      </c>
+      <c r="D344" t="s" s="0">
+        <v>1164</v>
+      </c>
+      <c r="E344" t="s" s="0">
+        <v>517</v>
+      </c>
+      <c r="F344" t="s" s="0">
+        <v>518</v>
+      </c>
+      <c r="G344" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H344" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I344" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="J344" t="s" s="0">
+        <v>1165</v>
+      </c>
+      <c r="K344" s="0"/>
+      <c r="L344" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="M344" s="0"/>
+    </row>
+    <row r="345">
+      <c r="A345" t="n" s="0">
+        <v>344.0</v>
+      </c>
+      <c r="B345" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C345" t="s" s="0">
+        <v>1154</v>
+      </c>
+      <c r="D345" t="s" s="0">
+        <v>1166</v>
+      </c>
+      <c r="E345" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="F345" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="G345" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H345" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I345" t="s" s="0">
+        <v>730</v>
+      </c>
+      <c r="J345" t="s" s="0">
+        <v>838</v>
+      </c>
+      <c r="K345" s="0"/>
+      <c r="L345" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="M345" s="0"/>
+    </row>
+    <row r="346">
+      <c r="A346" t="n" s="0">
+        <v>345.0</v>
+      </c>
+      <c r="B346" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C346" t="s" s="0">
+        <v>1154</v>
+      </c>
+      <c r="D346" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="E346" t="s" s="0">
+        <v>532</v>
+      </c>
+      <c r="F346" t="s" s="0">
+        <v>533</v>
+      </c>
+      <c r="G346" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H346" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I346" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="J346" t="s" s="0">
+        <v>1168</v>
+      </c>
+      <c r="K346" s="0"/>
+      <c r="L346" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="M346" s="0"/>
+    </row>
+    <row r="347">
+      <c r="A347" t="n" s="0">
+        <v>346.0</v>
+      </c>
+      <c r="B347" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C347" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D347" t="s" s="0">
+        <v>1169</v>
+      </c>
+      <c r="E347" t="s" s="0">
+        <v>835</v>
+      </c>
+      <c r="F347" t="s" s="0">
+        <v>836</v>
+      </c>
+      <c r="G347" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="H347" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I347" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="J347" t="s" s="0">
+        <v>1170</v>
+      </c>
+      <c r="K347" s="0"/>
+      <c r="L347" t="s" s="0">
+        <v>1122</v>
+      </c>
+      <c r="M347" s="0"/>
+    </row>
+    <row r="348">
+      <c r="A348" t="n" s="0">
+        <v>347.0</v>
+      </c>
+      <c r="B348" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C348" t="s" s="0">
+        <v>1171</v>
+      </c>
+      <c r="D348" t="s" s="0">
+        <v>1172</v>
+      </c>
+      <c r="E348" t="s" s="0">
+        <v>1083</v>
+      </c>
+      <c r="F348" t="s" s="0">
+        <v>1084</v>
+      </c>
+      <c r="G348" t="s" s="0">
+        <v>592</v>
+      </c>
+      <c r="H348" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I348" t="s" s="0">
+        <v>593</v>
+      </c>
+      <c r="J348" t="s" s="0">
+        <v>1173</v>
+      </c>
+      <c r="K348" s="0"/>
+      <c r="L348" t="s" s="0">
+        <v>806</v>
+      </c>
+      <c r="M348" s="0"/>
+    </row>
+    <row r="349">
+      <c r="A349" t="n" s="0">
+        <v>348.0</v>
+      </c>
+      <c r="B349" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C349" t="s" s="0">
+        <v>858</v>
+      </c>
+      <c r="D349" t="s" s="0">
+        <v>859</v>
+      </c>
+      <c r="E349" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F349" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G349" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="H349" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I349" t="s" s="0">
+        <v>860</v>
+      </c>
+      <c r="J349" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="K349" s="0"/>
+      <c r="L349" t="s" s="0">
+        <v>420</v>
+      </c>
+      <c r="M349" s="0"/>
+    </row>
+    <row r="350">
+      <c r="A350" t="n" s="0">
+        <v>349.0</v>
+      </c>
+      <c r="B350" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C350" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D350" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E350" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F350" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G350" t="s" s="0">
+        <v>1174</v>
+      </c>
+      <c r="H350" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I350" t="s" s="0">
+        <v>1175</v>
+      </c>
+      <c r="J350" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="K350" s="0"/>
+      <c r="L350" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="M350" s="0"/>
+    </row>
+    <row r="351">
+      <c r="A351" t="n" s="0">
+        <v>350.0</v>
+      </c>
+      <c r="B351" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C351" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D351" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E351" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F351" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G351" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H351" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I351" t="s" s="0">
+        <v>751</v>
+      </c>
+      <c r="J351" t="s" s="0">
+        <v>1176</v>
+      </c>
+      <c r="K351" s="0"/>
+      <c r="L351" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="M351" s="0"/>
+    </row>
+    <row r="352">
+      <c r="A352" t="n" s="0">
+        <v>351.0</v>
+      </c>
+      <c r="B352" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C352" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D352" t="s" s="0">
+        <v>1177</v>
+      </c>
+      <c r="E352" t="s" s="0">
+        <v>393</v>
+      </c>
+      <c r="F352" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="G352" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H352" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I352" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="J352" t="s" s="0">
+        <v>1178</v>
+      </c>
+      <c r="K352" s="0"/>
+      <c r="L352" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="M352" s="0"/>
+    </row>
+    <row r="353">
+      <c r="A353" t="n" s="0">
+        <v>352.0</v>
+      </c>
+      <c r="B353" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C353" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D353" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="E353" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="F353" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="G353" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H353" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I353" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="J353" t="s" s="0">
+        <v>1179</v>
+      </c>
+      <c r="K353" s="0"/>
+      <c r="L353" t="s" s="0">
+        <v>889</v>
+      </c>
+      <c r="M353" s="0"/>
+    </row>
+    <row r="354">
+      <c r="A354" t="n" s="0">
+        <v>353.0</v>
+      </c>
+      <c r="B354" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C354" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D354" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="E354" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F354" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="G354" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="H354" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I354" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="J354" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="K354" s="0"/>
+      <c r="L354" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M354" s="0"/>
+    </row>
+    <row r="355">
+      <c r="A355" t="n" s="0">
+        <v>354.0</v>
+      </c>
+      <c r="B355" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C355" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D355" t="s" s="0">
+        <v>1180</v>
+      </c>
+      <c r="E355" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="F355" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="G355" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H355" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I355" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="J355" t="s" s="0">
+        <v>1181</v>
+      </c>
+      <c r="K355" s="0"/>
+      <c r="L355" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="M355" s="0"/>
+    </row>
+    <row r="356">
+      <c r="A356" t="n" s="0">
+        <v>355.0</v>
+      </c>
+      <c r="B356" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C356" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D356" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="E356" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F356" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="G356" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="H356" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I356" t="s" s="0">
+        <v>1182</v>
+      </c>
+      <c r="J356" t="s" s="0">
+        <v>873</v>
+      </c>
+      <c r="K356" s="0"/>
+      <c r="L356" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="M356" s="0"/>
+    </row>
+    <row r="357">
+      <c r="A357" t="n" s="0">
+        <v>356.0</v>
+      </c>
+      <c r="B357" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C357" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="D357" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="E357" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="F357" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G357" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="H357" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I357" t="s" s="0">
+        <v>1183</v>
+      </c>
+      <c r="J357" t="s" s="0">
+        <v>1184</v>
+      </c>
+      <c r="K357" s="0"/>
+      <c r="L357" t="s" s="0">
+        <v>923</v>
+      </c>
+      <c r="M357" s="0"/>
+    </row>
+    <row r="358">
+      <c r="A358" t="n" s="0">
+        <v>357.0</v>
+      </c>
+      <c r="B358" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C358" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="D358" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="E358" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="F358" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="G358" t="s" s="0">
+        <v>1185</v>
+      </c>
+      <c r="H358" t="s" s="0">
+        <v>1186</v>
+      </c>
+      <c r="I358" t="s" s="0">
+        <v>1187</v>
+      </c>
+      <c r="J358" t="s" s="0">
+        <v>1188</v>
+      </c>
+      <c r="K358" s="0"/>
+      <c r="L358" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="M358" s="0"/>
+    </row>
+    <row r="359">
+      <c r="A359" t="n" s="0">
+        <v>358.0</v>
+      </c>
+      <c r="B359" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C359" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="D359" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="E359" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="F359" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="G359" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H359" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I359" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="J359" t="s" s="0">
+        <v>1189</v>
+      </c>
+      <c r="K359" s="0"/>
+      <c r="L359" t="s" s="0">
+        <v>806</v>
+      </c>
+      <c r="M359" s="0"/>
+    </row>
+    <row r="360">
+      <c r="A360" t="n" s="0">
+        <v>359.0</v>
+      </c>
+      <c r="B360" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C360" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="D360" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="E360" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="F360" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G360" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H360" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I360" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="J360" t="s" s="0">
+        <v>1190</v>
+      </c>
+      <c r="K360" s="0"/>
+      <c r="L360" t="s" s="0">
+        <v>649</v>
+      </c>
+      <c r="M360" s="0"/>
+    </row>
+    <row r="361">
+      <c r="A361" t="n" s="0">
+        <v>360.0</v>
+      </c>
+      <c r="B361" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C361" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="D361" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="E361" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="F361" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="G361" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H361" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I361" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="J361" t="s" s="0">
+        <v>1191</v>
+      </c>
+      <c r="K361" s="0"/>
+      <c r="L361" t="s" s="0">
+        <v>684</v>
+      </c>
+      <c r="M361" s="0"/>
+    </row>
+    <row r="362">
+      <c r="A362" t="n" s="0">
+        <v>361.0</v>
+      </c>
+      <c r="B362" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C362" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="D362" t="s" s="0">
+        <v>1192</v>
+      </c>
+      <c r="E362" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="F362" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="G362" t="s" s="0">
+        <v>1040</v>
+      </c>
+      <c r="H362" t="s" s="0">
+        <v>1008</v>
+      </c>
+      <c r="I362" t="s" s="0">
+        <v>1041</v>
+      </c>
+      <c r="J362" t="s" s="0">
+        <v>1193</v>
+      </c>
+      <c r="K362" s="0"/>
+      <c r="L362" t="s" s="0">
+        <v>806</v>
+      </c>
+      <c r="M362" s="0"/>
+    </row>
+    <row r="363">
+      <c r="A363" t="n" s="0">
+        <v>362.0</v>
+      </c>
+      <c r="B363" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C363" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="D363" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="E363" t="s" s="0">
+        <v>502</v>
+      </c>
+      <c r="F363" t="s" s="0">
+        <v>503</v>
+      </c>
+      <c r="G363" t="s" s="0">
+        <v>584</v>
+      </c>
+      <c r="H363" t="s" s="0">
+        <v>585</v>
+      </c>
+      <c r="I363" t="s" s="0">
+        <v>586</v>
+      </c>
+      <c r="J363" t="s" s="0">
+        <v>1194</v>
+      </c>
+      <c r="K363" s="0"/>
+      <c r="L363" t="s" s="0">
+        <v>420</v>
+      </c>
+      <c r="M363" s="0"/>
+    </row>
+    <row r="364">
+      <c r="A364" t="n" s="0">
+        <v>363.0</v>
+      </c>
+      <c r="B364" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C364" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="D364" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="E364" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F364" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G364" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="H364" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I364" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="J364" t="s" s="0">
+        <v>1195</v>
+      </c>
+      <c r="K364" s="0"/>
+      <c r="L364" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="M364" s="0"/>
+    </row>
+    <row r="365">
+      <c r="A365" t="n" s="0">
+        <v>364.0</v>
+      </c>
+      <c r="B365" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C365" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="D365" t="s" s="0">
+        <v>1196</v>
+      </c>
+      <c r="E365" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="F365" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="G365" t="s" s="0">
+        <v>1197</v>
+      </c>
+      <c r="H365" t="s" s="0">
+        <v>1008</v>
+      </c>
+      <c r="I365" t="s" s="0">
+        <v>1198</v>
+      </c>
+      <c r="J365" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="K365" s="0"/>
+      <c r="L365" t="s" s="0">
+        <v>871</v>
+      </c>
+      <c r="M365" s="0"/>
+    </row>
+    <row r="366">
+      <c r="A366" t="n" s="0">
+        <v>365.0</v>
+      </c>
+      <c r="B366" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C366" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="D366" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="E366" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="F366" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="G366" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H366" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I366" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="J366" t="s" s="0">
+        <v>1199</v>
+      </c>
+      <c r="K366" s="0"/>
+      <c r="L366" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="M366" s="0"/>
+    </row>
+    <row r="367">
+      <c r="A367" t="n" s="0">
+        <v>366.0</v>
+      </c>
+      <c r="B367" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C367" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="D367" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="E367" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="F367" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="G367" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="H367" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I367" t="s" s="0">
+        <v>959</v>
+      </c>
+      <c r="J367" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="K367" s="0"/>
+      <c r="L367" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="M367" s="0"/>
+    </row>
+    <row r="368">
+      <c r="A368" t="n" s="0">
+        <v>367.0</v>
+      </c>
+      <c r="B368" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C368" t="s" s="0">
+        <v>877</v>
+      </c>
+      <c r="D368" t="s" s="0">
+        <v>1200</v>
+      </c>
+      <c r="E368" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="F368" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="G368" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H368" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I368" t="s" s="0">
+        <v>510</v>
+      </c>
+      <c r="J368" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="K368" s="0"/>
+      <c r="L368" t="s" s="0">
+        <v>864</v>
+      </c>
+      <c r="M368" s="0"/>
+    </row>
+    <row r="369">
+      <c r="A369" t="n" s="0">
+        <v>368.0</v>
+      </c>
+      <c r="B369" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C369" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="D369" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="E369" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="F369" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="G369" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H369" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I369" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="J369" t="s" s="0">
+        <v>879</v>
+      </c>
+      <c r="K369" s="0"/>
+      <c r="L369" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="M369" s="0"/>
+    </row>
+    <row r="370">
+      <c r="A370" t="n" s="0">
+        <v>369.0</v>
+      </c>
+      <c r="B370" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C370" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="D370" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="E370" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="F370" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="G370" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H370" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I370" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="J370" t="s" s="0">
+        <v>1201</v>
+      </c>
+      <c r="K370" s="0"/>
+      <c r="L370" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="M370" s="0"/>
+    </row>
+    <row r="371">
+      <c r="A371" t="n" s="0">
+        <v>370.0</v>
+      </c>
+      <c r="B371" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C371" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="D371" t="s" s="0">
+        <v>880</v>
+      </c>
+      <c r="E371" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F371" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G371" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H371" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I371" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="J371" t="s" s="0">
+        <v>1202</v>
+      </c>
+      <c r="K371" s="0"/>
+      <c r="L371" t="s" s="0">
+        <v>684</v>
+      </c>
+      <c r="M371" s="0"/>
+    </row>
+    <row r="372">
+      <c r="A372" t="n" s="0">
+        <v>371.0</v>
+      </c>
+      <c r="B372" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C372" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="D372" t="s" s="0">
+        <v>1203</v>
+      </c>
+      <c r="E372" t="s" s="0">
+        <v>1204</v>
+      </c>
+      <c r="F372" t="s" s="0">
+        <v>1205</v>
+      </c>
+      <c r="G372" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="H372" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I372" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="J372" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="K372" s="0"/>
+      <c r="L372" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="M372" s="0"/>
+    </row>
+    <row r="373">
+      <c r="A373" t="n" s="0">
+        <v>372.0</v>
+      </c>
+      <c r="B373" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C373" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="D373" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="E373" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="F373" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="G373" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H373" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I373" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="J373" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="K373" s="0"/>
+      <c r="L373" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="M373" s="0"/>
+    </row>
+    <row r="374">
+      <c r="A374" t="n" s="0">
+        <v>373.0</v>
+      </c>
+      <c r="B374" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C374" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="D374" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="E374" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F374" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="G374" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H374" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I374" t="s" s="0">
+        <v>567</v>
+      </c>
+      <c r="J374" t="s" s="0">
+        <v>886</v>
+      </c>
+      <c r="K374" s="0"/>
+      <c r="L374" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="M374" s="0"/>
+    </row>
+    <row r="375">
+      <c r="A375" t="n" s="0">
+        <v>374.0</v>
+      </c>
+      <c r="B375" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C375" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="D375" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="E375" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="F375" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="G375" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H375" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I375" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="J375" t="s" s="0">
+        <v>1206</v>
+      </c>
+      <c r="K375" s="0"/>
+      <c r="L375" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="M375" s="0"/>
+    </row>
+    <row r="376">
+      <c r="A376" t="n" s="0">
+        <v>375.0</v>
+      </c>
+      <c r="B376" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C376" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="D376" t="s" s="0">
+        <v>884</v>
+      </c>
+      <c r="E376" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="F376" t="s" s="0">
+        <v>885</v>
+      </c>
+      <c r="G376" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H376" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I376" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="J376" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="K376" s="0"/>
+      <c r="L376" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="M376" s="0"/>
+    </row>
+    <row r="377">
+      <c r="A377" t="n" s="0">
+        <v>376.0</v>
+      </c>
+      <c r="B377" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C377" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="D377" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="E377" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="F377" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="G377" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H377" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I377" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="J377" t="s" s="0">
+        <v>1207</v>
+      </c>
+      <c r="K377" s="0"/>
+      <c r="L377" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="M377" s="0"/>
+    </row>
+    <row r="378">
+      <c r="A378" t="n" s="0">
+        <v>377.0</v>
+      </c>
+      <c r="B378" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C378" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="D378" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="E378" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="F378" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="G378" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H378" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I378" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="J378" t="s" s="0">
+        <v>1208</v>
+      </c>
+      <c r="K378" s="0"/>
+      <c r="L378" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="M378" s="0"/>
+    </row>
+    <row r="379">
+      <c r="A379" t="n" s="0">
+        <v>378.0</v>
+      </c>
+      <c r="B379" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C379" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="D379" t="s" s="0">
+        <v>890</v>
+      </c>
+      <c r="E379" t="s" s="0">
+        <v>450</v>
+      </c>
+      <c r="F379" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="G379" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H379" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I379" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="J379" t="s" s="0">
+        <v>1209</v>
+      </c>
+      <c r="K379" s="0"/>
+      <c r="L379" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="M379" s="0"/>
+    </row>
+    <row r="380">
+      <c r="A380" t="n" s="0">
+        <v>379.0</v>
+      </c>
+      <c r="B380" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C380" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="D380" t="s" s="0">
+        <v>893</v>
+      </c>
+      <c r="E380" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="F380" t="s" s="0">
+        <v>894</v>
+      </c>
+      <c r="G380" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H380" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I380" t="s" s="0">
+        <v>608</v>
+      </c>
+      <c r="J380" t="s" s="0">
+        <v>1210</v>
+      </c>
+      <c r="K380" s="0"/>
+      <c r="L380" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="M380" s="0"/>
+    </row>
+    <row r="381">
+      <c r="A381" t="n" s="0">
+        <v>380.0</v>
+      </c>
+      <c r="B381" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C381" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="D381" t="s" s="0">
+        <v>655</v>
+      </c>
+      <c r="E381" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="F381" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="G381" t="s" s="0">
+        <v>875</v>
+      </c>
+      <c r="H381" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I381" t="s" s="0">
+        <v>1211</v>
+      </c>
+      <c r="J381" t="s" s="0">
+        <v>1212</v>
+      </c>
+      <c r="K381" s="0"/>
+      <c r="L381" t="s" s="0">
+        <v>279</v>
+      </c>
+      <c r="M381" s="0"/>
+    </row>
+    <row r="382">
+      <c r="A382" t="n" s="0">
+        <v>381.0</v>
+      </c>
+      <c r="B382" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C382" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="D382" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="E382" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="F382" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="G382" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="H382" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="I382" t="s" s="0">
+        <v>1213</v>
+      </c>
+      <c r="J382" t="s" s="0">
+        <v>1214</v>
+      </c>
+      <c r="K382" s="0"/>
+      <c r="L382" t="s" s="0">
+        <v>864</v>
+      </c>
+      <c r="M382" s="0"/>
+    </row>
+    <row r="383">
+      <c r="A383" t="n" s="0">
+        <v>382.0</v>
+      </c>
+      <c r="B383" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C383" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="D383" t="s" s="0">
+        <v>1215</v>
+      </c>
+      <c r="E383" t="s" s="0">
+        <v>1216</v>
+      </c>
+      <c r="F383" t="s" s="0">
+        <v>1217</v>
+      </c>
+      <c r="G383" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H383" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I383" t="s" s="0">
+        <v>1218</v>
+      </c>
+      <c r="J383" t="s" s="0">
+        <v>1219</v>
+      </c>
+      <c r="K383" s="0"/>
+      <c r="L383" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="M383" s="0"/>
+    </row>
+    <row r="384">
+      <c r="A384" t="n" s="0">
+        <v>383.0</v>
+      </c>
+      <c r="B384" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C384" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="D384" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="E384" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="F384" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="G384" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H384" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I384" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="J384" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="K384" s="0"/>
+      <c r="L384" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="M384" s="0"/>
+    </row>
+    <row r="385">
+      <c r="A385" t="n" s="0">
+        <v>384.0</v>
+      </c>
+      <c r="B385" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C385" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="D385" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="E385" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F385" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="G385" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="H385" t="s" s="0">
+        <v>627</v>
+      </c>
+      <c r="I385" t="s" s="0">
+        <v>1220</v>
+      </c>
+      <c r="J385" t="s" s="0">
+        <v>1221</v>
+      </c>
+      <c r="K385" s="0"/>
+      <c r="L385" t="s" s="0">
+        <v>420</v>
+      </c>
+      <c r="M385" s="0"/>
+    </row>
+    <row r="386">
+      <c r="A386" t="n" s="0">
+        <v>385.0</v>
+      </c>
+      <c r="B386" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C386" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="D386" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="E386" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="F386" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="G386" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H386" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="I386" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="J386" t="s" s="0">
+        <v>1222</v>
+      </c>
+      <c r="K386" s="0"/>
+      <c r="L386" t="s" s="0">
+        <v>787</v>
+      </c>
+      <c r="M386" s="0"/>
+    </row>
+    <row r="387">
+      <c r="A387" t="n" s="0">
+        <v>386.0</v>
+      </c>
+      <c r="B387" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C387" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="D387" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="E387" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F387" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="G387" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H387" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I387" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="J387" t="s" s="0">
+        <v>906</v>
+      </c>
+      <c r="K387" s="0"/>
+      <c r="L387" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="M387" s="0"/>
+    </row>
+    <row r="388">
+      <c r="A388" t="n" s="0">
+        <v>387.0</v>
+      </c>
+      <c r="B388" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C388" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="D388" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="E388" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="F388" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="G388" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H388" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="I388" t="s" s="0">
+        <v>1223</v>
+      </c>
+      <c r="J388" t="s" s="0">
+        <v>1224</v>
+      </c>
+      <c r="K388" s="0"/>
+      <c r="L388" t="s" s="0">
+        <v>649</v>
+      </c>
+      <c r="M388" s="0"/>
+    </row>
+    <row r="389">
+      <c r="A389" t="n" s="0">
+        <v>388.0</v>
+      </c>
+      <c r="B389" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C389" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="D389" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="E389" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="F389" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="G389" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H389" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I389" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="J389" t="s" s="0">
+        <v>1225</v>
+      </c>
+      <c r="K389" s="0"/>
+      <c r="L389" t="s" s="0">
+        <v>569</v>
+      </c>
+      <c r="M389" s="0"/>
+    </row>
+    <row r="390">
+      <c r="A390" t="n" s="0">
+        <v>389.0</v>
+      </c>
+      <c r="B390" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C390" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="D390" t="s" s="0">
+        <v>1226</v>
+      </c>
+      <c r="E390" t="s" s="0">
+        <v>1227</v>
+      </c>
+      <c r="F390" t="s" s="0">
+        <v>1228</v>
+      </c>
+      <c r="G390" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H390" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I390" t="s" s="0">
+        <v>494</v>
+      </c>
+      <c r="J390" t="s" s="0">
+        <v>916</v>
+      </c>
+      <c r="K390" s="0"/>
+      <c r="L390" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="M390" s="0"/>
+    </row>
+    <row r="391">
+      <c r="A391" t="n" s="0">
+        <v>390.0</v>
+      </c>
+      <c r="B391" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C391" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="D391" t="s" s="0">
+        <v>1229</v>
+      </c>
+      <c r="E391" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="F391" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="G391" t="s" s="0">
+        <v>560</v>
+      </c>
+      <c r="H391" t="s" s="0">
+        <v>1230</v>
+      </c>
+      <c r="I391" t="s" s="0">
+        <v>1231</v>
+      </c>
+      <c r="J391" t="s" s="0">
+        <v>1232</v>
+      </c>
+      <c r="K391" s="0"/>
+      <c r="L391" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="M391" s="0"/>
+    </row>
+    <row r="392">
+      <c r="A392" t="n" s="0">
+        <v>391.0</v>
+      </c>
+      <c r="B392" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C392" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="D392" t="s" s="0">
+        <v>1233</v>
+      </c>
+      <c r="E392" t="s" s="0">
+        <v>1083</v>
+      </c>
+      <c r="F392" t="s" s="0">
+        <v>1084</v>
+      </c>
+      <c r="G392" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H392" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I392" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="J392" t="s" s="0">
+        <v>1234</v>
+      </c>
+      <c r="K392" s="0"/>
+      <c r="L392" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="M392" s="0"/>
+    </row>
+    <row r="393">
+      <c r="A393" t="n" s="0">
+        <v>392.0</v>
+      </c>
+      <c r="B393" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C393" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="D393" t="s" s="0">
+        <v>911</v>
+      </c>
+      <c r="E393" t="s" s="0">
+        <v>624</v>
+      </c>
+      <c r="F393" t="s" s="0">
+        <v>625</v>
+      </c>
+      <c r="G393" t="s" s="0">
+        <v>626</v>
+      </c>
+      <c r="H393" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I393" t="s" s="0">
+        <v>1235</v>
+      </c>
+      <c r="J393" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="K393" s="0"/>
+      <c r="L393" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="M393" s="0"/>
+    </row>
+    <row r="394">
+      <c r="A394" t="n" s="0">
+        <v>393.0</v>
+      </c>
+      <c r="B394" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C394" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="D394" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="E394" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="F394" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="G394" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="H394" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="I394" t="s" s="0">
+        <v>1237</v>
+      </c>
+      <c r="J394" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="K394" s="0"/>
+      <c r="L394" t="s" s="0">
+        <v>674</v>
+      </c>
+      <c r="M394" s="0"/>
+    </row>
+    <row r="395">
+      <c r="A395" t="n" s="0">
+        <v>394.0</v>
+      </c>
+      <c r="B395" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C395" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="D395" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="E395" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F395" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G395" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="H395" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="I395" t="s" s="0">
+        <v>1238</v>
+      </c>
+      <c r="J395" t="s" s="0">
+        <v>1239</v>
+      </c>
+      <c r="K395" s="0"/>
+      <c r="L395" t="s" s="0">
+        <v>538</v>
+      </c>
+      <c r="M395" s="0"/>
+    </row>
+    <row r="396">
+      <c r="A396" t="n" s="0">
+        <v>395.0</v>
+      </c>
+      <c r="B396" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C396" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="D396" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="E396" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F396" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="G396" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H396" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I396" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="J396" t="s" s="0">
+        <v>1240</v>
+      </c>
+      <c r="K396" s="0"/>
+      <c r="L396" t="s" s="0">
+        <v>864</v>
+      </c>
+      <c r="M396" s="0"/>
+    </row>
+    <row r="397">
+      <c r="A397" t="n" s="0">
+        <v>396.0</v>
+      </c>
+      <c r="B397" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C397" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="D397" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="E397" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="F397" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="G397" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H397" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I397" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="J397" t="s" s="0">
+        <v>1241</v>
+      </c>
+      <c r="K397" s="0"/>
+      <c r="L397" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="M397" s="0"/>
+    </row>
+    <row r="398">
+      <c r="A398" t="n" s="0">
+        <v>397.0</v>
+      </c>
+      <c r="B398" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C398" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="D398" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="E398" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="F398" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="G398" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="H398" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I398" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="J398" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="K398" s="0"/>
+      <c r="L398" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="M398" s="0"/>
+    </row>
+    <row r="399">
+      <c r="A399" t="n" s="0">
+        <v>398.0</v>
+      </c>
+      <c r="B399" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C399" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="D399" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="E399" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F399" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G399" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H399" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I399" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="J399" t="s" s="0">
+        <v>1242</v>
+      </c>
+      <c r="K399" s="0"/>
+      <c r="L399" t="s" s="0">
+        <v>1243</v>
+      </c>
+      <c r="M399" s="0"/>
+    </row>
+    <row r="400">
+      <c r="A400" t="n" s="0">
+        <v>399.0</v>
+      </c>
+      <c r="B400" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C400" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="D400" t="s" s="0">
+        <v>1244</v>
+      </c>
+      <c r="E400" t="s" s="0">
+        <v>1095</v>
+      </c>
+      <c r="F400" t="s" s="0">
+        <v>1096</v>
+      </c>
+      <c r="G400" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H400" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I400" t="s" s="0">
+        <v>928</v>
+      </c>
+      <c r="J400" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="K400" s="0"/>
+      <c r="L400" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="M400" s="0"/>
+    </row>
+    <row r="401">
+      <c r="A401" t="n" s="0">
+        <v>400.0</v>
+      </c>
+      <c r="B401" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C401" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="D401" t="s" s="0">
+        <v>301</v>
+      </c>
+      <c r="E401" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="F401" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G401" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H401" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I401" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="J401" t="s" s="0">
+        <v>1245</v>
+      </c>
+      <c r="K401" s="0"/>
+      <c r="L401" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="M401" s="0"/>
+    </row>
+    <row r="402">
+      <c r="A402" t="n" s="0">
+        <v>401.0</v>
+      </c>
+      <c r="B402" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C402" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="D402" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="E402" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="F402" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="G402" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H402" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I402" t="s" s="0">
+        <v>730</v>
+      </c>
+      <c r="J402" t="s" s="0">
+        <v>1246</v>
+      </c>
+      <c r="K402" s="0"/>
+      <c r="L402" t="s" s="0">
+        <v>439</v>
+      </c>
+      <c r="M402" s="0"/>
+    </row>
+    <row r="403">
+      <c r="A403" t="n" s="0">
+        <v>402.0</v>
+      </c>
+      <c r="B403" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C403" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="D403" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="E403" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="F403" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="G403" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="H403" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I403" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="J403" t="s" s="0">
+        <v>1247</v>
+      </c>
+      <c r="K403" s="0"/>
+      <c r="L403" t="s" s="0">
+        <v>806</v>
+      </c>
+      <c r="M403" s="0"/>
+    </row>
+    <row r="404">
+      <c r="A404" t="n" s="0">
+        <v>403.0</v>
+      </c>
+      <c r="B404" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C404" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="D404" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="E404" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="F404" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="G404" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H404" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I404" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="J404" t="s" s="0">
+        <v>1248</v>
+      </c>
+      <c r="K404" s="0"/>
+      <c r="L404" t="s" s="0">
+        <v>677</v>
+      </c>
+      <c r="M404" s="0"/>
+    </row>
+    <row r="405">
+      <c r="A405" t="n" s="0">
+        <v>404.0</v>
+      </c>
+      <c r="B405" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C405" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="D405" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="E405" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="F405" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="G405" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H405" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I405" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="J405" t="s" s="0">
+        <v>917</v>
+      </c>
+      <c r="K405" s="0"/>
+      <c r="L405" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="M405" s="0"/>
+    </row>
+    <row r="406">
+      <c r="A406" t="n" s="0">
+        <v>405.0</v>
+      </c>
+      <c r="B406" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C406" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="D406" t="s" s="0">
+        <v>929</v>
+      </c>
+      <c r="E406" t="s" s="0">
+        <v>517</v>
+      </c>
+      <c r="F406" t="s" s="0">
+        <v>518</v>
+      </c>
+      <c r="G406" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H406" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I406" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="J406" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="K406" s="0"/>
+      <c r="L406" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="M406" s="0"/>
+    </row>
+    <row r="407">
+      <c r="A407" t="n" s="0">
+        <v>406.0</v>
+      </c>
+      <c r="B407" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C407" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="D407" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="E407" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="F407" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="G407" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H407" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I407" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="J407" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="K407" s="0"/>
+      <c r="L407" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="M407" s="0"/>
+    </row>
+    <row r="408">
+      <c r="A408" t="n" s="0">
+        <v>407.0</v>
+      </c>
+      <c r="B408" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C408" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="D408" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="E408" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="F408" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="G408" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H408" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I408" t="s" s="0">
+        <v>332</v>
+      </c>
+      <c r="J408" t="s" s="0">
+        <v>1249</v>
+      </c>
+      <c r="K408" s="0"/>
+      <c r="L408" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="M408" s="0"/>
+    </row>
+    <row r="409">
+      <c r="A409" t="n" s="0">
+        <v>408.0</v>
+      </c>
+      <c r="B409" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C409" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="D409" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="E409" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="F409" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="G409" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H409" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I409" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="J409" t="s" s="0">
+        <v>354</v>
+      </c>
+      <c r="K409" s="0"/>
+      <c r="L409" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="M409" s="0"/>
+    </row>
+    <row r="410">
+      <c r="A410" t="n" s="0">
+        <v>409.0</v>
+      </c>
+      <c r="B410" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C410" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="D410" t="s" s="0">
+        <v>346</v>
+      </c>
+      <c r="E410" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="F410" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="G410" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H410" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I410" t="s" s="0">
+        <v>554</v>
+      </c>
+      <c r="J410" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="K410" s="0"/>
+      <c r="L410" t="s" s="0">
+        <v>684</v>
+      </c>
+      <c r="M410" s="0"/>
+    </row>
+    <row r="411">
+      <c r="A411" t="n" s="0">
+        <v>410.0</v>
+      </c>
+      <c r="B411" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C411" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="D411" t="s" s="0">
+        <v>1250</v>
+      </c>
+      <c r="E411" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="F411" t="s" s="0">
+        <v>1251</v>
+      </c>
+      <c r="G411" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H411" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="I411" t="s" s="0">
+        <v>961</v>
+      </c>
+      <c r="J411" t="s" s="0">
+        <v>1252</v>
+      </c>
+      <c r="K411" s="0"/>
+      <c r="L411" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="M411" s="0"/>
+    </row>
+    <row r="412">
+      <c r="A412" t="n" s="0">
+        <v>411.0</v>
+      </c>
+      <c r="B412" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C412" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="D412" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="E412" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="F412" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="G412" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="H412" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="I412" t="s" s="0">
+        <v>1253</v>
+      </c>
+      <c r="J412" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="K412" s="0"/>
+      <c r="L412" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="M412" s="0"/>
+    </row>
+    <row r="413">
+      <c r="A413" t="n" s="0">
+        <v>412.0</v>
+      </c>
+      <c r="B413" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C413" t="s" s="0">
+        <v>354</v>
+      </c>
+      <c r="D413" t="s" s="0">
+        <v>1254</v>
+      </c>
+      <c r="E413" t="s" s="0">
+        <v>532</v>
+      </c>
+      <c r="F413" t="s" s="0">
+        <v>533</v>
+      </c>
+      <c r="G413" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H413" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I413" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="J413" t="s" s="0">
+        <v>1255</v>
+      </c>
+      <c r="K413" s="0"/>
+      <c r="L413" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="M413" s="0"/>
+    </row>
+    <row r="414">
+      <c r="A414" t="n" s="0">
+        <v>413.0</v>
+      </c>
+      <c r="B414" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C414" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="D414" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="E414" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="F414" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="G414" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H414" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="I414" t="s" s="0">
+        <v>460</v>
+      </c>
+      <c r="J414" t="s" s="0">
+        <v>1256</v>
+      </c>
+      <c r="K414" s="0"/>
+      <c r="L414" t="s" s="0">
+        <v>1257</v>
+      </c>
+      <c r="M414" s="0"/>
+    </row>
+    <row r="415">
+      <c r="A415" t="n" s="0">
+        <v>414.0</v>
+      </c>
+      <c r="B415" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C415" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="D415" t="s" s="0">
+        <v>1258</v>
+      </c>
+      <c r="E415" t="s" s="0">
+        <v>904</v>
+      </c>
+      <c r="F415" t="s" s="0">
+        <v>905</v>
+      </c>
+      <c r="G415" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H415" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I415" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="J415" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="K415" s="0"/>
+      <c r="L415" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="M415" s="0"/>
+    </row>
+    <row r="416">
+      <c r="A416" t="n" s="0">
+        <v>415.0</v>
+      </c>
+      <c r="B416" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C416" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="D416" t="s" s="0">
+        <v>371</v>
+      </c>
+      <c r="E416" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="F416" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="G416" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H416" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I416" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="J416" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="K416" s="0"/>
+      <c r="L416" t="s" s="0">
+        <v>889</v>
+      </c>
+      <c r="M416" s="0"/>
+    </row>
+    <row r="417">
+      <c r="A417" t="n" s="0">
+        <v>416.0</v>
+      </c>
+      <c r="B417" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C417" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="D417" t="s" s="0">
+        <v>376</v>
+      </c>
+      <c r="E417" t="s" s="0">
+        <v>377</v>
+      </c>
+      <c r="F417" t="s" s="0">
+        <v>378</v>
+      </c>
+      <c r="G417" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H417" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="I417" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="J417" t="s" s="0">
+        <v>943</v>
+      </c>
+      <c r="K417" s="0"/>
+      <c r="L417" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="M417" s="0"/>
+    </row>
+    <row r="418">
+      <c r="A418" t="n" s="0">
+        <v>417.0</v>
+      </c>
+      <c r="B418" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C418" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="D418" t="s" s="0">
+        <v>366</v>
+      </c>
+      <c r="E418" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="F418" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="G418" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H418" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I418" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="J418" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="K418" s="0"/>
+      <c r="L418" t="s" s="0">
+        <v>569</v>
+      </c>
+      <c r="M418" s="0"/>
+    </row>
+    <row r="419">
+      <c r="A419" t="n" s="0">
+        <v>418.0</v>
+      </c>
+      <c r="B419" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C419" t="s" s="0">
+        <v>382</v>
+      </c>
+      <c r="D419" t="s" s="0">
+        <v>383</v>
+      </c>
+      <c r="E419" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F419" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G419" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H419" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I419" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="J419" t="s" s="0">
+        <v>1259</v>
+      </c>
+      <c r="K419" s="0"/>
+      <c r="L419" t="s" s="0">
+        <v>538</v>
+      </c>
+      <c r="M419" s="0"/>
+    </row>
+    <row r="420">
+      <c r="A420" t="n" s="0">
+        <v>419.0</v>
+      </c>
+      <c r="B420" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C420" t="s" s="0">
+        <v>382</v>
+      </c>
+      <c r="D420" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="E420" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F420" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G420" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H420" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I420" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="J420" t="s" s="0">
+        <v>344</v>
+      </c>
+      <c r="K420" s="0"/>
+      <c r="L420" t="s" s="0">
+        <v>322</v>
+      </c>
+      <c r="M420" s="0"/>
+    </row>
+    <row r="421">
+      <c r="A421" t="n" s="0">
+        <v>420.0</v>
+      </c>
+      <c r="B421" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C421" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="D421" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="E421" t="s" s="0">
+        <v>393</v>
+      </c>
+      <c r="F421" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="G421" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H421" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I421" t="s" s="0">
+        <v>891</v>
+      </c>
+      <c r="J421" t="s" s="0">
+        <v>390</v>
+      </c>
+      <c r="K421" s="0"/>
+      <c r="L421" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M421" s="0"/>
+    </row>
+    <row r="422">
+      <c r="A422" t="n" s="0">
+        <v>421.0</v>
+      </c>
+      <c r="B422" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C422" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="D422" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="E422" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="F422" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="G422" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H422" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I422" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="J422" t="s" s="0">
+        <v>931</v>
+      </c>
+      <c r="K422" s="0"/>
+      <c r="L422" t="s" s="0">
+        <v>569</v>
+      </c>
+      <c r="M422" s="0"/>
+    </row>
+    <row r="423">
+      <c r="A423" t="n" s="0">
+        <v>422.0</v>
+      </c>
+      <c r="B423" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C423" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="D423" t="s" s="0">
+        <v>1260</v>
+      </c>
+      <c r="E423" t="s" s="0">
+        <v>1261</v>
+      </c>
+      <c r="F423" t="s" s="0">
+        <v>1262</v>
+      </c>
+      <c r="G423" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H423" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I423" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="J423" t="s" s="0">
+        <v>1263</v>
+      </c>
+      <c r="K423" s="0"/>
+      <c r="L423" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="M423" s="0"/>
+    </row>
+    <row r="424">
+      <c r="A424" t="n" s="0">
+        <v>423.0</v>
+      </c>
+      <c r="B424" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C424" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="D424" t="s" s="0">
+        <v>421</v>
+      </c>
+      <c r="E424" t="s" s="0">
+        <v>422</v>
+      </c>
+      <c r="F424" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="G424" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="H424" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I424" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="J424" t="s" s="0">
+        <v>430</v>
+      </c>
+      <c r="K424" s="0"/>
+      <c r="L424" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M424" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/WAW_Arrivals.xlsx
+++ b/DataBase/WAW_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4241" uniqueCount="1264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4631" uniqueCount="1295">
   <si>
     <t>NUMBER</t>
   </si>
@@ -3804,6 +3804,99 @@
   </si>
   <si>
     <t>1:29 PM</t>
+  </si>
+  <si>
+    <t>(D-AIBA)</t>
+  </si>
+  <si>
+    <t>1:47 PM</t>
+  </si>
+  <si>
+    <t>1:53 PM</t>
+  </si>
+  <si>
+    <t>2:31 PM</t>
+  </si>
+  <si>
+    <t>2:23 PM</t>
+  </si>
+  <si>
+    <t>2:49 PM</t>
+  </si>
+  <si>
+    <t>2:45 PM</t>
+  </si>
+  <si>
+    <t>3:00 PM</t>
+  </si>
+  <si>
+    <t>3:24 PM</t>
+  </si>
+  <si>
+    <t>LO6592</t>
+  </si>
+  <si>
+    <t>BA842</t>
+  </si>
+  <si>
+    <t>(G-EUUA)</t>
+  </si>
+  <si>
+    <t>3:28 PM</t>
+  </si>
+  <si>
+    <t>3:22 PM</t>
+  </si>
+  <si>
+    <t>1 hours, 34 minutes</t>
+  </si>
+  <si>
+    <t>4:19 PM</t>
+  </si>
+  <si>
+    <t>(F-HBLR)</t>
+  </si>
+  <si>
+    <t>4:42 PM</t>
+  </si>
+  <si>
+    <t>3:52 PM</t>
+  </si>
+  <si>
+    <t>A332</t>
+  </si>
+  <si>
+    <t>(B-6090)</t>
+  </si>
+  <si>
+    <t>4:35 PM</t>
+  </si>
+  <si>
+    <t>W61466</t>
+  </si>
+  <si>
+    <t>Bologna</t>
+  </si>
+  <si>
+    <t>(BLQ)</t>
+  </si>
+  <si>
+    <t>5:29 PM</t>
+  </si>
+  <si>
+    <t>(SX-NAH)</t>
+  </si>
+  <si>
+    <t>4:48 PM</t>
+  </si>
+  <si>
+    <t>5:44 PM</t>
+  </si>
+  <si>
+    <t>5:21 PM</t>
+  </si>
+  <si>
+    <t>5:46 PM</t>
   </si>
 </sst>
 </file>
@@ -3848,7 +3941,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M424"/>
+  <dimension ref="A1:M463"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -19540,6 +19633,1449 @@
       </c>
       <c r="M424" s="0"/>
     </row>
+    <row r="425">
+      <c r="A425" t="n" s="0">
+        <v>424.0</v>
+      </c>
+      <c r="B425" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C425" t="s" s="0">
+        <v>435</v>
+      </c>
+      <c r="D425" t="s" s="0">
+        <v>440</v>
+      </c>
+      <c r="E425" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F425" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="G425" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H425" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I425" t="s" s="0">
+        <v>441</v>
+      </c>
+      <c r="J425" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="K425" s="0"/>
+      <c r="L425" t="s" s="0">
+        <v>677</v>
+      </c>
+      <c r="M425" s="0"/>
+    </row>
+    <row r="426">
+      <c r="A426" t="n" s="0">
+        <v>425.0</v>
+      </c>
+      <c r="B426" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C426" t="s" s="0">
+        <v>435</v>
+      </c>
+      <c r="D426" t="s" s="0">
+        <v>436</v>
+      </c>
+      <c r="E426" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="F426" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="G426" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="H426" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="I426" t="s" s="0">
+        <v>437</v>
+      </c>
+      <c r="J426" t="s" s="0">
+        <v>962</v>
+      </c>
+      <c r="K426" s="0"/>
+      <c r="L426" t="s" s="0">
+        <v>334</v>
+      </c>
+      <c r="M426" s="0"/>
+    </row>
+    <row r="427">
+      <c r="A427" t="n" s="0">
+        <v>426.0</v>
+      </c>
+      <c r="B427" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C427" t="s" s="0">
+        <v>443</v>
+      </c>
+      <c r="D427" t="s" s="0">
+        <v>444</v>
+      </c>
+      <c r="E427" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="F427" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G427" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="H427" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="I427" t="s" s="0">
+        <v>1264</v>
+      </c>
+      <c r="J427" t="s" s="0">
+        <v>481</v>
+      </c>
+      <c r="K427" s="0"/>
+      <c r="L427" t="s" s="0">
+        <v>1024</v>
+      </c>
+      <c r="M427" s="0"/>
+    </row>
+    <row r="428">
+      <c r="A428" t="n" s="0">
+        <v>427.0</v>
+      </c>
+      <c r="B428" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C428" t="s" s="0">
+        <v>448</v>
+      </c>
+      <c r="D428" t="s" s="0">
+        <v>449</v>
+      </c>
+      <c r="E428" t="s" s="0">
+        <v>450</v>
+      </c>
+      <c r="F428" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="G428" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="H428" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I428" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="J428" t="s" s="0">
+        <v>1265</v>
+      </c>
+      <c r="K428" s="0"/>
+      <c r="L428" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="M428" s="0"/>
+    </row>
+    <row r="429">
+      <c r="A429" t="n" s="0">
+        <v>428.0</v>
+      </c>
+      <c r="B429" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C429" t="s" s="0">
+        <v>448</v>
+      </c>
+      <c r="D429" t="s" s="0">
+        <v>453</v>
+      </c>
+      <c r="E429" t="s" s="0">
+        <v>454</v>
+      </c>
+      <c r="F429" t="s" s="0">
+        <v>455</v>
+      </c>
+      <c r="G429" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H429" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I429" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="J429" t="s" s="0">
+        <v>448</v>
+      </c>
+      <c r="K429" s="0"/>
+      <c r="L429" t="s" s="0">
+        <v>674</v>
+      </c>
+      <c r="M429" s="0"/>
+    </row>
+    <row r="430">
+      <c r="A430" t="n" s="0">
+        <v>429.0</v>
+      </c>
+      <c r="B430" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C430" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="D430" t="s" s="0">
+        <v>463</v>
+      </c>
+      <c r="E430" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="F430" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="G430" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H430" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I430" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="J430" t="s" s="0">
+        <v>1266</v>
+      </c>
+      <c r="K430" s="0"/>
+      <c r="L430" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="M430" s="0"/>
+    </row>
+    <row r="431">
+      <c r="A431" t="n" s="0">
+        <v>430.0</v>
+      </c>
+      <c r="B431" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C431" t="s" s="0">
+        <v>476</v>
+      </c>
+      <c r="D431" t="s" s="0">
+        <v>477</v>
+      </c>
+      <c r="E431" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F431" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G431" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H431" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I431" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="J431" t="s" s="0">
+        <v>1267</v>
+      </c>
+      <c r="K431" s="0"/>
+      <c r="L431" t="s" s="0">
+        <v>322</v>
+      </c>
+      <c r="M431" s="0"/>
+    </row>
+    <row r="432">
+      <c r="A432" t="n" s="0">
+        <v>431.0</v>
+      </c>
+      <c r="B432" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C432" t="s" s="0">
+        <v>476</v>
+      </c>
+      <c r="D432" t="s" s="0">
+        <v>402</v>
+      </c>
+      <c r="E432" t="s" s="0">
+        <v>403</v>
+      </c>
+      <c r="F432" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="G432" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H432" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I432" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="J432" t="s" s="0">
+        <v>470</v>
+      </c>
+      <c r="K432" s="0"/>
+      <c r="L432" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="M432" s="0"/>
+    </row>
+    <row r="433">
+      <c r="A433" t="n" s="0">
+        <v>432.0</v>
+      </c>
+      <c r="B433" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C433" t="s" s="0">
+        <v>481</v>
+      </c>
+      <c r="D433" t="s" s="0">
+        <v>482</v>
+      </c>
+      <c r="E433" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="F433" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="G433" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="H433" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I433" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="J433" t="s" s="0">
+        <v>1268</v>
+      </c>
+      <c r="K433" s="0"/>
+      <c r="L433" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="M433" s="0"/>
+    </row>
+    <row r="434">
+      <c r="A434" t="n" s="0">
+        <v>433.0</v>
+      </c>
+      <c r="B434" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C434" t="s" s="0">
+        <v>485</v>
+      </c>
+      <c r="D434" t="s" s="0">
+        <v>486</v>
+      </c>
+      <c r="E434" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="F434" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="G434" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H434" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I434" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="J434" t="s" s="0">
+        <v>1269</v>
+      </c>
+      <c r="K434" s="0"/>
+      <c r="L434" t="s" s="0">
+        <v>420</v>
+      </c>
+      <c r="M434" s="0"/>
+    </row>
+    <row r="435">
+      <c r="A435" t="n" s="0">
+        <v>434.0</v>
+      </c>
+      <c r="B435" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C435" t="s" s="0">
+        <v>485</v>
+      </c>
+      <c r="D435" t="s" s="0">
+        <v>968</v>
+      </c>
+      <c r="E435" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F435" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G435" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H435" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I435" t="s" s="0">
+        <v>429</v>
+      </c>
+      <c r="J435" t="s" s="0">
+        <v>1270</v>
+      </c>
+      <c r="K435" s="0"/>
+      <c r="L435" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="M435" s="0"/>
+    </row>
+    <row r="436">
+      <c r="A436" t="n" s="0">
+        <v>435.0</v>
+      </c>
+      <c r="B436" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C436" t="s" s="0">
+        <v>490</v>
+      </c>
+      <c r="D436" t="s" s="0">
+        <v>974</v>
+      </c>
+      <c r="E436" t="s" s="0">
+        <v>975</v>
+      </c>
+      <c r="F436" t="s" s="0">
+        <v>976</v>
+      </c>
+      <c r="G436" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H436" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I436" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="J436" t="s" s="0">
+        <v>406</v>
+      </c>
+      <c r="K436" s="0"/>
+      <c r="L436" t="s" s="0">
+        <v>569</v>
+      </c>
+      <c r="M436" s="0"/>
+    </row>
+    <row r="437">
+      <c r="A437" t="n" s="0">
+        <v>436.0</v>
+      </c>
+      <c r="B437" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C437" t="s" s="0">
+        <v>496</v>
+      </c>
+      <c r="D437" t="s" s="0">
+        <v>497</v>
+      </c>
+      <c r="E437" t="s" s="0">
+        <v>498</v>
+      </c>
+      <c r="F437" t="s" s="0">
+        <v>499</v>
+      </c>
+      <c r="G437" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H437" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I437" t="s" s="0">
+        <v>510</v>
+      </c>
+      <c r="J437" t="s" s="0">
+        <v>1271</v>
+      </c>
+      <c r="K437" s="0"/>
+      <c r="L437" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="M437" s="0"/>
+    </row>
+    <row r="438">
+      <c r="A438" t="n" s="0">
+        <v>437.0</v>
+      </c>
+      <c r="B438" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C438" t="s" s="0">
+        <v>1272</v>
+      </c>
+      <c r="D438" t="s" s="0">
+        <v>1273</v>
+      </c>
+      <c r="E438" t="s" s="0">
+        <v>1021</v>
+      </c>
+      <c r="F438" t="s" s="0">
+        <v>1022</v>
+      </c>
+      <c r="G438" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H438" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="I438" t="s" s="0">
+        <v>907</v>
+      </c>
+      <c r="J438" t="s" s="0">
+        <v>979</v>
+      </c>
+      <c r="K438" s="0"/>
+      <c r="L438" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="M438" s="0"/>
+    </row>
+    <row r="439">
+      <c r="A439" t="n" s="0">
+        <v>438.0</v>
+      </c>
+      <c r="B439" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C439" t="s" s="0">
+        <v>500</v>
+      </c>
+      <c r="D439" t="s" s="0">
+        <v>1274</v>
+      </c>
+      <c r="E439" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F439" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="G439" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="H439" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I439" t="s" s="0">
+        <v>1275</v>
+      </c>
+      <c r="J439" t="s" s="0">
+        <v>490</v>
+      </c>
+      <c r="K439" s="0"/>
+      <c r="L439" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="M439" s="0"/>
+    </row>
+    <row r="440">
+      <c r="A440" t="n" s="0">
+        <v>439.0</v>
+      </c>
+      <c r="B440" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C440" t="s" s="0">
+        <v>506</v>
+      </c>
+      <c r="D440" t="s" s="0">
+        <v>987</v>
+      </c>
+      <c r="E440" t="s" s="0">
+        <v>988</v>
+      </c>
+      <c r="F440" t="s" s="0">
+        <v>989</v>
+      </c>
+      <c r="G440" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H440" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I440" t="s" s="0">
+        <v>478</v>
+      </c>
+      <c r="J440" t="s" s="0">
+        <v>1001</v>
+      </c>
+      <c r="K440" s="0"/>
+      <c r="L440" t="s" s="0">
+        <v>677</v>
+      </c>
+      <c r="M440" s="0"/>
+    </row>
+    <row r="441">
+      <c r="A441" t="n" s="0">
+        <v>440.0</v>
+      </c>
+      <c r="B441" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C441" t="s" s="0">
+        <v>506</v>
+      </c>
+      <c r="D441" t="s" s="0">
+        <v>507</v>
+      </c>
+      <c r="E441" t="s" s="0">
+        <v>508</v>
+      </c>
+      <c r="F441" t="s" s="0">
+        <v>509</v>
+      </c>
+      <c r="G441" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H441" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I441" t="s" s="0">
+        <v>567</v>
+      </c>
+      <c r="J441" t="s" s="0">
+        <v>1276</v>
+      </c>
+      <c r="K441" s="0"/>
+      <c r="L441" t="s" s="0">
+        <v>806</v>
+      </c>
+      <c r="M441" s="0"/>
+    </row>
+    <row r="442">
+      <c r="A442" t="n" s="0">
+        <v>441.0</v>
+      </c>
+      <c r="B442" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C442" t="s" s="0">
+        <v>511</v>
+      </c>
+      <c r="D442" t="s" s="0">
+        <v>512</v>
+      </c>
+      <c r="E442" t="s" s="0">
+        <v>513</v>
+      </c>
+      <c r="F442" t="s" s="0">
+        <v>514</v>
+      </c>
+      <c r="G442" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H442" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I442" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="J442" t="s" s="0">
+        <v>969</v>
+      </c>
+      <c r="K442" s="0"/>
+      <c r="L442" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="M442" s="0"/>
+    </row>
+    <row r="443">
+      <c r="A443" t="n" s="0">
+        <v>442.0</v>
+      </c>
+      <c r="B443" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C443" t="s" s="0">
+        <v>996</v>
+      </c>
+      <c r="D443" t="s" s="0">
+        <v>997</v>
+      </c>
+      <c r="E443" t="s" s="0">
+        <v>669</v>
+      </c>
+      <c r="F443" t="s" s="0">
+        <v>670</v>
+      </c>
+      <c r="G443" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H443" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I443" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="J443" t="s" s="0">
+        <v>520</v>
+      </c>
+      <c r="K443" s="0"/>
+      <c r="L443" t="s" s="0">
+        <v>538</v>
+      </c>
+      <c r="M443" s="0"/>
+    </row>
+    <row r="444">
+      <c r="A444" t="n" s="0">
+        <v>443.0</v>
+      </c>
+      <c r="B444" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C444" t="s" s="0">
+        <v>530</v>
+      </c>
+      <c r="D444" t="s" s="0">
+        <v>531</v>
+      </c>
+      <c r="E444" t="s" s="0">
+        <v>532</v>
+      </c>
+      <c r="F444" t="s" s="0">
+        <v>533</v>
+      </c>
+      <c r="G444" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H444" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I444" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="J444" t="s" s="0">
+        <v>1277</v>
+      </c>
+      <c r="K444" s="0"/>
+      <c r="L444" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="M444" s="0"/>
+    </row>
+    <row r="445">
+      <c r="A445" t="n" s="0">
+        <v>444.0</v>
+      </c>
+      <c r="B445" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C445" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="D445" t="s" s="0">
+        <v>553</v>
+      </c>
+      <c r="E445" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="F445" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="G445" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H445" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I445" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="J445" t="s" s="0">
+        <v>511</v>
+      </c>
+      <c r="K445" s="0"/>
+      <c r="L445" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="M445" s="0"/>
+    </row>
+    <row r="446">
+      <c r="A446" t="n" s="0">
+        <v>445.0</v>
+      </c>
+      <c r="B446" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C446" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="D446" t="s" s="0">
+        <v>540</v>
+      </c>
+      <c r="E446" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="F446" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="G446" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H446" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I446" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="J446" t="s" s="0">
+        <v>998</v>
+      </c>
+      <c r="K446" s="0"/>
+      <c r="L446" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="M446" s="0"/>
+    </row>
+    <row r="447">
+      <c r="A447" t="n" s="0">
+        <v>446.0</v>
+      </c>
+      <c r="B447" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C447" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="D447" t="s" s="0">
+        <v>542</v>
+      </c>
+      <c r="E447" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="F447" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="G447" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H447" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I447" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="J447" t="s" s="0">
+        <v>500</v>
+      </c>
+      <c r="K447" s="0"/>
+      <c r="L447" t="s" s="0">
+        <v>889</v>
+      </c>
+      <c r="M447" s="0"/>
+    </row>
+    <row r="448">
+      <c r="A448" t="n" s="0">
+        <v>447.0</v>
+      </c>
+      <c r="B448" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C448" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="D448" t="s" s="0">
+        <v>546</v>
+      </c>
+      <c r="E448" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F448" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G448" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H448" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I448" t="s" s="0">
+        <v>554</v>
+      </c>
+      <c r="J448" t="s" s="0">
+        <v>562</v>
+      </c>
+      <c r="K448" s="0"/>
+      <c r="L448" t="s" s="0">
+        <v>923</v>
+      </c>
+      <c r="M448" s="0"/>
+    </row>
+    <row r="449">
+      <c r="A449" t="n" s="0">
+        <v>448.0</v>
+      </c>
+      <c r="B449" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C449" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="D449" t="s" s="0">
+        <v>1002</v>
+      </c>
+      <c r="E449" t="s" s="0">
+        <v>1003</v>
+      </c>
+      <c r="F449" t="s" s="0">
+        <v>1004</v>
+      </c>
+      <c r="G449" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H449" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I449" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="J449" t="s" s="0">
+        <v>541</v>
+      </c>
+      <c r="K449" s="0"/>
+      <c r="L449" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="M449" s="0"/>
+    </row>
+    <row r="450">
+      <c r="A450" t="n" s="0">
+        <v>449.0</v>
+      </c>
+      <c r="B450" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C450" t="s" s="0">
+        <v>1018</v>
+      </c>
+      <c r="D450" t="s" s="0">
+        <v>918</v>
+      </c>
+      <c r="E450" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F450" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G450" t="s" s="0">
+        <v>919</v>
+      </c>
+      <c r="H450" t="s" s="0">
+        <v>920</v>
+      </c>
+      <c r="I450" t="s" s="0">
+        <v>921</v>
+      </c>
+      <c r="J450" t="s" s="0">
+        <v>609</v>
+      </c>
+      <c r="K450" s="0"/>
+      <c r="L450" t="s" s="0">
+        <v>1278</v>
+      </c>
+      <c r="M450" s="0"/>
+    </row>
+    <row r="451">
+      <c r="A451" t="n" s="0">
+        <v>450.0</v>
+      </c>
+      <c r="B451" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C451" t="s" s="0">
+        <v>552</v>
+      </c>
+      <c r="D451" t="s" s="0">
+        <v>544</v>
+      </c>
+      <c r="E451" t="s" s="0">
+        <v>517</v>
+      </c>
+      <c r="F451" t="s" s="0">
+        <v>518</v>
+      </c>
+      <c r="G451" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="H451" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I451" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="J451" t="s" s="0">
+        <v>1279</v>
+      </c>
+      <c r="K451" s="0"/>
+      <c r="L451" t="s" s="0">
+        <v>1122</v>
+      </c>
+      <c r="M451" s="0"/>
+    </row>
+    <row r="452">
+      <c r="A452" t="n" s="0">
+        <v>451.0</v>
+      </c>
+      <c r="B452" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C452" t="s" s="0">
+        <v>552</v>
+      </c>
+      <c r="D452" t="s" s="0">
+        <v>556</v>
+      </c>
+      <c r="E452" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="F452" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="G452" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H452" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I452" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="J452" t="s" s="0">
+        <v>547</v>
+      </c>
+      <c r="K452" s="0"/>
+      <c r="L452" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="M452" s="0"/>
+    </row>
+    <row r="453">
+      <c r="A453" t="n" s="0">
+        <v>452.0</v>
+      </c>
+      <c r="B453" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C453" t="s" s="0">
+        <v>1011</v>
+      </c>
+      <c r="D453" t="s" s="0">
+        <v>1012</v>
+      </c>
+      <c r="E453" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="F453" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="G453" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H453" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I453" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="J453" t="s" s="0">
+        <v>545</v>
+      </c>
+      <c r="K453" s="0"/>
+      <c r="L453" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="M453" s="0"/>
+    </row>
+    <row r="454">
+      <c r="A454" t="n" s="0">
+        <v>453.0</v>
+      </c>
+      <c r="B454" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C454" t="s" s="0">
+        <v>1014</v>
+      </c>
+      <c r="D454" t="s" s="0">
+        <v>1015</v>
+      </c>
+      <c r="E454" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="F454" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="G454" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H454" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I454" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="J454" t="s" s="0">
+        <v>528</v>
+      </c>
+      <c r="K454" s="0"/>
+      <c r="L454" t="s" s="0">
+        <v>864</v>
+      </c>
+      <c r="M454" s="0"/>
+    </row>
+    <row r="455">
+      <c r="A455" t="n" s="0">
+        <v>454.0</v>
+      </c>
+      <c r="B455" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C455" t="s" s="0">
+        <v>563</v>
+      </c>
+      <c r="D455" t="s" s="0">
+        <v>1016</v>
+      </c>
+      <c r="E455" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F455" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G455" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="H455" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I455" t="s" s="0">
+        <v>1280</v>
+      </c>
+      <c r="J455" t="s" s="0">
+        <v>1281</v>
+      </c>
+      <c r="K455" s="0"/>
+      <c r="L455" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="M455" s="0"/>
+    </row>
+    <row r="456">
+      <c r="A456" t="n" s="0">
+        <v>455.0</v>
+      </c>
+      <c r="B456" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C456" t="s" s="0">
+        <v>563</v>
+      </c>
+      <c r="D456" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="E456" t="s" s="0">
+        <v>565</v>
+      </c>
+      <c r="F456" t="s" s="0">
+        <v>566</v>
+      </c>
+      <c r="G456" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H456" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I456" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="J456" t="s" s="0">
+        <v>1282</v>
+      </c>
+      <c r="K456" s="0"/>
+      <c r="L456" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="M456" s="0"/>
+    </row>
+    <row r="457">
+      <c r="A457" t="n" s="0">
+        <v>456.0</v>
+      </c>
+      <c r="B457" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C457" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="D457" t="s" s="0">
+        <v>570</v>
+      </c>
+      <c r="E457" t="s" s="0">
+        <v>571</v>
+      </c>
+      <c r="F457" t="s" s="0">
+        <v>572</v>
+      </c>
+      <c r="G457" t="s" s="0">
+        <v>573</v>
+      </c>
+      <c r="H457" t="s" s="0">
+        <v>1283</v>
+      </c>
+      <c r="I457" t="s" s="0">
+        <v>1284</v>
+      </c>
+      <c r="J457" t="s" s="0">
+        <v>1285</v>
+      </c>
+      <c r="K457" s="0"/>
+      <c r="L457" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="M457" s="0"/>
+    </row>
+    <row r="458">
+      <c r="A458" t="n" s="0">
+        <v>457.0</v>
+      </c>
+      <c r="B458" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C458" t="s" s="0">
+        <v>578</v>
+      </c>
+      <c r="D458" t="s" s="0">
+        <v>1286</v>
+      </c>
+      <c r="E458" t="s" s="0">
+        <v>1287</v>
+      </c>
+      <c r="F458" t="s" s="0">
+        <v>1288</v>
+      </c>
+      <c r="G458" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H458" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I458" t="s" s="0">
+        <v>494</v>
+      </c>
+      <c r="J458" t="s" s="0">
+        <v>1289</v>
+      </c>
+      <c r="K458" s="0"/>
+      <c r="L458" t="s" s="0">
+        <v>970</v>
+      </c>
+      <c r="M458" s="0"/>
+    </row>
+    <row r="459">
+      <c r="A459" t="n" s="0">
+        <v>458.0</v>
+      </c>
+      <c r="B459" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C459" t="s" s="0">
+        <v>588</v>
+      </c>
+      <c r="D459" t="s" s="0">
+        <v>1025</v>
+      </c>
+      <c r="E459" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="F459" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="G459" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H459" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I459" t="s" s="0">
+        <v>1290</v>
+      </c>
+      <c r="J459" t="s" s="0">
+        <v>1291</v>
+      </c>
+      <c r="K459" s="0"/>
+      <c r="L459" t="s" s="0">
+        <v>538</v>
+      </c>
+      <c r="M459" s="0"/>
+    </row>
+    <row r="460">
+      <c r="A460" t="n" s="0">
+        <v>459.0</v>
+      </c>
+      <c r="B460" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C460" t="s" s="0">
+        <v>600</v>
+      </c>
+      <c r="D460" t="s" s="0">
+        <v>1030</v>
+      </c>
+      <c r="E460" t="s" s="0">
+        <v>1031</v>
+      </c>
+      <c r="F460" t="s" s="0">
+        <v>1032</v>
+      </c>
+      <c r="G460" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H460" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I460" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="J460" t="s" s="0">
+        <v>1027</v>
+      </c>
+      <c r="K460" s="0"/>
+      <c r="L460" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="M460" s="0"/>
+    </row>
+    <row r="461">
+      <c r="A461" t="n" s="0">
+        <v>460.0</v>
+      </c>
+      <c r="B461" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C461" t="s" s="0">
+        <v>1034</v>
+      </c>
+      <c r="D461" t="s" s="0">
+        <v>1035</v>
+      </c>
+      <c r="E461" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="F461" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="G461" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H461" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I461" t="s" s="0">
+        <v>891</v>
+      </c>
+      <c r="J461" t="s" s="0">
+        <v>1292</v>
+      </c>
+      <c r="K461" s="0"/>
+      <c r="L461" t="s" s="0">
+        <v>864</v>
+      </c>
+      <c r="M461" s="0"/>
+    </row>
+    <row r="462">
+      <c r="A462" t="n" s="0">
+        <v>461.0</v>
+      </c>
+      <c r="B462" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C462" t="s" s="0">
+        <v>1036</v>
+      </c>
+      <c r="D462" t="s" s="0">
+        <v>617</v>
+      </c>
+      <c r="E462" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F462" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="G462" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H462" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I462" t="s" s="0">
+        <v>608</v>
+      </c>
+      <c r="J462" t="s" s="0">
+        <v>1293</v>
+      </c>
+      <c r="K462" s="0"/>
+      <c r="L462" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="M462" s="0"/>
+    </row>
+    <row r="463">
+      <c r="A463" t="n" s="0">
+        <v>462.0</v>
+      </c>
+      <c r="B463" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C463" t="s" s="0">
+        <v>620</v>
+      </c>
+      <c r="D463" t="s" s="0">
+        <v>621</v>
+      </c>
+      <c r="E463" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F463" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G463" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H463" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I463" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="J463" t="s" s="0">
+        <v>1294</v>
+      </c>
+      <c r="K463" s="0"/>
+      <c r="L463" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="M463" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/WAW_Arrivals.xlsx
+++ b/DataBase/WAW_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4631" uniqueCount="1295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5261" uniqueCount="1375">
   <si>
     <t>NUMBER</t>
   </si>
@@ -3897,6 +3897,246 @@
   </si>
   <si>
     <t>5:46 PM</t>
+  </si>
+  <si>
+    <t>6:12 PM</t>
+  </si>
+  <si>
+    <t>5:56 PM</t>
+  </si>
+  <si>
+    <t>LO654</t>
+  </si>
+  <si>
+    <t>(OE-LWI)</t>
+  </si>
+  <si>
+    <t>6:24 PM</t>
+  </si>
+  <si>
+    <t>6:48 PM</t>
+  </si>
+  <si>
+    <t>(G-TTNK)</t>
+  </si>
+  <si>
+    <t>6:46 PM</t>
+  </si>
+  <si>
+    <t>6:39 PM</t>
+  </si>
+  <si>
+    <t>6:31 PM</t>
+  </si>
+  <si>
+    <t>6:44 PM</t>
+  </si>
+  <si>
+    <t>LO434</t>
+  </si>
+  <si>
+    <t>7:01 PM</t>
+  </si>
+  <si>
+    <t>LO538</t>
+  </si>
+  <si>
+    <t>6:53 PM</t>
+  </si>
+  <si>
+    <t>7:40 PM</t>
+  </si>
+  <si>
+    <t>LO594</t>
+  </si>
+  <si>
+    <t>7:52 PM</t>
+  </si>
+  <si>
+    <t>LO6194</t>
+  </si>
+  <si>
+    <t>Phuket</t>
+  </si>
+  <si>
+    <t>(HKT)</t>
+  </si>
+  <si>
+    <t>(A6-FMU)</t>
+  </si>
+  <si>
+    <t>8:12 PM</t>
+  </si>
+  <si>
+    <t>8:25 PM</t>
+  </si>
+  <si>
+    <t>3Z7397</t>
+  </si>
+  <si>
+    <t>Fuerteventura</t>
+  </si>
+  <si>
+    <t>(FUE)</t>
+  </si>
+  <si>
+    <t>8:18 PM</t>
+  </si>
+  <si>
+    <t>8:35 PM</t>
+  </si>
+  <si>
+    <t>3Z7305</t>
+  </si>
+  <si>
+    <t>(OK-TSF)</t>
+  </si>
+  <si>
+    <t>2 hours, 5 minutes</t>
+  </si>
+  <si>
+    <t>8:30 PM</t>
+  </si>
+  <si>
+    <t>8:40 PM</t>
+  </si>
+  <si>
+    <t>10:13 PM</t>
+  </si>
+  <si>
+    <t>1 hours, 3 minutes</t>
+  </si>
+  <si>
+    <t>8:43 PM</t>
+  </si>
+  <si>
+    <t>9:20 PM</t>
+  </si>
+  <si>
+    <t>9:36 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUI </t>
+  </si>
+  <si>
+    <t>(OO-JEB)</t>
+  </si>
+  <si>
+    <t>9:31 PM</t>
+  </si>
+  <si>
+    <t>9:21 PM</t>
+  </si>
+  <si>
+    <t>9:07 PM</t>
+  </si>
+  <si>
+    <t>(G-EUYG)</t>
+  </si>
+  <si>
+    <t>9:27 PM</t>
+  </si>
+  <si>
+    <t>9:33 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 28 minutes</t>
+  </si>
+  <si>
+    <t>E45140</t>
+  </si>
+  <si>
+    <t>Salalah</t>
+  </si>
+  <si>
+    <t>(SLL)</t>
+  </si>
+  <si>
+    <t>(SP-LWF)</t>
+  </si>
+  <si>
+    <t>(F-HEPH)</t>
+  </si>
+  <si>
+    <t>10:05 PM</t>
+  </si>
+  <si>
+    <t>LO3936</t>
+  </si>
+  <si>
+    <t>9:42 PM</t>
+  </si>
+  <si>
+    <t>LO3826</t>
+  </si>
+  <si>
+    <t>10:08 PM</t>
+  </si>
+  <si>
+    <t>10:01 PM</t>
+  </si>
+  <si>
+    <t>10:21 PM</t>
+  </si>
+  <si>
+    <t>(OE-LWA)</t>
+  </si>
+  <si>
+    <t>10:28 PM</t>
+  </si>
+  <si>
+    <t>W61332</t>
+  </si>
+  <si>
+    <t>10:37 PM</t>
+  </si>
+  <si>
+    <t>10:51 PM</t>
+  </si>
+  <si>
+    <t>W61338</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>(VLC)</t>
+  </si>
+  <si>
+    <t>W61458</t>
+  </si>
+  <si>
+    <t>Naples</t>
+  </si>
+  <si>
+    <t>(NAP)</t>
+  </si>
+  <si>
+    <t>11:43 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 48 minutes</t>
+  </si>
+  <si>
+    <t>10:48 PM</t>
+  </si>
+  <si>
+    <t>W61598</t>
+  </si>
+  <si>
+    <t>Marrakesh</t>
+  </si>
+  <si>
+    <t>(RAK)</t>
+  </si>
+  <si>
+    <t>10:54 PM</t>
+  </si>
+  <si>
+    <t>11:36 PM</t>
+  </si>
+  <si>
+    <t>(PH-BGC)</t>
   </si>
 </sst>
 </file>
@@ -3941,7 +4181,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M463"/>
+  <dimension ref="A1:M526"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -21076,6 +21316,2337 @@
       </c>
       <c r="M463" s="0"/>
     </row>
+    <row r="464">
+      <c r="A464" t="n" s="0">
+        <v>463.0</v>
+      </c>
+      <c r="B464" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C464" t="s" s="0">
+        <v>1045</v>
+      </c>
+      <c r="D464" t="s" s="0">
+        <v>1046</v>
+      </c>
+      <c r="E464" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="F464" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="G464" t="s" s="0">
+        <v>1197</v>
+      </c>
+      <c r="H464" t="s" s="0">
+        <v>1008</v>
+      </c>
+      <c r="I464" t="s" s="0">
+        <v>1198</v>
+      </c>
+      <c r="J464" t="s" s="0">
+        <v>1295</v>
+      </c>
+      <c r="K464" s="0"/>
+      <c r="L464" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="M464" s="0"/>
+    </row>
+    <row r="465">
+      <c r="A465" t="n" s="0">
+        <v>464.0</v>
+      </c>
+      <c r="B465" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C465" t="s" s="0">
+        <v>615</v>
+      </c>
+      <c r="D465" t="s" s="0">
+        <v>1049</v>
+      </c>
+      <c r="E465" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="F465" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="G465" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H465" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I465" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="J465" t="s" s="0">
+        <v>1296</v>
+      </c>
+      <c r="K465" s="0"/>
+      <c r="L465" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="M465" s="0"/>
+    </row>
+    <row r="466">
+      <c r="A466" t="n" s="0">
+        <v>465.0</v>
+      </c>
+      <c r="B466" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C466" t="s" s="0">
+        <v>631</v>
+      </c>
+      <c r="D466" t="s" s="0">
+        <v>632</v>
+      </c>
+      <c r="E466" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="F466" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="G466" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H466" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I466" t="s" s="0">
+        <v>928</v>
+      </c>
+      <c r="J466" t="s" s="0">
+        <v>610</v>
+      </c>
+      <c r="K466" s="0"/>
+      <c r="L466" t="s" s="0">
+        <v>889</v>
+      </c>
+      <c r="M466" s="0"/>
+    </row>
+    <row r="467">
+      <c r="A467" t="n" s="0">
+        <v>466.0</v>
+      </c>
+      <c r="B467" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C467" t="s" s="0">
+        <v>1052</v>
+      </c>
+      <c r="D467" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="E467" t="s" s="0">
+        <v>965</v>
+      </c>
+      <c r="F467" t="s" s="0">
+        <v>966</v>
+      </c>
+      <c r="G467" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="H467" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I467" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="J467" t="s" s="0">
+        <v>615</v>
+      </c>
+      <c r="K467" s="0"/>
+      <c r="L467" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="M467" s="0"/>
+    </row>
+    <row r="468">
+      <c r="A468" t="n" s="0">
+        <v>467.0</v>
+      </c>
+      <c r="B468" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C468" t="s" s="0">
+        <v>640</v>
+      </c>
+      <c r="D468" t="s" s="0">
+        <v>646</v>
+      </c>
+      <c r="E468" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F468" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G468" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H468" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I468" t="s" s="0">
+        <v>862</v>
+      </c>
+      <c r="J468" t="s" s="0">
+        <v>1069</v>
+      </c>
+      <c r="K468" s="0"/>
+      <c r="L468" t="s" s="0">
+        <v>439</v>
+      </c>
+      <c r="M468" s="0"/>
+    </row>
+    <row r="469">
+      <c r="A469" t="n" s="0">
+        <v>468.0</v>
+      </c>
+      <c r="B469" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C469" t="s" s="0">
+        <v>1056</v>
+      </c>
+      <c r="D469" t="s" s="0">
+        <v>1057</v>
+      </c>
+      <c r="E469" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="F469" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="G469" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="H469" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I469" t="s" s="0">
+        <v>1298</v>
+      </c>
+      <c r="J469" t="s" s="0">
+        <v>1299</v>
+      </c>
+      <c r="K469" s="0"/>
+      <c r="L469" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="M469" s="0"/>
+    </row>
+    <row r="470">
+      <c r="A470" t="n" s="0">
+        <v>469.0</v>
+      </c>
+      <c r="B470" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C470" t="s" s="0">
+        <v>650</v>
+      </c>
+      <c r="D470" t="s" s="0">
+        <v>651</v>
+      </c>
+      <c r="E470" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="F470" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="G470" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H470" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I470" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="J470" t="s" s="0">
+        <v>1300</v>
+      </c>
+      <c r="K470" s="0"/>
+      <c r="L470" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="M470" s="0"/>
+    </row>
+    <row r="471">
+      <c r="A471" t="n" s="0">
+        <v>470.0</v>
+      </c>
+      <c r="B471" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C471" t="s" s="0">
+        <v>654</v>
+      </c>
+      <c r="D471" t="s" s="0">
+        <v>1060</v>
+      </c>
+      <c r="E471" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F471" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="G471" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="H471" t="s" s="0">
+        <v>627</v>
+      </c>
+      <c r="I471" t="s" s="0">
+        <v>1301</v>
+      </c>
+      <c r="J471" t="s" s="0">
+        <v>1302</v>
+      </c>
+      <c r="K471" s="0"/>
+      <c r="L471" t="s" s="0">
+        <v>322</v>
+      </c>
+      <c r="M471" s="0"/>
+    </row>
+    <row r="472">
+      <c r="A472" t="n" s="0">
+        <v>471.0</v>
+      </c>
+      <c r="B472" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C472" t="s" s="0">
+        <v>660</v>
+      </c>
+      <c r="D472" t="s" s="0">
+        <v>664</v>
+      </c>
+      <c r="E472" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F472" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="G472" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H472" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I472" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="J472" t="s" s="0">
+        <v>683</v>
+      </c>
+      <c r="K472" s="0"/>
+      <c r="L472" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="M472" s="0"/>
+    </row>
+    <row r="473">
+      <c r="A473" t="n" s="0">
+        <v>472.0</v>
+      </c>
+      <c r="B473" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C473" t="s" s="0">
+        <v>660</v>
+      </c>
+      <c r="D473" t="s" s="0">
+        <v>666</v>
+      </c>
+      <c r="E473" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="F473" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="G473" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="H473" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I473" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="J473" t="s" s="0">
+        <v>1303</v>
+      </c>
+      <c r="K473" s="0"/>
+      <c r="L473" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="M473" s="0"/>
+    </row>
+    <row r="474">
+      <c r="A474" t="n" s="0">
+        <v>473.0</v>
+      </c>
+      <c r="B474" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C474" t="s" s="0">
+        <v>660</v>
+      </c>
+      <c r="D474" t="s" s="0">
+        <v>668</v>
+      </c>
+      <c r="E474" t="s" s="0">
+        <v>669</v>
+      </c>
+      <c r="F474" t="s" s="0">
+        <v>670</v>
+      </c>
+      <c r="G474" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H474" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I474" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="J474" t="s" s="0">
+        <v>1304</v>
+      </c>
+      <c r="K474" s="0"/>
+      <c r="L474" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="M474" s="0"/>
+    </row>
+    <row r="475">
+      <c r="A475" t="n" s="0">
+        <v>474.0</v>
+      </c>
+      <c r="B475" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C475" t="s" s="0">
+        <v>672</v>
+      </c>
+      <c r="D475" t="s" s="0">
+        <v>675</v>
+      </c>
+      <c r="E475" t="s" s="0">
+        <v>454</v>
+      </c>
+      <c r="F475" t="s" s="0">
+        <v>455</v>
+      </c>
+      <c r="G475" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H475" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I475" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="J475" t="s" s="0">
+        <v>1305</v>
+      </c>
+      <c r="K475" s="0"/>
+      <c r="L475" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="M475" s="0"/>
+    </row>
+    <row r="476">
+      <c r="A476" t="n" s="0">
+        <v>475.0</v>
+      </c>
+      <c r="B476" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C476" t="s" s="0">
+        <v>678</v>
+      </c>
+      <c r="D476" t="s" s="0">
+        <v>679</v>
+      </c>
+      <c r="E476" t="s" s="0">
+        <v>498</v>
+      </c>
+      <c r="F476" t="s" s="0">
+        <v>499</v>
+      </c>
+      <c r="G476" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="H476" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I476" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="J476" t="s" s="0">
+        <v>660</v>
+      </c>
+      <c r="K476" s="0"/>
+      <c r="L476" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="M476" s="0"/>
+    </row>
+    <row r="477">
+      <c r="A477" t="n" s="0">
+        <v>476.0</v>
+      </c>
+      <c r="B477" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C477" t="s" s="0">
+        <v>681</v>
+      </c>
+      <c r="D477" t="s" s="0">
+        <v>1306</v>
+      </c>
+      <c r="E477" t="s" s="0">
+        <v>1116</v>
+      </c>
+      <c r="F477" t="s" s="0">
+        <v>1117</v>
+      </c>
+      <c r="G477" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="H477" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I477" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="J477" t="s" s="0">
+        <v>1307</v>
+      </c>
+      <c r="K477" s="0"/>
+      <c r="L477" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="M477" s="0"/>
+    </row>
+    <row r="478">
+      <c r="A478" t="n" s="0">
+        <v>477.0</v>
+      </c>
+      <c r="B478" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C478" t="s" s="0">
+        <v>692</v>
+      </c>
+      <c r="D478" t="s" s="0">
+        <v>1308</v>
+      </c>
+      <c r="E478" t="s" s="0">
+        <v>450</v>
+      </c>
+      <c r="F478" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="G478" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H478" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I478" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="J478" t="s" s="0">
+        <v>1309</v>
+      </c>
+      <c r="K478" s="0"/>
+      <c r="L478" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="M478" s="0"/>
+    </row>
+    <row r="479">
+      <c r="A479" t="n" s="0">
+        <v>478.0</v>
+      </c>
+      <c r="B479" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C479" t="s" s="0">
+        <v>685</v>
+      </c>
+      <c r="D479" t="s" s="0">
+        <v>686</v>
+      </c>
+      <c r="E479" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="F479" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="G479" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H479" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I479" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="J479" t="s" s="0">
+        <v>671</v>
+      </c>
+      <c r="K479" s="0"/>
+      <c r="L479" t="s" s="0">
+        <v>1257</v>
+      </c>
+      <c r="M479" s="0"/>
+    </row>
+    <row r="480">
+      <c r="A480" t="n" s="0">
+        <v>479.0</v>
+      </c>
+      <c r="B480" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C480" t="s" s="0">
+        <v>685</v>
+      </c>
+      <c r="D480" t="s" s="0">
+        <v>688</v>
+      </c>
+      <c r="E480" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="F480" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="G480" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H480" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I480" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="J480" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="K480" s="0"/>
+      <c r="L480" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="M480" s="0"/>
+    </row>
+    <row r="481">
+      <c r="A481" t="n" s="0">
+        <v>480.0</v>
+      </c>
+      <c r="B481" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C481" t="s" s="0">
+        <v>685</v>
+      </c>
+      <c r="D481" t="s" s="0">
+        <v>1070</v>
+      </c>
+      <c r="E481" t="s" s="0">
+        <v>532</v>
+      </c>
+      <c r="F481" t="s" s="0">
+        <v>533</v>
+      </c>
+      <c r="G481" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H481" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I481" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="J481" t="s" s="0">
+        <v>1064</v>
+      </c>
+      <c r="K481" s="0"/>
+      <c r="L481" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="M481" s="0"/>
+    </row>
+    <row r="482">
+      <c r="A482" t="n" s="0">
+        <v>481.0</v>
+      </c>
+      <c r="B482" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C482" t="s" s="0">
+        <v>690</v>
+      </c>
+      <c r="D482" t="s" s="0">
+        <v>691</v>
+      </c>
+      <c r="E482" t="s" s="0">
+        <v>513</v>
+      </c>
+      <c r="F482" t="s" s="0">
+        <v>514</v>
+      </c>
+      <c r="G482" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H482" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I482" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="J482" t="s" s="0">
+        <v>689</v>
+      </c>
+      <c r="K482" s="0"/>
+      <c r="L482" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="M482" s="0"/>
+    </row>
+    <row r="483">
+      <c r="A483" t="n" s="0">
+        <v>482.0</v>
+      </c>
+      <c r="B483" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C483" t="s" s="0">
+        <v>1310</v>
+      </c>
+      <c r="D483" t="s" s="0">
+        <v>1311</v>
+      </c>
+      <c r="E483" t="s" s="0">
+        <v>993</v>
+      </c>
+      <c r="F483" t="s" s="0">
+        <v>994</v>
+      </c>
+      <c r="G483" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H483" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I483" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="J483" t="s" s="0">
+        <v>1074</v>
+      </c>
+      <c r="K483" s="0"/>
+      <c r="L483" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="M483" s="0"/>
+    </row>
+    <row r="484">
+      <c r="A484" t="n" s="0">
+        <v>483.0</v>
+      </c>
+      <c r="B484" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C484" t="s" s="0">
+        <v>1312</v>
+      </c>
+      <c r="D484" t="s" s="0">
+        <v>1313</v>
+      </c>
+      <c r="E484" t="s" s="0">
+        <v>1314</v>
+      </c>
+      <c r="F484" t="s" s="0">
+        <v>1315</v>
+      </c>
+      <c r="G484" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H484" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="I484" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="J484" t="s" s="0">
+        <v>1312</v>
+      </c>
+      <c r="K484" s="0"/>
+      <c r="L484" t="s" s="0">
+        <v>674</v>
+      </c>
+      <c r="M484" s="0"/>
+    </row>
+    <row r="485">
+      <c r="A485" t="n" s="0">
+        <v>484.0</v>
+      </c>
+      <c r="B485" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C485" t="s" s="0">
+        <v>700</v>
+      </c>
+      <c r="D485" t="s" s="0">
+        <v>701</v>
+      </c>
+      <c r="E485" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="F485" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="G485" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H485" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I485" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="J485" t="s" s="0">
+        <v>695</v>
+      </c>
+      <c r="K485" s="0"/>
+      <c r="L485" t="s" s="0">
+        <v>634</v>
+      </c>
+      <c r="M485" s="0"/>
+    </row>
+    <row r="486">
+      <c r="A486" t="n" s="0">
+        <v>485.0</v>
+      </c>
+      <c r="B486" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C486" t="s" s="0">
+        <v>703</v>
+      </c>
+      <c r="D486" t="s" s="0">
+        <v>704</v>
+      </c>
+      <c r="E486" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="F486" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="G486" t="s" s="0">
+        <v>705</v>
+      </c>
+      <c r="H486" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I486" t="s" s="0">
+        <v>1316</v>
+      </c>
+      <c r="J486" t="s" s="0">
+        <v>1317</v>
+      </c>
+      <c r="K486" s="0"/>
+      <c r="L486" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="M486" s="0"/>
+    </row>
+    <row r="487">
+      <c r="A487" t="n" s="0">
+        <v>486.0</v>
+      </c>
+      <c r="B487" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C487" t="s" s="0">
+        <v>1318</v>
+      </c>
+      <c r="D487" t="s" s="0">
+        <v>1319</v>
+      </c>
+      <c r="E487" t="s" s="0">
+        <v>1320</v>
+      </c>
+      <c r="F487" t="s" s="0">
+        <v>1321</v>
+      </c>
+      <c r="G487" t="s" s="0">
+        <v>592</v>
+      </c>
+      <c r="H487" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I487" t="s" s="0">
+        <v>637</v>
+      </c>
+      <c r="J487" t="s" s="0">
+        <v>1322</v>
+      </c>
+      <c r="K487" s="0"/>
+      <c r="L487" t="s" s="0">
+        <v>538</v>
+      </c>
+      <c r="M487" s="0"/>
+    </row>
+    <row r="488">
+      <c r="A488" t="n" s="0">
+        <v>487.0</v>
+      </c>
+      <c r="B488" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C488" t="s" s="0">
+        <v>1323</v>
+      </c>
+      <c r="D488" t="s" s="0">
+        <v>1324</v>
+      </c>
+      <c r="E488" t="s" s="0">
+        <v>1320</v>
+      </c>
+      <c r="F488" t="s" s="0">
+        <v>1321</v>
+      </c>
+      <c r="G488" t="s" s="0">
+        <v>592</v>
+      </c>
+      <c r="H488" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I488" t="s" s="0">
+        <v>1325</v>
+      </c>
+      <c r="J488" t="s" s="0">
+        <v>1107</v>
+      </c>
+      <c r="K488" s="0"/>
+      <c r="L488" t="s" s="0">
+        <v>1326</v>
+      </c>
+      <c r="M488" s="0"/>
+    </row>
+    <row r="489">
+      <c r="A489" t="n" s="0">
+        <v>488.0</v>
+      </c>
+      <c r="B489" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C489" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="D489" t="s" s="0">
+        <v>713</v>
+      </c>
+      <c r="E489" t="s" s="0">
+        <v>393</v>
+      </c>
+      <c r="F489" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="G489" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H489" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I489" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="J489" t="s" s="0">
+        <v>1327</v>
+      </c>
+      <c r="K489" s="0"/>
+      <c r="L489" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="M489" s="0"/>
+    </row>
+    <row r="490">
+      <c r="A490" t="n" s="0">
+        <v>489.0</v>
+      </c>
+      <c r="B490" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C490" t="s" s="0">
+        <v>715</v>
+      </c>
+      <c r="D490" t="s" s="0">
+        <v>716</v>
+      </c>
+      <c r="E490" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="F490" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="G490" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H490" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I490" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="J490" t="s" s="0">
+        <v>1328</v>
+      </c>
+      <c r="K490" s="0"/>
+      <c r="L490" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="M490" s="0"/>
+    </row>
+    <row r="491">
+      <c r="A491" t="n" s="0">
+        <v>490.0</v>
+      </c>
+      <c r="B491" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C491" t="s" s="0">
+        <v>715</v>
+      </c>
+      <c r="D491" t="s" s="0">
+        <v>718</v>
+      </c>
+      <c r="E491" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="F491" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="G491" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H491" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I491" t="s" s="0">
+        <v>567</v>
+      </c>
+      <c r="J491" t="s" s="0">
+        <v>1329</v>
+      </c>
+      <c r="K491" s="0"/>
+      <c r="L491" t="s" s="0">
+        <v>1330</v>
+      </c>
+      <c r="M491" s="0"/>
+    </row>
+    <row r="492">
+      <c r="A492" t="n" s="0">
+        <v>491.0</v>
+      </c>
+      <c r="B492" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C492" t="s" s="0">
+        <v>720</v>
+      </c>
+      <c r="D492" t="s" s="0">
+        <v>721</v>
+      </c>
+      <c r="E492" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="F492" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="G492" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H492" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I492" t="s" s="0">
+        <v>433</v>
+      </c>
+      <c r="J492" t="s" s="0">
+        <v>722</v>
+      </c>
+      <c r="K492" s="0"/>
+      <c r="L492" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="M492" s="0"/>
+    </row>
+    <row r="493">
+      <c r="A493" t="n" s="0">
+        <v>492.0</v>
+      </c>
+      <c r="B493" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C493" t="s" s="0">
+        <v>720</v>
+      </c>
+      <c r="D493" t="s" s="0">
+        <v>1078</v>
+      </c>
+      <c r="E493" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="F493" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="G493" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H493" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I493" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="J493" t="s" s="0">
+        <v>1331</v>
+      </c>
+      <c r="K493" s="0"/>
+      <c r="L493" t="s" s="0">
+        <v>634</v>
+      </c>
+      <c r="M493" s="0"/>
+    </row>
+    <row r="494">
+      <c r="A494" t="n" s="0">
+        <v>493.0</v>
+      </c>
+      <c r="B494" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C494" t="s" s="0">
+        <v>723</v>
+      </c>
+      <c r="D494" t="s" s="0">
+        <v>724</v>
+      </c>
+      <c r="E494" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="F494" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G494" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H494" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I494" t="s" s="0">
+        <v>554</v>
+      </c>
+      <c r="J494" t="s" s="0">
+        <v>1332</v>
+      </c>
+      <c r="K494" s="0"/>
+      <c r="L494" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="M494" s="0"/>
+    </row>
+    <row r="495">
+      <c r="A495" t="n" s="0">
+        <v>494.0</v>
+      </c>
+      <c r="B495" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C495" t="s" s="0">
+        <v>1333</v>
+      </c>
+      <c r="D495" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="E495" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="F495" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="G495" t="s" s="0">
+        <v>1334</v>
+      </c>
+      <c r="H495" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I495" t="s" s="0">
+        <v>1335</v>
+      </c>
+      <c r="J495" t="s" s="0">
+        <v>1336</v>
+      </c>
+      <c r="K495" s="0"/>
+      <c r="L495" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="M495" s="0"/>
+    </row>
+    <row r="496">
+      <c r="A496" t="n" s="0">
+        <v>495.0</v>
+      </c>
+      <c r="B496" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C496" t="s" s="0">
+        <v>726</v>
+      </c>
+      <c r="D496" t="s" s="0">
+        <v>727</v>
+      </c>
+      <c r="E496" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="F496" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="G496" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H496" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I496" t="s" s="0">
+        <v>478</v>
+      </c>
+      <c r="J496" t="s" s="0">
+        <v>743</v>
+      </c>
+      <c r="K496" s="0"/>
+      <c r="L496" t="s" s="0">
+        <v>577</v>
+      </c>
+      <c r="M496" s="0"/>
+    </row>
+    <row r="497">
+      <c r="A497" t="n" s="0">
+        <v>496.0</v>
+      </c>
+      <c r="B497" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C497" t="s" s="0">
+        <v>726</v>
+      </c>
+      <c r="D497" t="s" s="0">
+        <v>729</v>
+      </c>
+      <c r="E497" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="F497" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="G497" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H497" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I497" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="J497" t="s" s="0">
+        <v>1337</v>
+      </c>
+      <c r="K497" s="0"/>
+      <c r="L497" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="M497" s="0"/>
+    </row>
+    <row r="498">
+      <c r="A498" t="n" s="0">
+        <v>497.0</v>
+      </c>
+      <c r="B498" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C498" t="s" s="0">
+        <v>726</v>
+      </c>
+      <c r="D498" t="s" s="0">
+        <v>1088</v>
+      </c>
+      <c r="E498" t="s" s="0">
+        <v>450</v>
+      </c>
+      <c r="F498" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="G498" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H498" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I498" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="J498" t="s" s="0">
+        <v>1338</v>
+      </c>
+      <c r="K498" s="0"/>
+      <c r="L498" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="M498" s="0"/>
+    </row>
+    <row r="499">
+      <c r="A499" t="n" s="0">
+        <v>498.0</v>
+      </c>
+      <c r="B499" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C499" t="s" s="0">
+        <v>732</v>
+      </c>
+      <c r="D499" t="s" s="0">
+        <v>736</v>
+      </c>
+      <c r="E499" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F499" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="G499" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="H499" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I499" t="s" s="0">
+        <v>1339</v>
+      </c>
+      <c r="J499" t="s" s="0">
+        <v>1340</v>
+      </c>
+      <c r="K499" s="0"/>
+      <c r="L499" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="M499" s="0"/>
+    </row>
+    <row r="500">
+      <c r="A500" t="n" s="0">
+        <v>499.0</v>
+      </c>
+      <c r="B500" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C500" t="s" s="0">
+        <v>732</v>
+      </c>
+      <c r="D500" t="s" s="0">
+        <v>733</v>
+      </c>
+      <c r="E500" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="F500" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="G500" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H500" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I500" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="J500" t="s" s="0">
+        <v>1341</v>
+      </c>
+      <c r="K500" s="0"/>
+      <c r="L500" t="s" s="0">
+        <v>684</v>
+      </c>
+      <c r="M500" s="0"/>
+    </row>
+    <row r="501">
+      <c r="A501" t="n" s="0">
+        <v>500.0</v>
+      </c>
+      <c r="B501" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C501" t="s" s="0">
+        <v>735</v>
+      </c>
+      <c r="D501" t="s" s="0">
+        <v>746</v>
+      </c>
+      <c r="E501" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F501" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="G501" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H501" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I501" t="s" s="0">
+        <v>441</v>
+      </c>
+      <c r="J501" t="s" s="0">
+        <v>734</v>
+      </c>
+      <c r="K501" s="0"/>
+      <c r="L501" t="s" s="0">
+        <v>370</v>
+      </c>
+      <c r="M501" s="0"/>
+    </row>
+    <row r="502">
+      <c r="A502" t="n" s="0">
+        <v>501.0</v>
+      </c>
+      <c r="B502" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C502" t="s" s="0">
+        <v>735</v>
+      </c>
+      <c r="D502" t="s" s="0">
+        <v>742</v>
+      </c>
+      <c r="E502" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="F502" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="G502" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H502" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I502" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="J502" t="s" s="0">
+        <v>757</v>
+      </c>
+      <c r="K502" s="0"/>
+      <c r="L502" t="s" s="0">
+        <v>1342</v>
+      </c>
+      <c r="M502" s="0"/>
+    </row>
+    <row r="503">
+      <c r="A503" t="n" s="0">
+        <v>502.0</v>
+      </c>
+      <c r="B503" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C503" t="s" s="0">
+        <v>735</v>
+      </c>
+      <c r="D503" t="s" s="0">
+        <v>740</v>
+      </c>
+      <c r="E503" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="F503" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="G503" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H503" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I503" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="J503" t="s" s="0">
+        <v>1091</v>
+      </c>
+      <c r="K503" s="0"/>
+      <c r="L503" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="M503" s="0"/>
+    </row>
+    <row r="504">
+      <c r="A504" t="n" s="0">
+        <v>503.0</v>
+      </c>
+      <c r="B504" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C504" t="s" s="0">
+        <v>735</v>
+      </c>
+      <c r="D504" t="s" s="0">
+        <v>744</v>
+      </c>
+      <c r="E504" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="F504" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="G504" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H504" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I504" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="J504" t="s" s="0">
+        <v>629</v>
+      </c>
+      <c r="K504" s="0"/>
+      <c r="L504" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="M504" s="0"/>
+    </row>
+    <row r="505">
+      <c r="A505" t="n" s="0">
+        <v>504.0</v>
+      </c>
+      <c r="B505" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C505" t="s" s="0">
+        <v>1103</v>
+      </c>
+      <c r="D505" t="s" s="0">
+        <v>1343</v>
+      </c>
+      <c r="E505" t="s" s="0">
+        <v>1344</v>
+      </c>
+      <c r="F505" t="s" s="0">
+        <v>1345</v>
+      </c>
+      <c r="G505" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="H505" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I505" t="s" s="0">
+        <v>798</v>
+      </c>
+      <c r="J505" t="s" s="0">
+        <v>1102</v>
+      </c>
+      <c r="K505" s="0"/>
+      <c r="L505" t="s" s="0">
+        <v>871</v>
+      </c>
+      <c r="M505" s="0"/>
+    </row>
+    <row r="506">
+      <c r="A506" t="n" s="0">
+        <v>505.0</v>
+      </c>
+      <c r="B506" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C506" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="D506" t="s" s="0">
+        <v>750</v>
+      </c>
+      <c r="E506" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="F506" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="G506" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H506" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I506" t="s" s="0">
+        <v>1346</v>
+      </c>
+      <c r="J506" t="s" s="0">
+        <v>1100</v>
+      </c>
+      <c r="K506" s="0"/>
+      <c r="L506" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="M506" s="0"/>
+    </row>
+    <row r="507">
+      <c r="A507" t="n" s="0">
+        <v>506.0</v>
+      </c>
+      <c r="B507" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C507" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="D507" t="s" s="0">
+        <v>758</v>
+      </c>
+      <c r="E507" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="F507" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="G507" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H507" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I507" t="s" s="0">
+        <v>510</v>
+      </c>
+      <c r="J507" t="s" s="0">
+        <v>732</v>
+      </c>
+      <c r="K507" s="0"/>
+      <c r="L507" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="M507" s="0"/>
+    </row>
+    <row r="508">
+      <c r="A508" t="n" s="0">
+        <v>507.0</v>
+      </c>
+      <c r="B508" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C508" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="D508" t="s" s="0">
+        <v>749</v>
+      </c>
+      <c r="E508" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F508" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G508" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H508" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I508" t="s" s="0">
+        <v>730</v>
+      </c>
+      <c r="J508" t="s" s="0">
+        <v>1097</v>
+      </c>
+      <c r="K508" s="0"/>
+      <c r="L508" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="M508" s="0"/>
+    </row>
+    <row r="509">
+      <c r="A509" t="n" s="0">
+        <v>508.0</v>
+      </c>
+      <c r="B509" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C509" t="s" s="0">
+        <v>743</v>
+      </c>
+      <c r="D509" t="s" s="0">
+        <v>753</v>
+      </c>
+      <c r="E509" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F509" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G509" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="H509" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I509" t="s" s="0">
+        <v>1347</v>
+      </c>
+      <c r="J509" t="s" s="0">
+        <v>1348</v>
+      </c>
+      <c r="K509" s="0"/>
+      <c r="L509" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="M509" s="0"/>
+    </row>
+    <row r="510">
+      <c r="A510" t="n" s="0">
+        <v>509.0</v>
+      </c>
+      <c r="B510" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C510" t="s" s="0">
+        <v>743</v>
+      </c>
+      <c r="D510" t="s" s="0">
+        <v>1349</v>
+      </c>
+      <c r="E510" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="F510" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="G510" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="H510" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I510" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="J510" t="s" s="0">
+        <v>1350</v>
+      </c>
+      <c r="K510" s="0"/>
+      <c r="L510" t="s" s="0">
+        <v>569</v>
+      </c>
+      <c r="M510" s="0"/>
+    </row>
+    <row r="511">
+      <c r="A511" t="n" s="0">
+        <v>510.0</v>
+      </c>
+      <c r="B511" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C511" t="s" s="0">
+        <v>745</v>
+      </c>
+      <c r="D511" t="s" s="0">
+        <v>1351</v>
+      </c>
+      <c r="E511" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="F511" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="G511" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="H511" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I511" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="J511" t="s" s="0">
+        <v>1352</v>
+      </c>
+      <c r="K511" s="0"/>
+      <c r="L511" t="s" s="0">
+        <v>684</v>
+      </c>
+      <c r="M511" s="0"/>
+    </row>
+    <row r="512">
+      <c r="A512" t="n" s="0">
+        <v>511.0</v>
+      </c>
+      <c r="B512" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C512" t="s" s="0">
+        <v>745</v>
+      </c>
+      <c r="D512" t="s" s="0">
+        <v>760</v>
+      </c>
+      <c r="E512" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="F512" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="G512" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H512" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I512" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="J512" t="s" s="0">
+        <v>1353</v>
+      </c>
+      <c r="K512" s="0"/>
+      <c r="L512" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="M512" s="0"/>
+    </row>
+    <row r="513">
+      <c r="A513" t="n" s="0">
+        <v>512.0</v>
+      </c>
+      <c r="B513" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C513" t="s" s="0">
+        <v>769</v>
+      </c>
+      <c r="D513" t="s" s="0">
+        <v>770</v>
+      </c>
+      <c r="E513" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="F513" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G513" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="H513" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I513" t="s" s="0">
+        <v>955</v>
+      </c>
+      <c r="J513" t="s" s="0">
+        <v>762</v>
+      </c>
+      <c r="K513" s="0"/>
+      <c r="L513" t="s" s="0">
+        <v>806</v>
+      </c>
+      <c r="M513" s="0"/>
+    </row>
+    <row r="514">
+      <c r="A514" t="n" s="0">
+        <v>513.0</v>
+      </c>
+      <c r="B514" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C514" t="s" s="0">
+        <v>773</v>
+      </c>
+      <c r="D514" t="s" s="0">
+        <v>774</v>
+      </c>
+      <c r="E514" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="F514" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="G514" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="H514" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="I514" t="s" s="0">
+        <v>1253</v>
+      </c>
+      <c r="J514" t="s" s="0">
+        <v>1354</v>
+      </c>
+      <c r="K514" s="0"/>
+      <c r="L514" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="M514" s="0"/>
+    </row>
+    <row r="515">
+      <c r="A515" t="n" s="0">
+        <v>514.0</v>
+      </c>
+      <c r="B515" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C515" t="s" s="0">
+        <v>1107</v>
+      </c>
+      <c r="D515" t="s" s="0">
+        <v>1108</v>
+      </c>
+      <c r="E515" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="F515" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="G515" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="H515" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I515" t="s" s="0">
+        <v>1355</v>
+      </c>
+      <c r="J515" t="s" s="0">
+        <v>1356</v>
+      </c>
+      <c r="K515" s="0"/>
+      <c r="L515" t="s" s="0">
+        <v>684</v>
+      </c>
+      <c r="M515" s="0"/>
+    </row>
+    <row r="516">
+      <c r="A516" t="n" s="0">
+        <v>515.0</v>
+      </c>
+      <c r="B516" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C516" t="s" s="0">
+        <v>777</v>
+      </c>
+      <c r="D516" t="s" s="0">
+        <v>1357</v>
+      </c>
+      <c r="E516" t="s" s="0">
+        <v>1320</v>
+      </c>
+      <c r="F516" t="s" s="0">
+        <v>1321</v>
+      </c>
+      <c r="G516" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H516" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I516" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="J516" t="s" s="0">
+        <v>1358</v>
+      </c>
+      <c r="K516" s="0"/>
+      <c r="L516" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M516" s="0"/>
+    </row>
+    <row r="517">
+      <c r="A517" t="n" s="0">
+        <v>516.0</v>
+      </c>
+      <c r="B517" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C517" t="s" s="0">
+        <v>777</v>
+      </c>
+      <c r="D517" t="s" s="0">
+        <v>1115</v>
+      </c>
+      <c r="E517" t="s" s="0">
+        <v>1116</v>
+      </c>
+      <c r="F517" t="s" s="0">
+        <v>1117</v>
+      </c>
+      <c r="G517" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H517" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I517" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="J517" t="s" s="0">
+        <v>1359</v>
+      </c>
+      <c r="K517" s="0"/>
+      <c r="L517" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="M517" s="0"/>
+    </row>
+    <row r="518">
+      <c r="A518" t="n" s="0">
+        <v>517.0</v>
+      </c>
+      <c r="B518" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C518" t="s" s="0">
+        <v>783</v>
+      </c>
+      <c r="D518" t="s" s="0">
+        <v>1360</v>
+      </c>
+      <c r="E518" t="s" s="0">
+        <v>1361</v>
+      </c>
+      <c r="F518" t="s" s="0">
+        <v>1362</v>
+      </c>
+      <c r="G518" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H518" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I518" t="s" s="0">
+        <v>429</v>
+      </c>
+      <c r="J518" t="s" s="0">
+        <v>810</v>
+      </c>
+      <c r="K518" s="0"/>
+      <c r="L518" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="M518" s="0"/>
+    </row>
+    <row r="519">
+      <c r="A519" t="n" s="0">
+        <v>518.0</v>
+      </c>
+      <c r="B519" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C519" t="s" s="0">
+        <v>788</v>
+      </c>
+      <c r="D519" t="s" s="0">
+        <v>1363</v>
+      </c>
+      <c r="E519" t="s" s="0">
+        <v>1364</v>
+      </c>
+      <c r="F519" t="s" s="0">
+        <v>1365</v>
+      </c>
+      <c r="G519" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H519" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I519" t="s" s="0">
+        <v>494</v>
+      </c>
+      <c r="J519" t="s" s="0">
+        <v>1366</v>
+      </c>
+      <c r="K519" s="0"/>
+      <c r="L519" t="s" s="0">
+        <v>1367</v>
+      </c>
+      <c r="M519" s="0"/>
+    </row>
+    <row r="520">
+      <c r="A520" t="n" s="0">
+        <v>519.0</v>
+      </c>
+      <c r="B520" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C520" t="s" s="0">
+        <v>788</v>
+      </c>
+      <c r="D520" t="s" s="0">
+        <v>601</v>
+      </c>
+      <c r="E520" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="F520" t="s" s="0">
+        <v>602</v>
+      </c>
+      <c r="G520" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H520" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I520" t="s" s="0">
+        <v>608</v>
+      </c>
+      <c r="J520" t="s" s="0">
+        <v>1120</v>
+      </c>
+      <c r="K520" s="0"/>
+      <c r="L520" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="M520" s="0"/>
+    </row>
+    <row r="521">
+      <c r="A521" t="n" s="0">
+        <v>520.0</v>
+      </c>
+      <c r="B521" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C521" t="s" s="0">
+        <v>799</v>
+      </c>
+      <c r="D521" t="s" s="0">
+        <v>800</v>
+      </c>
+      <c r="E521" t="s" s="0">
+        <v>565</v>
+      </c>
+      <c r="F521" t="s" s="0">
+        <v>566</v>
+      </c>
+      <c r="G521" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H521" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I521" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="J521" t="s" s="0">
+        <v>1368</v>
+      </c>
+      <c r="K521" s="0"/>
+      <c r="L521" t="s" s="0">
+        <v>684</v>
+      </c>
+      <c r="M521" s="0"/>
+    </row>
+    <row r="522">
+      <c r="A522" t="n" s="0">
+        <v>521.0</v>
+      </c>
+      <c r="B522" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C522" t="s" s="0">
+        <v>803</v>
+      </c>
+      <c r="D522" t="s" s="0">
+        <v>804</v>
+      </c>
+      <c r="E522" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F522" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G522" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H522" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I522" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="J522" t="s" s="0">
+        <v>794</v>
+      </c>
+      <c r="K522" s="0"/>
+      <c r="L522" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="M522" s="0"/>
+    </row>
+    <row r="523">
+      <c r="A523" t="n" s="0">
+        <v>522.0</v>
+      </c>
+      <c r="B523" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C523" t="s" s="0">
+        <v>803</v>
+      </c>
+      <c r="D523" t="s" s="0">
+        <v>1369</v>
+      </c>
+      <c r="E523" t="s" s="0">
+        <v>1370</v>
+      </c>
+      <c r="F523" t="s" s="0">
+        <v>1371</v>
+      </c>
+      <c r="G523" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H523" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I523" t="s" s="0">
+        <v>1218</v>
+      </c>
+      <c r="J523" t="s" s="0">
+        <v>1372</v>
+      </c>
+      <c r="K523" s="0"/>
+      <c r="L523" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="M523" s="0"/>
+    </row>
+    <row r="524">
+      <c r="A524" t="n" s="0">
+        <v>523.0</v>
+      </c>
+      <c r="B524" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C524" t="s" s="0">
+        <v>810</v>
+      </c>
+      <c r="D524" t="s" s="0">
+        <v>811</v>
+      </c>
+      <c r="E524" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F524" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="G524" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H524" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I524" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="J524" t="s" s="0">
+        <v>812</v>
+      </c>
+      <c r="K524" s="0"/>
+      <c r="L524" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="M524" s="0"/>
+    </row>
+    <row r="525">
+      <c r="A525" t="n" s="0">
+        <v>524.0</v>
+      </c>
+      <c r="B525" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C525" t="s" s="0">
+        <v>810</v>
+      </c>
+      <c r="D525" t="s" s="0">
+        <v>814</v>
+      </c>
+      <c r="E525" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="F525" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="G525" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H525" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I525" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="J525" t="s" s="0">
+        <v>1373</v>
+      </c>
+      <c r="K525" s="0"/>
+      <c r="L525" t="s" s="0">
+        <v>953</v>
+      </c>
+      <c r="M525" s="0"/>
+    </row>
+    <row r="526">
+      <c r="A526" t="n" s="0">
+        <v>525.0</v>
+      </c>
+      <c r="B526" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="C526" t="s" s="0">
+        <v>822</v>
+      </c>
+      <c r="D526" t="s" s="0">
+        <v>823</v>
+      </c>
+      <c r="E526" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="F526" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="G526" t="s" s="0">
+        <v>560</v>
+      </c>
+      <c r="H526" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I526" t="s" s="0">
+        <v>1374</v>
+      </c>
+      <c r="J526" t="s" s="0">
+        <v>805</v>
+      </c>
+      <c r="K526" s="0"/>
+      <c r="L526" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="M526" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/WAW_Arrivals.xlsx
+++ b/DataBase/WAW_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5261" uniqueCount="1375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7031" uniqueCount="1520">
   <si>
     <t>NUMBER</t>
   </si>
@@ -4137,6 +4137,441 @@
   </si>
   <si>
     <t>(PH-BGC)</t>
+  </si>
+  <si>
+    <t>Tuesday, Jan 10</t>
+  </si>
+  <si>
+    <t>5:25 AM</t>
+  </si>
+  <si>
+    <t>(SP-ESB)</t>
+  </si>
+  <si>
+    <t>5:51 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHL (No. 1 Best Workplace Stickers) </t>
+  </si>
+  <si>
+    <t>(D-AEAC)</t>
+  </si>
+  <si>
+    <t>5:54 AM</t>
+  </si>
+  <si>
+    <t>6:00 AM</t>
+  </si>
+  <si>
+    <t>B763</t>
+  </si>
+  <si>
+    <t>(N391UP)</t>
+  </si>
+  <si>
+    <t>E47004</t>
+  </si>
+  <si>
+    <t>Espargos</t>
+  </si>
+  <si>
+    <t>(SID)</t>
+  </si>
+  <si>
+    <t>5:49 AM</t>
+  </si>
+  <si>
+    <t>LO196</t>
+  </si>
+  <si>
+    <t>Astana</t>
+  </si>
+  <si>
+    <t>(NQZ)</t>
+  </si>
+  <si>
+    <t>5:43 AM</t>
+  </si>
+  <si>
+    <t>6:26 AM</t>
+  </si>
+  <si>
+    <t>6:12 AM</t>
+  </si>
+  <si>
+    <t>7:12 AM</t>
+  </si>
+  <si>
+    <t>K4203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalitta Air </t>
+  </si>
+  <si>
+    <t>B744</t>
+  </si>
+  <si>
+    <t>(N702CK)</t>
+  </si>
+  <si>
+    <t>7:07 AM</t>
+  </si>
+  <si>
+    <t>7:45 AM</t>
+  </si>
+  <si>
+    <t>8:06 AM</t>
+  </si>
+  <si>
+    <t>8:20 AM</t>
+  </si>
+  <si>
+    <t>8:56 AM</t>
+  </si>
+  <si>
+    <t>8:59 AM</t>
+  </si>
+  <si>
+    <t>(OE-LWJ)</t>
+  </si>
+  <si>
+    <t>9:14 AM</t>
+  </si>
+  <si>
+    <t>9:55 AM</t>
+  </si>
+  <si>
+    <t>9:37 AM</t>
+  </si>
+  <si>
+    <t>9:34 AM</t>
+  </si>
+  <si>
+    <t>Kortrijk</t>
+  </si>
+  <si>
+    <t>(KJK)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luxaviation Belgium </t>
+  </si>
+  <si>
+    <t>F2TH</t>
+  </si>
+  <si>
+    <t>(OO-GHE)</t>
+  </si>
+  <si>
+    <t>9:57 AM</t>
+  </si>
+  <si>
+    <t>10:55 AM</t>
+  </si>
+  <si>
+    <t>(A6-EPK)</t>
+  </si>
+  <si>
+    <t>11:29 AM</t>
+  </si>
+  <si>
+    <t>(SP-LRF)</t>
+  </si>
+  <si>
+    <t>(G-NEOR)</t>
+  </si>
+  <si>
+    <t>11:02 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -43 minutes</t>
+  </si>
+  <si>
+    <t>11:27 AM</t>
+  </si>
+  <si>
+    <t>(PH-BCB)</t>
+  </si>
+  <si>
+    <t>(A7-BCA)</t>
+  </si>
+  <si>
+    <t>A318</t>
+  </si>
+  <si>
+    <t>(F-GUGP)</t>
+  </si>
+  <si>
+    <t>(SP-LDK)</t>
+  </si>
+  <si>
+    <t>(D-AIBL)</t>
+  </si>
+  <si>
+    <t>12:29 PM</t>
+  </si>
+  <si>
+    <t>1:03 PM</t>
+  </si>
+  <si>
+    <t>1:12 PM</t>
+  </si>
+  <si>
+    <t>1:33 PM</t>
+  </si>
+  <si>
+    <t>3:12 PM</t>
+  </si>
+  <si>
+    <t>1 hours, 32 minutes</t>
+  </si>
+  <si>
+    <t>1:57 PM</t>
+  </si>
+  <si>
+    <t>(HB-AZJ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lufthansa (Lu Sticker) </t>
+  </si>
+  <si>
+    <t>(D-AILU)</t>
+  </si>
+  <si>
+    <t>2:12 PM</t>
+  </si>
+  <si>
+    <t>1:44 PM</t>
+  </si>
+  <si>
+    <t>2:16 PM</t>
+  </si>
+  <si>
+    <t>2:54 PM</t>
+  </si>
+  <si>
+    <t>(HA-LXF)</t>
+  </si>
+  <si>
+    <t>2:33 PM</t>
+  </si>
+  <si>
+    <t>3:32 PM</t>
+  </si>
+  <si>
+    <t>3:10 PM</t>
+  </si>
+  <si>
+    <t>3:34 PM</t>
+  </si>
+  <si>
+    <t>3:49 PM</t>
+  </si>
+  <si>
+    <t>(F-HBXN)</t>
+  </si>
+  <si>
+    <t>4:16 PM</t>
+  </si>
+  <si>
+    <t>5:00 PM</t>
+  </si>
+  <si>
+    <t>4:38 PM</t>
+  </si>
+  <si>
+    <t>5:07 PM</t>
+  </si>
+  <si>
+    <t>(TC-JTN)</t>
+  </si>
+  <si>
+    <t>5:39 PM</t>
+  </si>
+  <si>
+    <t>W61334</t>
+  </si>
+  <si>
+    <t>Grenoble</t>
+  </si>
+  <si>
+    <t>(GNB)</t>
+  </si>
+  <si>
+    <t>5:42 PM</t>
+  </si>
+  <si>
+    <t>(CS-TVJ)</t>
+  </si>
+  <si>
+    <t>6:34 PM</t>
+  </si>
+  <si>
+    <t>6:06 PM</t>
+  </si>
+  <si>
+    <t>LO6520</t>
+  </si>
+  <si>
+    <t>Bangkok</t>
+  </si>
+  <si>
+    <t>(BKK)</t>
+  </si>
+  <si>
+    <t>0 hours, 18 minutes</t>
+  </si>
+  <si>
+    <t>4:56 PM</t>
+  </si>
+  <si>
+    <t>-1 hours, -14 minutes</t>
+  </si>
+  <si>
+    <t>6:13 PM</t>
+  </si>
+  <si>
+    <t>5:58 PM</t>
+  </si>
+  <si>
+    <t>(OK-SWE)</t>
+  </si>
+  <si>
+    <t>1 hours, 2 minutes</t>
+  </si>
+  <si>
+    <t>(OH-LZS)</t>
+  </si>
+  <si>
+    <t>6:36 PM</t>
+  </si>
+  <si>
+    <t>(OE-LWE)</t>
+  </si>
+  <si>
+    <t>LO24</t>
+  </si>
+  <si>
+    <t>7:53 PM</t>
+  </si>
+  <si>
+    <t>1 hours, 8 minutes</t>
+  </si>
+  <si>
+    <t>(G-TTNF)</t>
+  </si>
+  <si>
+    <t>LO618</t>
+  </si>
+  <si>
+    <t>6:27 PM</t>
+  </si>
+  <si>
+    <t>6:18 PM</t>
+  </si>
+  <si>
+    <t>Gran Canaria</t>
+  </si>
+  <si>
+    <t>(LPA)</t>
+  </si>
+  <si>
+    <t>7:13 PM</t>
+  </si>
+  <si>
+    <t>7:16 PM</t>
+  </si>
+  <si>
+    <t>7:38 PM</t>
+  </si>
+  <si>
+    <t>3Z7317</t>
+  </si>
+  <si>
+    <t>(A6-FMK)</t>
+  </si>
+  <si>
+    <t>8:04 PM</t>
+  </si>
+  <si>
+    <t>8:48 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NetJets Europe </t>
+  </si>
+  <si>
+    <t>(CS-DLL)</t>
+  </si>
+  <si>
+    <t>8:37 PM</t>
+  </si>
+  <si>
+    <t>8:45 PM</t>
+  </si>
+  <si>
+    <t>8:52 PM</t>
+  </si>
+  <si>
+    <t>9:25 PM</t>
+  </si>
+  <si>
+    <t>9:03 PM</t>
+  </si>
+  <si>
+    <t>8:42 PM</t>
+  </si>
+  <si>
+    <t>10:03 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 38 minutes</t>
+  </si>
+  <si>
+    <t>(SP-LNK)</t>
+  </si>
+  <si>
+    <t>9:11 PM</t>
+  </si>
+  <si>
+    <t>11:22 PM</t>
+  </si>
+  <si>
+    <t>1 hours, 37 minutes</t>
+  </si>
+  <si>
+    <t>9:28 PM</t>
+  </si>
+  <si>
+    <t>(F-HEPF)</t>
+  </si>
+  <si>
+    <t>10:14 PM</t>
+  </si>
+  <si>
+    <t>LO9006</t>
+  </si>
+  <si>
+    <t>10:32 PM</t>
+  </si>
+  <si>
+    <t>LO3922</t>
+  </si>
+  <si>
+    <t>(D-AIUA)</t>
+  </si>
+  <si>
+    <t>10:29 PM</t>
+  </si>
+  <si>
+    <t>10:43 PM</t>
+  </si>
+  <si>
+    <t>11:19 PM</t>
+  </si>
+  <si>
+    <t>(PH-BGM)</t>
+  </si>
+  <si>
+    <t>11:08 PM</t>
   </si>
 </sst>
 </file>
@@ -4181,7 +4616,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M526"/>
+  <dimension ref="A1:M703"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -23647,6 +24082,6555 @@
       </c>
       <c r="M526" s="0"/>
     </row>
+    <row r="527">
+      <c r="A527" t="n" s="0">
+        <v>526.0</v>
+      </c>
+      <c r="B527" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C527" t="s" s="0">
+        <v>1376</v>
+      </c>
+      <c r="D527" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="E527" t="s" s="0">
+        <v>532</v>
+      </c>
+      <c r="F527" t="s" s="0">
+        <v>533</v>
+      </c>
+      <c r="G527" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="H527" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I527" t="s" s="0">
+        <v>1377</v>
+      </c>
+      <c r="J527" t="s" s="0">
+        <v>1140</v>
+      </c>
+      <c r="K527" s="0"/>
+      <c r="L527" t="s" s="0">
+        <v>279</v>
+      </c>
+      <c r="M527" s="0"/>
+    </row>
+    <row r="528">
+      <c r="A528" t="n" s="0">
+        <v>527.0</v>
+      </c>
+      <c r="B528" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C528" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="D528" t="s" s="0">
+        <v>1127</v>
+      </c>
+      <c r="E528" t="s" s="0">
+        <v>1128</v>
+      </c>
+      <c r="F528" t="s" s="0">
+        <v>1129</v>
+      </c>
+      <c r="G528" t="s" s="0">
+        <v>1379</v>
+      </c>
+      <c r="H528" t="s" s="0">
+        <v>1131</v>
+      </c>
+      <c r="I528" t="s" s="0">
+        <v>1380</v>
+      </c>
+      <c r="J528" t="s" s="0">
+        <v>1381</v>
+      </c>
+      <c r="K528" s="0"/>
+      <c r="L528" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="M528" s="0"/>
+    </row>
+    <row r="529">
+      <c r="A529" t="n" s="0">
+        <v>528.0</v>
+      </c>
+      <c r="B529" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C529" t="s" s="0">
+        <v>1382</v>
+      </c>
+      <c r="D529" t="s" s="0">
+        <v>1134</v>
+      </c>
+      <c r="E529" t="s" s="0">
+        <v>1135</v>
+      </c>
+      <c r="F529" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="G529" t="s" s="0">
+        <v>1137</v>
+      </c>
+      <c r="H529" t="s" s="0">
+        <v>1383</v>
+      </c>
+      <c r="I529" t="s" s="0">
+        <v>1384</v>
+      </c>
+      <c r="J529" t="s" s="0">
+        <v>1165</v>
+      </c>
+      <c r="K529" s="0"/>
+      <c r="L529" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="M529" s="0"/>
+    </row>
+    <row r="530">
+      <c r="A530" t="n" s="0">
+        <v>529.0</v>
+      </c>
+      <c r="B530" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C530" t="s" s="0">
+        <v>828</v>
+      </c>
+      <c r="D530" t="s" s="0">
+        <v>1385</v>
+      </c>
+      <c r="E530" t="s" s="0">
+        <v>1386</v>
+      </c>
+      <c r="F530" t="s" s="0">
+        <v>1387</v>
+      </c>
+      <c r="G530" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="H530" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I530" t="s" s="0">
+        <v>698</v>
+      </c>
+      <c r="J530" t="s" s="0">
+        <v>1388</v>
+      </c>
+      <c r="K530" s="0"/>
+      <c r="L530" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="M530" s="0"/>
+    </row>
+    <row r="531">
+      <c r="A531" t="n" s="0">
+        <v>530.0</v>
+      </c>
+      <c r="B531" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C531" t="s" s="0">
+        <v>850</v>
+      </c>
+      <c r="D531" t="s" s="0">
+        <v>1389</v>
+      </c>
+      <c r="E531" t="s" s="0">
+        <v>1390</v>
+      </c>
+      <c r="F531" t="s" s="0">
+        <v>1391</v>
+      </c>
+      <c r="G531" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H531" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="I531" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="J531" t="s" s="0">
+        <v>1392</v>
+      </c>
+      <c r="K531" s="0"/>
+      <c r="L531" t="s" s="0">
+        <v>634</v>
+      </c>
+      <c r="M531" s="0"/>
+    </row>
+    <row r="532">
+      <c r="A532" t="n" s="0">
+        <v>531.0</v>
+      </c>
+      <c r="B532" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C532" t="s" s="0">
+        <v>850</v>
+      </c>
+      <c r="D532" t="s" s="0">
+        <v>1148</v>
+      </c>
+      <c r="E532" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F532" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G532" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H532" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I532" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="J532" t="s" s="0">
+        <v>850</v>
+      </c>
+      <c r="K532" s="0"/>
+      <c r="L532" t="s" s="0">
+        <v>674</v>
+      </c>
+      <c r="M532" s="0"/>
+    </row>
+    <row r="533">
+      <c r="A533" t="n" s="0">
+        <v>532.0</v>
+      </c>
+      <c r="B533" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C533" t="s" s="0">
+        <v>1150</v>
+      </c>
+      <c r="D533" t="s" s="0">
+        <v>1152</v>
+      </c>
+      <c r="E533" t="s" s="0">
+        <v>498</v>
+      </c>
+      <c r="F533" t="s" s="0">
+        <v>499</v>
+      </c>
+      <c r="G533" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H533" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I533" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="J533" t="s" s="0">
+        <v>1145</v>
+      </c>
+      <c r="K533" s="0"/>
+      <c r="L533" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="M533" s="0"/>
+    </row>
+    <row r="534">
+      <c r="A534" t="n" s="0">
+        <v>533.0</v>
+      </c>
+      <c r="B534" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C534" t="s" s="0">
+        <v>1150</v>
+      </c>
+      <c r="D534" t="s" s="0">
+        <v>844</v>
+      </c>
+      <c r="E534" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="F534" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="G534" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H534" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I534" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="J534" t="s" s="0">
+        <v>1393</v>
+      </c>
+      <c r="K534" s="0"/>
+      <c r="L534" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="M534" s="0"/>
+    </row>
+    <row r="535">
+      <c r="A535" t="n" s="0">
+        <v>534.0</v>
+      </c>
+      <c r="B535" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C535" t="s" s="0">
+        <v>1150</v>
+      </c>
+      <c r="D535" t="s" s="0">
+        <v>846</v>
+      </c>
+      <c r="E535" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="F535" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="G535" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="H535" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I535" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="J535" t="s" s="0">
+        <v>856</v>
+      </c>
+      <c r="K535" s="0"/>
+      <c r="L535" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="M535" s="0"/>
+    </row>
+    <row r="536">
+      <c r="A536" t="n" s="0">
+        <v>535.0</v>
+      </c>
+      <c r="B536" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C536" t="s" s="0">
+        <v>1150</v>
+      </c>
+      <c r="D536" t="s" s="0">
+        <v>839</v>
+      </c>
+      <c r="E536" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F536" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G536" t="s" s="0">
+        <v>840</v>
+      </c>
+      <c r="H536" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I536" t="s" s="0">
+        <v>841</v>
+      </c>
+      <c r="J536" t="s" s="0">
+        <v>845</v>
+      </c>
+      <c r="K536" s="0"/>
+      <c r="L536" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="M536" s="0"/>
+    </row>
+    <row r="537">
+      <c r="A537" t="n" s="0">
+        <v>536.0</v>
+      </c>
+      <c r="B537" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C537" t="s" s="0">
+        <v>843</v>
+      </c>
+      <c r="D537" t="s" s="0">
+        <v>1155</v>
+      </c>
+      <c r="E537" t="s" s="0">
+        <v>454</v>
+      </c>
+      <c r="F537" t="s" s="0">
+        <v>455</v>
+      </c>
+      <c r="G537" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H537" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I537" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="J537" t="s" s="0">
+        <v>848</v>
+      </c>
+      <c r="K537" s="0"/>
+      <c r="L537" t="s" s="0">
+        <v>871</v>
+      </c>
+      <c r="M537" s="0"/>
+    </row>
+    <row r="538">
+      <c r="A538" t="n" s="0">
+        <v>537.0</v>
+      </c>
+      <c r="B538" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C538" t="s" s="0">
+        <v>848</v>
+      </c>
+      <c r="D538" t="s" s="0">
+        <v>849</v>
+      </c>
+      <c r="E538" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="F538" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="G538" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="H538" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I538" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="J538" t="s" s="0">
+        <v>1146</v>
+      </c>
+      <c r="K538" s="0"/>
+      <c r="L538" t="s" s="0">
+        <v>806</v>
+      </c>
+      <c r="M538" s="0"/>
+    </row>
+    <row r="539">
+      <c r="A539" t="n" s="0">
+        <v>538.0</v>
+      </c>
+      <c r="B539" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C539" t="s" s="0">
+        <v>848</v>
+      </c>
+      <c r="D539" t="s" s="0">
+        <v>1161</v>
+      </c>
+      <c r="E539" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="F539" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="G539" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H539" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I539" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="J539" t="s" s="0">
+        <v>847</v>
+      </c>
+      <c r="K539" s="0"/>
+      <c r="L539" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="M539" s="0"/>
+    </row>
+    <row r="540">
+      <c r="A540" t="n" s="0">
+        <v>539.0</v>
+      </c>
+      <c r="B540" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C540" t="s" s="0">
+        <v>1154</v>
+      </c>
+      <c r="D540" t="s" s="0">
+        <v>1166</v>
+      </c>
+      <c r="E540" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="F540" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="G540" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H540" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I540" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="J540" t="s" s="0">
+        <v>1394</v>
+      </c>
+      <c r="K540" s="0"/>
+      <c r="L540" t="s" s="0">
+        <v>569</v>
+      </c>
+      <c r="M540" s="0"/>
+    </row>
+    <row r="541">
+      <c r="A541" t="n" s="0">
+        <v>540.0</v>
+      </c>
+      <c r="B541" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C541" t="s" s="0">
+        <v>1154</v>
+      </c>
+      <c r="D541" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="E541" t="s" s="0">
+        <v>532</v>
+      </c>
+      <c r="F541" t="s" s="0">
+        <v>533</v>
+      </c>
+      <c r="G541" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H541" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I541" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="J541" t="s" s="0">
+        <v>852</v>
+      </c>
+      <c r="K541" s="0"/>
+      <c r="L541" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="M541" s="0"/>
+    </row>
+    <row r="542">
+      <c r="A542" t="n" s="0">
+        <v>541.0</v>
+      </c>
+      <c r="B542" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C542" t="s" s="0">
+        <v>1395</v>
+      </c>
+      <c r="D542" t="s" s="0">
+        <v>1396</v>
+      </c>
+      <c r="E542" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="F542" t="s" s="0">
+        <v>1251</v>
+      </c>
+      <c r="G542" t="s" s="0">
+        <v>1397</v>
+      </c>
+      <c r="H542" t="s" s="0">
+        <v>1398</v>
+      </c>
+      <c r="I542" t="s" s="0">
+        <v>1399</v>
+      </c>
+      <c r="J542" t="s" s="0">
+        <v>1400</v>
+      </c>
+      <c r="K542" s="0"/>
+      <c r="L542" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="M542" s="0"/>
+    </row>
+    <row r="543">
+      <c r="A543" t="n" s="0">
+        <v>542.0</v>
+      </c>
+      <c r="B543" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C543" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D543" t="s" s="0">
+        <v>1169</v>
+      </c>
+      <c r="E543" t="s" s="0">
+        <v>835</v>
+      </c>
+      <c r="F543" t="s" s="0">
+        <v>836</v>
+      </c>
+      <c r="G543" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H543" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I543" t="s" s="0">
+        <v>441</v>
+      </c>
+      <c r="J543" t="s" s="0">
+        <v>1401</v>
+      </c>
+      <c r="K543" s="0"/>
+      <c r="L543" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="M543" s="0"/>
+    </row>
+    <row r="544">
+      <c r="A544" t="n" s="0">
+        <v>543.0</v>
+      </c>
+      <c r="B544" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C544" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D544" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E544" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F544" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G544" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H544" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I544" t="s" s="0">
+        <v>433</v>
+      </c>
+      <c r="J544" t="s" s="0">
+        <v>1402</v>
+      </c>
+      <c r="K544" s="0"/>
+      <c r="L544" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="M544" s="0"/>
+    </row>
+    <row r="545">
+      <c r="A545" t="n" s="0">
+        <v>544.0</v>
+      </c>
+      <c r="B545" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C545" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D545" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="E545" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F545" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="G545" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H545" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I545" t="s" s="0">
+        <v>928</v>
+      </c>
+      <c r="J545" t="s" s="0">
+        <v>870</v>
+      </c>
+      <c r="K545" s="0"/>
+      <c r="L545" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="M545" s="0"/>
+    </row>
+    <row r="546">
+      <c r="A546" t="n" s="0">
+        <v>545.0</v>
+      </c>
+      <c r="B546" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C546" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D546" t="s" s="0">
+        <v>1180</v>
+      </c>
+      <c r="E546" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="F546" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="G546" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H546" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I546" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="J546" t="s" s="0">
+        <v>1403</v>
+      </c>
+      <c r="K546" s="0"/>
+      <c r="L546" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="M546" s="0"/>
+    </row>
+    <row r="547">
+      <c r="A547" t="n" s="0">
+        <v>546.0</v>
+      </c>
+      <c r="B547" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C547" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="D547" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="E547" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="F547" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="G547" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H547" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I547" t="s" s="0">
+        <v>891</v>
+      </c>
+      <c r="J547" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="K547" s="0"/>
+      <c r="L547" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="M547" s="0"/>
+    </row>
+    <row r="548">
+      <c r="A548" t="n" s="0">
+        <v>547.0</v>
+      </c>
+      <c r="B548" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C548" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="D548" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="E548" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="F548" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="G548" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H548" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I548" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="J548" t="s" s="0">
+        <v>1404</v>
+      </c>
+      <c r="K548" s="0"/>
+      <c r="L548" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="M548" s="0"/>
+    </row>
+    <row r="549">
+      <c r="A549" t="n" s="0">
+        <v>548.0</v>
+      </c>
+      <c r="B549" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C549" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="D549" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="E549" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="F549" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G549" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H549" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I549" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="J549" t="s" s="0">
+        <v>1405</v>
+      </c>
+      <c r="K549" s="0"/>
+      <c r="L549" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="M549" s="0"/>
+    </row>
+    <row r="550">
+      <c r="A550" t="n" s="0">
+        <v>549.0</v>
+      </c>
+      <c r="B550" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C550" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="D550" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="E550" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="F550" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="G550" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H550" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I550" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="J550" t="s" s="0">
+        <v>1184</v>
+      </c>
+      <c r="K550" s="0"/>
+      <c r="L550" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="M550" s="0"/>
+    </row>
+    <row r="551">
+      <c r="A551" t="n" s="0">
+        <v>550.0</v>
+      </c>
+      <c r="B551" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C551" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="D551" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="E551" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F551" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G551" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H551" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I551" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="J551" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="K551" s="0"/>
+      <c r="L551" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="M551" s="0"/>
+    </row>
+    <row r="552">
+      <c r="A552" t="n" s="0">
+        <v>551.0</v>
+      </c>
+      <c r="B552" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C552" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="D552" t="s" s="0">
+        <v>1196</v>
+      </c>
+      <c r="E552" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="F552" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="G552" t="s" s="0">
+        <v>1197</v>
+      </c>
+      <c r="H552" t="s" s="0">
+        <v>1008</v>
+      </c>
+      <c r="I552" t="s" s="0">
+        <v>1198</v>
+      </c>
+      <c r="J552" t="s" s="0">
+        <v>1194</v>
+      </c>
+      <c r="K552" s="0"/>
+      <c r="L552" t="s" s="0">
+        <v>538</v>
+      </c>
+      <c r="M552" s="0"/>
+    </row>
+    <row r="553">
+      <c r="A553" t="n" s="0">
+        <v>552.0</v>
+      </c>
+      <c r="B553" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C553" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="D553" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="E553" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="F553" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="G553" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="H553" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I553" t="s" s="0">
+        <v>1406</v>
+      </c>
+      <c r="J553" t="s" s="0">
+        <v>1407</v>
+      </c>
+      <c r="K553" s="0"/>
+      <c r="L553" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="M553" s="0"/>
+    </row>
+    <row r="554">
+      <c r="A554" t="n" s="0">
+        <v>553.0</v>
+      </c>
+      <c r="B554" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C554" t="s" s="0">
+        <v>877</v>
+      </c>
+      <c r="D554" t="s" s="0">
+        <v>1200</v>
+      </c>
+      <c r="E554" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="F554" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="G554" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="H554" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I554" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="J554" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="K554" s="0"/>
+      <c r="L554" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="M554" s="0"/>
+    </row>
+    <row r="555">
+      <c r="A555" t="n" s="0">
+        <v>554.0</v>
+      </c>
+      <c r="B555" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C555" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="D555" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="E555" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="F555" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="G555" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H555" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I555" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="J555" t="s" s="0">
+        <v>1408</v>
+      </c>
+      <c r="K555" s="0"/>
+      <c r="L555" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="M555" s="0"/>
+    </row>
+    <row r="556">
+      <c r="A556" t="n" s="0">
+        <v>555.0</v>
+      </c>
+      <c r="B556" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C556" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="D556" t="s" s="0">
+        <v>880</v>
+      </c>
+      <c r="E556" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F556" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G556" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H556" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I556" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="J556" t="s" s="0">
+        <v>1409</v>
+      </c>
+      <c r="K556" s="0"/>
+      <c r="L556" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M556" s="0"/>
+    </row>
+    <row r="557">
+      <c r="A557" t="n" s="0">
+        <v>556.0</v>
+      </c>
+      <c r="B557" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C557" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="D557" t="s" s="0">
+        <v>1203</v>
+      </c>
+      <c r="E557" t="s" s="0">
+        <v>1204</v>
+      </c>
+      <c r="F557" t="s" s="0">
+        <v>1205</v>
+      </c>
+      <c r="G557" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H557" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I557" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="J557" t="s" s="0">
+        <v>1199</v>
+      </c>
+      <c r="K557" s="0"/>
+      <c r="L557" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="M557" s="0"/>
+    </row>
+    <row r="558">
+      <c r="A558" t="n" s="0">
+        <v>557.0</v>
+      </c>
+      <c r="B558" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C558" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="D558" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="E558" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="F558" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="G558" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H558" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I558" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="J558" t="s" s="0">
+        <v>1410</v>
+      </c>
+      <c r="K558" s="0"/>
+      <c r="L558" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="M558" s="0"/>
+    </row>
+    <row r="559">
+      <c r="A559" t="n" s="0">
+        <v>558.0</v>
+      </c>
+      <c r="B559" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C559" t="s" s="0">
+        <v>1408</v>
+      </c>
+      <c r="D559" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="E559" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="F559" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="G559" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="H559" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I559" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="J559" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="K559" s="0"/>
+      <c r="L559" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="M559" s="0"/>
+    </row>
+    <row r="560">
+      <c r="A560" t="n" s="0">
+        <v>559.0</v>
+      </c>
+      <c r="B560" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C560" t="s" s="0">
+        <v>1408</v>
+      </c>
+      <c r="D560" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="E560" t="s" s="0">
+        <v>1411</v>
+      </c>
+      <c r="F560" t="s" s="0">
+        <v>1412</v>
+      </c>
+      <c r="G560" t="s" s="0">
+        <v>1413</v>
+      </c>
+      <c r="H560" t="s" s="0">
+        <v>1414</v>
+      </c>
+      <c r="I560" t="s" s="0">
+        <v>1415</v>
+      </c>
+      <c r="J560" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="K560" s="0"/>
+      <c r="L560" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="M560" s="0"/>
+    </row>
+    <row r="561">
+      <c r="A561" t="n" s="0">
+        <v>560.0</v>
+      </c>
+      <c r="B561" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C561" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="D561" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="E561" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="F561" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="G561" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H561" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I561" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="J561" t="s" s="0">
+        <v>1416</v>
+      </c>
+      <c r="K561" s="0"/>
+      <c r="L561" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="M561" s="0"/>
+    </row>
+    <row r="562">
+      <c r="A562" t="n" s="0">
+        <v>561.0</v>
+      </c>
+      <c r="B562" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C562" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="D562" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="E562" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="F562" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="G562" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H562" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I562" t="s" s="0">
+        <v>429</v>
+      </c>
+      <c r="J562" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="K562" s="0"/>
+      <c r="L562" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="M562" s="0"/>
+    </row>
+    <row r="563">
+      <c r="A563" t="n" s="0">
+        <v>562.0</v>
+      </c>
+      <c r="B563" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C563" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="D563" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="E563" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="F563" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="G563" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H563" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I563" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="J563" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="K563" s="0"/>
+      <c r="L563" t="s" s="0">
+        <v>674</v>
+      </c>
+      <c r="M563" s="0"/>
+    </row>
+    <row r="564">
+      <c r="A564" t="n" s="0">
+        <v>563.0</v>
+      </c>
+      <c r="B564" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C564" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="D564" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="E564" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="F564" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="G564" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H564" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I564" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="J564" t="s" s="0">
+        <v>1208</v>
+      </c>
+      <c r="K564" s="0"/>
+      <c r="L564" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="M564" s="0"/>
+    </row>
+    <row r="565">
+      <c r="A565" t="n" s="0">
+        <v>564.0</v>
+      </c>
+      <c r="B565" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C565" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="D565" t="s" s="0">
+        <v>890</v>
+      </c>
+      <c r="E565" t="s" s="0">
+        <v>450</v>
+      </c>
+      <c r="F565" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="G565" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H565" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I565" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="J565" t="s" s="0">
+        <v>1417</v>
+      </c>
+      <c r="K565" s="0"/>
+      <c r="L565" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="M565" s="0"/>
+    </row>
+    <row r="566">
+      <c r="A566" t="n" s="0">
+        <v>565.0</v>
+      </c>
+      <c r="B566" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C566" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="D566" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="E566" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="F566" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="G566" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="H566" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="I566" t="s" s="0">
+        <v>1418</v>
+      </c>
+      <c r="J566" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="K566" s="0"/>
+      <c r="L566" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="M566" s="0"/>
+    </row>
+    <row r="567">
+      <c r="A567" t="n" s="0">
+        <v>566.0</v>
+      </c>
+      <c r="B567" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C567" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="D567" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="E567" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="F567" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="G567" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H567" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I567" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="J567" t="s" s="0">
+        <v>1419</v>
+      </c>
+      <c r="K567" s="0"/>
+      <c r="L567" t="s" s="0">
+        <v>864</v>
+      </c>
+      <c r="M567" s="0"/>
+    </row>
+    <row r="568">
+      <c r="A568" t="n" s="0">
+        <v>567.0</v>
+      </c>
+      <c r="B568" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C568" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="D568" t="s" s="0">
+        <v>893</v>
+      </c>
+      <c r="E568" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="F568" t="s" s="0">
+        <v>894</v>
+      </c>
+      <c r="G568" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H568" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I568" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="J568" t="s" s="0">
+        <v>1225</v>
+      </c>
+      <c r="K568" s="0"/>
+      <c r="L568" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="M568" s="0"/>
+    </row>
+    <row r="569">
+      <c r="A569" t="n" s="0">
+        <v>568.0</v>
+      </c>
+      <c r="B569" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C569" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="D569" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="E569" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="F569" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="G569" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H569" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I569" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="J569" t="s" s="0">
+        <v>1214</v>
+      </c>
+      <c r="K569" s="0"/>
+      <c r="L569" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="M569" s="0"/>
+    </row>
+    <row r="570">
+      <c r="A570" t="n" s="0">
+        <v>569.0</v>
+      </c>
+      <c r="B570" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C570" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="D570" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="E570" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="F570" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="G570" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H570" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="I570" t="s" s="0">
+        <v>1420</v>
+      </c>
+      <c r="J570" t="s" s="0">
+        <v>902</v>
+      </c>
+      <c r="K570" s="0"/>
+      <c r="L570" t="s" s="0">
+        <v>634</v>
+      </c>
+      <c r="M570" s="0"/>
+    </row>
+    <row r="571">
+      <c r="A571" t="n" s="0">
+        <v>570.0</v>
+      </c>
+      <c r="B571" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C571" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="D571" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="E571" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F571" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="G571" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="H571" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I571" t="s" s="0">
+        <v>1421</v>
+      </c>
+      <c r="J571" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="K571" s="0"/>
+      <c r="L571" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="M571" s="0"/>
+    </row>
+    <row r="572">
+      <c r="A572" t="n" s="0">
+        <v>571.0</v>
+      </c>
+      <c r="B572" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C572" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="D572" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="E572" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="F572" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="G572" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H572" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="I572" t="s" s="0">
+        <v>460</v>
+      </c>
+      <c r="J572" t="s" s="0">
+        <v>1422</v>
+      </c>
+      <c r="K572" s="0"/>
+      <c r="L572" t="s" s="0">
+        <v>1423</v>
+      </c>
+      <c r="M572" s="0"/>
+    </row>
+    <row r="573">
+      <c r="A573" t="n" s="0">
+        <v>572.0</v>
+      </c>
+      <c r="B573" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C573" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="D573" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="E573" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F573" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="G573" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H573" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I573" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="J573" t="s" s="0">
+        <v>1424</v>
+      </c>
+      <c r="K573" s="0"/>
+      <c r="L573" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="M573" s="0"/>
+    </row>
+    <row r="574">
+      <c r="A574" t="n" s="0">
+        <v>573.0</v>
+      </c>
+      <c r="B574" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C574" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="D574" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="E574" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="F574" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="G574" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H574" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I574" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="J574" t="s" s="0">
+        <v>1234</v>
+      </c>
+      <c r="K574" s="0"/>
+      <c r="L574" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="M574" s="0"/>
+    </row>
+    <row r="575">
+      <c r="A575" t="n" s="0">
+        <v>574.0</v>
+      </c>
+      <c r="B575" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C575" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="D575" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="E575" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F575" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="G575" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H575" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I575" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="J575" t="s" s="0">
+        <v>1221</v>
+      </c>
+      <c r="K575" s="0"/>
+      <c r="L575" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="M575" s="0"/>
+    </row>
+    <row r="576">
+      <c r="A576" t="n" s="0">
+        <v>575.0</v>
+      </c>
+      <c r="B576" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C576" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="D576" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="E576" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F576" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="G576" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H576" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I576" t="s" s="0">
+        <v>494</v>
+      </c>
+      <c r="J576" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="K576" s="0"/>
+      <c r="L576" t="s" s="0">
+        <v>739</v>
+      </c>
+      <c r="M576" s="0"/>
+    </row>
+    <row r="577">
+      <c r="A577" t="n" s="0">
+        <v>576.0</v>
+      </c>
+      <c r="B577" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C577" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="D577" t="s" s="0">
+        <v>1229</v>
+      </c>
+      <c r="E577" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="F577" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="G577" t="s" s="0">
+        <v>560</v>
+      </c>
+      <c r="H577" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I577" t="s" s="0">
+        <v>1425</v>
+      </c>
+      <c r="J577" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="K577" s="0"/>
+      <c r="L577" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="M577" s="0"/>
+    </row>
+    <row r="578">
+      <c r="A578" t="n" s="0">
+        <v>577.0</v>
+      </c>
+      <c r="B578" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C578" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="D578" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="E578" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="F578" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="G578" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="H578" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="I578" t="s" s="0">
+        <v>1426</v>
+      </c>
+      <c r="J578" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="K578" s="0"/>
+      <c r="L578" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="M578" s="0"/>
+    </row>
+    <row r="579">
+      <c r="A579" t="n" s="0">
+        <v>578.0</v>
+      </c>
+      <c r="B579" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C579" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="D579" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="E579" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F579" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G579" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="H579" t="s" s="0">
+        <v>1427</v>
+      </c>
+      <c r="I579" t="s" s="0">
+        <v>1428</v>
+      </c>
+      <c r="J579" t="s" s="0">
+        <v>1240</v>
+      </c>
+      <c r="K579" s="0"/>
+      <c r="L579" t="s" s="0">
+        <v>864</v>
+      </c>
+      <c r="M579" s="0"/>
+    </row>
+    <row r="580">
+      <c r="A580" t="n" s="0">
+        <v>579.0</v>
+      </c>
+      <c r="B580" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C580" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="D580" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="E580" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="F580" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="G580" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H580" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I580" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="J580" t="s" s="0">
+        <v>936</v>
+      </c>
+      <c r="K580" s="0"/>
+      <c r="L580" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="M580" s="0"/>
+    </row>
+    <row r="581">
+      <c r="A581" t="n" s="0">
+        <v>580.0</v>
+      </c>
+      <c r="B581" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C581" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="D581" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="E581" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="F581" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="G581" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H581" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I581" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="J581" t="s" s="0">
+        <v>917</v>
+      </c>
+      <c r="K581" s="0"/>
+      <c r="L581" t="s" s="0">
+        <v>806</v>
+      </c>
+      <c r="M581" s="0"/>
+    </row>
+    <row r="582">
+      <c r="A582" t="n" s="0">
+        <v>581.0</v>
+      </c>
+      <c r="B582" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C582" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="D582" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="E582" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F582" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G582" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H582" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I582" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="J582" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="K582" s="0"/>
+      <c r="L582" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M582" s="0"/>
+    </row>
+    <row r="583">
+      <c r="A583" t="n" s="0">
+        <v>582.0</v>
+      </c>
+      <c r="B583" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C583" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="D583" t="s" s="0">
+        <v>301</v>
+      </c>
+      <c r="E583" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="F583" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G583" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H583" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I583" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="J583" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="K583" s="0"/>
+      <c r="L583" t="s" s="0">
+        <v>1342</v>
+      </c>
+      <c r="M583" s="0"/>
+    </row>
+    <row r="584">
+      <c r="A584" t="n" s="0">
+        <v>583.0</v>
+      </c>
+      <c r="B584" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C584" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="D584" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="E584" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="F584" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="G584" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H584" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I584" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="J584" t="s" s="0">
+        <v>1249</v>
+      </c>
+      <c r="K584" s="0"/>
+      <c r="L584" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="M584" s="0"/>
+    </row>
+    <row r="585">
+      <c r="A585" t="n" s="0">
+        <v>584.0</v>
+      </c>
+      <c r="B585" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C585" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="D585" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="E585" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="F585" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="G585" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H585" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I585" t="s" s="0">
+        <v>730</v>
+      </c>
+      <c r="J585" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="K585" s="0"/>
+      <c r="L585" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="M585" s="0"/>
+    </row>
+    <row r="586">
+      <c r="A586" t="n" s="0">
+        <v>585.0</v>
+      </c>
+      <c r="B586" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C586" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="D586" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="E586" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="F586" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="G586" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="H586" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I586" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="J586" t="s" s="0">
+        <v>364</v>
+      </c>
+      <c r="K586" s="0"/>
+      <c r="L586" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M586" s="0"/>
+    </row>
+    <row r="587">
+      <c r="A587" t="n" s="0">
+        <v>586.0</v>
+      </c>
+      <c r="B587" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C587" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="D587" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="E587" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="F587" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="G587" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="H587" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I587" t="s" s="0">
+        <v>1429</v>
+      </c>
+      <c r="J587" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="K587" s="0"/>
+      <c r="L587" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="M587" s="0"/>
+    </row>
+    <row r="588">
+      <c r="A588" t="n" s="0">
+        <v>587.0</v>
+      </c>
+      <c r="B588" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C588" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="D588" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="E588" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="F588" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="G588" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="H588" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I588" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="J588" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="K588" s="0"/>
+      <c r="L588" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M588" s="0"/>
+    </row>
+    <row r="589">
+      <c r="A589" t="n" s="0">
+        <v>588.0</v>
+      </c>
+      <c r="B589" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C589" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="D589" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="E589" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="F589" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="G589" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H589" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I589" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="J589" t="s" s="0">
+        <v>1256</v>
+      </c>
+      <c r="K589" s="0"/>
+      <c r="L589" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="M589" s="0"/>
+    </row>
+    <row r="590">
+      <c r="A590" t="n" s="0">
+        <v>589.0</v>
+      </c>
+      <c r="B590" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C590" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="D590" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="E590" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="F590" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="G590" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H590" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I590" t="s" s="0">
+        <v>510</v>
+      </c>
+      <c r="J590" t="s" s="0">
+        <v>1222</v>
+      </c>
+      <c r="K590" s="0"/>
+      <c r="L590" t="s" s="0">
+        <v>420</v>
+      </c>
+      <c r="M590" s="0"/>
+    </row>
+    <row r="591">
+      <c r="A591" t="n" s="0">
+        <v>590.0</v>
+      </c>
+      <c r="B591" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C591" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="D591" t="s" s="0">
+        <v>346</v>
+      </c>
+      <c r="E591" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="F591" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="G591" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H591" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I591" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="J591" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="K591" s="0"/>
+      <c r="L591" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="M591" s="0"/>
+    </row>
+    <row r="592">
+      <c r="A592" t="n" s="0">
+        <v>591.0</v>
+      </c>
+      <c r="B592" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C592" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="D592" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="E592" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="F592" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="G592" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="H592" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="I592" t="s" s="0">
+        <v>1430</v>
+      </c>
+      <c r="J592" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="K592" s="0"/>
+      <c r="L592" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="M592" s="0"/>
+    </row>
+    <row r="593">
+      <c r="A593" t="n" s="0">
+        <v>592.0</v>
+      </c>
+      <c r="B593" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C593" t="s" s="0">
+        <v>354</v>
+      </c>
+      <c r="D593" t="s" s="0">
+        <v>1254</v>
+      </c>
+      <c r="E593" t="s" s="0">
+        <v>532</v>
+      </c>
+      <c r="F593" t="s" s="0">
+        <v>533</v>
+      </c>
+      <c r="G593" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H593" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I593" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="J593" t="s" s="0">
+        <v>931</v>
+      </c>
+      <c r="K593" s="0"/>
+      <c r="L593" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="M593" s="0"/>
+    </row>
+    <row r="594">
+      <c r="A594" t="n" s="0">
+        <v>593.0</v>
+      </c>
+      <c r="B594" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C594" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="D594" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="E594" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="F594" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="G594" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H594" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="I594" t="s" s="0">
+        <v>474</v>
+      </c>
+      <c r="J594" t="s" s="0">
+        <v>1431</v>
+      </c>
+      <c r="K594" s="0"/>
+      <c r="L594" t="s" s="0">
+        <v>649</v>
+      </c>
+      <c r="M594" s="0"/>
+    </row>
+    <row r="595">
+      <c r="A595" t="n" s="0">
+        <v>594.0</v>
+      </c>
+      <c r="B595" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C595" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="D595" t="s" s="0">
+        <v>366</v>
+      </c>
+      <c r="E595" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="F595" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="G595" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H595" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I595" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="J595" t="s" s="0">
+        <v>1432</v>
+      </c>
+      <c r="K595" s="0"/>
+      <c r="L595" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M595" s="0"/>
+    </row>
+    <row r="596">
+      <c r="A596" t="n" s="0">
+        <v>595.0</v>
+      </c>
+      <c r="B596" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C596" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="D596" t="s" s="0">
+        <v>371</v>
+      </c>
+      <c r="E596" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="F596" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="G596" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H596" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I596" t="s" s="0">
+        <v>891</v>
+      </c>
+      <c r="J596" t="s" s="0">
+        <v>1248</v>
+      </c>
+      <c r="K596" s="0"/>
+      <c r="L596" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="M596" s="0"/>
+    </row>
+    <row r="597">
+      <c r="A597" t="n" s="0">
+        <v>596.0</v>
+      </c>
+      <c r="B597" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C597" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="D597" t="s" s="0">
+        <v>376</v>
+      </c>
+      <c r="E597" t="s" s="0">
+        <v>377</v>
+      </c>
+      <c r="F597" t="s" s="0">
+        <v>378</v>
+      </c>
+      <c r="G597" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H597" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="I597" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="J597" t="s" s="0">
+        <v>1433</v>
+      </c>
+      <c r="K597" s="0"/>
+      <c r="L597" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="M597" s="0"/>
+    </row>
+    <row r="598">
+      <c r="A598" t="n" s="0">
+        <v>597.0</v>
+      </c>
+      <c r="B598" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C598" t="s" s="0">
+        <v>382</v>
+      </c>
+      <c r="D598" t="s" s="0">
+        <v>383</v>
+      </c>
+      <c r="E598" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F598" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G598" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H598" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I598" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="J598" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="K598" s="0"/>
+      <c r="L598" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="M598" s="0"/>
+    </row>
+    <row r="599">
+      <c r="A599" t="n" s="0">
+        <v>598.0</v>
+      </c>
+      <c r="B599" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C599" t="s" s="0">
+        <v>382</v>
+      </c>
+      <c r="D599" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="E599" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F599" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G599" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H599" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I599" t="s" s="0">
+        <v>433</v>
+      </c>
+      <c r="J599" t="s" s="0">
+        <v>1246</v>
+      </c>
+      <c r="K599" s="0"/>
+      <c r="L599" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="M599" s="0"/>
+    </row>
+    <row r="600">
+      <c r="A600" t="n" s="0">
+        <v>599.0</v>
+      </c>
+      <c r="B600" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C600" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="D600" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="E600" t="s" s="0">
+        <v>393</v>
+      </c>
+      <c r="F600" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="G600" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H600" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I600" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="J600" t="s" s="0">
+        <v>354</v>
+      </c>
+      <c r="K600" s="0"/>
+      <c r="L600" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="M600" s="0"/>
+    </row>
+    <row r="601">
+      <c r="A601" t="n" s="0">
+        <v>600.0</v>
+      </c>
+      <c r="B601" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C601" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="D601" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="E601" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="F601" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="G601" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H601" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I601" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="J601" t="s" s="0">
+        <v>1259</v>
+      </c>
+      <c r="K601" s="0"/>
+      <c r="L601" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="M601" s="0"/>
+    </row>
+    <row r="602">
+      <c r="A602" t="n" s="0">
+        <v>601.0</v>
+      </c>
+      <c r="B602" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C602" t="s" s="0">
+        <v>401</v>
+      </c>
+      <c r="D602" t="s" s="0">
+        <v>402</v>
+      </c>
+      <c r="E602" t="s" s="0">
+        <v>403</v>
+      </c>
+      <c r="F602" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="G602" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H602" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I602" t="s" s="0">
+        <v>1218</v>
+      </c>
+      <c r="J602" t="s" s="0">
+        <v>1434</v>
+      </c>
+      <c r="K602" s="0"/>
+      <c r="L602" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="M602" s="0"/>
+    </row>
+    <row r="603">
+      <c r="A603" t="n" s="0">
+        <v>602.0</v>
+      </c>
+      <c r="B603" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C603" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="D603" t="s" s="0">
+        <v>415</v>
+      </c>
+      <c r="E603" t="s" s="0">
+        <v>416</v>
+      </c>
+      <c r="F603" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="G603" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H603" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="I603" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="J603" t="s" s="0">
+        <v>1435</v>
+      </c>
+      <c r="K603" s="0"/>
+      <c r="L603" t="s" s="0">
+        <v>1436</v>
+      </c>
+      <c r="M603" s="0"/>
+    </row>
+    <row r="604">
+      <c r="A604" t="n" s="0">
+        <v>603.0</v>
+      </c>
+      <c r="B604" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C604" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="D604" t="s" s="0">
+        <v>426</v>
+      </c>
+      <c r="E604" t="s" s="0">
+        <v>427</v>
+      </c>
+      <c r="F604" t="s" s="0">
+        <v>428</v>
+      </c>
+      <c r="G604" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H604" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I604" t="s" s="0">
+        <v>608</v>
+      </c>
+      <c r="J604" t="s" s="0">
+        <v>949</v>
+      </c>
+      <c r="K604" s="0"/>
+      <c r="L604" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="M604" s="0"/>
+    </row>
+    <row r="605">
+      <c r="A605" t="n" s="0">
+        <v>604.0</v>
+      </c>
+      <c r="B605" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C605" t="s" s="0">
+        <v>435</v>
+      </c>
+      <c r="D605" t="s" s="0">
+        <v>440</v>
+      </c>
+      <c r="E605" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F605" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="G605" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H605" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I605" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="J605" t="s" s="0">
+        <v>1437</v>
+      </c>
+      <c r="K605" s="0"/>
+      <c r="L605" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="M605" s="0"/>
+    </row>
+    <row r="606">
+      <c r="A606" t="n" s="0">
+        <v>605.0</v>
+      </c>
+      <c r="B606" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C606" t="s" s="0">
+        <v>435</v>
+      </c>
+      <c r="D606" t="s" s="0">
+        <v>436</v>
+      </c>
+      <c r="E606" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="F606" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="G606" t="s" s="0">
+        <v>1185</v>
+      </c>
+      <c r="H606" t="s" s="0">
+        <v>824</v>
+      </c>
+      <c r="I606" t="s" s="0">
+        <v>1438</v>
+      </c>
+      <c r="J606" t="s" s="0">
+        <v>464</v>
+      </c>
+      <c r="K606" s="0"/>
+      <c r="L606" t="s" s="0">
+        <v>420</v>
+      </c>
+      <c r="M606" s="0"/>
+    </row>
+    <row r="607">
+      <c r="A607" t="n" s="0">
+        <v>606.0</v>
+      </c>
+      <c r="B607" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C607" t="s" s="0">
+        <v>443</v>
+      </c>
+      <c r="D607" t="s" s="0">
+        <v>444</v>
+      </c>
+      <c r="E607" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="F607" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G607" t="s" s="0">
+        <v>1439</v>
+      </c>
+      <c r="H607" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="I607" t="s" s="0">
+        <v>1440</v>
+      </c>
+      <c r="J607" t="s" s="0">
+        <v>1441</v>
+      </c>
+      <c r="K607" s="0"/>
+      <c r="L607" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="M607" s="0"/>
+    </row>
+    <row r="608">
+      <c r="A608" t="n" s="0">
+        <v>607.0</v>
+      </c>
+      <c r="B608" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C608" t="s" s="0">
+        <v>448</v>
+      </c>
+      <c r="D608" t="s" s="0">
+        <v>449</v>
+      </c>
+      <c r="E608" t="s" s="0">
+        <v>450</v>
+      </c>
+      <c r="F608" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="G608" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H608" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I608" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="J608" t="s" s="0">
+        <v>1442</v>
+      </c>
+      <c r="K608" s="0"/>
+      <c r="L608" t="s" s="0">
+        <v>649</v>
+      </c>
+      <c r="M608" s="0"/>
+    </row>
+    <row r="609">
+      <c r="A609" t="n" s="0">
+        <v>608.0</v>
+      </c>
+      <c r="B609" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C609" t="s" s="0">
+        <v>448</v>
+      </c>
+      <c r="D609" t="s" s="0">
+        <v>453</v>
+      </c>
+      <c r="E609" t="s" s="0">
+        <v>454</v>
+      </c>
+      <c r="F609" t="s" s="0">
+        <v>455</v>
+      </c>
+      <c r="G609" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H609" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I609" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="J609" t="s" s="0">
+        <v>435</v>
+      </c>
+      <c r="K609" s="0"/>
+      <c r="L609" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="M609" s="0"/>
+    </row>
+    <row r="610">
+      <c r="A610" t="n" s="0">
+        <v>609.0</v>
+      </c>
+      <c r="B610" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C610" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="D610" t="s" s="0">
+        <v>463</v>
+      </c>
+      <c r="E610" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="F610" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="G610" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="H610" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I610" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="J610" t="s" s="0">
+        <v>1265</v>
+      </c>
+      <c r="K610" s="0"/>
+      <c r="L610" t="s" s="0">
+        <v>569</v>
+      </c>
+      <c r="M610" s="0"/>
+    </row>
+    <row r="611">
+      <c r="A611" t="n" s="0">
+        <v>610.0</v>
+      </c>
+      <c r="B611" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C611" t="s" s="0">
+        <v>963</v>
+      </c>
+      <c r="D611" t="s" s="0">
+        <v>964</v>
+      </c>
+      <c r="E611" t="s" s="0">
+        <v>965</v>
+      </c>
+      <c r="F611" t="s" s="0">
+        <v>966</v>
+      </c>
+      <c r="G611" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H611" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I611" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="J611" t="s" s="0">
+        <v>1443</v>
+      </c>
+      <c r="K611" s="0"/>
+      <c r="L611" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="M611" s="0"/>
+    </row>
+    <row r="612">
+      <c r="A612" t="n" s="0">
+        <v>611.0</v>
+      </c>
+      <c r="B612" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C612" t="s" s="0">
+        <v>476</v>
+      </c>
+      <c r="D612" t="s" s="0">
+        <v>477</v>
+      </c>
+      <c r="E612" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F612" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G612" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H612" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I612" t="s" s="0">
+        <v>567</v>
+      </c>
+      <c r="J612" t="s" s="0">
+        <v>476</v>
+      </c>
+      <c r="K612" s="0"/>
+      <c r="L612" t="s" s="0">
+        <v>674</v>
+      </c>
+      <c r="M612" s="0"/>
+    </row>
+    <row r="613">
+      <c r="A613" t="n" s="0">
+        <v>612.0</v>
+      </c>
+      <c r="B613" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C613" t="s" s="0">
+        <v>481</v>
+      </c>
+      <c r="D613" t="s" s="0">
+        <v>482</v>
+      </c>
+      <c r="E613" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="F613" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="G613" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H613" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I613" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="J613" t="s" s="0">
+        <v>442</v>
+      </c>
+      <c r="K613" s="0"/>
+      <c r="L613" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="M613" s="0"/>
+    </row>
+    <row r="614">
+      <c r="A614" t="n" s="0">
+        <v>613.0</v>
+      </c>
+      <c r="B614" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C614" t="s" s="0">
+        <v>485</v>
+      </c>
+      <c r="D614" t="s" s="0">
+        <v>486</v>
+      </c>
+      <c r="E614" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="F614" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="G614" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H614" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I614" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="J614" t="s" s="0">
+        <v>1444</v>
+      </c>
+      <c r="K614" s="0"/>
+      <c r="L614" t="s" s="0">
+        <v>864</v>
+      </c>
+      <c r="M614" s="0"/>
+    </row>
+    <row r="615">
+      <c r="A615" t="n" s="0">
+        <v>614.0</v>
+      </c>
+      <c r="B615" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C615" t="s" s="0">
+        <v>485</v>
+      </c>
+      <c r="D615" t="s" s="0">
+        <v>535</v>
+      </c>
+      <c r="E615" t="s" s="0">
+        <v>450</v>
+      </c>
+      <c r="F615" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="G615" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H615" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I615" t="s" s="0">
+        <v>1445</v>
+      </c>
+      <c r="J615" t="s" s="0">
+        <v>1446</v>
+      </c>
+      <c r="K615" s="0"/>
+      <c r="L615" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="M615" s="0"/>
+    </row>
+    <row r="616">
+      <c r="A616" t="n" s="0">
+        <v>615.0</v>
+      </c>
+      <c r="B616" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C616" t="s" s="0">
+        <v>490</v>
+      </c>
+      <c r="D616" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="E616" t="s" s="0">
+        <v>492</v>
+      </c>
+      <c r="F616" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="G616" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H616" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I616" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="J616" t="s" s="0">
+        <v>1447</v>
+      </c>
+      <c r="K616" s="0"/>
+      <c r="L616" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="M616" s="0"/>
+    </row>
+    <row r="617">
+      <c r="A617" t="n" s="0">
+        <v>616.0</v>
+      </c>
+      <c r="B617" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C617" t="s" s="0">
+        <v>496</v>
+      </c>
+      <c r="D617" t="s" s="0">
+        <v>497</v>
+      </c>
+      <c r="E617" t="s" s="0">
+        <v>498</v>
+      </c>
+      <c r="F617" t="s" s="0">
+        <v>499</v>
+      </c>
+      <c r="G617" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H617" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I617" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="J617" t="s" s="0">
+        <v>1448</v>
+      </c>
+      <c r="K617" s="0"/>
+      <c r="L617" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="M617" s="0"/>
+    </row>
+    <row r="618">
+      <c r="A618" t="n" s="0">
+        <v>617.0</v>
+      </c>
+      <c r="B618" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C618" t="s" s="0">
+        <v>511</v>
+      </c>
+      <c r="D618" t="s" s="0">
+        <v>512</v>
+      </c>
+      <c r="E618" t="s" s="0">
+        <v>513</v>
+      </c>
+      <c r="F618" t="s" s="0">
+        <v>514</v>
+      </c>
+      <c r="G618" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H618" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I618" t="s" s="0">
+        <v>928</v>
+      </c>
+      <c r="J618" t="s" s="0">
+        <v>1449</v>
+      </c>
+      <c r="K618" s="0"/>
+      <c r="L618" t="s" s="0">
+        <v>420</v>
+      </c>
+      <c r="M618" s="0"/>
+    </row>
+    <row r="619">
+      <c r="A619" t="n" s="0">
+        <v>618.0</v>
+      </c>
+      <c r="B619" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C619" t="s" s="0">
+        <v>996</v>
+      </c>
+      <c r="D619" t="s" s="0">
+        <v>997</v>
+      </c>
+      <c r="E619" t="s" s="0">
+        <v>669</v>
+      </c>
+      <c r="F619" t="s" s="0">
+        <v>670</v>
+      </c>
+      <c r="G619" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H619" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I619" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="J619" t="s" s="0">
+        <v>522</v>
+      </c>
+      <c r="K619" s="0"/>
+      <c r="L619" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="M619" s="0"/>
+    </row>
+    <row r="620">
+      <c r="A620" t="n" s="0">
+        <v>619.0</v>
+      </c>
+      <c r="B620" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C620" t="s" s="0">
+        <v>530</v>
+      </c>
+      <c r="D620" t="s" s="0">
+        <v>531</v>
+      </c>
+      <c r="E620" t="s" s="0">
+        <v>532</v>
+      </c>
+      <c r="F620" t="s" s="0">
+        <v>533</v>
+      </c>
+      <c r="G620" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H620" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I620" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="J620" t="s" s="0">
+        <v>506</v>
+      </c>
+      <c r="K620" s="0"/>
+      <c r="L620" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="M620" s="0"/>
+    </row>
+    <row r="621">
+      <c r="A621" t="n" s="0">
+        <v>620.0</v>
+      </c>
+      <c r="B621" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C621" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="D621" t="s" s="0">
+        <v>553</v>
+      </c>
+      <c r="E621" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="F621" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="G621" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H621" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I621" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="J621" t="s" s="0">
+        <v>1000</v>
+      </c>
+      <c r="K621" s="0"/>
+      <c r="L621" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="M621" s="0"/>
+    </row>
+    <row r="622">
+      <c r="A622" t="n" s="0">
+        <v>621.0</v>
+      </c>
+      <c r="B622" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C622" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="D622" t="s" s="0">
+        <v>540</v>
+      </c>
+      <c r="E622" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="F622" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="G622" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="H622" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I622" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="J622" t="s" s="0">
+        <v>557</v>
+      </c>
+      <c r="K622" s="0"/>
+      <c r="L622" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="M622" s="0"/>
+    </row>
+    <row r="623">
+      <c r="A623" t="n" s="0">
+        <v>622.0</v>
+      </c>
+      <c r="B623" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C623" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="D623" t="s" s="0">
+        <v>542</v>
+      </c>
+      <c r="E623" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="F623" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="G623" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H623" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I623" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="J623" t="s" s="0">
+        <v>978</v>
+      </c>
+      <c r="K623" s="0"/>
+      <c r="L623" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="M623" s="0"/>
+    </row>
+    <row r="624">
+      <c r="A624" t="n" s="0">
+        <v>623.0</v>
+      </c>
+      <c r="B624" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C624" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="D624" t="s" s="0">
+        <v>544</v>
+      </c>
+      <c r="E624" t="s" s="0">
+        <v>517</v>
+      </c>
+      <c r="F624" t="s" s="0">
+        <v>518</v>
+      </c>
+      <c r="G624" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="H624" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I624" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="J624" t="s" s="0">
+        <v>555</v>
+      </c>
+      <c r="K624" s="0"/>
+      <c r="L624" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="M624" s="0"/>
+    </row>
+    <row r="625">
+      <c r="A625" t="n" s="0">
+        <v>624.0</v>
+      </c>
+      <c r="B625" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C625" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="D625" t="s" s="0">
+        <v>546</v>
+      </c>
+      <c r="E625" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F625" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G625" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H625" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I625" t="s" s="0">
+        <v>510</v>
+      </c>
+      <c r="J625" t="s" s="0">
+        <v>1450</v>
+      </c>
+      <c r="K625" s="0"/>
+      <c r="L625" t="s" s="0">
+        <v>420</v>
+      </c>
+      <c r="M625" s="0"/>
+    </row>
+    <row r="626">
+      <c r="A626" t="n" s="0">
+        <v>625.0</v>
+      </c>
+      <c r="B626" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C626" t="s" s="0">
+        <v>545</v>
+      </c>
+      <c r="D626" t="s" s="0">
+        <v>548</v>
+      </c>
+      <c r="E626" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="F626" t="s" s="0">
+        <v>550</v>
+      </c>
+      <c r="G626" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H626" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I626" t="s" s="0">
+        <v>494</v>
+      </c>
+      <c r="J626" t="s" s="0">
+        <v>552</v>
+      </c>
+      <c r="K626" s="0"/>
+      <c r="L626" t="s" s="0">
+        <v>871</v>
+      </c>
+      <c r="M626" s="0"/>
+    </row>
+    <row r="627">
+      <c r="A627" t="n" s="0">
+        <v>626.0</v>
+      </c>
+      <c r="B627" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C627" t="s" s="0">
+        <v>552</v>
+      </c>
+      <c r="D627" t="s" s="0">
+        <v>1002</v>
+      </c>
+      <c r="E627" t="s" s="0">
+        <v>1003</v>
+      </c>
+      <c r="F627" t="s" s="0">
+        <v>1004</v>
+      </c>
+      <c r="G627" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H627" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I627" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="J627" t="s" s="0">
+        <v>1001</v>
+      </c>
+      <c r="K627" s="0"/>
+      <c r="L627" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="M627" s="0"/>
+    </row>
+    <row r="628">
+      <c r="A628" t="n" s="0">
+        <v>627.0</v>
+      </c>
+      <c r="B628" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C628" t="s" s="0">
+        <v>1011</v>
+      </c>
+      <c r="D628" t="s" s="0">
+        <v>556</v>
+      </c>
+      <c r="E628" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="F628" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="G628" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H628" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I628" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="J628" t="s" s="0">
+        <v>1282</v>
+      </c>
+      <c r="K628" s="0"/>
+      <c r="L628" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="M628" s="0"/>
+    </row>
+    <row r="629">
+      <c r="A629" t="n" s="0">
+        <v>628.0</v>
+      </c>
+      <c r="B629" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C629" t="s" s="0">
+        <v>563</v>
+      </c>
+      <c r="D629" t="s" s="0">
+        <v>1016</v>
+      </c>
+      <c r="E629" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F629" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G629" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="H629" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I629" t="s" s="0">
+        <v>1451</v>
+      </c>
+      <c r="J629" t="s" s="0">
+        <v>528</v>
+      </c>
+      <c r="K629" s="0"/>
+      <c r="L629" t="s" s="0">
+        <v>420</v>
+      </c>
+      <c r="M629" s="0"/>
+    </row>
+    <row r="630">
+      <c r="A630" t="n" s="0">
+        <v>629.0</v>
+      </c>
+      <c r="B630" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C630" t="s" s="0">
+        <v>563</v>
+      </c>
+      <c r="D630" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="E630" t="s" s="0">
+        <v>565</v>
+      </c>
+      <c r="F630" t="s" s="0">
+        <v>566</v>
+      </c>
+      <c r="G630" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="H630" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I630" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="J630" t="s" s="0">
+        <v>1452</v>
+      </c>
+      <c r="K630" s="0"/>
+      <c r="L630" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="M630" s="0"/>
+    </row>
+    <row r="631">
+      <c r="A631" t="n" s="0">
+        <v>630.0</v>
+      </c>
+      <c r="B631" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C631" t="s" s="0">
+        <v>1453</v>
+      </c>
+      <c r="D631" t="s" s="0">
+        <v>601</v>
+      </c>
+      <c r="E631" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="F631" t="s" s="0">
+        <v>602</v>
+      </c>
+      <c r="G631" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H631" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I631" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="J631" t="s" s="0">
+        <v>1454</v>
+      </c>
+      <c r="K631" s="0"/>
+      <c r="L631" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="M631" s="0"/>
+    </row>
+    <row r="632">
+      <c r="A632" t="n" s="0">
+        <v>631.0</v>
+      </c>
+      <c r="B632" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C632" t="s" s="0">
+        <v>576</v>
+      </c>
+      <c r="D632" t="s" s="0">
+        <v>605</v>
+      </c>
+      <c r="E632" t="s" s="0">
+        <v>606</v>
+      </c>
+      <c r="F632" t="s" s="0">
+        <v>607</v>
+      </c>
+      <c r="G632" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H632" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I632" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="J632" t="s" s="0">
+        <v>1455</v>
+      </c>
+      <c r="K632" s="0"/>
+      <c r="L632" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="M632" s="0"/>
+    </row>
+    <row r="633">
+      <c r="A633" t="n" s="0">
+        <v>632.0</v>
+      </c>
+      <c r="B633" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C633" t="s" s="0">
+        <v>1034</v>
+      </c>
+      <c r="D633" t="s" s="0">
+        <v>1035</v>
+      </c>
+      <c r="E633" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="F633" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="G633" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H633" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I633" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="J633" t="s" s="0">
+        <v>576</v>
+      </c>
+      <c r="K633" s="0"/>
+      <c r="L633" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="M633" s="0"/>
+    </row>
+    <row r="634">
+      <c r="A634" t="n" s="0">
+        <v>633.0</v>
+      </c>
+      <c r="B634" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C634" t="s" s="0">
+        <v>1038</v>
+      </c>
+      <c r="D634" t="s" s="0">
+        <v>1043</v>
+      </c>
+      <c r="E634" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F634" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="G634" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="H634" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I634" t="s" s="0">
+        <v>1456</v>
+      </c>
+      <c r="J634" t="s" s="0">
+        <v>1457</v>
+      </c>
+      <c r="K634" s="0"/>
+      <c r="L634" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="M634" s="0"/>
+    </row>
+    <row r="635">
+      <c r="A635" t="n" s="0">
+        <v>634.0</v>
+      </c>
+      <c r="B635" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C635" t="s" s="0">
+        <v>610</v>
+      </c>
+      <c r="D635" t="s" s="0">
+        <v>1458</v>
+      </c>
+      <c r="E635" t="s" s="0">
+        <v>1459</v>
+      </c>
+      <c r="F635" t="s" s="0">
+        <v>1460</v>
+      </c>
+      <c r="G635" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H635" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I635" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="J635" t="s" s="0">
+        <v>1461</v>
+      </c>
+      <c r="K635" s="0"/>
+      <c r="L635" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="M635" s="0"/>
+    </row>
+    <row r="636">
+      <c r="A636" t="n" s="0">
+        <v>635.0</v>
+      </c>
+      <c r="B636" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C636" t="s" s="0">
+        <v>620</v>
+      </c>
+      <c r="D636" t="s" s="0">
+        <v>621</v>
+      </c>
+      <c r="E636" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F636" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G636" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H636" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I636" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="J636" t="s" s="0">
+        <v>1050</v>
+      </c>
+      <c r="K636" s="0"/>
+      <c r="L636" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="M636" s="0"/>
+    </row>
+    <row r="637">
+      <c r="A637" t="n" s="0">
+        <v>636.0</v>
+      </c>
+      <c r="B637" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C637" t="s" s="0">
+        <v>620</v>
+      </c>
+      <c r="D637" t="s" s="0">
+        <v>623</v>
+      </c>
+      <c r="E637" t="s" s="0">
+        <v>624</v>
+      </c>
+      <c r="F637" t="s" s="0">
+        <v>625</v>
+      </c>
+      <c r="G637" t="s" s="0">
+        <v>626</v>
+      </c>
+      <c r="H637" t="s" s="0">
+        <v>627</v>
+      </c>
+      <c r="I637" t="s" s="0">
+        <v>1462</v>
+      </c>
+      <c r="J637" t="s" s="0">
+        <v>1463</v>
+      </c>
+      <c r="K637" s="0"/>
+      <c r="L637" t="s" s="0">
+        <v>639</v>
+      </c>
+      <c r="M637" s="0"/>
+    </row>
+    <row r="638">
+      <c r="A638" t="n" s="0">
+        <v>637.0</v>
+      </c>
+      <c r="B638" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C638" t="s" s="0">
+        <v>1464</v>
+      </c>
+      <c r="D638" t="s" s="0">
+        <v>1465</v>
+      </c>
+      <c r="E638" t="s" s="0">
+        <v>1466</v>
+      </c>
+      <c r="F638" t="s" s="0">
+        <v>1467</v>
+      </c>
+      <c r="G638" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H638" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="I638" t="s" s="0">
+        <v>907</v>
+      </c>
+      <c r="J638" t="s" s="0">
+        <v>1299</v>
+      </c>
+      <c r="K638" s="0"/>
+      <c r="L638" t="s" s="0">
+        <v>1468</v>
+      </c>
+      <c r="M638" s="0"/>
+    </row>
+    <row r="639">
+      <c r="A639" t="n" s="0">
+        <v>638.0</v>
+      </c>
+      <c r="B639" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C639" t="s" s="0">
+        <v>1045</v>
+      </c>
+      <c r="D639" t="s" s="0">
+        <v>471</v>
+      </c>
+      <c r="E639" t="s" s="0">
+        <v>472</v>
+      </c>
+      <c r="F639" t="s" s="0">
+        <v>473</v>
+      </c>
+      <c r="G639" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H639" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="I639" t="s" s="0">
+        <v>855</v>
+      </c>
+      <c r="J639" t="s" s="0">
+        <v>1469</v>
+      </c>
+      <c r="K639" s="0"/>
+      <c r="L639" t="s" s="0">
+        <v>1470</v>
+      </c>
+      <c r="M639" s="0"/>
+    </row>
+    <row r="640">
+      <c r="A640" t="n" s="0">
+        <v>639.0</v>
+      </c>
+      <c r="B640" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C640" t="s" s="0">
+        <v>1045</v>
+      </c>
+      <c r="D640" t="s" s="0">
+        <v>1046</v>
+      </c>
+      <c r="E640" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="F640" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="G640" t="s" s="0">
+        <v>1197</v>
+      </c>
+      <c r="H640" t="s" s="0">
+        <v>1008</v>
+      </c>
+      <c r="I640" t="s" s="0">
+        <v>1198</v>
+      </c>
+      <c r="J640" t="s" s="0">
+        <v>1471</v>
+      </c>
+      <c r="K640" s="0"/>
+      <c r="L640" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="M640" s="0"/>
+    </row>
+    <row r="641">
+      <c r="A641" t="n" s="0">
+        <v>640.0</v>
+      </c>
+      <c r="B641" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C641" t="s" s="0">
+        <v>615</v>
+      </c>
+      <c r="D641" t="s" s="0">
+        <v>1049</v>
+      </c>
+      <c r="E641" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="F641" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="G641" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H641" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I641" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="J641" t="s" s="0">
+        <v>1472</v>
+      </c>
+      <c r="K641" s="0"/>
+      <c r="L641" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="M641" s="0"/>
+    </row>
+    <row r="642">
+      <c r="A642" t="n" s="0">
+        <v>641.0</v>
+      </c>
+      <c r="B642" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C642" t="s" s="0">
+        <v>631</v>
+      </c>
+      <c r="D642" t="s" s="0">
+        <v>632</v>
+      </c>
+      <c r="E642" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="F642" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="G642" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H642" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I642" t="s" s="0">
+        <v>891</v>
+      </c>
+      <c r="J642" t="s" s="0">
+        <v>1296</v>
+      </c>
+      <c r="K642" s="0"/>
+      <c r="L642" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="M642" s="0"/>
+    </row>
+    <row r="643">
+      <c r="A643" t="n" s="0">
+        <v>642.0</v>
+      </c>
+      <c r="B643" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C643" t="s" s="0">
+        <v>635</v>
+      </c>
+      <c r="D643" t="s" s="0">
+        <v>636</v>
+      </c>
+      <c r="E643" t="s" s="0">
+        <v>590</v>
+      </c>
+      <c r="F643" t="s" s="0">
+        <v>591</v>
+      </c>
+      <c r="G643" t="s" s="0">
+        <v>592</v>
+      </c>
+      <c r="H643" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I643" t="s" s="0">
+        <v>1473</v>
+      </c>
+      <c r="J643" t="s" s="0">
+        <v>1073</v>
+      </c>
+      <c r="K643" s="0"/>
+      <c r="L643" t="s" s="0">
+        <v>1474</v>
+      </c>
+      <c r="M643" s="0"/>
+    </row>
+    <row r="644">
+      <c r="A644" t="n" s="0">
+        <v>643.0</v>
+      </c>
+      <c r="B644" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C644" t="s" s="0">
+        <v>640</v>
+      </c>
+      <c r="D644" t="s" s="0">
+        <v>646</v>
+      </c>
+      <c r="E644" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F644" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G644" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H644" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I644" t="s" s="0">
+        <v>1475</v>
+      </c>
+      <c r="J644" t="s" s="0">
+        <v>1476</v>
+      </c>
+      <c r="K644" s="0"/>
+      <c r="L644" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="M644" s="0"/>
+    </row>
+    <row r="645">
+      <c r="A645" t="n" s="0">
+        <v>644.0</v>
+      </c>
+      <c r="B645" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C645" t="s" s="0">
+        <v>1056</v>
+      </c>
+      <c r="D645" t="s" s="0">
+        <v>1057</v>
+      </c>
+      <c r="E645" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="F645" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="G645" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="H645" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I645" t="s" s="0">
+        <v>1477</v>
+      </c>
+      <c r="J645" t="s" s="0">
+        <v>1055</v>
+      </c>
+      <c r="K645" s="0"/>
+      <c r="L645" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="M645" s="0"/>
+    </row>
+    <row r="646">
+      <c r="A646" t="n" s="0">
+        <v>645.0</v>
+      </c>
+      <c r="B646" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C646" t="s" s="0">
+        <v>650</v>
+      </c>
+      <c r="D646" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="E646" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="F646" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="G646" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H646" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="I646" t="s" s="0">
+        <v>961</v>
+      </c>
+      <c r="J646" t="s" s="0">
+        <v>1479</v>
+      </c>
+      <c r="K646" s="0"/>
+      <c r="L646" t="s" s="0">
+        <v>1480</v>
+      </c>
+      <c r="M646" s="0"/>
+    </row>
+    <row r="647">
+      <c r="A647" t="n" s="0">
+        <v>646.0</v>
+      </c>
+      <c r="B647" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C647" t="s" s="0">
+        <v>650</v>
+      </c>
+      <c r="D647" t="s" s="0">
+        <v>1060</v>
+      </c>
+      <c r="E647" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F647" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="G647" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="H647" t="s" s="0">
+        <v>627</v>
+      </c>
+      <c r="I647" t="s" s="0">
+        <v>1481</v>
+      </c>
+      <c r="J647" t="s" s="0">
+        <v>663</v>
+      </c>
+      <c r="K647" s="0"/>
+      <c r="L647" t="s" s="0">
+        <v>538</v>
+      </c>
+      <c r="M647" s="0"/>
+    </row>
+    <row r="648">
+      <c r="A648" t="n" s="0">
+        <v>647.0</v>
+      </c>
+      <c r="B648" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C648" t="s" s="0">
+        <v>650</v>
+      </c>
+      <c r="D648" t="s" s="0">
+        <v>1482</v>
+      </c>
+      <c r="E648" t="s" s="0">
+        <v>975</v>
+      </c>
+      <c r="F648" t="s" s="0">
+        <v>976</v>
+      </c>
+      <c r="G648" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H648" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I648" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="J648" t="s" s="0">
+        <v>1483</v>
+      </c>
+      <c r="K648" s="0"/>
+      <c r="L648" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="M648" s="0"/>
+    </row>
+    <row r="649">
+      <c r="A649" t="n" s="0">
+        <v>648.0</v>
+      </c>
+      <c r="B649" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C649" t="s" s="0">
+        <v>650</v>
+      </c>
+      <c r="D649" t="s" s="0">
+        <v>651</v>
+      </c>
+      <c r="E649" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="F649" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="G649" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H649" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I649" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="J649" t="s" s="0">
+        <v>1056</v>
+      </c>
+      <c r="K649" s="0"/>
+      <c r="L649" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="M649" s="0"/>
+    </row>
+    <row r="650">
+      <c r="A650" t="n" s="0">
+        <v>649.0</v>
+      </c>
+      <c r="B650" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C650" t="s" s="0">
+        <v>654</v>
+      </c>
+      <c r="D650" t="s" s="0">
+        <v>1151</v>
+      </c>
+      <c r="E650" t="s" s="0">
+        <v>502</v>
+      </c>
+      <c r="F650" t="s" s="0">
+        <v>503</v>
+      </c>
+      <c r="G650" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H650" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I650" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="J650" t="s" s="0">
+        <v>1484</v>
+      </c>
+      <c r="K650" s="0"/>
+      <c r="L650" t="s" s="0">
+        <v>634</v>
+      </c>
+      <c r="M650" s="0"/>
+    </row>
+    <row r="651">
+      <c r="A651" t="n" s="0">
+        <v>650.0</v>
+      </c>
+      <c r="B651" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C651" t="s" s="0">
+        <v>660</v>
+      </c>
+      <c r="D651" t="s" s="0">
+        <v>664</v>
+      </c>
+      <c r="E651" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F651" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="G651" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H651" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I651" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="J651" t="s" s="0">
+        <v>683</v>
+      </c>
+      <c r="K651" s="0"/>
+      <c r="L651" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="M651" s="0"/>
+    </row>
+    <row r="652">
+      <c r="A652" t="n" s="0">
+        <v>651.0</v>
+      </c>
+      <c r="B652" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C652" t="s" s="0">
+        <v>660</v>
+      </c>
+      <c r="D652" t="s" s="0">
+        <v>666</v>
+      </c>
+      <c r="E652" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="F652" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="G652" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="H652" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I652" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="J652" t="s" s="0">
+        <v>671</v>
+      </c>
+      <c r="K652" s="0"/>
+      <c r="L652" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="M652" s="0"/>
+    </row>
+    <row r="653">
+      <c r="A653" t="n" s="0">
+        <v>652.0</v>
+      </c>
+      <c r="B653" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C653" t="s" s="0">
+        <v>660</v>
+      </c>
+      <c r="D653" t="s" s="0">
+        <v>668</v>
+      </c>
+      <c r="E653" t="s" s="0">
+        <v>669</v>
+      </c>
+      <c r="F653" t="s" s="0">
+        <v>670</v>
+      </c>
+      <c r="G653" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H653" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I653" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="J653" t="s" s="0">
+        <v>665</v>
+      </c>
+      <c r="K653" s="0"/>
+      <c r="L653" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M653" s="0"/>
+    </row>
+    <row r="654">
+      <c r="A654" t="n" s="0">
+        <v>653.0</v>
+      </c>
+      <c r="B654" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C654" t="s" s="0">
+        <v>672</v>
+      </c>
+      <c r="D654" t="s" s="0">
+        <v>673</v>
+      </c>
+      <c r="E654" t="s" s="0">
+        <v>508</v>
+      </c>
+      <c r="F654" t="s" s="0">
+        <v>509</v>
+      </c>
+      <c r="G654" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H654" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I654" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="J654" t="s" s="0">
+        <v>638</v>
+      </c>
+      <c r="K654" s="0"/>
+      <c r="L654" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="M654" s="0"/>
+    </row>
+    <row r="655">
+      <c r="A655" t="n" s="0">
+        <v>654.0</v>
+      </c>
+      <c r="B655" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C655" t="s" s="0">
+        <v>672</v>
+      </c>
+      <c r="D655" t="s" s="0">
+        <v>675</v>
+      </c>
+      <c r="E655" t="s" s="0">
+        <v>454</v>
+      </c>
+      <c r="F655" t="s" s="0">
+        <v>455</v>
+      </c>
+      <c r="G655" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H655" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I655" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="J655" t="s" s="0">
+        <v>1302</v>
+      </c>
+      <c r="K655" s="0"/>
+      <c r="L655" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="M655" s="0"/>
+    </row>
+    <row r="656">
+      <c r="A656" t="n" s="0">
+        <v>655.0</v>
+      </c>
+      <c r="B656" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C656" t="s" s="0">
+        <v>687</v>
+      </c>
+      <c r="D656" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="E656" t="s" s="0">
+        <v>1485</v>
+      </c>
+      <c r="F656" t="s" s="0">
+        <v>1486</v>
+      </c>
+      <c r="G656" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="H656" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I656" t="s" s="0">
+        <v>798</v>
+      </c>
+      <c r="J656" t="s" s="0">
+        <v>1487</v>
+      </c>
+      <c r="K656" s="0"/>
+      <c r="L656" t="s" s="0">
+        <v>279</v>
+      </c>
+      <c r="M656" s="0"/>
+    </row>
+    <row r="657">
+      <c r="A657" t="n" s="0">
+        <v>656.0</v>
+      </c>
+      <c r="B657" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C657" t="s" s="0">
+        <v>678</v>
+      </c>
+      <c r="D657" t="s" s="0">
+        <v>1306</v>
+      </c>
+      <c r="E657" t="s" s="0">
+        <v>1116</v>
+      </c>
+      <c r="F657" t="s" s="0">
+        <v>1117</v>
+      </c>
+      <c r="G657" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H657" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I657" t="s" s="0">
+        <v>441</v>
+      </c>
+      <c r="J657" t="s" s="0">
+        <v>1065</v>
+      </c>
+      <c r="K657" s="0"/>
+      <c r="L657" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="M657" s="0"/>
+    </row>
+    <row r="658">
+      <c r="A658" t="n" s="0">
+        <v>657.0</v>
+      </c>
+      <c r="B658" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C658" t="s" s="0">
+        <v>678</v>
+      </c>
+      <c r="D658" t="s" s="0">
+        <v>679</v>
+      </c>
+      <c r="E658" t="s" s="0">
+        <v>498</v>
+      </c>
+      <c r="F658" t="s" s="0">
+        <v>499</v>
+      </c>
+      <c r="G658" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H658" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I658" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="J658" t="s" s="0">
+        <v>1305</v>
+      </c>
+      <c r="K658" s="0"/>
+      <c r="L658" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="M658" s="0"/>
+    </row>
+    <row r="659">
+      <c r="A659" t="n" s="0">
+        <v>658.0</v>
+      </c>
+      <c r="B659" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C659" t="s" s="0">
+        <v>681</v>
+      </c>
+      <c r="D659" t="s" s="0">
+        <v>1308</v>
+      </c>
+      <c r="E659" t="s" s="0">
+        <v>450</v>
+      </c>
+      <c r="F659" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="G659" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="H659" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I659" t="s" s="0">
+        <v>1429</v>
+      </c>
+      <c r="J659" t="s" s="0">
+        <v>654</v>
+      </c>
+      <c r="K659" s="0"/>
+      <c r="L659" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="M659" s="0"/>
+    </row>
+    <row r="660">
+      <c r="A660" t="n" s="0">
+        <v>659.0</v>
+      </c>
+      <c r="B660" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C660" t="s" s="0">
+        <v>681</v>
+      </c>
+      <c r="D660" t="s" s="0">
+        <v>682</v>
+      </c>
+      <c r="E660" t="s" s="0">
+        <v>517</v>
+      </c>
+      <c r="F660" t="s" s="0">
+        <v>518</v>
+      </c>
+      <c r="G660" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H660" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I660" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="J660" t="s" s="0">
+        <v>1064</v>
+      </c>
+      <c r="K660" s="0"/>
+      <c r="L660" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="M660" s="0"/>
+    </row>
+    <row r="661">
+      <c r="A661" t="n" s="0">
+        <v>660.0</v>
+      </c>
+      <c r="B661" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C661" t="s" s="0">
+        <v>685</v>
+      </c>
+      <c r="D661" t="s" s="0">
+        <v>686</v>
+      </c>
+      <c r="E661" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="F661" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="G661" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H661" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I661" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="J661" t="s" s="0">
+        <v>687</v>
+      </c>
+      <c r="K661" s="0"/>
+      <c r="L661" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="M661" s="0"/>
+    </row>
+    <row r="662">
+      <c r="A662" t="n" s="0">
+        <v>661.0</v>
+      </c>
+      <c r="B662" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C662" t="s" s="0">
+        <v>685</v>
+      </c>
+      <c r="D662" t="s" s="0">
+        <v>688</v>
+      </c>
+      <c r="E662" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="F662" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="G662" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H662" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I662" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="J662" t="s" s="0">
+        <v>1488</v>
+      </c>
+      <c r="K662" s="0"/>
+      <c r="L662" t="s" s="0">
+        <v>322</v>
+      </c>
+      <c r="M662" s="0"/>
+    </row>
+    <row r="663">
+      <c r="A663" t="n" s="0">
+        <v>662.0</v>
+      </c>
+      <c r="B663" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C663" t="s" s="0">
+        <v>685</v>
+      </c>
+      <c r="D663" t="s" s="0">
+        <v>1070</v>
+      </c>
+      <c r="E663" t="s" s="0">
+        <v>532</v>
+      </c>
+      <c r="F663" t="s" s="0">
+        <v>533</v>
+      </c>
+      <c r="G663" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H663" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I663" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="J663" t="s" s="0">
+        <v>672</v>
+      </c>
+      <c r="K663" s="0"/>
+      <c r="L663" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="M663" s="0"/>
+    </row>
+    <row r="664">
+      <c r="A664" t="n" s="0">
+        <v>663.0</v>
+      </c>
+      <c r="B664" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C664" t="s" s="0">
+        <v>690</v>
+      </c>
+      <c r="D664" t="s" s="0">
+        <v>691</v>
+      </c>
+      <c r="E664" t="s" s="0">
+        <v>513</v>
+      </c>
+      <c r="F664" t="s" s="0">
+        <v>514</v>
+      </c>
+      <c r="G664" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H664" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I664" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="J664" t="s" s="0">
+        <v>678</v>
+      </c>
+      <c r="K664" s="0"/>
+      <c r="L664" t="s" s="0">
+        <v>889</v>
+      </c>
+      <c r="M664" s="0"/>
+    </row>
+    <row r="665">
+      <c r="A665" t="n" s="0">
+        <v>664.0</v>
+      </c>
+      <c r="B665" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C665" t="s" s="0">
+        <v>693</v>
+      </c>
+      <c r="D665" t="s" s="0">
+        <v>694</v>
+      </c>
+      <c r="E665" t="s" s="0">
+        <v>422</v>
+      </c>
+      <c r="F665" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="G665" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="H665" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I665" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="J665" t="s" s="0">
+        <v>1489</v>
+      </c>
+      <c r="K665" s="0"/>
+      <c r="L665" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="M665" s="0"/>
+    </row>
+    <row r="666">
+      <c r="A666" t="n" s="0">
+        <v>665.0</v>
+      </c>
+      <c r="B666" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C666" t="s" s="0">
+        <v>700</v>
+      </c>
+      <c r="D666" t="s" s="0">
+        <v>1490</v>
+      </c>
+      <c r="E666" t="s" s="0">
+        <v>1485</v>
+      </c>
+      <c r="F666" t="s" s="0">
+        <v>1486</v>
+      </c>
+      <c r="G666" t="s" s="0">
+        <v>592</v>
+      </c>
+      <c r="H666" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I666" t="s" s="0">
+        <v>593</v>
+      </c>
+      <c r="J666" t="s" s="0">
+        <v>1318</v>
+      </c>
+      <c r="K666" s="0"/>
+      <c r="L666" t="s" s="0">
+        <v>577</v>
+      </c>
+      <c r="M666" s="0"/>
+    </row>
+    <row r="667">
+      <c r="A667" t="n" s="0">
+        <v>666.0</v>
+      </c>
+      <c r="B667" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C667" t="s" s="0">
+        <v>703</v>
+      </c>
+      <c r="D667" t="s" s="0">
+        <v>704</v>
+      </c>
+      <c r="E667" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="F667" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="G667" t="s" s="0">
+        <v>705</v>
+      </c>
+      <c r="H667" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I667" t="s" s="0">
+        <v>1491</v>
+      </c>
+      <c r="J667" t="s" s="0">
+        <v>1492</v>
+      </c>
+      <c r="K667" s="0"/>
+      <c r="L667" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="M667" s="0"/>
+    </row>
+    <row r="668">
+      <c r="A668" t="n" s="0">
+        <v>667.0</v>
+      </c>
+      <c r="B668" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C668" t="s" s="0">
+        <v>1493</v>
+      </c>
+      <c r="D668" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="E668" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F668" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G668" t="s" s="0">
+        <v>1494</v>
+      </c>
+      <c r="H668" t="s" s="0">
+        <v>1414</v>
+      </c>
+      <c r="I668" t="s" s="0">
+        <v>1495</v>
+      </c>
+      <c r="J668" t="s" s="0">
+        <v>1496</v>
+      </c>
+      <c r="K668" s="0"/>
+      <c r="L668" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="M668" s="0"/>
+    </row>
+    <row r="669">
+      <c r="A669" t="n" s="0">
+        <v>668.0</v>
+      </c>
+      <c r="B669" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C669" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="D669" t="s" s="0">
+        <v>713</v>
+      </c>
+      <c r="E669" t="s" s="0">
+        <v>393</v>
+      </c>
+      <c r="F669" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="G669" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H669" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I669" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="J669" t="s" s="0">
+        <v>1497</v>
+      </c>
+      <c r="K669" s="0"/>
+      <c r="L669" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="M669" s="0"/>
+    </row>
+    <row r="670">
+      <c r="A670" t="n" s="0">
+        <v>669.0</v>
+      </c>
+      <c r="B670" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C670" t="s" s="0">
+        <v>715</v>
+      </c>
+      <c r="D670" t="s" s="0">
+        <v>716</v>
+      </c>
+      <c r="E670" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="F670" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="G670" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H670" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I670" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="J670" t="s" s="0">
+        <v>1498</v>
+      </c>
+      <c r="K670" s="0"/>
+      <c r="L670" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="M670" s="0"/>
+    </row>
+    <row r="671">
+      <c r="A671" t="n" s="0">
+        <v>670.0</v>
+      </c>
+      <c r="B671" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C671" t="s" s="0">
+        <v>715</v>
+      </c>
+      <c r="D671" t="s" s="0">
+        <v>718</v>
+      </c>
+      <c r="E671" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="F671" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="G671" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H671" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I671" t="s" s="0">
+        <v>730</v>
+      </c>
+      <c r="J671" t="s" s="0">
+        <v>1499</v>
+      </c>
+      <c r="K671" s="0"/>
+      <c r="L671" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="M671" s="0"/>
+    </row>
+    <row r="672">
+      <c r="A672" t="n" s="0">
+        <v>671.0</v>
+      </c>
+      <c r="B672" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C672" t="s" s="0">
+        <v>720</v>
+      </c>
+      <c r="D672" t="s" s="0">
+        <v>721</v>
+      </c>
+      <c r="E672" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="F672" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="G672" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="H672" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I672" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="J672" t="s" s="0">
+        <v>1500</v>
+      </c>
+      <c r="K672" s="0"/>
+      <c r="L672" t="s" s="0">
+        <v>684</v>
+      </c>
+      <c r="M672" s="0"/>
+    </row>
+    <row r="673">
+      <c r="A673" t="n" s="0">
+        <v>672.0</v>
+      </c>
+      <c r="B673" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C673" t="s" s="0">
+        <v>720</v>
+      </c>
+      <c r="D673" t="s" s="0">
+        <v>1078</v>
+      </c>
+      <c r="E673" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="F673" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="G673" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H673" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I673" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="J673" t="s" s="0">
+        <v>1501</v>
+      </c>
+      <c r="K673" s="0"/>
+      <c r="L673" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="M673" s="0"/>
+    </row>
+    <row r="674">
+      <c r="A674" t="n" s="0">
+        <v>673.0</v>
+      </c>
+      <c r="B674" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C674" t="s" s="0">
+        <v>1499</v>
+      </c>
+      <c r="D674" t="s" s="0">
+        <v>596</v>
+      </c>
+      <c r="E674" t="s" s="0">
+        <v>590</v>
+      </c>
+      <c r="F674" t="s" s="0">
+        <v>591</v>
+      </c>
+      <c r="G674" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="H674" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I674" t="s" s="0">
+        <v>698</v>
+      </c>
+      <c r="J674" t="s" s="0">
+        <v>1502</v>
+      </c>
+      <c r="K674" s="0"/>
+      <c r="L674" t="s" s="0">
+        <v>1503</v>
+      </c>
+      <c r="M674" s="0"/>
+    </row>
+    <row r="675">
+      <c r="A675" t="n" s="0">
+        <v>674.0</v>
+      </c>
+      <c r="B675" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C675" t="s" s="0">
+        <v>723</v>
+      </c>
+      <c r="D675" t="s" s="0">
+        <v>724</v>
+      </c>
+      <c r="E675" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="F675" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G675" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="H675" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I675" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="J675" t="s" s="0">
+        <v>1098</v>
+      </c>
+      <c r="K675" s="0"/>
+      <c r="L675" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="M675" s="0"/>
+    </row>
+    <row r="676">
+      <c r="A676" t="n" s="0">
+        <v>675.0</v>
+      </c>
+      <c r="B676" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C676" t="s" s="0">
+        <v>726</v>
+      </c>
+      <c r="D676" t="s" s="0">
+        <v>727</v>
+      </c>
+      <c r="E676" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="F676" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="G676" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H676" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I676" t="s" s="0">
+        <v>1504</v>
+      </c>
+      <c r="J676" t="s" s="0">
+        <v>1085</v>
+      </c>
+      <c r="K676" s="0"/>
+      <c r="L676" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="M676" s="0"/>
+    </row>
+    <row r="677">
+      <c r="A677" t="n" s="0">
+        <v>676.0</v>
+      </c>
+      <c r="B677" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C677" t="s" s="0">
+        <v>726</v>
+      </c>
+      <c r="D677" t="s" s="0">
+        <v>729</v>
+      </c>
+      <c r="E677" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="F677" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="G677" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H677" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I677" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="J677" t="s" s="0">
+        <v>1505</v>
+      </c>
+      <c r="K677" s="0"/>
+      <c r="L677" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="M677" s="0"/>
+    </row>
+    <row r="678">
+      <c r="A678" t="n" s="0">
+        <v>677.0</v>
+      </c>
+      <c r="B678" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C678" t="s" s="0">
+        <v>726</v>
+      </c>
+      <c r="D678" t="s" s="0">
+        <v>1088</v>
+      </c>
+      <c r="E678" t="s" s="0">
+        <v>450</v>
+      </c>
+      <c r="F678" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="G678" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H678" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I678" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="J678" t="s" s="0">
+        <v>728</v>
+      </c>
+      <c r="K678" s="0"/>
+      <c r="L678" t="s" s="0">
+        <v>634</v>
+      </c>
+      <c r="M678" s="0"/>
+    </row>
+    <row r="679">
+      <c r="A679" t="n" s="0">
+        <v>678.0</v>
+      </c>
+      <c r="B679" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C679" t="s" s="0">
+        <v>732</v>
+      </c>
+      <c r="D679" t="s" s="0">
+        <v>736</v>
+      </c>
+      <c r="E679" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F679" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="G679" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="H679" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I679" t="s" s="0">
+        <v>737</v>
+      </c>
+      <c r="J679" t="s" s="0">
+        <v>1506</v>
+      </c>
+      <c r="K679" s="0"/>
+      <c r="L679" t="s" s="0">
+        <v>1507</v>
+      </c>
+      <c r="M679" s="0"/>
+    </row>
+    <row r="680">
+      <c r="A680" t="n" s="0">
+        <v>679.0</v>
+      </c>
+      <c r="B680" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C680" t="s" s="0">
+        <v>732</v>
+      </c>
+      <c r="D680" t="s" s="0">
+        <v>733</v>
+      </c>
+      <c r="E680" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="F680" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="G680" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H680" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I680" t="s" s="0">
+        <v>928</v>
+      </c>
+      <c r="J680" t="s" s="0">
+        <v>1508</v>
+      </c>
+      <c r="K680" s="0"/>
+      <c r="L680" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="M680" s="0"/>
+    </row>
+    <row r="681">
+      <c r="A681" t="n" s="0">
+        <v>680.0</v>
+      </c>
+      <c r="B681" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C681" t="s" s="0">
+        <v>735</v>
+      </c>
+      <c r="D681" t="s" s="0">
+        <v>746</v>
+      </c>
+      <c r="E681" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F681" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="G681" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H681" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I681" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="J681" t="s" s="0">
+        <v>747</v>
+      </c>
+      <c r="K681" s="0"/>
+      <c r="L681" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="M681" s="0"/>
+    </row>
+    <row r="682">
+      <c r="A682" t="n" s="0">
+        <v>681.0</v>
+      </c>
+      <c r="B682" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C682" t="s" s="0">
+        <v>735</v>
+      </c>
+      <c r="D682" t="s" s="0">
+        <v>742</v>
+      </c>
+      <c r="E682" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="F682" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="G682" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H682" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I682" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="J682" t="s" s="0">
+        <v>752</v>
+      </c>
+      <c r="K682" s="0"/>
+      <c r="L682" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="M682" s="0"/>
+    </row>
+    <row r="683">
+      <c r="A683" t="n" s="0">
+        <v>682.0</v>
+      </c>
+      <c r="B683" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C683" t="s" s="0">
+        <v>735</v>
+      </c>
+      <c r="D683" t="s" s="0">
+        <v>740</v>
+      </c>
+      <c r="E683" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="F683" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="G683" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H683" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I683" t="s" s="0">
+        <v>510</v>
+      </c>
+      <c r="J683" t="s" s="0">
+        <v>1087</v>
+      </c>
+      <c r="K683" s="0"/>
+      <c r="L683" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="M683" s="0"/>
+    </row>
+    <row r="684">
+      <c r="A684" t="n" s="0">
+        <v>683.0</v>
+      </c>
+      <c r="B684" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C684" t="s" s="0">
+        <v>735</v>
+      </c>
+      <c r="D684" t="s" s="0">
+        <v>744</v>
+      </c>
+      <c r="E684" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="F684" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="G684" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H684" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I684" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="J684" t="s" s="0">
+        <v>734</v>
+      </c>
+      <c r="K684" s="0"/>
+      <c r="L684" t="s" s="0">
+        <v>370</v>
+      </c>
+      <c r="M684" s="0"/>
+    </row>
+    <row r="685">
+      <c r="A685" t="n" s="0">
+        <v>684.0</v>
+      </c>
+      <c r="B685" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C685" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="D685" t="s" s="0">
+        <v>758</v>
+      </c>
+      <c r="E685" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="F685" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="G685" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="H685" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I685" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="J685" t="s" s="0">
+        <v>1353</v>
+      </c>
+      <c r="K685" s="0"/>
+      <c r="L685" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="M685" s="0"/>
+    </row>
+    <row r="686">
+      <c r="A686" t="n" s="0">
+        <v>685.0</v>
+      </c>
+      <c r="B686" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C686" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="D686" t="s" s="0">
+        <v>749</v>
+      </c>
+      <c r="E686" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F686" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G686" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H686" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I686" t="s" s="0">
+        <v>433</v>
+      </c>
+      <c r="J686" t="s" s="0">
+        <v>1100</v>
+      </c>
+      <c r="K686" s="0"/>
+      <c r="L686" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="M686" s="0"/>
+    </row>
+    <row r="687">
+      <c r="A687" t="n" s="0">
+        <v>686.0</v>
+      </c>
+      <c r="B687" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C687" t="s" s="0">
+        <v>743</v>
+      </c>
+      <c r="D687" t="s" s="0">
+        <v>753</v>
+      </c>
+      <c r="E687" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F687" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G687" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="H687" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I687" t="s" s="0">
+        <v>1509</v>
+      </c>
+      <c r="J687" t="s" s="0">
+        <v>743</v>
+      </c>
+      <c r="K687" s="0"/>
+      <c r="L687" t="s" s="0">
+        <v>674</v>
+      </c>
+      <c r="M687" s="0"/>
+    </row>
+    <row r="688">
+      <c r="A688" t="n" s="0">
+        <v>687.0</v>
+      </c>
+      <c r="B688" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C688" t="s" s="0">
+        <v>743</v>
+      </c>
+      <c r="D688" t="s" s="0">
+        <v>1349</v>
+      </c>
+      <c r="E688" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="F688" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="G688" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H688" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I688" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="J688" t="s" s="0">
+        <v>1092</v>
+      </c>
+      <c r="K688" s="0"/>
+      <c r="L688" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="M688" s="0"/>
+    </row>
+    <row r="689">
+      <c r="A689" t="n" s="0">
+        <v>688.0</v>
+      </c>
+      <c r="B689" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C689" t="s" s="0">
+        <v>1510</v>
+      </c>
+      <c r="D689" t="s" s="0">
+        <v>1511</v>
+      </c>
+      <c r="E689" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F689" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G689" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H689" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I689" t="s" s="0">
+        <v>554</v>
+      </c>
+      <c r="J689" t="s" s="0">
+        <v>1512</v>
+      </c>
+      <c r="K689" s="0"/>
+      <c r="L689" t="s" s="0">
+        <v>1468</v>
+      </c>
+      <c r="M689" s="0"/>
+    </row>
+    <row r="690">
+      <c r="A690" t="n" s="0">
+        <v>689.0</v>
+      </c>
+      <c r="B690" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C690" t="s" s="0">
+        <v>738</v>
+      </c>
+      <c r="D690" t="s" s="0">
+        <v>1513</v>
+      </c>
+      <c r="E690" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F690" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G690" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H690" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I690" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="J690" t="s" s="0">
+        <v>773</v>
+      </c>
+      <c r="K690" s="0"/>
+      <c r="L690" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="M690" s="0"/>
+    </row>
+    <row r="691">
+      <c r="A691" t="n" s="0">
+        <v>690.0</v>
+      </c>
+      <c r="B691" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C691" t="s" s="0">
+        <v>745</v>
+      </c>
+      <c r="D691" t="s" s="0">
+        <v>1351</v>
+      </c>
+      <c r="E691" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="F691" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="G691" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H691" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I691" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="J691" t="s" s="0">
+        <v>1348</v>
+      </c>
+      <c r="K691" s="0"/>
+      <c r="L691" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="M691" s="0"/>
+    </row>
+    <row r="692">
+      <c r="A692" t="n" s="0">
+        <v>691.0</v>
+      </c>
+      <c r="B692" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C692" t="s" s="0">
+        <v>745</v>
+      </c>
+      <c r="D692" t="s" s="0">
+        <v>760</v>
+      </c>
+      <c r="E692" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="F692" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="G692" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H692" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I692" t="s" s="0">
+        <v>891</v>
+      </c>
+      <c r="J692" t="s" s="0">
+        <v>1352</v>
+      </c>
+      <c r="K692" s="0"/>
+      <c r="L692" t="s" s="0">
+        <v>684</v>
+      </c>
+      <c r="M692" s="0"/>
+    </row>
+    <row r="693">
+      <c r="A693" t="n" s="0">
+        <v>692.0</v>
+      </c>
+      <c r="B693" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C693" t="s" s="0">
+        <v>745</v>
+      </c>
+      <c r="D693" t="s" s="0">
+        <v>756</v>
+      </c>
+      <c r="E693" t="s" s="0">
+        <v>624</v>
+      </c>
+      <c r="F693" t="s" s="0">
+        <v>625</v>
+      </c>
+      <c r="G693" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H693" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I693" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="J693" t="s" s="0">
+        <v>759</v>
+      </c>
+      <c r="K693" s="0"/>
+      <c r="L693" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="M693" s="0"/>
+    </row>
+    <row r="694">
+      <c r="A694" t="n" s="0">
+        <v>693.0</v>
+      </c>
+      <c r="B694" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C694" t="s" s="0">
+        <v>769</v>
+      </c>
+      <c r="D694" t="s" s="0">
+        <v>770</v>
+      </c>
+      <c r="E694" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="F694" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G694" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H694" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I694" t="s" s="0">
+        <v>1514</v>
+      </c>
+      <c r="J694" t="s" s="0">
+        <v>762</v>
+      </c>
+      <c r="K694" s="0"/>
+      <c r="L694" t="s" s="0">
+        <v>806</v>
+      </c>
+      <c r="M694" s="0"/>
+    </row>
+    <row r="695">
+      <c r="A695" t="n" s="0">
+        <v>694.0</v>
+      </c>
+      <c r="B695" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C695" t="s" s="0">
+        <v>773</v>
+      </c>
+      <c r="D695" t="s" s="0">
+        <v>774</v>
+      </c>
+      <c r="E695" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="F695" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="G695" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="H695" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="I695" t="s" s="0">
+        <v>930</v>
+      </c>
+      <c r="J695" t="s" s="0">
+        <v>1515</v>
+      </c>
+      <c r="K695" s="0"/>
+      <c r="L695" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="M695" s="0"/>
+    </row>
+    <row r="696">
+      <c r="A696" t="n" s="0">
+        <v>695.0</v>
+      </c>
+      <c r="B696" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C696" t="s" s="0">
+        <v>777</v>
+      </c>
+      <c r="D696" t="s" s="0">
+        <v>784</v>
+      </c>
+      <c r="E696" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="F696" t="s" s="0">
+        <v>785</v>
+      </c>
+      <c r="G696" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H696" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I696" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="J696" t="s" s="0">
+        <v>1516</v>
+      </c>
+      <c r="K696" s="0"/>
+      <c r="L696" t="s" s="0">
+        <v>806</v>
+      </c>
+      <c r="M696" s="0"/>
+    </row>
+    <row r="697">
+      <c r="A697" t="n" s="0">
+        <v>696.0</v>
+      </c>
+      <c r="B697" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C697" t="s" s="0">
+        <v>777</v>
+      </c>
+      <c r="D697" t="s" s="0">
+        <v>778</v>
+      </c>
+      <c r="E697" t="s" s="0">
+        <v>779</v>
+      </c>
+      <c r="F697" t="s" s="0">
+        <v>780</v>
+      </c>
+      <c r="G697" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H697" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I697" t="s" s="0">
+        <v>608</v>
+      </c>
+      <c r="J697" t="s" s="0">
+        <v>777</v>
+      </c>
+      <c r="K697" s="0"/>
+      <c r="L697" t="s" s="0">
+        <v>674</v>
+      </c>
+      <c r="M697" s="0"/>
+    </row>
+    <row r="698">
+      <c r="A698" t="n" s="0">
+        <v>697.0</v>
+      </c>
+      <c r="B698" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C698" t="s" s="0">
+        <v>788</v>
+      </c>
+      <c r="D698" t="s" s="0">
+        <v>789</v>
+      </c>
+      <c r="E698" t="s" s="0">
+        <v>790</v>
+      </c>
+      <c r="F698" t="s" s="0">
+        <v>791</v>
+      </c>
+      <c r="G698" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H698" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I698" t="s" s="0">
+        <v>1218</v>
+      </c>
+      <c r="J698" t="s" s="0">
+        <v>822</v>
+      </c>
+      <c r="K698" s="0"/>
+      <c r="L698" t="s" s="0">
+        <v>577</v>
+      </c>
+      <c r="M698" s="0"/>
+    </row>
+    <row r="699">
+      <c r="A699" t="n" s="0">
+        <v>698.0</v>
+      </c>
+      <c r="B699" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C699" t="s" s="0">
+        <v>799</v>
+      </c>
+      <c r="D699" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="E699" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="F699" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="G699" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H699" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I699" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="J699" t="s" s="0">
+        <v>803</v>
+      </c>
+      <c r="K699" s="0"/>
+      <c r="L699" t="s" s="0">
+        <v>871</v>
+      </c>
+      <c r="M699" s="0"/>
+    </row>
+    <row r="700">
+      <c r="A700" t="n" s="0">
+        <v>699.0</v>
+      </c>
+      <c r="B700" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C700" t="s" s="0">
+        <v>799</v>
+      </c>
+      <c r="D700" t="s" s="0">
+        <v>800</v>
+      </c>
+      <c r="E700" t="s" s="0">
+        <v>565</v>
+      </c>
+      <c r="F700" t="s" s="0">
+        <v>566</v>
+      </c>
+      <c r="G700" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H700" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I700" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="J700" t="s" s="0">
+        <v>810</v>
+      </c>
+      <c r="K700" s="0"/>
+      <c r="L700" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="M700" s="0"/>
+    </row>
+    <row r="701">
+      <c r="A701" t="n" s="0">
+        <v>700.0</v>
+      </c>
+      <c r="B701" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C701" t="s" s="0">
+        <v>810</v>
+      </c>
+      <c r="D701" t="s" s="0">
+        <v>811</v>
+      </c>
+      <c r="E701" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F701" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="G701" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H701" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I701" t="s" s="0">
+        <v>494</v>
+      </c>
+      <c r="J701" t="s" s="0">
+        <v>1107</v>
+      </c>
+      <c r="K701" s="0"/>
+      <c r="L701" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="M701" s="0"/>
+    </row>
+    <row r="702">
+      <c r="A702" t="n" s="0">
+        <v>701.0</v>
+      </c>
+      <c r="B702" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C702" t="s" s="0">
+        <v>816</v>
+      </c>
+      <c r="D702" t="s" s="0">
+        <v>817</v>
+      </c>
+      <c r="E702" t="s" s="0">
+        <v>818</v>
+      </c>
+      <c r="F702" t="s" s="0">
+        <v>819</v>
+      </c>
+      <c r="G702" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H702" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I702" t="s" s="0">
+        <v>429</v>
+      </c>
+      <c r="J702" t="s" s="0">
+        <v>1517</v>
+      </c>
+      <c r="K702" s="0"/>
+      <c r="L702" t="s" s="0">
+        <v>420</v>
+      </c>
+      <c r="M702" s="0"/>
+    </row>
+    <row r="703">
+      <c r="A703" t="n" s="0">
+        <v>702.0</v>
+      </c>
+      <c r="B703" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="C703" t="s" s="0">
+        <v>822</v>
+      </c>
+      <c r="D703" t="s" s="0">
+        <v>823</v>
+      </c>
+      <c r="E703" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="F703" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="G703" t="s" s="0">
+        <v>560</v>
+      </c>
+      <c r="H703" t="s" s="0">
+        <v>1230</v>
+      </c>
+      <c r="I703" t="s" s="0">
+        <v>1518</v>
+      </c>
+      <c r="J703" t="s" s="0">
+        <v>1519</v>
+      </c>
+      <c r="K703" s="0"/>
+      <c r="L703" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="M703" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/WAW_Arrivals.xlsx
+++ b/DataBase/WAW_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7031" uniqueCount="1520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8761" uniqueCount="1621">
   <si>
     <t>NUMBER</t>
   </si>
@@ -4572,6 +4572,309 @@
   </si>
   <si>
     <t>11:08 PM</t>
+  </si>
+  <si>
+    <t>Wednesday, Jan 11</t>
+  </si>
+  <si>
+    <t>5:59 AM</t>
+  </si>
+  <si>
+    <t>(N358UP)</t>
+  </si>
+  <si>
+    <t>5:40 AM</t>
+  </si>
+  <si>
+    <t>6:14 AM</t>
+  </si>
+  <si>
+    <t>6:32 AM</t>
+  </si>
+  <si>
+    <t>6:08 AM</t>
+  </si>
+  <si>
+    <t>LO7828</t>
+  </si>
+  <si>
+    <t>8:01 AM</t>
+  </si>
+  <si>
+    <t>(OH-LKF)</t>
+  </si>
+  <si>
+    <t>8:26 AM</t>
+  </si>
+  <si>
+    <t>8:03 AM</t>
+  </si>
+  <si>
+    <t>(D-AISQ)</t>
+  </si>
+  <si>
+    <t>8:29 AM</t>
+  </si>
+  <si>
+    <t>0 hours, 45 minutes</t>
+  </si>
+  <si>
+    <t>8:23 AM</t>
+  </si>
+  <si>
+    <t>8:52 AM</t>
+  </si>
+  <si>
+    <t>8:55 AM</t>
+  </si>
+  <si>
+    <t>(OE-LWB)</t>
+  </si>
+  <si>
+    <t>10:34 AM</t>
+  </si>
+  <si>
+    <t>0 hours, 49 minutes</t>
+  </si>
+  <si>
+    <t>0 hours, -31 minutes</t>
+  </si>
+  <si>
+    <t>(SX-DNA)</t>
+  </si>
+  <si>
+    <t>10:32 AM</t>
+  </si>
+  <si>
+    <t>10:38 AM</t>
+  </si>
+  <si>
+    <t>10:41 AM</t>
+  </si>
+  <si>
+    <t>(A6-ENE)</t>
+  </si>
+  <si>
+    <t>11:12 AM</t>
+  </si>
+  <si>
+    <t>(G-EUYU)</t>
+  </si>
+  <si>
+    <t>11:26 AM</t>
+  </si>
+  <si>
+    <t>(PH-BXZ)</t>
+  </si>
+  <si>
+    <t>(A7-BCN)</t>
+  </si>
+  <si>
+    <t>11:41 AM</t>
+  </si>
+  <si>
+    <t>(F-GKXQ)</t>
+  </si>
+  <si>
+    <t>12:06 PM</t>
+  </si>
+  <si>
+    <t>(OH-LXM)</t>
+  </si>
+  <si>
+    <t>12:08 PM</t>
+  </si>
+  <si>
+    <t>12:41 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 36 minutes</t>
+  </si>
+  <si>
+    <t>1:59 PM</t>
+  </si>
+  <si>
+    <t>(D-AISR)</t>
+  </si>
+  <si>
+    <t>1:43 PM</t>
+  </si>
+  <si>
+    <t>LO6310</t>
+  </si>
+  <si>
+    <t>-1 hours, -24 minutes</t>
+  </si>
+  <si>
+    <t>2:13 PM</t>
+  </si>
+  <si>
+    <t>C68A</t>
+  </si>
+  <si>
+    <t>(CS-LTF)</t>
+  </si>
+  <si>
+    <t>2:44 PM</t>
+  </si>
+  <si>
+    <t>3:02 PM</t>
+  </si>
+  <si>
+    <t>2:59 PM</t>
+  </si>
+  <si>
+    <t>4:05 PM</t>
+  </si>
+  <si>
+    <t>(F-HBLS)</t>
+  </si>
+  <si>
+    <t>4:02 PM</t>
+  </si>
+  <si>
+    <t>3:56 PM</t>
+  </si>
+  <si>
+    <t>5:20 PM</t>
+  </si>
+  <si>
+    <t>5:14 PM</t>
+  </si>
+  <si>
+    <t>(ES-ACD)</t>
+  </si>
+  <si>
+    <t>(TC-JSZ)</t>
+  </si>
+  <si>
+    <t>6:02 PM</t>
+  </si>
+  <si>
+    <t>5:59 PM</t>
+  </si>
+  <si>
+    <t>6:14 PM</t>
+  </si>
+  <si>
+    <t>6:26 PM</t>
+  </si>
+  <si>
+    <t>(EI-EDP)</t>
+  </si>
+  <si>
+    <t>6:07 PM</t>
+  </si>
+  <si>
+    <t>6:23 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">British Airways (BA Better World Livery) </t>
+  </si>
+  <si>
+    <t>(G-TTNA)</t>
+  </si>
+  <si>
+    <t>6:43 PM</t>
+  </si>
+  <si>
+    <t>6:37 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swiss </t>
+  </si>
+  <si>
+    <t>(HB-JCK)</t>
+  </si>
+  <si>
+    <t>LO6210</t>
+  </si>
+  <si>
+    <t>Taba</t>
+  </si>
+  <si>
+    <t>(TCP)</t>
+  </si>
+  <si>
+    <t>E45572</t>
+  </si>
+  <si>
+    <t>Muscat</t>
+  </si>
+  <si>
+    <t>(MCT)</t>
+  </si>
+  <si>
+    <t>7:50 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 24 minutes</t>
+  </si>
+  <si>
+    <t>6:57 PM</t>
+  </si>
+  <si>
+    <t>7:32 PM</t>
+  </si>
+  <si>
+    <t>8:00 PM</t>
+  </si>
+  <si>
+    <t>SAR901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SprintAir </t>
+  </si>
+  <si>
+    <t>AT72</t>
+  </si>
+  <si>
+    <t>(SP-SPG)</t>
+  </si>
+  <si>
+    <t>8:20 PM</t>
+  </si>
+  <si>
+    <t>8:24 PM</t>
+  </si>
+  <si>
+    <t>9:14 PM</t>
+  </si>
+  <si>
+    <t>8:39 PM</t>
+  </si>
+  <si>
+    <t>8:41 PM</t>
+  </si>
+  <si>
+    <t>0 hours, -34 minutes</t>
+  </si>
+  <si>
+    <t>9:48 PM</t>
+  </si>
+  <si>
+    <t>9:12 PM</t>
+  </si>
+  <si>
+    <t>11:35 PM</t>
+  </si>
+  <si>
+    <t>1 hours, 45 minutes</t>
+  </si>
+  <si>
+    <t>9:46 PM</t>
+  </si>
+  <si>
+    <t>(F-GKXV)</t>
+  </si>
+  <si>
+    <t>10:30 PM</t>
+  </si>
+  <si>
+    <t>B739</t>
+  </si>
+  <si>
+    <t>(PH-BXS)</t>
   </si>
 </sst>
 </file>
@@ -4616,7 +4919,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M703"/>
+  <dimension ref="A1:M876"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -30631,6 +30934,6407 @@
       </c>
       <c r="M703" s="0"/>
     </row>
+    <row r="704">
+      <c r="A704" t="n" s="0">
+        <v>703.0</v>
+      </c>
+      <c r="B704" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C704" t="s" s="0">
+        <v>1141</v>
+      </c>
+      <c r="D704" t="s" s="0">
+        <v>1127</v>
+      </c>
+      <c r="E704" t="s" s="0">
+        <v>1128</v>
+      </c>
+      <c r="F704" t="s" s="0">
+        <v>1129</v>
+      </c>
+      <c r="G704" t="s" s="0">
+        <v>1130</v>
+      </c>
+      <c r="H704" t="s" s="0">
+        <v>1131</v>
+      </c>
+      <c r="I704" t="s" s="0">
+        <v>1132</v>
+      </c>
+      <c r="J704" t="s" s="0">
+        <v>1392</v>
+      </c>
+      <c r="K704" s="0"/>
+      <c r="L704" t="s" s="0">
+        <v>538</v>
+      </c>
+      <c r="M704" s="0"/>
+    </row>
+    <row r="705">
+      <c r="A705" t="n" s="0">
+        <v>704.0</v>
+      </c>
+      <c r="B705" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C705" t="s" s="0">
+        <v>1521</v>
+      </c>
+      <c r="D705" t="s" s="0">
+        <v>1134</v>
+      </c>
+      <c r="E705" t="s" s="0">
+        <v>1135</v>
+      </c>
+      <c r="F705" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="G705" t="s" s="0">
+        <v>1137</v>
+      </c>
+      <c r="H705" t="s" s="0">
+        <v>1383</v>
+      </c>
+      <c r="I705" t="s" s="0">
+        <v>1522</v>
+      </c>
+      <c r="J705" t="s" s="0">
+        <v>1523</v>
+      </c>
+      <c r="K705" s="0"/>
+      <c r="L705" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="M705" s="0"/>
+    </row>
+    <row r="706">
+      <c r="A706" t="n" s="0">
+        <v>705.0</v>
+      </c>
+      <c r="B706" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C706" t="s" s="0">
+        <v>828</v>
+      </c>
+      <c r="D706" t="s" s="0">
+        <v>829</v>
+      </c>
+      <c r="E706" t="s" s="0">
+        <v>830</v>
+      </c>
+      <c r="F706" t="s" s="0">
+        <v>831</v>
+      </c>
+      <c r="G706" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H706" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I706" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="J706" t="s" s="0">
+        <v>1133</v>
+      </c>
+      <c r="K706" s="0"/>
+      <c r="L706" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="M706" s="0"/>
+    </row>
+    <row r="707">
+      <c r="A707" t="n" s="0">
+        <v>706.0</v>
+      </c>
+      <c r="B707" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C707" t="s" s="0">
+        <v>1150</v>
+      </c>
+      <c r="D707" t="s" s="0">
+        <v>1152</v>
+      </c>
+      <c r="E707" t="s" s="0">
+        <v>498</v>
+      </c>
+      <c r="F707" t="s" s="0">
+        <v>499</v>
+      </c>
+      <c r="G707" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H707" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I707" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="J707" t="s" s="0">
+        <v>1524</v>
+      </c>
+      <c r="K707" s="0"/>
+      <c r="L707" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="M707" s="0"/>
+    </row>
+    <row r="708">
+      <c r="A708" t="n" s="0">
+        <v>707.0</v>
+      </c>
+      <c r="B708" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C708" t="s" s="0">
+        <v>1150</v>
+      </c>
+      <c r="D708" t="s" s="0">
+        <v>844</v>
+      </c>
+      <c r="E708" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="F708" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="G708" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="H708" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I708" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="J708" t="s" s="0">
+        <v>1525</v>
+      </c>
+      <c r="K708" s="0"/>
+      <c r="L708" t="s" s="0">
+        <v>677</v>
+      </c>
+      <c r="M708" s="0"/>
+    </row>
+    <row r="709">
+      <c r="A709" t="n" s="0">
+        <v>708.0</v>
+      </c>
+      <c r="B709" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C709" t="s" s="0">
+        <v>1150</v>
+      </c>
+      <c r="D709" t="s" s="0">
+        <v>846</v>
+      </c>
+      <c r="E709" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="F709" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="G709" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H709" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I709" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="J709" t="s" s="0">
+        <v>1526</v>
+      </c>
+      <c r="K709" s="0"/>
+      <c r="L709" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="M709" s="0"/>
+    </row>
+    <row r="710">
+      <c r="A710" t="n" s="0">
+        <v>709.0</v>
+      </c>
+      <c r="B710" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C710" t="s" s="0">
+        <v>1150</v>
+      </c>
+      <c r="D710" t="s" s="0">
+        <v>839</v>
+      </c>
+      <c r="E710" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F710" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G710" t="s" s="0">
+        <v>840</v>
+      </c>
+      <c r="H710" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I710" t="s" s="0">
+        <v>841</v>
+      </c>
+      <c r="J710" t="s" s="0">
+        <v>852</v>
+      </c>
+      <c r="K710" s="0"/>
+      <c r="L710" t="s" s="0">
+        <v>420</v>
+      </c>
+      <c r="M710" s="0"/>
+    </row>
+    <row r="711">
+      <c r="A711" t="n" s="0">
+        <v>710.0</v>
+      </c>
+      <c r="B711" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C711" t="s" s="0">
+        <v>848</v>
+      </c>
+      <c r="D711" t="s" s="0">
+        <v>849</v>
+      </c>
+      <c r="E711" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="F711" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="G711" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H711" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I711" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="J711" t="s" s="0">
+        <v>843</v>
+      </c>
+      <c r="K711" s="0"/>
+      <c r="L711" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="M711" s="0"/>
+    </row>
+    <row r="712">
+      <c r="A712" t="n" s="0">
+        <v>711.0</v>
+      </c>
+      <c r="B712" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C712" t="s" s="0">
+        <v>848</v>
+      </c>
+      <c r="D712" t="s" s="0">
+        <v>1161</v>
+      </c>
+      <c r="E712" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="F712" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="G712" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H712" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I712" t="s" s="0">
+        <v>1504</v>
+      </c>
+      <c r="J712" t="s" s="0">
+        <v>1162</v>
+      </c>
+      <c r="K712" s="0"/>
+      <c r="L712" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="M712" s="0"/>
+    </row>
+    <row r="713">
+      <c r="A713" t="n" s="0">
+        <v>712.0</v>
+      </c>
+      <c r="B713" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C713" t="s" s="0">
+        <v>848</v>
+      </c>
+      <c r="D713" t="s" s="0">
+        <v>851</v>
+      </c>
+      <c r="E713" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F713" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G713" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H713" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I713" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="J713" t="s" s="0">
+        <v>837</v>
+      </c>
+      <c r="K713" s="0"/>
+      <c r="L713" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="M713" s="0"/>
+    </row>
+    <row r="714">
+      <c r="A714" t="n" s="0">
+        <v>713.0</v>
+      </c>
+      <c r="B714" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C714" t="s" s="0">
+        <v>1154</v>
+      </c>
+      <c r="D714" t="s" s="0">
+        <v>1166</v>
+      </c>
+      <c r="E714" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="F714" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="G714" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H714" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I714" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="J714" t="s" s="0">
+        <v>838</v>
+      </c>
+      <c r="K714" s="0"/>
+      <c r="L714" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="M714" s="0"/>
+    </row>
+    <row r="715">
+      <c r="A715" t="n" s="0">
+        <v>714.0</v>
+      </c>
+      <c r="B715" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C715" t="s" s="0">
+        <v>1154</v>
+      </c>
+      <c r="D715" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="E715" t="s" s="0">
+        <v>532</v>
+      </c>
+      <c r="F715" t="s" s="0">
+        <v>533</v>
+      </c>
+      <c r="G715" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="H715" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I715" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="J715" t="s" s="0">
+        <v>1165</v>
+      </c>
+      <c r="K715" s="0"/>
+      <c r="L715" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="M715" s="0"/>
+    </row>
+    <row r="716">
+      <c r="A716" t="n" s="0">
+        <v>715.0</v>
+      </c>
+      <c r="B716" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C716" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D716" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E716" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F716" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G716" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H716" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I716" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="J716" t="s" s="0">
+        <v>1176</v>
+      </c>
+      <c r="K716" s="0"/>
+      <c r="L716" t="s" s="0">
+        <v>970</v>
+      </c>
+      <c r="M716" s="0"/>
+    </row>
+    <row r="717">
+      <c r="A717" t="n" s="0">
+        <v>716.0</v>
+      </c>
+      <c r="B717" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C717" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D717" t="s" s="0">
+        <v>1527</v>
+      </c>
+      <c r="E717" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="F717" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="G717" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="H717" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="I717" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="J717" t="s" s="0">
+        <v>1528</v>
+      </c>
+      <c r="K717" s="0"/>
+      <c r="L717" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="M717" s="0"/>
+    </row>
+    <row r="718">
+      <c r="A718" t="n" s="0">
+        <v>717.0</v>
+      </c>
+      <c r="B718" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C718" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D718" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E718" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F718" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G718" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H718" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I718" t="s" s="0">
+        <v>1529</v>
+      </c>
+      <c r="J718" t="s" s="0">
+        <v>1402</v>
+      </c>
+      <c r="K718" s="0"/>
+      <c r="L718" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="M718" s="0"/>
+    </row>
+    <row r="719">
+      <c r="A719" t="n" s="0">
+        <v>718.0</v>
+      </c>
+      <c r="B719" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C719" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D719" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E719" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F719" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G719" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H719" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I719" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="J719" t="s" s="0">
+        <v>1530</v>
+      </c>
+      <c r="K719" s="0"/>
+      <c r="L719" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="M719" s="0"/>
+    </row>
+    <row r="720">
+      <c r="A720" t="n" s="0">
+        <v>719.0</v>
+      </c>
+      <c r="B720" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C720" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D720" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="E720" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="F720" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="G720" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H720" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I720" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="J720" t="s" s="0">
+        <v>1531</v>
+      </c>
+      <c r="K720" s="0"/>
+      <c r="L720" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="M720" s="0"/>
+    </row>
+    <row r="721">
+      <c r="A721" t="n" s="0">
+        <v>720.0</v>
+      </c>
+      <c r="B721" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C721" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D721" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="E721" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F721" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="G721" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H721" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I721" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="J721" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="K721" s="0"/>
+      <c r="L721" t="s" s="0">
+        <v>674</v>
+      </c>
+      <c r="M721" s="0"/>
+    </row>
+    <row r="722">
+      <c r="A722" t="n" s="0">
+        <v>721.0</v>
+      </c>
+      <c r="B722" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C722" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D722" t="s" s="0">
+        <v>1180</v>
+      </c>
+      <c r="E722" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="F722" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="G722" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H722" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I722" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="J722" t="s" s="0">
+        <v>861</v>
+      </c>
+      <c r="K722" s="0"/>
+      <c r="L722" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="M722" s="0"/>
+    </row>
+    <row r="723">
+      <c r="A723" t="n" s="0">
+        <v>722.0</v>
+      </c>
+      <c r="B723" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C723" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="D723" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="E723" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="F723" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G723" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="H723" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I723" t="s" s="0">
+        <v>1532</v>
+      </c>
+      <c r="J723" t="s" s="0">
+        <v>1533</v>
+      </c>
+      <c r="K723" s="0"/>
+      <c r="L723" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="M723" s="0"/>
+    </row>
+    <row r="724">
+      <c r="A724" t="n" s="0">
+        <v>723.0</v>
+      </c>
+      <c r="B724" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C724" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="D724" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="E724" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="F724" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="G724" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H724" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I724" t="s" s="0">
+        <v>441</v>
+      </c>
+      <c r="J724" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="K724" s="0"/>
+      <c r="L724" t="s" s="0">
+        <v>1534</v>
+      </c>
+      <c r="M724" s="0"/>
+    </row>
+    <row r="725">
+      <c r="A725" t="n" s="0">
+        <v>724.0</v>
+      </c>
+      <c r="B725" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C725" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="D725" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="E725" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="F725" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="G725" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H725" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I725" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="J725" t="s" s="0">
+        <v>1535</v>
+      </c>
+      <c r="K725" s="0"/>
+      <c r="L725" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="M725" s="0"/>
+    </row>
+    <row r="726">
+      <c r="A726" t="n" s="0">
+        <v>725.0</v>
+      </c>
+      <c r="B726" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C726" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="D726" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="E726" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="F726" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="G726" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H726" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I726" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="J726" t="s" s="0">
+        <v>1189</v>
+      </c>
+      <c r="K726" s="0"/>
+      <c r="L726" t="s" s="0">
+        <v>806</v>
+      </c>
+      <c r="M726" s="0"/>
+    </row>
+    <row r="727">
+      <c r="A727" t="n" s="0">
+        <v>726.0</v>
+      </c>
+      <c r="B727" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C727" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="D727" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="E727" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="F727" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G727" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H727" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I727" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="J727" t="s" s="0">
+        <v>1536</v>
+      </c>
+      <c r="K727" s="0"/>
+      <c r="L727" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="M727" s="0"/>
+    </row>
+    <row r="728">
+      <c r="A728" t="n" s="0">
+        <v>727.0</v>
+      </c>
+      <c r="B728" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C728" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="D728" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="E728" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="F728" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="G728" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="H728" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I728" t="s" s="0">
+        <v>1429</v>
+      </c>
+      <c r="J728" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="K728" s="0"/>
+      <c r="L728" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="M728" s="0"/>
+    </row>
+    <row r="729">
+      <c r="A729" t="n" s="0">
+        <v>728.0</v>
+      </c>
+      <c r="B729" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C729" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="D729" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="E729" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F729" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G729" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H729" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I729" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="J729" t="s" s="0">
+        <v>1537</v>
+      </c>
+      <c r="K729" s="0"/>
+      <c r="L729" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="M729" s="0"/>
+    </row>
+    <row r="730">
+      <c r="A730" t="n" s="0">
+        <v>729.0</v>
+      </c>
+      <c r="B730" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C730" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="D730" t="s" s="0">
+        <v>1196</v>
+      </c>
+      <c r="E730" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="F730" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="G730" t="s" s="0">
+        <v>1197</v>
+      </c>
+      <c r="H730" t="s" s="0">
+        <v>1008</v>
+      </c>
+      <c r="I730" t="s" s="0">
+        <v>1198</v>
+      </c>
+      <c r="J730" t="s" s="0">
+        <v>1201</v>
+      </c>
+      <c r="K730" s="0"/>
+      <c r="L730" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="M730" s="0"/>
+    </row>
+    <row r="731">
+      <c r="A731" t="n" s="0">
+        <v>730.0</v>
+      </c>
+      <c r="B731" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C731" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="D731" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="E731" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="F731" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="G731" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="H731" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I731" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="J731" t="s" s="0">
+        <v>879</v>
+      </c>
+      <c r="K731" s="0"/>
+      <c r="L731" t="s" s="0">
+        <v>538</v>
+      </c>
+      <c r="M731" s="0"/>
+    </row>
+    <row r="732">
+      <c r="A732" t="n" s="0">
+        <v>731.0</v>
+      </c>
+      <c r="B732" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C732" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="D732" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="E732" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="F732" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="G732" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="H732" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I732" t="s" s="0">
+        <v>1538</v>
+      </c>
+      <c r="J732" t="s" s="0">
+        <v>881</v>
+      </c>
+      <c r="K732" s="0"/>
+      <c r="L732" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="M732" s="0"/>
+    </row>
+    <row r="733">
+      <c r="A733" t="n" s="0">
+        <v>732.0</v>
+      </c>
+      <c r="B733" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C733" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="D733" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="E733" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="F733" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="G733" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H733" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I733" t="s" s="0">
+        <v>891</v>
+      </c>
+      <c r="J733" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="K733" s="0"/>
+      <c r="L733" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="M733" s="0"/>
+    </row>
+    <row r="734">
+      <c r="A734" t="n" s="0">
+        <v>733.0</v>
+      </c>
+      <c r="B734" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C734" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="D734" t="s" s="0">
+        <v>880</v>
+      </c>
+      <c r="E734" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F734" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G734" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H734" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I734" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="J734" t="s" s="0">
+        <v>1539</v>
+      </c>
+      <c r="K734" s="0"/>
+      <c r="L734" t="s" s="0">
+        <v>1540</v>
+      </c>
+      <c r="M734" s="0"/>
+    </row>
+    <row r="735">
+      <c r="A735" t="n" s="0">
+        <v>734.0</v>
+      </c>
+      <c r="B735" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C735" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="D735" t="s" s="0">
+        <v>1203</v>
+      </c>
+      <c r="E735" t="s" s="0">
+        <v>1204</v>
+      </c>
+      <c r="F735" t="s" s="0">
+        <v>1205</v>
+      </c>
+      <c r="G735" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H735" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I735" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="J735" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="K735" s="0"/>
+      <c r="L735" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="M735" s="0"/>
+    </row>
+    <row r="736">
+      <c r="A736" t="n" s="0">
+        <v>735.0</v>
+      </c>
+      <c r="B736" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C736" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="D736" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="E736" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="F736" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="G736" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H736" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I736" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="J736" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="K736" s="0"/>
+      <c r="L736" t="s" s="0">
+        <v>1541</v>
+      </c>
+      <c r="M736" s="0"/>
+    </row>
+    <row r="737">
+      <c r="A737" t="n" s="0">
+        <v>736.0</v>
+      </c>
+      <c r="B737" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C737" t="s" s="0">
+        <v>1408</v>
+      </c>
+      <c r="D737" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="E737" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="F737" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="G737" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H737" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I737" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="J737" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="K737" s="0"/>
+      <c r="L737" t="s" s="0">
+        <v>649</v>
+      </c>
+      <c r="M737" s="0"/>
+    </row>
+    <row r="738">
+      <c r="A738" t="n" s="0">
+        <v>737.0</v>
+      </c>
+      <c r="B738" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C738" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="D738" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="E738" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="F738" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="G738" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H738" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I738" t="s" s="0">
+        <v>554</v>
+      </c>
+      <c r="J738" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="K738" s="0"/>
+      <c r="L738" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="M738" s="0"/>
+    </row>
+    <row r="739">
+      <c r="A739" t="n" s="0">
+        <v>738.0</v>
+      </c>
+      <c r="B739" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C739" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="D739" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="E739" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="F739" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="G739" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H739" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I739" t="s" s="0">
+        <v>1542</v>
+      </c>
+      <c r="J739" t="s" s="0">
+        <v>1543</v>
+      </c>
+      <c r="K739" s="0"/>
+      <c r="L739" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M739" s="0"/>
+    </row>
+    <row r="740">
+      <c r="A740" t="n" s="0">
+        <v>739.0</v>
+      </c>
+      <c r="B740" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C740" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="D740" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="E740" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="F740" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="G740" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H740" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I740" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="J740" t="s" s="0">
+        <v>1544</v>
+      </c>
+      <c r="K740" s="0"/>
+      <c r="L740" t="s" s="0">
+        <v>634</v>
+      </c>
+      <c r="M740" s="0"/>
+    </row>
+    <row r="741">
+      <c r="A741" t="n" s="0">
+        <v>740.0</v>
+      </c>
+      <c r="B741" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C741" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="D741" t="s" s="0">
+        <v>890</v>
+      </c>
+      <c r="E741" t="s" s="0">
+        <v>450</v>
+      </c>
+      <c r="F741" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="G741" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H741" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I741" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="J741" t="s" s="0">
+        <v>888</v>
+      </c>
+      <c r="K741" s="0"/>
+      <c r="L741" t="s" s="0">
+        <v>889</v>
+      </c>
+      <c r="M741" s="0"/>
+    </row>
+    <row r="742">
+      <c r="A742" t="n" s="0">
+        <v>741.0</v>
+      </c>
+      <c r="B742" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C742" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="D742" t="s" s="0">
+        <v>893</v>
+      </c>
+      <c r="E742" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="F742" t="s" s="0">
+        <v>894</v>
+      </c>
+      <c r="G742" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H742" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I742" t="s" s="0">
+        <v>494</v>
+      </c>
+      <c r="J742" t="s" s="0">
+        <v>1545</v>
+      </c>
+      <c r="K742" s="0"/>
+      <c r="L742" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="M742" s="0"/>
+    </row>
+    <row r="743">
+      <c r="A743" t="n" s="0">
+        <v>742.0</v>
+      </c>
+      <c r="B743" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C743" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="D743" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="E743" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="F743" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="G743" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="H743" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="I743" t="s" s="0">
+        <v>1546</v>
+      </c>
+      <c r="J743" t="s" s="0">
+        <v>1547</v>
+      </c>
+      <c r="K743" s="0"/>
+      <c r="L743" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M743" s="0"/>
+    </row>
+    <row r="744">
+      <c r="A744" t="n" s="0">
+        <v>743.0</v>
+      </c>
+      <c r="B744" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C744" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="D744" t="s" s="0">
+        <v>1215</v>
+      </c>
+      <c r="E744" t="s" s="0">
+        <v>1216</v>
+      </c>
+      <c r="F744" t="s" s="0">
+        <v>1217</v>
+      </c>
+      <c r="G744" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H744" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I744" t="s" s="0">
+        <v>608</v>
+      </c>
+      <c r="J744" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="K744" s="0"/>
+      <c r="L744" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="M744" s="0"/>
+    </row>
+    <row r="745">
+      <c r="A745" t="n" s="0">
+        <v>744.0</v>
+      </c>
+      <c r="B745" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C745" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="D745" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="E745" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="F745" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="G745" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="H745" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I745" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="J745" t="s" s="0">
+        <v>897</v>
+      </c>
+      <c r="K745" s="0"/>
+      <c r="L745" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="M745" s="0"/>
+    </row>
+    <row r="746">
+      <c r="A746" t="n" s="0">
+        <v>745.0</v>
+      </c>
+      <c r="B746" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C746" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="D746" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="E746" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F746" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="G746" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="H746" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I746" t="s" s="0">
+        <v>1548</v>
+      </c>
+      <c r="J746" t="s" s="0">
+        <v>917</v>
+      </c>
+      <c r="K746" s="0"/>
+      <c r="L746" t="s" s="0">
+        <v>1342</v>
+      </c>
+      <c r="M746" s="0"/>
+    </row>
+    <row r="747">
+      <c r="A747" t="n" s="0">
+        <v>746.0</v>
+      </c>
+      <c r="B747" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C747" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="D747" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="E747" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="F747" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="G747" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H747" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="I747" t="s" s="0">
+        <v>1420</v>
+      </c>
+      <c r="J747" t="s" s="0">
+        <v>1549</v>
+      </c>
+      <c r="K747" s="0"/>
+      <c r="L747" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="M747" s="0"/>
+    </row>
+    <row r="748">
+      <c r="A748" t="n" s="0">
+        <v>747.0</v>
+      </c>
+      <c r="B748" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C748" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="D748" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="E748" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="F748" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="G748" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H748" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I748" t="s" s="0">
+        <v>1504</v>
+      </c>
+      <c r="J748" t="s" s="0">
+        <v>910</v>
+      </c>
+      <c r="K748" s="0"/>
+      <c r="L748" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="M748" s="0"/>
+    </row>
+    <row r="749">
+      <c r="A749" t="n" s="0">
+        <v>748.0</v>
+      </c>
+      <c r="B749" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C749" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="D749" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="E749" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F749" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="G749" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H749" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I749" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="J749" t="s" s="0">
+        <v>913</v>
+      </c>
+      <c r="K749" s="0"/>
+      <c r="L749" t="s" s="0">
+        <v>684</v>
+      </c>
+      <c r="M749" s="0"/>
+    </row>
+    <row r="750">
+      <c r="A750" t="n" s="0">
+        <v>749.0</v>
+      </c>
+      <c r="B750" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C750" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="D750" t="s" s="0">
+        <v>1229</v>
+      </c>
+      <c r="E750" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="F750" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="G750" t="s" s="0">
+        <v>560</v>
+      </c>
+      <c r="H750" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I750" t="s" s="0">
+        <v>1550</v>
+      </c>
+      <c r="J750" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="K750" s="0"/>
+      <c r="L750" t="s" s="0">
+        <v>889</v>
+      </c>
+      <c r="M750" s="0"/>
+    </row>
+    <row r="751">
+      <c r="A751" t="n" s="0">
+        <v>750.0</v>
+      </c>
+      <c r="B751" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C751" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="D751" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="E751" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="F751" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="G751" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="H751" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="I751" t="s" s="0">
+        <v>1551</v>
+      </c>
+      <c r="J751" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="K751" s="0"/>
+      <c r="L751" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="M751" s="0"/>
+    </row>
+    <row r="752">
+      <c r="A752" t="n" s="0">
+        <v>751.0</v>
+      </c>
+      <c r="B752" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C752" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="D752" t="s" s="0">
+        <v>1226</v>
+      </c>
+      <c r="E752" t="s" s="0">
+        <v>1227</v>
+      </c>
+      <c r="F752" t="s" s="0">
+        <v>1228</v>
+      </c>
+      <c r="G752" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H752" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I752" t="s" s="0">
+        <v>429</v>
+      </c>
+      <c r="J752" t="s" s="0">
+        <v>1552</v>
+      </c>
+      <c r="K752" s="0"/>
+      <c r="L752" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="M752" s="0"/>
+    </row>
+    <row r="753">
+      <c r="A753" t="n" s="0">
+        <v>752.0</v>
+      </c>
+      <c r="B753" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C753" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="D753" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="E753" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F753" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G753" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="H753" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I753" t="s" s="0">
+        <v>1553</v>
+      </c>
+      <c r="J753" t="s" s="0">
+        <v>1232</v>
+      </c>
+      <c r="K753" s="0"/>
+      <c r="L753" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="M753" s="0"/>
+    </row>
+    <row r="754">
+      <c r="A754" t="n" s="0">
+        <v>753.0</v>
+      </c>
+      <c r="B754" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C754" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="D754" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="E754" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F754" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="G754" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H754" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I754" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="J754" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="K754" s="0"/>
+      <c r="L754" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="M754" s="0"/>
+    </row>
+    <row r="755">
+      <c r="A755" t="n" s="0">
+        <v>754.0</v>
+      </c>
+      <c r="B755" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C755" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="D755" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="E755" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="F755" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="G755" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H755" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I755" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="J755" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="K755" s="0"/>
+      <c r="L755" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="M755" s="0"/>
+    </row>
+    <row r="756">
+      <c r="A756" t="n" s="0">
+        <v>755.0</v>
+      </c>
+      <c r="B756" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C756" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="D756" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="E756" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="F756" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="G756" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H756" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I756" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="J756" t="s" s="0">
+        <v>1554</v>
+      </c>
+      <c r="K756" s="0"/>
+      <c r="L756" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="M756" s="0"/>
+    </row>
+    <row r="757">
+      <c r="A757" t="n" s="0">
+        <v>756.0</v>
+      </c>
+      <c r="B757" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C757" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="D757" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="E757" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F757" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G757" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H757" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I757" t="s" s="0">
+        <v>1555</v>
+      </c>
+      <c r="J757" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="K757" s="0"/>
+      <c r="L757" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="M757" s="0"/>
+    </row>
+    <row r="758">
+      <c r="A758" t="n" s="0">
+        <v>757.0</v>
+      </c>
+      <c r="B758" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C758" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="D758" t="s" s="0">
+        <v>301</v>
+      </c>
+      <c r="E758" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="F758" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G758" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H758" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I758" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="J758" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="K758" s="0"/>
+      <c r="L758" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="M758" s="0"/>
+    </row>
+    <row r="759">
+      <c r="A759" t="n" s="0">
+        <v>758.0</v>
+      </c>
+      <c r="B759" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C759" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="D759" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="E759" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="F759" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="G759" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H759" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I759" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="J759" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="K759" s="0"/>
+      <c r="L759" t="s" s="0">
+        <v>420</v>
+      </c>
+      <c r="M759" s="0"/>
+    </row>
+    <row r="760">
+      <c r="A760" t="n" s="0">
+        <v>759.0</v>
+      </c>
+      <c r="B760" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C760" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="D760" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="E760" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="F760" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="G760" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H760" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I760" t="s" s="0">
+        <v>928</v>
+      </c>
+      <c r="J760" t="s" s="0">
+        <v>1256</v>
+      </c>
+      <c r="K760" s="0"/>
+      <c r="L760" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M760" s="0"/>
+    </row>
+    <row r="761">
+      <c r="A761" t="n" s="0">
+        <v>760.0</v>
+      </c>
+      <c r="B761" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C761" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="D761" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="E761" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="F761" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="G761" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H761" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I761" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="J761" t="s" s="0">
+        <v>1239</v>
+      </c>
+      <c r="K761" s="0"/>
+      <c r="L761" t="s" s="0">
+        <v>370</v>
+      </c>
+      <c r="M761" s="0"/>
+    </row>
+    <row r="762">
+      <c r="A762" t="n" s="0">
+        <v>761.0</v>
+      </c>
+      <c r="B762" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C762" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="D762" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="E762" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="F762" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="G762" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H762" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I762" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="J762" t="s" s="0">
+        <v>1556</v>
+      </c>
+      <c r="K762" s="0"/>
+      <c r="L762" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="M762" s="0"/>
+    </row>
+    <row r="763">
+      <c r="A763" t="n" s="0">
+        <v>762.0</v>
+      </c>
+      <c r="B763" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C763" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="D763" t="s" s="0">
+        <v>929</v>
+      </c>
+      <c r="E763" t="s" s="0">
+        <v>517</v>
+      </c>
+      <c r="F763" t="s" s="0">
+        <v>518</v>
+      </c>
+      <c r="G763" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="H763" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I763" t="s" s="0">
+        <v>1429</v>
+      </c>
+      <c r="J763" t="s" s="0">
+        <v>1241</v>
+      </c>
+      <c r="K763" s="0"/>
+      <c r="L763" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="M763" s="0"/>
+    </row>
+    <row r="764">
+      <c r="A764" t="n" s="0">
+        <v>763.0</v>
+      </c>
+      <c r="B764" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C764" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="D764" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="E764" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="F764" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="G764" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="H764" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I764" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="J764" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="K764" s="0"/>
+      <c r="L764" t="s" s="0">
+        <v>889</v>
+      </c>
+      <c r="M764" s="0"/>
+    </row>
+    <row r="765">
+      <c r="A765" t="n" s="0">
+        <v>764.0</v>
+      </c>
+      <c r="B765" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C765" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="D765" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="E765" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="F765" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="G765" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H765" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I765" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="J765" t="s" s="0">
+        <v>922</v>
+      </c>
+      <c r="K765" s="0"/>
+      <c r="L765" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="M765" s="0"/>
+    </row>
+    <row r="766">
+      <c r="A766" t="n" s="0">
+        <v>765.0</v>
+      </c>
+      <c r="B766" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C766" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="D766" t="s" s="0">
+        <v>346</v>
+      </c>
+      <c r="E766" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="F766" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="G766" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="H766" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I766" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="J766" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="K766" s="0"/>
+      <c r="L766" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="M766" s="0"/>
+    </row>
+    <row r="767">
+      <c r="A767" t="n" s="0">
+        <v>766.0</v>
+      </c>
+      <c r="B767" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C767" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="D767" t="s" s="0">
+        <v>1250</v>
+      </c>
+      <c r="E767" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="F767" t="s" s="0">
+        <v>1251</v>
+      </c>
+      <c r="G767" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H767" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="I767" t="s" s="0">
+        <v>474</v>
+      </c>
+      <c r="J767" t="s" s="0">
+        <v>1557</v>
+      </c>
+      <c r="K767" s="0"/>
+      <c r="L767" t="s" s="0">
+        <v>322</v>
+      </c>
+      <c r="M767" s="0"/>
+    </row>
+    <row r="768">
+      <c r="A768" t="n" s="0">
+        <v>767.0</v>
+      </c>
+      <c r="B768" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C768" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="D768" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="E768" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="F768" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="G768" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="H768" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="I768" t="s" s="0">
+        <v>775</v>
+      </c>
+      <c r="J768" t="s" s="0">
+        <v>925</v>
+      </c>
+      <c r="K768" s="0"/>
+      <c r="L768" t="s" s="0">
+        <v>684</v>
+      </c>
+      <c r="M768" s="0"/>
+    </row>
+    <row r="769">
+      <c r="A769" t="n" s="0">
+        <v>768.0</v>
+      </c>
+      <c r="B769" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C769" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="D769" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="E769" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="F769" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="G769" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H769" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="I769" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="J769" t="s" s="0">
+        <v>354</v>
+      </c>
+      <c r="K769" s="0"/>
+      <c r="L769" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="M769" s="0"/>
+    </row>
+    <row r="770">
+      <c r="A770" t="n" s="0">
+        <v>769.0</v>
+      </c>
+      <c r="B770" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C770" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="D770" t="s" s="0">
+        <v>371</v>
+      </c>
+      <c r="E770" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="F770" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="G770" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H770" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I770" t="s" s="0">
+        <v>891</v>
+      </c>
+      <c r="J770" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="K770" s="0"/>
+      <c r="L770" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="M770" s="0"/>
+    </row>
+    <row r="771">
+      <c r="A771" t="n" s="0">
+        <v>770.0</v>
+      </c>
+      <c r="B771" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C771" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="D771" t="s" s="0">
+        <v>376</v>
+      </c>
+      <c r="E771" t="s" s="0">
+        <v>377</v>
+      </c>
+      <c r="F771" t="s" s="0">
+        <v>378</v>
+      </c>
+      <c r="G771" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H771" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="I771" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="J771" t="s" s="0">
+        <v>1248</v>
+      </c>
+      <c r="K771" s="0"/>
+      <c r="L771" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="M771" s="0"/>
+    </row>
+    <row r="772">
+      <c r="A772" t="n" s="0">
+        <v>771.0</v>
+      </c>
+      <c r="B772" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C772" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="D772" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="E772" t="s" s="0">
+        <v>393</v>
+      </c>
+      <c r="F772" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="G772" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H772" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I772" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="J772" t="s" s="0">
+        <v>385</v>
+      </c>
+      <c r="K772" s="0"/>
+      <c r="L772" t="s" s="0">
+        <v>420</v>
+      </c>
+      <c r="M772" s="0"/>
+    </row>
+    <row r="773">
+      <c r="A773" t="n" s="0">
+        <v>772.0</v>
+      </c>
+      <c r="B773" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C773" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="D773" t="s" s="0">
+        <v>366</v>
+      </c>
+      <c r="E773" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="F773" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="G773" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H773" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I773" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="J773" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="K773" s="0"/>
+      <c r="L773" t="s" s="0">
+        <v>889</v>
+      </c>
+      <c r="M773" s="0"/>
+    </row>
+    <row r="774">
+      <c r="A774" t="n" s="0">
+        <v>773.0</v>
+      </c>
+      <c r="B774" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C774" t="s" s="0">
+        <v>382</v>
+      </c>
+      <c r="D774" t="s" s="0">
+        <v>383</v>
+      </c>
+      <c r="E774" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F774" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G774" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H774" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I774" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="J774" t="s" s="0">
+        <v>942</v>
+      </c>
+      <c r="K774" s="0"/>
+      <c r="L774" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="M774" s="0"/>
+    </row>
+    <row r="775">
+      <c r="A775" t="n" s="0">
+        <v>774.0</v>
+      </c>
+      <c r="B775" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C775" t="s" s="0">
+        <v>382</v>
+      </c>
+      <c r="D775" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="E775" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F775" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G775" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H775" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I775" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="J775" t="s" s="0">
+        <v>390</v>
+      </c>
+      <c r="K775" s="0"/>
+      <c r="L775" t="s" s="0">
+        <v>334</v>
+      </c>
+      <c r="M775" s="0"/>
+    </row>
+    <row r="776">
+      <c r="A776" t="n" s="0">
+        <v>775.0</v>
+      </c>
+      <c r="B776" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C776" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="D776" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="E776" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="F776" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="G776" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H776" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I776" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="J776" t="s" s="0">
+        <v>333</v>
+      </c>
+      <c r="K776" s="0"/>
+      <c r="L776" t="s" s="0">
+        <v>370</v>
+      </c>
+      <c r="M776" s="0"/>
+    </row>
+    <row r="777">
+      <c r="A777" t="n" s="0">
+        <v>776.0</v>
+      </c>
+      <c r="B777" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C777" t="s" s="0">
+        <v>401</v>
+      </c>
+      <c r="D777" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="E777" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="F777" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="G777" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H777" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I777" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="J777" t="s" s="0">
+        <v>949</v>
+      </c>
+      <c r="K777" s="0"/>
+      <c r="L777" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="M777" s="0"/>
+    </row>
+    <row r="778">
+      <c r="A778" t="n" s="0">
+        <v>777.0</v>
+      </c>
+      <c r="B778" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C778" t="s" s="0">
+        <v>401</v>
+      </c>
+      <c r="D778" t="s" s="0">
+        <v>944</v>
+      </c>
+      <c r="E778" t="s" s="0">
+        <v>945</v>
+      </c>
+      <c r="F778" t="s" s="0">
+        <v>946</v>
+      </c>
+      <c r="G778" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H778" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I778" t="s" s="0">
+        <v>1218</v>
+      </c>
+      <c r="J778" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="K778" s="0"/>
+      <c r="L778" t="s" s="0">
+        <v>1558</v>
+      </c>
+      <c r="M778" s="0"/>
+    </row>
+    <row r="779">
+      <c r="A779" t="n" s="0">
+        <v>778.0</v>
+      </c>
+      <c r="B779" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C779" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="D779" t="s" s="0">
+        <v>415</v>
+      </c>
+      <c r="E779" t="s" s="0">
+        <v>416</v>
+      </c>
+      <c r="F779" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="G779" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H779" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="I779" t="s" s="0">
+        <v>363</v>
+      </c>
+      <c r="J779" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="K779" s="0"/>
+      <c r="L779" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="M779" s="0"/>
+    </row>
+    <row r="780">
+      <c r="A780" t="n" s="0">
+        <v>779.0</v>
+      </c>
+      <c r="B780" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C780" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="D780" t="s" s="0">
+        <v>421</v>
+      </c>
+      <c r="E780" t="s" s="0">
+        <v>422</v>
+      </c>
+      <c r="F780" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="G780" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H780" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I780" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="J780" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="K780" s="0"/>
+      <c r="L780" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="M780" s="0"/>
+    </row>
+    <row r="781">
+      <c r="A781" t="n" s="0">
+        <v>780.0</v>
+      </c>
+      <c r="B781" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C781" t="s" s="0">
+        <v>435</v>
+      </c>
+      <c r="D781" t="s" s="0">
+        <v>440</v>
+      </c>
+      <c r="E781" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F781" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="G781" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H781" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I781" t="s" s="0">
+        <v>433</v>
+      </c>
+      <c r="J781" t="s" s="0">
+        <v>1559</v>
+      </c>
+      <c r="K781" s="0"/>
+      <c r="L781" t="s" s="0">
+        <v>864</v>
+      </c>
+      <c r="M781" s="0"/>
+    </row>
+    <row r="782">
+      <c r="A782" t="n" s="0">
+        <v>781.0</v>
+      </c>
+      <c r="B782" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C782" t="s" s="0">
+        <v>443</v>
+      </c>
+      <c r="D782" t="s" s="0">
+        <v>444</v>
+      </c>
+      <c r="E782" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="F782" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G782" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="H782" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I782" t="s" s="0">
+        <v>1560</v>
+      </c>
+      <c r="J782" t="s" s="0">
+        <v>481</v>
+      </c>
+      <c r="K782" s="0"/>
+      <c r="L782" t="s" s="0">
+        <v>1024</v>
+      </c>
+      <c r="M782" s="0"/>
+    </row>
+    <row r="783">
+      <c r="A783" t="n" s="0">
+        <v>782.0</v>
+      </c>
+      <c r="B783" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C783" t="s" s="0">
+        <v>448</v>
+      </c>
+      <c r="D783" t="s" s="0">
+        <v>449</v>
+      </c>
+      <c r="E783" t="s" s="0">
+        <v>450</v>
+      </c>
+      <c r="F783" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="G783" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H783" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I783" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="J783" t="s" s="0">
+        <v>1561</v>
+      </c>
+      <c r="K783" s="0"/>
+      <c r="L783" t="s" s="0">
+        <v>370</v>
+      </c>
+      <c r="M783" s="0"/>
+    </row>
+    <row r="784">
+      <c r="A784" t="n" s="0">
+        <v>783.0</v>
+      </c>
+      <c r="B784" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C784" t="s" s="0">
+        <v>448</v>
+      </c>
+      <c r="D784" t="s" s="0">
+        <v>453</v>
+      </c>
+      <c r="E784" t="s" s="0">
+        <v>454</v>
+      </c>
+      <c r="F784" t="s" s="0">
+        <v>455</v>
+      </c>
+      <c r="G784" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H784" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I784" t="s" s="0">
+        <v>554</v>
+      </c>
+      <c r="J784" t="s" s="0">
+        <v>435</v>
+      </c>
+      <c r="K784" s="0"/>
+      <c r="L784" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="M784" s="0"/>
+    </row>
+    <row r="785">
+      <c r="A785" t="n" s="0">
+        <v>784.0</v>
+      </c>
+      <c r="B785" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C785" t="s" s="0">
+        <v>448</v>
+      </c>
+      <c r="D785" t="s" s="0">
+        <v>1562</v>
+      </c>
+      <c r="E785" t="s" s="0">
+        <v>458</v>
+      </c>
+      <c r="F785" t="s" s="0">
+        <v>459</v>
+      </c>
+      <c r="G785" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H785" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="I785" t="s" s="0">
+        <v>460</v>
+      </c>
+      <c r="J785" t="s" s="0">
+        <v>1252</v>
+      </c>
+      <c r="K785" s="0"/>
+      <c r="L785" t="s" s="0">
+        <v>1563</v>
+      </c>
+      <c r="M785" s="0"/>
+    </row>
+    <row r="786">
+      <c r="A786" t="n" s="0">
+        <v>785.0</v>
+      </c>
+      <c r="B786" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C786" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="D786" t="s" s="0">
+        <v>463</v>
+      </c>
+      <c r="E786" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="F786" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="G786" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H786" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I786" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="J786" t="s" s="0">
+        <v>1564</v>
+      </c>
+      <c r="K786" s="0"/>
+      <c r="L786" t="s" s="0">
+        <v>806</v>
+      </c>
+      <c r="M786" s="0"/>
+    </row>
+    <row r="787">
+      <c r="A787" t="n" s="0">
+        <v>786.0</v>
+      </c>
+      <c r="B787" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C787" t="s" s="0">
+        <v>476</v>
+      </c>
+      <c r="D787" t="s" s="0">
+        <v>477</v>
+      </c>
+      <c r="E787" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F787" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G787" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="H787" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I787" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="J787" t="s" s="0">
+        <v>470</v>
+      </c>
+      <c r="K787" s="0"/>
+      <c r="L787" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="M787" s="0"/>
+    </row>
+    <row r="788">
+      <c r="A788" t="n" s="0">
+        <v>787.0</v>
+      </c>
+      <c r="B788" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C788" t="s" s="0">
+        <v>947</v>
+      </c>
+      <c r="D788" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="E788" t="s" s="0">
+        <v>904</v>
+      </c>
+      <c r="F788" t="s" s="0">
+        <v>905</v>
+      </c>
+      <c r="G788" t="s" s="0">
+        <v>1494</v>
+      </c>
+      <c r="H788" t="s" s="0">
+        <v>1565</v>
+      </c>
+      <c r="I788" t="s" s="0">
+        <v>1566</v>
+      </c>
+      <c r="J788" t="s" s="0">
+        <v>1567</v>
+      </c>
+      <c r="K788" s="0"/>
+      <c r="L788" t="s" s="0">
+        <v>677</v>
+      </c>
+      <c r="M788" s="0"/>
+    </row>
+    <row r="789">
+      <c r="A789" t="n" s="0">
+        <v>788.0</v>
+      </c>
+      <c r="B789" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C789" t="s" s="0">
+        <v>481</v>
+      </c>
+      <c r="D789" t="s" s="0">
+        <v>402</v>
+      </c>
+      <c r="E789" t="s" s="0">
+        <v>403</v>
+      </c>
+      <c r="F789" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="G789" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H789" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I789" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="J789" t="s" s="0">
+        <v>1267</v>
+      </c>
+      <c r="K789" s="0"/>
+      <c r="L789" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="M789" s="0"/>
+    </row>
+    <row r="790">
+      <c r="A790" t="n" s="0">
+        <v>789.0</v>
+      </c>
+      <c r="B790" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C790" t="s" s="0">
+        <v>485</v>
+      </c>
+      <c r="D790" t="s" s="0">
+        <v>486</v>
+      </c>
+      <c r="E790" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="F790" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="G790" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H790" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I790" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="J790" t="s" s="0">
+        <v>977</v>
+      </c>
+      <c r="K790" s="0"/>
+      <c r="L790" t="s" s="0">
+        <v>806</v>
+      </c>
+      <c r="M790" s="0"/>
+    </row>
+    <row r="791">
+      <c r="A791" t="n" s="0">
+        <v>790.0</v>
+      </c>
+      <c r="B791" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C791" t="s" s="0">
+        <v>485</v>
+      </c>
+      <c r="D791" t="s" s="0">
+        <v>968</v>
+      </c>
+      <c r="E791" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F791" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G791" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H791" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I791" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="J791" t="s" s="0">
+        <v>469</v>
+      </c>
+      <c r="K791" s="0"/>
+      <c r="L791" t="s" s="0">
+        <v>634</v>
+      </c>
+      <c r="M791" s="0"/>
+    </row>
+    <row r="792">
+      <c r="A792" t="n" s="0">
+        <v>791.0</v>
+      </c>
+      <c r="B792" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C792" t="s" s="0">
+        <v>490</v>
+      </c>
+      <c r="D792" t="s" s="0">
+        <v>974</v>
+      </c>
+      <c r="E792" t="s" s="0">
+        <v>975</v>
+      </c>
+      <c r="F792" t="s" s="0">
+        <v>976</v>
+      </c>
+      <c r="G792" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H792" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I792" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="J792" t="s" s="0">
+        <v>1568</v>
+      </c>
+      <c r="K792" s="0"/>
+      <c r="L792" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="M792" s="0"/>
+    </row>
+    <row r="793">
+      <c r="A793" t="n" s="0">
+        <v>792.0</v>
+      </c>
+      <c r="B793" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C793" t="s" s="0">
+        <v>496</v>
+      </c>
+      <c r="D793" t="s" s="0">
+        <v>497</v>
+      </c>
+      <c r="E793" t="s" s="0">
+        <v>498</v>
+      </c>
+      <c r="F793" t="s" s="0">
+        <v>499</v>
+      </c>
+      <c r="G793" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H793" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I793" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="J793" t="s" s="0">
+        <v>1569</v>
+      </c>
+      <c r="K793" s="0"/>
+      <c r="L793" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="M793" s="0"/>
+    </row>
+    <row r="794">
+      <c r="A794" t="n" s="0">
+        <v>793.0</v>
+      </c>
+      <c r="B794" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C794" t="s" s="0">
+        <v>506</v>
+      </c>
+      <c r="D794" t="s" s="0">
+        <v>987</v>
+      </c>
+      <c r="E794" t="s" s="0">
+        <v>988</v>
+      </c>
+      <c r="F794" t="s" s="0">
+        <v>989</v>
+      </c>
+      <c r="G794" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H794" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I794" t="s" s="0">
+        <v>567</v>
+      </c>
+      <c r="J794" t="s" s="0">
+        <v>511</v>
+      </c>
+      <c r="K794" s="0"/>
+      <c r="L794" t="s" s="0">
+        <v>871</v>
+      </c>
+      <c r="M794" s="0"/>
+    </row>
+    <row r="795">
+      <c r="A795" t="n" s="0">
+        <v>794.0</v>
+      </c>
+      <c r="B795" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C795" t="s" s="0">
+        <v>506</v>
+      </c>
+      <c r="D795" t="s" s="0">
+        <v>507</v>
+      </c>
+      <c r="E795" t="s" s="0">
+        <v>508</v>
+      </c>
+      <c r="F795" t="s" s="0">
+        <v>509</v>
+      </c>
+      <c r="G795" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H795" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I795" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="J795" t="s" s="0">
+        <v>1001</v>
+      </c>
+      <c r="K795" s="0"/>
+      <c r="L795" t="s" s="0">
+        <v>677</v>
+      </c>
+      <c r="M795" s="0"/>
+    </row>
+    <row r="796">
+      <c r="A796" t="n" s="0">
+        <v>795.0</v>
+      </c>
+      <c r="B796" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C796" t="s" s="0">
+        <v>511</v>
+      </c>
+      <c r="D796" t="s" s="0">
+        <v>512</v>
+      </c>
+      <c r="E796" t="s" s="0">
+        <v>513</v>
+      </c>
+      <c r="F796" t="s" s="0">
+        <v>514</v>
+      </c>
+      <c r="G796" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="H796" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I796" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="J796" t="s" s="0">
+        <v>1435</v>
+      </c>
+      <c r="K796" s="0"/>
+      <c r="L796" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="M796" s="0"/>
+    </row>
+    <row r="797">
+      <c r="A797" t="n" s="0">
+        <v>796.0</v>
+      </c>
+      <c r="B797" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C797" t="s" s="0">
+        <v>996</v>
+      </c>
+      <c r="D797" t="s" s="0">
+        <v>997</v>
+      </c>
+      <c r="E797" t="s" s="0">
+        <v>669</v>
+      </c>
+      <c r="F797" t="s" s="0">
+        <v>670</v>
+      </c>
+      <c r="G797" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H797" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I797" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="J797" t="s" s="0">
+        <v>998</v>
+      </c>
+      <c r="K797" s="0"/>
+      <c r="L797" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="M797" s="0"/>
+    </row>
+    <row r="798">
+      <c r="A798" t="n" s="0">
+        <v>797.0</v>
+      </c>
+      <c r="B798" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C798" t="s" s="0">
+        <v>530</v>
+      </c>
+      <c r="D798" t="s" s="0">
+        <v>531</v>
+      </c>
+      <c r="E798" t="s" s="0">
+        <v>532</v>
+      </c>
+      <c r="F798" t="s" s="0">
+        <v>533</v>
+      </c>
+      <c r="G798" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H798" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I798" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="J798" t="s" s="0">
+        <v>984</v>
+      </c>
+      <c r="K798" s="0"/>
+      <c r="L798" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="M798" s="0"/>
+    </row>
+    <row r="799">
+      <c r="A799" t="n" s="0">
+        <v>798.0</v>
+      </c>
+      <c r="B799" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C799" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="D799" t="s" s="0">
+        <v>553</v>
+      </c>
+      <c r="E799" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="F799" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="G799" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H799" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I799" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="J799" t="s" s="0">
+        <v>1000</v>
+      </c>
+      <c r="K799" s="0"/>
+      <c r="L799" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="M799" s="0"/>
+    </row>
+    <row r="800">
+      <c r="A800" t="n" s="0">
+        <v>799.0</v>
+      </c>
+      <c r="B800" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C800" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="D800" t="s" s="0">
+        <v>540</v>
+      </c>
+      <c r="E800" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="F800" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="G800" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H800" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I800" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="J800" t="s" s="0">
+        <v>496</v>
+      </c>
+      <c r="K800" s="0"/>
+      <c r="L800" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="M800" s="0"/>
+    </row>
+    <row r="801">
+      <c r="A801" t="n" s="0">
+        <v>800.0</v>
+      </c>
+      <c r="B801" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C801" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="D801" t="s" s="0">
+        <v>542</v>
+      </c>
+      <c r="E801" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="F801" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="G801" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H801" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I801" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="J801" t="s" s="0">
+        <v>534</v>
+      </c>
+      <c r="K801" s="0"/>
+      <c r="L801" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="M801" s="0"/>
+    </row>
+    <row r="802">
+      <c r="A802" t="n" s="0">
+        <v>801.0</v>
+      </c>
+      <c r="B802" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C802" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="D802" t="s" s="0">
+        <v>546</v>
+      </c>
+      <c r="E802" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F802" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G802" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H802" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I802" t="s" s="0">
+        <v>928</v>
+      </c>
+      <c r="J802" t="s" s="0">
+        <v>555</v>
+      </c>
+      <c r="K802" s="0"/>
+      <c r="L802" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="M802" s="0"/>
+    </row>
+    <row r="803">
+      <c r="A803" t="n" s="0">
+        <v>802.0</v>
+      </c>
+      <c r="B803" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C803" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="D803" t="s" s="0">
+        <v>1002</v>
+      </c>
+      <c r="E803" t="s" s="0">
+        <v>1003</v>
+      </c>
+      <c r="F803" t="s" s="0">
+        <v>1004</v>
+      </c>
+      <c r="G803" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H803" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I803" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="J803" t="s" s="0">
+        <v>979</v>
+      </c>
+      <c r="K803" s="0"/>
+      <c r="L803" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="M803" s="0"/>
+    </row>
+    <row r="804">
+      <c r="A804" t="n" s="0">
+        <v>803.0</v>
+      </c>
+      <c r="B804" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C804" t="s" s="0">
+        <v>552</v>
+      </c>
+      <c r="D804" t="s" s="0">
+        <v>544</v>
+      </c>
+      <c r="E804" t="s" s="0">
+        <v>517</v>
+      </c>
+      <c r="F804" t="s" s="0">
+        <v>518</v>
+      </c>
+      <c r="G804" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H804" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I804" t="s" s="0">
+        <v>891</v>
+      </c>
+      <c r="J804" t="s" s="0">
+        <v>530</v>
+      </c>
+      <c r="K804" s="0"/>
+      <c r="L804" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="M804" s="0"/>
+    </row>
+    <row r="805">
+      <c r="A805" t="n" s="0">
+        <v>804.0</v>
+      </c>
+      <c r="B805" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C805" t="s" s="0">
+        <v>552</v>
+      </c>
+      <c r="D805" t="s" s="0">
+        <v>556</v>
+      </c>
+      <c r="E805" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="F805" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="G805" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="H805" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I805" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="J805" t="s" s="0">
+        <v>522</v>
+      </c>
+      <c r="K805" s="0"/>
+      <c r="L805" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="M805" s="0"/>
+    </row>
+    <row r="806">
+      <c r="A806" t="n" s="0">
+        <v>805.0</v>
+      </c>
+      <c r="B806" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C806" t="s" s="0">
+        <v>1570</v>
+      </c>
+      <c r="D806" t="s" s="0">
+        <v>884</v>
+      </c>
+      <c r="E806" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="F806" t="s" s="0">
+        <v>885</v>
+      </c>
+      <c r="G806" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H806" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I806" t="s" s="0">
+        <v>494</v>
+      </c>
+      <c r="J806" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="K806" s="0"/>
+      <c r="L806" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="M806" s="0"/>
+    </row>
+    <row r="807">
+      <c r="A807" t="n" s="0">
+        <v>806.0</v>
+      </c>
+      <c r="B807" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C807" t="s" s="0">
+        <v>563</v>
+      </c>
+      <c r="D807" t="s" s="0">
+        <v>1016</v>
+      </c>
+      <c r="E807" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F807" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G807" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="H807" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I807" t="s" s="0">
+        <v>1571</v>
+      </c>
+      <c r="J807" t="s" s="0">
+        <v>1572</v>
+      </c>
+      <c r="K807" s="0"/>
+      <c r="L807" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="M807" s="0"/>
+    </row>
+    <row r="808">
+      <c r="A808" t="n" s="0">
+        <v>807.0</v>
+      </c>
+      <c r="B808" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C808" t="s" s="0">
+        <v>563</v>
+      </c>
+      <c r="D808" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="E808" t="s" s="0">
+        <v>565</v>
+      </c>
+      <c r="F808" t="s" s="0">
+        <v>566</v>
+      </c>
+      <c r="G808" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H808" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I808" t="s" s="0">
+        <v>730</v>
+      </c>
+      <c r="J808" t="s" s="0">
+        <v>1573</v>
+      </c>
+      <c r="K808" s="0"/>
+      <c r="L808" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="M808" s="0"/>
+    </row>
+    <row r="809">
+      <c r="A809" t="n" s="0">
+        <v>808.0</v>
+      </c>
+      <c r="B809" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C809" t="s" s="0">
+        <v>578</v>
+      </c>
+      <c r="D809" t="s" s="0">
+        <v>1286</v>
+      </c>
+      <c r="E809" t="s" s="0">
+        <v>1287</v>
+      </c>
+      <c r="F809" t="s" s="0">
+        <v>1288</v>
+      </c>
+      <c r="G809" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H809" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I809" t="s" s="0">
+        <v>608</v>
+      </c>
+      <c r="J809" t="s" s="0">
+        <v>563</v>
+      </c>
+      <c r="K809" s="0"/>
+      <c r="L809" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="M809" s="0"/>
+    </row>
+    <row r="810">
+      <c r="A810" t="n" s="0">
+        <v>809.0</v>
+      </c>
+      <c r="B810" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C810" t="s" s="0">
+        <v>600</v>
+      </c>
+      <c r="D810" t="s" s="0">
+        <v>1030</v>
+      </c>
+      <c r="E810" t="s" s="0">
+        <v>1031</v>
+      </c>
+      <c r="F810" t="s" s="0">
+        <v>1032</v>
+      </c>
+      <c r="G810" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H810" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I810" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="J810" t="s" s="0">
+        <v>1453</v>
+      </c>
+      <c r="K810" s="0"/>
+      <c r="L810" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="M810" s="0"/>
+    </row>
+    <row r="811">
+      <c r="A811" t="n" s="0">
+        <v>810.0</v>
+      </c>
+      <c r="B811" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C811" t="s" s="0">
+        <v>1574</v>
+      </c>
+      <c r="D811" t="s" s="0">
+        <v>601</v>
+      </c>
+      <c r="E811" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="F811" t="s" s="0">
+        <v>602</v>
+      </c>
+      <c r="G811" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H811" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I811" t="s" s="0">
+        <v>429</v>
+      </c>
+      <c r="J811" t="s" s="0">
+        <v>1469</v>
+      </c>
+      <c r="K811" s="0"/>
+      <c r="L811" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="M811" s="0"/>
+    </row>
+    <row r="812">
+      <c r="A812" t="n" s="0">
+        <v>811.0</v>
+      </c>
+      <c r="B812" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C812" t="s" s="0">
+        <v>1034</v>
+      </c>
+      <c r="D812" t="s" s="0">
+        <v>1035</v>
+      </c>
+      <c r="E812" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="F812" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="G812" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H812" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I812" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="J812" t="s" s="0">
+        <v>1575</v>
+      </c>
+      <c r="K812" s="0"/>
+      <c r="L812" t="s" s="0">
+        <v>649</v>
+      </c>
+      <c r="M812" s="0"/>
+    </row>
+    <row r="813">
+      <c r="A813" t="n" s="0">
+        <v>812.0</v>
+      </c>
+      <c r="B813" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C813" t="s" s="0">
+        <v>1038</v>
+      </c>
+      <c r="D813" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="E813" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="F813" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="G813" t="s" s="0">
+        <v>1197</v>
+      </c>
+      <c r="H813" t="s" s="0">
+        <v>1008</v>
+      </c>
+      <c r="I813" t="s" s="0">
+        <v>1576</v>
+      </c>
+      <c r="J813" t="s" s="0">
+        <v>1045</v>
+      </c>
+      <c r="K813" s="0"/>
+      <c r="L813" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="M813" s="0"/>
+    </row>
+    <row r="814">
+      <c r="A814" t="n" s="0">
+        <v>813.0</v>
+      </c>
+      <c r="B814" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C814" t="s" s="0">
+        <v>1038</v>
+      </c>
+      <c r="D814" t="s" s="0">
+        <v>1043</v>
+      </c>
+      <c r="E814" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F814" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="G814" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="H814" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I814" t="s" s="0">
+        <v>1577</v>
+      </c>
+      <c r="J814" t="s" s="0">
+        <v>1578</v>
+      </c>
+      <c r="K814" s="0"/>
+      <c r="L814" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="M814" s="0"/>
+    </row>
+    <row r="815">
+      <c r="A815" t="n" s="0">
+        <v>814.0</v>
+      </c>
+      <c r="B815" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C815" t="s" s="0">
+        <v>620</v>
+      </c>
+      <c r="D815" t="s" s="0">
+        <v>621</v>
+      </c>
+      <c r="E815" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F815" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G815" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H815" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I815" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="J815" t="s" s="0">
+        <v>1036</v>
+      </c>
+      <c r="K815" s="0"/>
+      <c r="L815" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="M815" s="0"/>
+    </row>
+    <row r="816">
+      <c r="A816" t="n" s="0">
+        <v>815.0</v>
+      </c>
+      <c r="B816" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C816" t="s" s="0">
+        <v>1045</v>
+      </c>
+      <c r="D816" t="s" s="0">
+        <v>1046</v>
+      </c>
+      <c r="E816" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="F816" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="G816" t="s" s="0">
+        <v>1197</v>
+      </c>
+      <c r="H816" t="s" s="0">
+        <v>1008</v>
+      </c>
+      <c r="I816" t="s" s="0">
+        <v>1198</v>
+      </c>
+      <c r="J816" t="s" s="0">
+        <v>1579</v>
+      </c>
+      <c r="K816" s="0"/>
+      <c r="L816" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="M816" s="0"/>
+    </row>
+    <row r="817">
+      <c r="A817" t="n" s="0">
+        <v>816.0</v>
+      </c>
+      <c r="B817" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C817" t="s" s="0">
+        <v>615</v>
+      </c>
+      <c r="D817" t="s" s="0">
+        <v>1049</v>
+      </c>
+      <c r="E817" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="F817" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="G817" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="H817" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I817" t="s" s="0">
+        <v>1429</v>
+      </c>
+      <c r="J817" t="s" s="0">
+        <v>610</v>
+      </c>
+      <c r="K817" s="0"/>
+      <c r="L817" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="M817" s="0"/>
+    </row>
+    <row r="818">
+      <c r="A818" t="n" s="0">
+        <v>817.0</v>
+      </c>
+      <c r="B818" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C818" t="s" s="0">
+        <v>631</v>
+      </c>
+      <c r="D818" t="s" s="0">
+        <v>632</v>
+      </c>
+      <c r="E818" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="F818" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="G818" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H818" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I818" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="J818" t="s" s="0">
+        <v>1580</v>
+      </c>
+      <c r="K818" s="0"/>
+      <c r="L818" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="M818" s="0"/>
+    </row>
+    <row r="819">
+      <c r="A819" t="n" s="0">
+        <v>818.0</v>
+      </c>
+      <c r="B819" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C819" t="s" s="0">
+        <v>640</v>
+      </c>
+      <c r="D819" t="s" s="0">
+        <v>646</v>
+      </c>
+      <c r="E819" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F819" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G819" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H819" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I819" t="s" s="0">
+        <v>1529</v>
+      </c>
+      <c r="J819" t="s" s="0">
+        <v>1581</v>
+      </c>
+      <c r="K819" s="0"/>
+      <c r="L819" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="M819" s="0"/>
+    </row>
+    <row r="820">
+      <c r="A820" t="n" s="0">
+        <v>819.0</v>
+      </c>
+      <c r="B820" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C820" t="s" s="0">
+        <v>640</v>
+      </c>
+      <c r="D820" t="s" s="0">
+        <v>641</v>
+      </c>
+      <c r="E820" t="s" s="0">
+        <v>642</v>
+      </c>
+      <c r="F820" t="s" s="0">
+        <v>643</v>
+      </c>
+      <c r="G820" t="s" s="0">
+        <v>644</v>
+      </c>
+      <c r="H820" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I820" t="s" s="0">
+        <v>1582</v>
+      </c>
+      <c r="J820" t="s" s="0">
+        <v>1583</v>
+      </c>
+      <c r="K820" s="0"/>
+      <c r="L820" t="s" s="0">
+        <v>569</v>
+      </c>
+      <c r="M820" s="0"/>
+    </row>
+    <row r="821">
+      <c r="A821" t="n" s="0">
+        <v>820.0</v>
+      </c>
+      <c r="B821" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C821" t="s" s="0">
+        <v>1056</v>
+      </c>
+      <c r="D821" t="s" s="0">
+        <v>1057</v>
+      </c>
+      <c r="E821" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="F821" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="G821" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="H821" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I821" t="s" s="0">
+        <v>1058</v>
+      </c>
+      <c r="J821" t="s" s="0">
+        <v>1584</v>
+      </c>
+      <c r="K821" s="0"/>
+      <c r="L821" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="M821" s="0"/>
+    </row>
+    <row r="822">
+      <c r="A822" t="n" s="0">
+        <v>821.0</v>
+      </c>
+      <c r="B822" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C822" t="s" s="0">
+        <v>650</v>
+      </c>
+      <c r="D822" t="s" s="0">
+        <v>651</v>
+      </c>
+      <c r="E822" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="F822" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="G822" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H822" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I822" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="J822" t="s" s="0">
+        <v>1059</v>
+      </c>
+      <c r="K822" s="0"/>
+      <c r="L822" t="s" s="0">
+        <v>684</v>
+      </c>
+      <c r="M822" s="0"/>
+    </row>
+    <row r="823">
+      <c r="A823" t="n" s="0">
+        <v>822.0</v>
+      </c>
+      <c r="B823" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C823" t="s" s="0">
+        <v>654</v>
+      </c>
+      <c r="D823" t="s" s="0">
+        <v>1060</v>
+      </c>
+      <c r="E823" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F823" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="G823" t="s" s="0">
+        <v>1585</v>
+      </c>
+      <c r="H823" t="s" s="0">
+        <v>627</v>
+      </c>
+      <c r="I823" t="s" s="0">
+        <v>1586</v>
+      </c>
+      <c r="J823" t="s" s="0">
+        <v>690</v>
+      </c>
+      <c r="K823" s="0"/>
+      <c r="L823" t="s" s="0">
+        <v>1024</v>
+      </c>
+      <c r="M823" s="0"/>
+    </row>
+    <row r="824">
+      <c r="A824" t="n" s="0">
+        <v>823.0</v>
+      </c>
+      <c r="B824" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C824" t="s" s="0">
+        <v>654</v>
+      </c>
+      <c r="D824" t="s" s="0">
+        <v>1308</v>
+      </c>
+      <c r="E824" t="s" s="0">
+        <v>450</v>
+      </c>
+      <c r="F824" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="G824" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H824" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I824" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="J824" t="s" s="0">
+        <v>1587</v>
+      </c>
+      <c r="K824" s="0"/>
+      <c r="L824" t="s" s="0">
+        <v>538</v>
+      </c>
+      <c r="M824" s="0"/>
+    </row>
+    <row r="825">
+      <c r="A825" t="n" s="0">
+        <v>824.0</v>
+      </c>
+      <c r="B825" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C825" t="s" s="0">
+        <v>660</v>
+      </c>
+      <c r="D825" t="s" s="0">
+        <v>664</v>
+      </c>
+      <c r="E825" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F825" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="G825" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H825" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I825" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="J825" t="s" s="0">
+        <v>1302</v>
+      </c>
+      <c r="K825" s="0"/>
+      <c r="L825" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="M825" s="0"/>
+    </row>
+    <row r="826">
+      <c r="A826" t="n" s="0">
+        <v>825.0</v>
+      </c>
+      <c r="B826" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C826" t="s" s="0">
+        <v>672</v>
+      </c>
+      <c r="D826" t="s" s="0">
+        <v>673</v>
+      </c>
+      <c r="E826" t="s" s="0">
+        <v>508</v>
+      </c>
+      <c r="F826" t="s" s="0">
+        <v>509</v>
+      </c>
+      <c r="G826" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="H826" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I826" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="J826" t="s" s="0">
+        <v>1588</v>
+      </c>
+      <c r="K826" s="0"/>
+      <c r="L826" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="M826" s="0"/>
+    </row>
+    <row r="827">
+      <c r="A827" t="n" s="0">
+        <v>826.0</v>
+      </c>
+      <c r="B827" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C827" t="s" s="0">
+        <v>672</v>
+      </c>
+      <c r="D827" t="s" s="0">
+        <v>675</v>
+      </c>
+      <c r="E827" t="s" s="0">
+        <v>454</v>
+      </c>
+      <c r="F827" t="s" s="0">
+        <v>455</v>
+      </c>
+      <c r="G827" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H827" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I827" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="J827" t="s" s="0">
+        <v>1056</v>
+      </c>
+      <c r="K827" s="0"/>
+      <c r="L827" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="M827" s="0"/>
+    </row>
+    <row r="828">
+      <c r="A828" t="n" s="0">
+        <v>827.0</v>
+      </c>
+      <c r="B828" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C828" t="s" s="0">
+        <v>678</v>
+      </c>
+      <c r="D828" t="s" s="0">
+        <v>679</v>
+      </c>
+      <c r="E828" t="s" s="0">
+        <v>498</v>
+      </c>
+      <c r="F828" t="s" s="0">
+        <v>499</v>
+      </c>
+      <c r="G828" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H828" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I828" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="J828" t="s" s="0">
+        <v>1300</v>
+      </c>
+      <c r="K828" s="0"/>
+      <c r="L828" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="M828" s="0"/>
+    </row>
+    <row r="829">
+      <c r="A829" t="n" s="0">
+        <v>828.0</v>
+      </c>
+      <c r="B829" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C829" t="s" s="0">
+        <v>681</v>
+      </c>
+      <c r="D829" t="s" s="0">
+        <v>1066</v>
+      </c>
+      <c r="E829" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="F829" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="G829" t="s" s="0">
+        <v>1589</v>
+      </c>
+      <c r="H829" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="I829" t="s" s="0">
+        <v>1590</v>
+      </c>
+      <c r="J829" t="s" s="0">
+        <v>1071</v>
+      </c>
+      <c r="K829" s="0"/>
+      <c r="L829" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="M829" s="0"/>
+    </row>
+    <row r="830">
+      <c r="A830" t="n" s="0">
+        <v>829.0</v>
+      </c>
+      <c r="B830" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C830" t="s" s="0">
+        <v>689</v>
+      </c>
+      <c r="D830" t="s" s="0">
+        <v>1591</v>
+      </c>
+      <c r="E830" t="s" s="0">
+        <v>1592</v>
+      </c>
+      <c r="F830" t="s" s="0">
+        <v>1593</v>
+      </c>
+      <c r="G830" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H830" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I830" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="J830" t="s" s="0">
+        <v>676</v>
+      </c>
+      <c r="K830" s="0"/>
+      <c r="L830" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="M830" s="0"/>
+    </row>
+    <row r="831">
+      <c r="A831" t="n" s="0">
+        <v>830.0</v>
+      </c>
+      <c r="B831" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C831" t="s" s="0">
+        <v>685</v>
+      </c>
+      <c r="D831" t="s" s="0">
+        <v>686</v>
+      </c>
+      <c r="E831" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="F831" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="G831" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H831" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I831" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="J831" t="s" s="0">
+        <v>671</v>
+      </c>
+      <c r="K831" s="0"/>
+      <c r="L831" t="s" s="0">
+        <v>1257</v>
+      </c>
+      <c r="M831" s="0"/>
+    </row>
+    <row r="832">
+      <c r="A832" t="n" s="0">
+        <v>831.0</v>
+      </c>
+      <c r="B832" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C832" t="s" s="0">
+        <v>685</v>
+      </c>
+      <c r="D832" t="s" s="0">
+        <v>688</v>
+      </c>
+      <c r="E832" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="F832" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="G832" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H832" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I832" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="J832" t="s" s="0">
+        <v>687</v>
+      </c>
+      <c r="K832" s="0"/>
+      <c r="L832" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="M832" s="0"/>
+    </row>
+    <row r="833">
+      <c r="A833" t="n" s="0">
+        <v>832.0</v>
+      </c>
+      <c r="B833" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C833" t="s" s="0">
+        <v>685</v>
+      </c>
+      <c r="D833" t="s" s="0">
+        <v>1070</v>
+      </c>
+      <c r="E833" t="s" s="0">
+        <v>532</v>
+      </c>
+      <c r="F833" t="s" s="0">
+        <v>533</v>
+      </c>
+      <c r="G833" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H833" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I833" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="J833" t="s" s="0">
+        <v>638</v>
+      </c>
+      <c r="K833" s="0"/>
+      <c r="L833" t="s" s="0">
+        <v>649</v>
+      </c>
+      <c r="M833" s="0"/>
+    </row>
+    <row r="834">
+      <c r="A834" t="n" s="0">
+        <v>833.0</v>
+      </c>
+      <c r="B834" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C834" t="s" s="0">
+        <v>1074</v>
+      </c>
+      <c r="D834" t="s" s="0">
+        <v>1594</v>
+      </c>
+      <c r="E834" t="s" s="0">
+        <v>1595</v>
+      </c>
+      <c r="F834" t="s" s="0">
+        <v>1596</v>
+      </c>
+      <c r="G834" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="H834" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I834" t="s" s="0">
+        <v>798</v>
+      </c>
+      <c r="J834" t="s" s="0">
+        <v>1597</v>
+      </c>
+      <c r="K834" s="0"/>
+      <c r="L834" t="s" s="0">
+        <v>1598</v>
+      </c>
+      <c r="M834" s="0"/>
+    </row>
+    <row r="835">
+      <c r="A835" t="n" s="0">
+        <v>834.0</v>
+      </c>
+      <c r="B835" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C835" t="s" s="0">
+        <v>690</v>
+      </c>
+      <c r="D835" t="s" s="0">
+        <v>691</v>
+      </c>
+      <c r="E835" t="s" s="0">
+        <v>513</v>
+      </c>
+      <c r="F835" t="s" s="0">
+        <v>514</v>
+      </c>
+      <c r="G835" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H835" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I835" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="J835" t="s" s="0">
+        <v>1599</v>
+      </c>
+      <c r="K835" s="0"/>
+      <c r="L835" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="M835" s="0"/>
+    </row>
+    <row r="836">
+      <c r="A836" t="n" s="0">
+        <v>835.0</v>
+      </c>
+      <c r="B836" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C836" t="s" s="0">
+        <v>700</v>
+      </c>
+      <c r="D836" t="s" s="0">
+        <v>701</v>
+      </c>
+      <c r="E836" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="F836" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="G836" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H836" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I836" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="J836" t="s" s="0">
+        <v>1600</v>
+      </c>
+      <c r="K836" s="0"/>
+      <c r="L836" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="M836" s="0"/>
+    </row>
+    <row r="837">
+      <c r="A837" t="n" s="0">
+        <v>836.0</v>
+      </c>
+      <c r="B837" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C837" t="s" s="0">
+        <v>1601</v>
+      </c>
+      <c r="D837" t="s" s="0">
+        <v>666</v>
+      </c>
+      <c r="E837" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="F837" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="G837" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H837" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I837" t="s" s="0">
+        <v>554</v>
+      </c>
+      <c r="J837" t="s" s="0">
+        <v>667</v>
+      </c>
+      <c r="K837" s="0"/>
+      <c r="L837" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="M837" s="0"/>
+    </row>
+    <row r="838">
+      <c r="A838" t="n" s="0">
+        <v>837.0</v>
+      </c>
+      <c r="B838" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C838" t="s" s="0">
+        <v>1601</v>
+      </c>
+      <c r="D838" t="s" s="0">
+        <v>1602</v>
+      </c>
+      <c r="E838" t="s" s="0">
+        <v>532</v>
+      </c>
+      <c r="F838" t="s" s="0">
+        <v>533</v>
+      </c>
+      <c r="G838" t="s" s="0">
+        <v>1603</v>
+      </c>
+      <c r="H838" t="s" s="0">
+        <v>1604</v>
+      </c>
+      <c r="I838" t="s" s="0">
+        <v>1605</v>
+      </c>
+      <c r="J838" t="s" s="0">
+        <v>1606</v>
+      </c>
+      <c r="K838" s="0"/>
+      <c r="L838" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="M838" s="0"/>
+    </row>
+    <row r="839">
+      <c r="A839" t="n" s="0">
+        <v>838.0</v>
+      </c>
+      <c r="B839" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C839" t="s" s="0">
+        <v>703</v>
+      </c>
+      <c r="D839" t="s" s="0">
+        <v>704</v>
+      </c>
+      <c r="E839" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="F839" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="G839" t="s" s="0">
+        <v>705</v>
+      </c>
+      <c r="H839" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I839" t="s" s="0">
+        <v>1075</v>
+      </c>
+      <c r="J839" t="s" s="0">
+        <v>722</v>
+      </c>
+      <c r="K839" s="0"/>
+      <c r="L839" t="s" s="0">
+        <v>970</v>
+      </c>
+      <c r="M839" s="0"/>
+    </row>
+    <row r="840">
+      <c r="A840" t="n" s="0">
+        <v>839.0</v>
+      </c>
+      <c r="B840" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C840" t="s" s="0">
+        <v>1323</v>
+      </c>
+      <c r="D840" t="s" s="0">
+        <v>1105</v>
+      </c>
+      <c r="E840" t="s" s="0">
+        <v>612</v>
+      </c>
+      <c r="F840" t="s" s="0">
+        <v>613</v>
+      </c>
+      <c r="G840" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H840" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I840" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="J840" t="s" s="0">
+        <v>1607</v>
+      </c>
+      <c r="K840" s="0"/>
+      <c r="L840" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="M840" s="0"/>
+    </row>
+    <row r="841">
+      <c r="A841" t="n" s="0">
+        <v>840.0</v>
+      </c>
+      <c r="B841" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C841" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="D841" t="s" s="0">
+        <v>713</v>
+      </c>
+      <c r="E841" t="s" s="0">
+        <v>393</v>
+      </c>
+      <c r="F841" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="G841" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H841" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I841" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="J841" t="s" s="0">
+        <v>707</v>
+      </c>
+      <c r="K841" s="0"/>
+      <c r="L841" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="M841" s="0"/>
+    </row>
+    <row r="842">
+      <c r="A842" t="n" s="0">
+        <v>841.0</v>
+      </c>
+      <c r="B842" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C842" t="s" s="0">
+        <v>715</v>
+      </c>
+      <c r="D842" t="s" s="0">
+        <v>716</v>
+      </c>
+      <c r="E842" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="F842" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="G842" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H842" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I842" t="s" s="0">
+        <v>891</v>
+      </c>
+      <c r="J842" t="s" s="0">
+        <v>717</v>
+      </c>
+      <c r="K842" s="0"/>
+      <c r="L842" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="M842" s="0"/>
+    </row>
+    <row r="843">
+      <c r="A843" t="n" s="0">
+        <v>842.0</v>
+      </c>
+      <c r="B843" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C843" t="s" s="0">
+        <v>715</v>
+      </c>
+      <c r="D843" t="s" s="0">
+        <v>718</v>
+      </c>
+      <c r="E843" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="F843" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="G843" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H843" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I843" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="J843" t="s" s="0">
+        <v>1608</v>
+      </c>
+      <c r="K843" s="0"/>
+      <c r="L843" t="s" s="0">
+        <v>864</v>
+      </c>
+      <c r="M843" s="0"/>
+    </row>
+    <row r="844">
+      <c r="A844" t="n" s="0">
+        <v>843.0</v>
+      </c>
+      <c r="B844" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C844" t="s" s="0">
+        <v>715</v>
+      </c>
+      <c r="D844" t="s" s="0">
+        <v>811</v>
+      </c>
+      <c r="E844" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F844" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="G844" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H844" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I844" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="J844" t="s" s="0">
+        <v>1609</v>
+      </c>
+      <c r="K844" s="0"/>
+      <c r="L844" t="s" s="0">
+        <v>1541</v>
+      </c>
+      <c r="M844" s="0"/>
+    </row>
+    <row r="845">
+      <c r="A845" t="n" s="0">
+        <v>844.0</v>
+      </c>
+      <c r="B845" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C845" t="s" s="0">
+        <v>720</v>
+      </c>
+      <c r="D845" t="s" s="0">
+        <v>721</v>
+      </c>
+      <c r="E845" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="F845" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="G845" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H845" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I845" t="s" s="0">
+        <v>730</v>
+      </c>
+      <c r="J845" t="s" s="0">
+        <v>719</v>
+      </c>
+      <c r="K845" s="0"/>
+      <c r="L845" t="s" s="0">
+        <v>889</v>
+      </c>
+      <c r="M845" s="0"/>
+    </row>
+    <row r="846">
+      <c r="A846" t="n" s="0">
+        <v>845.0</v>
+      </c>
+      <c r="B846" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C846" t="s" s="0">
+        <v>720</v>
+      </c>
+      <c r="D846" t="s" s="0">
+        <v>1078</v>
+      </c>
+      <c r="E846" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="F846" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="G846" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="H846" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I846" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="J846" t="s" s="0">
+        <v>1610</v>
+      </c>
+      <c r="K846" s="0"/>
+      <c r="L846" t="s" s="0">
+        <v>1611</v>
+      </c>
+      <c r="M846" s="0"/>
+    </row>
+    <row r="847">
+      <c r="A847" t="n" s="0">
+        <v>846.0</v>
+      </c>
+      <c r="B847" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C847" t="s" s="0">
+        <v>1499</v>
+      </c>
+      <c r="D847" t="s" s="0">
+        <v>1015</v>
+      </c>
+      <c r="E847" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="F847" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="G847" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H847" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I847" t="s" s="0">
+        <v>608</v>
+      </c>
+      <c r="J847" t="s" s="0">
+        <v>515</v>
+      </c>
+      <c r="K847" s="0"/>
+      <c r="L847" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="M847" s="0"/>
+    </row>
+    <row r="848">
+      <c r="A848" t="n" s="0">
+        <v>847.0</v>
+      </c>
+      <c r="B848" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C848" t="s" s="0">
+        <v>723</v>
+      </c>
+      <c r="D848" t="s" s="0">
+        <v>1080</v>
+      </c>
+      <c r="E848" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="F848" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="G848" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H848" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I848" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="J848" t="s" s="0">
+        <v>1338</v>
+      </c>
+      <c r="K848" s="0"/>
+      <c r="L848" t="s" s="0">
+        <v>569</v>
+      </c>
+      <c r="M848" s="0"/>
+    </row>
+    <row r="849">
+      <c r="A849" t="n" s="0">
+        <v>848.0</v>
+      </c>
+      <c r="B849" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C849" t="s" s="0">
+        <v>723</v>
+      </c>
+      <c r="D849" t="s" s="0">
+        <v>724</v>
+      </c>
+      <c r="E849" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="F849" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G849" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="H849" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I849" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="J849" t="s" s="0">
+        <v>1340</v>
+      </c>
+      <c r="K849" s="0"/>
+      <c r="L849" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M849" s="0"/>
+    </row>
+    <row r="850">
+      <c r="A850" t="n" s="0">
+        <v>849.0</v>
+      </c>
+      <c r="B850" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C850" t="s" s="0">
+        <v>723</v>
+      </c>
+      <c r="D850" t="s" s="0">
+        <v>1082</v>
+      </c>
+      <c r="E850" t="s" s="0">
+        <v>1083</v>
+      </c>
+      <c r="F850" t="s" s="0">
+        <v>1084</v>
+      </c>
+      <c r="G850" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H850" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I850" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="J850" t="s" s="0">
+        <v>715</v>
+      </c>
+      <c r="K850" s="0"/>
+      <c r="L850" t="s" s="0">
+        <v>889</v>
+      </c>
+      <c r="M850" s="0"/>
+    </row>
+    <row r="851">
+      <c r="A851" t="n" s="0">
+        <v>850.0</v>
+      </c>
+      <c r="B851" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C851" t="s" s="0">
+        <v>726</v>
+      </c>
+      <c r="D851" t="s" s="0">
+        <v>727</v>
+      </c>
+      <c r="E851" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="F851" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="G851" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H851" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I851" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="J851" t="s" s="0">
+        <v>1089</v>
+      </c>
+      <c r="K851" s="0"/>
+      <c r="L851" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="M851" s="0"/>
+    </row>
+    <row r="852">
+      <c r="A852" t="n" s="0">
+        <v>851.0</v>
+      </c>
+      <c r="B852" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C852" t="s" s="0">
+        <v>726</v>
+      </c>
+      <c r="D852" t="s" s="0">
+        <v>729</v>
+      </c>
+      <c r="E852" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="F852" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="G852" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H852" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I852" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="J852" t="s" s="0">
+        <v>1499</v>
+      </c>
+      <c r="K852" s="0"/>
+      <c r="L852" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="M852" s="0"/>
+    </row>
+    <row r="853">
+      <c r="A853" t="n" s="0">
+        <v>852.0</v>
+      </c>
+      <c r="B853" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C853" t="s" s="0">
+        <v>726</v>
+      </c>
+      <c r="D853" t="s" s="0">
+        <v>1088</v>
+      </c>
+      <c r="E853" t="s" s="0">
+        <v>450</v>
+      </c>
+      <c r="F853" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="G853" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H853" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I853" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="J853" t="s" s="0">
+        <v>1081</v>
+      </c>
+      <c r="K853" s="0"/>
+      <c r="L853" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="M853" s="0"/>
+    </row>
+    <row r="854">
+      <c r="A854" t="n" s="0">
+        <v>853.0</v>
+      </c>
+      <c r="B854" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C854" t="s" s="0">
+        <v>732</v>
+      </c>
+      <c r="D854" t="s" s="0">
+        <v>736</v>
+      </c>
+      <c r="E854" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F854" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="G854" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="H854" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I854" t="s" s="0">
+        <v>909</v>
+      </c>
+      <c r="J854" t="s" s="0">
+        <v>741</v>
+      </c>
+      <c r="K854" s="0"/>
+      <c r="L854" t="s" s="0">
+        <v>538</v>
+      </c>
+      <c r="M854" s="0"/>
+    </row>
+    <row r="855">
+      <c r="A855" t="n" s="0">
+        <v>854.0</v>
+      </c>
+      <c r="B855" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C855" t="s" s="0">
+        <v>732</v>
+      </c>
+      <c r="D855" t="s" s="0">
+        <v>733</v>
+      </c>
+      <c r="E855" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="F855" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="G855" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H855" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I855" t="s" s="0">
+        <v>928</v>
+      </c>
+      <c r="J855" t="s" s="0">
+        <v>1612</v>
+      </c>
+      <c r="K855" s="0"/>
+      <c r="L855" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="M855" s="0"/>
+    </row>
+    <row r="856">
+      <c r="A856" t="n" s="0">
+        <v>855.0</v>
+      </c>
+      <c r="B856" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C856" t="s" s="0">
+        <v>732</v>
+      </c>
+      <c r="D856" t="s" s="0">
+        <v>784</v>
+      </c>
+      <c r="E856" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="F856" t="s" s="0">
+        <v>785</v>
+      </c>
+      <c r="G856" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H856" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I856" t="s" s="0">
+        <v>494</v>
+      </c>
+      <c r="J856" t="s" s="0">
+        <v>1090</v>
+      </c>
+      <c r="K856" s="0"/>
+      <c r="L856" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="M856" s="0"/>
+    </row>
+    <row r="857">
+      <c r="A857" t="n" s="0">
+        <v>856.0</v>
+      </c>
+      <c r="B857" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C857" t="s" s="0">
+        <v>732</v>
+      </c>
+      <c r="D857" t="s" s="0">
+        <v>814</v>
+      </c>
+      <c r="E857" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="F857" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="G857" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H857" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I857" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="J857" t="s" s="0">
+        <v>726</v>
+      </c>
+      <c r="K857" s="0"/>
+      <c r="L857" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="M857" s="0"/>
+    </row>
+    <row r="858">
+      <c r="A858" t="n" s="0">
+        <v>857.0</v>
+      </c>
+      <c r="B858" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C858" t="s" s="0">
+        <v>735</v>
+      </c>
+      <c r="D858" t="s" s="0">
+        <v>740</v>
+      </c>
+      <c r="E858" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="F858" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="G858" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H858" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I858" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="J858" t="s" s="0">
+        <v>1613</v>
+      </c>
+      <c r="K858" s="0"/>
+      <c r="L858" t="s" s="0">
+        <v>1257</v>
+      </c>
+      <c r="M858" s="0"/>
+    </row>
+    <row r="859">
+      <c r="A859" t="n" s="0">
+        <v>858.0</v>
+      </c>
+      <c r="B859" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C859" t="s" s="0">
+        <v>735</v>
+      </c>
+      <c r="D859" t="s" s="0">
+        <v>744</v>
+      </c>
+      <c r="E859" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="F859" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="G859" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H859" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I859" t="s" s="0">
+        <v>1504</v>
+      </c>
+      <c r="J859" t="s" s="0">
+        <v>1087</v>
+      </c>
+      <c r="K859" s="0"/>
+      <c r="L859" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="M859" s="0"/>
+    </row>
+    <row r="860">
+      <c r="A860" t="n" s="0">
+        <v>859.0</v>
+      </c>
+      <c r="B860" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C860" t="s" s="0">
+        <v>735</v>
+      </c>
+      <c r="D860" t="s" s="0">
+        <v>742</v>
+      </c>
+      <c r="E860" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="F860" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="G860" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H860" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I860" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="J860" t="s" s="0">
+        <v>1614</v>
+      </c>
+      <c r="K860" s="0"/>
+      <c r="L860" t="s" s="0">
+        <v>1615</v>
+      </c>
+      <c r="M860" s="0"/>
+    </row>
+    <row r="861">
+      <c r="A861" t="n" s="0">
+        <v>860.0</v>
+      </c>
+      <c r="B861" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C861" t="s" s="0">
+        <v>1093</v>
+      </c>
+      <c r="D861" t="s" s="0">
+        <v>746</v>
+      </c>
+      <c r="E861" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F861" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="G861" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H861" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I861" t="s" s="0">
+        <v>433</v>
+      </c>
+      <c r="J861" t="s" s="0">
+        <v>1352</v>
+      </c>
+      <c r="K861" s="0"/>
+      <c r="L861" t="s" s="0">
+        <v>334</v>
+      </c>
+      <c r="M861" s="0"/>
+    </row>
+    <row r="862">
+      <c r="A862" t="n" s="0">
+        <v>861.0</v>
+      </c>
+      <c r="B862" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C862" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="D862" t="s" s="0">
+        <v>749</v>
+      </c>
+      <c r="E862" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F862" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G862" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="H862" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I862" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="J862" t="s" s="0">
+        <v>1616</v>
+      </c>
+      <c r="K862" s="0"/>
+      <c r="L862" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="M862" s="0"/>
+    </row>
+    <row r="863">
+      <c r="A863" t="n" s="0">
+        <v>862.0</v>
+      </c>
+      <c r="B863" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C863" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="D863" t="s" s="0">
+        <v>758</v>
+      </c>
+      <c r="E863" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="F863" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="G863" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H863" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I863" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="J863" t="s" s="0">
+        <v>1091</v>
+      </c>
+      <c r="K863" s="0"/>
+      <c r="L863" t="s" s="0">
+        <v>1541</v>
+      </c>
+      <c r="M863" s="0"/>
+    </row>
+    <row r="864">
+      <c r="A864" t="n" s="0">
+        <v>863.0</v>
+      </c>
+      <c r="B864" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C864" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="D864" t="s" s="0">
+        <v>1099</v>
+      </c>
+      <c r="E864" t="s" s="0">
+        <v>904</v>
+      </c>
+      <c r="F864" t="s" s="0">
+        <v>905</v>
+      </c>
+      <c r="G864" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H864" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I864" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="J864" t="s" s="0">
+        <v>723</v>
+      </c>
+      <c r="K864" s="0"/>
+      <c r="L864" t="s" s="0">
+        <v>889</v>
+      </c>
+      <c r="M864" s="0"/>
+    </row>
+    <row r="865">
+      <c r="A865" t="n" s="0">
+        <v>864.0</v>
+      </c>
+      <c r="B865" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C865" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="D865" t="s" s="0">
+        <v>800</v>
+      </c>
+      <c r="E865" t="s" s="0">
+        <v>565</v>
+      </c>
+      <c r="F865" t="s" s="0">
+        <v>566</v>
+      </c>
+      <c r="G865" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H865" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I865" t="s" s="0">
+        <v>1218</v>
+      </c>
+      <c r="J865" t="s" s="0">
+        <v>1103</v>
+      </c>
+      <c r="K865" s="0"/>
+      <c r="L865" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M865" s="0"/>
+    </row>
+    <row r="866">
+      <c r="A866" t="n" s="0">
+        <v>865.0</v>
+      </c>
+      <c r="B866" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C866" t="s" s="0">
+        <v>743</v>
+      </c>
+      <c r="D866" t="s" s="0">
+        <v>753</v>
+      </c>
+      <c r="E866" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F866" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G866" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="H866" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I866" t="s" s="0">
+        <v>1617</v>
+      </c>
+      <c r="J866" t="s" s="0">
+        <v>1102</v>
+      </c>
+      <c r="K866" s="0"/>
+      <c r="L866" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="M866" s="0"/>
+    </row>
+    <row r="867">
+      <c r="A867" t="n" s="0">
+        <v>866.0</v>
+      </c>
+      <c r="B867" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C867" t="s" s="0">
+        <v>743</v>
+      </c>
+      <c r="D867" t="s" s="0">
+        <v>1349</v>
+      </c>
+      <c r="E867" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="F867" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="G867" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H867" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I867" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="J867" t="s" s="0">
+        <v>735</v>
+      </c>
+      <c r="K867" s="0"/>
+      <c r="L867" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="M867" s="0"/>
+    </row>
+    <row r="868">
+      <c r="A868" t="n" s="0">
+        <v>867.0</v>
+      </c>
+      <c r="B868" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C868" t="s" s="0">
+        <v>743</v>
+      </c>
+      <c r="D868" t="s" s="0">
+        <v>899</v>
+      </c>
+      <c r="E868" t="s" s="0">
+        <v>900</v>
+      </c>
+      <c r="F868" t="s" s="0">
+        <v>901</v>
+      </c>
+      <c r="G868" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H868" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I868" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="J868" t="s" s="0">
+        <v>1350</v>
+      </c>
+      <c r="K868" s="0"/>
+      <c r="L868" t="s" s="0">
+        <v>569</v>
+      </c>
+      <c r="M868" s="0"/>
+    </row>
+    <row r="869">
+      <c r="A869" t="n" s="0">
+        <v>868.0</v>
+      </c>
+      <c r="B869" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C869" t="s" s="0">
+        <v>738</v>
+      </c>
+      <c r="D869" t="s" s="0">
+        <v>1513</v>
+      </c>
+      <c r="E869" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F869" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G869" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H869" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I869" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="J869" t="s" s="0">
+        <v>1348</v>
+      </c>
+      <c r="K869" s="0"/>
+      <c r="L869" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="M869" s="0"/>
+    </row>
+    <row r="870">
+      <c r="A870" t="n" s="0">
+        <v>869.0</v>
+      </c>
+      <c r="B870" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C870" t="s" s="0">
+        <v>745</v>
+      </c>
+      <c r="D870" t="s" s="0">
+        <v>1351</v>
+      </c>
+      <c r="E870" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="F870" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="G870" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="H870" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I870" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="J870" t="s" s="0">
+        <v>1093</v>
+      </c>
+      <c r="K870" s="0"/>
+      <c r="L870" t="s" s="0">
+        <v>889</v>
+      </c>
+      <c r="M870" s="0"/>
+    </row>
+    <row r="871">
+      <c r="A871" t="n" s="0">
+        <v>870.0</v>
+      </c>
+      <c r="B871" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C871" t="s" s="0">
+        <v>745</v>
+      </c>
+      <c r="D871" t="s" s="0">
+        <v>760</v>
+      </c>
+      <c r="E871" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="F871" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="G871" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H871" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I871" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="J871" t="s" s="0">
+        <v>1353</v>
+      </c>
+      <c r="K871" s="0"/>
+      <c r="L871" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="M871" s="0"/>
+    </row>
+    <row r="872">
+      <c r="A872" t="n" s="0">
+        <v>871.0</v>
+      </c>
+      <c r="B872" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C872" t="s" s="0">
+        <v>769</v>
+      </c>
+      <c r="D872" t="s" s="0">
+        <v>770</v>
+      </c>
+      <c r="E872" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="F872" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G872" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H872" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I872" t="s" s="0">
+        <v>1514</v>
+      </c>
+      <c r="J872" t="s" s="0">
+        <v>1106</v>
+      </c>
+      <c r="K872" s="0"/>
+      <c r="L872" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="M872" s="0"/>
+    </row>
+    <row r="873">
+      <c r="A873" t="n" s="0">
+        <v>872.0</v>
+      </c>
+      <c r="B873" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C873" t="s" s="0">
+        <v>773</v>
+      </c>
+      <c r="D873" t="s" s="0">
+        <v>774</v>
+      </c>
+      <c r="E873" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="F873" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="G873" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="H873" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="I873" t="s" s="0">
+        <v>930</v>
+      </c>
+      <c r="J873" t="s" s="0">
+        <v>1512</v>
+      </c>
+      <c r="K873" s="0"/>
+      <c r="L873" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="M873" s="0"/>
+    </row>
+    <row r="874">
+      <c r="A874" t="n" s="0">
+        <v>873.0</v>
+      </c>
+      <c r="B874" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C874" t="s" s="0">
+        <v>1107</v>
+      </c>
+      <c r="D874" t="s" s="0">
+        <v>1108</v>
+      </c>
+      <c r="E874" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="F874" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="G874" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="H874" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I874" t="s" s="0">
+        <v>1298</v>
+      </c>
+      <c r="J874" t="s" s="0">
+        <v>1618</v>
+      </c>
+      <c r="K874" s="0"/>
+      <c r="L874" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="M874" s="0"/>
+    </row>
+    <row r="875">
+      <c r="A875" t="n" s="0">
+        <v>874.0</v>
+      </c>
+      <c r="B875" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C875" t="s" s="0">
+        <v>803</v>
+      </c>
+      <c r="D875" t="s" s="0">
+        <v>804</v>
+      </c>
+      <c r="E875" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F875" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G875" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H875" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I875" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="J875" t="s" s="0">
+        <v>783</v>
+      </c>
+      <c r="K875" s="0"/>
+      <c r="L875" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="M875" s="0"/>
+    </row>
+    <row r="876">
+      <c r="A876" t="n" s="0">
+        <v>875.0</v>
+      </c>
+      <c r="B876" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C876" t="s" s="0">
+        <v>822</v>
+      </c>
+      <c r="D876" t="s" s="0">
+        <v>823</v>
+      </c>
+      <c r="E876" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="F876" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="G876" t="s" s="0">
+        <v>560</v>
+      </c>
+      <c r="H876" t="s" s="0">
+        <v>1619</v>
+      </c>
+      <c r="I876" t="s" s="0">
+        <v>1620</v>
+      </c>
+      <c r="J876" t="s" s="0">
+        <v>805</v>
+      </c>
+      <c r="K876" s="0"/>
+      <c r="L876" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="M876" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/WAW_Arrivals.xlsx
+++ b/DataBase/WAW_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8761" uniqueCount="1621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10181" uniqueCount="1711">
   <si>
     <t>NUMBER</t>
   </si>
@@ -4875,6 +4875,276 @@
   </si>
   <si>
     <t>(PH-BXS)</t>
+  </si>
+  <si>
+    <t>Thursday, Jan 12</t>
+  </si>
+  <si>
+    <t>5:47 AM</t>
+  </si>
+  <si>
+    <t>(D-AEAD)</t>
+  </si>
+  <si>
+    <t>5:41 AM</t>
+  </si>
+  <si>
+    <t>5:58 AM</t>
+  </si>
+  <si>
+    <t>LO80</t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+  </si>
+  <si>
+    <t>(NRT)</t>
+  </si>
+  <si>
+    <t>5:03 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -57 minutes</t>
+  </si>
+  <si>
+    <t>5:34 AM</t>
+  </si>
+  <si>
+    <t>6:52 AM</t>
+  </si>
+  <si>
+    <t>0 hours, 32 minutes</t>
+  </si>
+  <si>
+    <t>6:46 AM</t>
+  </si>
+  <si>
+    <t>8:28 AM</t>
+  </si>
+  <si>
+    <t>FT1501</t>
+  </si>
+  <si>
+    <t>(SU-TMM)</t>
+  </si>
+  <si>
+    <t>8:10 AM</t>
+  </si>
+  <si>
+    <t>8:14 AM</t>
+  </si>
+  <si>
+    <t>(TC-JTK)</t>
+  </si>
+  <si>
+    <t>8:12 AM</t>
+  </si>
+  <si>
+    <t>8:42 AM</t>
+  </si>
+  <si>
+    <t>LPR42</t>
+  </si>
+  <si>
+    <t>(SP-MXS)</t>
+  </si>
+  <si>
+    <t>8:50 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air Hamburg </t>
+  </si>
+  <si>
+    <t>(D-AFUN)</t>
+  </si>
+  <si>
+    <t>9:24 AM</t>
+  </si>
+  <si>
+    <t>9:06 AM</t>
+  </si>
+  <si>
+    <t>(OE-LZA)</t>
+  </si>
+  <si>
+    <t>10:39 AM</t>
+  </si>
+  <si>
+    <t>(A6-ENP)</t>
+  </si>
+  <si>
+    <t>11:08 AM</t>
+  </si>
+  <si>
+    <t>11:14 AM</t>
+  </si>
+  <si>
+    <t>(G-EUUK)</t>
+  </si>
+  <si>
+    <t>11:48 AM</t>
+  </si>
+  <si>
+    <t>(F-GUGK)</t>
+  </si>
+  <si>
+    <t>(OH-LKE)</t>
+  </si>
+  <si>
+    <t>1:09 PM</t>
+  </si>
+  <si>
+    <t>12:49 PM</t>
+  </si>
+  <si>
+    <t>12:43 PM</t>
+  </si>
+  <si>
+    <t>12:36 PM</t>
+  </si>
+  <si>
+    <t>1:28 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 35 minutes</t>
+  </si>
+  <si>
+    <t>(HB-AZA)</t>
+  </si>
+  <si>
+    <t>(D-AIDG)</t>
+  </si>
+  <si>
+    <t>2:04 PM</t>
+  </si>
+  <si>
+    <t>2:24 PM</t>
+  </si>
+  <si>
+    <t>3:04 PM</t>
+  </si>
+  <si>
+    <t>E44016</t>
+  </si>
+  <si>
+    <t>2:41 PM</t>
+  </si>
+  <si>
+    <t>2:53 PM</t>
+  </si>
+  <si>
+    <t>LO6282</t>
+  </si>
+  <si>
+    <t>Krabi</t>
+  </si>
+  <si>
+    <t>(KBV)</t>
+  </si>
+  <si>
+    <t>3:18 PM</t>
+  </si>
+  <si>
+    <t>3:16 PM</t>
+  </si>
+  <si>
+    <t>(F-HBLF)</t>
+  </si>
+  <si>
+    <t>4:01 PM</t>
+  </si>
+  <si>
+    <t>5:23 PM</t>
+  </si>
+  <si>
+    <t>5:15 PM</t>
+  </si>
+  <si>
+    <t>5:30 PM</t>
+  </si>
+  <si>
+    <t>BJ7666</t>
+  </si>
+  <si>
+    <t>Djerba</t>
+  </si>
+  <si>
+    <t>(DJE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nouvelair </t>
+  </si>
+  <si>
+    <t>(TS-INR)</t>
+  </si>
+  <si>
+    <t>-8 hours, -27 minutes</t>
+  </si>
+  <si>
+    <t>5:18 PM</t>
+  </si>
+  <si>
+    <t>5:08 PM</t>
+  </si>
+  <si>
+    <t>4:44 PM</t>
+  </si>
+  <si>
+    <t>-1 hours, -26 minutes</t>
+  </si>
+  <si>
+    <t>(ES-ACG)</t>
+  </si>
+  <si>
+    <t>6:11 PM</t>
+  </si>
+  <si>
+    <t>5:57 PM</t>
+  </si>
+  <si>
+    <t>6:22 PM</t>
+  </si>
+  <si>
+    <t>E47689</t>
+  </si>
+  <si>
+    <t>(SP-ENM)</t>
+  </si>
+  <si>
+    <t>(OH-LZL)</t>
+  </si>
+  <si>
+    <t>(PH-EXM)</t>
+  </si>
+  <si>
+    <t>(G-TTOB)</t>
+  </si>
+  <si>
+    <t>6:16 PM</t>
+  </si>
+  <si>
+    <t>6:52 PM</t>
+  </si>
+  <si>
+    <t>LO6224</t>
+  </si>
+  <si>
+    <t>7:34 PM</t>
+  </si>
+  <si>
+    <t>(A6-FPE)</t>
+  </si>
+  <si>
+    <t>7:22 PM</t>
+  </si>
+  <si>
+    <t>(HB-AZL)</t>
+  </si>
+  <si>
+    <t>7:24 PM</t>
+  </si>
+  <si>
+    <t>7:31 PM</t>
   </si>
 </sst>
 </file>
@@ -4919,7 +5189,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M876"/>
+  <dimension ref="A1:M1018"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -37335,6 +37605,5260 @@
       </c>
       <c r="M876" s="0"/>
     </row>
+    <row r="877">
+      <c r="A877" t="n" s="0">
+        <v>876.0</v>
+      </c>
+      <c r="B877" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C877" t="s" s="0">
+        <v>1622</v>
+      </c>
+      <c r="D877" t="s" s="0">
+        <v>1127</v>
+      </c>
+      <c r="E877" t="s" s="0">
+        <v>1128</v>
+      </c>
+      <c r="F877" t="s" s="0">
+        <v>1129</v>
+      </c>
+      <c r="G877" t="s" s="0">
+        <v>1130</v>
+      </c>
+      <c r="H877" t="s" s="0">
+        <v>1131</v>
+      </c>
+      <c r="I877" t="s" s="0">
+        <v>1623</v>
+      </c>
+      <c r="J877" t="s" s="0">
+        <v>1624</v>
+      </c>
+      <c r="K877" s="0"/>
+      <c r="L877" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="M877" s="0"/>
+    </row>
+    <row r="878">
+      <c r="A878" t="n" s="0">
+        <v>877.0</v>
+      </c>
+      <c r="B878" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C878" t="s" s="0">
+        <v>1625</v>
+      </c>
+      <c r="D878" t="s" s="0">
+        <v>1134</v>
+      </c>
+      <c r="E878" t="s" s="0">
+        <v>1135</v>
+      </c>
+      <c r="F878" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="G878" t="s" s="0">
+        <v>1137</v>
+      </c>
+      <c r="H878" t="s" s="0">
+        <v>1383</v>
+      </c>
+      <c r="I878" t="s" s="0">
+        <v>1384</v>
+      </c>
+      <c r="J878" t="s" s="0">
+        <v>1145</v>
+      </c>
+      <c r="K878" s="0"/>
+      <c r="L878" t="s" s="0">
+        <v>864</v>
+      </c>
+      <c r="M878" s="0"/>
+    </row>
+    <row r="879">
+      <c r="A879" t="n" s="0">
+        <v>878.0</v>
+      </c>
+      <c r="B879" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C879" t="s" s="0">
+        <v>1382</v>
+      </c>
+      <c r="D879" t="s" s="0">
+        <v>1626</v>
+      </c>
+      <c r="E879" t="s" s="0">
+        <v>1627</v>
+      </c>
+      <c r="F879" t="s" s="0">
+        <v>1628</v>
+      </c>
+      <c r="G879" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H879" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="I879" t="s" s="0">
+        <v>961</v>
+      </c>
+      <c r="J879" t="s" s="0">
+        <v>1629</v>
+      </c>
+      <c r="K879" s="0"/>
+      <c r="L879" t="s" s="0">
+        <v>1630</v>
+      </c>
+      <c r="M879" s="0"/>
+    </row>
+    <row r="880">
+      <c r="A880" t="n" s="0">
+        <v>879.0</v>
+      </c>
+      <c r="B880" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C880" t="s" s="0">
+        <v>828</v>
+      </c>
+      <c r="D880" t="s" s="0">
+        <v>829</v>
+      </c>
+      <c r="E880" t="s" s="0">
+        <v>830</v>
+      </c>
+      <c r="F880" t="s" s="0">
+        <v>831</v>
+      </c>
+      <c r="G880" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H880" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I880" t="s" s="0">
+        <v>429</v>
+      </c>
+      <c r="J880" t="s" s="0">
+        <v>1631</v>
+      </c>
+      <c r="K880" s="0"/>
+      <c r="L880" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="M880" s="0"/>
+    </row>
+    <row r="881">
+      <c r="A881" t="n" s="0">
+        <v>880.0</v>
+      </c>
+      <c r="B881" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C881" t="s" s="0">
+        <v>850</v>
+      </c>
+      <c r="D881" t="s" s="0">
+        <v>1147</v>
+      </c>
+      <c r="E881" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="F881" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="G881" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H881" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I881" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="J881" t="s" s="0">
+        <v>1146</v>
+      </c>
+      <c r="K881" s="0"/>
+      <c r="L881" t="s" s="0">
+        <v>1468</v>
+      </c>
+      <c r="M881" s="0"/>
+    </row>
+    <row r="882">
+      <c r="A882" t="n" s="0">
+        <v>881.0</v>
+      </c>
+      <c r="B882" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C882" t="s" s="0">
+        <v>833</v>
+      </c>
+      <c r="D882" t="s" s="0">
+        <v>834</v>
+      </c>
+      <c r="E882" t="s" s="0">
+        <v>835</v>
+      </c>
+      <c r="F882" t="s" s="0">
+        <v>836</v>
+      </c>
+      <c r="G882" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="H882" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I882" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="J882" t="s" s="0">
+        <v>1632</v>
+      </c>
+      <c r="K882" s="0"/>
+      <c r="L882" t="s" s="0">
+        <v>1633</v>
+      </c>
+      <c r="M882" s="0"/>
+    </row>
+    <row r="883">
+      <c r="A883" t="n" s="0">
+        <v>882.0</v>
+      </c>
+      <c r="B883" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C883" t="s" s="0">
+        <v>1150</v>
+      </c>
+      <c r="D883" t="s" s="0">
+        <v>1152</v>
+      </c>
+      <c r="E883" t="s" s="0">
+        <v>498</v>
+      </c>
+      <c r="F883" t="s" s="0">
+        <v>499</v>
+      </c>
+      <c r="G883" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H883" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I883" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="J883" t="s" s="0">
+        <v>850</v>
+      </c>
+      <c r="K883" s="0"/>
+      <c r="L883" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="M883" s="0"/>
+    </row>
+    <row r="884">
+      <c r="A884" t="n" s="0">
+        <v>883.0</v>
+      </c>
+      <c r="B884" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C884" t="s" s="0">
+        <v>1150</v>
+      </c>
+      <c r="D884" t="s" s="0">
+        <v>844</v>
+      </c>
+      <c r="E884" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="F884" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="G884" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H884" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I884" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="J884" t="s" s="0">
+        <v>1160</v>
+      </c>
+      <c r="K884" s="0"/>
+      <c r="L884" t="s" s="0">
+        <v>864</v>
+      </c>
+      <c r="M884" s="0"/>
+    </row>
+    <row r="885">
+      <c r="A885" t="n" s="0">
+        <v>884.0</v>
+      </c>
+      <c r="B885" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C885" t="s" s="0">
+        <v>1150</v>
+      </c>
+      <c r="D885" t="s" s="0">
+        <v>846</v>
+      </c>
+      <c r="E885" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="F885" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="G885" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H885" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I885" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="J885" t="s" s="0">
+        <v>1634</v>
+      </c>
+      <c r="K885" s="0"/>
+      <c r="L885" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="M885" s="0"/>
+    </row>
+    <row r="886">
+      <c r="A886" t="n" s="0">
+        <v>885.0</v>
+      </c>
+      <c r="B886" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C886" t="s" s="0">
+        <v>1150</v>
+      </c>
+      <c r="D886" t="s" s="0">
+        <v>839</v>
+      </c>
+      <c r="E886" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F886" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G886" t="s" s="0">
+        <v>840</v>
+      </c>
+      <c r="H886" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I886" t="s" s="0">
+        <v>841</v>
+      </c>
+      <c r="J886" t="s" s="0">
+        <v>1156</v>
+      </c>
+      <c r="K886" s="0"/>
+      <c r="L886" t="s" s="0">
+        <v>806</v>
+      </c>
+      <c r="M886" s="0"/>
+    </row>
+    <row r="887">
+      <c r="A887" t="n" s="0">
+        <v>886.0</v>
+      </c>
+      <c r="B887" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C887" t="s" s="0">
+        <v>848</v>
+      </c>
+      <c r="D887" t="s" s="0">
+        <v>1161</v>
+      </c>
+      <c r="E887" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="F887" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="G887" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H887" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I887" t="s" s="0">
+        <v>891</v>
+      </c>
+      <c r="J887" t="s" s="0">
+        <v>1524</v>
+      </c>
+      <c r="K887" s="0"/>
+      <c r="L887" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="M887" s="0"/>
+    </row>
+    <row r="888">
+      <c r="A888" t="n" s="0">
+        <v>887.0</v>
+      </c>
+      <c r="B888" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C888" t="s" s="0">
+        <v>848</v>
+      </c>
+      <c r="D888" t="s" s="0">
+        <v>849</v>
+      </c>
+      <c r="E888" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="F888" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="G888" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="H888" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I888" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="J888" t="s" s="0">
+        <v>845</v>
+      </c>
+      <c r="K888" s="0"/>
+      <c r="L888" t="s" s="0">
+        <v>322</v>
+      </c>
+      <c r="M888" s="0"/>
+    </row>
+    <row r="889">
+      <c r="A889" t="n" s="0">
+        <v>888.0</v>
+      </c>
+      <c r="B889" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C889" t="s" s="0">
+        <v>848</v>
+      </c>
+      <c r="D889" t="s" s="0">
+        <v>1164</v>
+      </c>
+      <c r="E889" t="s" s="0">
+        <v>517</v>
+      </c>
+      <c r="F889" t="s" s="0">
+        <v>518</v>
+      </c>
+      <c r="G889" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H889" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I889" t="s" s="0">
+        <v>751</v>
+      </c>
+      <c r="J889" t="s" s="0">
+        <v>1150</v>
+      </c>
+      <c r="K889" s="0"/>
+      <c r="L889" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="M889" s="0"/>
+    </row>
+    <row r="890">
+      <c r="A890" t="n" s="0">
+        <v>889.0</v>
+      </c>
+      <c r="B890" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C890" t="s" s="0">
+        <v>848</v>
+      </c>
+      <c r="D890" t="s" s="0">
+        <v>851</v>
+      </c>
+      <c r="E890" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F890" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G890" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H890" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I890" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="J890" t="s" s="0">
+        <v>847</v>
+      </c>
+      <c r="K890" s="0"/>
+      <c r="L890" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="M890" s="0"/>
+    </row>
+    <row r="891">
+      <c r="A891" t="n" s="0">
+        <v>890.0</v>
+      </c>
+      <c r="B891" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C891" t="s" s="0">
+        <v>1154</v>
+      </c>
+      <c r="D891" t="s" s="0">
+        <v>1166</v>
+      </c>
+      <c r="E891" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="F891" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="G891" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H891" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I891" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="J891" t="s" s="0">
+        <v>1165</v>
+      </c>
+      <c r="K891" s="0"/>
+      <c r="L891" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="M891" s="0"/>
+    </row>
+    <row r="892">
+      <c r="A892" t="n" s="0">
+        <v>891.0</v>
+      </c>
+      <c r="B892" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C892" t="s" s="0">
+        <v>1154</v>
+      </c>
+      <c r="D892" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="E892" t="s" s="0">
+        <v>532</v>
+      </c>
+      <c r="F892" t="s" s="0">
+        <v>533</v>
+      </c>
+      <c r="G892" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="H892" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I892" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="J892" t="s" s="0">
+        <v>856</v>
+      </c>
+      <c r="K892" s="0"/>
+      <c r="L892" t="s" s="0">
+        <v>684</v>
+      </c>
+      <c r="M892" s="0"/>
+    </row>
+    <row r="893">
+      <c r="A893" t="n" s="0">
+        <v>892.0</v>
+      </c>
+      <c r="B893" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C893" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D893" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E893" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F893" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G893" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H893" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I893" t="s" s="0">
+        <v>1529</v>
+      </c>
+      <c r="J893" t="s" s="0">
+        <v>1635</v>
+      </c>
+      <c r="K893" s="0"/>
+      <c r="L893" t="s" s="0">
+        <v>334</v>
+      </c>
+      <c r="M893" s="0"/>
+    </row>
+    <row r="894">
+      <c r="A894" t="n" s="0">
+        <v>893.0</v>
+      </c>
+      <c r="B894" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C894" t="s" s="0">
+        <v>1535</v>
+      </c>
+      <c r="D894" t="s" s="0">
+        <v>1636</v>
+      </c>
+      <c r="E894" t="s" s="0">
+        <v>866</v>
+      </c>
+      <c r="F894" t="s" s="0">
+        <v>867</v>
+      </c>
+      <c r="G894" t="s" s="0">
+        <v>868</v>
+      </c>
+      <c r="H894" t="s" s="0">
+        <v>1230</v>
+      </c>
+      <c r="I894" t="s" s="0">
+        <v>1637</v>
+      </c>
+      <c r="J894" t="s" s="0">
+        <v>1638</v>
+      </c>
+      <c r="K894" s="0"/>
+      <c r="L894" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="M894" s="0"/>
+    </row>
+    <row r="895">
+      <c r="A895" t="n" s="0">
+        <v>894.0</v>
+      </c>
+      <c r="B895" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C895" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D895" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E895" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F895" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G895" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H895" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I895" t="s" s="0">
+        <v>567</v>
+      </c>
+      <c r="J895" t="s" s="0">
+        <v>1179</v>
+      </c>
+      <c r="K895" s="0"/>
+      <c r="L895" t="s" s="0">
+        <v>889</v>
+      </c>
+      <c r="M895" s="0"/>
+    </row>
+    <row r="896">
+      <c r="A896" t="n" s="0">
+        <v>895.0</v>
+      </c>
+      <c r="B896" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C896" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D896" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="E896" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F896" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="G896" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H896" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I896" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="J896" t="s" s="0">
+        <v>1639</v>
+      </c>
+      <c r="K896" s="0"/>
+      <c r="L896" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="M896" s="0"/>
+    </row>
+    <row r="897">
+      <c r="A897" t="n" s="0">
+        <v>896.0</v>
+      </c>
+      <c r="B897" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C897" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D897" t="s" s="0">
+        <v>1180</v>
+      </c>
+      <c r="E897" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="F897" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="G897" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H897" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I897" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="J897" t="s" s="0">
+        <v>1528</v>
+      </c>
+      <c r="K897" s="0"/>
+      <c r="L897" t="s" s="0">
+        <v>1611</v>
+      </c>
+      <c r="M897" s="0"/>
+    </row>
+    <row r="898">
+      <c r="A898" t="n" s="0">
+        <v>897.0</v>
+      </c>
+      <c r="B898" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C898" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D898" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="E898" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F898" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="G898" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="H898" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I898" t="s" s="0">
+        <v>1640</v>
+      </c>
+      <c r="J898" t="s" s="0">
+        <v>1641</v>
+      </c>
+      <c r="K898" s="0"/>
+      <c r="L898" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="M898" s="0"/>
+    </row>
+    <row r="899">
+      <c r="A899" t="n" s="0">
+        <v>898.0</v>
+      </c>
+      <c r="B899" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C899" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="D899" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="E899" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="F899" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G899" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="H899" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I899" t="s" s="0">
+        <v>1560</v>
+      </c>
+      <c r="J899" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="K899" s="0"/>
+      <c r="L899" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="M899" s="0"/>
+    </row>
+    <row r="900">
+      <c r="A900" t="n" s="0">
+        <v>899.0</v>
+      </c>
+      <c r="B900" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C900" t="s" s="0">
+        <v>1642</v>
+      </c>
+      <c r="D900" t="s" s="0">
+        <v>1643</v>
+      </c>
+      <c r="E900" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="F900" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="G900" t="s" s="0">
+        <v>919</v>
+      </c>
+      <c r="H900" t="s" s="0">
+        <v>920</v>
+      </c>
+      <c r="I900" t="s" s="0">
+        <v>1644</v>
+      </c>
+      <c r="J900" t="s" s="0">
+        <v>1645</v>
+      </c>
+      <c r="K900" s="0"/>
+      <c r="L900" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M900" s="0"/>
+    </row>
+    <row r="901">
+      <c r="A901" t="n" s="0">
+        <v>900.0</v>
+      </c>
+      <c r="B901" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C901" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="D901" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="E901" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="F901" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="G901" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H901" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I901" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="J901" t="s" s="0">
+        <v>863</v>
+      </c>
+      <c r="K901" s="0"/>
+      <c r="L901" t="s" s="0">
+        <v>649</v>
+      </c>
+      <c r="M901" s="0"/>
+    </row>
+    <row r="902">
+      <c r="A902" t="n" s="0">
+        <v>901.0</v>
+      </c>
+      <c r="B902" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C902" t="s" s="0">
+        <v>1537</v>
+      </c>
+      <c r="D902" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="E902" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F902" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G902" t="s" s="0">
+        <v>1646</v>
+      </c>
+      <c r="H902" t="s" s="0">
+        <v>981</v>
+      </c>
+      <c r="I902" t="s" s="0">
+        <v>1647</v>
+      </c>
+      <c r="J902" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="K902" s="0"/>
+      <c r="L902" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="M902" s="0"/>
+    </row>
+    <row r="903">
+      <c r="A903" t="n" s="0">
+        <v>902.0</v>
+      </c>
+      <c r="B903" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C903" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="D903" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="E903" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="F903" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="G903" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H903" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I903" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="J903" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="K903" s="0"/>
+      <c r="L903" t="s" s="0">
+        <v>923</v>
+      </c>
+      <c r="M903" s="0"/>
+    </row>
+    <row r="904">
+      <c r="A904" t="n" s="0">
+        <v>903.0</v>
+      </c>
+      <c r="B904" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C904" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="D904" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="E904" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="F904" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G904" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H904" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I904" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="J904" t="s" s="0">
+        <v>1536</v>
+      </c>
+      <c r="K904" s="0"/>
+      <c r="L904" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="M904" s="0"/>
+    </row>
+    <row r="905">
+      <c r="A905" t="n" s="0">
+        <v>904.0</v>
+      </c>
+      <c r="B905" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C905" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="D905" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="E905" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="F905" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="G905" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H905" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I905" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="J905" t="s" s="0">
+        <v>1190</v>
+      </c>
+      <c r="K905" s="0"/>
+      <c r="L905" t="s" s="0">
+        <v>649</v>
+      </c>
+      <c r="M905" s="0"/>
+    </row>
+    <row r="906">
+      <c r="A906" t="n" s="0">
+        <v>905.0</v>
+      </c>
+      <c r="B906" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C906" t="s" s="0">
+        <v>1648</v>
+      </c>
+      <c r="D906" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="E906" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="F906" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="G906" t="s" s="0">
+        <v>592</v>
+      </c>
+      <c r="H906" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I906" t="s" s="0">
+        <v>614</v>
+      </c>
+      <c r="J906" t="s" s="0">
+        <v>1537</v>
+      </c>
+      <c r="K906" s="0"/>
+      <c r="L906" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="M906" s="0"/>
+    </row>
+    <row r="907">
+      <c r="A907" t="n" s="0">
+        <v>906.0</v>
+      </c>
+      <c r="B907" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C907" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="D907" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="E907" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F907" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G907" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H907" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I907" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="J907" t="s" s="0">
+        <v>1649</v>
+      </c>
+      <c r="K907" s="0"/>
+      <c r="L907" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="M907" s="0"/>
+    </row>
+    <row r="908">
+      <c r="A908" t="n" s="0">
+        <v>907.0</v>
+      </c>
+      <c r="B908" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C908" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="D908" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="E908" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="F908" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="G908" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="H908" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I908" t="s" s="0">
+        <v>1650</v>
+      </c>
+      <c r="J908" t="s" s="0">
+        <v>1407</v>
+      </c>
+      <c r="K908" s="0"/>
+      <c r="L908" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="M908" s="0"/>
+    </row>
+    <row r="909">
+      <c r="A909" t="n" s="0">
+        <v>908.0</v>
+      </c>
+      <c r="B909" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C909" t="s" s="0">
+        <v>877</v>
+      </c>
+      <c r="D909" t="s" s="0">
+        <v>1200</v>
+      </c>
+      <c r="E909" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="F909" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="G909" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H909" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I909" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="J909" t="s" s="0">
+        <v>1648</v>
+      </c>
+      <c r="K909" s="0"/>
+      <c r="L909" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="M909" s="0"/>
+    </row>
+    <row r="910">
+      <c r="A910" t="n" s="0">
+        <v>909.0</v>
+      </c>
+      <c r="B910" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C910" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="D910" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="E910" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="F910" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="G910" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H910" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I910" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="J910" t="s" s="0">
+        <v>882</v>
+      </c>
+      <c r="K910" s="0"/>
+      <c r="L910" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="M910" s="0"/>
+    </row>
+    <row r="911">
+      <c r="A911" t="n" s="0">
+        <v>910.0</v>
+      </c>
+      <c r="B911" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C911" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="D911" t="s" s="0">
+        <v>880</v>
+      </c>
+      <c r="E911" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F911" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G911" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H911" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I911" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="J911" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="K911" s="0"/>
+      <c r="L911" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="M911" s="0"/>
+    </row>
+    <row r="912">
+      <c r="A912" t="n" s="0">
+        <v>911.0</v>
+      </c>
+      <c r="B912" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C912" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="D912" t="s" s="0">
+        <v>1203</v>
+      </c>
+      <c r="E912" t="s" s="0">
+        <v>1204</v>
+      </c>
+      <c r="F912" t="s" s="0">
+        <v>1205</v>
+      </c>
+      <c r="G912" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="H912" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I912" t="s" s="0">
+        <v>1429</v>
+      </c>
+      <c r="J912" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="K912" s="0"/>
+      <c r="L912" t="s" s="0">
+        <v>569</v>
+      </c>
+      <c r="M912" s="0"/>
+    </row>
+    <row r="913">
+      <c r="A913" t="n" s="0">
+        <v>912.0</v>
+      </c>
+      <c r="B913" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C913" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="D913" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="E913" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="F913" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="G913" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H913" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I913" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="J913" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="K913" s="0"/>
+      <c r="L913" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="M913" s="0"/>
+    </row>
+    <row r="914">
+      <c r="A914" t="n" s="0">
+        <v>913.0</v>
+      </c>
+      <c r="B914" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C914" t="s" s="0">
+        <v>1408</v>
+      </c>
+      <c r="D914" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="E914" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="F914" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="G914" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H914" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I914" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="J914" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="K914" s="0"/>
+      <c r="L914" t="s" s="0">
+        <v>649</v>
+      </c>
+      <c r="M914" s="0"/>
+    </row>
+    <row r="915">
+      <c r="A915" t="n" s="0">
+        <v>914.0</v>
+      </c>
+      <c r="B915" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C915" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="D915" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="E915" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F915" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="G915" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H915" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I915" t="s" s="0">
+        <v>441</v>
+      </c>
+      <c r="J915" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="K915" s="0"/>
+      <c r="L915" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="M915" s="0"/>
+    </row>
+    <row r="916">
+      <c r="A916" t="n" s="0">
+        <v>915.0</v>
+      </c>
+      <c r="B916" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C916" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="D916" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="E916" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="F916" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="G916" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H916" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I916" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="J916" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="K916" s="0"/>
+      <c r="L916" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="M916" s="0"/>
+    </row>
+    <row r="917">
+      <c r="A917" t="n" s="0">
+        <v>916.0</v>
+      </c>
+      <c r="B917" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C917" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="D917" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="E917" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="F917" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="G917" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H917" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I917" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="J917" t="s" s="0">
+        <v>1210</v>
+      </c>
+      <c r="K917" s="0"/>
+      <c r="L917" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="M917" s="0"/>
+    </row>
+    <row r="918">
+      <c r="A918" t="n" s="0">
+        <v>917.0</v>
+      </c>
+      <c r="B918" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C918" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="D918" t="s" s="0">
+        <v>890</v>
+      </c>
+      <c r="E918" t="s" s="0">
+        <v>450</v>
+      </c>
+      <c r="F918" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="G918" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H918" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I918" t="s" s="0">
+        <v>891</v>
+      </c>
+      <c r="J918" t="s" s="0">
+        <v>1651</v>
+      </c>
+      <c r="K918" s="0"/>
+      <c r="L918" t="s" s="0">
+        <v>1541</v>
+      </c>
+      <c r="M918" s="0"/>
+    </row>
+    <row r="919">
+      <c r="A919" t="n" s="0">
+        <v>918.0</v>
+      </c>
+      <c r="B919" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C919" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="D919" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="E919" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="F919" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="G919" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="H919" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="I919" t="s" s="0">
+        <v>1652</v>
+      </c>
+      <c r="J919" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="K919" s="0"/>
+      <c r="L919" t="s" s="0">
+        <v>322</v>
+      </c>
+      <c r="M919" s="0"/>
+    </row>
+    <row r="920">
+      <c r="A920" t="n" s="0">
+        <v>919.0</v>
+      </c>
+      <c r="B920" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C920" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="D920" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="E920" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="F920" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="G920" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="H920" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I920" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="J920" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="K920" s="0"/>
+      <c r="L920" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="M920" s="0"/>
+    </row>
+    <row r="921">
+      <c r="A921" t="n" s="0">
+        <v>920.0</v>
+      </c>
+      <c r="B921" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C921" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="D921" t="s" s="0">
+        <v>893</v>
+      </c>
+      <c r="E921" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="F921" t="s" s="0">
+        <v>894</v>
+      </c>
+      <c r="G921" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H921" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I921" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="J921" t="s" s="0">
+        <v>1653</v>
+      </c>
+      <c r="K921" s="0"/>
+      <c r="L921" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="M921" s="0"/>
+    </row>
+    <row r="922">
+      <c r="A922" t="n" s="0">
+        <v>921.0</v>
+      </c>
+      <c r="B922" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C922" t="s" s="0">
+        <v>898</v>
+      </c>
+      <c r="D922" t="s" s="0">
+        <v>605</v>
+      </c>
+      <c r="E922" t="s" s="0">
+        <v>606</v>
+      </c>
+      <c r="F922" t="s" s="0">
+        <v>607</v>
+      </c>
+      <c r="G922" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H922" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I922" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="J922" t="s" s="0">
+        <v>1654</v>
+      </c>
+      <c r="K922" s="0"/>
+      <c r="L922" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="M922" s="0"/>
+    </row>
+    <row r="923">
+      <c r="A923" t="n" s="0">
+        <v>922.0</v>
+      </c>
+      <c r="B923" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C923" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="D923" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="E923" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F923" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="G923" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="H923" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I923" t="s" s="0">
+        <v>1655</v>
+      </c>
+      <c r="J923" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="K923" s="0"/>
+      <c r="L923" t="s" s="0">
+        <v>889</v>
+      </c>
+      <c r="M923" s="0"/>
+    </row>
+    <row r="924">
+      <c r="A924" t="n" s="0">
+        <v>923.0</v>
+      </c>
+      <c r="B924" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C924" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="D924" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="E924" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="F924" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="G924" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H924" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="I924" t="s" s="0">
+        <v>907</v>
+      </c>
+      <c r="J924" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="K924" s="0"/>
+      <c r="L924" t="s" s="0">
+        <v>889</v>
+      </c>
+      <c r="M924" s="0"/>
+    </row>
+    <row r="925">
+      <c r="A925" t="n" s="0">
+        <v>924.0</v>
+      </c>
+      <c r="B925" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C925" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="D925" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="E925" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F925" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="G925" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H925" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I925" t="s" s="0">
+        <v>608</v>
+      </c>
+      <c r="J925" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="K925" s="0"/>
+      <c r="L925" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="M925" s="0"/>
+    </row>
+    <row r="926">
+      <c r="A926" t="n" s="0">
+        <v>925.0</v>
+      </c>
+      <c r="B926" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C926" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="D926" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="E926" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F926" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="G926" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H926" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I926" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="J926" t="s" s="0">
+        <v>1419</v>
+      </c>
+      <c r="K926" s="0"/>
+      <c r="L926" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="M926" s="0"/>
+    </row>
+    <row r="927">
+      <c r="A927" t="n" s="0">
+        <v>926.0</v>
+      </c>
+      <c r="B927" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C927" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="D927" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="E927" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="F927" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="G927" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H927" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I927" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="J927" t="s" s="0">
+        <v>1212</v>
+      </c>
+      <c r="K927" s="0"/>
+      <c r="L927" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="M927" s="0"/>
+    </row>
+    <row r="928">
+      <c r="A928" t="n" s="0">
+        <v>927.0</v>
+      </c>
+      <c r="B928" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C928" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="D928" t="s" s="0">
+        <v>1229</v>
+      </c>
+      <c r="E928" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="F928" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="G928" t="s" s="0">
+        <v>560</v>
+      </c>
+      <c r="H928" t="s" s="0">
+        <v>1230</v>
+      </c>
+      <c r="I928" t="s" s="0">
+        <v>1231</v>
+      </c>
+      <c r="J928" t="s" s="0">
+        <v>1656</v>
+      </c>
+      <c r="K928" s="0"/>
+      <c r="L928" t="s" s="0">
+        <v>684</v>
+      </c>
+      <c r="M928" s="0"/>
+    </row>
+    <row r="929">
+      <c r="A929" t="n" s="0">
+        <v>928.0</v>
+      </c>
+      <c r="B929" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C929" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="D929" t="s" s="0">
+        <v>1233</v>
+      </c>
+      <c r="E929" t="s" s="0">
+        <v>1083</v>
+      </c>
+      <c r="F929" t="s" s="0">
+        <v>1084</v>
+      </c>
+      <c r="G929" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H929" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I929" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="J929" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="K929" s="0"/>
+      <c r="L929" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="M929" s="0"/>
+    </row>
+    <row r="930">
+      <c r="A930" t="n" s="0">
+        <v>929.0</v>
+      </c>
+      <c r="B930" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C930" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="D930" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="E930" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="F930" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="G930" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="H930" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="I930" t="s" s="0">
+        <v>1426</v>
+      </c>
+      <c r="J930" t="s" s="0">
+        <v>1232</v>
+      </c>
+      <c r="K930" s="0"/>
+      <c r="L930" t="s" s="0">
+        <v>322</v>
+      </c>
+      <c r="M930" s="0"/>
+    </row>
+    <row r="931">
+      <c r="A931" t="n" s="0">
+        <v>930.0</v>
+      </c>
+      <c r="B931" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C931" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="D931" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="E931" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F931" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G931" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="H931" t="s" s="0">
+        <v>1427</v>
+      </c>
+      <c r="I931" t="s" s="0">
+        <v>1657</v>
+      </c>
+      <c r="J931" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="K931" s="0"/>
+      <c r="L931" t="s" s="0">
+        <v>889</v>
+      </c>
+      <c r="M931" s="0"/>
+    </row>
+    <row r="932">
+      <c r="A932" t="n" s="0">
+        <v>931.0</v>
+      </c>
+      <c r="B932" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C932" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="D932" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="E932" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F932" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="G932" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H932" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I932" t="s" s="0">
+        <v>494</v>
+      </c>
+      <c r="J932" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="K932" s="0"/>
+      <c r="L932" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="M932" s="0"/>
+    </row>
+    <row r="933">
+      <c r="A933" t="n" s="0">
+        <v>932.0</v>
+      </c>
+      <c r="B933" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C933" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="D933" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="E933" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="F933" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="G933" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H933" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I933" t="s" s="0">
+        <v>730</v>
+      </c>
+      <c r="J933" t="s" s="0">
+        <v>924</v>
+      </c>
+      <c r="K933" s="0"/>
+      <c r="L933" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="M933" s="0"/>
+    </row>
+    <row r="934">
+      <c r="A934" t="n" s="0">
+        <v>933.0</v>
+      </c>
+      <c r="B934" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C934" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="D934" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="E934" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="F934" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="G934" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H934" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I934" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="J934" t="s" s="0">
+        <v>1554</v>
+      </c>
+      <c r="K934" s="0"/>
+      <c r="L934" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="M934" s="0"/>
+    </row>
+    <row r="935">
+      <c r="A935" t="n" s="0">
+        <v>934.0</v>
+      </c>
+      <c r="B935" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C935" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="D935" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="E935" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F935" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G935" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H935" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I935" t="s" s="0">
+        <v>1658</v>
+      </c>
+      <c r="J935" t="s" s="0">
+        <v>1240</v>
+      </c>
+      <c r="K935" s="0"/>
+      <c r="L935" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="M935" s="0"/>
+    </row>
+    <row r="936">
+      <c r="A936" t="n" s="0">
+        <v>935.0</v>
+      </c>
+      <c r="B936" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C936" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="D936" t="s" s="0">
+        <v>301</v>
+      </c>
+      <c r="E936" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="F936" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G936" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="H936" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I936" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="J936" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="K936" s="0"/>
+      <c r="L936" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M936" s="0"/>
+    </row>
+    <row r="937">
+      <c r="A937" t="n" s="0">
+        <v>936.0</v>
+      </c>
+      <c r="B937" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C937" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="D937" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="E937" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="F937" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="G937" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H937" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I937" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="J937" t="s" s="0">
+        <v>1659</v>
+      </c>
+      <c r="K937" s="0"/>
+      <c r="L937" t="s" s="0">
+        <v>970</v>
+      </c>
+      <c r="M937" s="0"/>
+    </row>
+    <row r="938">
+      <c r="A938" t="n" s="0">
+        <v>937.0</v>
+      </c>
+      <c r="B938" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C938" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="D938" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="E938" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="F938" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="G938" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H938" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I938" t="s" s="0">
+        <v>554</v>
+      </c>
+      <c r="J938" t="s" s="0">
+        <v>1256</v>
+      </c>
+      <c r="K938" s="0"/>
+      <c r="L938" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M938" s="0"/>
+    </row>
+    <row r="939">
+      <c r="A939" t="n" s="0">
+        <v>938.0</v>
+      </c>
+      <c r="B939" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C939" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="D939" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="E939" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="F939" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="G939" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="H939" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I939" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="J939" t="s" s="0">
+        <v>1660</v>
+      </c>
+      <c r="K939" s="0"/>
+      <c r="L939" t="s" s="0">
+        <v>1122</v>
+      </c>
+      <c r="M939" s="0"/>
+    </row>
+    <row r="940">
+      <c r="A940" t="n" s="0">
+        <v>939.0</v>
+      </c>
+      <c r="B940" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C940" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="D940" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="E940" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="F940" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="G940" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H940" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I940" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="J940" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="K940" s="0"/>
+      <c r="L940" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="M940" s="0"/>
+    </row>
+    <row r="941">
+      <c r="A941" t="n" s="0">
+        <v>940.0</v>
+      </c>
+      <c r="B941" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C941" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="D941" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="E941" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="F941" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="G941" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="H941" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I941" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="J941" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="K941" s="0"/>
+      <c r="L941" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="M941" s="0"/>
+    </row>
+    <row r="942">
+      <c r="A942" t="n" s="0">
+        <v>941.0</v>
+      </c>
+      <c r="B942" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C942" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="D942" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="E942" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="F942" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="G942" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H942" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I942" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="J942" t="s" s="0">
+        <v>1241</v>
+      </c>
+      <c r="K942" s="0"/>
+      <c r="L942" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="M942" s="0"/>
+    </row>
+    <row r="943">
+      <c r="A943" t="n" s="0">
+        <v>942.0</v>
+      </c>
+      <c r="B943" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C943" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="D943" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="E943" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="F943" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="G943" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H943" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I943" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="J943" t="s" s="0">
+        <v>1247</v>
+      </c>
+      <c r="K943" s="0"/>
+      <c r="L943" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="M943" s="0"/>
+    </row>
+    <row r="944">
+      <c r="A944" t="n" s="0">
+        <v>943.0</v>
+      </c>
+      <c r="B944" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C944" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="D944" t="s" s="0">
+        <v>346</v>
+      </c>
+      <c r="E944" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="F944" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="G944" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="H944" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I944" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="J944" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="K944" s="0"/>
+      <c r="L944" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M944" s="0"/>
+    </row>
+    <row r="945">
+      <c r="A945" t="n" s="0">
+        <v>944.0</v>
+      </c>
+      <c r="B945" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C945" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="D945" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="E945" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="F945" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="G945" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="H945" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="I945" t="s" s="0">
+        <v>930</v>
+      </c>
+      <c r="J945" t="s" s="0">
+        <v>1222</v>
+      </c>
+      <c r="K945" s="0"/>
+      <c r="L945" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="M945" s="0"/>
+    </row>
+    <row r="946">
+      <c r="A946" t="n" s="0">
+        <v>945.0</v>
+      </c>
+      <c r="B946" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C946" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="D946" t="s" s="0">
+        <v>355</v>
+      </c>
+      <c r="E946" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="F946" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="G946" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H946" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="I946" t="s" s="0">
+        <v>1223</v>
+      </c>
+      <c r="J946" t="s" s="0">
+        <v>1661</v>
+      </c>
+      <c r="K946" s="0"/>
+      <c r="L946" t="s" s="0">
+        <v>684</v>
+      </c>
+      <c r="M946" s="0"/>
+    </row>
+    <row r="947">
+      <c r="A947" t="n" s="0">
+        <v>946.0</v>
+      </c>
+      <c r="B947" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C947" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="D947" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="E947" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="F947" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="G947" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H947" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="I947" t="s" s="0">
+        <v>474</v>
+      </c>
+      <c r="J947" t="s" s="0">
+        <v>1259</v>
+      </c>
+      <c r="K947" s="0"/>
+      <c r="L947" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="M947" s="0"/>
+    </row>
+    <row r="948">
+      <c r="A948" t="n" s="0">
+        <v>947.0</v>
+      </c>
+      <c r="B948" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C948" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="D948" t="s" s="0">
+        <v>371</v>
+      </c>
+      <c r="E948" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="F948" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="G948" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H948" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I948" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="J948" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="K948" s="0"/>
+      <c r="L948" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="M948" s="0"/>
+    </row>
+    <row r="949">
+      <c r="A949" t="n" s="0">
+        <v>948.0</v>
+      </c>
+      <c r="B949" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C949" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="D949" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="E949" t="s" s="0">
+        <v>393</v>
+      </c>
+      <c r="F949" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="G949" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H949" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I949" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="J949" t="s" s="0">
+        <v>344</v>
+      </c>
+      <c r="K949" s="0"/>
+      <c r="L949" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="M949" s="0"/>
+    </row>
+    <row r="950">
+      <c r="A950" t="n" s="0">
+        <v>949.0</v>
+      </c>
+      <c r="B950" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C950" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="D950" t="s" s="0">
+        <v>366</v>
+      </c>
+      <c r="E950" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="F950" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="G950" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H950" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I950" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="J950" t="s" s="0">
+        <v>1249</v>
+      </c>
+      <c r="K950" s="0"/>
+      <c r="L950" t="s" s="0">
+        <v>649</v>
+      </c>
+      <c r="M950" s="0"/>
+    </row>
+    <row r="951">
+      <c r="A951" t="n" s="0">
+        <v>950.0</v>
+      </c>
+      <c r="B951" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C951" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="D951" t="s" s="0">
+        <v>376</v>
+      </c>
+      <c r="E951" t="s" s="0">
+        <v>377</v>
+      </c>
+      <c r="F951" t="s" s="0">
+        <v>378</v>
+      </c>
+      <c r="G951" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H951" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="I951" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="J951" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="K951" s="0"/>
+      <c r="L951" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="M951" s="0"/>
+    </row>
+    <row r="952">
+      <c r="A952" t="n" s="0">
+        <v>951.0</v>
+      </c>
+      <c r="B952" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C952" t="s" s="0">
+        <v>382</v>
+      </c>
+      <c r="D952" t="s" s="0">
+        <v>383</v>
+      </c>
+      <c r="E952" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F952" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G952" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H952" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I952" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="J952" t="s" s="0">
+        <v>1246</v>
+      </c>
+      <c r="K952" s="0"/>
+      <c r="L952" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="M952" s="0"/>
+    </row>
+    <row r="953">
+      <c r="A953" t="n" s="0">
+        <v>952.0</v>
+      </c>
+      <c r="B953" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C953" t="s" s="0">
+        <v>382</v>
+      </c>
+      <c r="D953" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="E953" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F953" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G953" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H953" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I953" t="s" s="0">
+        <v>567</v>
+      </c>
+      <c r="J953" t="s" s="0">
+        <v>931</v>
+      </c>
+      <c r="K953" s="0"/>
+      <c r="L953" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="M953" s="0"/>
+    </row>
+    <row r="954">
+      <c r="A954" t="n" s="0">
+        <v>953.0</v>
+      </c>
+      <c r="B954" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C954" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="D954" t="s" s="0">
+        <v>939</v>
+      </c>
+      <c r="E954" t="s" s="0">
+        <v>940</v>
+      </c>
+      <c r="F954" t="s" s="0">
+        <v>941</v>
+      </c>
+      <c r="G954" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="H954" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="I954" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="J954" t="s" s="0">
+        <v>1662</v>
+      </c>
+      <c r="K954" s="0"/>
+      <c r="L954" t="s" s="0">
+        <v>1611</v>
+      </c>
+      <c r="M954" s="0"/>
+    </row>
+    <row r="955">
+      <c r="A955" t="n" s="0">
+        <v>954.0</v>
+      </c>
+      <c r="B955" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C955" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="D955" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="E955" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="F955" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="G955" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="H955" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I955" t="s" s="0">
+        <v>1429</v>
+      </c>
+      <c r="J955" t="s" s="0">
+        <v>1432</v>
+      </c>
+      <c r="K955" s="0"/>
+      <c r="L955" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="M955" s="0"/>
+    </row>
+    <row r="956">
+      <c r="A956" t="n" s="0">
+        <v>955.0</v>
+      </c>
+      <c r="B956" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C956" t="s" s="0">
+        <v>401</v>
+      </c>
+      <c r="D956" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="E956" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="F956" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="G956" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H956" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I956" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="J956" t="s" s="0">
+        <v>949</v>
+      </c>
+      <c r="K956" s="0"/>
+      <c r="L956" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="M956" s="0"/>
+    </row>
+    <row r="957">
+      <c r="A957" t="n" s="0">
+        <v>956.0</v>
+      </c>
+      <c r="B957" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C957" t="s" s="0">
+        <v>401</v>
+      </c>
+      <c r="D957" t="s" s="0">
+        <v>402</v>
+      </c>
+      <c r="E957" t="s" s="0">
+        <v>403</v>
+      </c>
+      <c r="F957" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="G957" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H957" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I957" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="J957" t="s" s="0">
+        <v>962</v>
+      </c>
+      <c r="K957" s="0"/>
+      <c r="L957" t="s" s="0">
+        <v>1503</v>
+      </c>
+      <c r="M957" s="0"/>
+    </row>
+    <row r="958">
+      <c r="A958" t="n" s="0">
+        <v>957.0</v>
+      </c>
+      <c r="B958" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C958" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="D958" t="s" s="0">
+        <v>415</v>
+      </c>
+      <c r="E958" t="s" s="0">
+        <v>416</v>
+      </c>
+      <c r="F958" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="G958" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H958" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="I958" t="s" s="0">
+        <v>1420</v>
+      </c>
+      <c r="J958" t="s" s="0">
+        <v>397</v>
+      </c>
+      <c r="K958" s="0"/>
+      <c r="L958" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="M958" s="0"/>
+    </row>
+    <row r="959">
+      <c r="A959" t="n" s="0">
+        <v>958.0</v>
+      </c>
+      <c r="B959" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C959" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="D959" t="s" s="0">
+        <v>426</v>
+      </c>
+      <c r="E959" t="s" s="0">
+        <v>427</v>
+      </c>
+      <c r="F959" t="s" s="0">
+        <v>428</v>
+      </c>
+      <c r="G959" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H959" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I959" t="s" s="0">
+        <v>429</v>
+      </c>
+      <c r="J959" t="s" s="0">
+        <v>1663</v>
+      </c>
+      <c r="K959" s="0"/>
+      <c r="L959" t="s" s="0">
+        <v>684</v>
+      </c>
+      <c r="M959" s="0"/>
+    </row>
+    <row r="960">
+      <c r="A960" t="n" s="0">
+        <v>959.0</v>
+      </c>
+      <c r="B960" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C960" t="s" s="0">
+        <v>435</v>
+      </c>
+      <c r="D960" t="s" s="0">
+        <v>440</v>
+      </c>
+      <c r="E960" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F960" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="G960" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H960" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I960" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="J960" t="s" s="0">
+        <v>963</v>
+      </c>
+      <c r="K960" s="0"/>
+      <c r="L960" t="s" s="0">
+        <v>1664</v>
+      </c>
+      <c r="M960" s="0"/>
+    </row>
+    <row r="961">
+      <c r="A961" t="n" s="0">
+        <v>960.0</v>
+      </c>
+      <c r="B961" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C961" t="s" s="0">
+        <v>435</v>
+      </c>
+      <c r="D961" t="s" s="0">
+        <v>436</v>
+      </c>
+      <c r="E961" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="F961" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="G961" t="s" s="0">
+        <v>1185</v>
+      </c>
+      <c r="H961" t="s" s="0">
+        <v>1186</v>
+      </c>
+      <c r="I961" t="s" s="0">
+        <v>1665</v>
+      </c>
+      <c r="J961" t="s" s="0">
+        <v>1265</v>
+      </c>
+      <c r="K961" s="0"/>
+      <c r="L961" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M961" s="0"/>
+    </row>
+    <row r="962">
+      <c r="A962" t="n" s="0">
+        <v>961.0</v>
+      </c>
+      <c r="B962" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C962" t="s" s="0">
+        <v>443</v>
+      </c>
+      <c r="D962" t="s" s="0">
+        <v>444</v>
+      </c>
+      <c r="E962" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="F962" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G962" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="H962" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I962" t="s" s="0">
+        <v>1666</v>
+      </c>
+      <c r="J962" t="s" s="0">
+        <v>1667</v>
+      </c>
+      <c r="K962" s="0"/>
+      <c r="L962" t="s" s="0">
+        <v>864</v>
+      </c>
+      <c r="M962" s="0"/>
+    </row>
+    <row r="963">
+      <c r="A963" t="n" s="0">
+        <v>962.0</v>
+      </c>
+      <c r="B963" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C963" t="s" s="0">
+        <v>448</v>
+      </c>
+      <c r="D963" t="s" s="0">
+        <v>449</v>
+      </c>
+      <c r="E963" t="s" s="0">
+        <v>450</v>
+      </c>
+      <c r="F963" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="G963" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H963" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I963" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="J963" t="s" s="0">
+        <v>1442</v>
+      </c>
+      <c r="K963" s="0"/>
+      <c r="L963" t="s" s="0">
+        <v>649</v>
+      </c>
+      <c r="M963" s="0"/>
+    </row>
+    <row r="964">
+      <c r="A964" t="n" s="0">
+        <v>963.0</v>
+      </c>
+      <c r="B964" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C964" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="D964" t="s" s="0">
+        <v>463</v>
+      </c>
+      <c r="E964" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="F964" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="G964" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H964" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I964" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="J964" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="K964" s="0"/>
+      <c r="L964" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="M964" s="0"/>
+    </row>
+    <row r="965">
+      <c r="A965" t="n" s="0">
+        <v>964.0</v>
+      </c>
+      <c r="B965" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C965" t="s" s="0">
+        <v>470</v>
+      </c>
+      <c r="D965" t="s" s="0">
+        <v>477</v>
+      </c>
+      <c r="E965" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F965" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G965" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H965" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I965" t="s" s="0">
+        <v>433</v>
+      </c>
+      <c r="J965" t="s" s="0">
+        <v>442</v>
+      </c>
+      <c r="K965" s="0"/>
+      <c r="L965" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="M965" s="0"/>
+    </row>
+    <row r="966">
+      <c r="A966" t="n" s="0">
+        <v>965.0</v>
+      </c>
+      <c r="B966" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C966" t="s" s="0">
+        <v>481</v>
+      </c>
+      <c r="D966" t="s" s="0">
+        <v>482</v>
+      </c>
+      <c r="E966" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="F966" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="G966" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H966" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I966" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="J966" t="s" s="0">
+        <v>438</v>
+      </c>
+      <c r="K966" s="0"/>
+      <c r="L966" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="M966" s="0"/>
+    </row>
+    <row r="967">
+      <c r="A967" t="n" s="0">
+        <v>966.0</v>
+      </c>
+      <c r="B967" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C967" t="s" s="0">
+        <v>485</v>
+      </c>
+      <c r="D967" t="s" s="0">
+        <v>486</v>
+      </c>
+      <c r="E967" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="F967" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="G967" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H967" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I967" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="J967" t="s" s="0">
+        <v>1277</v>
+      </c>
+      <c r="K967" s="0"/>
+      <c r="L967" t="s" s="0">
+        <v>1633</v>
+      </c>
+      <c r="M967" s="0"/>
+    </row>
+    <row r="968">
+      <c r="A968" t="n" s="0">
+        <v>967.0</v>
+      </c>
+      <c r="B968" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C968" t="s" s="0">
+        <v>485</v>
+      </c>
+      <c r="D968" t="s" s="0">
+        <v>968</v>
+      </c>
+      <c r="E968" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F968" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G968" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H968" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I968" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="J968" t="s" s="0">
+        <v>1668</v>
+      </c>
+      <c r="K968" s="0"/>
+      <c r="L968" t="s" s="0">
+        <v>649</v>
+      </c>
+      <c r="M968" s="0"/>
+    </row>
+    <row r="969">
+      <c r="A969" t="n" s="0">
+        <v>968.0</v>
+      </c>
+      <c r="B969" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C969" t="s" s="0">
+        <v>1669</v>
+      </c>
+      <c r="D969" t="s" s="0">
+        <v>1670</v>
+      </c>
+      <c r="E969" t="s" s="0">
+        <v>866</v>
+      </c>
+      <c r="F969" t="s" s="0">
+        <v>867</v>
+      </c>
+      <c r="G969" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="H969" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I969" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="J969" t="s" s="0">
+        <v>1671</v>
+      </c>
+      <c r="K969" s="0"/>
+      <c r="L969" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="M969" s="0"/>
+    </row>
+    <row r="970">
+      <c r="A970" t="n" s="0">
+        <v>969.0</v>
+      </c>
+      <c r="B970" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C970" t="s" s="0">
+        <v>496</v>
+      </c>
+      <c r="D970" t="s" s="0">
+        <v>497</v>
+      </c>
+      <c r="E970" t="s" s="0">
+        <v>498</v>
+      </c>
+      <c r="F970" t="s" s="0">
+        <v>499</v>
+      </c>
+      <c r="G970" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H970" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I970" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="J970" t="s" s="0">
+        <v>1672</v>
+      </c>
+      <c r="K970" s="0"/>
+      <c r="L970" t="s" s="0">
+        <v>370</v>
+      </c>
+      <c r="M970" s="0"/>
+    </row>
+    <row r="971">
+      <c r="A971" t="n" s="0">
+        <v>970.0</v>
+      </c>
+      <c r="B971" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C971" t="s" s="0">
+        <v>979</v>
+      </c>
+      <c r="D971" t="s" s="0">
+        <v>1673</v>
+      </c>
+      <c r="E971" t="s" s="0">
+        <v>1674</v>
+      </c>
+      <c r="F971" t="s" s="0">
+        <v>1675</v>
+      </c>
+      <c r="G971" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H971" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="I971" t="s" s="0">
+        <v>855</v>
+      </c>
+      <c r="J971" t="s" s="0">
+        <v>1435</v>
+      </c>
+      <c r="K971" s="0"/>
+      <c r="L971" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="M971" s="0"/>
+    </row>
+    <row r="972">
+      <c r="A972" t="n" s="0">
+        <v>971.0</v>
+      </c>
+      <c r="B972" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C972" t="s" s="0">
+        <v>511</v>
+      </c>
+      <c r="D972" t="s" s="0">
+        <v>512</v>
+      </c>
+      <c r="E972" t="s" s="0">
+        <v>513</v>
+      </c>
+      <c r="F972" t="s" s="0">
+        <v>514</v>
+      </c>
+      <c r="G972" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H972" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I972" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="J972" t="s" s="0">
+        <v>1676</v>
+      </c>
+      <c r="K972" s="0"/>
+      <c r="L972" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="M972" s="0"/>
+    </row>
+    <row r="973">
+      <c r="A973" t="n" s="0">
+        <v>972.0</v>
+      </c>
+      <c r="B973" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C973" t="s" s="0">
+        <v>530</v>
+      </c>
+      <c r="D973" t="s" s="0">
+        <v>531</v>
+      </c>
+      <c r="E973" t="s" s="0">
+        <v>532</v>
+      </c>
+      <c r="F973" t="s" s="0">
+        <v>533</v>
+      </c>
+      <c r="G973" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H973" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I973" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="J973" t="s" s="0">
+        <v>998</v>
+      </c>
+      <c r="K973" s="0"/>
+      <c r="L973" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="M973" s="0"/>
+    </row>
+    <row r="974">
+      <c r="A974" t="n" s="0">
+        <v>973.0</v>
+      </c>
+      <c r="B974" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C974" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="D974" t="s" s="0">
+        <v>992</v>
+      </c>
+      <c r="E974" t="s" s="0">
+        <v>993</v>
+      </c>
+      <c r="F974" t="s" s="0">
+        <v>994</v>
+      </c>
+      <c r="G974" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H974" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I974" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="J974" t="s" s="0">
+        <v>1677</v>
+      </c>
+      <c r="K974" s="0"/>
+      <c r="L974" t="s" s="0">
+        <v>1611</v>
+      </c>
+      <c r="M974" s="0"/>
+    </row>
+    <row r="975">
+      <c r="A975" t="n" s="0">
+        <v>974.0</v>
+      </c>
+      <c r="B975" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C975" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="D975" t="s" s="0">
+        <v>553</v>
+      </c>
+      <c r="E975" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="F975" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="G975" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H975" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I975" t="s" s="0">
+        <v>554</v>
+      </c>
+      <c r="J975" t="s" s="0">
+        <v>511</v>
+      </c>
+      <c r="K975" s="0"/>
+      <c r="L975" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="M975" s="0"/>
+    </row>
+    <row r="976">
+      <c r="A976" t="n" s="0">
+        <v>975.0</v>
+      </c>
+      <c r="B976" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C976" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="D976" t="s" s="0">
+        <v>544</v>
+      </c>
+      <c r="E976" t="s" s="0">
+        <v>517</v>
+      </c>
+      <c r="F976" t="s" s="0">
+        <v>518</v>
+      </c>
+      <c r="G976" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H976" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I976" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="J976" t="s" s="0">
+        <v>555</v>
+      </c>
+      <c r="K976" s="0"/>
+      <c r="L976" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="M976" s="0"/>
+    </row>
+    <row r="977">
+      <c r="A977" t="n" s="0">
+        <v>976.0</v>
+      </c>
+      <c r="B977" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C977" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="D977" t="s" s="0">
+        <v>540</v>
+      </c>
+      <c r="E977" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="F977" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="G977" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H977" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I977" t="s" s="0">
+        <v>891</v>
+      </c>
+      <c r="J977" t="s" s="0">
+        <v>984</v>
+      </c>
+      <c r="K977" s="0"/>
+      <c r="L977" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="M977" s="0"/>
+    </row>
+    <row r="978">
+      <c r="A978" t="n" s="0">
+        <v>977.0</v>
+      </c>
+      <c r="B978" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C978" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="D978" t="s" s="0">
+        <v>542</v>
+      </c>
+      <c r="E978" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="F978" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="G978" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H978" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I978" t="s" s="0">
+        <v>730</v>
+      </c>
+      <c r="J978" t="s" s="0">
+        <v>1001</v>
+      </c>
+      <c r="K978" s="0"/>
+      <c r="L978" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="M978" s="0"/>
+    </row>
+    <row r="979">
+      <c r="A979" t="n" s="0">
+        <v>978.0</v>
+      </c>
+      <c r="B979" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C979" t="s" s="0">
+        <v>552</v>
+      </c>
+      <c r="D979" t="s" s="0">
+        <v>546</v>
+      </c>
+      <c r="E979" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F979" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G979" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="H979" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I979" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="J979" t="s" s="0">
+        <v>1570</v>
+      </c>
+      <c r="K979" s="0"/>
+      <c r="L979" t="s" s="0">
+        <v>871</v>
+      </c>
+      <c r="M979" s="0"/>
+    </row>
+    <row r="980">
+      <c r="A980" t="n" s="0">
+        <v>979.0</v>
+      </c>
+      <c r="B980" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C980" t="s" s="0">
+        <v>552</v>
+      </c>
+      <c r="D980" t="s" s="0">
+        <v>1002</v>
+      </c>
+      <c r="E980" t="s" s="0">
+        <v>1003</v>
+      </c>
+      <c r="F980" t="s" s="0">
+        <v>1004</v>
+      </c>
+      <c r="G980" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H980" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I980" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="J980" t="s" s="0">
+        <v>520</v>
+      </c>
+      <c r="K980" s="0"/>
+      <c r="L980" t="s" s="0">
+        <v>370</v>
+      </c>
+      <c r="M980" s="0"/>
+    </row>
+    <row r="981">
+      <c r="A981" t="n" s="0">
+        <v>980.0</v>
+      </c>
+      <c r="B981" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C981" t="s" s="0">
+        <v>1011</v>
+      </c>
+      <c r="D981" t="s" s="0">
+        <v>1012</v>
+      </c>
+      <c r="E981" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="F981" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="G981" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H981" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I981" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="J981" t="s" s="0">
+        <v>1282</v>
+      </c>
+      <c r="K981" s="0"/>
+      <c r="L981" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="M981" s="0"/>
+    </row>
+    <row r="982">
+      <c r="A982" t="n" s="0">
+        <v>981.0</v>
+      </c>
+      <c r="B982" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C982" t="s" s="0">
+        <v>1011</v>
+      </c>
+      <c r="D982" t="s" s="0">
+        <v>556</v>
+      </c>
+      <c r="E982" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="F982" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="G982" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H982" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I982" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="J982" t="s" s="0">
+        <v>1573</v>
+      </c>
+      <c r="K982" s="0"/>
+      <c r="L982" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="M982" s="0"/>
+    </row>
+    <row r="983">
+      <c r="A983" t="n" s="0">
+        <v>982.0</v>
+      </c>
+      <c r="B983" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C983" t="s" s="0">
+        <v>563</v>
+      </c>
+      <c r="D983" t="s" s="0">
+        <v>1016</v>
+      </c>
+      <c r="E983" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F983" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G983" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="H983" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I983" t="s" s="0">
+        <v>1678</v>
+      </c>
+      <c r="J983" t="s" s="0">
+        <v>990</v>
+      </c>
+      <c r="K983" s="0"/>
+      <c r="L983" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M983" s="0"/>
+    </row>
+    <row r="984">
+      <c r="A984" t="n" s="0">
+        <v>983.0</v>
+      </c>
+      <c r="B984" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C984" t="s" s="0">
+        <v>563</v>
+      </c>
+      <c r="D984" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="E984" t="s" s="0">
+        <v>565</v>
+      </c>
+      <c r="F984" t="s" s="0">
+        <v>566</v>
+      </c>
+      <c r="G984" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H984" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I984" t="s" s="0">
+        <v>928</v>
+      </c>
+      <c r="J984" t="s" s="0">
+        <v>1679</v>
+      </c>
+      <c r="K984" s="0"/>
+      <c r="L984" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="M984" s="0"/>
+    </row>
+    <row r="985">
+      <c r="A985" t="n" s="0">
+        <v>984.0</v>
+      </c>
+      <c r="B985" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C985" t="s" s="0">
+        <v>588</v>
+      </c>
+      <c r="D985" t="s" s="0">
+        <v>1025</v>
+      </c>
+      <c r="E985" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="F985" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="G985" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H985" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I985" t="s" s="0">
+        <v>1026</v>
+      </c>
+      <c r="J985" t="s" s="0">
+        <v>1291</v>
+      </c>
+      <c r="K985" s="0"/>
+      <c r="L985" t="s" s="0">
+        <v>538</v>
+      </c>
+      <c r="M985" s="0"/>
+    </row>
+    <row r="986">
+      <c r="A986" t="n" s="0">
+        <v>985.0</v>
+      </c>
+      <c r="B986" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C986" t="s" s="0">
+        <v>1680</v>
+      </c>
+      <c r="D986" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="E986" t="s" s="0">
+        <v>532</v>
+      </c>
+      <c r="F986" t="s" s="0">
+        <v>533</v>
+      </c>
+      <c r="G986" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H986" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="I986" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="J986" t="s" s="0">
+        <v>1681</v>
+      </c>
+      <c r="K986" s="0"/>
+      <c r="L986" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M986" s="0"/>
+    </row>
+    <row r="987">
+      <c r="A987" t="n" s="0">
+        <v>986.0</v>
+      </c>
+      <c r="B987" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C987" t="s" s="0">
+        <v>1682</v>
+      </c>
+      <c r="D987" t="s" s="0">
+        <v>1683</v>
+      </c>
+      <c r="E987" t="s" s="0">
+        <v>1684</v>
+      </c>
+      <c r="F987" t="s" s="0">
+        <v>1685</v>
+      </c>
+      <c r="G987" t="s" s="0">
+        <v>1686</v>
+      </c>
+      <c r="H987" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I987" t="s" s="0">
+        <v>1687</v>
+      </c>
+      <c r="J987" t="s" s="0">
+        <v>1189</v>
+      </c>
+      <c r="K987" s="0"/>
+      <c r="L987" t="s" s="0">
+        <v>1688</v>
+      </c>
+      <c r="M987" s="0"/>
+    </row>
+    <row r="988">
+      <c r="A988" t="n" s="0">
+        <v>987.0</v>
+      </c>
+      <c r="B988" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C988" t="s" s="0">
+        <v>1034</v>
+      </c>
+      <c r="D988" t="s" s="0">
+        <v>1035</v>
+      </c>
+      <c r="E988" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="F988" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="G988" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H988" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I988" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="J988" t="s" s="0">
+        <v>1689</v>
+      </c>
+      <c r="K988" s="0"/>
+      <c r="L988" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="M988" s="0"/>
+    </row>
+    <row r="989">
+      <c r="A989" t="n" s="0">
+        <v>988.0</v>
+      </c>
+      <c r="B989" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C989" t="s" s="0">
+        <v>1034</v>
+      </c>
+      <c r="D989" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="E989" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="F989" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="G989" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H989" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I989" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="J989" t="s" s="0">
+        <v>1690</v>
+      </c>
+      <c r="K989" s="0"/>
+      <c r="L989" t="s" s="0">
+        <v>634</v>
+      </c>
+      <c r="M989" s="0"/>
+    </row>
+    <row r="990">
+      <c r="A990" t="n" s="0">
+        <v>989.0</v>
+      </c>
+      <c r="B990" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C990" t="s" s="0">
+        <v>616</v>
+      </c>
+      <c r="D990" t="s" s="0">
+        <v>617</v>
+      </c>
+      <c r="E990" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F990" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="G990" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H990" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I990" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="J990" t="s" s="0">
+        <v>1578</v>
+      </c>
+      <c r="K990" s="0"/>
+      <c r="L990" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="M990" s="0"/>
+    </row>
+    <row r="991">
+      <c r="A991" t="n" s="0">
+        <v>990.0</v>
+      </c>
+      <c r="B991" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C991" t="s" s="0">
+        <v>620</v>
+      </c>
+      <c r="D991" t="s" s="0">
+        <v>621</v>
+      </c>
+      <c r="E991" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F991" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G991" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H991" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I991" t="s" s="0">
+        <v>441</v>
+      </c>
+      <c r="J991" t="s" s="0">
+        <v>603</v>
+      </c>
+      <c r="K991" s="0"/>
+      <c r="L991" t="s" s="0">
+        <v>370</v>
+      </c>
+      <c r="M991" s="0"/>
+    </row>
+    <row r="992">
+      <c r="A992" t="n" s="0">
+        <v>991.0</v>
+      </c>
+      <c r="B992" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C992" t="s" s="0">
+        <v>1045</v>
+      </c>
+      <c r="D992" t="s" s="0">
+        <v>471</v>
+      </c>
+      <c r="E992" t="s" s="0">
+        <v>472</v>
+      </c>
+      <c r="F992" t="s" s="0">
+        <v>473</v>
+      </c>
+      <c r="G992" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H992" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="I992" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="J992" t="s" s="0">
+        <v>1691</v>
+      </c>
+      <c r="K992" s="0"/>
+      <c r="L992" t="s" s="0">
+        <v>1692</v>
+      </c>
+      <c r="M992" s="0"/>
+    </row>
+    <row r="993">
+      <c r="A993" t="n" s="0">
+        <v>992.0</v>
+      </c>
+      <c r="B993" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C993" t="s" s="0">
+        <v>1045</v>
+      </c>
+      <c r="D993" t="s" s="0">
+        <v>1046</v>
+      </c>
+      <c r="E993" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="F993" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="G993" t="s" s="0">
+        <v>1040</v>
+      </c>
+      <c r="H993" t="s" s="0">
+        <v>1008</v>
+      </c>
+      <c r="I993" t="s" s="0">
+        <v>1693</v>
+      </c>
+      <c r="J993" t="s" s="0">
+        <v>1694</v>
+      </c>
+      <c r="K993" s="0"/>
+      <c r="L993" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="M993" s="0"/>
+    </row>
+    <row r="994">
+      <c r="A994" t="n" s="0">
+        <v>993.0</v>
+      </c>
+      <c r="B994" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C994" t="s" s="0">
+        <v>615</v>
+      </c>
+      <c r="D994" t="s" s="0">
+        <v>1049</v>
+      </c>
+      <c r="E994" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="F994" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="G994" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H994" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I994" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="J994" t="s" s="0">
+        <v>610</v>
+      </c>
+      <c r="K994" s="0"/>
+      <c r="L994" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="M994" s="0"/>
+    </row>
+    <row r="995">
+      <c r="A995" t="n" s="0">
+        <v>994.0</v>
+      </c>
+      <c r="B995" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C995" t="s" s="0">
+        <v>631</v>
+      </c>
+      <c r="D995" t="s" s="0">
+        <v>632</v>
+      </c>
+      <c r="E995" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="F995" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="G995" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H995" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I995" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="J995" t="s" s="0">
+        <v>1695</v>
+      </c>
+      <c r="K995" s="0"/>
+      <c r="L995" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="M995" s="0"/>
+    </row>
+    <row r="996">
+      <c r="A996" t="n" s="0">
+        <v>995.0</v>
+      </c>
+      <c r="B996" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C996" t="s" s="0">
+        <v>1696</v>
+      </c>
+      <c r="D996" t="s" s="0">
+        <v>1697</v>
+      </c>
+      <c r="E996" t="s" s="0">
+        <v>866</v>
+      </c>
+      <c r="F996" t="s" s="0">
+        <v>867</v>
+      </c>
+      <c r="G996" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="H996" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I996" t="s" s="0">
+        <v>1698</v>
+      </c>
+      <c r="J996" t="s" s="0">
+        <v>1056</v>
+      </c>
+      <c r="K996" s="0"/>
+      <c r="L996" t="s" s="0">
+        <v>1468</v>
+      </c>
+      <c r="M996" s="0"/>
+    </row>
+    <row r="997">
+      <c r="A997" t="n" s="0">
+        <v>996.0</v>
+      </c>
+      <c r="B997" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C997" t="s" s="0">
+        <v>640</v>
+      </c>
+      <c r="D997" t="s" s="0">
+        <v>646</v>
+      </c>
+      <c r="E997" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F997" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G997" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H997" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I997" t="s" s="0">
+        <v>1699</v>
+      </c>
+      <c r="J997" t="s" s="0">
+        <v>635</v>
+      </c>
+      <c r="K997" s="0"/>
+      <c r="L997" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="M997" s="0"/>
+    </row>
+    <row r="998">
+      <c r="A998" t="n" s="0">
+        <v>997.0</v>
+      </c>
+      <c r="B998" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C998" t="s" s="0">
+        <v>1056</v>
+      </c>
+      <c r="D998" t="s" s="0">
+        <v>1057</v>
+      </c>
+      <c r="E998" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="F998" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="G998" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="H998" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I998" t="s" s="0">
+        <v>1109</v>
+      </c>
+      <c r="J998" t="s" s="0">
+        <v>1052</v>
+      </c>
+      <c r="K998" s="0"/>
+      <c r="L998" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="M998" s="0"/>
+    </row>
+    <row r="999">
+      <c r="A999" t="n" s="0">
+        <v>998.0</v>
+      </c>
+      <c r="B999" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C999" t="s" s="0">
+        <v>650</v>
+      </c>
+      <c r="D999" t="s" s="0">
+        <v>651</v>
+      </c>
+      <c r="E999" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="F999" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="G999" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H999" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I999" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="J999" t="s" s="0">
+        <v>1064</v>
+      </c>
+      <c r="K999" s="0"/>
+      <c r="L999" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="M999" s="0"/>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="B1000" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1000" t="s" s="0">
+        <v>1302</v>
+      </c>
+      <c r="D1000" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="E1000" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="F1000" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="G1000" t="s" s="0">
+        <v>560</v>
+      </c>
+      <c r="H1000" t="s" s="0">
+        <v>1005</v>
+      </c>
+      <c r="I1000" t="s" s="0">
+        <v>1700</v>
+      </c>
+      <c r="J1000" t="s" s="0">
+        <v>1483</v>
+      </c>
+      <c r="K1000" s="0"/>
+      <c r="L1000" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="M1000" s="0"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="n" s="0">
+        <v>1000.0</v>
+      </c>
+      <c r="B1001" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1001" t="s" s="0">
+        <v>654</v>
+      </c>
+      <c r="D1001" t="s" s="0">
+        <v>1060</v>
+      </c>
+      <c r="E1001" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F1001" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="G1001" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="H1001" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I1001" t="s" s="0">
+        <v>1701</v>
+      </c>
+      <c r="J1001" t="s" s="0">
+        <v>660</v>
+      </c>
+      <c r="K1001" s="0"/>
+      <c r="L1001" t="s" s="0">
+        <v>871</v>
+      </c>
+      <c r="M1001" s="0"/>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="n" s="0">
+        <v>1001.0</v>
+      </c>
+      <c r="B1002" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1002" t="s" s="0">
+        <v>654</v>
+      </c>
+      <c r="D1002" t="s" s="0">
+        <v>1151</v>
+      </c>
+      <c r="E1002" t="s" s="0">
+        <v>502</v>
+      </c>
+      <c r="F1002" t="s" s="0">
+        <v>503</v>
+      </c>
+      <c r="G1002" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="H1002" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I1002" t="s" s="0">
+        <v>1429</v>
+      </c>
+      <c r="J1002" t="s" s="0">
+        <v>1702</v>
+      </c>
+      <c r="K1002" s="0"/>
+      <c r="L1002" t="s" s="0">
+        <v>1611</v>
+      </c>
+      <c r="M1002" s="0"/>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="n" s="0">
+        <v>1002.0</v>
+      </c>
+      <c r="B1003" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1003" t="s" s="0">
+        <v>660</v>
+      </c>
+      <c r="D1003" t="s" s="0">
+        <v>664</v>
+      </c>
+      <c r="E1003" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F1003" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="G1003" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1003" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1003" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="J1003" t="s" s="0">
+        <v>1703</v>
+      </c>
+      <c r="K1003" s="0"/>
+      <c r="L1003" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="M1003" s="0"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="n" s="0">
+        <v>1003.0</v>
+      </c>
+      <c r="B1004" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1004" t="s" s="0">
+        <v>660</v>
+      </c>
+      <c r="D1004" t="s" s="0">
+        <v>668</v>
+      </c>
+      <c r="E1004" t="s" s="0">
+        <v>669</v>
+      </c>
+      <c r="F1004" t="s" s="0">
+        <v>670</v>
+      </c>
+      <c r="G1004" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1004" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1004" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="J1004" t="s" s="0">
+        <v>663</v>
+      </c>
+      <c r="K1004" s="0"/>
+      <c r="L1004" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="M1004" s="0"/>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="n" s="0">
+        <v>1004.0</v>
+      </c>
+      <c r="B1005" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1005" t="s" s="0">
+        <v>672</v>
+      </c>
+      <c r="D1005" t="s" s="0">
+        <v>673</v>
+      </c>
+      <c r="E1005" t="s" s="0">
+        <v>508</v>
+      </c>
+      <c r="F1005" t="s" s="0">
+        <v>509</v>
+      </c>
+      <c r="G1005" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1005" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1005" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="J1005" t="s" s="0">
+        <v>1302</v>
+      </c>
+      <c r="K1005" s="0"/>
+      <c r="L1005" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="M1005" s="0"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="n" s="0">
+        <v>1005.0</v>
+      </c>
+      <c r="B1006" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1006" t="s" s="0">
+        <v>672</v>
+      </c>
+      <c r="D1006" t="s" s="0">
+        <v>675</v>
+      </c>
+      <c r="E1006" t="s" s="0">
+        <v>454</v>
+      </c>
+      <c r="F1006" t="s" s="0">
+        <v>455</v>
+      </c>
+      <c r="G1006" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1006" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1006" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="J1006" t="s" s="0">
+        <v>1062</v>
+      </c>
+      <c r="K1006" s="0"/>
+      <c r="L1006" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="M1006" s="0"/>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="n" s="0">
+        <v>1006.0</v>
+      </c>
+      <c r="B1007" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1007" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="D1007" t="s" s="0">
+        <v>1704</v>
+      </c>
+      <c r="E1007" t="s" s="0">
+        <v>866</v>
+      </c>
+      <c r="F1007" t="s" s="0">
+        <v>867</v>
+      </c>
+      <c r="G1007" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1007" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I1007" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="J1007" t="s" s="0">
+        <v>1705</v>
+      </c>
+      <c r="K1007" s="0"/>
+      <c r="L1007" t="s" s="0">
+        <v>577</v>
+      </c>
+      <c r="M1007" s="0"/>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="n" s="0">
+        <v>1007.0</v>
+      </c>
+      <c r="B1008" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1008" t="s" s="0">
+        <v>678</v>
+      </c>
+      <c r="D1008" t="s" s="0">
+        <v>679</v>
+      </c>
+      <c r="E1008" t="s" s="0">
+        <v>498</v>
+      </c>
+      <c r="F1008" t="s" s="0">
+        <v>499</v>
+      </c>
+      <c r="G1008" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="H1008" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1008" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="J1008" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="K1008" s="0"/>
+      <c r="L1008" t="s" s="0">
+        <v>420</v>
+      </c>
+      <c r="M1008" s="0"/>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="n" s="0">
+        <v>1008.0</v>
+      </c>
+      <c r="B1009" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1009" t="s" s="0">
+        <v>678</v>
+      </c>
+      <c r="D1009" t="s" s="0">
+        <v>682</v>
+      </c>
+      <c r="E1009" t="s" s="0">
+        <v>517</v>
+      </c>
+      <c r="F1009" t="s" s="0">
+        <v>518</v>
+      </c>
+      <c r="G1009" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1009" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I1009" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="J1009" t="s" s="0">
+        <v>1305</v>
+      </c>
+      <c r="K1009" s="0"/>
+      <c r="L1009" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="M1009" s="0"/>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="n" s="0">
+        <v>1009.0</v>
+      </c>
+      <c r="B1010" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1010" t="s" s="0">
+        <v>681</v>
+      </c>
+      <c r="D1010" t="s" s="0">
+        <v>704</v>
+      </c>
+      <c r="E1010" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="F1010" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="G1010" t="s" s="0">
+        <v>705</v>
+      </c>
+      <c r="H1010" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I1010" t="s" s="0">
+        <v>1706</v>
+      </c>
+      <c r="J1010" t="s" s="0">
+        <v>1707</v>
+      </c>
+      <c r="K1010" s="0"/>
+      <c r="L1010" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="M1010" s="0"/>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="n" s="0">
+        <v>1010.0</v>
+      </c>
+      <c r="B1011" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1011" t="s" s="0">
+        <v>681</v>
+      </c>
+      <c r="D1011" t="s" s="0">
+        <v>1306</v>
+      </c>
+      <c r="E1011" t="s" s="0">
+        <v>1116</v>
+      </c>
+      <c r="F1011" t="s" s="0">
+        <v>1117</v>
+      </c>
+      <c r="G1011" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1011" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1011" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="J1011" t="s" s="0">
+        <v>1476</v>
+      </c>
+      <c r="K1011" s="0"/>
+      <c r="L1011" t="s" s="0">
+        <v>1611</v>
+      </c>
+      <c r="M1011" s="0"/>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="n" s="0">
+        <v>1011.0</v>
+      </c>
+      <c r="B1012" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1012" t="s" s="0">
+        <v>681</v>
+      </c>
+      <c r="D1012" t="s" s="0">
+        <v>1066</v>
+      </c>
+      <c r="E1012" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="F1012" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="G1012" t="s" s="0">
+        <v>1185</v>
+      </c>
+      <c r="H1012" t="s" s="0">
+        <v>824</v>
+      </c>
+      <c r="I1012" t="s" s="0">
+        <v>1708</v>
+      </c>
+      <c r="J1012" t="s" s="0">
+        <v>1599</v>
+      </c>
+      <c r="K1012" s="0"/>
+      <c r="L1012" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="M1012" s="0"/>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="n" s="0">
+        <v>1012.0</v>
+      </c>
+      <c r="B1013" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1013" t="s" s="0">
+        <v>685</v>
+      </c>
+      <c r="D1013" t="s" s="0">
+        <v>686</v>
+      </c>
+      <c r="E1013" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="F1013" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="G1013" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1013" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1013" t="s" s="0">
+        <v>1504</v>
+      </c>
+      <c r="J1013" t="s" s="0">
+        <v>1307</v>
+      </c>
+      <c r="K1013" s="0"/>
+      <c r="L1013" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="M1013" s="0"/>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="n" s="0">
+        <v>1013.0</v>
+      </c>
+      <c r="B1014" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1014" t="s" s="0">
+        <v>685</v>
+      </c>
+      <c r="D1014" t="s" s="0">
+        <v>688</v>
+      </c>
+      <c r="E1014" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="F1014" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="G1014" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="H1014" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1014" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="J1014" t="s" s="0">
+        <v>676</v>
+      </c>
+      <c r="K1014" s="0"/>
+      <c r="L1014" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="M1014" s="0"/>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="n" s="0">
+        <v>1014.0</v>
+      </c>
+      <c r="B1015" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1015" t="s" s="0">
+        <v>690</v>
+      </c>
+      <c r="D1015" t="s" s="0">
+        <v>691</v>
+      </c>
+      <c r="E1015" t="s" s="0">
+        <v>513</v>
+      </c>
+      <c r="F1015" t="s" s="0">
+        <v>514</v>
+      </c>
+      <c r="G1015" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="H1015" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1015" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="J1015" t="s" s="0">
+        <v>1071</v>
+      </c>
+      <c r="K1015" s="0"/>
+      <c r="L1015" t="s" s="0">
+        <v>1541</v>
+      </c>
+      <c r="M1015" s="0"/>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="n" s="0">
+        <v>1015.0</v>
+      </c>
+      <c r="B1016" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1016" t="s" s="0">
+        <v>693</v>
+      </c>
+      <c r="D1016" t="s" s="0">
+        <v>694</v>
+      </c>
+      <c r="E1016" t="s" s="0">
+        <v>422</v>
+      </c>
+      <c r="F1016" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="G1016" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1016" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I1016" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="J1016" t="s" s="0">
+        <v>1709</v>
+      </c>
+      <c r="K1016" s="0"/>
+      <c r="L1016" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="M1016" s="0"/>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="n" s="0">
+        <v>1016.0</v>
+      </c>
+      <c r="B1017" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1017" t="s" s="0">
+        <v>700</v>
+      </c>
+      <c r="D1017" t="s" s="0">
+        <v>701</v>
+      </c>
+      <c r="E1017" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="F1017" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="G1017" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1017" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I1017" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="J1017" t="s" s="0">
+        <v>1074</v>
+      </c>
+      <c r="K1017" s="0"/>
+      <c r="L1017" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="M1017" s="0"/>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="n" s="0">
+        <v>1017.0</v>
+      </c>
+      <c r="B1018" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1018" t="s" s="0">
+        <v>1601</v>
+      </c>
+      <c r="D1018" t="s" s="0">
+        <v>666</v>
+      </c>
+      <c r="E1018" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="F1018" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="G1018" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1018" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I1018" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="J1018" t="s" s="0">
+        <v>1710</v>
+      </c>
+      <c r="K1018" s="0"/>
+      <c r="L1018" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="M1018" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/WAW_Arrivals.xlsx
+++ b/DataBase/WAW_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10181" uniqueCount="1711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10541" uniqueCount="1727">
   <si>
     <t>NUMBER</t>
   </si>
@@ -5145,6 +5145,54 @@
   </si>
   <si>
     <t>7:31 PM</t>
+  </si>
+  <si>
+    <t>3Z7321</t>
+  </si>
+  <si>
+    <t>9:09 PM</t>
+  </si>
+  <si>
+    <t>9:34 PM</t>
+  </si>
+  <si>
+    <t>10:06 PM</t>
+  </si>
+  <si>
+    <t>9:05 PM</t>
+  </si>
+  <si>
+    <t>10:04 PM</t>
+  </si>
+  <si>
+    <t>(G-EUYW)</t>
+  </si>
+  <si>
+    <t>9:43 PM</t>
+  </si>
+  <si>
+    <t>9:39 PM</t>
+  </si>
+  <si>
+    <t>(F-GTAU)</t>
+  </si>
+  <si>
+    <t>9:49 PM</t>
+  </si>
+  <si>
+    <t>9:58 PM</t>
+  </si>
+  <si>
+    <t>10:33 PM</t>
+  </si>
+  <si>
+    <t>10:47 PM</t>
+  </si>
+  <si>
+    <t>10:26 PM</t>
+  </si>
+  <si>
+    <t>(PH-BXK)</t>
   </si>
 </sst>
 </file>
@@ -5189,7 +5237,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M1018"/>
+  <dimension ref="A1:M1054"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -42859,6 +42907,1338 @@
       </c>
       <c r="M1018" s="0"/>
     </row>
+    <row r="1019">
+      <c r="A1019" t="n" s="0">
+        <v>1018.0</v>
+      </c>
+      <c r="B1019" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1019" t="s" s="0">
+        <v>1328</v>
+      </c>
+      <c r="D1019" t="s" s="0">
+        <v>1711</v>
+      </c>
+      <c r="E1019" t="s" s="0">
+        <v>818</v>
+      </c>
+      <c r="F1019" t="s" s="0">
+        <v>819</v>
+      </c>
+      <c r="G1019" t="s" s="0">
+        <v>592</v>
+      </c>
+      <c r="H1019" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I1019" t="s" s="0">
+        <v>1473</v>
+      </c>
+      <c r="J1019" t="s" s="0">
+        <v>722</v>
+      </c>
+      <c r="K1019" s="0"/>
+      <c r="L1019" t="s" s="0">
+        <v>1122</v>
+      </c>
+      <c r="M1019" s="0"/>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="n" s="0">
+        <v>1019.0</v>
+      </c>
+      <c r="B1020" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1020" t="s" s="0">
+        <v>715</v>
+      </c>
+      <c r="D1020" t="s" s="0">
+        <v>716</v>
+      </c>
+      <c r="E1020" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="F1020" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="G1020" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1020" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1020" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="J1020" t="s" s="0">
+        <v>1505</v>
+      </c>
+      <c r="K1020" s="0"/>
+      <c r="L1020" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="M1020" s="0"/>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="n" s="0">
+        <v>1020.0</v>
+      </c>
+      <c r="B1021" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1021" t="s" s="0">
+        <v>715</v>
+      </c>
+      <c r="D1021" t="s" s="0">
+        <v>718</v>
+      </c>
+      <c r="E1021" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="F1021" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="G1021" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="H1021" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1021" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="J1021" t="s" s="0">
+        <v>1712</v>
+      </c>
+      <c r="K1021" s="0"/>
+      <c r="L1021" t="s" s="0">
+        <v>420</v>
+      </c>
+      <c r="M1021" s="0"/>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="n" s="0">
+        <v>1021.0</v>
+      </c>
+      <c r="B1022" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1022" t="s" s="0">
+        <v>720</v>
+      </c>
+      <c r="D1022" t="s" s="0">
+        <v>721</v>
+      </c>
+      <c r="E1022" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="F1022" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="G1022" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1022" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1022" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="J1022" t="s" s="0">
+        <v>707</v>
+      </c>
+      <c r="K1022" s="0"/>
+      <c r="L1022" t="s" s="0">
+        <v>1541</v>
+      </c>
+      <c r="M1022" s="0"/>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="n" s="0">
+        <v>1022.0</v>
+      </c>
+      <c r="B1023" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1023" t="s" s="0">
+        <v>720</v>
+      </c>
+      <c r="D1023" t="s" s="0">
+        <v>1078</v>
+      </c>
+      <c r="E1023" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="F1023" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="G1023" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1023" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1023" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="J1023" t="s" s="0">
+        <v>1497</v>
+      </c>
+      <c r="K1023" s="0"/>
+      <c r="L1023" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="M1023" s="0"/>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="n" s="0">
+        <v>1023.0</v>
+      </c>
+      <c r="B1024" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1024" t="s" s="0">
+        <v>1332</v>
+      </c>
+      <c r="D1024" t="s" s="0">
+        <v>817</v>
+      </c>
+      <c r="E1024" t="s" s="0">
+        <v>818</v>
+      </c>
+      <c r="F1024" t="s" s="0">
+        <v>819</v>
+      </c>
+      <c r="G1024" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1024" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I1024" t="s" s="0">
+        <v>1218</v>
+      </c>
+      <c r="J1024" t="s" s="0">
+        <v>1713</v>
+      </c>
+      <c r="K1024" s="0"/>
+      <c r="L1024" t="s" s="0">
+        <v>923</v>
+      </c>
+      <c r="M1024" s="0"/>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="n" s="0">
+        <v>1024.0</v>
+      </c>
+      <c r="B1025" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1025" t="s" s="0">
+        <v>1337</v>
+      </c>
+      <c r="D1025" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="E1025" t="s" s="0">
+        <v>818</v>
+      </c>
+      <c r="F1025" t="s" s="0">
+        <v>819</v>
+      </c>
+      <c r="G1025" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="H1025" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I1025" t="s" s="0">
+        <v>698</v>
+      </c>
+      <c r="J1025" t="s" s="0">
+        <v>1714</v>
+      </c>
+      <c r="K1025" s="0"/>
+      <c r="L1025" t="s" s="0">
+        <v>1534</v>
+      </c>
+      <c r="M1025" s="0"/>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="n" s="0">
+        <v>1025.0</v>
+      </c>
+      <c r="B1026" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1026" t="s" s="0">
+        <v>723</v>
+      </c>
+      <c r="D1026" t="s" s="0">
+        <v>724</v>
+      </c>
+      <c r="E1026" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="F1026" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G1026" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="H1026" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1026" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="J1026" t="s" s="0">
+        <v>1715</v>
+      </c>
+      <c r="K1026" s="0"/>
+      <c r="L1026" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="M1026" s="0"/>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="n" s="0">
+        <v>1026.0</v>
+      </c>
+      <c r="B1027" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1027" t="s" s="0">
+        <v>726</v>
+      </c>
+      <c r="D1027" t="s" s="0">
+        <v>727</v>
+      </c>
+      <c r="E1027" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="F1027" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="G1027" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1027" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1027" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="J1027" t="s" s="0">
+        <v>1716</v>
+      </c>
+      <c r="K1027" s="0"/>
+      <c r="L1027" t="s" s="0">
+        <v>1598</v>
+      </c>
+      <c r="M1027" s="0"/>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="n" s="0">
+        <v>1027.0</v>
+      </c>
+      <c r="B1028" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1028" t="s" s="0">
+        <v>726</v>
+      </c>
+      <c r="D1028" t="s" s="0">
+        <v>729</v>
+      </c>
+      <c r="E1028" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="F1028" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="G1028" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1028" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1028" t="s" s="0">
+        <v>928</v>
+      </c>
+      <c r="J1028" t="s" s="0">
+        <v>1090</v>
+      </c>
+      <c r="K1028" s="0"/>
+      <c r="L1028" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="M1028" s="0"/>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="n" s="0">
+        <v>1028.0</v>
+      </c>
+      <c r="B1029" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1029" t="s" s="0">
+        <v>726</v>
+      </c>
+      <c r="D1029" t="s" s="0">
+        <v>1088</v>
+      </c>
+      <c r="E1029" t="s" s="0">
+        <v>450</v>
+      </c>
+      <c r="F1029" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="G1029" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1029" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1029" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="J1029" t="s" s="0">
+        <v>1081</v>
+      </c>
+      <c r="K1029" s="0"/>
+      <c r="L1029" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="M1029" s="0"/>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="n" s="0">
+        <v>1029.0</v>
+      </c>
+      <c r="B1030" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1030" t="s" s="0">
+        <v>732</v>
+      </c>
+      <c r="D1030" t="s" s="0">
+        <v>736</v>
+      </c>
+      <c r="E1030" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F1030" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="G1030" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="H1030" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I1030" t="s" s="0">
+        <v>1717</v>
+      </c>
+      <c r="J1030" t="s" s="0">
+        <v>1089</v>
+      </c>
+      <c r="K1030" s="0"/>
+      <c r="L1030" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="M1030" s="0"/>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="n" s="0">
+        <v>1030.0</v>
+      </c>
+      <c r="B1031" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1031" t="s" s="0">
+        <v>732</v>
+      </c>
+      <c r="D1031" t="s" s="0">
+        <v>733</v>
+      </c>
+      <c r="E1031" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="F1031" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="G1031" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1031" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1031" t="s" s="0">
+        <v>554</v>
+      </c>
+      <c r="J1031" t="s" s="0">
+        <v>747</v>
+      </c>
+      <c r="K1031" s="0"/>
+      <c r="L1031" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="M1031" s="0"/>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="n" s="0">
+        <v>1031.0</v>
+      </c>
+      <c r="B1032" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1032" t="s" s="0">
+        <v>735</v>
+      </c>
+      <c r="D1032" t="s" s="0">
+        <v>746</v>
+      </c>
+      <c r="E1032" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F1032" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="G1032" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1032" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I1032" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="J1032" t="s" s="0">
+        <v>1100</v>
+      </c>
+      <c r="K1032" s="0"/>
+      <c r="L1032" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="M1032" s="0"/>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="n" s="0">
+        <v>1032.0</v>
+      </c>
+      <c r="B1033" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1033" t="s" s="0">
+        <v>735</v>
+      </c>
+      <c r="D1033" t="s" s="0">
+        <v>742</v>
+      </c>
+      <c r="E1033" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="F1033" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="G1033" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1033" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1033" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="J1033" t="s" s="0">
+        <v>1508</v>
+      </c>
+      <c r="K1033" s="0"/>
+      <c r="L1033" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="M1033" s="0"/>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="n" s="0">
+        <v>1033.0</v>
+      </c>
+      <c r="B1034" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1034" t="s" s="0">
+        <v>735</v>
+      </c>
+      <c r="D1034" t="s" s="0">
+        <v>740</v>
+      </c>
+      <c r="E1034" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="F1034" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="G1034" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1034" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1034" t="s" s="0">
+        <v>730</v>
+      </c>
+      <c r="J1034" t="s" s="0">
+        <v>1087</v>
+      </c>
+      <c r="K1034" s="0"/>
+      <c r="L1034" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="M1034" s="0"/>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="n" s="0">
+        <v>1034.0</v>
+      </c>
+      <c r="B1035" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1035" t="s" s="0">
+        <v>735</v>
+      </c>
+      <c r="D1035" t="s" s="0">
+        <v>744</v>
+      </c>
+      <c r="E1035" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="F1035" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="G1035" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1035" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1035" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="J1035" t="s" s="0">
+        <v>1085</v>
+      </c>
+      <c r="K1035" s="0"/>
+      <c r="L1035" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="M1035" s="0"/>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="n" s="0">
+        <v>1035.0</v>
+      </c>
+      <c r="B1036" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1036" t="s" s="0">
+        <v>735</v>
+      </c>
+      <c r="D1036" t="s" s="0">
+        <v>1111</v>
+      </c>
+      <c r="E1036" t="s" s="0">
+        <v>1112</v>
+      </c>
+      <c r="F1036" t="s" s="0">
+        <v>1113</v>
+      </c>
+      <c r="G1036" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1036" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I1036" t="s" s="0">
+        <v>608</v>
+      </c>
+      <c r="J1036" t="s" s="0">
+        <v>1718</v>
+      </c>
+      <c r="K1036" s="0"/>
+      <c r="L1036" t="s" s="0">
+        <v>538</v>
+      </c>
+      <c r="M1036" s="0"/>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="n" s="0">
+        <v>1036.0</v>
+      </c>
+      <c r="B1037" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1037" t="s" s="0">
+        <v>1093</v>
+      </c>
+      <c r="D1037" t="s" s="0">
+        <v>1094</v>
+      </c>
+      <c r="E1037" t="s" s="0">
+        <v>1095</v>
+      </c>
+      <c r="F1037" t="s" s="0">
+        <v>1096</v>
+      </c>
+      <c r="G1037" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1037" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1037" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="J1037" t="s" s="0">
+        <v>1098</v>
+      </c>
+      <c r="K1037" s="0"/>
+      <c r="L1037" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="M1037" s="0"/>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="n" s="0">
+        <v>1037.0</v>
+      </c>
+      <c r="B1038" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1038" t="s" s="0">
+        <v>1093</v>
+      </c>
+      <c r="D1038" t="s" s="0">
+        <v>789</v>
+      </c>
+      <c r="E1038" t="s" s="0">
+        <v>790</v>
+      </c>
+      <c r="F1038" t="s" s="0">
+        <v>791</v>
+      </c>
+      <c r="G1038" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1038" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I1038" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="J1038" t="s" s="0">
+        <v>1352</v>
+      </c>
+      <c r="K1038" s="0"/>
+      <c r="L1038" t="s" s="0">
+        <v>334</v>
+      </c>
+      <c r="M1038" s="0"/>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="n" s="0">
+        <v>1038.0</v>
+      </c>
+      <c r="B1039" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1039" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="D1039" t="s" s="0">
+        <v>750</v>
+      </c>
+      <c r="E1039" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="F1039" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="G1039" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1039" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I1039" t="s" s="0">
+        <v>1346</v>
+      </c>
+      <c r="J1039" t="s" s="0">
+        <v>1333</v>
+      </c>
+      <c r="K1039" s="0"/>
+      <c r="L1039" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="M1039" s="0"/>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="n" s="0">
+        <v>1039.0</v>
+      </c>
+      <c r="B1040" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1040" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="D1040" t="s" s="0">
+        <v>758</v>
+      </c>
+      <c r="E1040" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="F1040" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="G1040" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1040" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1040" t="s" s="0">
+        <v>891</v>
+      </c>
+      <c r="J1040" t="s" s="0">
+        <v>1719</v>
+      </c>
+      <c r="K1040" s="0"/>
+      <c r="L1040" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="M1040" s="0"/>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="n" s="0">
+        <v>1040.0</v>
+      </c>
+      <c r="B1041" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1041" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="D1041" t="s" s="0">
+        <v>749</v>
+      </c>
+      <c r="E1041" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F1041" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G1041" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1041" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1041" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="J1041" t="s" s="0">
+        <v>726</v>
+      </c>
+      <c r="K1041" s="0"/>
+      <c r="L1041" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="M1041" s="0"/>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="n" s="0">
+        <v>1041.0</v>
+      </c>
+      <c r="B1042" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1042" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="D1042" t="s" s="0">
+        <v>800</v>
+      </c>
+      <c r="E1042" t="s" s="0">
+        <v>565</v>
+      </c>
+      <c r="F1042" t="s" s="0">
+        <v>566</v>
+      </c>
+      <c r="G1042" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1042" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I1042" t="s" s="0">
+        <v>429</v>
+      </c>
+      <c r="J1042" t="s" s="0">
+        <v>1097</v>
+      </c>
+      <c r="K1042" s="0"/>
+      <c r="L1042" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="M1042" s="0"/>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="n" s="0">
+        <v>1042.0</v>
+      </c>
+      <c r="B1043" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1043" t="s" s="0">
+        <v>1348</v>
+      </c>
+      <c r="D1043" t="s" s="0">
+        <v>778</v>
+      </c>
+      <c r="E1043" t="s" s="0">
+        <v>779</v>
+      </c>
+      <c r="F1043" t="s" s="0">
+        <v>780</v>
+      </c>
+      <c r="G1043" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1043" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I1043" t="s" s="0">
+        <v>494</v>
+      </c>
+      <c r="J1043" t="s" s="0">
+        <v>732</v>
+      </c>
+      <c r="K1043" s="0"/>
+      <c r="L1043" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="M1043" s="0"/>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="n" s="0">
+        <v>1043.0</v>
+      </c>
+      <c r="B1044" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1044" t="s" s="0">
+        <v>743</v>
+      </c>
+      <c r="D1044" t="s" s="0">
+        <v>753</v>
+      </c>
+      <c r="E1044" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F1044" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G1044" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="H1044" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I1044" t="s" s="0">
+        <v>1720</v>
+      </c>
+      <c r="J1044" t="s" s="0">
+        <v>755</v>
+      </c>
+      <c r="K1044" s="0"/>
+      <c r="L1044" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="M1044" s="0"/>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="n" s="0">
+        <v>1044.0</v>
+      </c>
+      <c r="B1045" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1045" t="s" s="0">
+        <v>743</v>
+      </c>
+      <c r="D1045" t="s" s="0">
+        <v>1349</v>
+      </c>
+      <c r="E1045" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="F1045" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="G1045" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1045" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1045" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="J1045" t="s" s="0">
+        <v>759</v>
+      </c>
+      <c r="K1045" s="0"/>
+      <c r="L1045" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="M1045" s="0"/>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="n" s="0">
+        <v>1045.0</v>
+      </c>
+      <c r="B1046" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1046" t="s" s="0">
+        <v>743</v>
+      </c>
+      <c r="D1046" t="s" s="0">
+        <v>784</v>
+      </c>
+      <c r="E1046" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="F1046" t="s" s="0">
+        <v>785</v>
+      </c>
+      <c r="G1046" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1046" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I1046" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="J1046" t="s" s="0">
+        <v>761</v>
+      </c>
+      <c r="K1046" s="0"/>
+      <c r="L1046" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M1046" s="0"/>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="n" s="0">
+        <v>1046.0</v>
+      </c>
+      <c r="B1047" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1047" t="s" s="0">
+        <v>743</v>
+      </c>
+      <c r="D1047" t="s" s="0">
+        <v>814</v>
+      </c>
+      <c r="E1047" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="F1047" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="G1047" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1047" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I1047" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="J1047" t="s" s="0">
+        <v>743</v>
+      </c>
+      <c r="K1047" s="0"/>
+      <c r="L1047" t="s" s="0">
+        <v>674</v>
+      </c>
+      <c r="M1047" s="0"/>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="n" s="0">
+        <v>1047.0</v>
+      </c>
+      <c r="B1048" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1048" t="s" s="0">
+        <v>738</v>
+      </c>
+      <c r="D1048" t="s" s="0">
+        <v>1513</v>
+      </c>
+      <c r="E1048" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F1048" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G1048" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1048" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1048" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="J1048" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="K1048" s="0"/>
+      <c r="L1048" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="M1048" s="0"/>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="n" s="0">
+        <v>1048.0</v>
+      </c>
+      <c r="B1049" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1049" t="s" s="0">
+        <v>745</v>
+      </c>
+      <c r="D1049" t="s" s="0">
+        <v>1351</v>
+      </c>
+      <c r="E1049" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="F1049" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="G1049" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1049" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1049" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="J1049" t="s" s="0">
+        <v>1721</v>
+      </c>
+      <c r="K1049" s="0"/>
+      <c r="L1049" t="s" s="0">
+        <v>1541</v>
+      </c>
+      <c r="M1049" s="0"/>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="n" s="0">
+        <v>1049.0</v>
+      </c>
+      <c r="B1050" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1050" t="s" s="0">
+        <v>745</v>
+      </c>
+      <c r="D1050" t="s" s="0">
+        <v>760</v>
+      </c>
+      <c r="E1050" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="F1050" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="G1050" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1050" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1050" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="J1050" t="s" s="0">
+        <v>1722</v>
+      </c>
+      <c r="K1050" s="0"/>
+      <c r="L1050" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="M1050" s="0"/>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="n" s="0">
+        <v>1050.0</v>
+      </c>
+      <c r="B1051" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1051" t="s" s="0">
+        <v>769</v>
+      </c>
+      <c r="D1051" t="s" s="0">
+        <v>770</v>
+      </c>
+      <c r="E1051" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="F1051" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G1051" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H1051" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I1051" t="s" s="0">
+        <v>1514</v>
+      </c>
+      <c r="J1051" t="s" s="0">
+        <v>1723</v>
+      </c>
+      <c r="K1051" s="0"/>
+      <c r="L1051" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M1051" s="0"/>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="n" s="0">
+        <v>1051.0</v>
+      </c>
+      <c r="B1052" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1052" t="s" s="0">
+        <v>773</v>
+      </c>
+      <c r="D1052" t="s" s="0">
+        <v>774</v>
+      </c>
+      <c r="E1052" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="F1052" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="G1052" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="H1052" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="I1052" t="s" s="0">
+        <v>1430</v>
+      </c>
+      <c r="J1052" t="s" s="0">
+        <v>1724</v>
+      </c>
+      <c r="K1052" s="0"/>
+      <c r="L1052" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="M1052" s="0"/>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="n" s="0">
+        <v>1052.0</v>
+      </c>
+      <c r="B1053" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1053" t="s" s="0">
+        <v>1107</v>
+      </c>
+      <c r="D1053" t="s" s="0">
+        <v>1108</v>
+      </c>
+      <c r="E1053" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="F1053" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="G1053" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="H1053" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1053" t="s" s="0">
+        <v>1477</v>
+      </c>
+      <c r="J1053" t="s" s="0">
+        <v>1725</v>
+      </c>
+      <c r="K1053" s="0"/>
+      <c r="L1053" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="M1053" s="0"/>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="n" s="0">
+        <v>1053.0</v>
+      </c>
+      <c r="B1054" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="C1054" t="s" s="0">
+        <v>822</v>
+      </c>
+      <c r="D1054" t="s" s="0">
+        <v>823</v>
+      </c>
+      <c r="E1054" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="F1054" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="G1054" t="s" s="0">
+        <v>560</v>
+      </c>
+      <c r="H1054" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I1054" t="s" s="0">
+        <v>1726</v>
+      </c>
+      <c r="J1054" t="s" s="0">
+        <v>805</v>
+      </c>
+      <c r="K1054" s="0"/>
+      <c r="L1054" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="M1054" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/WAW_Arrivals.xlsx
+++ b/DataBase/WAW_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10541" uniqueCount="1727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11571" uniqueCount="1790">
   <si>
     <t>NUMBER</t>
   </si>
@@ -5193,6 +5193,195 @@
   </si>
   <si>
     <t>(PH-BXK)</t>
+  </si>
+  <si>
+    <t>Friday, Jan 13</t>
+  </si>
+  <si>
+    <t>(D-AEAS)</t>
+  </si>
+  <si>
+    <t>5:53 AM</t>
+  </si>
+  <si>
+    <t>(N326UP)</t>
+  </si>
+  <si>
+    <t>6:03 AM</t>
+  </si>
+  <si>
+    <t>SAR132</t>
+  </si>
+  <si>
+    <t>SF34</t>
+  </si>
+  <si>
+    <t>(SP-KPR)</t>
+  </si>
+  <si>
+    <t>5:46 AM</t>
+  </si>
+  <si>
+    <t>6:34 AM</t>
+  </si>
+  <si>
+    <t>7:57 AM</t>
+  </si>
+  <si>
+    <t>(TC-JVD)</t>
+  </si>
+  <si>
+    <t>(OH-LKG)</t>
+  </si>
+  <si>
+    <t>7:56 AM</t>
+  </si>
+  <si>
+    <t>(D-AIZO)</t>
+  </si>
+  <si>
+    <t>8:34 AM</t>
+  </si>
+  <si>
+    <t>LO6506</t>
+  </si>
+  <si>
+    <t>Cancun</t>
+  </si>
+  <si>
+    <t>(CUN)</t>
+  </si>
+  <si>
+    <t>9:52 AM</t>
+  </si>
+  <si>
+    <t>9:22 AM</t>
+  </si>
+  <si>
+    <t>(OE-LWK)</t>
+  </si>
+  <si>
+    <t>9:11 AM</t>
+  </si>
+  <si>
+    <t>9:20 AM</t>
+  </si>
+  <si>
+    <t>(SX-NAG)</t>
+  </si>
+  <si>
+    <t>10:21 AM</t>
+  </si>
+  <si>
+    <t>10:49 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norwegian (Unicef Livery) </t>
+  </si>
+  <si>
+    <t>(LN-NIO)</t>
+  </si>
+  <si>
+    <t>11:18 AM</t>
+  </si>
+  <si>
+    <t>(A6-EGM)</t>
+  </si>
+  <si>
+    <t>(G-NEOY)</t>
+  </si>
+  <si>
+    <t>11:00 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -45 minutes</t>
+  </si>
+  <si>
+    <t>(HA-LXE)</t>
+  </si>
+  <si>
+    <t>11:32 AM</t>
+  </si>
+  <si>
+    <t>(PH-BCE)</t>
+  </si>
+  <si>
+    <t>(CS-TJF)</t>
+  </si>
+  <si>
+    <t>(A7-BCS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air France (Skyteam Livery) </t>
+  </si>
+  <si>
+    <t>(F-HEPI)</t>
+  </si>
+  <si>
+    <t>3Z7213</t>
+  </si>
+  <si>
+    <t>1:19 PM</t>
+  </si>
+  <si>
+    <t>1 hours, 9 minutes</t>
+  </si>
+  <si>
+    <t>(OH-LKH)</t>
+  </si>
+  <si>
+    <t>12:24 PM</t>
+  </si>
+  <si>
+    <t>(BMA)</t>
+  </si>
+  <si>
+    <t>(CS-LTE)</t>
+  </si>
+  <si>
+    <t>LO9002</t>
+  </si>
+  <si>
+    <t>12:51 PM</t>
+  </si>
+  <si>
+    <t>1:13 PM</t>
+  </si>
+  <si>
+    <t>1:06 PM</t>
+  </si>
+  <si>
+    <t>SAR900</t>
+  </si>
+  <si>
+    <t>(SP-KPV)</t>
+  </si>
+  <si>
+    <t>1:07 PM</t>
+  </si>
+  <si>
+    <t>1:23 PM</t>
+  </si>
+  <si>
+    <t>1:45 PM</t>
+  </si>
+  <si>
+    <t>LO6274</t>
+  </si>
+  <si>
+    <t>Kayseri</t>
+  </si>
+  <si>
+    <t>(ASR)</t>
+  </si>
+  <si>
+    <t>2:09 PM</t>
+  </si>
+  <si>
+    <t>1:49 PM</t>
+  </si>
+  <si>
+    <t>(D-AIBE)</t>
   </si>
 </sst>
 </file>
@@ -5237,7 +5426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M1054"/>
+  <dimension ref="A1:M1157"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -44239,6 +44428,3817 @@
       </c>
       <c r="M1054" s="0"/>
     </row>
+    <row r="1055">
+      <c r="A1055" t="n" s="0">
+        <v>1054.0</v>
+      </c>
+      <c r="B1055" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1055" t="s" s="0">
+        <v>1622</v>
+      </c>
+      <c r="D1055" t="s" s="0">
+        <v>1127</v>
+      </c>
+      <c r="E1055" t="s" s="0">
+        <v>1128</v>
+      </c>
+      <c r="F1055" t="s" s="0">
+        <v>1129</v>
+      </c>
+      <c r="G1055" t="s" s="0">
+        <v>1130</v>
+      </c>
+      <c r="H1055" t="s" s="0">
+        <v>1131</v>
+      </c>
+      <c r="I1055" t="s" s="0">
+        <v>1728</v>
+      </c>
+      <c r="J1055" t="s" s="0">
+        <v>1388</v>
+      </c>
+      <c r="K1055" s="0"/>
+      <c r="L1055" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="M1055" s="0"/>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="n" s="0">
+        <v>1055.0</v>
+      </c>
+      <c r="B1056" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1056" t="s" s="0">
+        <v>1729</v>
+      </c>
+      <c r="D1056" t="s" s="0">
+        <v>1134</v>
+      </c>
+      <c r="E1056" t="s" s="0">
+        <v>1135</v>
+      </c>
+      <c r="F1056" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="G1056" t="s" s="0">
+        <v>1137</v>
+      </c>
+      <c r="H1056" t="s" s="0">
+        <v>1383</v>
+      </c>
+      <c r="I1056" t="s" s="0">
+        <v>1730</v>
+      </c>
+      <c r="J1056" t="s" s="0">
+        <v>1392</v>
+      </c>
+      <c r="K1056" s="0"/>
+      <c r="L1056" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="M1056" s="0"/>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="n" s="0">
+        <v>1056.0</v>
+      </c>
+      <c r="B1057" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1057" t="s" s="0">
+        <v>1731</v>
+      </c>
+      <c r="D1057" t="s" s="0">
+        <v>1732</v>
+      </c>
+      <c r="E1057" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="F1057" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="G1057" t="s" s="0">
+        <v>1603</v>
+      </c>
+      <c r="H1057" t="s" s="0">
+        <v>1733</v>
+      </c>
+      <c r="I1057" t="s" s="0">
+        <v>1734</v>
+      </c>
+      <c r="J1057" t="s" s="0">
+        <v>828</v>
+      </c>
+      <c r="K1057" s="0"/>
+      <c r="L1057" t="s" s="0">
+        <v>677</v>
+      </c>
+      <c r="M1057" s="0"/>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="n" s="0">
+        <v>1057.0</v>
+      </c>
+      <c r="B1058" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1058" t="s" s="0">
+        <v>828</v>
+      </c>
+      <c r="D1058" t="s" s="0">
+        <v>829</v>
+      </c>
+      <c r="E1058" t="s" s="0">
+        <v>830</v>
+      </c>
+      <c r="F1058" t="s" s="0">
+        <v>831</v>
+      </c>
+      <c r="G1058" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1058" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I1058" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="J1058" t="s" s="0">
+        <v>1735</v>
+      </c>
+      <c r="K1058" s="0"/>
+      <c r="L1058" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="M1058" s="0"/>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="n" s="0">
+        <v>1058.0</v>
+      </c>
+      <c r="B1059" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1059" t="s" s="0">
+        <v>850</v>
+      </c>
+      <c r="D1059" t="s" s="0">
+        <v>1148</v>
+      </c>
+      <c r="E1059" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F1059" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1059" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1059" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I1059" t="s" s="0">
+        <v>751</v>
+      </c>
+      <c r="J1059" t="s" s="0">
+        <v>856</v>
+      </c>
+      <c r="K1059" s="0"/>
+      <c r="L1059" t="s" s="0">
+        <v>334</v>
+      </c>
+      <c r="M1059" s="0"/>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="n" s="0">
+        <v>1059.0</v>
+      </c>
+      <c r="B1060" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1060" t="s" s="0">
+        <v>1150</v>
+      </c>
+      <c r="D1060" t="s" s="0">
+        <v>1152</v>
+      </c>
+      <c r="E1060" t="s" s="0">
+        <v>498</v>
+      </c>
+      <c r="F1060" t="s" s="0">
+        <v>499</v>
+      </c>
+      <c r="G1060" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1060" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1060" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="J1060" t="s" s="0">
+        <v>1394</v>
+      </c>
+      <c r="K1060" s="0"/>
+      <c r="L1060" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="M1060" s="0"/>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="n" s="0">
+        <v>1060.0</v>
+      </c>
+      <c r="B1061" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1061" t="s" s="0">
+        <v>1150</v>
+      </c>
+      <c r="D1061" t="s" s="0">
+        <v>844</v>
+      </c>
+      <c r="E1061" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="F1061" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="G1061" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="H1061" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1061" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="J1061" t="s" s="0">
+        <v>1163</v>
+      </c>
+      <c r="K1061" s="0"/>
+      <c r="L1061" t="s" s="0">
+        <v>538</v>
+      </c>
+      <c r="M1061" s="0"/>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="n" s="0">
+        <v>1061.0</v>
+      </c>
+      <c r="B1062" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1062" t="s" s="0">
+        <v>1150</v>
+      </c>
+      <c r="D1062" t="s" s="0">
+        <v>846</v>
+      </c>
+      <c r="E1062" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="F1062" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="G1062" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1062" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1062" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="J1062" t="s" s="0">
+        <v>842</v>
+      </c>
+      <c r="K1062" s="0"/>
+      <c r="L1062" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="M1062" s="0"/>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="n" s="0">
+        <v>1062.0</v>
+      </c>
+      <c r="B1063" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1063" t="s" s="0">
+        <v>1150</v>
+      </c>
+      <c r="D1063" t="s" s="0">
+        <v>839</v>
+      </c>
+      <c r="E1063" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F1063" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G1063" t="s" s="0">
+        <v>840</v>
+      </c>
+      <c r="H1063" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I1063" t="s" s="0">
+        <v>841</v>
+      </c>
+      <c r="J1063" t="s" s="0">
+        <v>1736</v>
+      </c>
+      <c r="K1063" s="0"/>
+      <c r="L1063" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="M1063" s="0"/>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="n" s="0">
+        <v>1063.0</v>
+      </c>
+      <c r="B1064" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1064" t="s" s="0">
+        <v>843</v>
+      </c>
+      <c r="D1064" t="s" s="0">
+        <v>1155</v>
+      </c>
+      <c r="E1064" t="s" s="0">
+        <v>454</v>
+      </c>
+      <c r="F1064" t="s" s="0">
+        <v>455</v>
+      </c>
+      <c r="G1064" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1064" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1064" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="J1064" t="s" s="0">
+        <v>1162</v>
+      </c>
+      <c r="K1064" s="0"/>
+      <c r="L1064" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="M1064" s="0"/>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="n" s="0">
+        <v>1064.0</v>
+      </c>
+      <c r="B1065" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1065" t="s" s="0">
+        <v>848</v>
+      </c>
+      <c r="D1065" t="s" s="0">
+        <v>849</v>
+      </c>
+      <c r="E1065" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="F1065" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="G1065" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1065" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1065" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="J1065" t="s" s="0">
+        <v>1525</v>
+      </c>
+      <c r="K1065" s="0"/>
+      <c r="L1065" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="M1065" s="0"/>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="n" s="0">
+        <v>1065.0</v>
+      </c>
+      <c r="B1066" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1066" t="s" s="0">
+        <v>848</v>
+      </c>
+      <c r="D1066" t="s" s="0">
+        <v>1161</v>
+      </c>
+      <c r="E1066" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="F1066" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="G1066" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1066" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1066" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="J1066" t="s" s="0">
+        <v>1524</v>
+      </c>
+      <c r="K1066" s="0"/>
+      <c r="L1066" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="M1066" s="0"/>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="n" s="0">
+        <v>1066.0</v>
+      </c>
+      <c r="B1067" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1067" t="s" s="0">
+        <v>848</v>
+      </c>
+      <c r="D1067" t="s" s="0">
+        <v>1164</v>
+      </c>
+      <c r="E1067" t="s" s="0">
+        <v>517</v>
+      </c>
+      <c r="F1067" t="s" s="0">
+        <v>518</v>
+      </c>
+      <c r="G1067" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1067" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1067" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="J1067" t="s" s="0">
+        <v>833</v>
+      </c>
+      <c r="K1067" s="0"/>
+      <c r="L1067" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="M1067" s="0"/>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="n" s="0">
+        <v>1067.0</v>
+      </c>
+      <c r="B1068" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1068" t="s" s="0">
+        <v>848</v>
+      </c>
+      <c r="D1068" t="s" s="0">
+        <v>851</v>
+      </c>
+      <c r="E1068" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F1068" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G1068" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1068" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1068" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="J1068" t="s" s="0">
+        <v>852</v>
+      </c>
+      <c r="K1068" s="0"/>
+      <c r="L1068" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="M1068" s="0"/>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="n" s="0">
+        <v>1068.0</v>
+      </c>
+      <c r="B1069" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1069" t="s" s="0">
+        <v>1154</v>
+      </c>
+      <c r="D1069" t="s" s="0">
+        <v>1166</v>
+      </c>
+      <c r="E1069" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="F1069" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="G1069" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1069" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1069" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="J1069" t="s" s="0">
+        <v>843</v>
+      </c>
+      <c r="K1069" s="0"/>
+      <c r="L1069" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="M1069" s="0"/>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="n" s="0">
+        <v>1069.0</v>
+      </c>
+      <c r="B1070" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1070" t="s" s="0">
+        <v>1154</v>
+      </c>
+      <c r="D1070" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="E1070" t="s" s="0">
+        <v>532</v>
+      </c>
+      <c r="F1070" t="s" s="0">
+        <v>533</v>
+      </c>
+      <c r="G1070" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1070" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1070" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="J1070" t="s" s="0">
+        <v>1393</v>
+      </c>
+      <c r="K1070" s="0"/>
+      <c r="L1070" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="M1070" s="0"/>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="n" s="0">
+        <v>1070.0</v>
+      </c>
+      <c r="B1071" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1071" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1071" t="s" s="0">
+        <v>1169</v>
+      </c>
+      <c r="E1071" t="s" s="0">
+        <v>835</v>
+      </c>
+      <c r="F1071" t="s" s="0">
+        <v>836</v>
+      </c>
+      <c r="G1071" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1071" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I1071" t="s" s="0">
+        <v>441</v>
+      </c>
+      <c r="J1071" t="s" s="0">
+        <v>1401</v>
+      </c>
+      <c r="K1071" s="0"/>
+      <c r="L1071" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="M1071" s="0"/>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="n" s="0">
+        <v>1071.0</v>
+      </c>
+      <c r="B1072" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1072" t="s" s="0">
+        <v>1531</v>
+      </c>
+      <c r="D1072" t="s" s="0">
+        <v>1643</v>
+      </c>
+      <c r="E1072" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="F1072" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="G1072" t="s" s="0">
+        <v>919</v>
+      </c>
+      <c r="H1072" t="s" s="0">
+        <v>920</v>
+      </c>
+      <c r="I1072" t="s" s="0">
+        <v>1644</v>
+      </c>
+      <c r="J1072" t="s" s="0">
+        <v>1737</v>
+      </c>
+      <c r="K1072" s="0"/>
+      <c r="L1072" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="M1072" s="0"/>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="n" s="0">
+        <v>1072.0</v>
+      </c>
+      <c r="B1073" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1073" t="s" s="0">
+        <v>858</v>
+      </c>
+      <c r="D1073" t="s" s="0">
+        <v>859</v>
+      </c>
+      <c r="E1073" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F1073" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G1073" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="H1073" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I1073" t="s" s="0">
+        <v>1738</v>
+      </c>
+      <c r="J1073" t="s" s="0">
+        <v>1403</v>
+      </c>
+      <c r="K1073" s="0"/>
+      <c r="L1073" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="M1073" s="0"/>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="n" s="0">
+        <v>1073.0</v>
+      </c>
+      <c r="B1074" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1074" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D1074" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E1074" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F1074" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G1074" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H1074" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1074" t="s" s="0">
+        <v>1739</v>
+      </c>
+      <c r="J1074" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="K1074" s="0"/>
+      <c r="L1074" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="M1074" s="0"/>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="n" s="0">
+        <v>1074.0</v>
+      </c>
+      <c r="B1075" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1075" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D1075" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E1075" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F1075" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G1075" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="H1075" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I1075" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="J1075" t="s" s="0">
+        <v>1528</v>
+      </c>
+      <c r="K1075" s="0"/>
+      <c r="L1075" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="M1075" s="0"/>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="n" s="0">
+        <v>1075.0</v>
+      </c>
+      <c r="B1076" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1076" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D1076" t="s" s="0">
+        <v>1177</v>
+      </c>
+      <c r="E1076" t="s" s="0">
+        <v>393</v>
+      </c>
+      <c r="F1076" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="G1076" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1076" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I1076" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="J1076" t="s" s="0">
+        <v>1740</v>
+      </c>
+      <c r="K1076" s="0"/>
+      <c r="L1076" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="M1076" s="0"/>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="n" s="0">
+        <v>1076.0</v>
+      </c>
+      <c r="B1077" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1077" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D1077" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="E1077" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="F1077" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="G1077" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1077" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1077" t="s" s="0">
+        <v>1504</v>
+      </c>
+      <c r="J1077" t="s" s="0">
+        <v>1176</v>
+      </c>
+      <c r="K1077" s="0"/>
+      <c r="L1077" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="M1077" s="0"/>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="n" s="0">
+        <v>1077.0</v>
+      </c>
+      <c r="B1078" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1078" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D1078" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="E1078" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F1078" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="G1078" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1078" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1078" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="J1078" t="s" s="0">
+        <v>1533</v>
+      </c>
+      <c r="K1078" s="0"/>
+      <c r="L1078" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="M1078" s="0"/>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="n" s="0">
+        <v>1078.0</v>
+      </c>
+      <c r="B1079" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1079" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D1079" t="s" s="0">
+        <v>1180</v>
+      </c>
+      <c r="E1079" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="F1079" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="G1079" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1079" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1079" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="J1079" t="s" s="0">
+        <v>1641</v>
+      </c>
+      <c r="K1079" s="0"/>
+      <c r="L1079" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="M1079" s="0"/>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="n" s="0">
+        <v>1079.0</v>
+      </c>
+      <c r="B1080" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1080" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="D1080" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="E1080" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="F1080" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G1080" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="H1080" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I1080" t="s" s="0">
+        <v>1741</v>
+      </c>
+      <c r="J1080" t="s" s="0">
+        <v>873</v>
+      </c>
+      <c r="K1080" s="0"/>
+      <c r="L1080" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M1080" s="0"/>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="n" s="0">
+        <v>1080.0</v>
+      </c>
+      <c r="B1081" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1081" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="D1081" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="E1081" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="F1081" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="G1081" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="H1081" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I1081" t="s" s="0">
+        <v>1429</v>
+      </c>
+      <c r="J1081" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="K1081" s="0"/>
+      <c r="L1081" t="s" s="0">
+        <v>1611</v>
+      </c>
+      <c r="M1081" s="0"/>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="n" s="0">
+        <v>1081.0</v>
+      </c>
+      <c r="B1082" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1082" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="D1082" t="s" s="0">
+        <v>872</v>
+      </c>
+      <c r="E1082" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="F1082" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="G1082" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="H1082" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1082" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="J1082" t="s" s="0">
+        <v>1635</v>
+      </c>
+      <c r="K1082" s="0"/>
+      <c r="L1082" t="s" s="0">
+        <v>634</v>
+      </c>
+      <c r="M1082" s="0"/>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="n" s="0">
+        <v>1082.0</v>
+      </c>
+      <c r="B1083" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1083" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="D1083" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="E1083" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="F1083" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="G1083" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1083" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1083" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="J1083" t="s" s="0">
+        <v>1645</v>
+      </c>
+      <c r="K1083" s="0"/>
+      <c r="L1083" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="M1083" s="0"/>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="n" s="0">
+        <v>1083.0</v>
+      </c>
+      <c r="B1084" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1084" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="D1084" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="E1084" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="F1084" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G1084" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1084" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1084" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="J1084" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="K1084" s="0"/>
+      <c r="L1084" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="M1084" s="0"/>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="n" s="0">
+        <v>1084.0</v>
+      </c>
+      <c r="B1085" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1085" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="D1085" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="E1085" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="F1085" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="G1085" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1085" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I1085" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="J1085" t="s" s="0">
+        <v>1742</v>
+      </c>
+      <c r="K1085" s="0"/>
+      <c r="L1085" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="M1085" s="0"/>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="n" s="0">
+        <v>1085.0</v>
+      </c>
+      <c r="B1086" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1086" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="D1086" t="s" s="0">
+        <v>1743</v>
+      </c>
+      <c r="E1086" t="s" s="0">
+        <v>1744</v>
+      </c>
+      <c r="F1086" t="s" s="0">
+        <v>1745</v>
+      </c>
+      <c r="G1086" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1086" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="I1086" t="s" s="0">
+        <v>363</v>
+      </c>
+      <c r="J1086" t="s" s="0">
+        <v>1746</v>
+      </c>
+      <c r="K1086" s="0"/>
+      <c r="L1086" t="s" s="0">
+        <v>604</v>
+      </c>
+      <c r="M1086" s="0"/>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="n" s="0">
+        <v>1086.0</v>
+      </c>
+      <c r="B1087" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1087" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="D1087" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="E1087" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F1087" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G1087" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1087" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1087" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="J1087" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="K1087" s="0"/>
+      <c r="L1087" t="s" s="0">
+        <v>889</v>
+      </c>
+      <c r="M1087" s="0"/>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="n" s="0">
+        <v>1087.0</v>
+      </c>
+      <c r="B1088" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1088" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="D1088" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="E1088" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="F1088" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="G1088" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1088" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1088" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="J1088" t="s" s="0">
+        <v>1747</v>
+      </c>
+      <c r="K1088" s="0"/>
+      <c r="L1088" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M1088" s="0"/>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="n" s="0">
+        <v>1088.0</v>
+      </c>
+      <c r="B1089" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1089" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="D1089" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="E1089" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="F1089" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="G1089" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="H1089" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1089" t="s" s="0">
+        <v>1748</v>
+      </c>
+      <c r="J1089" t="s" s="0">
+        <v>1749</v>
+      </c>
+      <c r="K1089" s="0"/>
+      <c r="L1089" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="M1089" s="0"/>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="n" s="0">
+        <v>1089.0</v>
+      </c>
+      <c r="B1090" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1090" t="s" s="0">
+        <v>877</v>
+      </c>
+      <c r="D1090" t="s" s="0">
+        <v>1200</v>
+      </c>
+      <c r="E1090" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="F1090" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="G1090" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="H1090" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1090" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="J1090" t="s" s="0">
+        <v>1194</v>
+      </c>
+      <c r="K1090" s="0"/>
+      <c r="L1090" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="M1090" s="0"/>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="n" s="0">
+        <v>1090.0</v>
+      </c>
+      <c r="B1091" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1091" t="s" s="0">
+        <v>877</v>
+      </c>
+      <c r="D1091" t="s" s="0">
+        <v>878</v>
+      </c>
+      <c r="E1091" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="F1091" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="G1091" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1091" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1091" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="J1091" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="K1091" s="0"/>
+      <c r="L1091" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="M1091" s="0"/>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="n" s="0">
+        <v>1091.0</v>
+      </c>
+      <c r="B1092" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1092" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="D1092" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="E1092" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="F1092" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="G1092" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1092" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1092" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="J1092" t="s" s="0">
+        <v>1750</v>
+      </c>
+      <c r="K1092" s="0"/>
+      <c r="L1092" t="s" s="0">
+        <v>889</v>
+      </c>
+      <c r="M1092" s="0"/>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="n" s="0">
+        <v>1092.0</v>
+      </c>
+      <c r="B1093" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1093" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="D1093" t="s" s="0">
+        <v>880</v>
+      </c>
+      <c r="E1093" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F1093" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G1093" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1093" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1093" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="J1093" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="K1093" s="0"/>
+      <c r="L1093" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="M1093" s="0"/>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="n" s="0">
+        <v>1093.0</v>
+      </c>
+      <c r="B1094" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1094" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="D1094" t="s" s="0">
+        <v>1203</v>
+      </c>
+      <c r="E1094" t="s" s="0">
+        <v>1204</v>
+      </c>
+      <c r="F1094" t="s" s="0">
+        <v>1205</v>
+      </c>
+      <c r="G1094" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="H1094" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1094" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="J1094" t="s" s="0">
+        <v>1407</v>
+      </c>
+      <c r="K1094" s="0"/>
+      <c r="L1094" t="s" s="0">
+        <v>1541</v>
+      </c>
+      <c r="M1094" s="0"/>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="n" s="0">
+        <v>1094.0</v>
+      </c>
+      <c r="B1095" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1095" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="D1095" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="E1095" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="F1095" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="G1095" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="H1095" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1095" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="J1095" t="s" s="0">
+        <v>1410</v>
+      </c>
+      <c r="K1095" s="0"/>
+      <c r="L1095" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="M1095" s="0"/>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="n" s="0">
+        <v>1095.0</v>
+      </c>
+      <c r="B1096" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1096" t="s" s="0">
+        <v>1408</v>
+      </c>
+      <c r="D1096" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="E1096" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="F1096" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="G1096" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1096" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I1096" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="J1096" t="s" s="0">
+        <v>1201</v>
+      </c>
+      <c r="K1096" s="0"/>
+      <c r="L1096" t="s" s="0">
+        <v>569</v>
+      </c>
+      <c r="M1096" s="0"/>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="n" s="0">
+        <v>1096.0</v>
+      </c>
+      <c r="B1097" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1097" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="D1097" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="E1097" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F1097" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="G1097" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1097" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I1097" t="s" s="0">
+        <v>433</v>
+      </c>
+      <c r="J1097" t="s" s="0">
+        <v>1409</v>
+      </c>
+      <c r="K1097" s="0"/>
+      <c r="L1097" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="M1097" s="0"/>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="n" s="0">
+        <v>1097.0</v>
+      </c>
+      <c r="B1098" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1098" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="D1098" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="E1098" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="F1098" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="G1098" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1098" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1098" t="s" s="0">
+        <v>891</v>
+      </c>
+      <c r="J1098" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="K1098" s="0"/>
+      <c r="L1098" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="M1098" s="0"/>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="n" s="0">
+        <v>1098.0</v>
+      </c>
+      <c r="B1099" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1099" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="D1099" t="s" s="0">
+        <v>884</v>
+      </c>
+      <c r="E1099" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="F1099" t="s" s="0">
+        <v>885</v>
+      </c>
+      <c r="G1099" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1099" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I1099" t="s" s="0">
+        <v>1218</v>
+      </c>
+      <c r="J1099" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="K1099" s="0"/>
+      <c r="L1099" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="M1099" s="0"/>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="n" s="0">
+        <v>1099.0</v>
+      </c>
+      <c r="B1100" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1100" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="D1100" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="E1100" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="F1100" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="G1100" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H1100" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I1100" t="s" s="0">
+        <v>1751</v>
+      </c>
+      <c r="J1100" t="s" s="0">
+        <v>1752</v>
+      </c>
+      <c r="K1100" s="0"/>
+      <c r="L1100" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="M1100" s="0"/>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="n" s="0">
+        <v>1100.0</v>
+      </c>
+      <c r="B1101" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1101" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="D1101" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="E1101" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="F1101" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="G1101" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1101" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1101" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="J1101" t="s" s="0">
+        <v>1539</v>
+      </c>
+      <c r="K1101" s="0"/>
+      <c r="L1101" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="M1101" s="0"/>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="n" s="0">
+        <v>1101.0</v>
+      </c>
+      <c r="B1102" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1102" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="D1102" t="s" s="0">
+        <v>890</v>
+      </c>
+      <c r="E1102" t="s" s="0">
+        <v>450</v>
+      </c>
+      <c r="F1102" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="G1102" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1102" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1102" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="J1102" t="s" s="0">
+        <v>1210</v>
+      </c>
+      <c r="K1102" s="0"/>
+      <c r="L1102" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="M1102" s="0"/>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="n" s="0">
+        <v>1102.0</v>
+      </c>
+      <c r="B1103" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1103" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="D1103" t="s" s="0">
+        <v>893</v>
+      </c>
+      <c r="E1103" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="F1103" t="s" s="0">
+        <v>894</v>
+      </c>
+      <c r="G1103" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1103" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I1103" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="J1103" t="s" s="0">
+        <v>1753</v>
+      </c>
+      <c r="K1103" s="0"/>
+      <c r="L1103" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="M1103" s="0"/>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="n" s="0">
+        <v>1103.0</v>
+      </c>
+      <c r="B1104" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1104" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="D1104" t="s" s="0">
+        <v>1215</v>
+      </c>
+      <c r="E1104" t="s" s="0">
+        <v>1216</v>
+      </c>
+      <c r="F1104" t="s" s="0">
+        <v>1217</v>
+      </c>
+      <c r="G1104" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1104" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I1104" t="s" s="0">
+        <v>494</v>
+      </c>
+      <c r="J1104" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="K1104" s="0"/>
+      <c r="L1104" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="M1104" s="0"/>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="n" s="0">
+        <v>1104.0</v>
+      </c>
+      <c r="B1105" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1105" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="D1105" t="s" s="0">
+        <v>655</v>
+      </c>
+      <c r="E1105" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="F1105" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="G1105" t="s" s="0">
+        <v>1754</v>
+      </c>
+      <c r="H1105" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I1105" t="s" s="0">
+        <v>1755</v>
+      </c>
+      <c r="J1105" t="s" s="0">
+        <v>1756</v>
+      </c>
+      <c r="K1105" s="0"/>
+      <c r="L1105" t="s" s="0">
+        <v>806</v>
+      </c>
+      <c r="M1105" s="0"/>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="n" s="0">
+        <v>1105.0</v>
+      </c>
+      <c r="B1106" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1106" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="D1106" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="E1106" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="F1106" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="G1106" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="H1106" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="I1106" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="J1106" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="K1106" s="0"/>
+      <c r="L1106" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="M1106" s="0"/>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="n" s="0">
+        <v>1106.0</v>
+      </c>
+      <c r="B1107" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1107" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="D1107" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="E1107" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="F1107" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="G1107" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1107" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1107" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="J1107" t="s" s="0">
+        <v>1422</v>
+      </c>
+      <c r="K1107" s="0"/>
+      <c r="L1107" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="M1107" s="0"/>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="n" s="0">
+        <v>1107.0</v>
+      </c>
+      <c r="B1108" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1108" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="D1108" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="E1108" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F1108" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="G1108" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="H1108" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I1108" t="s" s="0">
+        <v>1758</v>
+      </c>
+      <c r="J1108" t="s" s="0">
+        <v>908</v>
+      </c>
+      <c r="K1108" s="0"/>
+      <c r="L1108" t="s" s="0">
+        <v>684</v>
+      </c>
+      <c r="M1108" s="0"/>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="n" s="0">
+        <v>1108.0</v>
+      </c>
+      <c r="B1109" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1109" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="D1109" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="E1109" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="F1109" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="G1109" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="H1109" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="I1109" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="J1109" t="s" s="0">
+        <v>1759</v>
+      </c>
+      <c r="K1109" s="0"/>
+      <c r="L1109" t="s" s="0">
+        <v>1760</v>
+      </c>
+      <c r="M1109" s="0"/>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="n" s="0">
+        <v>1109.0</v>
+      </c>
+      <c r="B1110" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1110" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="D1110" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="E1110" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F1110" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="G1110" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1110" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I1110" t="s" s="0">
+        <v>1761</v>
+      </c>
+      <c r="J1110" t="s" s="0">
+        <v>1234</v>
+      </c>
+      <c r="K1110" s="0"/>
+      <c r="L1110" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="M1110" s="0"/>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="n" s="0">
+        <v>1110.0</v>
+      </c>
+      <c r="B1111" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1111" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="D1111" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="E1111" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="F1111" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="G1111" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1111" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1111" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="J1111" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="K1111" s="0"/>
+      <c r="L1111" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M1111" s="0"/>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="n" s="0">
+        <v>1111.0</v>
+      </c>
+      <c r="B1112" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1112" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="D1112" t="s" s="0">
+        <v>1643</v>
+      </c>
+      <c r="E1112" t="s" s="0">
+        <v>532</v>
+      </c>
+      <c r="F1112" t="s" s="0">
+        <v>533</v>
+      </c>
+      <c r="G1112" t="s" s="0">
+        <v>919</v>
+      </c>
+      <c r="H1112" t="s" s="0">
+        <v>920</v>
+      </c>
+      <c r="I1112" t="s" s="0">
+        <v>1644</v>
+      </c>
+      <c r="J1112" t="s" s="0">
+        <v>1762</v>
+      </c>
+      <c r="K1112" s="0"/>
+      <c r="L1112" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="M1112" s="0"/>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="n" s="0">
+        <v>1112.0</v>
+      </c>
+      <c r="B1113" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1113" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="D1113" t="s" s="0">
+        <v>1229</v>
+      </c>
+      <c r="E1113" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="F1113" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="G1113" t="s" s="0">
+        <v>560</v>
+      </c>
+      <c r="H1113" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I1113" t="s" s="0">
+        <v>1763</v>
+      </c>
+      <c r="J1113" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="K1113" s="0"/>
+      <c r="L1113" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="M1113" s="0"/>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="n" s="0">
+        <v>1113.0</v>
+      </c>
+      <c r="B1114" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1114" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="D1114" t="s" s="0">
+        <v>911</v>
+      </c>
+      <c r="E1114" t="s" s="0">
+        <v>624</v>
+      </c>
+      <c r="F1114" t="s" s="0">
+        <v>625</v>
+      </c>
+      <c r="G1114" t="s" s="0">
+        <v>626</v>
+      </c>
+      <c r="H1114" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I1114" t="s" s="0">
+        <v>1764</v>
+      </c>
+      <c r="J1114" t="s" s="0">
+        <v>1424</v>
+      </c>
+      <c r="K1114" s="0"/>
+      <c r="L1114" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="M1114" s="0"/>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="n" s="0">
+        <v>1114.0</v>
+      </c>
+      <c r="B1115" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1115" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="D1115" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="E1115" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="F1115" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="G1115" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="H1115" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="I1115" t="s" s="0">
+        <v>1765</v>
+      </c>
+      <c r="J1115" t="s" s="0">
+        <v>910</v>
+      </c>
+      <c r="K1115" s="0"/>
+      <c r="L1115" t="s" s="0">
+        <v>634</v>
+      </c>
+      <c r="M1115" s="0"/>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="n" s="0">
+        <v>1115.0</v>
+      </c>
+      <c r="B1116" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1116" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="D1116" t="s" s="0">
+        <v>1226</v>
+      </c>
+      <c r="E1116" t="s" s="0">
+        <v>1227</v>
+      </c>
+      <c r="F1116" t="s" s="0">
+        <v>1228</v>
+      </c>
+      <c r="G1116" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1116" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I1116" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="J1116" t="s" s="0">
+        <v>1240</v>
+      </c>
+      <c r="K1116" s="0"/>
+      <c r="L1116" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="M1116" s="0"/>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="n" s="0">
+        <v>1116.0</v>
+      </c>
+      <c r="B1117" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1117" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="D1117" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="E1117" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F1117" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G1117" t="s" s="0">
+        <v>1766</v>
+      </c>
+      <c r="H1117" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I1117" t="s" s="0">
+        <v>1767</v>
+      </c>
+      <c r="J1117" t="s" s="0">
+        <v>1221</v>
+      </c>
+      <c r="K1117" s="0"/>
+      <c r="L1117" t="s" s="0">
+        <v>649</v>
+      </c>
+      <c r="M1117" s="0"/>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="n" s="0">
+        <v>1117.0</v>
+      </c>
+      <c r="B1118" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1118" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="D1118" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="E1118" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F1118" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="G1118" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1118" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I1118" t="s" s="0">
+        <v>429</v>
+      </c>
+      <c r="J1118" t="s" s="0">
+        <v>1554</v>
+      </c>
+      <c r="K1118" s="0"/>
+      <c r="L1118" t="s" s="0">
+        <v>322</v>
+      </c>
+      <c r="M1118" s="0"/>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="n" s="0">
+        <v>1118.0</v>
+      </c>
+      <c r="B1119" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1119" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="D1119" t="s" s="0">
+        <v>1768</v>
+      </c>
+      <c r="E1119" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F1119" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="G1119" t="s" s="0">
+        <v>592</v>
+      </c>
+      <c r="H1119" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I1119" t="s" s="0">
+        <v>1473</v>
+      </c>
+      <c r="J1119" t="s" s="0">
+        <v>1769</v>
+      </c>
+      <c r="K1119" s="0"/>
+      <c r="L1119" t="s" s="0">
+        <v>1770</v>
+      </c>
+      <c r="M1119" s="0"/>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="n" s="0">
+        <v>1119.0</v>
+      </c>
+      <c r="B1120" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1120" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="D1120" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="E1120" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="F1120" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="G1120" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1120" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1120" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="J1120" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="K1120" s="0"/>
+      <c r="L1120" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="M1120" s="0"/>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="n" s="0">
+        <v>1120.0</v>
+      </c>
+      <c r="B1121" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1121" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="D1121" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="E1121" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="F1121" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="G1121" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="H1121" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1121" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="J1121" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="K1121" s="0"/>
+      <c r="L1121" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M1121" s="0"/>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="n" s="0">
+        <v>1121.0</v>
+      </c>
+      <c r="B1122" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1122" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="D1122" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="E1122" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F1122" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G1122" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H1122" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1122" t="s" s="0">
+        <v>1771</v>
+      </c>
+      <c r="J1122" t="s" s="0">
+        <v>1232</v>
+      </c>
+      <c r="K1122" s="0"/>
+      <c r="L1122" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="M1122" s="0"/>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="n" s="0">
+        <v>1122.0</v>
+      </c>
+      <c r="B1123" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1123" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="D1123" t="s" s="0">
+        <v>301</v>
+      </c>
+      <c r="E1123" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="F1123" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G1123" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1123" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1123" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="J1123" t="s" s="0">
+        <v>1772</v>
+      </c>
+      <c r="K1123" s="0"/>
+      <c r="L1123" t="s" s="0">
+        <v>864</v>
+      </c>
+      <c r="M1123" s="0"/>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="n" s="0">
+        <v>1123.0</v>
+      </c>
+      <c r="B1124" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1124" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="D1124" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="E1124" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="F1124" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="G1124" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1124" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1124" t="s" s="0">
+        <v>928</v>
+      </c>
+      <c r="J1124" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="K1124" s="0"/>
+      <c r="L1124" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="M1124" s="0"/>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="n" s="0">
+        <v>1124.0</v>
+      </c>
+      <c r="B1125" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1125" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="D1125" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="E1125" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="F1125" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="G1125" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1125" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1125" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="J1125" t="s" s="0">
+        <v>1222</v>
+      </c>
+      <c r="K1125" s="0"/>
+      <c r="L1125" t="s" s="0">
+        <v>923</v>
+      </c>
+      <c r="M1125" s="0"/>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="n" s="0">
+        <v>1125.0</v>
+      </c>
+      <c r="B1126" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1126" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="D1126" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="E1126" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="F1126" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="G1126" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1126" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1126" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="J1126" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="K1126" s="0"/>
+      <c r="L1126" t="s" s="0">
+        <v>649</v>
+      </c>
+      <c r="M1126" s="0"/>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="n" s="0">
+        <v>1126.0</v>
+      </c>
+      <c r="B1127" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1127" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="D1127" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="E1127" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="F1127" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="G1127" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1127" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I1127" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="J1127" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="K1127" s="0"/>
+      <c r="L1127" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="M1127" s="0"/>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="n" s="0">
+        <v>1127.0</v>
+      </c>
+      <c r="B1128" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1128" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="D1128" t="s" s="0">
+        <v>929</v>
+      </c>
+      <c r="E1128" t="s" s="0">
+        <v>517</v>
+      </c>
+      <c r="F1128" t="s" s="0">
+        <v>518</v>
+      </c>
+      <c r="G1128" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1128" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1128" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="J1128" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="K1128" s="0"/>
+      <c r="L1128" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="M1128" s="0"/>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="n" s="0">
+        <v>1128.0</v>
+      </c>
+      <c r="B1129" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1129" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="D1129" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="E1129" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="F1129" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="G1129" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1129" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1129" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="J1129" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="K1129" s="0"/>
+      <c r="L1129" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="M1129" s="0"/>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="n" s="0">
+        <v>1129.0</v>
+      </c>
+      <c r="B1130" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1130" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="D1130" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="E1130" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="F1130" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="G1130" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1130" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1130" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="J1130" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="K1130" s="0"/>
+      <c r="L1130" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="M1130" s="0"/>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="n" s="0">
+        <v>1130.0</v>
+      </c>
+      <c r="B1131" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1131" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="D1131" t="s" s="0">
+        <v>346</v>
+      </c>
+      <c r="E1131" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="F1131" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="G1131" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1131" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1131" t="s" s="0">
+        <v>554</v>
+      </c>
+      <c r="J1131" t="s" s="0">
+        <v>926</v>
+      </c>
+      <c r="K1131" s="0"/>
+      <c r="L1131" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="M1131" s="0"/>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="n" s="0">
+        <v>1131.0</v>
+      </c>
+      <c r="B1132" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1132" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="D1132" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="E1132" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="F1132" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="G1132" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="H1132" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="I1132" t="s" s="0">
+        <v>930</v>
+      </c>
+      <c r="J1132" t="s" s="0">
+        <v>1661</v>
+      </c>
+      <c r="K1132" s="0"/>
+      <c r="L1132" t="s" s="0">
+        <v>806</v>
+      </c>
+      <c r="M1132" s="0"/>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="n" s="0">
+        <v>1132.0</v>
+      </c>
+      <c r="B1133" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1133" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="D1133" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="E1133" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="F1133" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="G1133" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1133" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="I1133" t="s" s="0">
+        <v>1223</v>
+      </c>
+      <c r="J1133" t="s" s="0">
+        <v>922</v>
+      </c>
+      <c r="K1133" s="0"/>
+      <c r="L1133" t="s" s="0">
+        <v>569</v>
+      </c>
+      <c r="M1133" s="0"/>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="n" s="0">
+        <v>1133.0</v>
+      </c>
+      <c r="B1134" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1134" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="D1134" t="s" s="0">
+        <v>371</v>
+      </c>
+      <c r="E1134" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="F1134" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="G1134" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1134" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I1134" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="J1134" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="K1134" s="0"/>
+      <c r="L1134" t="s" s="0">
+        <v>889</v>
+      </c>
+      <c r="M1134" s="0"/>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="n" s="0">
+        <v>1134.0</v>
+      </c>
+      <c r="B1135" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1135" t="s" s="0">
+        <v>400</v>
+      </c>
+      <c r="D1135" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="E1135" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="F1135" t="s" s="0">
+        <v>1773</v>
+      </c>
+      <c r="G1135" t="s" s="0">
+        <v>1494</v>
+      </c>
+      <c r="H1135" t="s" s="0">
+        <v>1565</v>
+      </c>
+      <c r="I1135" t="s" s="0">
+        <v>1774</v>
+      </c>
+      <c r="J1135" t="s" s="0">
+        <v>1242</v>
+      </c>
+      <c r="K1135" s="0"/>
+      <c r="L1135" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="M1135" s="0"/>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="n" s="0">
+        <v>1135.0</v>
+      </c>
+      <c r="B1136" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1136" t="s" s="0">
+        <v>1259</v>
+      </c>
+      <c r="D1136" t="s" s="0">
+        <v>1775</v>
+      </c>
+      <c r="E1136" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F1136" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G1136" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1136" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I1136" t="s" s="0">
+        <v>567</v>
+      </c>
+      <c r="J1136" t="s" s="0">
+        <v>1776</v>
+      </c>
+      <c r="K1136" s="0"/>
+      <c r="L1136" t="s" s="0">
+        <v>538</v>
+      </c>
+      <c r="M1136" s="0"/>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="n" s="0">
+        <v>1136.0</v>
+      </c>
+      <c r="B1137" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1137" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="D1137" t="s" s="0">
+        <v>376</v>
+      </c>
+      <c r="E1137" t="s" s="0">
+        <v>377</v>
+      </c>
+      <c r="F1137" t="s" s="0">
+        <v>378</v>
+      </c>
+      <c r="G1137" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1137" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="I1137" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="J1137" t="s" s="0">
+        <v>1777</v>
+      </c>
+      <c r="K1137" s="0"/>
+      <c r="L1137" t="s" s="0">
+        <v>334</v>
+      </c>
+      <c r="M1137" s="0"/>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="n" s="0">
+        <v>1137.0</v>
+      </c>
+      <c r="B1138" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1138" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="D1138" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="E1138" t="s" s="0">
+        <v>393</v>
+      </c>
+      <c r="F1138" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="G1138" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="H1138" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I1138" t="s" s="0">
+        <v>1429</v>
+      </c>
+      <c r="J1138" t="s" s="0">
+        <v>1246</v>
+      </c>
+      <c r="K1138" s="0"/>
+      <c r="L1138" t="s" s="0">
+        <v>322</v>
+      </c>
+      <c r="M1138" s="0"/>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="n" s="0">
+        <v>1138.0</v>
+      </c>
+      <c r="B1139" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1139" t="s" s="0">
+        <v>382</v>
+      </c>
+      <c r="D1139" t="s" s="0">
+        <v>383</v>
+      </c>
+      <c r="E1139" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F1139" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G1139" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1139" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1139" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="J1139" t="s" s="0">
+        <v>1659</v>
+      </c>
+      <c r="K1139" s="0"/>
+      <c r="L1139" t="s" s="0">
+        <v>864</v>
+      </c>
+      <c r="M1139" s="0"/>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="n" s="0">
+        <v>1139.0</v>
+      </c>
+      <c r="B1140" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1140" t="s" s="0">
+        <v>382</v>
+      </c>
+      <c r="D1140" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="E1140" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F1140" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G1140" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="H1140" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1140" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="J1140" t="s" s="0">
+        <v>1557</v>
+      </c>
+      <c r="K1140" s="0"/>
+      <c r="L1140" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="M1140" s="0"/>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="n" s="0">
+        <v>1140.0</v>
+      </c>
+      <c r="B1141" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1141" t="s" s="0">
+        <v>1778</v>
+      </c>
+      <c r="D1141" t="s" s="0">
+        <v>1779</v>
+      </c>
+      <c r="E1141" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="F1141" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="G1141" t="s" s="0">
+        <v>1603</v>
+      </c>
+      <c r="H1141" t="s" s="0">
+        <v>1733</v>
+      </c>
+      <c r="I1141" t="s" s="0">
+        <v>1780</v>
+      </c>
+      <c r="J1141" t="s" s="0">
+        <v>1259</v>
+      </c>
+      <c r="K1141" s="0"/>
+      <c r="L1141" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M1141" s="0"/>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="n" s="0">
+        <v>1141.0</v>
+      </c>
+      <c r="B1142" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1142" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="D1142" t="s" s="0">
+        <v>366</v>
+      </c>
+      <c r="E1142" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="F1142" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="G1142" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1142" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1142" t="s" s="0">
+        <v>1504</v>
+      </c>
+      <c r="J1142" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="K1142" s="0"/>
+      <c r="L1142" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="M1142" s="0"/>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="n" s="0">
+        <v>1142.0</v>
+      </c>
+      <c r="B1143" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1143" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="D1143" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="E1143" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="F1143" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="G1143" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1143" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1143" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="J1143" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="K1143" s="0"/>
+      <c r="L1143" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="M1143" s="0"/>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="n" s="0">
+        <v>1143.0</v>
+      </c>
+      <c r="B1144" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1144" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="D1144" t="s" s="0">
+        <v>1260</v>
+      </c>
+      <c r="E1144" t="s" s="0">
+        <v>1261</v>
+      </c>
+      <c r="F1144" t="s" s="0">
+        <v>1262</v>
+      </c>
+      <c r="G1144" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1144" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I1144" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="J1144" t="s" s="0">
+        <v>1781</v>
+      </c>
+      <c r="K1144" s="0"/>
+      <c r="L1144" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="M1144" s="0"/>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="n" s="0">
+        <v>1144.0</v>
+      </c>
+      <c r="B1145" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1145" t="s" s="0">
+        <v>401</v>
+      </c>
+      <c r="D1145" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="E1145" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="F1145" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="G1145" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1145" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1145" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="J1145" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="K1145" s="0"/>
+      <c r="L1145" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="M1145" s="0"/>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="n" s="0">
+        <v>1145.0</v>
+      </c>
+      <c r="B1146" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1146" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="D1146" t="s" s="0">
+        <v>415</v>
+      </c>
+      <c r="E1146" t="s" s="0">
+        <v>416</v>
+      </c>
+      <c r="F1146" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="G1146" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1146" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="I1146" t="s" s="0">
+        <v>1420</v>
+      </c>
+      <c r="J1146" t="s" s="0">
+        <v>949</v>
+      </c>
+      <c r="K1146" s="0"/>
+      <c r="L1146" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="M1146" s="0"/>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="n" s="0">
+        <v>1146.0</v>
+      </c>
+      <c r="B1147" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1147" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="D1147" t="s" s="0">
+        <v>421</v>
+      </c>
+      <c r="E1147" t="s" s="0">
+        <v>422</v>
+      </c>
+      <c r="F1147" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="G1147" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="H1147" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1147" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="J1147" t="s" s="0">
+        <v>1782</v>
+      </c>
+      <c r="K1147" s="0"/>
+      <c r="L1147" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="M1147" s="0"/>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="n" s="0">
+        <v>1147.0</v>
+      </c>
+      <c r="B1148" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1148" t="s" s="0">
+        <v>1783</v>
+      </c>
+      <c r="D1148" t="s" s="0">
+        <v>1784</v>
+      </c>
+      <c r="E1148" t="s" s="0">
+        <v>1785</v>
+      </c>
+      <c r="F1148" t="s" s="0">
+        <v>1786</v>
+      </c>
+      <c r="G1148" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1148" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I1148" t="s" s="0">
+        <v>1346</v>
+      </c>
+      <c r="J1148" t="s" s="0">
+        <v>1787</v>
+      </c>
+      <c r="K1148" s="0"/>
+      <c r="L1148" t="s" s="0">
+        <v>1598</v>
+      </c>
+      <c r="M1148" s="0"/>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="n" s="0">
+        <v>1148.0</v>
+      </c>
+      <c r="B1149" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1149" t="s" s="0">
+        <v>435</v>
+      </c>
+      <c r="D1149" t="s" s="0">
+        <v>440</v>
+      </c>
+      <c r="E1149" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F1149" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="G1149" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1149" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I1149" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="J1149" t="s" s="0">
+        <v>1788</v>
+      </c>
+      <c r="K1149" s="0"/>
+      <c r="L1149" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="M1149" s="0"/>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="n" s="0">
+        <v>1149.0</v>
+      </c>
+      <c r="B1150" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1150" t="s" s="0">
+        <v>435</v>
+      </c>
+      <c r="D1150" t="s" s="0">
+        <v>436</v>
+      </c>
+      <c r="E1150" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="F1150" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="G1150" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="H1150" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="I1150" t="s" s="0">
+        <v>437</v>
+      </c>
+      <c r="J1150" t="s" s="0">
+        <v>962</v>
+      </c>
+      <c r="K1150" s="0"/>
+      <c r="L1150" t="s" s="0">
+        <v>334</v>
+      </c>
+      <c r="M1150" s="0"/>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="n" s="0">
+        <v>1150.0</v>
+      </c>
+      <c r="B1151" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1151" t="s" s="0">
+        <v>443</v>
+      </c>
+      <c r="D1151" t="s" s="0">
+        <v>444</v>
+      </c>
+      <c r="E1151" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="F1151" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G1151" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="H1151" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="I1151" t="s" s="0">
+        <v>1789</v>
+      </c>
+      <c r="J1151" t="s" s="0">
+        <v>1268</v>
+      </c>
+      <c r="K1151" s="0"/>
+      <c r="L1151" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="M1151" s="0"/>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="n" s="0">
+        <v>1151.0</v>
+      </c>
+      <c r="B1152" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1152" t="s" s="0">
+        <v>448</v>
+      </c>
+      <c r="D1152" t="s" s="0">
+        <v>449</v>
+      </c>
+      <c r="E1152" t="s" s="0">
+        <v>450</v>
+      </c>
+      <c r="F1152" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="G1152" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1152" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I1152" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="J1152" t="s" s="0">
+        <v>1442</v>
+      </c>
+      <c r="K1152" s="0"/>
+      <c r="L1152" t="s" s="0">
+        <v>649</v>
+      </c>
+      <c r="M1152" s="0"/>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="n" s="0">
+        <v>1152.0</v>
+      </c>
+      <c r="B1153" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1153" t="s" s="0">
+        <v>448</v>
+      </c>
+      <c r="D1153" t="s" s="0">
+        <v>453</v>
+      </c>
+      <c r="E1153" t="s" s="0">
+        <v>454</v>
+      </c>
+      <c r="F1153" t="s" s="0">
+        <v>455</v>
+      </c>
+      <c r="G1153" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1153" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1153" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="J1153" t="s" s="0">
+        <v>1559</v>
+      </c>
+      <c r="K1153" s="0"/>
+      <c r="L1153" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="M1153" s="0"/>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="n" s="0">
+        <v>1153.0</v>
+      </c>
+      <c r="B1154" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1154" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="D1154" t="s" s="0">
+        <v>463</v>
+      </c>
+      <c r="E1154" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="F1154" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="G1154" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="H1154" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1154" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="J1154" t="s" s="0">
+        <v>1265</v>
+      </c>
+      <c r="K1154" s="0"/>
+      <c r="L1154" t="s" s="0">
+        <v>569</v>
+      </c>
+      <c r="M1154" s="0"/>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="n" s="0">
+        <v>1154.0</v>
+      </c>
+      <c r="B1155" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1155" t="s" s="0">
+        <v>470</v>
+      </c>
+      <c r="D1155" t="s" s="0">
+        <v>960</v>
+      </c>
+      <c r="E1155" t="s" s="0">
+        <v>472</v>
+      </c>
+      <c r="F1155" t="s" s="0">
+        <v>473</v>
+      </c>
+      <c r="G1155" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1155" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="I1155" t="s" s="0">
+        <v>961</v>
+      </c>
+      <c r="J1155" t="s" s="0">
+        <v>1255</v>
+      </c>
+      <c r="K1155" s="0"/>
+      <c r="L1155" t="s" s="0">
+        <v>1470</v>
+      </c>
+      <c r="M1155" s="0"/>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="n" s="0">
+        <v>1155.0</v>
+      </c>
+      <c r="B1156" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1156" t="s" s="0">
+        <v>963</v>
+      </c>
+      <c r="D1156" t="s" s="0">
+        <v>968</v>
+      </c>
+      <c r="E1156" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F1156" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G1156" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1156" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I1156" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="J1156" t="s" s="0">
+        <v>1441</v>
+      </c>
+      <c r="K1156" s="0"/>
+      <c r="L1156" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="M1156" s="0"/>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="n" s="0">
+        <v>1156.0</v>
+      </c>
+      <c r="B1157" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1157" t="s" s="0">
+        <v>481</v>
+      </c>
+      <c r="D1157" t="s" s="0">
+        <v>482</v>
+      </c>
+      <c r="E1157" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="F1157" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="G1157" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1157" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1157" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="J1157" t="s" s="0">
+        <v>967</v>
+      </c>
+      <c r="K1157" s="0"/>
+      <c r="L1157" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="M1157" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/WAW_Arrivals.xlsx
+++ b/DataBase/WAW_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11571" uniqueCount="1790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12501" uniqueCount="1836">
   <si>
     <t>NUMBER</t>
   </si>
@@ -5382,6 +5382,144 @@
   </si>
   <si>
     <t>(D-AIBE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAG Aviation Malta </t>
+  </si>
+  <si>
+    <t>FA7X</t>
+  </si>
+  <si>
+    <t>(9H-JLK)</t>
+  </si>
+  <si>
+    <t>2:36 PM</t>
+  </si>
+  <si>
+    <t>2:57 PM</t>
+  </si>
+  <si>
+    <t>4:12 PM</t>
+  </si>
+  <si>
+    <t>(F-HBLA)</t>
+  </si>
+  <si>
+    <t>5:02 PM</t>
+  </si>
+  <si>
+    <t>5:26 PM</t>
+  </si>
+  <si>
+    <t>(G-TTNI)</t>
+  </si>
+  <si>
+    <t>5:41 PM</t>
+  </si>
+  <si>
+    <t>(TC-JNZ)</t>
+  </si>
+  <si>
+    <t>HDJT</t>
+  </si>
+  <si>
+    <t>(SP-CHE)</t>
+  </si>
+  <si>
+    <t>(CS-TVB)</t>
+  </si>
+  <si>
+    <t>(SP-LVL)</t>
+  </si>
+  <si>
+    <t>6:21 PM</t>
+  </si>
+  <si>
+    <t>E41502</t>
+  </si>
+  <si>
+    <t>Agadir</t>
+  </si>
+  <si>
+    <t>(AGA)</t>
+  </si>
+  <si>
+    <t>6:32 PM</t>
+  </si>
+  <si>
+    <t>(A6-FMN)</t>
+  </si>
+  <si>
+    <t>(HB-AZC)</t>
+  </si>
+  <si>
+    <t>7:28 PM</t>
+  </si>
+  <si>
+    <t>LO9004</t>
+  </si>
+  <si>
+    <t>9:44 PM</t>
+  </si>
+  <si>
+    <t>2 hours, 16 minutes</t>
+  </si>
+  <si>
+    <t>1 hours, 16 minutes</t>
+  </si>
+  <si>
+    <t>7:44 PM</t>
+  </si>
+  <si>
+    <t>8:11 PM</t>
+  </si>
+  <si>
+    <t>LO6200</t>
+  </si>
+  <si>
+    <t>Mombasa</t>
+  </si>
+  <si>
+    <t>(MBA)</t>
+  </si>
+  <si>
+    <t>-1 hours, -9 minutes</t>
+  </si>
+  <si>
+    <t>10:42 PM</t>
+  </si>
+  <si>
+    <t>8:36 PM</t>
+  </si>
+  <si>
+    <t>(CS-DLK)</t>
+  </si>
+  <si>
+    <t>E45602</t>
+  </si>
+  <si>
+    <t>E47010</t>
+  </si>
+  <si>
+    <t>(DWC)</t>
+  </si>
+  <si>
+    <t>(G-EUUO)</t>
+  </si>
+  <si>
+    <t>10:34 PM</t>
+  </si>
+  <si>
+    <t>10:44 PM</t>
+  </si>
+  <si>
+    <t>LO3986</t>
+  </si>
+  <si>
+    <t>10:36 PM</t>
+  </si>
+  <si>
+    <t>10:39 PM</t>
   </si>
 </sst>
 </file>
@@ -5426,7 +5564,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M1157"/>
+  <dimension ref="A1:M1250"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -48239,6 +48377,3447 @@
       </c>
       <c r="M1157" s="0"/>
     </row>
+    <row r="1158">
+      <c r="A1158" t="n" s="0">
+        <v>1157.0</v>
+      </c>
+      <c r="B1158" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1158" t="s" s="0">
+        <v>481</v>
+      </c>
+      <c r="D1158" t="s" s="0">
+        <v>402</v>
+      </c>
+      <c r="E1158" t="s" s="0">
+        <v>403</v>
+      </c>
+      <c r="F1158" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="G1158" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1158" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I1158" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="J1158" t="s" s="0">
+        <v>485</v>
+      </c>
+      <c r="K1158" s="0"/>
+      <c r="L1158" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="M1158" s="0"/>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="n" s="0">
+        <v>1158.0</v>
+      </c>
+      <c r="B1159" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1159" t="s" s="0">
+        <v>481</v>
+      </c>
+      <c r="D1159" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="E1159" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="F1159" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="G1159" t="s" s="0">
+        <v>1790</v>
+      </c>
+      <c r="H1159" t="s" s="0">
+        <v>1791</v>
+      </c>
+      <c r="I1159" t="s" s="0">
+        <v>1792</v>
+      </c>
+      <c r="J1159" t="s" s="0">
+        <v>973</v>
+      </c>
+      <c r="K1159" s="0"/>
+      <c r="L1159" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="M1159" s="0"/>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="n" s="0">
+        <v>1159.0</v>
+      </c>
+      <c r="B1160" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1160" t="s" s="0">
+        <v>485</v>
+      </c>
+      <c r="D1160" t="s" s="0">
+        <v>486</v>
+      </c>
+      <c r="E1160" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="F1160" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="G1160" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1160" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1160" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="J1160" t="s" s="0">
+        <v>1793</v>
+      </c>
+      <c r="K1160" s="0"/>
+      <c r="L1160" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="M1160" s="0"/>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="n" s="0">
+        <v>1160.0</v>
+      </c>
+      <c r="B1161" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1161" t="s" s="0">
+        <v>490</v>
+      </c>
+      <c r="D1161" t="s" s="0">
+        <v>974</v>
+      </c>
+      <c r="E1161" t="s" s="0">
+        <v>975</v>
+      </c>
+      <c r="F1161" t="s" s="0">
+        <v>976</v>
+      </c>
+      <c r="G1161" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1161" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1161" t="s" s="0">
+        <v>891</v>
+      </c>
+      <c r="J1161" t="s" s="0">
+        <v>1794</v>
+      </c>
+      <c r="K1161" s="0"/>
+      <c r="L1161" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="M1161" s="0"/>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="n" s="0">
+        <v>1161.0</v>
+      </c>
+      <c r="B1162" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1162" t="s" s="0">
+        <v>496</v>
+      </c>
+      <c r="D1162" t="s" s="0">
+        <v>497</v>
+      </c>
+      <c r="E1162" t="s" s="0">
+        <v>498</v>
+      </c>
+      <c r="F1162" t="s" s="0">
+        <v>499</v>
+      </c>
+      <c r="G1162" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1162" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1162" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="J1162" t="s" s="0">
+        <v>496</v>
+      </c>
+      <c r="K1162" s="0"/>
+      <c r="L1162" t="s" s="0">
+        <v>674</v>
+      </c>
+      <c r="M1162" s="0"/>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="n" s="0">
+        <v>1162.0</v>
+      </c>
+      <c r="B1163" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1163" t="s" s="0">
+        <v>500</v>
+      </c>
+      <c r="D1163" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="E1163" t="s" s="0">
+        <v>502</v>
+      </c>
+      <c r="F1163" t="s" s="0">
+        <v>503</v>
+      </c>
+      <c r="G1163" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1163" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1163" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="J1163" t="s" s="0">
+        <v>1672</v>
+      </c>
+      <c r="K1163" s="0"/>
+      <c r="L1163" t="s" s="0">
+        <v>634</v>
+      </c>
+      <c r="M1163" s="0"/>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="n" s="0">
+        <v>1163.0</v>
+      </c>
+      <c r="B1164" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1164" t="s" s="0">
+        <v>506</v>
+      </c>
+      <c r="D1164" t="s" s="0">
+        <v>987</v>
+      </c>
+      <c r="E1164" t="s" s="0">
+        <v>988</v>
+      </c>
+      <c r="F1164" t="s" s="0">
+        <v>989</v>
+      </c>
+      <c r="G1164" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1164" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I1164" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="J1164" t="s" s="0">
+        <v>1677</v>
+      </c>
+      <c r="K1164" s="0"/>
+      <c r="L1164" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="M1164" s="0"/>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="n" s="0">
+        <v>1164.0</v>
+      </c>
+      <c r="B1165" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1165" t="s" s="0">
+        <v>506</v>
+      </c>
+      <c r="D1165" t="s" s="0">
+        <v>507</v>
+      </c>
+      <c r="E1165" t="s" s="0">
+        <v>508</v>
+      </c>
+      <c r="F1165" t="s" s="0">
+        <v>509</v>
+      </c>
+      <c r="G1165" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1165" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I1165" t="s" s="0">
+        <v>433</v>
+      </c>
+      <c r="J1165" t="s" s="0">
+        <v>1276</v>
+      </c>
+      <c r="K1165" s="0"/>
+      <c r="L1165" t="s" s="0">
+        <v>806</v>
+      </c>
+      <c r="M1165" s="0"/>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="n" s="0">
+        <v>1165.0</v>
+      </c>
+      <c r="B1166" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1166" t="s" s="0">
+        <v>996</v>
+      </c>
+      <c r="D1166" t="s" s="0">
+        <v>997</v>
+      </c>
+      <c r="E1166" t="s" s="0">
+        <v>669</v>
+      </c>
+      <c r="F1166" t="s" s="0">
+        <v>670</v>
+      </c>
+      <c r="G1166" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1166" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I1166" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="J1166" t="s" s="0">
+        <v>1676</v>
+      </c>
+      <c r="K1166" s="0"/>
+      <c r="L1166" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="M1166" s="0"/>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="n" s="0">
+        <v>1166.0</v>
+      </c>
+      <c r="B1167" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1167" t="s" s="0">
+        <v>530</v>
+      </c>
+      <c r="D1167" t="s" s="0">
+        <v>531</v>
+      </c>
+      <c r="E1167" t="s" s="0">
+        <v>532</v>
+      </c>
+      <c r="F1167" t="s" s="0">
+        <v>533</v>
+      </c>
+      <c r="G1167" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1167" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I1167" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="J1167" t="s" s="0">
+        <v>998</v>
+      </c>
+      <c r="K1167" s="0"/>
+      <c r="L1167" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="M1167" s="0"/>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="n" s="0">
+        <v>1167.0</v>
+      </c>
+      <c r="B1168" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1168" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="D1168" t="s" s="0">
+        <v>553</v>
+      </c>
+      <c r="E1168" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="F1168" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="G1168" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1168" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1168" t="s" s="0">
+        <v>554</v>
+      </c>
+      <c r="J1168" t="s" s="0">
+        <v>1447</v>
+      </c>
+      <c r="K1168" s="0"/>
+      <c r="L1168" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="M1168" s="0"/>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="n" s="0">
+        <v>1168.0</v>
+      </c>
+      <c r="B1169" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1169" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="D1169" t="s" s="0">
+        <v>540</v>
+      </c>
+      <c r="E1169" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="F1169" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="G1169" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1169" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1169" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="J1169" t="s" s="0">
+        <v>1449</v>
+      </c>
+      <c r="K1169" s="0"/>
+      <c r="L1169" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="M1169" s="0"/>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="n" s="0">
+        <v>1169.0</v>
+      </c>
+      <c r="B1170" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1170" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="D1170" t="s" s="0">
+        <v>542</v>
+      </c>
+      <c r="E1170" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="F1170" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="G1170" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1170" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1170" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="J1170" t="s" s="0">
+        <v>1001</v>
+      </c>
+      <c r="K1170" s="0"/>
+      <c r="L1170" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="M1170" s="0"/>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="n" s="0">
+        <v>1170.0</v>
+      </c>
+      <c r="B1171" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1171" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="D1171" t="s" s="0">
+        <v>546</v>
+      </c>
+      <c r="E1171" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F1171" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G1171" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1171" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1171" t="s" s="0">
+        <v>928</v>
+      </c>
+      <c r="J1171" t="s" s="0">
+        <v>495</v>
+      </c>
+      <c r="K1171" s="0"/>
+      <c r="L1171" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M1171" s="0"/>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="n" s="0">
+        <v>1171.0</v>
+      </c>
+      <c r="B1172" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1172" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="D1172" t="s" s="0">
+        <v>1002</v>
+      </c>
+      <c r="E1172" t="s" s="0">
+        <v>1003</v>
+      </c>
+      <c r="F1172" t="s" s="0">
+        <v>1004</v>
+      </c>
+      <c r="G1172" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1172" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1172" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="J1172" t="s" s="0">
+        <v>557</v>
+      </c>
+      <c r="K1172" s="0"/>
+      <c r="L1172" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="M1172" s="0"/>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="n" s="0">
+        <v>1172.0</v>
+      </c>
+      <c r="B1173" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1173" t="s" s="0">
+        <v>552</v>
+      </c>
+      <c r="D1173" t="s" s="0">
+        <v>544</v>
+      </c>
+      <c r="E1173" t="s" s="0">
+        <v>517</v>
+      </c>
+      <c r="F1173" t="s" s="0">
+        <v>518</v>
+      </c>
+      <c r="G1173" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1173" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I1173" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="J1173" t="s" s="0">
+        <v>1013</v>
+      </c>
+      <c r="K1173" s="0"/>
+      <c r="L1173" t="s" s="0">
+        <v>684</v>
+      </c>
+      <c r="M1173" s="0"/>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="n" s="0">
+        <v>1173.0</v>
+      </c>
+      <c r="B1174" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1174" t="s" s="0">
+        <v>552</v>
+      </c>
+      <c r="D1174" t="s" s="0">
+        <v>556</v>
+      </c>
+      <c r="E1174" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="F1174" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="G1174" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1174" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1174" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="J1174" t="s" s="0">
+        <v>1000</v>
+      </c>
+      <c r="K1174" s="0"/>
+      <c r="L1174" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="M1174" s="0"/>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="n" s="0">
+        <v>1174.0</v>
+      </c>
+      <c r="B1175" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1175" t="s" s="0">
+        <v>1011</v>
+      </c>
+      <c r="D1175" t="s" s="0">
+        <v>1012</v>
+      </c>
+      <c r="E1175" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="F1175" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="G1175" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1175" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1175" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="J1175" t="s" s="0">
+        <v>1795</v>
+      </c>
+      <c r="K1175" s="0"/>
+      <c r="L1175" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="M1175" s="0"/>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="n" s="0">
+        <v>1175.0</v>
+      </c>
+      <c r="B1176" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1176" t="s" s="0">
+        <v>1014</v>
+      </c>
+      <c r="D1176" t="s" s="0">
+        <v>1015</v>
+      </c>
+      <c r="E1176" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="F1176" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="G1176" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1176" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I1176" t="s" s="0">
+        <v>429</v>
+      </c>
+      <c r="J1176" t="s" s="0">
+        <v>562</v>
+      </c>
+      <c r="K1176" s="0"/>
+      <c r="L1176" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="M1176" s="0"/>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="n" s="0">
+        <v>1176.0</v>
+      </c>
+      <c r="B1177" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1177" t="s" s="0">
+        <v>563</v>
+      </c>
+      <c r="D1177" t="s" s="0">
+        <v>1016</v>
+      </c>
+      <c r="E1177" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F1177" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G1177" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="H1177" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1177" t="s" s="0">
+        <v>1796</v>
+      </c>
+      <c r="J1177" t="s" s="0">
+        <v>1679</v>
+      </c>
+      <c r="K1177" s="0"/>
+      <c r="L1177" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="M1177" s="0"/>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="n" s="0">
+        <v>1177.0</v>
+      </c>
+      <c r="B1178" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1178" t="s" s="0">
+        <v>563</v>
+      </c>
+      <c r="D1178" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="E1178" t="s" s="0">
+        <v>565</v>
+      </c>
+      <c r="F1178" t="s" s="0">
+        <v>566</v>
+      </c>
+      <c r="G1178" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1178" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I1178" t="s" s="0">
+        <v>441</v>
+      </c>
+      <c r="J1178" t="s" s="0">
+        <v>551</v>
+      </c>
+      <c r="K1178" s="0"/>
+      <c r="L1178" t="s" s="0">
+        <v>1611</v>
+      </c>
+      <c r="M1178" s="0"/>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="n" s="0">
+        <v>1178.0</v>
+      </c>
+      <c r="B1179" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1179" t="s" s="0">
+        <v>578</v>
+      </c>
+      <c r="D1179" t="s" s="0">
+        <v>1286</v>
+      </c>
+      <c r="E1179" t="s" s="0">
+        <v>1287</v>
+      </c>
+      <c r="F1179" t="s" s="0">
+        <v>1288</v>
+      </c>
+      <c r="G1179" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1179" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I1179" t="s" s="0">
+        <v>494</v>
+      </c>
+      <c r="J1179" t="s" s="0">
+        <v>1027</v>
+      </c>
+      <c r="K1179" s="0"/>
+      <c r="L1179" t="s" s="0">
+        <v>923</v>
+      </c>
+      <c r="M1179" s="0"/>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="n" s="0">
+        <v>1179.0</v>
+      </c>
+      <c r="B1180" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1180" t="s" s="0">
+        <v>588</v>
+      </c>
+      <c r="D1180" t="s" s="0">
+        <v>1030</v>
+      </c>
+      <c r="E1180" t="s" s="0">
+        <v>1031</v>
+      </c>
+      <c r="F1180" t="s" s="0">
+        <v>1032</v>
+      </c>
+      <c r="G1180" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1180" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I1180" t="s" s="0">
+        <v>1761</v>
+      </c>
+      <c r="J1180" t="s" s="0">
+        <v>1797</v>
+      </c>
+      <c r="K1180" s="0"/>
+      <c r="L1180" t="s" s="0">
+        <v>677</v>
+      </c>
+      <c r="M1180" s="0"/>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="n" s="0">
+        <v>1180.0</v>
+      </c>
+      <c r="B1181" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1181" t="s" s="0">
+        <v>1034</v>
+      </c>
+      <c r="D1181" t="s" s="0">
+        <v>1035</v>
+      </c>
+      <c r="E1181" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="F1181" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="G1181" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1181" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1181" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="J1181" t="s" s="0">
+        <v>1798</v>
+      </c>
+      <c r="K1181" s="0"/>
+      <c r="L1181" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="M1181" s="0"/>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="n" s="0">
+        <v>1181.0</v>
+      </c>
+      <c r="B1182" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1182" t="s" s="0">
+        <v>1036</v>
+      </c>
+      <c r="D1182" t="s" s="0">
+        <v>617</v>
+      </c>
+      <c r="E1182" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F1182" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="G1182" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1182" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I1182" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="J1182" t="s" s="0">
+        <v>620</v>
+      </c>
+      <c r="K1182" s="0"/>
+      <c r="L1182" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="M1182" s="0"/>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="n" s="0">
+        <v>1182.0</v>
+      </c>
+      <c r="B1183" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1183" t="s" s="0">
+        <v>1038</v>
+      </c>
+      <c r="D1183" t="s" s="0">
+        <v>1060</v>
+      </c>
+      <c r="E1183" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F1183" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="G1183" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="H1183" t="s" s="0">
+        <v>627</v>
+      </c>
+      <c r="I1183" t="s" s="0">
+        <v>1799</v>
+      </c>
+      <c r="J1183" t="s" s="0">
+        <v>1800</v>
+      </c>
+      <c r="K1183" s="0"/>
+      <c r="L1183" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="M1183" s="0"/>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="n" s="0">
+        <v>1183.0</v>
+      </c>
+      <c r="B1184" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1184" t="s" s="0">
+        <v>1038</v>
+      </c>
+      <c r="D1184" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="E1184" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="F1184" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="G1184" t="s" s="0">
+        <v>1197</v>
+      </c>
+      <c r="H1184" t="s" s="0">
+        <v>1008</v>
+      </c>
+      <c r="I1184" t="s" s="0">
+        <v>1576</v>
+      </c>
+      <c r="J1184" t="s" s="0">
+        <v>1579</v>
+      </c>
+      <c r="K1184" s="0"/>
+      <c r="L1184" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="M1184" s="0"/>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="n" s="0">
+        <v>1184.0</v>
+      </c>
+      <c r="B1185" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1185" t="s" s="0">
+        <v>610</v>
+      </c>
+      <c r="D1185" t="s" s="0">
+        <v>1043</v>
+      </c>
+      <c r="E1185" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F1185" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="G1185" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="H1185" t="s" s="0">
+        <v>574</v>
+      </c>
+      <c r="I1185" t="s" s="0">
+        <v>1801</v>
+      </c>
+      <c r="J1185" t="s" s="0">
+        <v>1042</v>
+      </c>
+      <c r="K1185" s="0"/>
+      <c r="L1185" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M1185" s="0"/>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="n" s="0">
+        <v>1185.0</v>
+      </c>
+      <c r="B1186" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1186" t="s" s="0">
+        <v>1578</v>
+      </c>
+      <c r="D1186" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="E1186" t="s" s="0">
+        <v>1095</v>
+      </c>
+      <c r="F1186" t="s" s="0">
+        <v>1096</v>
+      </c>
+      <c r="G1186" t="s" s="0">
+        <v>980</v>
+      </c>
+      <c r="H1186" t="s" s="0">
+        <v>1802</v>
+      </c>
+      <c r="I1186" t="s" s="0">
+        <v>1803</v>
+      </c>
+      <c r="J1186" t="s" s="0">
+        <v>1694</v>
+      </c>
+      <c r="K1186" s="0"/>
+      <c r="L1186" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="M1186" s="0"/>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="n" s="0">
+        <v>1186.0</v>
+      </c>
+      <c r="B1187" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1187" t="s" s="0">
+        <v>620</v>
+      </c>
+      <c r="D1187" t="s" s="0">
+        <v>623</v>
+      </c>
+      <c r="E1187" t="s" s="0">
+        <v>624</v>
+      </c>
+      <c r="F1187" t="s" s="0">
+        <v>625</v>
+      </c>
+      <c r="G1187" t="s" s="0">
+        <v>626</v>
+      </c>
+      <c r="H1187" t="s" s="0">
+        <v>627</v>
+      </c>
+      <c r="I1187" t="s" s="0">
+        <v>1804</v>
+      </c>
+      <c r="J1187" t="s" s="0">
+        <v>1052</v>
+      </c>
+      <c r="K1187" s="0"/>
+      <c r="L1187" t="s" s="0">
+        <v>739</v>
+      </c>
+      <c r="M1187" s="0"/>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="n" s="0">
+        <v>1187.0</v>
+      </c>
+      <c r="B1188" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1188" t="s" s="0">
+        <v>1045</v>
+      </c>
+      <c r="D1188" t="s" s="0">
+        <v>1046</v>
+      </c>
+      <c r="E1188" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="F1188" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="G1188" t="s" s="0">
+        <v>1040</v>
+      </c>
+      <c r="H1188" t="s" s="0">
+        <v>1008</v>
+      </c>
+      <c r="I1188" t="s" s="0">
+        <v>1693</v>
+      </c>
+      <c r="J1188" t="s" s="0">
+        <v>610</v>
+      </c>
+      <c r="K1188" s="0"/>
+      <c r="L1188" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="M1188" s="0"/>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="n" s="0">
+        <v>1188.0</v>
+      </c>
+      <c r="B1189" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1189" t="s" s="0">
+        <v>615</v>
+      </c>
+      <c r="D1189" t="s" s="0">
+        <v>1049</v>
+      </c>
+      <c r="E1189" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="F1189" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="G1189" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1189" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1189" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="J1189" t="s" s="0">
+        <v>1578</v>
+      </c>
+      <c r="K1189" s="0"/>
+      <c r="L1189" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="M1189" s="0"/>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="n" s="0">
+        <v>1189.0</v>
+      </c>
+      <c r="B1190" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1190" t="s" s="0">
+        <v>631</v>
+      </c>
+      <c r="D1190" t="s" s="0">
+        <v>632</v>
+      </c>
+      <c r="E1190" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="F1190" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="G1190" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1190" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I1190" t="s" s="0">
+        <v>1805</v>
+      </c>
+      <c r="J1190" t="s" s="0">
+        <v>1806</v>
+      </c>
+      <c r="K1190" s="0"/>
+      <c r="L1190" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="M1190" s="0"/>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="n" s="0">
+        <v>1190.0</v>
+      </c>
+      <c r="B1191" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1191" t="s" s="0">
+        <v>1052</v>
+      </c>
+      <c r="D1191" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="E1191" t="s" s="0">
+        <v>965</v>
+      </c>
+      <c r="F1191" t="s" s="0">
+        <v>966</v>
+      </c>
+      <c r="G1191" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="H1191" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I1191" t="s" s="0">
+        <v>1429</v>
+      </c>
+      <c r="J1191" t="s" s="0">
+        <v>1071</v>
+      </c>
+      <c r="K1191" s="0"/>
+      <c r="L1191" t="s" s="0">
+        <v>639</v>
+      </c>
+      <c r="M1191" s="0"/>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="n" s="0">
+        <v>1191.0</v>
+      </c>
+      <c r="B1192" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1192" t="s" s="0">
+        <v>640</v>
+      </c>
+      <c r="D1192" t="s" s="0">
+        <v>646</v>
+      </c>
+      <c r="E1192" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F1192" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G1192" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H1192" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1192" t="s" s="0">
+        <v>1739</v>
+      </c>
+      <c r="J1192" t="s" s="0">
+        <v>1581</v>
+      </c>
+      <c r="K1192" s="0"/>
+      <c r="L1192" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="M1192" s="0"/>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="n" s="0">
+        <v>1192.0</v>
+      </c>
+      <c r="B1193" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1193" t="s" s="0">
+        <v>1056</v>
+      </c>
+      <c r="D1193" t="s" s="0">
+        <v>1057</v>
+      </c>
+      <c r="E1193" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="F1193" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="G1193" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="H1193" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1193" t="s" s="0">
+        <v>1406</v>
+      </c>
+      <c r="J1193" t="s" s="0">
+        <v>1059</v>
+      </c>
+      <c r="K1193" s="0"/>
+      <c r="L1193" t="s" s="0">
+        <v>538</v>
+      </c>
+      <c r="M1193" s="0"/>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="n" s="0">
+        <v>1193.0</v>
+      </c>
+      <c r="B1194" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1194" t="s" s="0">
+        <v>650</v>
+      </c>
+      <c r="D1194" t="s" s="0">
+        <v>651</v>
+      </c>
+      <c r="E1194" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="F1194" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="G1194" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1194" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1194" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="J1194" t="s" s="0">
+        <v>650</v>
+      </c>
+      <c r="K1194" s="0"/>
+      <c r="L1194" t="s" s="0">
+        <v>674</v>
+      </c>
+      <c r="M1194" s="0"/>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="n" s="0">
+        <v>1194.0</v>
+      </c>
+      <c r="B1195" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1195" t="s" s="0">
+        <v>650</v>
+      </c>
+      <c r="D1195" t="s" s="0">
+        <v>1807</v>
+      </c>
+      <c r="E1195" t="s" s="0">
+        <v>1808</v>
+      </c>
+      <c r="F1195" t="s" s="0">
+        <v>1809</v>
+      </c>
+      <c r="G1195" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="H1195" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I1195" t="s" s="0">
+        <v>1698</v>
+      </c>
+      <c r="J1195" t="s" s="0">
+        <v>1584</v>
+      </c>
+      <c r="K1195" s="0"/>
+      <c r="L1195" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="M1195" s="0"/>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="n" s="0">
+        <v>1195.0</v>
+      </c>
+      <c r="B1196" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1196" t="s" s="0">
+        <v>654</v>
+      </c>
+      <c r="D1196" t="s" s="0">
+        <v>1308</v>
+      </c>
+      <c r="E1196" t="s" s="0">
+        <v>450</v>
+      </c>
+      <c r="F1196" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="G1196" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1196" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1196" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="J1196" t="s" s="0">
+        <v>1810</v>
+      </c>
+      <c r="K1196" s="0"/>
+      <c r="L1196" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="M1196" s="0"/>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="n" s="0">
+        <v>1196.0</v>
+      </c>
+      <c r="B1197" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1197" t="s" s="0">
+        <v>660</v>
+      </c>
+      <c r="D1197" t="s" s="0">
+        <v>664</v>
+      </c>
+      <c r="E1197" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F1197" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="G1197" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1197" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1197" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="J1197" t="s" s="0">
+        <v>1073</v>
+      </c>
+      <c r="K1197" s="0"/>
+      <c r="L1197" t="s" s="0">
+        <v>1633</v>
+      </c>
+      <c r="M1197" s="0"/>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="n" s="0">
+        <v>1197.0</v>
+      </c>
+      <c r="B1198" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1198" t="s" s="0">
+        <v>678</v>
+      </c>
+      <c r="D1198" t="s" s="0">
+        <v>679</v>
+      </c>
+      <c r="E1198" t="s" s="0">
+        <v>498</v>
+      </c>
+      <c r="F1198" t="s" s="0">
+        <v>499</v>
+      </c>
+      <c r="G1198" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="H1198" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1198" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="J1198" t="s" s="0">
+        <v>660</v>
+      </c>
+      <c r="K1198" s="0"/>
+      <c r="L1198" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="M1198" s="0"/>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="n" s="0">
+        <v>1198.0</v>
+      </c>
+      <c r="B1199" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1199" t="s" s="0">
+        <v>681</v>
+      </c>
+      <c r="D1199" t="s" s="0">
+        <v>704</v>
+      </c>
+      <c r="E1199" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="F1199" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="G1199" t="s" s="0">
+        <v>705</v>
+      </c>
+      <c r="H1199" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I1199" t="s" s="0">
+        <v>1811</v>
+      </c>
+      <c r="J1199" t="s" s="0">
+        <v>1703</v>
+      </c>
+      <c r="K1199" s="0"/>
+      <c r="L1199" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="M1199" s="0"/>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="n" s="0">
+        <v>1199.0</v>
+      </c>
+      <c r="B1200" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1200" t="s" s="0">
+        <v>681</v>
+      </c>
+      <c r="D1200" t="s" s="0">
+        <v>1306</v>
+      </c>
+      <c r="E1200" t="s" s="0">
+        <v>1116</v>
+      </c>
+      <c r="F1200" t="s" s="0">
+        <v>1117</v>
+      </c>
+      <c r="G1200" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="H1200" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I1200" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="J1200" t="s" s="0">
+        <v>1476</v>
+      </c>
+      <c r="K1200" s="0"/>
+      <c r="L1200" t="s" s="0">
+        <v>1611</v>
+      </c>
+      <c r="M1200" s="0"/>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="n" s="0">
+        <v>1200.0</v>
+      </c>
+      <c r="B1201" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1201" t="s" s="0">
+        <v>681</v>
+      </c>
+      <c r="D1201" t="s" s="0">
+        <v>621</v>
+      </c>
+      <c r="E1201" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F1201" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G1201" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1201" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1201" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="J1201" t="s" s="0">
+        <v>638</v>
+      </c>
+      <c r="K1201" s="0"/>
+      <c r="L1201" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="M1201" s="0"/>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="n" s="0">
+        <v>1201.0</v>
+      </c>
+      <c r="B1202" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1202" t="s" s="0">
+        <v>681</v>
+      </c>
+      <c r="D1202" t="s" s="0">
+        <v>1066</v>
+      </c>
+      <c r="E1202" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="F1202" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="G1202" t="s" s="0">
+        <v>1185</v>
+      </c>
+      <c r="H1202" t="s" s="0">
+        <v>1186</v>
+      </c>
+      <c r="I1202" t="s" s="0">
+        <v>1812</v>
+      </c>
+      <c r="J1202" t="s" s="0">
+        <v>692</v>
+      </c>
+      <c r="K1202" s="0"/>
+      <c r="L1202" t="s" s="0">
+        <v>871</v>
+      </c>
+      <c r="M1202" s="0"/>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="n" s="0">
+        <v>1202.0</v>
+      </c>
+      <c r="B1203" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1203" t="s" s="0">
+        <v>685</v>
+      </c>
+      <c r="D1203" t="s" s="0">
+        <v>686</v>
+      </c>
+      <c r="E1203" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="F1203" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="G1203" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1203" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1203" t="s" s="0">
+        <v>891</v>
+      </c>
+      <c r="J1203" t="s" s="0">
+        <v>1300</v>
+      </c>
+      <c r="K1203" s="0"/>
+      <c r="L1203" t="s" s="0">
+        <v>634</v>
+      </c>
+      <c r="M1203" s="0"/>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="n" s="0">
+        <v>1203.0</v>
+      </c>
+      <c r="B1204" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1204" t="s" s="0">
+        <v>685</v>
+      </c>
+      <c r="D1204" t="s" s="0">
+        <v>688</v>
+      </c>
+      <c r="E1204" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="F1204" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="G1204" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1204" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1204" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="J1204" t="s" s="0">
+        <v>1599</v>
+      </c>
+      <c r="K1204" s="0"/>
+      <c r="L1204" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="M1204" s="0"/>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="n" s="0">
+        <v>1204.0</v>
+      </c>
+      <c r="B1205" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1205" t="s" s="0">
+        <v>685</v>
+      </c>
+      <c r="D1205" t="s" s="0">
+        <v>1070</v>
+      </c>
+      <c r="E1205" t="s" s="0">
+        <v>532</v>
+      </c>
+      <c r="F1205" t="s" s="0">
+        <v>533</v>
+      </c>
+      <c r="G1205" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1205" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I1205" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="J1205" t="s" s="0">
+        <v>654</v>
+      </c>
+      <c r="K1205" s="0"/>
+      <c r="L1205" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="M1205" s="0"/>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="n" s="0">
+        <v>1205.0</v>
+      </c>
+      <c r="B1206" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1206" t="s" s="0">
+        <v>1813</v>
+      </c>
+      <c r="D1206" t="s" s="0">
+        <v>1814</v>
+      </c>
+      <c r="E1206" t="s" s="0">
+        <v>513</v>
+      </c>
+      <c r="F1206" t="s" s="0">
+        <v>514</v>
+      </c>
+      <c r="G1206" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="H1206" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1206" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="J1206" t="s" s="0">
+        <v>1815</v>
+      </c>
+      <c r="K1206" s="0"/>
+      <c r="L1206" t="s" s="0">
+        <v>1816</v>
+      </c>
+      <c r="M1206" s="0"/>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="n" s="0">
+        <v>1206.0</v>
+      </c>
+      <c r="B1207" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1207" t="s" s="0">
+        <v>690</v>
+      </c>
+      <c r="D1207" t="s" s="0">
+        <v>691</v>
+      </c>
+      <c r="E1207" t="s" s="0">
+        <v>513</v>
+      </c>
+      <c r="F1207" t="s" s="0">
+        <v>514</v>
+      </c>
+      <c r="G1207" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1207" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1207" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="J1207" t="s" s="0">
+        <v>1079</v>
+      </c>
+      <c r="K1207" s="0"/>
+      <c r="L1207" t="s" s="0">
+        <v>1817</v>
+      </c>
+      <c r="M1207" s="0"/>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="n" s="0">
+        <v>1207.0</v>
+      </c>
+      <c r="B1208" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1208" t="s" s="0">
+        <v>693</v>
+      </c>
+      <c r="D1208" t="s" s="0">
+        <v>694</v>
+      </c>
+      <c r="E1208" t="s" s="0">
+        <v>422</v>
+      </c>
+      <c r="F1208" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="G1208" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1208" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I1208" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="J1208" t="s" s="0">
+        <v>1487</v>
+      </c>
+      <c r="K1208" s="0"/>
+      <c r="L1208" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="M1208" s="0"/>
+    </row>
+    <row r="1209">
+      <c r="A1209" t="n" s="0">
+        <v>1208.0</v>
+      </c>
+      <c r="B1209" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1209" t="s" s="0">
+        <v>700</v>
+      </c>
+      <c r="D1209" t="s" s="0">
+        <v>701</v>
+      </c>
+      <c r="E1209" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="F1209" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="G1209" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1209" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I1209" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="J1209" t="s" s="0">
+        <v>685</v>
+      </c>
+      <c r="K1209" s="0"/>
+      <c r="L1209" t="s" s="0">
+        <v>1051</v>
+      </c>
+      <c r="M1209" s="0"/>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="n" s="0">
+        <v>1209.0</v>
+      </c>
+      <c r="B1210" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1210" t="s" s="0">
+        <v>700</v>
+      </c>
+      <c r="D1210" t="s" s="0">
+        <v>1490</v>
+      </c>
+      <c r="E1210" t="s" s="0">
+        <v>1485</v>
+      </c>
+      <c r="F1210" t="s" s="0">
+        <v>1486</v>
+      </c>
+      <c r="G1210" t="s" s="0">
+        <v>592</v>
+      </c>
+      <c r="H1210" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I1210" t="s" s="0">
+        <v>593</v>
+      </c>
+      <c r="J1210" t="s" s="0">
+        <v>1327</v>
+      </c>
+      <c r="K1210" s="0"/>
+      <c r="L1210" t="s" s="0">
+        <v>1664</v>
+      </c>
+      <c r="M1210" s="0"/>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="n" s="0">
+        <v>1210.0</v>
+      </c>
+      <c r="B1211" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1211" t="s" s="0">
+        <v>1601</v>
+      </c>
+      <c r="D1211" t="s" s="0">
+        <v>666</v>
+      </c>
+      <c r="E1211" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="F1211" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="G1211" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1211" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1211" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="J1211" t="s" s="0">
+        <v>1818</v>
+      </c>
+      <c r="K1211" s="0"/>
+      <c r="L1211" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="M1211" s="0"/>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="n" s="0">
+        <v>1211.0</v>
+      </c>
+      <c r="B1212" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1212" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="D1212" t="s" s="0">
+        <v>1820</v>
+      </c>
+      <c r="E1212" t="s" s="0">
+        <v>1821</v>
+      </c>
+      <c r="F1212" t="s" s="0">
+        <v>1822</v>
+      </c>
+      <c r="G1212" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1212" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="I1212" t="s" s="0">
+        <v>855</v>
+      </c>
+      <c r="J1212" t="s" s="0">
+        <v>687</v>
+      </c>
+      <c r="K1212" s="0"/>
+      <c r="L1212" t="s" s="0">
+        <v>1823</v>
+      </c>
+      <c r="M1212" s="0"/>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="n" s="0">
+        <v>1212.0</v>
+      </c>
+      <c r="B1213" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1213" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="D1213" t="s" s="0">
+        <v>713</v>
+      </c>
+      <c r="E1213" t="s" s="0">
+        <v>393</v>
+      </c>
+      <c r="F1213" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="G1213" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1213" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1213" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="J1213" t="s" s="0">
+        <v>1498</v>
+      </c>
+      <c r="K1213" s="0"/>
+      <c r="L1213" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M1213" s="0"/>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="n" s="0">
+        <v>1213.0</v>
+      </c>
+      <c r="B1214" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1214" t="s" s="0">
+        <v>715</v>
+      </c>
+      <c r="D1214" t="s" s="0">
+        <v>716</v>
+      </c>
+      <c r="E1214" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="F1214" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="G1214" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1214" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1214" t="s" s="0">
+        <v>1504</v>
+      </c>
+      <c r="J1214" t="s" s="0">
+        <v>1077</v>
+      </c>
+      <c r="K1214" s="0"/>
+      <c r="L1214" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="M1214" s="0"/>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="n" s="0">
+        <v>1214.0</v>
+      </c>
+      <c r="B1215" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1215" t="s" s="0">
+        <v>715</v>
+      </c>
+      <c r="D1215" t="s" s="0">
+        <v>718</v>
+      </c>
+      <c r="E1215" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="F1215" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="G1215" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1215" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I1215" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="J1215" t="s" s="0">
+        <v>1824</v>
+      </c>
+      <c r="K1215" s="0"/>
+      <c r="L1215" t="s" s="0">
+        <v>1436</v>
+      </c>
+      <c r="M1215" s="0"/>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="n" s="0">
+        <v>1215.0</v>
+      </c>
+      <c r="B1216" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1216" t="s" s="0">
+        <v>720</v>
+      </c>
+      <c r="D1216" t="s" s="0">
+        <v>721</v>
+      </c>
+      <c r="E1216" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="F1216" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="G1216" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1216" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1216" t="s" s="0">
+        <v>928</v>
+      </c>
+      <c r="J1216" t="s" s="0">
+        <v>741</v>
+      </c>
+      <c r="K1216" s="0"/>
+      <c r="L1216" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="M1216" s="0"/>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="n" s="0">
+        <v>1216.0</v>
+      </c>
+      <c r="B1217" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1217" t="s" s="0">
+        <v>720</v>
+      </c>
+      <c r="D1217" t="s" s="0">
+        <v>1078</v>
+      </c>
+      <c r="E1217" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="F1217" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="G1217" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1217" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1217" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="J1217" t="s" s="0">
+        <v>1825</v>
+      </c>
+      <c r="K1217" s="0"/>
+      <c r="L1217" t="s" s="0">
+        <v>505</v>
+      </c>
+      <c r="M1217" s="0"/>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="n" s="0">
+        <v>1217.0</v>
+      </c>
+      <c r="B1218" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1218" t="s" s="0">
+        <v>1340</v>
+      </c>
+      <c r="D1218" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="E1218" t="s" s="0">
+        <v>904</v>
+      </c>
+      <c r="F1218" t="s" s="0">
+        <v>905</v>
+      </c>
+      <c r="G1218" t="s" s="0">
+        <v>1494</v>
+      </c>
+      <c r="H1218" t="s" s="0">
+        <v>1414</v>
+      </c>
+      <c r="I1218" t="s" s="0">
+        <v>1826</v>
+      </c>
+      <c r="J1218" t="s" s="0">
+        <v>1613</v>
+      </c>
+      <c r="K1218" s="0"/>
+      <c r="L1218" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="M1218" s="0"/>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="n" s="0">
+        <v>1218.0</v>
+      </c>
+      <c r="B1219" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1219" t="s" s="0">
+        <v>1087</v>
+      </c>
+      <c r="D1219" t="s" s="0">
+        <v>1827</v>
+      </c>
+      <c r="E1219" t="s" s="0">
+        <v>1344</v>
+      </c>
+      <c r="F1219" t="s" s="0">
+        <v>1345</v>
+      </c>
+      <c r="G1219" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="H1219" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I1219" t="s" s="0">
+        <v>798</v>
+      </c>
+      <c r="J1219" t="s" s="0">
+        <v>1713</v>
+      </c>
+      <c r="K1219" s="0"/>
+      <c r="L1219" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="M1219" s="0"/>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="n" s="0">
+        <v>1219.0</v>
+      </c>
+      <c r="B1220" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1220" t="s" s="0">
+        <v>723</v>
+      </c>
+      <c r="D1220" t="s" s="0">
+        <v>1828</v>
+      </c>
+      <c r="E1220" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="F1220" t="s" s="0">
+        <v>1829</v>
+      </c>
+      <c r="G1220" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="H1220" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I1220" t="s" s="0">
+        <v>796</v>
+      </c>
+      <c r="J1220" t="s" s="0">
+        <v>1103</v>
+      </c>
+      <c r="K1220" s="0"/>
+      <c r="L1220" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="M1220" s="0"/>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="n" s="0">
+        <v>1220.0</v>
+      </c>
+      <c r="B1221" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1221" t="s" s="0">
+        <v>723</v>
+      </c>
+      <c r="D1221" t="s" s="0">
+        <v>1080</v>
+      </c>
+      <c r="E1221" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="F1221" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="G1221" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1221" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1221" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="J1221" t="s" s="0">
+        <v>1712</v>
+      </c>
+      <c r="K1221" s="0"/>
+      <c r="L1221" t="s" s="0">
+        <v>649</v>
+      </c>
+      <c r="M1221" s="0"/>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="n" s="0">
+        <v>1221.0</v>
+      </c>
+      <c r="B1222" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1222" t="s" s="0">
+        <v>723</v>
+      </c>
+      <c r="D1222" t="s" s="0">
+        <v>724</v>
+      </c>
+      <c r="E1222" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="F1222" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G1222" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1222" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1222" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="J1222" t="s" s="0">
+        <v>1508</v>
+      </c>
+      <c r="K1222" s="0"/>
+      <c r="L1222" t="s" s="0">
+        <v>538</v>
+      </c>
+      <c r="M1222" s="0"/>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="n" s="0">
+        <v>1222.0</v>
+      </c>
+      <c r="B1223" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1223" t="s" s="0">
+        <v>723</v>
+      </c>
+      <c r="D1223" t="s" s="0">
+        <v>1082</v>
+      </c>
+      <c r="E1223" t="s" s="0">
+        <v>1083</v>
+      </c>
+      <c r="F1223" t="s" s="0">
+        <v>1084</v>
+      </c>
+      <c r="G1223" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1223" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I1223" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="J1223" t="s" s="0">
+        <v>1608</v>
+      </c>
+      <c r="K1223" s="0"/>
+      <c r="L1223" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="M1223" s="0"/>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="n" s="0">
+        <v>1223.0</v>
+      </c>
+      <c r="B1224" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1224" t="s" s="0">
+        <v>726</v>
+      </c>
+      <c r="D1224" t="s" s="0">
+        <v>727</v>
+      </c>
+      <c r="E1224" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="F1224" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="G1224" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="H1224" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1224" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="J1224" t="s" s="0">
+        <v>1333</v>
+      </c>
+      <c r="K1224" s="0"/>
+      <c r="L1224" t="s" s="0">
+        <v>322</v>
+      </c>
+      <c r="M1224" s="0"/>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="n" s="0">
+        <v>1224.0</v>
+      </c>
+      <c r="B1225" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1225" t="s" s="0">
+        <v>726</v>
+      </c>
+      <c r="D1225" t="s" s="0">
+        <v>729</v>
+      </c>
+      <c r="E1225" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="F1225" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="G1225" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1225" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1225" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="J1225" t="s" s="0">
+        <v>1337</v>
+      </c>
+      <c r="K1225" s="0"/>
+      <c r="L1225" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="M1225" s="0"/>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="n" s="0">
+        <v>1225.0</v>
+      </c>
+      <c r="B1226" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1226" t="s" s="0">
+        <v>726</v>
+      </c>
+      <c r="D1226" t="s" s="0">
+        <v>1088</v>
+      </c>
+      <c r="E1226" t="s" s="0">
+        <v>450</v>
+      </c>
+      <c r="F1226" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="G1226" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1226" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1226" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="J1226" t="s" s="0">
+        <v>1336</v>
+      </c>
+      <c r="K1226" s="0"/>
+      <c r="L1226" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="M1226" s="0"/>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="n" s="0">
+        <v>1226.0</v>
+      </c>
+      <c r="B1227" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1227" t="s" s="0">
+        <v>732</v>
+      </c>
+      <c r="D1227" t="s" s="0">
+        <v>736</v>
+      </c>
+      <c r="E1227" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F1227" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="G1227" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="H1227" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I1227" t="s" s="0">
+        <v>1830</v>
+      </c>
+      <c r="J1227" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="K1227" s="0"/>
+      <c r="L1227" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="M1227" s="0"/>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="n" s="0">
+        <v>1227.0</v>
+      </c>
+      <c r="B1228" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1228" t="s" s="0">
+        <v>732</v>
+      </c>
+      <c r="D1228" t="s" s="0">
+        <v>733</v>
+      </c>
+      <c r="E1228" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="F1228" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="G1228" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1228" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1228" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="J1228" t="s" s="0">
+        <v>1341</v>
+      </c>
+      <c r="K1228" s="0"/>
+      <c r="L1228" t="s" s="0">
+        <v>684</v>
+      </c>
+      <c r="M1228" s="0"/>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="n" s="0">
+        <v>1228.0</v>
+      </c>
+      <c r="B1229" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1229" t="s" s="0">
+        <v>735</v>
+      </c>
+      <c r="D1229" t="s" s="0">
+        <v>742</v>
+      </c>
+      <c r="E1229" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="F1229" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="G1229" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1229" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1229" t="s" s="0">
+        <v>554</v>
+      </c>
+      <c r="J1229" t="s" s="0">
+        <v>759</v>
+      </c>
+      <c r="K1229" s="0"/>
+      <c r="L1229" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="M1229" s="0"/>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="n" s="0">
+        <v>1229.0</v>
+      </c>
+      <c r="B1230" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1230" t="s" s="0">
+        <v>735</v>
+      </c>
+      <c r="D1230" t="s" s="0">
+        <v>740</v>
+      </c>
+      <c r="E1230" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="F1230" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="G1230" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1230" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1230" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="J1230" t="s" s="0">
+        <v>1350</v>
+      </c>
+      <c r="K1230" s="0"/>
+      <c r="L1230" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M1230" s="0"/>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n" s="0">
+        <v>1230.0</v>
+      </c>
+      <c r="B1231" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1231" t="s" s="0">
+        <v>735</v>
+      </c>
+      <c r="D1231" t="s" s="0">
+        <v>744</v>
+      </c>
+      <c r="E1231" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="F1231" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="G1231" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="H1231" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1231" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="J1231" t="s" s="0">
+        <v>726</v>
+      </c>
+      <c r="K1231" s="0"/>
+      <c r="L1231" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="M1231" s="0"/>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="n" s="0">
+        <v>1231.0</v>
+      </c>
+      <c r="B1232" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1232" t="s" s="0">
+        <v>1093</v>
+      </c>
+      <c r="D1232" t="s" s="0">
+        <v>1094</v>
+      </c>
+      <c r="E1232" t="s" s="0">
+        <v>1095</v>
+      </c>
+      <c r="F1232" t="s" s="0">
+        <v>1096</v>
+      </c>
+      <c r="G1232" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1232" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1232" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="J1232" t="s" s="0">
+        <v>747</v>
+      </c>
+      <c r="K1232" s="0"/>
+      <c r="L1232" t="s" s="0">
+        <v>889</v>
+      </c>
+      <c r="M1232" s="0"/>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n" s="0">
+        <v>1232.0</v>
+      </c>
+      <c r="B1233" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1233" t="s" s="0">
+        <v>1093</v>
+      </c>
+      <c r="D1233" t="s" s="0">
+        <v>746</v>
+      </c>
+      <c r="E1233" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F1233" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="G1233" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1233" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I1233" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="J1233" t="s" s="0">
+        <v>725</v>
+      </c>
+      <c r="K1233" s="0"/>
+      <c r="L1233" t="s" s="0">
+        <v>505</v>
+      </c>
+      <c r="M1233" s="0"/>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="n" s="0">
+        <v>1233.0</v>
+      </c>
+      <c r="B1234" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1234" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="D1234" t="s" s="0">
+        <v>758</v>
+      </c>
+      <c r="E1234" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="F1234" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="G1234" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1234" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1234" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="J1234" t="s" s="0">
+        <v>1616</v>
+      </c>
+      <c r="K1234" s="0"/>
+      <c r="L1234" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="M1234" s="0"/>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="n" s="0">
+        <v>1234.0</v>
+      </c>
+      <c r="B1235" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1235" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="D1235" t="s" s="0">
+        <v>749</v>
+      </c>
+      <c r="E1235" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F1235" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G1235" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1235" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I1235" t="s" s="0">
+        <v>567</v>
+      </c>
+      <c r="J1235" t="s" s="0">
+        <v>1354</v>
+      </c>
+      <c r="K1235" s="0"/>
+      <c r="L1235" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="M1235" s="0"/>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="n" s="0">
+        <v>1235.0</v>
+      </c>
+      <c r="B1236" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1236" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="D1236" t="s" s="0">
+        <v>1099</v>
+      </c>
+      <c r="E1236" t="s" s="0">
+        <v>904</v>
+      </c>
+      <c r="F1236" t="s" s="0">
+        <v>905</v>
+      </c>
+      <c r="G1236" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1236" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1236" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="J1236" t="s" s="0">
+        <v>1090</v>
+      </c>
+      <c r="K1236" s="0"/>
+      <c r="L1236" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="M1236" s="0"/>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="n" s="0">
+        <v>1236.0</v>
+      </c>
+      <c r="B1237" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1237" t="s" s="0">
+        <v>743</v>
+      </c>
+      <c r="D1237" t="s" s="0">
+        <v>753</v>
+      </c>
+      <c r="E1237" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F1237" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G1237" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="H1237" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I1237" t="s" s="0">
+        <v>1509</v>
+      </c>
+      <c r="J1237" t="s" s="0">
+        <v>761</v>
+      </c>
+      <c r="K1237" s="0"/>
+      <c r="L1237" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M1237" s="0"/>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="n" s="0">
+        <v>1237.0</v>
+      </c>
+      <c r="B1238" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1238" t="s" s="0">
+        <v>743</v>
+      </c>
+      <c r="D1238" t="s" s="0">
+        <v>1349</v>
+      </c>
+      <c r="E1238" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="F1238" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="G1238" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1238" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1238" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="J1238" t="s" s="0">
+        <v>1093</v>
+      </c>
+      <c r="K1238" s="0"/>
+      <c r="L1238" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="M1238" s="0"/>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n" s="0">
+        <v>1238.0</v>
+      </c>
+      <c r="B1239" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1239" t="s" s="0">
+        <v>738</v>
+      </c>
+      <c r="D1239" t="s" s="0">
+        <v>1513</v>
+      </c>
+      <c r="E1239" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F1239" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G1239" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="H1239" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I1239" t="s" s="0">
+        <v>1429</v>
+      </c>
+      <c r="J1239" t="s" s="0">
+        <v>1722</v>
+      </c>
+      <c r="K1239" s="0"/>
+      <c r="L1239" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="M1239" s="0"/>
+    </row>
+    <row r="1240">
+      <c r="A1240" t="n" s="0">
+        <v>1239.0</v>
+      </c>
+      <c r="B1240" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1240" t="s" s="0">
+        <v>745</v>
+      </c>
+      <c r="D1240" t="s" s="0">
+        <v>1351</v>
+      </c>
+      <c r="E1240" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="F1240" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="G1240" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="H1240" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1240" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="J1240" t="s" s="0">
+        <v>1831</v>
+      </c>
+      <c r="K1240" s="0"/>
+      <c r="L1240" t="s" s="0">
+        <v>923</v>
+      </c>
+      <c r="M1240" s="0"/>
+    </row>
+    <row r="1241">
+      <c r="A1241" t="n" s="0">
+        <v>1240.0</v>
+      </c>
+      <c r="B1241" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1241" t="s" s="0">
+        <v>745</v>
+      </c>
+      <c r="D1241" t="s" s="0">
+        <v>760</v>
+      </c>
+      <c r="E1241" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="F1241" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="G1241" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1241" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1241" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="J1241" t="s" s="0">
+        <v>1352</v>
+      </c>
+      <c r="K1241" s="0"/>
+      <c r="L1241" t="s" s="0">
+        <v>684</v>
+      </c>
+      <c r="M1241" s="0"/>
+    </row>
+    <row r="1242">
+      <c r="A1242" t="n" s="0">
+        <v>1241.0</v>
+      </c>
+      <c r="B1242" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1242" t="s" s="0">
+        <v>769</v>
+      </c>
+      <c r="D1242" t="s" s="0">
+        <v>770</v>
+      </c>
+      <c r="E1242" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="F1242" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G1242" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="H1242" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I1242" t="s" s="0">
+        <v>1741</v>
+      </c>
+      <c r="J1242" t="s" s="0">
+        <v>769</v>
+      </c>
+      <c r="K1242" s="0"/>
+      <c r="L1242" t="s" s="0">
+        <v>674</v>
+      </c>
+      <c r="M1242" s="0"/>
+    </row>
+    <row r="1243">
+      <c r="A1243" t="n" s="0">
+        <v>1242.0</v>
+      </c>
+      <c r="B1243" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1243" t="s" s="0">
+        <v>773</v>
+      </c>
+      <c r="D1243" t="s" s="0">
+        <v>774</v>
+      </c>
+      <c r="E1243" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="F1243" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="G1243" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="H1243" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="I1243" t="s" s="0">
+        <v>930</v>
+      </c>
+      <c r="J1243" t="s" s="0">
+        <v>1832</v>
+      </c>
+      <c r="K1243" s="0"/>
+      <c r="L1243" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="M1243" s="0"/>
+    </row>
+    <row r="1244">
+      <c r="A1244" t="n" s="0">
+        <v>1243.0</v>
+      </c>
+      <c r="B1244" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1244" t="s" s="0">
+        <v>1107</v>
+      </c>
+      <c r="D1244" t="s" s="0">
+        <v>1833</v>
+      </c>
+      <c r="E1244" t="s" s="0">
+        <v>1204</v>
+      </c>
+      <c r="F1244" t="s" s="0">
+        <v>1205</v>
+      </c>
+      <c r="G1244" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1244" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1244" t="s" s="0">
+        <v>891</v>
+      </c>
+      <c r="J1244" t="s" s="0">
+        <v>1348</v>
+      </c>
+      <c r="K1244" s="0"/>
+      <c r="L1244" t="s" s="0">
+        <v>1051</v>
+      </c>
+      <c r="M1244" s="0"/>
+    </row>
+    <row r="1245">
+      <c r="A1245" t="n" s="0">
+        <v>1244.0</v>
+      </c>
+      <c r="B1245" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1245" t="s" s="0">
+        <v>1107</v>
+      </c>
+      <c r="D1245" t="s" s="0">
+        <v>1108</v>
+      </c>
+      <c r="E1245" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="F1245" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="G1245" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="H1245" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1245" t="s" s="0">
+        <v>959</v>
+      </c>
+      <c r="J1245" t="s" s="0">
+        <v>762</v>
+      </c>
+      <c r="K1245" s="0"/>
+      <c r="L1245" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="M1245" s="0"/>
+    </row>
+    <row r="1246">
+      <c r="A1246" t="n" s="0">
+        <v>1245.0</v>
+      </c>
+      <c r="B1246" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1246" t="s" s="0">
+        <v>777</v>
+      </c>
+      <c r="D1246" t="s" s="0">
+        <v>1360</v>
+      </c>
+      <c r="E1246" t="s" s="0">
+        <v>1361</v>
+      </c>
+      <c r="F1246" t="s" s="0">
+        <v>1362</v>
+      </c>
+      <c r="G1246" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1246" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I1246" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="J1246" t="s" s="0">
+        <v>1834</v>
+      </c>
+      <c r="K1246" s="0"/>
+      <c r="L1246" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="M1246" s="0"/>
+    </row>
+    <row r="1247">
+      <c r="A1247" t="n" s="0">
+        <v>1246.0</v>
+      </c>
+      <c r="B1247" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1247" t="s" s="0">
+        <v>777</v>
+      </c>
+      <c r="D1247" t="s" s="0">
+        <v>1115</v>
+      </c>
+      <c r="E1247" t="s" s="0">
+        <v>1116</v>
+      </c>
+      <c r="F1247" t="s" s="0">
+        <v>1117</v>
+      </c>
+      <c r="G1247" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1247" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I1247" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="J1247" t="s" s="0">
+        <v>1358</v>
+      </c>
+      <c r="K1247" s="0"/>
+      <c r="L1247" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M1247" s="0"/>
+    </row>
+    <row r="1248">
+      <c r="A1248" t="n" s="0">
+        <v>1247.0</v>
+      </c>
+      <c r="B1248" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1248" t="s" s="0">
+        <v>783</v>
+      </c>
+      <c r="D1248" t="s" s="0">
+        <v>1357</v>
+      </c>
+      <c r="E1248" t="s" s="0">
+        <v>1320</v>
+      </c>
+      <c r="F1248" t="s" s="0">
+        <v>1321</v>
+      </c>
+      <c r="G1248" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1248" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I1248" t="s" s="0">
+        <v>1218</v>
+      </c>
+      <c r="J1248" t="s" s="0">
+        <v>1368</v>
+      </c>
+      <c r="K1248" s="0"/>
+      <c r="L1248" t="s" s="0">
+        <v>806</v>
+      </c>
+      <c r="M1248" s="0"/>
+    </row>
+    <row r="1249">
+      <c r="A1249" t="n" s="0">
+        <v>1248.0</v>
+      </c>
+      <c r="B1249" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1249" t="s" s="0">
+        <v>788</v>
+      </c>
+      <c r="D1249" t="s" s="0">
+        <v>1363</v>
+      </c>
+      <c r="E1249" t="s" s="0">
+        <v>1364</v>
+      </c>
+      <c r="F1249" t="s" s="0">
+        <v>1365</v>
+      </c>
+      <c r="G1249" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1249" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I1249" t="s" s="0">
+        <v>494</v>
+      </c>
+      <c r="J1249" t="s" s="0">
+        <v>1835</v>
+      </c>
+      <c r="K1249" s="0"/>
+      <c r="L1249" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="M1249" s="0"/>
+    </row>
+    <row r="1250">
+      <c r="A1250" t="n" s="0">
+        <v>1249.0</v>
+      </c>
+      <c r="B1250" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1250" t="s" s="0">
+        <v>799</v>
+      </c>
+      <c r="D1250" t="s" s="0">
+        <v>800</v>
+      </c>
+      <c r="E1250" t="s" s="0">
+        <v>565</v>
+      </c>
+      <c r="F1250" t="s" s="0">
+        <v>566</v>
+      </c>
+      <c r="G1250" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1250" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I1250" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="J1250" t="s" s="0">
+        <v>812</v>
+      </c>
+      <c r="K1250" s="0"/>
+      <c r="L1250" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="M1250" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/WAW_Arrivals.xlsx
+++ b/DataBase/WAW_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12501" uniqueCount="1836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13691" uniqueCount="1906">
   <si>
     <t>NUMBER</t>
   </si>
@@ -5520,6 +5520,216 @@
   </si>
   <si>
     <t>10:39 PM</t>
+  </si>
+  <si>
+    <t>(HA-LVH)</t>
+  </si>
+  <si>
+    <t>10:58 PM</t>
+  </si>
+  <si>
+    <t>(PH-BXC)</t>
+  </si>
+  <si>
+    <t>Saturday, Jan 14</t>
+  </si>
+  <si>
+    <t>5:35 AM</t>
+  </si>
+  <si>
+    <t>3Z7605</t>
+  </si>
+  <si>
+    <t>6:07 AM</t>
+  </si>
+  <si>
+    <t>3Z7641</t>
+  </si>
+  <si>
+    <t>5:26 AM</t>
+  </si>
+  <si>
+    <t>5:55 AM</t>
+  </si>
+  <si>
+    <t>E41172</t>
+  </si>
+  <si>
+    <t>Banjul</t>
+  </si>
+  <si>
+    <t>(BJL)</t>
+  </si>
+  <si>
+    <t>5:23 AM</t>
+  </si>
+  <si>
+    <t>E47056</t>
+  </si>
+  <si>
+    <t>6:47 AM</t>
+  </si>
+  <si>
+    <t>6:04 AM</t>
+  </si>
+  <si>
+    <t>6:11 AM</t>
+  </si>
+  <si>
+    <t>7:04 AM</t>
+  </si>
+  <si>
+    <t>E55P</t>
+  </si>
+  <si>
+    <t>(OK-STS)</t>
+  </si>
+  <si>
+    <t>6:53 AM</t>
+  </si>
+  <si>
+    <t>7:28 AM</t>
+  </si>
+  <si>
+    <t>(TC-TJU)</t>
+  </si>
+  <si>
+    <t>7:52 AM</t>
+  </si>
+  <si>
+    <t>8:53 AM</t>
+  </si>
+  <si>
+    <t>(D-AILN)</t>
+  </si>
+  <si>
+    <t>(HB-AZB)</t>
+  </si>
+  <si>
+    <t>(OE-LWO)</t>
+  </si>
+  <si>
+    <t>9:12 AM</t>
+  </si>
+  <si>
+    <t>(SX-DND)</t>
+  </si>
+  <si>
+    <t>10:27 AM</t>
+  </si>
+  <si>
+    <t>LO7920</t>
+  </si>
+  <si>
+    <t>10:51 AM</t>
+  </si>
+  <si>
+    <t>(A6-EGG)</t>
+  </si>
+  <si>
+    <t>1 hours, 30 minutes</t>
+  </si>
+  <si>
+    <t>0 hours, 42 minutes</t>
+  </si>
+  <si>
+    <t>10:47 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -58 minutes</t>
+  </si>
+  <si>
+    <t>(G-EUYT)</t>
+  </si>
+  <si>
+    <t>11:59 AM</t>
+  </si>
+  <si>
+    <t>(SP-ENW)</t>
+  </si>
+  <si>
+    <t>(PH-BGI)</t>
+  </si>
+  <si>
+    <t>11:46 AM</t>
+  </si>
+  <si>
+    <t>(A7-BCQ)</t>
+  </si>
+  <si>
+    <t>11:39 AM</t>
+  </si>
+  <si>
+    <t>(D-AIBM)</t>
+  </si>
+  <si>
+    <t>(SP-ESD)</t>
+  </si>
+  <si>
+    <t>1:37 PM</t>
+  </si>
+  <si>
+    <t>2:14 PM</t>
+  </si>
+  <si>
+    <t>(D-AIUN)</t>
+  </si>
+  <si>
+    <t>1:42 PM</t>
+  </si>
+  <si>
+    <t>LH9860</t>
+  </si>
+  <si>
+    <t>(D-AIZA)</t>
+  </si>
+  <si>
+    <t>2:27 PM</t>
+  </si>
+  <si>
+    <t>2:43 PM</t>
+  </si>
+  <si>
+    <t>E47598</t>
+  </si>
+  <si>
+    <t>(HA-LZN)</t>
+  </si>
+  <si>
+    <t>LO6302</t>
+  </si>
+  <si>
+    <t>3:47 PM</t>
+  </si>
+  <si>
+    <t>LO6278</t>
+  </si>
+  <si>
+    <t>Turin</t>
+  </si>
+  <si>
+    <t>(TRN)</t>
+  </si>
+  <si>
+    <t>4:08 PM</t>
+  </si>
+  <si>
+    <t>4:30 PM</t>
+  </si>
+  <si>
+    <t>W61460</t>
+  </si>
+  <si>
+    <t>5:27 PM</t>
+  </si>
+  <si>
+    <t>W61462</t>
+  </si>
+  <si>
+    <t>5:13 PM</t>
+  </si>
+  <si>
+    <t>(CS-TNT)</t>
   </si>
 </sst>
 </file>
@@ -5564,7 +5774,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M1250"/>
+  <dimension ref="A1:M1369"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -51818,6 +52028,4409 @@
       </c>
       <c r="M1250" s="0"/>
     </row>
+    <row r="1251">
+      <c r="A1251" t="n" s="0">
+        <v>1250.0</v>
+      </c>
+      <c r="B1251" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1251" t="s" s="0">
+        <v>803</v>
+      </c>
+      <c r="D1251" t="s" s="0">
+        <v>1369</v>
+      </c>
+      <c r="E1251" t="s" s="0">
+        <v>1370</v>
+      </c>
+      <c r="F1251" t="s" s="0">
+        <v>1371</v>
+      </c>
+      <c r="G1251" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1251" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I1251" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="J1251" t="s" s="0">
+        <v>1124</v>
+      </c>
+      <c r="K1251" s="0"/>
+      <c r="L1251" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="M1251" s="0"/>
+    </row>
+    <row r="1252">
+      <c r="A1252" t="n" s="0">
+        <v>1251.0</v>
+      </c>
+      <c r="B1252" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1252" t="s" s="0">
+        <v>810</v>
+      </c>
+      <c r="D1252" t="s" s="0">
+        <v>811</v>
+      </c>
+      <c r="E1252" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F1252" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="G1252" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1252" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I1252" t="s" s="0">
+        <v>1836</v>
+      </c>
+      <c r="J1252" t="s" s="0">
+        <v>803</v>
+      </c>
+      <c r="K1252" s="0"/>
+      <c r="L1252" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="M1252" s="0"/>
+    </row>
+    <row r="1253">
+      <c r="A1253" t="n" s="0">
+        <v>1252.0</v>
+      </c>
+      <c r="B1253" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1253" t="s" s="0">
+        <v>810</v>
+      </c>
+      <c r="D1253" t="s" s="0">
+        <v>814</v>
+      </c>
+      <c r="E1253" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="F1253" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="G1253" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1253" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I1253" t="s" s="0">
+        <v>1761</v>
+      </c>
+      <c r="J1253" t="s" s="0">
+        <v>1837</v>
+      </c>
+      <c r="K1253" s="0"/>
+      <c r="L1253" t="s" s="0">
+        <v>684</v>
+      </c>
+      <c r="M1253" s="0"/>
+    </row>
+    <row r="1254">
+      <c r="A1254" t="n" s="0">
+        <v>1253.0</v>
+      </c>
+      <c r="B1254" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="C1254" t="s" s="0">
+        <v>822</v>
+      </c>
+      <c r="D1254" t="s" s="0">
+        <v>823</v>
+      </c>
+      <c r="E1254" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="F1254" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="G1254" t="s" s="0">
+        <v>560</v>
+      </c>
+      <c r="H1254" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I1254" t="s" s="0">
+        <v>1838</v>
+      </c>
+      <c r="J1254" t="s" s="0">
+        <v>794</v>
+      </c>
+      <c r="K1254" s="0"/>
+      <c r="L1254" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="M1254" s="0"/>
+    </row>
+    <row r="1255">
+      <c r="A1255" t="n" s="0">
+        <v>1254.0</v>
+      </c>
+      <c r="B1255" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1255" t="s" s="0">
+        <v>1840</v>
+      </c>
+      <c r="D1255" t="s" s="0">
+        <v>1841</v>
+      </c>
+      <c r="E1255" t="s" s="0">
+        <v>1386</v>
+      </c>
+      <c r="F1255" t="s" s="0">
+        <v>1387</v>
+      </c>
+      <c r="G1255" t="s" s="0">
+        <v>592</v>
+      </c>
+      <c r="H1255" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I1255" t="s" s="0">
+        <v>1473</v>
+      </c>
+      <c r="J1255" t="s" s="0">
+        <v>1842</v>
+      </c>
+      <c r="K1255" s="0"/>
+      <c r="L1255" t="s" s="0">
+        <v>1633</v>
+      </c>
+      <c r="M1255" s="0"/>
+    </row>
+    <row r="1256">
+      <c r="A1256" t="n" s="0">
+        <v>1255.0</v>
+      </c>
+      <c r="B1256" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1256" t="s" s="0">
+        <v>1840</v>
+      </c>
+      <c r="D1256" t="s" s="0">
+        <v>1843</v>
+      </c>
+      <c r="E1256" t="s" s="0">
+        <v>866</v>
+      </c>
+      <c r="F1256" t="s" s="0">
+        <v>867</v>
+      </c>
+      <c r="G1256" t="s" s="0">
+        <v>592</v>
+      </c>
+      <c r="H1256" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I1256" t="s" s="0">
+        <v>614</v>
+      </c>
+      <c r="J1256" t="s" s="0">
+        <v>1844</v>
+      </c>
+      <c r="K1256" s="0"/>
+      <c r="L1256" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="M1256" s="0"/>
+    </row>
+    <row r="1257">
+      <c r="A1257" t="n" s="0">
+        <v>1256.0</v>
+      </c>
+      <c r="B1257" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1257" t="s" s="0">
+        <v>1845</v>
+      </c>
+      <c r="D1257" t="s" s="0">
+        <v>1846</v>
+      </c>
+      <c r="E1257" t="s" s="0">
+        <v>1847</v>
+      </c>
+      <c r="F1257" t="s" s="0">
+        <v>1848</v>
+      </c>
+      <c r="G1257" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="H1257" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I1257" t="s" s="0">
+        <v>698</v>
+      </c>
+      <c r="J1257" t="s" s="0">
+        <v>848</v>
+      </c>
+      <c r="K1257" s="0"/>
+      <c r="L1257" t="s" s="0">
+        <v>1024</v>
+      </c>
+      <c r="M1257" s="0"/>
+    </row>
+    <row r="1258">
+      <c r="A1258" t="n" s="0">
+        <v>1257.0</v>
+      </c>
+      <c r="B1258" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1258" t="s" s="0">
+        <v>850</v>
+      </c>
+      <c r="D1258" t="s" s="0">
+        <v>1389</v>
+      </c>
+      <c r="E1258" t="s" s="0">
+        <v>1390</v>
+      </c>
+      <c r="F1258" t="s" s="0">
+        <v>1391</v>
+      </c>
+      <c r="G1258" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1258" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="I1258" t="s" s="0">
+        <v>1223</v>
+      </c>
+      <c r="J1258" t="s" s="0">
+        <v>1849</v>
+      </c>
+      <c r="K1258" s="0"/>
+      <c r="L1258" t="s" s="0">
+        <v>857</v>
+      </c>
+      <c r="M1258" s="0"/>
+    </row>
+    <row r="1259">
+      <c r="A1259" t="n" s="0">
+        <v>1258.0</v>
+      </c>
+      <c r="B1259" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1259" t="s" s="0">
+        <v>847</v>
+      </c>
+      <c r="D1259" t="s" s="0">
+        <v>1850</v>
+      </c>
+      <c r="E1259" t="s" s="0">
+        <v>866</v>
+      </c>
+      <c r="F1259" t="s" s="0">
+        <v>867</v>
+      </c>
+      <c r="G1259" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="H1259" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I1259" t="s" s="0">
+        <v>597</v>
+      </c>
+      <c r="J1259" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="K1259" s="0"/>
+      <c r="L1259" t="s" s="0">
+        <v>649</v>
+      </c>
+      <c r="M1259" s="0"/>
+    </row>
+    <row r="1260">
+      <c r="A1260" t="n" s="0">
+        <v>1259.0</v>
+      </c>
+      <c r="B1260" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1260" t="s" s="0">
+        <v>833</v>
+      </c>
+      <c r="D1260" t="s" s="0">
+        <v>834</v>
+      </c>
+      <c r="E1260" t="s" s="0">
+        <v>835</v>
+      </c>
+      <c r="F1260" t="s" s="0">
+        <v>836</v>
+      </c>
+      <c r="G1260" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="H1260" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I1260" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="J1260" t="s" s="0">
+        <v>1851</v>
+      </c>
+      <c r="K1260" s="0"/>
+      <c r="L1260" t="s" s="0">
+        <v>381</v>
+      </c>
+      <c r="M1260" s="0"/>
+    </row>
+    <row r="1261">
+      <c r="A1261" t="n" s="0">
+        <v>1260.0</v>
+      </c>
+      <c r="B1261" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1261" t="s" s="0">
+        <v>1150</v>
+      </c>
+      <c r="D1261" t="s" s="0">
+        <v>1152</v>
+      </c>
+      <c r="E1261" t="s" s="0">
+        <v>498</v>
+      </c>
+      <c r="F1261" t="s" s="0">
+        <v>499</v>
+      </c>
+      <c r="G1261" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1261" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1261" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="J1261" t="s" s="0">
+        <v>1852</v>
+      </c>
+      <c r="K1261" s="0"/>
+      <c r="L1261" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="M1261" s="0"/>
+    </row>
+    <row r="1262">
+      <c r="A1262" t="n" s="0">
+        <v>1261.0</v>
+      </c>
+      <c r="B1262" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1262" t="s" s="0">
+        <v>1150</v>
+      </c>
+      <c r="D1262" t="s" s="0">
+        <v>844</v>
+      </c>
+      <c r="E1262" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="F1262" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="G1262" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1262" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1262" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="J1262" t="s" s="0">
+        <v>1149</v>
+      </c>
+      <c r="K1262" s="0"/>
+      <c r="L1262" t="s" s="0">
+        <v>334</v>
+      </c>
+      <c r="M1262" s="0"/>
+    </row>
+    <row r="1263">
+      <c r="A1263" t="n" s="0">
+        <v>1262.0</v>
+      </c>
+      <c r="B1263" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1263" t="s" s="0">
+        <v>1150</v>
+      </c>
+      <c r="D1263" t="s" s="0">
+        <v>846</v>
+      </c>
+      <c r="E1263" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="F1263" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="G1263" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="H1263" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I1263" t="s" s="0">
+        <v>1429</v>
+      </c>
+      <c r="J1263" t="s" s="0">
+        <v>1146</v>
+      </c>
+      <c r="K1263" s="0"/>
+      <c r="L1263" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M1263" s="0"/>
+    </row>
+    <row r="1264">
+      <c r="A1264" t="n" s="0">
+        <v>1263.0</v>
+      </c>
+      <c r="B1264" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1264" t="s" s="0">
+        <v>848</v>
+      </c>
+      <c r="D1264" t="s" s="0">
+        <v>1161</v>
+      </c>
+      <c r="E1264" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="F1264" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="G1264" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1264" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1264" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="J1264" t="s" s="0">
+        <v>1524</v>
+      </c>
+      <c r="K1264" s="0"/>
+      <c r="L1264" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="M1264" s="0"/>
+    </row>
+    <row r="1265">
+      <c r="A1265" t="n" s="0">
+        <v>1264.0</v>
+      </c>
+      <c r="B1265" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1265" t="s" s="0">
+        <v>848</v>
+      </c>
+      <c r="D1265" t="s" s="0">
+        <v>1164</v>
+      </c>
+      <c r="E1265" t="s" s="0">
+        <v>517</v>
+      </c>
+      <c r="F1265" t="s" s="0">
+        <v>518</v>
+      </c>
+      <c r="G1265" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="H1265" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1265" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="J1265" t="s" s="0">
+        <v>852</v>
+      </c>
+      <c r="K1265" s="0"/>
+      <c r="L1265" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="M1265" s="0"/>
+    </row>
+    <row r="1266">
+      <c r="A1266" t="n" s="0">
+        <v>1265.0</v>
+      </c>
+      <c r="B1266" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1266" t="s" s="0">
+        <v>848</v>
+      </c>
+      <c r="D1266" t="s" s="0">
+        <v>851</v>
+      </c>
+      <c r="E1266" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F1266" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G1266" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1266" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1266" t="s" s="0">
+        <v>554</v>
+      </c>
+      <c r="J1266" t="s" s="0">
+        <v>1853</v>
+      </c>
+      <c r="K1266" s="0"/>
+      <c r="L1266" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="M1266" s="0"/>
+    </row>
+    <row r="1267">
+      <c r="A1267" t="n" s="0">
+        <v>1266.0</v>
+      </c>
+      <c r="B1267" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1267" t="s" s="0">
+        <v>1154</v>
+      </c>
+      <c r="D1267" t="s" s="0">
+        <v>1166</v>
+      </c>
+      <c r="E1267" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="F1267" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="G1267" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1267" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1267" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="J1267" t="s" s="0">
+        <v>842</v>
+      </c>
+      <c r="K1267" s="0"/>
+      <c r="L1267" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="M1267" s="0"/>
+    </row>
+    <row r="1268">
+      <c r="A1268" t="n" s="0">
+        <v>1267.0</v>
+      </c>
+      <c r="B1268" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1268" t="s" s="0">
+        <v>1154</v>
+      </c>
+      <c r="D1268" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="E1268" t="s" s="0">
+        <v>532</v>
+      </c>
+      <c r="F1268" t="s" s="0">
+        <v>533</v>
+      </c>
+      <c r="G1268" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1268" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1268" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="J1268" t="s" s="0">
+        <v>837</v>
+      </c>
+      <c r="K1268" s="0"/>
+      <c r="L1268" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="M1268" s="0"/>
+    </row>
+    <row r="1269">
+      <c r="A1269" t="n" s="0">
+        <v>1268.0</v>
+      </c>
+      <c r="B1269" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1269" t="s" s="0">
+        <v>1854</v>
+      </c>
+      <c r="D1269" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="E1269" t="s" s="0">
+        <v>502</v>
+      </c>
+      <c r="F1269" t="s" s="0">
+        <v>503</v>
+      </c>
+      <c r="G1269" t="s" s="0">
+        <v>584</v>
+      </c>
+      <c r="H1269" t="s" s="0">
+        <v>1855</v>
+      </c>
+      <c r="I1269" t="s" s="0">
+        <v>1856</v>
+      </c>
+      <c r="J1269" t="s" s="0">
+        <v>1857</v>
+      </c>
+      <c r="K1269" s="0"/>
+      <c r="L1269" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="M1269" s="0"/>
+    </row>
+    <row r="1270">
+      <c r="A1270" t="n" s="0">
+        <v>1269.0</v>
+      </c>
+      <c r="B1270" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1270" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1270" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E1270" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F1270" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1270" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1270" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I1270" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="J1270" t="s" s="0">
+        <v>1858</v>
+      </c>
+      <c r="K1270" s="0"/>
+      <c r="L1270" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="M1270" s="0"/>
+    </row>
+    <row r="1271">
+      <c r="A1271" t="n" s="0">
+        <v>1270.0</v>
+      </c>
+      <c r="B1271" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1271" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D1271" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E1271" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F1271" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G1271" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H1271" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I1271" t="s" s="0">
+        <v>1859</v>
+      </c>
+      <c r="J1271" t="s" s="0">
+        <v>1860</v>
+      </c>
+      <c r="K1271" s="0"/>
+      <c r="L1271" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="M1271" s="0"/>
+    </row>
+    <row r="1272">
+      <c r="A1272" t="n" s="0">
+        <v>1271.0</v>
+      </c>
+      <c r="B1272" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1272" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D1272" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E1272" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F1272" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G1272" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H1272" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1272" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="J1272" t="s" s="0">
+        <v>858</v>
+      </c>
+      <c r="K1272" s="0"/>
+      <c r="L1272" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="M1272" s="0"/>
+    </row>
+    <row r="1273">
+      <c r="A1273" t="n" s="0">
+        <v>1272.0</v>
+      </c>
+      <c r="B1273" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1273" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D1273" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E1273" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F1273" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G1273" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1273" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I1273" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="J1273" t="s" s="0">
+        <v>1181</v>
+      </c>
+      <c r="K1273" s="0"/>
+      <c r="L1273" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="M1273" s="0"/>
+    </row>
+    <row r="1274">
+      <c r="A1274" t="n" s="0">
+        <v>1273.0</v>
+      </c>
+      <c r="B1274" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1274" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D1274" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="E1274" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F1274" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="G1274" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1274" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1274" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="J1274" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="K1274" s="0"/>
+      <c r="L1274" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="M1274" s="0"/>
+    </row>
+    <row r="1275">
+      <c r="A1275" t="n" s="0">
+        <v>1274.0</v>
+      </c>
+      <c r="B1275" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1275" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D1275" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="E1275" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F1275" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="G1275" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="H1275" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I1275" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="J1275" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="K1275" s="0"/>
+      <c r="L1275" t="s" s="0">
+        <v>674</v>
+      </c>
+      <c r="M1275" s="0"/>
+    </row>
+    <row r="1276">
+      <c r="A1276" t="n" s="0">
+        <v>1275.0</v>
+      </c>
+      <c r="B1276" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1276" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="D1276" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="E1276" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="F1276" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="G1276" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1276" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I1276" t="s" s="0">
+        <v>441</v>
+      </c>
+      <c r="J1276" t="s" s="0">
+        <v>1861</v>
+      </c>
+      <c r="K1276" s="0"/>
+      <c r="L1276" t="s" s="0">
+        <v>334</v>
+      </c>
+      <c r="M1276" s="0"/>
+    </row>
+    <row r="1277">
+      <c r="A1277" t="n" s="0">
+        <v>1276.0</v>
+      </c>
+      <c r="B1277" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1277" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="D1277" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="E1277" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="F1277" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G1277" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="H1277" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="I1277" t="s" s="0">
+        <v>1862</v>
+      </c>
+      <c r="J1277" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="K1277" s="0"/>
+      <c r="L1277" t="s" s="0">
+        <v>806</v>
+      </c>
+      <c r="M1277" s="0"/>
+    </row>
+    <row r="1278">
+      <c r="A1278" t="n" s="0">
+        <v>1277.0</v>
+      </c>
+      <c r="B1278" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1278" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="D1278" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="E1278" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="F1278" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="G1278" t="s" s="0">
+        <v>1185</v>
+      </c>
+      <c r="H1278" t="s" s="0">
+        <v>1186</v>
+      </c>
+      <c r="I1278" t="s" s="0">
+        <v>1863</v>
+      </c>
+      <c r="J1278" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="K1278" s="0"/>
+      <c r="L1278" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="M1278" s="0"/>
+    </row>
+    <row r="1279">
+      <c r="A1279" t="n" s="0">
+        <v>1278.0</v>
+      </c>
+      <c r="B1279" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1279" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="D1279" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="E1279" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="F1279" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="G1279" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1279" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1279" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="J1279" t="s" s="0">
+        <v>1404</v>
+      </c>
+      <c r="K1279" s="0"/>
+      <c r="L1279" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="M1279" s="0"/>
+    </row>
+    <row r="1280">
+      <c r="A1280" t="n" s="0">
+        <v>1279.0</v>
+      </c>
+      <c r="B1280" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1280" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="D1280" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="E1280" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="F1280" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G1280" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1280" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1280" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="J1280" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="K1280" s="0"/>
+      <c r="L1280" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="M1280" s="0"/>
+    </row>
+    <row r="1281">
+      <c r="A1281" t="n" s="0">
+        <v>1280.0</v>
+      </c>
+      <c r="B1281" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1281" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="D1281" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="E1281" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F1281" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G1281" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1281" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1281" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="J1281" t="s" s="0">
+        <v>1189</v>
+      </c>
+      <c r="K1281" s="0"/>
+      <c r="L1281" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="M1281" s="0"/>
+    </row>
+    <row r="1282">
+      <c r="A1282" t="n" s="0">
+        <v>1281.0</v>
+      </c>
+      <c r="B1282" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1282" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="D1282" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="E1282" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="F1282" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="G1282" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="H1282" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1282" t="s" s="0">
+        <v>1864</v>
+      </c>
+      <c r="J1282" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="K1282" s="0"/>
+      <c r="L1282" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="M1282" s="0"/>
+    </row>
+    <row r="1283">
+      <c r="A1283" t="n" s="0">
+        <v>1282.0</v>
+      </c>
+      <c r="B1283" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1283" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="D1283" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="E1283" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="F1283" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="G1283" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1283" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I1283" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="J1283" t="s" s="0">
+        <v>1865</v>
+      </c>
+      <c r="K1283" s="0"/>
+      <c r="L1283" t="s" s="0">
+        <v>569</v>
+      </c>
+      <c r="M1283" s="0"/>
+    </row>
+    <row r="1284">
+      <c r="A1284" t="n" s="0">
+        <v>1283.0</v>
+      </c>
+      <c r="B1284" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1284" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="D1284" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="E1284" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="F1284" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="G1284" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1284" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1284" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="J1284" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="K1284" s="0"/>
+      <c r="L1284" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="M1284" s="0"/>
+    </row>
+    <row r="1285">
+      <c r="A1285" t="n" s="0">
+        <v>1284.0</v>
+      </c>
+      <c r="B1285" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1285" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="D1285" t="s" s="0">
+        <v>880</v>
+      </c>
+      <c r="E1285" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F1285" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G1285" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="H1285" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1285" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="J1285" t="s" s="0">
+        <v>879</v>
+      </c>
+      <c r="K1285" s="0"/>
+      <c r="L1285" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="M1285" s="0"/>
+    </row>
+    <row r="1286">
+      <c r="A1286" t="n" s="0">
+        <v>1285.0</v>
+      </c>
+      <c r="B1286" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1286" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="D1286" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="E1286" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="F1286" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="G1286" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1286" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1286" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="J1286" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="K1286" s="0"/>
+      <c r="L1286" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="M1286" s="0"/>
+    </row>
+    <row r="1287">
+      <c r="A1287" t="n" s="0">
+        <v>1286.0</v>
+      </c>
+      <c r="B1287" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1287" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="D1287" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="E1287" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F1287" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="G1287" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1287" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I1287" t="s" s="0">
+        <v>433</v>
+      </c>
+      <c r="J1287" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="K1287" s="0"/>
+      <c r="L1287" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="M1287" s="0"/>
+    </row>
+    <row r="1288">
+      <c r="A1288" t="n" s="0">
+        <v>1287.0</v>
+      </c>
+      <c r="B1288" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1288" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="D1288" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="E1288" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="F1288" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="G1288" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1288" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1288" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="J1288" t="s" s="0">
+        <v>877</v>
+      </c>
+      <c r="K1288" s="0"/>
+      <c r="L1288" t="s" s="0">
+        <v>889</v>
+      </c>
+      <c r="M1288" s="0"/>
+    </row>
+    <row r="1289">
+      <c r="A1289" t="n" s="0">
+        <v>1288.0</v>
+      </c>
+      <c r="B1289" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1289" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="D1289" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="E1289" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="F1289" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="G1289" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1289" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I1289" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="J1289" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="K1289" s="0"/>
+      <c r="L1289" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="M1289" s="0"/>
+    </row>
+    <row r="1290">
+      <c r="A1290" t="n" s="0">
+        <v>1289.0</v>
+      </c>
+      <c r="B1290" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1290" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="D1290" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="E1290" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="F1290" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="G1290" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H1290" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I1290" t="s" s="0">
+        <v>1866</v>
+      </c>
+      <c r="J1290" t="s" s="0">
+        <v>1867</v>
+      </c>
+      <c r="K1290" s="0"/>
+      <c r="L1290" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="M1290" s="0"/>
+    </row>
+    <row r="1291">
+      <c r="A1291" t="n" s="0">
+        <v>1290.0</v>
+      </c>
+      <c r="B1291" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1291" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="D1291" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="E1291" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="F1291" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="G1291" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1291" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I1291" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="J1291" t="s" s="0">
+        <v>1539</v>
+      </c>
+      <c r="K1291" s="0"/>
+      <c r="L1291" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="M1291" s="0"/>
+    </row>
+    <row r="1292">
+      <c r="A1292" t="n" s="0">
+        <v>1291.0</v>
+      </c>
+      <c r="B1292" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1292" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="D1292" t="s" s="0">
+        <v>1868</v>
+      </c>
+      <c r="E1292" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="F1292" t="s" s="0">
+        <v>1251</v>
+      </c>
+      <c r="G1292" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1292" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="I1292" t="s" s="0">
+        <v>474</v>
+      </c>
+      <c r="J1292" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="K1292" s="0"/>
+      <c r="L1292" t="s" s="0">
+        <v>684</v>
+      </c>
+      <c r="M1292" s="0"/>
+    </row>
+    <row r="1293">
+      <c r="A1293" t="n" s="0">
+        <v>1292.0</v>
+      </c>
+      <c r="B1293" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1293" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="D1293" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="E1293" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="F1293" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="G1293" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1293" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="I1293" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="J1293" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="K1293" s="0"/>
+      <c r="L1293" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="M1293" s="0"/>
+    </row>
+    <row r="1294">
+      <c r="A1294" t="n" s="0">
+        <v>1293.0</v>
+      </c>
+      <c r="B1294" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1294" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="D1294" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="E1294" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="F1294" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="G1294" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="H1294" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I1294" t="s" s="0">
+        <v>1429</v>
+      </c>
+      <c r="J1294" t="s" s="0">
+        <v>1869</v>
+      </c>
+      <c r="K1294" s="0"/>
+      <c r="L1294" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="M1294" s="0"/>
+    </row>
+    <row r="1295">
+      <c r="A1295" t="n" s="0">
+        <v>1294.0</v>
+      </c>
+      <c r="B1295" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1295" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="D1295" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="E1295" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="F1295" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="G1295" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="H1295" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="I1295" t="s" s="0">
+        <v>1870</v>
+      </c>
+      <c r="J1295" t="s" s="0">
+        <v>1212</v>
+      </c>
+      <c r="K1295" s="0"/>
+      <c r="L1295" t="s" s="0">
+        <v>279</v>
+      </c>
+      <c r="M1295" s="0"/>
+    </row>
+    <row r="1296">
+      <c r="A1296" t="n" s="0">
+        <v>1295.0</v>
+      </c>
+      <c r="B1296" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1296" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="D1296" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="E1296" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="F1296" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="G1296" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1296" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1296" t="s" s="0">
+        <v>891</v>
+      </c>
+      <c r="J1296" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="K1296" s="0"/>
+      <c r="L1296" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="M1296" s="0"/>
+    </row>
+    <row r="1297">
+      <c r="A1297" t="n" s="0">
+        <v>1296.0</v>
+      </c>
+      <c r="B1297" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1297" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="D1297" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="E1297" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="F1297" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="G1297" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1297" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I1297" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="J1297" t="s" s="0">
+        <v>1209</v>
+      </c>
+      <c r="K1297" s="0"/>
+      <c r="L1297" t="s" s="0">
+        <v>1051</v>
+      </c>
+      <c r="M1297" s="0"/>
+    </row>
+    <row r="1298">
+      <c r="A1298" t="n" s="0">
+        <v>1297.0</v>
+      </c>
+      <c r="B1298" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1298" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="D1298" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="E1298" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F1298" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="G1298" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1298" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I1298" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="J1298" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="K1298" s="0"/>
+      <c r="L1298" t="s" s="0">
+        <v>420</v>
+      </c>
+      <c r="M1298" s="0"/>
+    </row>
+    <row r="1299">
+      <c r="A1299" t="n" s="0">
+        <v>1298.0</v>
+      </c>
+      <c r="B1299" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1299" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="D1299" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="E1299" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="F1299" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="G1299" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1299" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I1299" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="J1299" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="K1299" s="0"/>
+      <c r="L1299" t="s" s="0">
+        <v>1871</v>
+      </c>
+      <c r="M1299" s="0"/>
+    </row>
+    <row r="1300">
+      <c r="A1300" t="n" s="0">
+        <v>1299.0</v>
+      </c>
+      <c r="B1300" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1300" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="D1300" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="E1300" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="F1300" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="G1300" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1300" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="I1300" t="s" s="0">
+        <v>363</v>
+      </c>
+      <c r="J1300" t="s" s="0">
+        <v>922</v>
+      </c>
+      <c r="K1300" s="0"/>
+      <c r="L1300" t="s" s="0">
+        <v>1872</v>
+      </c>
+      <c r="M1300" s="0"/>
+    </row>
+    <row r="1301">
+      <c r="A1301" t="n" s="0">
+        <v>1300.0</v>
+      </c>
+      <c r="B1301" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1301" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="D1301" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="E1301" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="F1301" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="G1301" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1301" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="I1301" t="s" s="0">
+        <v>1420</v>
+      </c>
+      <c r="J1301" t="s" s="0">
+        <v>1873</v>
+      </c>
+      <c r="K1301" s="0"/>
+      <c r="L1301" t="s" s="0">
+        <v>1874</v>
+      </c>
+      <c r="M1301" s="0"/>
+    </row>
+    <row r="1302">
+      <c r="A1302" t="n" s="0">
+        <v>1301.0</v>
+      </c>
+      <c r="B1302" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1302" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="D1302" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="E1302" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F1302" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="G1302" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1302" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I1302" t="s" s="0">
+        <v>1761</v>
+      </c>
+      <c r="J1302" t="s" s="0">
+        <v>1219</v>
+      </c>
+      <c r="K1302" s="0"/>
+      <c r="L1302" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="M1302" s="0"/>
+    </row>
+    <row r="1303">
+      <c r="A1303" t="n" s="0">
+        <v>1302.0</v>
+      </c>
+      <c r="B1303" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1303" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="D1303" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="E1303" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F1303" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="G1303" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1303" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I1303" t="s" s="0">
+        <v>494</v>
+      </c>
+      <c r="J1303" t="s" s="0">
+        <v>1221</v>
+      </c>
+      <c r="K1303" s="0"/>
+      <c r="L1303" t="s" s="0">
+        <v>420</v>
+      </c>
+      <c r="M1303" s="0"/>
+    </row>
+    <row r="1304">
+      <c r="A1304" t="n" s="0">
+        <v>1303.0</v>
+      </c>
+      <c r="B1304" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1304" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="D1304" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="E1304" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F1304" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="G1304" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="H1304" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I1304" t="s" s="0">
+        <v>1875</v>
+      </c>
+      <c r="J1304" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="K1304" s="0"/>
+      <c r="L1304" t="s" s="0">
+        <v>889</v>
+      </c>
+      <c r="M1304" s="0"/>
+    </row>
+    <row r="1305">
+      <c r="A1305" t="n" s="0">
+        <v>1304.0</v>
+      </c>
+      <c r="B1305" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1305" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="D1305" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="E1305" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="F1305" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="G1305" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1305" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1305" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="J1305" t="s" s="0">
+        <v>1419</v>
+      </c>
+      <c r="K1305" s="0"/>
+      <c r="L1305" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="M1305" s="0"/>
+    </row>
+    <row r="1306">
+      <c r="A1306" t="n" s="0">
+        <v>1305.0</v>
+      </c>
+      <c r="B1306" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1306" t="s" s="0">
+        <v>1876</v>
+      </c>
+      <c r="D1306" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="E1306" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F1306" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G1306" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="H1306" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I1306" t="s" s="0">
+        <v>1877</v>
+      </c>
+      <c r="J1306" t="s" s="0">
+        <v>1552</v>
+      </c>
+      <c r="K1306" s="0"/>
+      <c r="L1306" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="M1306" s="0"/>
+    </row>
+    <row r="1307">
+      <c r="A1307" t="n" s="0">
+        <v>1306.0</v>
+      </c>
+      <c r="B1307" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1307" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="D1307" t="s" s="0">
+        <v>1229</v>
+      </c>
+      <c r="E1307" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="F1307" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="G1307" t="s" s="0">
+        <v>560</v>
+      </c>
+      <c r="H1307" t="s" s="0">
+        <v>1230</v>
+      </c>
+      <c r="I1307" t="s" s="0">
+        <v>1878</v>
+      </c>
+      <c r="J1307" t="s" s="0">
+        <v>1879</v>
+      </c>
+      <c r="K1307" s="0"/>
+      <c r="L1307" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="M1307" s="0"/>
+    </row>
+    <row r="1308">
+      <c r="A1308" t="n" s="0">
+        <v>1307.0</v>
+      </c>
+      <c r="B1308" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1308" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="D1308" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="E1308" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="F1308" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="G1308" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="H1308" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="I1308" t="s" s="0">
+        <v>1880</v>
+      </c>
+      <c r="J1308" t="s" s="0">
+        <v>1881</v>
+      </c>
+      <c r="K1308" s="0"/>
+      <c r="L1308" t="s" s="0">
+        <v>649</v>
+      </c>
+      <c r="M1308" s="0"/>
+    </row>
+    <row r="1309">
+      <c r="A1309" t="n" s="0">
+        <v>1308.0</v>
+      </c>
+      <c r="B1309" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1309" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="D1309" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="E1309" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F1309" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G1309" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="H1309" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I1309" t="s" s="0">
+        <v>754</v>
+      </c>
+      <c r="J1309" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="K1309" s="0"/>
+      <c r="L1309" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="M1309" s="0"/>
+    </row>
+    <row r="1310">
+      <c r="A1310" t="n" s="0">
+        <v>1309.0</v>
+      </c>
+      <c r="B1310" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1310" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="D1310" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="E1310" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="F1310" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="G1310" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="H1310" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1310" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="J1310" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="K1310" s="0"/>
+      <c r="L1310" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="M1310" s="0"/>
+    </row>
+    <row r="1311">
+      <c r="A1311" t="n" s="0">
+        <v>1310.0</v>
+      </c>
+      <c r="B1311" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1311" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="D1311" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="E1311" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="F1311" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="G1311" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1311" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1311" t="s" s="0">
+        <v>554</v>
+      </c>
+      <c r="J1311" t="s" s="0">
+        <v>1239</v>
+      </c>
+      <c r="K1311" s="0"/>
+      <c r="L1311" t="s" s="0">
+        <v>684</v>
+      </c>
+      <c r="M1311" s="0"/>
+    </row>
+    <row r="1312">
+      <c r="A1312" t="n" s="0">
+        <v>1311.0</v>
+      </c>
+      <c r="B1312" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1312" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="D1312" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="E1312" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F1312" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G1312" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H1312" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1312" t="s" s="0">
+        <v>862</v>
+      </c>
+      <c r="J1312" t="s" s="0">
+        <v>916</v>
+      </c>
+      <c r="K1312" s="0"/>
+      <c r="L1312" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="M1312" s="0"/>
+    </row>
+    <row r="1313">
+      <c r="A1313" t="n" s="0">
+        <v>1312.0</v>
+      </c>
+      <c r="B1313" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1313" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="D1313" t="s" s="0">
+        <v>301</v>
+      </c>
+      <c r="E1313" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="F1313" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G1313" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1313" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1313" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="J1313" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="K1313" s="0"/>
+      <c r="L1313" t="s" s="0">
+        <v>1664</v>
+      </c>
+      <c r="M1313" s="0"/>
+    </row>
+    <row r="1314">
+      <c r="A1314" t="n" s="0">
+        <v>1313.0</v>
+      </c>
+      <c r="B1314" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1314" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="D1314" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="E1314" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="F1314" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="G1314" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1314" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1314" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="J1314" t="s" s="0">
+        <v>1248</v>
+      </c>
+      <c r="K1314" s="0"/>
+      <c r="L1314" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="M1314" s="0"/>
+    </row>
+    <row r="1315">
+      <c r="A1315" t="n" s="0">
+        <v>1314.0</v>
+      </c>
+      <c r="B1315" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1315" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="D1315" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="E1315" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="F1315" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="G1315" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1315" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1315" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="J1315" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="K1315" s="0"/>
+      <c r="L1315" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="M1315" s="0"/>
+    </row>
+    <row r="1316">
+      <c r="A1316" t="n" s="0">
+        <v>1315.0</v>
+      </c>
+      <c r="B1316" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1316" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="D1316" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="E1316" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="F1316" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="G1316" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1316" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1316" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="J1316" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="K1316" s="0"/>
+      <c r="L1316" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="M1316" s="0"/>
+    </row>
+    <row r="1317">
+      <c r="A1317" t="n" s="0">
+        <v>1316.0</v>
+      </c>
+      <c r="B1317" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1317" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="D1317" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="E1317" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="F1317" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="G1317" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1317" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I1317" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="J1317" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="K1317" s="0"/>
+      <c r="L1317" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="M1317" s="0"/>
+    </row>
+    <row r="1318">
+      <c r="A1318" t="n" s="0">
+        <v>1317.0</v>
+      </c>
+      <c r="B1318" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1318" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="D1318" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="E1318" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="F1318" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="G1318" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1318" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1318" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="J1318" t="s" s="0">
+        <v>1772</v>
+      </c>
+      <c r="K1318" s="0"/>
+      <c r="L1318" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="M1318" s="0"/>
+    </row>
+    <row r="1319">
+      <c r="A1319" t="n" s="0">
+        <v>1318.0</v>
+      </c>
+      <c r="B1319" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1319" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="D1319" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="E1319" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="F1319" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="G1319" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="H1319" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1319" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="J1319" t="s" s="0">
+        <v>938</v>
+      </c>
+      <c r="K1319" s="0"/>
+      <c r="L1319" t="s" s="0">
+        <v>864</v>
+      </c>
+      <c r="M1319" s="0"/>
+    </row>
+    <row r="1320">
+      <c r="A1320" t="n" s="0">
+        <v>1319.0</v>
+      </c>
+      <c r="B1320" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1320" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="D1320" t="s" s="0">
+        <v>346</v>
+      </c>
+      <c r="E1320" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="F1320" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="G1320" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1320" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1320" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="J1320" t="s" s="0">
+        <v>1431</v>
+      </c>
+      <c r="K1320" s="0"/>
+      <c r="L1320" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="M1320" s="0"/>
+    </row>
+    <row r="1321">
+      <c r="A1321" t="n" s="0">
+        <v>1320.0</v>
+      </c>
+      <c r="B1321" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1321" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="D1321" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="E1321" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="F1321" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="G1321" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="H1321" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="I1321" t="s" s="0">
+        <v>1882</v>
+      </c>
+      <c r="J1321" t="s" s="0">
+        <v>1252</v>
+      </c>
+      <c r="K1321" s="0"/>
+      <c r="L1321" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="M1321" s="0"/>
+    </row>
+    <row r="1322">
+      <c r="A1322" t="n" s="0">
+        <v>1321.0</v>
+      </c>
+      <c r="B1322" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1322" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="D1322" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="E1322" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="F1322" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="G1322" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1322" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="I1322" t="s" s="0">
+        <v>907</v>
+      </c>
+      <c r="J1322" t="s" s="0">
+        <v>364</v>
+      </c>
+      <c r="K1322" s="0"/>
+      <c r="L1322" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="M1322" s="0"/>
+    </row>
+    <row r="1323">
+      <c r="A1323" t="n" s="0">
+        <v>1322.0</v>
+      </c>
+      <c r="B1323" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1323" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="D1323" t="s" s="0">
+        <v>366</v>
+      </c>
+      <c r="E1323" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="F1323" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="G1323" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1323" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1323" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="J1323" t="s" s="0">
+        <v>1245</v>
+      </c>
+      <c r="K1323" s="0"/>
+      <c r="L1323" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="M1323" s="0"/>
+    </row>
+    <row r="1324">
+      <c r="A1324" t="n" s="0">
+        <v>1323.0</v>
+      </c>
+      <c r="B1324" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1324" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="D1324" t="s" s="0">
+        <v>371</v>
+      </c>
+      <c r="E1324" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="F1324" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="G1324" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="H1324" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1324" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="J1324" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="K1324" s="0"/>
+      <c r="L1324" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="M1324" s="0"/>
+    </row>
+    <row r="1325">
+      <c r="A1325" t="n" s="0">
+        <v>1324.0</v>
+      </c>
+      <c r="B1325" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1325" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="D1325" t="s" s="0">
+        <v>376</v>
+      </c>
+      <c r="E1325" t="s" s="0">
+        <v>377</v>
+      </c>
+      <c r="F1325" t="s" s="0">
+        <v>378</v>
+      </c>
+      <c r="G1325" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="H1325" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="I1325" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="J1325" t="s" s="0">
+        <v>1256</v>
+      </c>
+      <c r="K1325" s="0"/>
+      <c r="L1325" t="s" s="0">
+        <v>1423</v>
+      </c>
+      <c r="M1325" s="0"/>
+    </row>
+    <row r="1326">
+      <c r="A1326" t="n" s="0">
+        <v>1325.0</v>
+      </c>
+      <c r="B1326" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1326" t="s" s="0">
+        <v>382</v>
+      </c>
+      <c r="D1326" t="s" s="0">
+        <v>383</v>
+      </c>
+      <c r="E1326" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F1326" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G1326" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1326" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1326" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="J1326" t="s" s="0">
+        <v>344</v>
+      </c>
+      <c r="K1326" s="0"/>
+      <c r="L1326" t="s" s="0">
+        <v>322</v>
+      </c>
+      <c r="M1326" s="0"/>
+    </row>
+    <row r="1327">
+      <c r="A1327" t="n" s="0">
+        <v>1326.0</v>
+      </c>
+      <c r="B1327" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1327" t="s" s="0">
+        <v>382</v>
+      </c>
+      <c r="D1327" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="E1327" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F1327" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G1327" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1327" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1327" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="J1327" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="K1327" s="0"/>
+      <c r="L1327" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="M1327" s="0"/>
+    </row>
+    <row r="1328">
+      <c r="A1328" t="n" s="0">
+        <v>1327.0</v>
+      </c>
+      <c r="B1328" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1328" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="D1328" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="E1328" t="s" s="0">
+        <v>393</v>
+      </c>
+      <c r="F1328" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="G1328" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1328" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I1328" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="J1328" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="K1328" s="0"/>
+      <c r="L1328" t="s" s="0">
+        <v>806</v>
+      </c>
+      <c r="M1328" s="0"/>
+    </row>
+    <row r="1329">
+      <c r="A1329" t="n" s="0">
+        <v>1328.0</v>
+      </c>
+      <c r="B1329" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1329" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="D1329" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="E1329" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="F1329" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="G1329" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1329" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1329" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="J1329" t="s" s="0">
+        <v>1259</v>
+      </c>
+      <c r="K1329" s="0"/>
+      <c r="L1329" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="M1329" s="0"/>
+    </row>
+    <row r="1330">
+      <c r="A1330" t="n" s="0">
+        <v>1329.0</v>
+      </c>
+      <c r="B1330" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1330" t="s" s="0">
+        <v>1663</v>
+      </c>
+      <c r="D1330" t="s" s="0">
+        <v>409</v>
+      </c>
+      <c r="E1330" t="s" s="0">
+        <v>410</v>
+      </c>
+      <c r="F1330" t="s" s="0">
+        <v>411</v>
+      </c>
+      <c r="G1330" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="H1330" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I1330" t="s" s="0">
+        <v>1883</v>
+      </c>
+      <c r="J1330" t="s" s="0">
+        <v>382</v>
+      </c>
+      <c r="K1330" s="0"/>
+      <c r="L1330" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="M1330" s="0"/>
+    </row>
+    <row r="1331">
+      <c r="A1331" t="n" s="0">
+        <v>1330.0</v>
+      </c>
+      <c r="B1331" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1331" t="s" s="0">
+        <v>401</v>
+      </c>
+      <c r="D1331" t="s" s="0">
+        <v>402</v>
+      </c>
+      <c r="E1331" t="s" s="0">
+        <v>403</v>
+      </c>
+      <c r="F1331" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="G1331" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1331" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I1331" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="J1331" t="s" s="0">
+        <v>943</v>
+      </c>
+      <c r="K1331" s="0"/>
+      <c r="L1331" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="M1331" s="0"/>
+    </row>
+    <row r="1332">
+      <c r="A1332" t="n" s="0">
+        <v>1331.0</v>
+      </c>
+      <c r="B1332" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1332" t="s" s="0">
+        <v>1884</v>
+      </c>
+      <c r="D1332" t="s" s="0">
+        <v>432</v>
+      </c>
+      <c r="E1332" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F1332" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G1332" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1332" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I1332" t="s" s="0">
+        <v>567</v>
+      </c>
+      <c r="J1332" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="K1332" s="0"/>
+      <c r="L1332" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="M1332" s="0"/>
+    </row>
+    <row r="1333">
+      <c r="A1333" t="n" s="0">
+        <v>1332.0</v>
+      </c>
+      <c r="B1333" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1333" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="D1333" t="s" s="0">
+        <v>415</v>
+      </c>
+      <c r="E1333" t="s" s="0">
+        <v>416</v>
+      </c>
+      <c r="F1333" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="G1333" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1333" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="I1333" t="s" s="0">
+        <v>961</v>
+      </c>
+      <c r="J1333" t="s" s="0">
+        <v>1788</v>
+      </c>
+      <c r="K1333" s="0"/>
+      <c r="L1333" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="M1333" s="0"/>
+    </row>
+    <row r="1334">
+      <c r="A1334" t="n" s="0">
+        <v>1333.0</v>
+      </c>
+      <c r="B1334" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1334" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="D1334" t="s" s="0">
+        <v>421</v>
+      </c>
+      <c r="E1334" t="s" s="0">
+        <v>422</v>
+      </c>
+      <c r="F1334" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="G1334" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1334" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1334" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="J1334" t="s" s="0">
+        <v>397</v>
+      </c>
+      <c r="K1334" s="0"/>
+      <c r="L1334" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="M1334" s="0"/>
+    </row>
+    <row r="1335">
+      <c r="A1335" t="n" s="0">
+        <v>1334.0</v>
+      </c>
+      <c r="B1335" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1335" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="D1335" t="s" s="0">
+        <v>426</v>
+      </c>
+      <c r="E1335" t="s" s="0">
+        <v>427</v>
+      </c>
+      <c r="F1335" t="s" s="0">
+        <v>428</v>
+      </c>
+      <c r="G1335" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1335" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I1335" t="s" s="0">
+        <v>1836</v>
+      </c>
+      <c r="J1335" t="s" s="0">
+        <v>430</v>
+      </c>
+      <c r="K1335" s="0"/>
+      <c r="L1335" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M1335" s="0"/>
+    </row>
+    <row r="1336">
+      <c r="A1336" t="n" s="0">
+        <v>1335.0</v>
+      </c>
+      <c r="B1336" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1336" t="s" s="0">
+        <v>435</v>
+      </c>
+      <c r="D1336" t="s" s="0">
+        <v>440</v>
+      </c>
+      <c r="E1336" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F1336" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="G1336" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="H1336" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I1336" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="J1336" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="K1336" s="0"/>
+      <c r="L1336" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="M1336" s="0"/>
+    </row>
+    <row r="1337">
+      <c r="A1337" t="n" s="0">
+        <v>1336.0</v>
+      </c>
+      <c r="B1337" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1337" t="s" s="0">
+        <v>435</v>
+      </c>
+      <c r="D1337" t="s" s="0">
+        <v>436</v>
+      </c>
+      <c r="E1337" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="F1337" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="G1337" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="H1337" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="I1337" t="s" s="0">
+        <v>951</v>
+      </c>
+      <c r="J1337" t="s" s="0">
+        <v>1885</v>
+      </c>
+      <c r="K1337" s="0"/>
+      <c r="L1337" t="s" s="0">
+        <v>1122</v>
+      </c>
+      <c r="M1337" s="0"/>
+    </row>
+    <row r="1338">
+      <c r="A1338" t="n" s="0">
+        <v>1337.0</v>
+      </c>
+      <c r="B1338" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1338" t="s" s="0">
+        <v>443</v>
+      </c>
+      <c r="D1338" t="s" s="0">
+        <v>444</v>
+      </c>
+      <c r="E1338" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="F1338" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G1338" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="H1338" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I1338" t="s" s="0">
+        <v>1886</v>
+      </c>
+      <c r="J1338" t="s" s="0">
+        <v>1437</v>
+      </c>
+      <c r="K1338" s="0"/>
+      <c r="L1338" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="M1338" s="0"/>
+    </row>
+    <row r="1339">
+      <c r="A1339" t="n" s="0">
+        <v>1338.0</v>
+      </c>
+      <c r="B1339" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1339" t="s" s="0">
+        <v>448</v>
+      </c>
+      <c r="D1339" t="s" s="0">
+        <v>449</v>
+      </c>
+      <c r="E1339" t="s" s="0">
+        <v>450</v>
+      </c>
+      <c r="F1339" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="G1339" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1339" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1339" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="J1339" t="s" s="0">
+        <v>1887</v>
+      </c>
+      <c r="K1339" s="0"/>
+      <c r="L1339" t="s" s="0">
+        <v>569</v>
+      </c>
+      <c r="M1339" s="0"/>
+    </row>
+    <row r="1340">
+      <c r="A1340" t="n" s="0">
+        <v>1339.0</v>
+      </c>
+      <c r="B1340" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1340" t="s" s="0">
+        <v>448</v>
+      </c>
+      <c r="D1340" t="s" s="0">
+        <v>453</v>
+      </c>
+      <c r="E1340" t="s" s="0">
+        <v>454</v>
+      </c>
+      <c r="F1340" t="s" s="0">
+        <v>455</v>
+      </c>
+      <c r="G1340" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="H1340" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1340" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="J1340" t="s" s="0">
+        <v>1559</v>
+      </c>
+      <c r="K1340" s="0"/>
+      <c r="L1340" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="M1340" s="0"/>
+    </row>
+    <row r="1341">
+      <c r="A1341" t="n" s="0">
+        <v>1340.0</v>
+      </c>
+      <c r="B1341" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1341" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="D1341" t="s" s="0">
+        <v>463</v>
+      </c>
+      <c r="E1341" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="F1341" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="G1341" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="H1341" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1341" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="J1341" t="s" s="0">
+        <v>1442</v>
+      </c>
+      <c r="K1341" s="0"/>
+      <c r="L1341" t="s" s="0">
+        <v>1541</v>
+      </c>
+      <c r="M1341" s="0"/>
+    </row>
+    <row r="1342">
+      <c r="A1342" t="n" s="0">
+        <v>1341.0</v>
+      </c>
+      <c r="B1342" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1342" t="s" s="0">
+        <v>963</v>
+      </c>
+      <c r="D1342" t="s" s="0">
+        <v>1888</v>
+      </c>
+      <c r="E1342" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="F1342" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="G1342" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="H1342" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I1342" t="s" s="0">
+        <v>1889</v>
+      </c>
+      <c r="J1342" t="s" s="0">
+        <v>469</v>
+      </c>
+      <c r="K1342" s="0"/>
+      <c r="L1342" t="s" s="0">
+        <v>684</v>
+      </c>
+      <c r="M1342" s="0"/>
+    </row>
+    <row r="1343">
+      <c r="A1343" t="n" s="0">
+        <v>1342.0</v>
+      </c>
+      <c r="B1343" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1343" t="s" s="0">
+        <v>476</v>
+      </c>
+      <c r="D1343" t="s" s="0">
+        <v>477</v>
+      </c>
+      <c r="E1343" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F1343" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G1343" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1343" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I1343" t="s" s="0">
+        <v>478</v>
+      </c>
+      <c r="J1343" t="s" s="0">
+        <v>1668</v>
+      </c>
+      <c r="K1343" s="0"/>
+      <c r="L1343" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="M1343" s="0"/>
+    </row>
+    <row r="1344">
+      <c r="A1344" t="n" s="0">
+        <v>1343.0</v>
+      </c>
+      <c r="B1344" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1344" t="s" s="0">
+        <v>481</v>
+      </c>
+      <c r="D1344" t="s" s="0">
+        <v>482</v>
+      </c>
+      <c r="E1344" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="F1344" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="G1344" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1344" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1344" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="J1344" t="s" s="0">
+        <v>1890</v>
+      </c>
+      <c r="K1344" s="0"/>
+      <c r="L1344" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="M1344" s="0"/>
+    </row>
+    <row r="1345">
+      <c r="A1345" t="n" s="0">
+        <v>1344.0</v>
+      </c>
+      <c r="B1345" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1345" t="s" s="0">
+        <v>485</v>
+      </c>
+      <c r="D1345" t="s" s="0">
+        <v>486</v>
+      </c>
+      <c r="E1345" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="F1345" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="G1345" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1345" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I1345" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="J1345" t="s" s="0">
+        <v>1891</v>
+      </c>
+      <c r="K1345" s="0"/>
+      <c r="L1345" t="s" s="0">
+        <v>538</v>
+      </c>
+      <c r="M1345" s="0"/>
+    </row>
+    <row r="1346">
+      <c r="A1346" t="n" s="0">
+        <v>1345.0</v>
+      </c>
+      <c r="B1346" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1346" t="s" s="0">
+        <v>485</v>
+      </c>
+      <c r="D1346" t="s" s="0">
+        <v>1892</v>
+      </c>
+      <c r="E1346" t="s" s="0">
+        <v>466</v>
+      </c>
+      <c r="F1346" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="G1346" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="H1346" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I1346" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="J1346" t="s" s="0">
+        <v>1672</v>
+      </c>
+      <c r="K1346" s="0"/>
+      <c r="L1346" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="M1346" s="0"/>
+    </row>
+    <row r="1347">
+      <c r="A1347" t="n" s="0">
+        <v>1346.0</v>
+      </c>
+      <c r="B1347" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1347" t="s" s="0">
+        <v>490</v>
+      </c>
+      <c r="D1347" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="E1347" t="s" s="0">
+        <v>492</v>
+      </c>
+      <c r="F1347" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="G1347" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1347" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I1347" t="s" s="0">
+        <v>1218</v>
+      </c>
+      <c r="J1347" t="s" s="0">
+        <v>1447</v>
+      </c>
+      <c r="K1347" s="0"/>
+      <c r="L1347" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="M1347" s="0"/>
+    </row>
+    <row r="1348">
+      <c r="A1348" t="n" s="0">
+        <v>1347.0</v>
+      </c>
+      <c r="B1348" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1348" t="s" s="0">
+        <v>496</v>
+      </c>
+      <c r="D1348" t="s" s="0">
+        <v>497</v>
+      </c>
+      <c r="E1348" t="s" s="0">
+        <v>498</v>
+      </c>
+      <c r="F1348" t="s" s="0">
+        <v>499</v>
+      </c>
+      <c r="G1348" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1348" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1348" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="J1348" t="s" s="0">
+        <v>479</v>
+      </c>
+      <c r="K1348" s="0"/>
+      <c r="L1348" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="M1348" s="0"/>
+    </row>
+    <row r="1349">
+      <c r="A1349" t="n" s="0">
+        <v>1348.0</v>
+      </c>
+      <c r="B1349" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1349" t="s" s="0">
+        <v>500</v>
+      </c>
+      <c r="D1349" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="E1349" t="s" s="0">
+        <v>502</v>
+      </c>
+      <c r="F1349" t="s" s="0">
+        <v>503</v>
+      </c>
+      <c r="G1349" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1349" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1349" t="s" s="0">
+        <v>891</v>
+      </c>
+      <c r="J1349" t="s" s="0">
+        <v>1448</v>
+      </c>
+      <c r="K1349" s="0"/>
+      <c r="L1349" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="M1349" s="0"/>
+    </row>
+    <row r="1350">
+      <c r="A1350" t="n" s="0">
+        <v>1349.0</v>
+      </c>
+      <c r="B1350" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1350" t="s" s="0">
+        <v>506</v>
+      </c>
+      <c r="D1350" t="s" s="0">
+        <v>507</v>
+      </c>
+      <c r="E1350" t="s" s="0">
+        <v>508</v>
+      </c>
+      <c r="F1350" t="s" s="0">
+        <v>509</v>
+      </c>
+      <c r="G1350" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1350" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1350" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="J1350" t="s" s="0">
+        <v>1277</v>
+      </c>
+      <c r="K1350" s="0"/>
+      <c r="L1350" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M1350" s="0"/>
+    </row>
+    <row r="1351">
+      <c r="A1351" t="n" s="0">
+        <v>1350.0</v>
+      </c>
+      <c r="B1351" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1351" t="s" s="0">
+        <v>511</v>
+      </c>
+      <c r="D1351" t="s" s="0">
+        <v>512</v>
+      </c>
+      <c r="E1351" t="s" s="0">
+        <v>513</v>
+      </c>
+      <c r="F1351" t="s" s="0">
+        <v>514</v>
+      </c>
+      <c r="G1351" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1351" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I1351" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="J1351" t="s" s="0">
+        <v>489</v>
+      </c>
+      <c r="K1351" s="0"/>
+      <c r="L1351" t="s" s="0">
+        <v>1611</v>
+      </c>
+      <c r="M1351" s="0"/>
+    </row>
+    <row r="1352">
+      <c r="A1352" t="n" s="0">
+        <v>1351.0</v>
+      </c>
+      <c r="B1352" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1352" t="s" s="0">
+        <v>530</v>
+      </c>
+      <c r="D1352" t="s" s="0">
+        <v>531</v>
+      </c>
+      <c r="E1352" t="s" s="0">
+        <v>532</v>
+      </c>
+      <c r="F1352" t="s" s="0">
+        <v>533</v>
+      </c>
+      <c r="G1352" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="H1352" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1352" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="J1352" t="s" s="0">
+        <v>1276</v>
+      </c>
+      <c r="K1352" s="0"/>
+      <c r="L1352" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="M1352" s="0"/>
+    </row>
+    <row r="1353">
+      <c r="A1353" t="n" s="0">
+        <v>1352.0</v>
+      </c>
+      <c r="B1353" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1353" t="s" s="0">
+        <v>530</v>
+      </c>
+      <c r="D1353" t="s" s="0">
+        <v>535</v>
+      </c>
+      <c r="E1353" t="s" s="0">
+        <v>450</v>
+      </c>
+      <c r="F1353" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="G1353" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1353" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I1353" t="s" s="0">
+        <v>1893</v>
+      </c>
+      <c r="J1353" t="s" s="0">
+        <v>522</v>
+      </c>
+      <c r="K1353" s="0"/>
+      <c r="L1353" t="s" s="0">
+        <v>806</v>
+      </c>
+      <c r="M1353" s="0"/>
+    </row>
+    <row r="1354">
+      <c r="A1354" t="n" s="0">
+        <v>1353.0</v>
+      </c>
+      <c r="B1354" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1354" t="s" s="0">
+        <v>1450</v>
+      </c>
+      <c r="D1354" t="s" s="0">
+        <v>1894</v>
+      </c>
+      <c r="E1354" t="s" s="0">
+        <v>1744</v>
+      </c>
+      <c r="F1354" t="s" s="0">
+        <v>1745</v>
+      </c>
+      <c r="G1354" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1354" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="I1354" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="J1354" t="s" s="0">
+        <v>984</v>
+      </c>
+      <c r="K1354" s="0"/>
+      <c r="L1354" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="M1354" s="0"/>
+    </row>
+    <row r="1355">
+      <c r="A1355" t="n" s="0">
+        <v>1354.0</v>
+      </c>
+      <c r="B1355" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1355" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="D1355" t="s" s="0">
+        <v>540</v>
+      </c>
+      <c r="E1355" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="F1355" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="G1355" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1355" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1355" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="J1355" t="s" s="0">
+        <v>1895</v>
+      </c>
+      <c r="K1355" s="0"/>
+      <c r="L1355" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="M1355" s="0"/>
+    </row>
+    <row r="1356">
+      <c r="A1356" t="n" s="0">
+        <v>1355.0</v>
+      </c>
+      <c r="B1356" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1356" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="D1356" t="s" s="0">
+        <v>542</v>
+      </c>
+      <c r="E1356" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="F1356" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="G1356" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="H1356" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I1356" t="s" s="0">
+        <v>1429</v>
+      </c>
+      <c r="J1356" t="s" s="0">
+        <v>1449</v>
+      </c>
+      <c r="K1356" s="0"/>
+      <c r="L1356" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="M1356" s="0"/>
+    </row>
+    <row r="1357">
+      <c r="A1357" t="n" s="0">
+        <v>1356.0</v>
+      </c>
+      <c r="B1357" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1357" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="D1357" t="s" s="0">
+        <v>544</v>
+      </c>
+      <c r="E1357" t="s" s="0">
+        <v>517</v>
+      </c>
+      <c r="F1357" t="s" s="0">
+        <v>518</v>
+      </c>
+      <c r="G1357" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1357" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1357" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="J1357" t="s" s="0">
+        <v>557</v>
+      </c>
+      <c r="K1357" s="0"/>
+      <c r="L1357" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="M1357" s="0"/>
+    </row>
+    <row r="1358">
+      <c r="A1358" t="n" s="0">
+        <v>1357.0</v>
+      </c>
+      <c r="B1358" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1358" t="s" s="0">
+        <v>983</v>
+      </c>
+      <c r="D1358" t="s" s="0">
+        <v>1896</v>
+      </c>
+      <c r="E1358" t="s" s="0">
+        <v>1897</v>
+      </c>
+      <c r="F1358" t="s" s="0">
+        <v>1898</v>
+      </c>
+      <c r="G1358" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1358" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I1358" t="s" s="0">
+        <v>441</v>
+      </c>
+      <c r="J1358" t="s" s="0">
+        <v>530</v>
+      </c>
+      <c r="K1358" s="0"/>
+      <c r="L1358" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M1358" s="0"/>
+    </row>
+    <row r="1359">
+      <c r="A1359" t="n" s="0">
+        <v>1358.0</v>
+      </c>
+      <c r="B1359" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1359" t="s" s="0">
+        <v>545</v>
+      </c>
+      <c r="D1359" t="s" s="0">
+        <v>546</v>
+      </c>
+      <c r="E1359" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F1359" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G1359" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1359" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1359" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="J1359" t="s" s="0">
+        <v>552</v>
+      </c>
+      <c r="K1359" s="0"/>
+      <c r="L1359" t="s" s="0">
+        <v>871</v>
+      </c>
+      <c r="M1359" s="0"/>
+    </row>
+    <row r="1360">
+      <c r="A1360" t="n" s="0">
+        <v>1359.0</v>
+      </c>
+      <c r="B1360" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1360" t="s" s="0">
+        <v>545</v>
+      </c>
+      <c r="D1360" t="s" s="0">
+        <v>548</v>
+      </c>
+      <c r="E1360" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="F1360" t="s" s="0">
+        <v>550</v>
+      </c>
+      <c r="G1360" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1360" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I1360" t="s" s="0">
+        <v>494</v>
+      </c>
+      <c r="J1360" t="s" s="0">
+        <v>979</v>
+      </c>
+      <c r="K1360" s="0"/>
+      <c r="L1360" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="M1360" s="0"/>
+    </row>
+    <row r="1361">
+      <c r="A1361" t="n" s="0">
+        <v>1360.0</v>
+      </c>
+      <c r="B1361" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1361" t="s" s="0">
+        <v>552</v>
+      </c>
+      <c r="D1361" t="s" s="0">
+        <v>553</v>
+      </c>
+      <c r="E1361" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="F1361" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="G1361" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1361" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1361" t="s" s="0">
+        <v>554</v>
+      </c>
+      <c r="J1361" t="s" s="0">
+        <v>996</v>
+      </c>
+      <c r="K1361" s="0"/>
+      <c r="L1361" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="M1361" s="0"/>
+    </row>
+    <row r="1362">
+      <c r="A1362" t="n" s="0">
+        <v>1361.0</v>
+      </c>
+      <c r="B1362" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1362" t="s" s="0">
+        <v>552</v>
+      </c>
+      <c r="D1362" t="s" s="0">
+        <v>556</v>
+      </c>
+      <c r="E1362" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="F1362" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="G1362" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1362" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1362" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="J1362" t="s" s="0">
+        <v>1001</v>
+      </c>
+      <c r="K1362" s="0"/>
+      <c r="L1362" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="M1362" s="0"/>
+    </row>
+    <row r="1363">
+      <c r="A1363" t="n" s="0">
+        <v>1362.0</v>
+      </c>
+      <c r="B1363" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1363" t="s" s="0">
+        <v>563</v>
+      </c>
+      <c r="D1363" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="E1363" t="s" s="0">
+        <v>565</v>
+      </c>
+      <c r="F1363" t="s" s="0">
+        <v>566</v>
+      </c>
+      <c r="G1363" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1363" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1363" t="s" s="0">
+        <v>928</v>
+      </c>
+      <c r="J1363" t="s" s="0">
+        <v>1899</v>
+      </c>
+      <c r="K1363" s="0"/>
+      <c r="L1363" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="M1363" s="0"/>
+    </row>
+    <row r="1364">
+      <c r="A1364" t="n" s="0">
+        <v>1363.0</v>
+      </c>
+      <c r="B1364" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1364" t="s" s="0">
+        <v>578</v>
+      </c>
+      <c r="D1364" t="s" s="0">
+        <v>579</v>
+      </c>
+      <c r="E1364" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F1364" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G1364" t="s" s="0">
+        <v>580</v>
+      </c>
+      <c r="H1364" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I1364" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="J1364" t="s" s="0">
+        <v>1900</v>
+      </c>
+      <c r="K1364" s="0"/>
+      <c r="L1364" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="M1364" s="0"/>
+    </row>
+    <row r="1365">
+      <c r="A1365" t="n" s="0">
+        <v>1364.0</v>
+      </c>
+      <c r="B1365" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1365" t="s" s="0">
+        <v>582</v>
+      </c>
+      <c r="D1365" t="s" s="0">
+        <v>596</v>
+      </c>
+      <c r="E1365" t="s" s="0">
+        <v>590</v>
+      </c>
+      <c r="F1365" t="s" s="0">
+        <v>591</v>
+      </c>
+      <c r="G1365" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="H1365" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I1365" t="s" s="0">
+        <v>796</v>
+      </c>
+      <c r="J1365" t="s" s="0">
+        <v>1689</v>
+      </c>
+      <c r="K1365" s="0"/>
+      <c r="L1365" t="s" s="0">
+        <v>1598</v>
+      </c>
+      <c r="M1365" s="0"/>
+    </row>
+    <row r="1366">
+      <c r="A1366" t="n" s="0">
+        <v>1365.0</v>
+      </c>
+      <c r="B1366" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1366" t="s" s="0">
+        <v>588</v>
+      </c>
+      <c r="D1366" t="s" s="0">
+        <v>589</v>
+      </c>
+      <c r="E1366" t="s" s="0">
+        <v>590</v>
+      </c>
+      <c r="F1366" t="s" s="0">
+        <v>591</v>
+      </c>
+      <c r="G1366" t="s" s="0">
+        <v>592</v>
+      </c>
+      <c r="H1366" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I1366" t="s" s="0">
+        <v>593</v>
+      </c>
+      <c r="J1366" t="s" s="0">
+        <v>1461</v>
+      </c>
+      <c r="K1366" s="0"/>
+      <c r="L1366" t="s" s="0">
+        <v>991</v>
+      </c>
+      <c r="M1366" s="0"/>
+    </row>
+    <row r="1367">
+      <c r="A1367" t="n" s="0">
+        <v>1366.0</v>
+      </c>
+      <c r="B1367" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1367" t="s" s="0">
+        <v>1681</v>
+      </c>
+      <c r="D1367" t="s" s="0">
+        <v>1901</v>
+      </c>
+      <c r="E1367" t="s" s="0">
+        <v>466</v>
+      </c>
+      <c r="F1367" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="G1367" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1367" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I1367" t="s" s="0">
+        <v>1761</v>
+      </c>
+      <c r="J1367" t="s" s="0">
+        <v>1902</v>
+      </c>
+      <c r="K1367" s="0"/>
+      <c r="L1367" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="M1367" s="0"/>
+    </row>
+    <row r="1368">
+      <c r="A1368" t="n" s="0">
+        <v>1367.0</v>
+      </c>
+      <c r="B1368" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1368" t="s" s="0">
+        <v>622</v>
+      </c>
+      <c r="D1368" t="s" s="0">
+        <v>1903</v>
+      </c>
+      <c r="E1368" t="s" s="0">
+        <v>1897</v>
+      </c>
+      <c r="F1368" t="s" s="0">
+        <v>1898</v>
+      </c>
+      <c r="G1368" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1368" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I1368" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="J1368" t="s" s="0">
+        <v>1904</v>
+      </c>
+      <c r="K1368" s="0"/>
+      <c r="L1368" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="M1368" s="0"/>
+    </row>
+    <row r="1369">
+      <c r="A1369" t="n" s="0">
+        <v>1368.0</v>
+      </c>
+      <c r="B1369" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1369" t="s" s="0">
+        <v>620</v>
+      </c>
+      <c r="D1369" t="s" s="0">
+        <v>623</v>
+      </c>
+      <c r="E1369" t="s" s="0">
+        <v>624</v>
+      </c>
+      <c r="F1369" t="s" s="0">
+        <v>625</v>
+      </c>
+      <c r="G1369" t="s" s="0">
+        <v>626</v>
+      </c>
+      <c r="H1369" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I1369" t="s" s="0">
+        <v>1905</v>
+      </c>
+      <c r="J1369" t="s" s="0">
+        <v>633</v>
+      </c>
+      <c r="K1369" s="0"/>
+      <c r="L1369" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="M1369" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/WAW_Arrivals.xlsx
+++ b/DataBase/WAW_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13691" uniqueCount="1906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14211" uniqueCount="1926">
   <si>
     <t>NUMBER</t>
   </si>
@@ -5730,6 +5730,66 @@
   </si>
   <si>
     <t>(CS-TNT)</t>
+  </si>
+  <si>
+    <t>AT75</t>
+  </si>
+  <si>
+    <t>(OH-ATE)</t>
+  </si>
+  <si>
+    <t>6:41 PM</t>
+  </si>
+  <si>
+    <t>7:14 PM</t>
+  </si>
+  <si>
+    <t>7:54 PM</t>
+  </si>
+  <si>
+    <t>7:17 PM</t>
+  </si>
+  <si>
+    <t>8:55 PM</t>
+  </si>
+  <si>
+    <t>8:53 PM</t>
+  </si>
+  <si>
+    <t>Palma de</t>
+  </si>
+  <si>
+    <t>(PMI)</t>
+  </si>
+  <si>
+    <t>10:19 PM</t>
+  </si>
+  <si>
+    <t>(G-EUXL)</t>
+  </si>
+  <si>
+    <t>(F-GKXI)</t>
+  </si>
+  <si>
+    <t>10:07 PM</t>
+  </si>
+  <si>
+    <t>(D-AIUF)</t>
+  </si>
+  <si>
+    <t>10:41 PM</t>
+  </si>
+  <si>
+    <t>(SP-ENU)</t>
+  </si>
+  <si>
+    <t>10:31 PM</t>
+  </si>
+  <si>
+    <t>11:02 PM</t>
+  </si>
+  <si>
+    <t>(PH-BCH)</t>
   </si>
 </sst>
 </file>
@@ -5774,7 +5834,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M1369"/>
+  <dimension ref="A1:M1421"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -56431,6 +56491,1930 @@
       </c>
       <c r="M1369" s="0"/>
     </row>
+    <row r="1370">
+      <c r="A1370" t="n" s="0">
+        <v>1369.0</v>
+      </c>
+      <c r="B1370" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1370" t="s" s="0">
+        <v>620</v>
+      </c>
+      <c r="D1370" t="s" s="0">
+        <v>1458</v>
+      </c>
+      <c r="E1370" t="s" s="0">
+        <v>1459</v>
+      </c>
+      <c r="F1370" t="s" s="0">
+        <v>1460</v>
+      </c>
+      <c r="G1370" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1370" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I1370" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="J1370" t="s" s="0">
+        <v>687</v>
+      </c>
+      <c r="K1370" s="0"/>
+      <c r="L1370" t="s" s="0">
+        <v>802</v>
+      </c>
+      <c r="M1370" s="0"/>
+    </row>
+    <row r="1371">
+      <c r="A1371" t="n" s="0">
+        <v>1370.0</v>
+      </c>
+      <c r="B1371" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1371" t="s" s="0">
+        <v>631</v>
+      </c>
+      <c r="D1371" t="s" s="0">
+        <v>632</v>
+      </c>
+      <c r="E1371" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="F1371" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="G1371" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="H1371" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1371" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="J1371" t="s" s="0">
+        <v>1583</v>
+      </c>
+      <c r="K1371" s="0"/>
+      <c r="L1371" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="M1371" s="0"/>
+    </row>
+    <row r="1372">
+      <c r="A1372" t="n" s="0">
+        <v>1371.0</v>
+      </c>
+      <c r="B1372" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1372" t="s" s="0">
+        <v>635</v>
+      </c>
+      <c r="D1372" t="s" s="0">
+        <v>636</v>
+      </c>
+      <c r="E1372" t="s" s="0">
+        <v>590</v>
+      </c>
+      <c r="F1372" t="s" s="0">
+        <v>591</v>
+      </c>
+      <c r="G1372" t="s" s="0">
+        <v>592</v>
+      </c>
+      <c r="H1372" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I1372" t="s" s="0">
+        <v>614</v>
+      </c>
+      <c r="J1372" t="s" s="0">
+        <v>1588</v>
+      </c>
+      <c r="K1372" s="0"/>
+      <c r="L1372" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="M1372" s="0"/>
+    </row>
+    <row r="1373">
+      <c r="A1373" t="n" s="0">
+        <v>1372.0</v>
+      </c>
+      <c r="B1373" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1373" t="s" s="0">
+        <v>640</v>
+      </c>
+      <c r="D1373" t="s" s="0">
+        <v>646</v>
+      </c>
+      <c r="E1373" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F1373" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G1373" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H1373" t="s" s="0">
+        <v>1906</v>
+      </c>
+      <c r="I1373" t="s" s="0">
+        <v>1907</v>
+      </c>
+      <c r="J1373" t="s" s="0">
+        <v>1071</v>
+      </c>
+      <c r="K1373" s="0"/>
+      <c r="L1373" t="s" s="0">
+        <v>1598</v>
+      </c>
+      <c r="M1373" s="0"/>
+    </row>
+    <row r="1374">
+      <c r="A1374" t="n" s="0">
+        <v>1373.0</v>
+      </c>
+      <c r="B1374" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1374" t="s" s="0">
+        <v>650</v>
+      </c>
+      <c r="D1374" t="s" s="0">
+        <v>1482</v>
+      </c>
+      <c r="E1374" t="s" s="0">
+        <v>975</v>
+      </c>
+      <c r="F1374" t="s" s="0">
+        <v>976</v>
+      </c>
+      <c r="G1374" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1374" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I1374" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="J1374" t="s" s="0">
+        <v>1055</v>
+      </c>
+      <c r="K1374" s="0"/>
+      <c r="L1374" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="M1374" s="0"/>
+    </row>
+    <row r="1375">
+      <c r="A1375" t="n" s="0">
+        <v>1374.0</v>
+      </c>
+      <c r="B1375" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1375" t="s" s="0">
+        <v>650</v>
+      </c>
+      <c r="D1375" t="s" s="0">
+        <v>651</v>
+      </c>
+      <c r="E1375" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="F1375" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="G1375" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1375" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1375" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="J1375" t="s" s="0">
+        <v>1483</v>
+      </c>
+      <c r="K1375" s="0"/>
+      <c r="L1375" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="M1375" s="0"/>
+    </row>
+    <row r="1376">
+      <c r="A1376" t="n" s="0">
+        <v>1375.0</v>
+      </c>
+      <c r="B1376" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1376" t="s" s="0">
+        <v>660</v>
+      </c>
+      <c r="D1376" t="s" s="0">
+        <v>664</v>
+      </c>
+      <c r="E1376" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F1376" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="G1376" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1376" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1376" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="J1376" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="K1376" s="0"/>
+      <c r="L1376" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="M1376" s="0"/>
+    </row>
+    <row r="1377">
+      <c r="A1377" t="n" s="0">
+        <v>1376.0</v>
+      </c>
+      <c r="B1377" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1377" t="s" s="0">
+        <v>660</v>
+      </c>
+      <c r="D1377" t="s" s="0">
+        <v>666</v>
+      </c>
+      <c r="E1377" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="F1377" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="G1377" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="H1377" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1377" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="J1377" t="s" s="0">
+        <v>1908</v>
+      </c>
+      <c r="K1377" s="0"/>
+      <c r="L1377" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="M1377" s="0"/>
+    </row>
+    <row r="1378">
+      <c r="A1378" t="n" s="0">
+        <v>1377.0</v>
+      </c>
+      <c r="B1378" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1378" t="s" s="0">
+        <v>660</v>
+      </c>
+      <c r="D1378" t="s" s="0">
+        <v>668</v>
+      </c>
+      <c r="E1378" t="s" s="0">
+        <v>669</v>
+      </c>
+      <c r="F1378" t="s" s="0">
+        <v>670</v>
+      </c>
+      <c r="G1378" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1378" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1378" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="J1378" t="s" s="0">
+        <v>1303</v>
+      </c>
+      <c r="K1378" s="0"/>
+      <c r="L1378" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="M1378" s="0"/>
+    </row>
+    <row r="1379">
+      <c r="A1379" t="n" s="0">
+        <v>1378.0</v>
+      </c>
+      <c r="B1379" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1379" t="s" s="0">
+        <v>672</v>
+      </c>
+      <c r="D1379" t="s" s="0">
+        <v>673</v>
+      </c>
+      <c r="E1379" t="s" s="0">
+        <v>508</v>
+      </c>
+      <c r="F1379" t="s" s="0">
+        <v>509</v>
+      </c>
+      <c r="G1379" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="H1379" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1379" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="J1379" t="s" s="0">
+        <v>638</v>
+      </c>
+      <c r="K1379" s="0"/>
+      <c r="L1379" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="M1379" s="0"/>
+    </row>
+    <row r="1380">
+      <c r="A1380" t="n" s="0">
+        <v>1379.0</v>
+      </c>
+      <c r="B1380" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1380" t="s" s="0">
+        <v>672</v>
+      </c>
+      <c r="D1380" t="s" s="0">
+        <v>675</v>
+      </c>
+      <c r="E1380" t="s" s="0">
+        <v>454</v>
+      </c>
+      <c r="F1380" t="s" s="0">
+        <v>455</v>
+      </c>
+      <c r="G1380" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="H1380" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1380" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="J1380" t="s" s="0">
+        <v>1059</v>
+      </c>
+      <c r="K1380" s="0"/>
+      <c r="L1380" t="s" s="0">
+        <v>370</v>
+      </c>
+      <c r="M1380" s="0"/>
+    </row>
+    <row r="1381">
+      <c r="A1381" t="n" s="0">
+        <v>1380.0</v>
+      </c>
+      <c r="B1381" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1381" t="s" s="0">
+        <v>678</v>
+      </c>
+      <c r="D1381" t="s" s="0">
+        <v>679</v>
+      </c>
+      <c r="E1381" t="s" s="0">
+        <v>498</v>
+      </c>
+      <c r="F1381" t="s" s="0">
+        <v>499</v>
+      </c>
+      <c r="G1381" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1381" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1381" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="J1381" t="s" s="0">
+        <v>1703</v>
+      </c>
+      <c r="K1381" s="0"/>
+      <c r="L1381" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="M1381" s="0"/>
+    </row>
+    <row r="1382">
+      <c r="A1382" t="n" s="0">
+        <v>1381.0</v>
+      </c>
+      <c r="B1382" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1382" t="s" s="0">
+        <v>681</v>
+      </c>
+      <c r="D1382" t="s" s="0">
+        <v>704</v>
+      </c>
+      <c r="E1382" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="F1382" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="G1382" t="s" s="0">
+        <v>705</v>
+      </c>
+      <c r="H1382" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I1382" t="s" s="0">
+        <v>1075</v>
+      </c>
+      <c r="J1382" t="s" s="0">
+        <v>1909</v>
+      </c>
+      <c r="K1382" s="0"/>
+      <c r="L1382" t="s" s="0">
+        <v>864</v>
+      </c>
+      <c r="M1382" s="0"/>
+    </row>
+    <row r="1383">
+      <c r="A1383" t="n" s="0">
+        <v>1382.0</v>
+      </c>
+      <c r="B1383" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1383" t="s" s="0">
+        <v>681</v>
+      </c>
+      <c r="D1383" t="s" s="0">
+        <v>682</v>
+      </c>
+      <c r="E1383" t="s" s="0">
+        <v>517</v>
+      </c>
+      <c r="F1383" t="s" s="0">
+        <v>518</v>
+      </c>
+      <c r="G1383" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="H1383" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I1383" t="s" s="0">
+        <v>1429</v>
+      </c>
+      <c r="J1383" t="s" s="0">
+        <v>640</v>
+      </c>
+      <c r="K1383" s="0"/>
+      <c r="L1383" t="s" s="0">
+        <v>1051</v>
+      </c>
+      <c r="M1383" s="0"/>
+    </row>
+    <row r="1384">
+      <c r="A1384" t="n" s="0">
+        <v>1383.0</v>
+      </c>
+      <c r="B1384" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1384" t="s" s="0">
+        <v>685</v>
+      </c>
+      <c r="D1384" t="s" s="0">
+        <v>686</v>
+      </c>
+      <c r="E1384" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="F1384" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="G1384" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1384" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1384" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="J1384" t="s" s="0">
+        <v>1599</v>
+      </c>
+      <c r="K1384" s="0"/>
+      <c r="L1384" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="M1384" s="0"/>
+    </row>
+    <row r="1385">
+      <c r="A1385" t="n" s="0">
+        <v>1384.0</v>
+      </c>
+      <c r="B1385" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1385" t="s" s="0">
+        <v>685</v>
+      </c>
+      <c r="D1385" t="s" s="0">
+        <v>688</v>
+      </c>
+      <c r="E1385" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="F1385" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="G1385" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1385" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I1385" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="J1385" t="s" s="0">
+        <v>650</v>
+      </c>
+      <c r="K1385" s="0"/>
+      <c r="L1385" t="s" s="0">
+        <v>1051</v>
+      </c>
+      <c r="M1385" s="0"/>
+    </row>
+    <row r="1386">
+      <c r="A1386" t="n" s="0">
+        <v>1385.0</v>
+      </c>
+      <c r="B1386" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1386" t="s" s="0">
+        <v>690</v>
+      </c>
+      <c r="D1386" t="s" s="0">
+        <v>691</v>
+      </c>
+      <c r="E1386" t="s" s="0">
+        <v>513</v>
+      </c>
+      <c r="F1386" t="s" s="0">
+        <v>514</v>
+      </c>
+      <c r="G1386" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1386" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I1386" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="J1386" t="s" s="0">
+        <v>676</v>
+      </c>
+      <c r="K1386" s="0"/>
+      <c r="L1386" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="M1386" s="0"/>
+    </row>
+    <row r="1387">
+      <c r="A1387" t="n" s="0">
+        <v>1386.0</v>
+      </c>
+      <c r="B1387" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1387" t="s" s="0">
+        <v>1312</v>
+      </c>
+      <c r="D1387" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="E1387" t="s" s="0">
+        <v>696</v>
+      </c>
+      <c r="F1387" t="s" s="0">
+        <v>697</v>
+      </c>
+      <c r="G1387" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="H1387" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I1387" t="s" s="0">
+        <v>698</v>
+      </c>
+      <c r="J1387" t="s" s="0">
+        <v>1910</v>
+      </c>
+      <c r="K1387" s="0"/>
+      <c r="L1387" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="M1387" s="0"/>
+    </row>
+    <row r="1388">
+      <c r="A1388" t="n" s="0">
+        <v>1387.0</v>
+      </c>
+      <c r="B1388" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1388" t="s" s="0">
+        <v>700</v>
+      </c>
+      <c r="D1388" t="s" s="0">
+        <v>701</v>
+      </c>
+      <c r="E1388" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="F1388" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="G1388" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1388" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I1388" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="J1388" t="s" s="0">
+        <v>1911</v>
+      </c>
+      <c r="K1388" s="0"/>
+      <c r="L1388" t="s" s="0">
+        <v>1257</v>
+      </c>
+      <c r="M1388" s="0"/>
+    </row>
+    <row r="1389">
+      <c r="A1389" t="n" s="0">
+        <v>1388.0</v>
+      </c>
+      <c r="B1389" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1389" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="D1389" t="s" s="0">
+        <v>713</v>
+      </c>
+      <c r="E1389" t="s" s="0">
+        <v>393</v>
+      </c>
+      <c r="F1389" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="G1389" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1389" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1389" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="J1389" t="s" s="0">
+        <v>1323</v>
+      </c>
+      <c r="K1389" s="0"/>
+      <c r="L1389" t="s" s="0">
+        <v>889</v>
+      </c>
+      <c r="M1389" s="0"/>
+    </row>
+    <row r="1390">
+      <c r="A1390" t="n" s="0">
+        <v>1389.0</v>
+      </c>
+      <c r="B1390" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1390" t="s" s="0">
+        <v>715</v>
+      </c>
+      <c r="D1390" t="s" s="0">
+        <v>716</v>
+      </c>
+      <c r="E1390" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="F1390" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="G1390" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1390" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1390" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="J1390" t="s" s="0">
+        <v>1497</v>
+      </c>
+      <c r="K1390" s="0"/>
+      <c r="L1390" t="s" s="0">
+        <v>889</v>
+      </c>
+      <c r="M1390" s="0"/>
+    </row>
+    <row r="1391">
+      <c r="A1391" t="n" s="0">
+        <v>1390.0</v>
+      </c>
+      <c r="B1391" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1391" t="s" s="0">
+        <v>715</v>
+      </c>
+      <c r="D1391" t="s" s="0">
+        <v>718</v>
+      </c>
+      <c r="E1391" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="F1391" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="G1391" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1391" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1391" t="s" s="0">
+        <v>554</v>
+      </c>
+      <c r="J1391" t="s" s="0">
+        <v>1912</v>
+      </c>
+      <c r="K1391" s="0"/>
+      <c r="L1391" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="M1391" s="0"/>
+    </row>
+    <row r="1392">
+      <c r="A1392" t="n" s="0">
+        <v>1391.0</v>
+      </c>
+      <c r="B1392" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1392" t="s" s="0">
+        <v>720</v>
+      </c>
+      <c r="D1392" t="s" s="0">
+        <v>721</v>
+      </c>
+      <c r="E1392" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="F1392" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="G1392" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1392" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1392" t="s" s="0">
+        <v>928</v>
+      </c>
+      <c r="J1392" t="s" s="0">
+        <v>1913</v>
+      </c>
+      <c r="K1392" s="0"/>
+      <c r="L1392" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="M1392" s="0"/>
+    </row>
+    <row r="1393">
+      <c r="A1393" t="n" s="0">
+        <v>1392.0</v>
+      </c>
+      <c r="B1393" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1393" t="s" s="0">
+        <v>723</v>
+      </c>
+      <c r="D1393" t="s" s="0">
+        <v>724</v>
+      </c>
+      <c r="E1393" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="F1393" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G1393" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1393" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1393" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="J1393" t="s" s="0">
+        <v>731</v>
+      </c>
+      <c r="K1393" s="0"/>
+      <c r="L1393" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="M1393" s="0"/>
+    </row>
+    <row r="1394">
+      <c r="A1394" t="n" s="0">
+        <v>1393.0</v>
+      </c>
+      <c r="B1394" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1394" t="s" s="0">
+        <v>726</v>
+      </c>
+      <c r="D1394" t="s" s="0">
+        <v>727</v>
+      </c>
+      <c r="E1394" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="F1394" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="G1394" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1394" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1394" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="J1394" t="s" s="0">
+        <v>1712</v>
+      </c>
+      <c r="K1394" s="0"/>
+      <c r="L1394" t="s" s="0">
+        <v>1541</v>
+      </c>
+      <c r="M1394" s="0"/>
+    </row>
+    <row r="1395">
+      <c r="A1395" t="n" s="0">
+        <v>1394.0</v>
+      </c>
+      <c r="B1395" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1395" t="s" s="0">
+        <v>726</v>
+      </c>
+      <c r="D1395" t="s" s="0">
+        <v>729</v>
+      </c>
+      <c r="E1395" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="F1395" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="G1395" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="H1395" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1395" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="J1395" t="s" s="0">
+        <v>1715</v>
+      </c>
+      <c r="K1395" s="0"/>
+      <c r="L1395" t="s" s="0">
+        <v>1051</v>
+      </c>
+      <c r="M1395" s="0"/>
+    </row>
+    <row r="1396">
+      <c r="A1396" t="n" s="0">
+        <v>1395.0</v>
+      </c>
+      <c r="B1396" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1396" t="s" s="0">
+        <v>1815</v>
+      </c>
+      <c r="D1396" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="E1396" t="s" s="0">
+        <v>1914</v>
+      </c>
+      <c r="F1396" t="s" s="0">
+        <v>1915</v>
+      </c>
+      <c r="G1396" t="s" s="0">
+        <v>584</v>
+      </c>
+      <c r="H1396" t="s" s="0">
+        <v>1855</v>
+      </c>
+      <c r="I1396" t="s" s="0">
+        <v>1856</v>
+      </c>
+      <c r="J1396" t="s" s="0">
+        <v>1090</v>
+      </c>
+      <c r="K1396" s="0"/>
+      <c r="L1396" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="M1396" s="0"/>
+    </row>
+    <row r="1397">
+      <c r="A1397" t="n" s="0">
+        <v>1396.0</v>
+      </c>
+      <c r="B1397" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1397" t="s" s="0">
+        <v>732</v>
+      </c>
+      <c r="D1397" t="s" s="0">
+        <v>733</v>
+      </c>
+      <c r="E1397" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="F1397" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="G1397" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1397" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1397" t="s" s="0">
+        <v>1504</v>
+      </c>
+      <c r="J1397" t="s" s="0">
+        <v>1916</v>
+      </c>
+      <c r="K1397" s="0"/>
+      <c r="L1397" t="s" s="0">
+        <v>1243</v>
+      </c>
+      <c r="M1397" s="0"/>
+    </row>
+    <row r="1398">
+      <c r="A1398" t="n" s="0">
+        <v>1397.0</v>
+      </c>
+      <c r="B1398" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1398" t="s" s="0">
+        <v>732</v>
+      </c>
+      <c r="D1398" t="s" s="0">
+        <v>1643</v>
+      </c>
+      <c r="E1398" t="s" s="0">
+        <v>517</v>
+      </c>
+      <c r="F1398" t="s" s="0">
+        <v>518</v>
+      </c>
+      <c r="G1398" t="s" s="0">
+        <v>919</v>
+      </c>
+      <c r="H1398" t="s" s="0">
+        <v>920</v>
+      </c>
+      <c r="I1398" t="s" s="0">
+        <v>1644</v>
+      </c>
+      <c r="J1398" t="s" s="0">
+        <v>1505</v>
+      </c>
+      <c r="K1398" s="0"/>
+      <c r="L1398" t="s" s="0">
+        <v>1611</v>
+      </c>
+      <c r="M1398" s="0"/>
+    </row>
+    <row r="1399">
+      <c r="A1399" t="n" s="0">
+        <v>1398.0</v>
+      </c>
+      <c r="B1399" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1399" t="s" s="0">
+        <v>735</v>
+      </c>
+      <c r="D1399" t="s" s="0">
+        <v>736</v>
+      </c>
+      <c r="E1399" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F1399" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="G1399" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="H1399" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I1399" t="s" s="0">
+        <v>1917</v>
+      </c>
+      <c r="J1399" t="s" s="0">
+        <v>755</v>
+      </c>
+      <c r="K1399" s="0"/>
+      <c r="L1399" t="s" s="0">
+        <v>864</v>
+      </c>
+      <c r="M1399" s="0"/>
+    </row>
+    <row r="1400">
+      <c r="A1400" t="n" s="0">
+        <v>1399.0</v>
+      </c>
+      <c r="B1400" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1400" t="s" s="0">
+        <v>735</v>
+      </c>
+      <c r="D1400" t="s" s="0">
+        <v>746</v>
+      </c>
+      <c r="E1400" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F1400" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="G1400" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1400" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I1400" t="s" s="0">
+        <v>433</v>
+      </c>
+      <c r="J1400" t="s" s="0">
+        <v>1350</v>
+      </c>
+      <c r="K1400" s="0"/>
+      <c r="L1400" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M1400" s="0"/>
+    </row>
+    <row r="1401">
+      <c r="A1401" t="n" s="0">
+        <v>1400.0</v>
+      </c>
+      <c r="B1401" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1401" t="s" s="0">
+        <v>735</v>
+      </c>
+      <c r="D1401" t="s" s="0">
+        <v>742</v>
+      </c>
+      <c r="E1401" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="F1401" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="G1401" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="H1401" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I1401" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="J1401" t="s" s="0">
+        <v>1612</v>
+      </c>
+      <c r="K1401" s="0"/>
+      <c r="L1401" t="s" s="0">
+        <v>806</v>
+      </c>
+      <c r="M1401" s="0"/>
+    </row>
+    <row r="1402">
+      <c r="A1402" t="n" s="0">
+        <v>1401.0</v>
+      </c>
+      <c r="B1402" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1402" t="s" s="0">
+        <v>735</v>
+      </c>
+      <c r="D1402" t="s" s="0">
+        <v>740</v>
+      </c>
+      <c r="E1402" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="F1402" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="G1402" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1402" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1402" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="J1402" t="s" s="0">
+        <v>1089</v>
+      </c>
+      <c r="K1402" s="0"/>
+      <c r="L1402" t="s" s="0">
+        <v>569</v>
+      </c>
+      <c r="M1402" s="0"/>
+    </row>
+    <row r="1403">
+      <c r="A1403" t="n" s="0">
+        <v>1402.0</v>
+      </c>
+      <c r="B1403" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1403" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="D1403" t="s" s="0">
+        <v>750</v>
+      </c>
+      <c r="E1403" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="F1403" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="G1403" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1403" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I1403" t="s" s="0">
+        <v>751</v>
+      </c>
+      <c r="J1403" t="s" s="0">
+        <v>735</v>
+      </c>
+      <c r="K1403" s="0"/>
+      <c r="L1403" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="M1403" s="0"/>
+    </row>
+    <row r="1404">
+      <c r="A1404" t="n" s="0">
+        <v>1403.0</v>
+      </c>
+      <c r="B1404" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1404" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="D1404" t="s" s="0">
+        <v>758</v>
+      </c>
+      <c r="E1404" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="F1404" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="G1404" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1404" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1404" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="J1404" t="s" s="0">
+        <v>732</v>
+      </c>
+      <c r="K1404" s="0"/>
+      <c r="L1404" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="M1404" s="0"/>
+    </row>
+    <row r="1405">
+      <c r="A1405" t="n" s="0">
+        <v>1404.0</v>
+      </c>
+      <c r="B1405" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1405" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="D1405" t="s" s="0">
+        <v>749</v>
+      </c>
+      <c r="E1405" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F1405" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G1405" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1405" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1405" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="J1405" t="s" s="0">
+        <v>1713</v>
+      </c>
+      <c r="K1405" s="0"/>
+      <c r="L1405" t="s" s="0">
+        <v>649</v>
+      </c>
+      <c r="M1405" s="0"/>
+    </row>
+    <row r="1406">
+      <c r="A1406" t="n" s="0">
+        <v>1405.0</v>
+      </c>
+      <c r="B1406" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1406" t="s" s="0">
+        <v>743</v>
+      </c>
+      <c r="D1406" t="s" s="0">
+        <v>753</v>
+      </c>
+      <c r="E1406" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F1406" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G1406" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="H1406" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I1406" t="s" s="0">
+        <v>1918</v>
+      </c>
+      <c r="J1406" t="s" s="0">
+        <v>1352</v>
+      </c>
+      <c r="K1406" s="0"/>
+      <c r="L1406" t="s" s="0">
+        <v>806</v>
+      </c>
+      <c r="M1406" s="0"/>
+    </row>
+    <row r="1407">
+      <c r="A1407" t="n" s="0">
+        <v>1406.0</v>
+      </c>
+      <c r="B1407" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1407" t="s" s="0">
+        <v>743</v>
+      </c>
+      <c r="D1407" t="s" s="0">
+        <v>756</v>
+      </c>
+      <c r="E1407" t="s" s="0">
+        <v>624</v>
+      </c>
+      <c r="F1407" t="s" s="0">
+        <v>625</v>
+      </c>
+      <c r="G1407" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1407" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I1407" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="J1407" t="s" s="0">
+        <v>777</v>
+      </c>
+      <c r="K1407" s="0"/>
+      <c r="L1407" t="s" s="0">
+        <v>1664</v>
+      </c>
+      <c r="M1407" s="0"/>
+    </row>
+    <row r="1408">
+      <c r="A1408" t="n" s="0">
+        <v>1407.0</v>
+      </c>
+      <c r="B1408" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1408" t="s" s="0">
+        <v>745</v>
+      </c>
+      <c r="D1408" t="s" s="0">
+        <v>760</v>
+      </c>
+      <c r="E1408" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="F1408" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="G1408" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1408" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1408" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="J1408" t="s" s="0">
+        <v>1919</v>
+      </c>
+      <c r="K1408" s="0"/>
+      <c r="L1408" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="M1408" s="0"/>
+    </row>
+    <row r="1409">
+      <c r="A1409" t="n" s="0">
+        <v>1408.0</v>
+      </c>
+      <c r="B1409" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1409" t="s" s="0">
+        <v>769</v>
+      </c>
+      <c r="D1409" t="s" s="0">
+        <v>770</v>
+      </c>
+      <c r="E1409" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="F1409" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G1409" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="H1409" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I1409" t="s" s="0">
+        <v>1920</v>
+      </c>
+      <c r="J1409" t="s" s="0">
+        <v>1356</v>
+      </c>
+      <c r="K1409" s="0"/>
+      <c r="L1409" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="M1409" s="0"/>
+    </row>
+    <row r="1410">
+      <c r="A1410" t="n" s="0">
+        <v>1409.0</v>
+      </c>
+      <c r="B1410" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1410" t="s" s="0">
+        <v>773</v>
+      </c>
+      <c r="D1410" t="s" s="0">
+        <v>774</v>
+      </c>
+      <c r="E1410" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="F1410" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="G1410" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="H1410" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="I1410" t="s" s="0">
+        <v>1430</v>
+      </c>
+      <c r="J1410" t="s" s="0">
+        <v>1512</v>
+      </c>
+      <c r="K1410" s="0"/>
+      <c r="L1410" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="M1410" s="0"/>
+    </row>
+    <row r="1411">
+      <c r="A1411" t="n" s="0">
+        <v>1410.0</v>
+      </c>
+      <c r="B1411" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1411" t="s" s="0">
+        <v>777</v>
+      </c>
+      <c r="D1411" t="s" s="0">
+        <v>778</v>
+      </c>
+      <c r="E1411" t="s" s="0">
+        <v>779</v>
+      </c>
+      <c r="F1411" t="s" s="0">
+        <v>780</v>
+      </c>
+      <c r="G1411" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1411" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I1411" t="s" s="0">
+        <v>1836</v>
+      </c>
+      <c r="J1411" t="s" s="0">
+        <v>1835</v>
+      </c>
+      <c r="K1411" s="0"/>
+      <c r="L1411" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="M1411" s="0"/>
+    </row>
+    <row r="1412">
+      <c r="A1412" t="n" s="0">
+        <v>1411.0</v>
+      </c>
+      <c r="B1412" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1412" t="s" s="0">
+        <v>812</v>
+      </c>
+      <c r="D1412" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="E1412" t="s" s="0">
+        <v>612</v>
+      </c>
+      <c r="F1412" t="s" s="0">
+        <v>613</v>
+      </c>
+      <c r="G1412" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="H1412" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I1412" t="s" s="0">
+        <v>798</v>
+      </c>
+      <c r="J1412" t="s" s="0">
+        <v>1921</v>
+      </c>
+      <c r="K1412" s="0"/>
+      <c r="L1412" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="M1412" s="0"/>
+    </row>
+    <row r="1413">
+      <c r="A1413" t="n" s="0">
+        <v>1412.0</v>
+      </c>
+      <c r="B1413" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1413" t="s" s="0">
+        <v>783</v>
+      </c>
+      <c r="D1413" t="s" s="0">
+        <v>784</v>
+      </c>
+      <c r="E1413" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="F1413" t="s" s="0">
+        <v>785</v>
+      </c>
+      <c r="G1413" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1413" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I1413" t="s" s="0">
+        <v>1761</v>
+      </c>
+      <c r="J1413" t="s" s="0">
+        <v>1516</v>
+      </c>
+      <c r="K1413" s="0"/>
+      <c r="L1413" t="s" s="0">
+        <v>538</v>
+      </c>
+      <c r="M1413" s="0"/>
+    </row>
+    <row r="1414">
+      <c r="A1414" t="n" s="0">
+        <v>1413.0</v>
+      </c>
+      <c r="B1414" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1414" t="s" s="0">
+        <v>783</v>
+      </c>
+      <c r="D1414" t="s" s="0">
+        <v>795</v>
+      </c>
+      <c r="E1414" t="s" s="0">
+        <v>590</v>
+      </c>
+      <c r="F1414" t="s" s="0">
+        <v>591</v>
+      </c>
+      <c r="G1414" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="H1414" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I1414" t="s" s="0">
+        <v>1922</v>
+      </c>
+      <c r="J1414" t="s" s="0">
+        <v>799</v>
+      </c>
+      <c r="K1414" s="0"/>
+      <c r="L1414" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="M1414" s="0"/>
+    </row>
+    <row r="1415">
+      <c r="A1415" t="n" s="0">
+        <v>1414.0</v>
+      </c>
+      <c r="B1415" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1415" t="s" s="0">
+        <v>788</v>
+      </c>
+      <c r="D1415" t="s" s="0">
+        <v>789</v>
+      </c>
+      <c r="E1415" t="s" s="0">
+        <v>790</v>
+      </c>
+      <c r="F1415" t="s" s="0">
+        <v>791</v>
+      </c>
+      <c r="G1415" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1415" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I1415" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="J1415" t="s" s="0">
+        <v>783</v>
+      </c>
+      <c r="K1415" s="0"/>
+      <c r="L1415" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="M1415" s="0"/>
+    </row>
+    <row r="1416">
+      <c r="A1416" t="n" s="0">
+        <v>1415.0</v>
+      </c>
+      <c r="B1416" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1416" t="s" s="0">
+        <v>788</v>
+      </c>
+      <c r="D1416" t="s" s="0">
+        <v>605</v>
+      </c>
+      <c r="E1416" t="s" s="0">
+        <v>606</v>
+      </c>
+      <c r="F1416" t="s" s="0">
+        <v>607</v>
+      </c>
+      <c r="G1416" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1416" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I1416" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="J1416" t="s" s="0">
+        <v>1923</v>
+      </c>
+      <c r="K1416" s="0"/>
+      <c r="L1416" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="M1416" s="0"/>
+    </row>
+    <row r="1417">
+      <c r="A1417" t="n" s="0">
+        <v>1416.0</v>
+      </c>
+      <c r="B1417" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1417" t="s" s="0">
+        <v>799</v>
+      </c>
+      <c r="D1417" t="s" s="0">
+        <v>800</v>
+      </c>
+      <c r="E1417" t="s" s="0">
+        <v>565</v>
+      </c>
+      <c r="F1417" t="s" s="0">
+        <v>566</v>
+      </c>
+      <c r="G1417" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1417" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I1417" t="s" s="0">
+        <v>1218</v>
+      </c>
+      <c r="J1417" t="s" s="0">
+        <v>1837</v>
+      </c>
+      <c r="K1417" s="0"/>
+      <c r="L1417" t="s" s="0">
+        <v>806</v>
+      </c>
+      <c r="M1417" s="0"/>
+    </row>
+    <row r="1418">
+      <c r="A1418" t="n" s="0">
+        <v>1417.0</v>
+      </c>
+      <c r="B1418" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1418" t="s" s="0">
+        <v>803</v>
+      </c>
+      <c r="D1418" t="s" s="0">
+        <v>804</v>
+      </c>
+      <c r="E1418" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F1418" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G1418" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1418" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I1418" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="J1418" t="s" s="0">
+        <v>1924</v>
+      </c>
+      <c r="K1418" s="0"/>
+      <c r="L1418" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="M1418" s="0"/>
+    </row>
+    <row r="1419">
+      <c r="A1419" t="n" s="0">
+        <v>1418.0</v>
+      </c>
+      <c r="B1419" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1419" t="s" s="0">
+        <v>810</v>
+      </c>
+      <c r="D1419" t="s" s="0">
+        <v>811</v>
+      </c>
+      <c r="E1419" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F1419" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="G1419" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1419" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I1419" t="s" s="0">
+        <v>494</v>
+      </c>
+      <c r="J1419" t="s" s="0">
+        <v>1358</v>
+      </c>
+      <c r="K1419" s="0"/>
+      <c r="L1419" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="M1419" s="0"/>
+    </row>
+    <row r="1420">
+      <c r="A1420" t="n" s="0">
+        <v>1419.0</v>
+      </c>
+      <c r="B1420" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1420" t="s" s="0">
+        <v>816</v>
+      </c>
+      <c r="D1420" t="s" s="0">
+        <v>817</v>
+      </c>
+      <c r="E1420" t="s" s="0">
+        <v>818</v>
+      </c>
+      <c r="F1420" t="s" s="0">
+        <v>819</v>
+      </c>
+      <c r="G1420" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1420" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I1420" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="J1420" t="s" s="0">
+        <v>826</v>
+      </c>
+      <c r="K1420" s="0"/>
+      <c r="L1420" t="s" s="0">
+        <v>538</v>
+      </c>
+      <c r="M1420" s="0"/>
+    </row>
+    <row r="1421">
+      <c r="A1421" t="n" s="0">
+        <v>1420.0</v>
+      </c>
+      <c r="B1421" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="C1421" t="s" s="0">
+        <v>822</v>
+      </c>
+      <c r="D1421" t="s" s="0">
+        <v>823</v>
+      </c>
+      <c r="E1421" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="F1421" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="G1421" t="s" s="0">
+        <v>560</v>
+      </c>
+      <c r="H1421" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I1421" t="s" s="0">
+        <v>1925</v>
+      </c>
+      <c r="J1421" t="s" s="0">
+        <v>794</v>
+      </c>
+      <c r="K1421" s="0"/>
+      <c r="L1421" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="M1421" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/WAW_Arrivals.xlsx
+++ b/DataBase/WAW_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14211" uniqueCount="1926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15181" uniqueCount="1961">
   <si>
     <t>NUMBER</t>
   </si>
@@ -5790,6 +5790,111 @@
   </si>
   <si>
     <t>(PH-BCH)</t>
+  </si>
+  <si>
+    <t>Sunday, Jan 15</t>
+  </si>
+  <si>
+    <t>4:52 AM</t>
+  </si>
+  <si>
+    <t>-1 hours, -8 minutes</t>
+  </si>
+  <si>
+    <t>5:37 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASL Airlines </t>
+  </si>
+  <si>
+    <t>(OE-IWA)</t>
+  </si>
+  <si>
+    <t>7:05 AM</t>
+  </si>
+  <si>
+    <t>(TC-JVF)</t>
+  </si>
+  <si>
+    <t>7:59 AM</t>
+  </si>
+  <si>
+    <t>(SU-TMJ)</t>
+  </si>
+  <si>
+    <t>(LN-ENO)</t>
+  </si>
+  <si>
+    <t>9:48 AM</t>
+  </si>
+  <si>
+    <t>(A6-EPZ)</t>
+  </si>
+  <si>
+    <t>(PH-BGF)</t>
+  </si>
+  <si>
+    <t>(A7-BCR)</t>
+  </si>
+  <si>
+    <t>11:54 AM</t>
+  </si>
+  <si>
+    <t>11:56 AM</t>
+  </si>
+  <si>
+    <t>(D-AIBQ)</t>
+  </si>
+  <si>
+    <t>Perugia</t>
+  </si>
+  <si>
+    <t>(PEG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netjets Europe </t>
+  </si>
+  <si>
+    <t>C56X</t>
+  </si>
+  <si>
+    <t>(CS-DXO)</t>
+  </si>
+  <si>
+    <t>1:14 PM</t>
+  </si>
+  <si>
+    <t>(D-AJET)</t>
+  </si>
+  <si>
+    <t>(D-AIJB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austrian Airlines (Star Alliance Livery) </t>
+  </si>
+  <si>
+    <t>(OE-LWH)</t>
+  </si>
+  <si>
+    <t>-1 hours, 0 minutes</t>
+  </si>
+  <si>
+    <t>1 hours, 5 minutes</t>
+  </si>
+  <si>
+    <t>2:51 PM</t>
+  </si>
+  <si>
+    <t>3:09 PM</t>
+  </si>
+  <si>
+    <t>(D-ACNX)</t>
+  </si>
+  <si>
+    <t>4:06 PM</t>
+  </si>
+  <si>
+    <t>(F-HBLK)</t>
   </si>
 </sst>
 </file>
@@ -5834,7 +5939,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M1421"/>
+  <dimension ref="A1:M1518"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -58415,6 +58520,3595 @@
       </c>
       <c r="M1421" s="0"/>
     </row>
+    <row r="1422">
+      <c r="A1422" t="n" s="0">
+        <v>1421.0</v>
+      </c>
+      <c r="B1422" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1422" t="s" s="0">
+        <v>1382</v>
+      </c>
+      <c r="D1422" t="s" s="0">
+        <v>1626</v>
+      </c>
+      <c r="E1422" t="s" s="0">
+        <v>1627</v>
+      </c>
+      <c r="F1422" t="s" s="0">
+        <v>1628</v>
+      </c>
+      <c r="G1422" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1422" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="I1422" t="s" s="0">
+        <v>460</v>
+      </c>
+      <c r="J1422" t="s" s="0">
+        <v>1927</v>
+      </c>
+      <c r="K1422" s="0"/>
+      <c r="L1422" t="s" s="0">
+        <v>1928</v>
+      </c>
+      <c r="M1422" s="0"/>
+    </row>
+    <row r="1423">
+      <c r="A1423" t="n" s="0">
+        <v>1422.0</v>
+      </c>
+      <c r="B1423" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1423" t="s" s="0">
+        <v>828</v>
+      </c>
+      <c r="D1423" t="s" s="0">
+        <v>829</v>
+      </c>
+      <c r="E1423" t="s" s="0">
+        <v>830</v>
+      </c>
+      <c r="F1423" t="s" s="0">
+        <v>831</v>
+      </c>
+      <c r="G1423" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1423" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I1423" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="J1423" t="s" s="0">
+        <v>1929</v>
+      </c>
+      <c r="K1423" s="0"/>
+      <c r="L1423" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="M1423" s="0"/>
+    </row>
+    <row r="1424">
+      <c r="A1424" t="n" s="0">
+        <v>1423.0</v>
+      </c>
+      <c r="B1424" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1424" t="s" s="0">
+        <v>833</v>
+      </c>
+      <c r="D1424" t="s" s="0">
+        <v>834</v>
+      </c>
+      <c r="E1424" t="s" s="0">
+        <v>835</v>
+      </c>
+      <c r="F1424" t="s" s="0">
+        <v>836</v>
+      </c>
+      <c r="G1424" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1424" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I1424" t="s" s="0">
+        <v>567</v>
+      </c>
+      <c r="J1424" t="s" s="0">
+        <v>1393</v>
+      </c>
+      <c r="K1424" s="0"/>
+      <c r="L1424" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="M1424" s="0"/>
+    </row>
+    <row r="1425">
+      <c r="A1425" t="n" s="0">
+        <v>1424.0</v>
+      </c>
+      <c r="B1425" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1425" t="s" s="0">
+        <v>838</v>
+      </c>
+      <c r="D1425" t="s" s="0">
+        <v>839</v>
+      </c>
+      <c r="E1425" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F1425" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G1425" t="s" s="0">
+        <v>1930</v>
+      </c>
+      <c r="H1425" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I1425" t="s" s="0">
+        <v>1931</v>
+      </c>
+      <c r="J1425" t="s" s="0">
+        <v>1731</v>
+      </c>
+      <c r="K1425" s="0"/>
+      <c r="L1425" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="M1425" s="0"/>
+    </row>
+    <row r="1426">
+      <c r="A1426" t="n" s="0">
+        <v>1425.0</v>
+      </c>
+      <c r="B1426" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1426" t="s" s="0">
+        <v>843</v>
+      </c>
+      <c r="D1426" t="s" s="0">
+        <v>844</v>
+      </c>
+      <c r="E1426" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="F1426" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="G1426" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1426" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1426" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="J1426" t="s" s="0">
+        <v>1165</v>
+      </c>
+      <c r="K1426" s="0"/>
+      <c r="L1426" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="M1426" s="0"/>
+    </row>
+    <row r="1427">
+      <c r="A1427" t="n" s="0">
+        <v>1426.0</v>
+      </c>
+      <c r="B1427" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1427" t="s" s="0">
+        <v>843</v>
+      </c>
+      <c r="D1427" t="s" s="0">
+        <v>846</v>
+      </c>
+      <c r="E1427" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="F1427" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="G1427" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="H1427" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1427" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="J1427" t="s" s="0">
+        <v>837</v>
+      </c>
+      <c r="K1427" s="0"/>
+      <c r="L1427" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="M1427" s="0"/>
+    </row>
+    <row r="1428">
+      <c r="A1428" t="n" s="0">
+        <v>1427.0</v>
+      </c>
+      <c r="B1428" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1428" t="s" s="0">
+        <v>848</v>
+      </c>
+      <c r="D1428" t="s" s="0">
+        <v>849</v>
+      </c>
+      <c r="E1428" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="F1428" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="G1428" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1428" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1428" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="J1428" t="s" s="0">
+        <v>1156</v>
+      </c>
+      <c r="K1428" s="0"/>
+      <c r="L1428" t="s" s="0">
+        <v>684</v>
+      </c>
+      <c r="M1428" s="0"/>
+    </row>
+    <row r="1429">
+      <c r="A1429" t="n" s="0">
+        <v>1428.0</v>
+      </c>
+      <c r="B1429" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1429" t="s" s="0">
+        <v>848</v>
+      </c>
+      <c r="D1429" t="s" s="0">
+        <v>851</v>
+      </c>
+      <c r="E1429" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F1429" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G1429" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1429" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1429" t="s" s="0">
+        <v>554</v>
+      </c>
+      <c r="J1429" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="K1429" s="0"/>
+      <c r="L1429" t="s" s="0">
+        <v>1436</v>
+      </c>
+      <c r="M1429" s="0"/>
+    </row>
+    <row r="1430">
+      <c r="A1430" t="n" s="0">
+        <v>1429.0</v>
+      </c>
+      <c r="B1430" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1430" t="s" s="0">
+        <v>853</v>
+      </c>
+      <c r="D1430" t="s" s="0">
+        <v>854</v>
+      </c>
+      <c r="E1430" t="s" s="0">
+        <v>458</v>
+      </c>
+      <c r="F1430" t="s" s="0">
+        <v>459</v>
+      </c>
+      <c r="G1430" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1430" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="I1430" t="s" s="0">
+        <v>855</v>
+      </c>
+      <c r="J1430" t="s" s="0">
+        <v>1932</v>
+      </c>
+      <c r="K1430" s="0"/>
+      <c r="L1430" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="M1430" s="0"/>
+    </row>
+    <row r="1431">
+      <c r="A1431" t="n" s="0">
+        <v>1430.0</v>
+      </c>
+      <c r="B1431" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1431" t="s" s="0">
+        <v>858</v>
+      </c>
+      <c r="D1431" t="s" s="0">
+        <v>859</v>
+      </c>
+      <c r="E1431" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F1431" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G1431" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="H1431" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I1431" t="s" s="0">
+        <v>1933</v>
+      </c>
+      <c r="J1431" t="s" s="0">
+        <v>1934</v>
+      </c>
+      <c r="K1431" s="0"/>
+      <c r="L1431" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="M1431" s="0"/>
+    </row>
+    <row r="1432">
+      <c r="A1432" t="n" s="0">
+        <v>1431.0</v>
+      </c>
+      <c r="B1432" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1432" t="s" s="0">
+        <v>1638</v>
+      </c>
+      <c r="D1432" t="s" s="0">
+        <v>865</v>
+      </c>
+      <c r="E1432" t="s" s="0">
+        <v>866</v>
+      </c>
+      <c r="F1432" t="s" s="0">
+        <v>867</v>
+      </c>
+      <c r="G1432" t="s" s="0">
+        <v>868</v>
+      </c>
+      <c r="H1432" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I1432" t="s" s="0">
+        <v>1935</v>
+      </c>
+      <c r="J1432" t="s" s="0">
+        <v>1639</v>
+      </c>
+      <c r="K1432" s="0"/>
+      <c r="L1432" t="s" s="0">
+        <v>864</v>
+      </c>
+      <c r="M1432" s="0"/>
+    </row>
+    <row r="1433">
+      <c r="A1433" t="n" s="0">
+        <v>1432.0</v>
+      </c>
+      <c r="B1433" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1433" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D1433" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E1433" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F1433" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G1433" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H1433" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1433" t="s" s="0">
+        <v>1739</v>
+      </c>
+      <c r="J1433" t="s" s="0">
+        <v>1535</v>
+      </c>
+      <c r="K1433" s="0"/>
+      <c r="L1433" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M1433" s="0"/>
+    </row>
+    <row r="1434">
+      <c r="A1434" t="n" s="0">
+        <v>1433.0</v>
+      </c>
+      <c r="B1434" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1434" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D1434" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E1434" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F1434" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G1434" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1434" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I1434" t="s" s="0">
+        <v>433</v>
+      </c>
+      <c r="J1434" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="K1434" s="0"/>
+      <c r="L1434" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="M1434" s="0"/>
+    </row>
+    <row r="1435">
+      <c r="A1435" t="n" s="0">
+        <v>1434.0</v>
+      </c>
+      <c r="B1435" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1435" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D1435" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="E1435" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F1435" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="G1435" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1435" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1435" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="J1435" t="s" s="0">
+        <v>1635</v>
+      </c>
+      <c r="K1435" s="0"/>
+      <c r="L1435" t="s" s="0">
+        <v>538</v>
+      </c>
+      <c r="M1435" s="0"/>
+    </row>
+    <row r="1436">
+      <c r="A1436" t="n" s="0">
+        <v>1435.0</v>
+      </c>
+      <c r="B1436" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1436" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="D1436" t="s" s="0">
+        <v>872</v>
+      </c>
+      <c r="E1436" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="F1436" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="G1436" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1436" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1436" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="J1436" t="s" s="0">
+        <v>1642</v>
+      </c>
+      <c r="K1436" s="0"/>
+      <c r="L1436" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="M1436" s="0"/>
+    </row>
+    <row r="1437">
+      <c r="A1437" t="n" s="0">
+        <v>1436.0</v>
+      </c>
+      <c r="B1437" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1437" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="D1437" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="E1437" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="F1437" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="G1437" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1437" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1437" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="J1437" t="s" s="0">
+        <v>1189</v>
+      </c>
+      <c r="K1437" s="0"/>
+      <c r="L1437" t="s" s="0">
+        <v>806</v>
+      </c>
+      <c r="M1437" s="0"/>
+    </row>
+    <row r="1438">
+      <c r="A1438" t="n" s="0">
+        <v>1437.0</v>
+      </c>
+      <c r="B1438" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1438" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="D1438" t="s" s="0">
+        <v>874</v>
+      </c>
+      <c r="E1438" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="F1438" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="G1438" t="s" s="0">
+        <v>875</v>
+      </c>
+      <c r="H1438" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I1438" t="s" s="0">
+        <v>1936</v>
+      </c>
+      <c r="J1438" t="s" s="0">
+        <v>1937</v>
+      </c>
+      <c r="K1438" s="0"/>
+      <c r="L1438" t="s" s="0">
+        <v>1468</v>
+      </c>
+      <c r="M1438" s="0"/>
+    </row>
+    <row r="1439">
+      <c r="A1439" t="n" s="0">
+        <v>1438.0</v>
+      </c>
+      <c r="B1439" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1439" t="s" s="0">
+        <v>877</v>
+      </c>
+      <c r="D1439" t="s" s="0">
+        <v>878</v>
+      </c>
+      <c r="E1439" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="F1439" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="G1439" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="H1439" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1439" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="J1439" t="s" s="0">
+        <v>879</v>
+      </c>
+      <c r="K1439" s="0"/>
+      <c r="L1439" t="s" s="0">
+        <v>684</v>
+      </c>
+      <c r="M1439" s="0"/>
+    </row>
+    <row r="1440">
+      <c r="A1440" t="n" s="0">
+        <v>1439.0</v>
+      </c>
+      <c r="B1440" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1440" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="D1440" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="E1440" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="F1440" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="G1440" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1440" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1440" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="J1440" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="K1440" s="0"/>
+      <c r="L1440" t="s" s="0">
+        <v>569</v>
+      </c>
+      <c r="M1440" s="0"/>
+    </row>
+    <row r="1441">
+      <c r="A1441" t="n" s="0">
+        <v>1440.0</v>
+      </c>
+      <c r="B1441" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1441" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="D1441" t="s" s="0">
+        <v>880</v>
+      </c>
+      <c r="E1441" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F1441" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G1441" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="H1441" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1441" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="J1441" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="K1441" s="0"/>
+      <c r="L1441" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="M1441" s="0"/>
+    </row>
+    <row r="1442">
+      <c r="A1442" t="n" s="0">
+        <v>1441.0</v>
+      </c>
+      <c r="B1442" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1442" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="D1442" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="E1442" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="F1442" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="G1442" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1442" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1442" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="J1442" t="s" s="0">
+        <v>1410</v>
+      </c>
+      <c r="K1442" s="0"/>
+      <c r="L1442" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="M1442" s="0"/>
+    </row>
+    <row r="1443">
+      <c r="A1443" t="n" s="0">
+        <v>1442.0</v>
+      </c>
+      <c r="B1443" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1443" t="s" s="0">
+        <v>883</v>
+      </c>
+      <c r="D1443" t="s" s="0">
+        <v>884</v>
+      </c>
+      <c r="E1443" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="F1443" t="s" s="0">
+        <v>885</v>
+      </c>
+      <c r="G1443" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1443" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I1443" t="s" s="0">
+        <v>1218</v>
+      </c>
+      <c r="J1443" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="K1443" s="0"/>
+      <c r="L1443" t="s" s="0">
+        <v>649</v>
+      </c>
+      <c r="M1443" s="0"/>
+    </row>
+    <row r="1444">
+      <c r="A1444" t="n" s="0">
+        <v>1443.0</v>
+      </c>
+      <c r="B1444" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1444" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="D1444" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="E1444" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="F1444" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="G1444" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1444" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1444" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="J1444" t="s" s="0">
+        <v>1753</v>
+      </c>
+      <c r="K1444" s="0"/>
+      <c r="L1444" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="M1444" s="0"/>
+    </row>
+    <row r="1445">
+      <c r="A1445" t="n" s="0">
+        <v>1444.0</v>
+      </c>
+      <c r="B1445" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1445" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="D1445" t="s" s="0">
+        <v>893</v>
+      </c>
+      <c r="E1445" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="F1445" t="s" s="0">
+        <v>894</v>
+      </c>
+      <c r="G1445" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1445" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I1445" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="J1445" t="s" s="0">
+        <v>892</v>
+      </c>
+      <c r="K1445" s="0"/>
+      <c r="L1445" t="s" s="0">
+        <v>322</v>
+      </c>
+      <c r="M1445" s="0"/>
+    </row>
+    <row r="1446">
+      <c r="A1446" t="n" s="0">
+        <v>1445.0</v>
+      </c>
+      <c r="B1446" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1446" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="D1446" t="s" s="0">
+        <v>890</v>
+      </c>
+      <c r="E1446" t="s" s="0">
+        <v>450</v>
+      </c>
+      <c r="F1446" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="G1446" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1446" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1446" t="s" s="0">
+        <v>891</v>
+      </c>
+      <c r="J1446" t="s" s="0">
+        <v>888</v>
+      </c>
+      <c r="K1446" s="0"/>
+      <c r="L1446" t="s" s="0">
+        <v>889</v>
+      </c>
+      <c r="M1446" s="0"/>
+    </row>
+    <row r="1447">
+      <c r="A1447" t="n" s="0">
+        <v>1446.0</v>
+      </c>
+      <c r="B1447" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1447" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="D1447" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="E1447" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="F1447" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="G1447" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="H1447" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="I1447" t="s" s="0">
+        <v>1938</v>
+      </c>
+      <c r="J1447" t="s" s="0">
+        <v>1654</v>
+      </c>
+      <c r="K1447" s="0"/>
+      <c r="L1447" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="M1447" s="0"/>
+    </row>
+    <row r="1448">
+      <c r="A1448" t="n" s="0">
+        <v>1447.0</v>
+      </c>
+      <c r="B1448" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1448" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="D1448" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="E1448" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="F1448" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="G1448" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1448" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1448" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="J1448" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="K1448" s="0"/>
+      <c r="L1448" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="M1448" s="0"/>
+    </row>
+    <row r="1449">
+      <c r="A1449" t="n" s="0">
+        <v>1448.0</v>
+      </c>
+      <c r="B1449" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1449" t="s" s="0">
+        <v>898</v>
+      </c>
+      <c r="D1449" t="s" s="0">
+        <v>899</v>
+      </c>
+      <c r="E1449" t="s" s="0">
+        <v>900</v>
+      </c>
+      <c r="F1449" t="s" s="0">
+        <v>901</v>
+      </c>
+      <c r="G1449" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1449" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I1449" t="s" s="0">
+        <v>1761</v>
+      </c>
+      <c r="J1449" t="s" s="0">
+        <v>1653</v>
+      </c>
+      <c r="K1449" s="0"/>
+      <c r="L1449" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="M1449" s="0"/>
+    </row>
+    <row r="1450">
+      <c r="A1450" t="n" s="0">
+        <v>1449.0</v>
+      </c>
+      <c r="B1450" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1450" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="D1450" t="s" s="0">
+        <v>903</v>
+      </c>
+      <c r="E1450" t="s" s="0">
+        <v>904</v>
+      </c>
+      <c r="F1450" t="s" s="0">
+        <v>905</v>
+      </c>
+      <c r="G1450" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1450" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I1450" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="J1450" t="s" s="0">
+        <v>1431</v>
+      </c>
+      <c r="K1450" s="0"/>
+      <c r="L1450" t="s" s="0">
+        <v>787</v>
+      </c>
+      <c r="M1450" s="0"/>
+    </row>
+    <row r="1451">
+      <c r="A1451" t="n" s="0">
+        <v>1450.0</v>
+      </c>
+      <c r="B1451" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1451" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="D1451" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="E1451" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F1451" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="G1451" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1451" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I1451" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="J1451" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="K1451" s="0"/>
+      <c r="L1451" t="s" s="0">
+        <v>381</v>
+      </c>
+      <c r="M1451" s="0"/>
+    </row>
+    <row r="1452">
+      <c r="A1452" t="n" s="0">
+        <v>1451.0</v>
+      </c>
+      <c r="B1452" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1452" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="D1452" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="E1452" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F1452" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="G1452" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="H1452" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I1452" t="s" s="0">
+        <v>1717</v>
+      </c>
+      <c r="J1452" t="s" s="0">
+        <v>926</v>
+      </c>
+      <c r="K1452" s="0"/>
+      <c r="L1452" t="s" s="0">
+        <v>1342</v>
+      </c>
+      <c r="M1452" s="0"/>
+    </row>
+    <row r="1453">
+      <c r="A1453" t="n" s="0">
+        <v>1452.0</v>
+      </c>
+      <c r="B1453" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1453" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="D1453" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="E1453" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="F1453" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="G1453" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1453" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1453" t="s" s="0">
+        <v>928</v>
+      </c>
+      <c r="J1453" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="K1453" s="0"/>
+      <c r="L1453" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="M1453" s="0"/>
+    </row>
+    <row r="1454">
+      <c r="A1454" t="n" s="0">
+        <v>1453.0</v>
+      </c>
+      <c r="B1454" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1454" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="D1454" t="s" s="0">
+        <v>1229</v>
+      </c>
+      <c r="E1454" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="F1454" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="G1454" t="s" s="0">
+        <v>560</v>
+      </c>
+      <c r="H1454" t="s" s="0">
+        <v>1230</v>
+      </c>
+      <c r="I1454" t="s" s="0">
+        <v>1939</v>
+      </c>
+      <c r="J1454" t="s" s="0">
+        <v>1221</v>
+      </c>
+      <c r="K1454" s="0"/>
+      <c r="L1454" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="M1454" s="0"/>
+    </row>
+    <row r="1455">
+      <c r="A1455" t="n" s="0">
+        <v>1454.0</v>
+      </c>
+      <c r="B1455" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1455" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="D1455" t="s" s="0">
+        <v>911</v>
+      </c>
+      <c r="E1455" t="s" s="0">
+        <v>624</v>
+      </c>
+      <c r="F1455" t="s" s="0">
+        <v>625</v>
+      </c>
+      <c r="G1455" t="s" s="0">
+        <v>626</v>
+      </c>
+      <c r="H1455" t="s" s="0">
+        <v>627</v>
+      </c>
+      <c r="I1455" t="s" s="0">
+        <v>1804</v>
+      </c>
+      <c r="J1455" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="K1455" s="0"/>
+      <c r="L1455" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="M1455" s="0"/>
+    </row>
+    <row r="1456">
+      <c r="A1456" t="n" s="0">
+        <v>1455.0</v>
+      </c>
+      <c r="B1456" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1456" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="D1456" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="E1456" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="F1456" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="G1456" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="H1456" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="I1456" t="s" s="0">
+        <v>1940</v>
+      </c>
+      <c r="J1456" t="s" s="0">
+        <v>1941</v>
+      </c>
+      <c r="K1456" s="0"/>
+      <c r="L1456" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="M1456" s="0"/>
+    </row>
+    <row r="1457">
+      <c r="A1457" t="n" s="0">
+        <v>1456.0</v>
+      </c>
+      <c r="B1457" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1457" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="D1457" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="E1457" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F1457" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G1457" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="H1457" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="I1457" t="s" s="0">
+        <v>1238</v>
+      </c>
+      <c r="J1457" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="K1457" s="0"/>
+      <c r="L1457" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="M1457" s="0"/>
+    </row>
+    <row r="1458">
+      <c r="A1458" t="n" s="0">
+        <v>1457.0</v>
+      </c>
+      <c r="B1458" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1458" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="D1458" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="E1458" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F1458" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="G1458" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1458" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I1458" t="s" s="0">
+        <v>494</v>
+      </c>
+      <c r="J1458" t="s" s="0">
+        <v>1942</v>
+      </c>
+      <c r="K1458" s="0"/>
+      <c r="L1458" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="M1458" s="0"/>
+    </row>
+    <row r="1459">
+      <c r="A1459" t="n" s="0">
+        <v>1458.0</v>
+      </c>
+      <c r="B1459" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1459" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="D1459" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="E1459" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="F1459" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="G1459" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1459" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I1459" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="J1459" t="s" s="0">
+        <v>1219</v>
+      </c>
+      <c r="K1459" s="0"/>
+      <c r="L1459" t="s" s="0">
+        <v>505</v>
+      </c>
+      <c r="M1459" s="0"/>
+    </row>
+    <row r="1460">
+      <c r="A1460" t="n" s="0">
+        <v>1459.0</v>
+      </c>
+      <c r="B1460" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1460" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="D1460" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="E1460" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="F1460" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="G1460" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1460" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1460" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="J1460" t="s" s="0">
+        <v>1876</v>
+      </c>
+      <c r="K1460" s="0"/>
+      <c r="L1460" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="M1460" s="0"/>
+    </row>
+    <row r="1461">
+      <c r="A1461" t="n" s="0">
+        <v>1460.0</v>
+      </c>
+      <c r="B1461" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1461" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="D1461" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="E1461" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F1461" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G1461" t="s" s="0">
+        <v>1174</v>
+      </c>
+      <c r="H1461" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1461" t="s" s="0">
+        <v>1175</v>
+      </c>
+      <c r="J1461" t="s" s="0">
+        <v>1247</v>
+      </c>
+      <c r="K1461" s="0"/>
+      <c r="L1461" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="M1461" s="0"/>
+    </row>
+    <row r="1462">
+      <c r="A1462" t="n" s="0">
+        <v>1461.0</v>
+      </c>
+      <c r="B1462" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1462" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="D1462" t="s" s="0">
+        <v>301</v>
+      </c>
+      <c r="E1462" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="F1462" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G1462" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1462" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1462" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="J1462" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="K1462" s="0"/>
+      <c r="L1462" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="M1462" s="0"/>
+    </row>
+    <row r="1463">
+      <c r="A1463" t="n" s="0">
+        <v>1462.0</v>
+      </c>
+      <c r="B1463" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1463" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="D1463" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="E1463" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="F1463" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="G1463" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1463" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1463" t="s" s="0">
+        <v>1504</v>
+      </c>
+      <c r="J1463" t="s" s="0">
+        <v>1656</v>
+      </c>
+      <c r="K1463" s="0"/>
+      <c r="L1463" t="s" s="0">
+        <v>634</v>
+      </c>
+      <c r="M1463" s="0"/>
+    </row>
+    <row r="1464">
+      <c r="A1464" t="n" s="0">
+        <v>1463.0</v>
+      </c>
+      <c r="B1464" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1464" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="D1464" t="s" s="0">
+        <v>932</v>
+      </c>
+      <c r="E1464" t="s" s="0">
+        <v>933</v>
+      </c>
+      <c r="F1464" t="s" s="0">
+        <v>934</v>
+      </c>
+      <c r="G1464" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1464" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="I1464" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="J1464" t="s" s="0">
+        <v>1232</v>
+      </c>
+      <c r="K1464" s="0"/>
+      <c r="L1464" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="M1464" s="0"/>
+    </row>
+    <row r="1465">
+      <c r="A1465" t="n" s="0">
+        <v>1464.0</v>
+      </c>
+      <c r="B1465" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1465" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="D1465" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="E1465" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="F1465" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="G1465" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="H1465" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1465" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="J1465" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="K1465" s="0"/>
+      <c r="L1465" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="M1465" s="0"/>
+    </row>
+    <row r="1466">
+      <c r="A1466" t="n" s="0">
+        <v>1465.0</v>
+      </c>
+      <c r="B1466" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1466" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="D1466" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="E1466" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="F1466" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="G1466" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1466" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1466" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="J1466" t="s" s="0">
+        <v>1554</v>
+      </c>
+      <c r="K1466" s="0"/>
+      <c r="L1466" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="M1466" s="0"/>
+    </row>
+    <row r="1467">
+      <c r="A1467" t="n" s="0">
+        <v>1466.0</v>
+      </c>
+      <c r="B1467" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1467" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="D1467" t="s" s="0">
+        <v>929</v>
+      </c>
+      <c r="E1467" t="s" s="0">
+        <v>517</v>
+      </c>
+      <c r="F1467" t="s" s="0">
+        <v>518</v>
+      </c>
+      <c r="G1467" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1467" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I1467" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="J1467" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="K1467" s="0"/>
+      <c r="L1467" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="M1467" s="0"/>
+    </row>
+    <row r="1468">
+      <c r="A1468" t="n" s="0">
+        <v>1467.0</v>
+      </c>
+      <c r="B1468" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1468" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="D1468" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="E1468" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="F1468" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="G1468" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1468" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I1468" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="J1468" t="s" s="0">
+        <v>1240</v>
+      </c>
+      <c r="K1468" s="0"/>
+      <c r="L1468" t="s" s="0">
+        <v>649</v>
+      </c>
+      <c r="M1468" s="0"/>
+    </row>
+    <row r="1469">
+      <c r="A1469" t="n" s="0">
+        <v>1468.0</v>
+      </c>
+      <c r="B1469" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1469" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="D1469" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="E1469" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="F1469" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="G1469" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1469" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1469" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="J1469" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="K1469" s="0"/>
+      <c r="L1469" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="M1469" s="0"/>
+    </row>
+    <row r="1470">
+      <c r="A1470" t="n" s="0">
+        <v>1469.0</v>
+      </c>
+      <c r="B1470" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1470" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="D1470" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="E1470" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="F1470" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="G1470" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="H1470" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="I1470" t="s" s="0">
+        <v>1943</v>
+      </c>
+      <c r="J1470" t="s" s="0">
+        <v>925</v>
+      </c>
+      <c r="K1470" s="0"/>
+      <c r="L1470" t="s" s="0">
+        <v>684</v>
+      </c>
+      <c r="M1470" s="0"/>
+    </row>
+    <row r="1471">
+      <c r="A1471" t="n" s="0">
+        <v>1470.0</v>
+      </c>
+      <c r="B1471" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1471" t="s" s="0">
+        <v>354</v>
+      </c>
+      <c r="D1471" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="E1471" t="s" s="0">
+        <v>1944</v>
+      </c>
+      <c r="F1471" t="s" s="0">
+        <v>1945</v>
+      </c>
+      <c r="G1471" t="s" s="0">
+        <v>1946</v>
+      </c>
+      <c r="H1471" t="s" s="0">
+        <v>1947</v>
+      </c>
+      <c r="I1471" t="s" s="0">
+        <v>1948</v>
+      </c>
+      <c r="J1471" t="s" s="0">
+        <v>1246</v>
+      </c>
+      <c r="K1471" s="0"/>
+      <c r="L1471" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="M1471" s="0"/>
+    </row>
+    <row r="1472">
+      <c r="A1472" t="n" s="0">
+        <v>1471.0</v>
+      </c>
+      <c r="B1472" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1472" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="D1472" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="E1472" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="F1472" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="G1472" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1472" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="I1472" t="s" s="0">
+        <v>961</v>
+      </c>
+      <c r="J1472" t="s" s="0">
+        <v>1222</v>
+      </c>
+      <c r="K1472" s="0"/>
+      <c r="L1472" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="M1472" s="0"/>
+    </row>
+    <row r="1473">
+      <c r="A1473" t="n" s="0">
+        <v>1472.0</v>
+      </c>
+      <c r="B1473" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1473" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="D1473" t="s" s="0">
+        <v>371</v>
+      </c>
+      <c r="E1473" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="F1473" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="G1473" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1473" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1473" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="J1473" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="K1473" s="0"/>
+      <c r="L1473" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="M1473" s="0"/>
+    </row>
+    <row r="1474">
+      <c r="A1474" t="n" s="0">
+        <v>1473.0</v>
+      </c>
+      <c r="B1474" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1474" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="D1474" t="s" s="0">
+        <v>376</v>
+      </c>
+      <c r="E1474" t="s" s="0">
+        <v>377</v>
+      </c>
+      <c r="F1474" t="s" s="0">
+        <v>378</v>
+      </c>
+      <c r="G1474" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="H1474" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="I1474" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="J1474" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="K1474" s="0"/>
+      <c r="L1474" t="s" s="0">
+        <v>684</v>
+      </c>
+      <c r="M1474" s="0"/>
+    </row>
+    <row r="1475">
+      <c r="A1475" t="n" s="0">
+        <v>1474.0</v>
+      </c>
+      <c r="B1475" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1475" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="D1475" t="s" s="0">
+        <v>366</v>
+      </c>
+      <c r="E1475" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="F1475" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="G1475" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1475" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1475" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="J1475" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="K1475" s="0"/>
+      <c r="L1475" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="M1475" s="0"/>
+    </row>
+    <row r="1476">
+      <c r="A1476" t="n" s="0">
+        <v>1475.0</v>
+      </c>
+      <c r="B1476" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1476" t="s" s="0">
+        <v>382</v>
+      </c>
+      <c r="D1476" t="s" s="0">
+        <v>383</v>
+      </c>
+      <c r="E1476" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F1476" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G1476" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1476" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1476" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="J1476" t="s" s="0">
+        <v>385</v>
+      </c>
+      <c r="K1476" s="0"/>
+      <c r="L1476" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="M1476" s="0"/>
+    </row>
+    <row r="1477">
+      <c r="A1477" t="n" s="0">
+        <v>1476.0</v>
+      </c>
+      <c r="B1477" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1477" t="s" s="0">
+        <v>382</v>
+      </c>
+      <c r="D1477" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="E1477" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F1477" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G1477" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1477" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1477" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="J1477" t="s" s="0">
+        <v>333</v>
+      </c>
+      <c r="K1477" s="0"/>
+      <c r="L1477" t="s" s="0">
+        <v>684</v>
+      </c>
+      <c r="M1477" s="0"/>
+    </row>
+    <row r="1478">
+      <c r="A1478" t="n" s="0">
+        <v>1477.0</v>
+      </c>
+      <c r="B1478" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1478" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="D1478" t="s" s="0">
+        <v>939</v>
+      </c>
+      <c r="E1478" t="s" s="0">
+        <v>940</v>
+      </c>
+      <c r="F1478" t="s" s="0">
+        <v>941</v>
+      </c>
+      <c r="G1478" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1478" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="I1478" t="s" s="0">
+        <v>1420</v>
+      </c>
+      <c r="J1478" t="s" s="0">
+        <v>1557</v>
+      </c>
+      <c r="K1478" s="0"/>
+      <c r="L1478" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="M1478" s="0"/>
+    </row>
+    <row r="1479">
+      <c r="A1479" t="n" s="0">
+        <v>1478.0</v>
+      </c>
+      <c r="B1479" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1479" t="s" s="0">
+        <v>943</v>
+      </c>
+      <c r="D1479" t="s" s="0">
+        <v>944</v>
+      </c>
+      <c r="E1479" t="s" s="0">
+        <v>945</v>
+      </c>
+      <c r="F1479" t="s" s="0">
+        <v>946</v>
+      </c>
+      <c r="G1479" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1479" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I1479" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="J1479" t="s" s="0">
+        <v>344</v>
+      </c>
+      <c r="K1479" s="0"/>
+      <c r="L1479" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="M1479" s="0"/>
+    </row>
+    <row r="1480">
+      <c r="A1480" t="n" s="0">
+        <v>1479.0</v>
+      </c>
+      <c r="B1480" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1480" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="D1480" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="E1480" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="F1480" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="G1480" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="H1480" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I1480" t="s" s="0">
+        <v>1429</v>
+      </c>
+      <c r="J1480" t="s" s="0">
+        <v>1776</v>
+      </c>
+      <c r="K1480" s="0"/>
+      <c r="L1480" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="M1480" s="0"/>
+    </row>
+    <row r="1481">
+      <c r="A1481" t="n" s="0">
+        <v>1480.0</v>
+      </c>
+      <c r="B1481" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1481" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="D1481" t="s" s="0">
+        <v>402</v>
+      </c>
+      <c r="E1481" t="s" s="0">
+        <v>403</v>
+      </c>
+      <c r="F1481" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="G1481" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1481" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I1481" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="J1481" t="s" s="0">
+        <v>1949</v>
+      </c>
+      <c r="K1481" s="0"/>
+      <c r="L1481" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="M1481" s="0"/>
+    </row>
+    <row r="1482">
+      <c r="A1482" t="n" s="0">
+        <v>1481.0</v>
+      </c>
+      <c r="B1482" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1482" t="s" s="0">
+        <v>401</v>
+      </c>
+      <c r="D1482" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="E1482" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="F1482" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="G1482" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1482" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1482" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="J1482" t="s" s="0">
+        <v>949</v>
+      </c>
+      <c r="K1482" s="0"/>
+      <c r="L1482" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="M1482" s="0"/>
+    </row>
+    <row r="1483">
+      <c r="A1483" t="n" s="0">
+        <v>1482.0</v>
+      </c>
+      <c r="B1483" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1483" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="D1483" t="s" s="0">
+        <v>415</v>
+      </c>
+      <c r="E1483" t="s" s="0">
+        <v>416</v>
+      </c>
+      <c r="F1483" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="G1483" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1483" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="I1483" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="J1483" t="s" s="0">
+        <v>1890</v>
+      </c>
+      <c r="K1483" s="0"/>
+      <c r="L1483" t="s" s="0">
+        <v>991</v>
+      </c>
+      <c r="M1483" s="0"/>
+    </row>
+    <row r="1484">
+      <c r="A1484" t="n" s="0">
+        <v>1483.0</v>
+      </c>
+      <c r="B1484" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1484" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="D1484" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="E1484" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="F1484" t="s" s="0">
+        <v>1829</v>
+      </c>
+      <c r="G1484" t="s" s="0">
+        <v>1646</v>
+      </c>
+      <c r="H1484" t="s" s="0">
+        <v>981</v>
+      </c>
+      <c r="I1484" t="s" s="0">
+        <v>1950</v>
+      </c>
+      <c r="J1484" t="s" s="0">
+        <v>464</v>
+      </c>
+      <c r="K1484" s="0"/>
+      <c r="L1484" t="s" s="0">
+        <v>923</v>
+      </c>
+      <c r="M1484" s="0"/>
+    </row>
+    <row r="1485">
+      <c r="A1485" t="n" s="0">
+        <v>1484.0</v>
+      </c>
+      <c r="B1485" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1485" t="s" s="0">
+        <v>435</v>
+      </c>
+      <c r="D1485" t="s" s="0">
+        <v>440</v>
+      </c>
+      <c r="E1485" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F1485" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="G1485" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1485" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I1485" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="J1485" t="s" s="0">
+        <v>1887</v>
+      </c>
+      <c r="K1485" s="0"/>
+      <c r="L1485" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="M1485" s="0"/>
+    </row>
+    <row r="1486">
+      <c r="A1486" t="n" s="0">
+        <v>1485.0</v>
+      </c>
+      <c r="B1486" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1486" t="s" s="0">
+        <v>435</v>
+      </c>
+      <c r="D1486" t="s" s="0">
+        <v>436</v>
+      </c>
+      <c r="E1486" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="F1486" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="G1486" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="H1486" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="I1486" t="s" s="0">
+        <v>951</v>
+      </c>
+      <c r="J1486" t="s" s="0">
+        <v>442</v>
+      </c>
+      <c r="K1486" s="0"/>
+      <c r="L1486" t="s" s="0">
+        <v>381</v>
+      </c>
+      <c r="M1486" s="0"/>
+    </row>
+    <row r="1487">
+      <c r="A1487" t="n" s="0">
+        <v>1486.0</v>
+      </c>
+      <c r="B1487" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1487" t="s" s="0">
+        <v>443</v>
+      </c>
+      <c r="D1487" t="s" s="0">
+        <v>444</v>
+      </c>
+      <c r="E1487" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="F1487" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G1487" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="H1487" t="s" s="0">
+        <v>627</v>
+      </c>
+      <c r="I1487" t="s" s="0">
+        <v>1951</v>
+      </c>
+      <c r="J1487" t="s" s="0">
+        <v>962</v>
+      </c>
+      <c r="K1487" s="0"/>
+      <c r="L1487" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M1487" s="0"/>
+    </row>
+    <row r="1488">
+      <c r="A1488" t="n" s="0">
+        <v>1487.0</v>
+      </c>
+      <c r="B1488" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1488" t="s" s="0">
+        <v>448</v>
+      </c>
+      <c r="D1488" t="s" s="0">
+        <v>449</v>
+      </c>
+      <c r="E1488" t="s" s="0">
+        <v>450</v>
+      </c>
+      <c r="F1488" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="G1488" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1488" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1488" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="J1488" t="s" s="0">
+        <v>1437</v>
+      </c>
+      <c r="K1488" s="0"/>
+      <c r="L1488" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="M1488" s="0"/>
+    </row>
+    <row r="1489">
+      <c r="A1489" t="n" s="0">
+        <v>1488.0</v>
+      </c>
+      <c r="B1489" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1489" t="s" s="0">
+        <v>448</v>
+      </c>
+      <c r="D1489" t="s" s="0">
+        <v>453</v>
+      </c>
+      <c r="E1489" t="s" s="0">
+        <v>454</v>
+      </c>
+      <c r="F1489" t="s" s="0">
+        <v>455</v>
+      </c>
+      <c r="G1489" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="H1489" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1489" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="J1489" t="s" s="0">
+        <v>1559</v>
+      </c>
+      <c r="K1489" s="0"/>
+      <c r="L1489" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="M1489" s="0"/>
+    </row>
+    <row r="1490">
+      <c r="A1490" t="n" s="0">
+        <v>1489.0</v>
+      </c>
+      <c r="B1490" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1490" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="D1490" t="s" s="0">
+        <v>463</v>
+      </c>
+      <c r="E1490" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="F1490" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="G1490" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1490" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1490" t="s" s="0">
+        <v>554</v>
+      </c>
+      <c r="J1490" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="K1490" s="0"/>
+      <c r="L1490" t="s" s="0">
+        <v>1051</v>
+      </c>
+      <c r="M1490" s="0"/>
+    </row>
+    <row r="1491">
+      <c r="A1491" t="n" s="0">
+        <v>1490.0</v>
+      </c>
+      <c r="B1491" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1491" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="D1491" t="s" s="0">
+        <v>958</v>
+      </c>
+      <c r="E1491" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="F1491" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="G1491" t="s" s="0">
+        <v>1952</v>
+      </c>
+      <c r="H1491" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1491" t="s" s="0">
+        <v>1953</v>
+      </c>
+      <c r="J1491" t="s" s="0">
+        <v>956</v>
+      </c>
+      <c r="K1491" s="0"/>
+      <c r="L1491" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="M1491" s="0"/>
+    </row>
+    <row r="1492">
+      <c r="A1492" t="n" s="0">
+        <v>1491.0</v>
+      </c>
+      <c r="B1492" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1492" t="s" s="0">
+        <v>470</v>
+      </c>
+      <c r="D1492" t="s" s="0">
+        <v>960</v>
+      </c>
+      <c r="E1492" t="s" s="0">
+        <v>472</v>
+      </c>
+      <c r="F1492" t="s" s="0">
+        <v>473</v>
+      </c>
+      <c r="G1492" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1492" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="I1492" t="s" s="0">
+        <v>1223</v>
+      </c>
+      <c r="J1492" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="K1492" s="0"/>
+      <c r="L1492" t="s" s="0">
+        <v>1954</v>
+      </c>
+      <c r="M1492" s="0"/>
+    </row>
+    <row r="1493">
+      <c r="A1493" t="n" s="0">
+        <v>1492.0</v>
+      </c>
+      <c r="B1493" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1493" t="s" s="0">
+        <v>963</v>
+      </c>
+      <c r="D1493" t="s" s="0">
+        <v>964</v>
+      </c>
+      <c r="E1493" t="s" s="0">
+        <v>965</v>
+      </c>
+      <c r="F1493" t="s" s="0">
+        <v>966</v>
+      </c>
+      <c r="G1493" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1493" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1493" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="J1493" t="s" s="0">
+        <v>1564</v>
+      </c>
+      <c r="K1493" s="0"/>
+      <c r="L1493" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="M1493" s="0"/>
+    </row>
+    <row r="1494">
+      <c r="A1494" t="n" s="0">
+        <v>1493.0</v>
+      </c>
+      <c r="B1494" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1494" t="s" s="0">
+        <v>476</v>
+      </c>
+      <c r="D1494" t="s" s="0">
+        <v>477</v>
+      </c>
+      <c r="E1494" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F1494" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G1494" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="H1494" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I1494" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="J1494" t="s" s="0">
+        <v>1668</v>
+      </c>
+      <c r="K1494" s="0"/>
+      <c r="L1494" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="M1494" s="0"/>
+    </row>
+    <row r="1495">
+      <c r="A1495" t="n" s="0">
+        <v>1494.0</v>
+      </c>
+      <c r="B1495" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1495" t="s" s="0">
+        <v>476</v>
+      </c>
+      <c r="D1495" t="s" s="0">
+        <v>968</v>
+      </c>
+      <c r="E1495" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F1495" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G1495" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1495" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I1495" t="s" s="0">
+        <v>1836</v>
+      </c>
+      <c r="J1495" t="s" s="0">
+        <v>996</v>
+      </c>
+      <c r="K1495" s="0"/>
+      <c r="L1495" t="s" s="0">
+        <v>1955</v>
+      </c>
+      <c r="M1495" s="0"/>
+    </row>
+    <row r="1496">
+      <c r="A1496" t="n" s="0">
+        <v>1495.0</v>
+      </c>
+      <c r="B1496" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1496" t="s" s="0">
+        <v>481</v>
+      </c>
+      <c r="D1496" t="s" s="0">
+        <v>482</v>
+      </c>
+      <c r="E1496" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="F1496" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="G1496" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1496" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1496" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="J1496" t="s" s="0">
+        <v>476</v>
+      </c>
+      <c r="K1496" s="0"/>
+      <c r="L1496" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="M1496" s="0"/>
+    </row>
+    <row r="1497">
+      <c r="A1497" t="n" s="0">
+        <v>1496.0</v>
+      </c>
+      <c r="B1497" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1497" t="s" s="0">
+        <v>485</v>
+      </c>
+      <c r="D1497" t="s" s="0">
+        <v>486</v>
+      </c>
+      <c r="E1497" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="F1497" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="G1497" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1497" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1497" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="J1497" t="s" s="0">
+        <v>1269</v>
+      </c>
+      <c r="K1497" s="0"/>
+      <c r="L1497" t="s" s="0">
+        <v>420</v>
+      </c>
+      <c r="M1497" s="0"/>
+    </row>
+    <row r="1498">
+      <c r="A1498" t="n" s="0">
+        <v>1497.0</v>
+      </c>
+      <c r="B1498" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1498" t="s" s="0">
+        <v>490</v>
+      </c>
+      <c r="D1498" t="s" s="0">
+        <v>974</v>
+      </c>
+      <c r="E1498" t="s" s="0">
+        <v>975</v>
+      </c>
+      <c r="F1498" t="s" s="0">
+        <v>976</v>
+      </c>
+      <c r="G1498" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1498" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1498" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="J1498" t="s" s="0">
+        <v>1956</v>
+      </c>
+      <c r="K1498" s="0"/>
+      <c r="L1498" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="M1498" s="0"/>
+    </row>
+    <row r="1499">
+      <c r="A1499" t="n" s="0">
+        <v>1498.0</v>
+      </c>
+      <c r="B1499" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1499" t="s" s="0">
+        <v>496</v>
+      </c>
+      <c r="D1499" t="s" s="0">
+        <v>497</v>
+      </c>
+      <c r="E1499" t="s" s="0">
+        <v>498</v>
+      </c>
+      <c r="F1499" t="s" s="0">
+        <v>499</v>
+      </c>
+      <c r="G1499" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1499" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I1499" t="s" s="0">
+        <v>478</v>
+      </c>
+      <c r="J1499" t="s" s="0">
+        <v>1957</v>
+      </c>
+      <c r="K1499" s="0"/>
+      <c r="L1499" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="M1499" s="0"/>
+    </row>
+    <row r="1500">
+      <c r="A1500" t="n" s="0">
+        <v>1499.0</v>
+      </c>
+      <c r="B1500" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1500" t="s" s="0">
+        <v>500</v>
+      </c>
+      <c r="D1500" t="s" s="0">
+        <v>985</v>
+      </c>
+      <c r="E1500" t="s" s="0">
+        <v>866</v>
+      </c>
+      <c r="F1500" t="s" s="0">
+        <v>867</v>
+      </c>
+      <c r="G1500" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="H1500" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I1500" t="s" s="0">
+        <v>1698</v>
+      </c>
+      <c r="J1500" t="s" s="0">
+        <v>1271</v>
+      </c>
+      <c r="K1500" s="0"/>
+      <c r="L1500" t="s" s="0">
+        <v>889</v>
+      </c>
+      <c r="M1500" s="0"/>
+    </row>
+    <row r="1501">
+      <c r="A1501" t="n" s="0">
+        <v>1500.0</v>
+      </c>
+      <c r="B1501" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1501" t="s" s="0">
+        <v>506</v>
+      </c>
+      <c r="D1501" t="s" s="0">
+        <v>987</v>
+      </c>
+      <c r="E1501" t="s" s="0">
+        <v>988</v>
+      </c>
+      <c r="F1501" t="s" s="0">
+        <v>989</v>
+      </c>
+      <c r="G1501" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1501" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I1501" t="s" s="0">
+        <v>441</v>
+      </c>
+      <c r="J1501" t="s" s="0">
+        <v>1449</v>
+      </c>
+      <c r="K1501" s="0"/>
+      <c r="L1501" t="s" s="0">
+        <v>864</v>
+      </c>
+      <c r="M1501" s="0"/>
+    </row>
+    <row r="1502">
+      <c r="A1502" t="n" s="0">
+        <v>1501.0</v>
+      </c>
+      <c r="B1502" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1502" t="s" s="0">
+        <v>506</v>
+      </c>
+      <c r="D1502" t="s" s="0">
+        <v>507</v>
+      </c>
+      <c r="E1502" t="s" s="0">
+        <v>508</v>
+      </c>
+      <c r="F1502" t="s" s="0">
+        <v>509</v>
+      </c>
+      <c r="G1502" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1502" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I1502" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="J1502" t="s" s="0">
+        <v>979</v>
+      </c>
+      <c r="K1502" s="0"/>
+      <c r="L1502" t="s" s="0">
+        <v>322</v>
+      </c>
+      <c r="M1502" s="0"/>
+    </row>
+    <row r="1503">
+      <c r="A1503" t="n" s="0">
+        <v>1502.0</v>
+      </c>
+      <c r="B1503" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1503" t="s" s="0">
+        <v>511</v>
+      </c>
+      <c r="D1503" t="s" s="0">
+        <v>992</v>
+      </c>
+      <c r="E1503" t="s" s="0">
+        <v>993</v>
+      </c>
+      <c r="F1503" t="s" s="0">
+        <v>994</v>
+      </c>
+      <c r="G1503" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1503" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1503" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="J1503" t="s" s="0">
+        <v>490</v>
+      </c>
+      <c r="K1503" s="0"/>
+      <c r="L1503" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="M1503" s="0"/>
+    </row>
+    <row r="1504">
+      <c r="A1504" t="n" s="0">
+        <v>1503.0</v>
+      </c>
+      <c r="B1504" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1504" t="s" s="0">
+        <v>511</v>
+      </c>
+      <c r="D1504" t="s" s="0">
+        <v>512</v>
+      </c>
+      <c r="E1504" t="s" s="0">
+        <v>513</v>
+      </c>
+      <c r="F1504" t="s" s="0">
+        <v>514</v>
+      </c>
+      <c r="G1504" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="H1504" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1504" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="J1504" t="s" s="0">
+        <v>496</v>
+      </c>
+      <c r="K1504" s="0"/>
+      <c r="L1504" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="M1504" s="0"/>
+    </row>
+    <row r="1505">
+      <c r="A1505" t="n" s="0">
+        <v>1504.0</v>
+      </c>
+      <c r="B1505" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1505" t="s" s="0">
+        <v>996</v>
+      </c>
+      <c r="D1505" t="s" s="0">
+        <v>997</v>
+      </c>
+      <c r="E1505" t="s" s="0">
+        <v>669</v>
+      </c>
+      <c r="F1505" t="s" s="0">
+        <v>670</v>
+      </c>
+      <c r="G1505" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1505" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1505" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="J1505" t="s" s="0">
+        <v>1277</v>
+      </c>
+      <c r="K1505" s="0"/>
+      <c r="L1505" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="M1505" s="0"/>
+    </row>
+    <row r="1506">
+      <c r="A1506" t="n" s="0">
+        <v>1505.0</v>
+      </c>
+      <c r="B1506" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1506" t="s" s="0">
+        <v>530</v>
+      </c>
+      <c r="D1506" t="s" s="0">
+        <v>531</v>
+      </c>
+      <c r="E1506" t="s" s="0">
+        <v>532</v>
+      </c>
+      <c r="F1506" t="s" s="0">
+        <v>533</v>
+      </c>
+      <c r="G1506" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1506" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I1506" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="J1506" t="s" s="0">
+        <v>557</v>
+      </c>
+      <c r="K1506" s="0"/>
+      <c r="L1506" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="M1506" s="0"/>
+    </row>
+    <row r="1507">
+      <c r="A1507" t="n" s="0">
+        <v>1506.0</v>
+      </c>
+      <c r="B1507" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1507" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="D1507" t="s" s="0">
+        <v>553</v>
+      </c>
+      <c r="E1507" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="F1507" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="G1507" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1507" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1507" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="J1507" t="s" s="0">
+        <v>547</v>
+      </c>
+      <c r="K1507" s="0"/>
+      <c r="L1507" t="s" s="0">
+        <v>322</v>
+      </c>
+      <c r="M1507" s="0"/>
+    </row>
+    <row r="1508">
+      <c r="A1508" t="n" s="0">
+        <v>1507.0</v>
+      </c>
+      <c r="B1508" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1508" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="D1508" t="s" s="0">
+        <v>540</v>
+      </c>
+      <c r="E1508" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="F1508" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="G1508" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1508" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1508" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="J1508" t="s" s="0">
+        <v>506</v>
+      </c>
+      <c r="K1508" s="0"/>
+      <c r="L1508" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="M1508" s="0"/>
+    </row>
+    <row r="1509">
+      <c r="A1509" t="n" s="0">
+        <v>1508.0</v>
+      </c>
+      <c r="B1509" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1509" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="D1509" t="s" s="0">
+        <v>542</v>
+      </c>
+      <c r="E1509" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="F1509" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="G1509" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1509" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1509" t="s" s="0">
+        <v>1504</v>
+      </c>
+      <c r="J1509" t="s" s="0">
+        <v>1276</v>
+      </c>
+      <c r="K1509" s="0"/>
+      <c r="L1509" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="M1509" s="0"/>
+    </row>
+    <row r="1510">
+      <c r="A1510" t="n" s="0">
+        <v>1509.0</v>
+      </c>
+      <c r="B1510" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1510" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="D1510" t="s" s="0">
+        <v>546</v>
+      </c>
+      <c r="E1510" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F1510" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G1510" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1510" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1510" t="s" s="0">
+        <v>928</v>
+      </c>
+      <c r="J1510" t="s" s="0">
+        <v>537</v>
+      </c>
+      <c r="K1510" s="0"/>
+      <c r="L1510" t="s" s="0">
+        <v>684</v>
+      </c>
+      <c r="M1510" s="0"/>
+    </row>
+    <row r="1511">
+      <c r="A1511" t="n" s="0">
+        <v>1510.0</v>
+      </c>
+      <c r="B1511" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1511" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="D1511" t="s" s="0">
+        <v>1002</v>
+      </c>
+      <c r="E1511" t="s" s="0">
+        <v>1003</v>
+      </c>
+      <c r="F1511" t="s" s="0">
+        <v>1004</v>
+      </c>
+      <c r="G1511" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1511" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1511" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="J1511" t="s" s="0">
+        <v>1447</v>
+      </c>
+      <c r="K1511" s="0"/>
+      <c r="L1511" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="M1511" s="0"/>
+    </row>
+    <row r="1512">
+      <c r="A1512" t="n" s="0">
+        <v>1511.0</v>
+      </c>
+      <c r="B1512" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1512" t="s" s="0">
+        <v>552</v>
+      </c>
+      <c r="D1512" t="s" s="0">
+        <v>544</v>
+      </c>
+      <c r="E1512" t="s" s="0">
+        <v>517</v>
+      </c>
+      <c r="F1512" t="s" s="0">
+        <v>518</v>
+      </c>
+      <c r="G1512" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1512" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1512" t="s" s="0">
+        <v>891</v>
+      </c>
+      <c r="J1512" t="s" s="0">
+        <v>495</v>
+      </c>
+      <c r="K1512" s="0"/>
+      <c r="L1512" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="M1512" s="0"/>
+    </row>
+    <row r="1513">
+      <c r="A1513" t="n" s="0">
+        <v>1512.0</v>
+      </c>
+      <c r="B1513" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1513" t="s" s="0">
+        <v>552</v>
+      </c>
+      <c r="D1513" t="s" s="0">
+        <v>556</v>
+      </c>
+      <c r="E1513" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="F1513" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="G1513" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1513" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1513" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="J1513" t="s" s="0">
+        <v>541</v>
+      </c>
+      <c r="K1513" s="0"/>
+      <c r="L1513" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="M1513" s="0"/>
+    </row>
+    <row r="1514">
+      <c r="A1514" t="n" s="0">
+        <v>1513.0</v>
+      </c>
+      <c r="B1514" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1514" t="s" s="0">
+        <v>558</v>
+      </c>
+      <c r="D1514" t="s" s="0">
+        <v>1007</v>
+      </c>
+      <c r="E1514" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="F1514" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="G1514" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="H1514" t="s" s="0">
+        <v>1008</v>
+      </c>
+      <c r="I1514" t="s" s="0">
+        <v>1958</v>
+      </c>
+      <c r="J1514" t="s" s="0">
+        <v>1572</v>
+      </c>
+      <c r="K1514" s="0"/>
+      <c r="L1514" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M1514" s="0"/>
+    </row>
+    <row r="1515">
+      <c r="A1515" t="n" s="0">
+        <v>1514.0</v>
+      </c>
+      <c r="B1515" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1515" t="s" s="0">
+        <v>1011</v>
+      </c>
+      <c r="D1515" t="s" s="0">
+        <v>1012</v>
+      </c>
+      <c r="E1515" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="F1515" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="G1515" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="H1515" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1515" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="J1515" t="s" s="0">
+        <v>1013</v>
+      </c>
+      <c r="K1515" s="0"/>
+      <c r="L1515" t="s" s="0">
+        <v>370</v>
+      </c>
+      <c r="M1515" s="0"/>
+    </row>
+    <row r="1516">
+      <c r="A1516" t="n" s="0">
+        <v>1515.0</v>
+      </c>
+      <c r="B1516" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1516" t="s" s="0">
+        <v>1014</v>
+      </c>
+      <c r="D1516" t="s" s="0">
+        <v>1015</v>
+      </c>
+      <c r="E1516" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="F1516" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="G1516" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1516" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I1516" t="s" s="0">
+        <v>494</v>
+      </c>
+      <c r="J1516" t="s" s="0">
+        <v>1959</v>
+      </c>
+      <c r="K1516" s="0"/>
+      <c r="L1516" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="M1516" s="0"/>
+    </row>
+    <row r="1517">
+      <c r="A1517" t="n" s="0">
+        <v>1516.0</v>
+      </c>
+      <c r="B1517" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1517" t="s" s="0">
+        <v>563</v>
+      </c>
+      <c r="D1517" t="s" s="0">
+        <v>1016</v>
+      </c>
+      <c r="E1517" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F1517" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G1517" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="H1517" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1517" t="s" s="0">
+        <v>1960</v>
+      </c>
+      <c r="J1517" t="s" s="0">
+        <v>568</v>
+      </c>
+      <c r="K1517" s="0"/>
+      <c r="L1517" t="s" s="0">
+        <v>569</v>
+      </c>
+      <c r="M1517" s="0"/>
+    </row>
+    <row r="1518">
+      <c r="A1518" t="n" s="0">
+        <v>1517.0</v>
+      </c>
+      <c r="B1518" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1518" t="s" s="0">
+        <v>563</v>
+      </c>
+      <c r="D1518" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="E1518" t="s" s="0">
+        <v>565</v>
+      </c>
+      <c r="F1518" t="s" s="0">
+        <v>566</v>
+      </c>
+      <c r="G1518" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1518" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I1518" t="s" s="0">
+        <v>1805</v>
+      </c>
+      <c r="J1518" t="s" s="0">
+        <v>552</v>
+      </c>
+      <c r="K1518" s="0"/>
+      <c r="L1518" t="s" s="0">
+        <v>889</v>
+      </c>
+      <c r="M1518" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/WAW_Arrivals.xlsx
+++ b/DataBase/WAW_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15181" uniqueCount="1961">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15291" uniqueCount="1972">
   <si>
     <t>NUMBER</t>
   </si>
@@ -5895,6 +5895,39 @@
   </si>
   <si>
     <t>(F-HBLK)</t>
+  </si>
+  <si>
+    <t>4:50 PM</t>
+  </si>
+  <si>
+    <t>(HA-LTB)</t>
+  </si>
+  <si>
+    <t>5:28 PM</t>
+  </si>
+  <si>
+    <t>4:52 PM</t>
+  </si>
+  <si>
+    <t>4:33 PM</t>
+  </si>
+  <si>
+    <t>(SX-DVR)</t>
+  </si>
+  <si>
+    <t>5:24 PM</t>
+  </si>
+  <si>
+    <t>5:19 PM</t>
+  </si>
+  <si>
+    <t>(ES-ACK)</t>
+  </si>
+  <si>
+    <t>5:51 PM</t>
+  </si>
+  <si>
+    <t>(TC-JTI)</t>
   </si>
 </sst>
 </file>
@@ -5939,7 +5972,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M1518"/>
+  <dimension ref="A1:M1529"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -62109,6 +62142,413 @@
       </c>
       <c r="M1518" s="0"/>
     </row>
+    <row r="1519">
+      <c r="A1519" t="n" s="0">
+        <v>1518.0</v>
+      </c>
+      <c r="B1519" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1519" t="s" s="0">
+        <v>1961</v>
+      </c>
+      <c r="D1519" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="E1519" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="F1519" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="G1519" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1519" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I1519" t="s" s="0">
+        <v>1962</v>
+      </c>
+      <c r="J1519" t="s" s="0">
+        <v>1963</v>
+      </c>
+      <c r="K1519" s="0"/>
+      <c r="L1519" t="s" s="0">
+        <v>1503</v>
+      </c>
+      <c r="M1519" s="0"/>
+    </row>
+    <row r="1520">
+      <c r="A1520" t="n" s="0">
+        <v>1519.0</v>
+      </c>
+      <c r="B1520" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1520" t="s" s="0">
+        <v>1964</v>
+      </c>
+      <c r="D1520" t="s" s="0">
+        <v>1028</v>
+      </c>
+      <c r="E1520" t="s" s="0">
+        <v>866</v>
+      </c>
+      <c r="F1520" t="s" s="0">
+        <v>867</v>
+      </c>
+      <c r="G1520" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="H1520" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I1520" t="s" s="0">
+        <v>698</v>
+      </c>
+      <c r="J1520" t="s" s="0">
+        <v>1965</v>
+      </c>
+      <c r="K1520" s="0"/>
+      <c r="L1520" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="M1520" s="0"/>
+    </row>
+    <row r="1521">
+      <c r="A1521" t="n" s="0">
+        <v>1520.0</v>
+      </c>
+      <c r="B1521" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1521" t="s" s="0">
+        <v>588</v>
+      </c>
+      <c r="D1521" t="s" s="0">
+        <v>1025</v>
+      </c>
+      <c r="E1521" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="F1521" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="G1521" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H1521" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I1521" t="s" s="0">
+        <v>1966</v>
+      </c>
+      <c r="J1521" t="s" s="0">
+        <v>1469</v>
+      </c>
+      <c r="K1521" s="0"/>
+      <c r="L1521" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="M1521" s="0"/>
+    </row>
+    <row r="1522">
+      <c r="A1522" t="n" s="0">
+        <v>1521.0</v>
+      </c>
+      <c r="B1522" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1522" t="s" s="0">
+        <v>600</v>
+      </c>
+      <c r="D1522" t="s" s="0">
+        <v>1030</v>
+      </c>
+      <c r="E1522" t="s" s="0">
+        <v>1031</v>
+      </c>
+      <c r="F1522" t="s" s="0">
+        <v>1032</v>
+      </c>
+      <c r="G1522" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1522" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I1522" t="s" s="0">
+        <v>1761</v>
+      </c>
+      <c r="J1522" t="s" s="0">
+        <v>1029</v>
+      </c>
+      <c r="K1522" s="0"/>
+      <c r="L1522" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="M1522" s="0"/>
+    </row>
+    <row r="1523">
+      <c r="A1523" t="n" s="0">
+        <v>1522.0</v>
+      </c>
+      <c r="B1523" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1523" t="s" s="0">
+        <v>576</v>
+      </c>
+      <c r="D1523" t="s" s="0">
+        <v>601</v>
+      </c>
+      <c r="E1523" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="F1523" t="s" s="0">
+        <v>602</v>
+      </c>
+      <c r="G1523" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1523" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I1523" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="J1523" t="s" s="0">
+        <v>1967</v>
+      </c>
+      <c r="K1523" s="0"/>
+      <c r="L1523" t="s" s="0">
+        <v>923</v>
+      </c>
+      <c r="M1523" s="0"/>
+    </row>
+    <row r="1524">
+      <c r="A1524" t="n" s="0">
+        <v>1523.0</v>
+      </c>
+      <c r="B1524" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1524" t="s" s="0">
+        <v>1034</v>
+      </c>
+      <c r="D1524" t="s" s="0">
+        <v>1035</v>
+      </c>
+      <c r="E1524" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="F1524" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="G1524" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="H1524" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I1524" t="s" s="0">
+        <v>1429</v>
+      </c>
+      <c r="J1524" t="s" s="0">
+        <v>1968</v>
+      </c>
+      <c r="K1524" s="0"/>
+      <c r="L1524" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="M1524" s="0"/>
+    </row>
+    <row r="1525">
+      <c r="A1525" t="n" s="0">
+        <v>1524.0</v>
+      </c>
+      <c r="B1525" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1525" t="s" s="0">
+        <v>1036</v>
+      </c>
+      <c r="D1525" t="s" s="0">
+        <v>617</v>
+      </c>
+      <c r="E1525" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F1525" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="G1525" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1525" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I1525" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="J1525" t="s" s="0">
+        <v>622</v>
+      </c>
+      <c r="K1525" s="0"/>
+      <c r="L1525" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="M1525" s="0"/>
+    </row>
+    <row r="1526">
+      <c r="A1526" t="n" s="0">
+        <v>1525.0</v>
+      </c>
+      <c r="B1526" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1526" t="s" s="0">
+        <v>1038</v>
+      </c>
+      <c r="D1526" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="E1526" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="F1526" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="G1526" t="s" s="0">
+        <v>1040</v>
+      </c>
+      <c r="H1526" t="s" s="0">
+        <v>1008</v>
+      </c>
+      <c r="I1526" t="s" s="0">
+        <v>1969</v>
+      </c>
+      <c r="J1526" t="s" s="0">
+        <v>1970</v>
+      </c>
+      <c r="K1526" s="0"/>
+      <c r="L1526" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="M1526" s="0"/>
+    </row>
+    <row r="1527">
+      <c r="A1527" t="n" s="0">
+        <v>1526.0</v>
+      </c>
+      <c r="B1527" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1527" t="s" s="0">
+        <v>1038</v>
+      </c>
+      <c r="D1527" t="s" s="0">
+        <v>1043</v>
+      </c>
+      <c r="E1527" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F1527" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="G1527" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="H1527" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I1527" t="s" s="0">
+        <v>1971</v>
+      </c>
+      <c r="J1527" t="s" s="0">
+        <v>1461</v>
+      </c>
+      <c r="K1527" s="0"/>
+      <c r="L1527" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M1527" s="0"/>
+    </row>
+    <row r="1528">
+      <c r="A1528" t="n" s="0">
+        <v>1527.0</v>
+      </c>
+      <c r="B1528" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1528" t="s" s="0">
+        <v>615</v>
+      </c>
+      <c r="D1528" t="s" s="0">
+        <v>1049</v>
+      </c>
+      <c r="E1528" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="F1528" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="G1528" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1528" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1528" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="J1528" t="s" s="0">
+        <v>610</v>
+      </c>
+      <c r="K1528" s="0"/>
+      <c r="L1528" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="M1528" s="0"/>
+    </row>
+    <row r="1529">
+      <c r="A1529" t="n" s="0">
+        <v>1528.0</v>
+      </c>
+      <c r="B1529" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1529" t="s" s="0">
+        <v>631</v>
+      </c>
+      <c r="D1529" t="s" s="0">
+        <v>632</v>
+      </c>
+      <c r="E1529" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="F1529" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="G1529" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="H1529" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1529" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="J1529" t="s" s="0">
+        <v>1050</v>
+      </c>
+      <c r="K1529" s="0"/>
+      <c r="L1529" t="s" s="0">
+        <v>649</v>
+      </c>
+      <c r="M1529" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/WAW_Arrivals.xlsx
+++ b/DataBase/WAW_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15291" uniqueCount="1972">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15861" uniqueCount="1984">
   <si>
     <t>NUMBER</t>
   </si>
@@ -5928,6 +5928,42 @@
   </si>
   <si>
     <t>(TC-JTI)</t>
+  </si>
+  <si>
+    <t>(D-AIBH)</t>
+  </si>
+  <si>
+    <t>(G-TTNR)</t>
+  </si>
+  <si>
+    <t>(A6-FME)</t>
+  </si>
+  <si>
+    <t>8:51 PM</t>
+  </si>
+  <si>
+    <t>9:02 PM</t>
+  </si>
+  <si>
+    <t>(G-TTNP)</t>
+  </si>
+  <si>
+    <t>(F-GKXC)</t>
+  </si>
+  <si>
+    <t>(D-AIUL)</t>
+  </si>
+  <si>
+    <t>0 hours, -42 minutes</t>
+  </si>
+  <si>
+    <t>11:14 PM</t>
+  </si>
+  <si>
+    <t>11:17 PM</t>
+  </si>
+  <si>
+    <t>11:07 PM</t>
   </si>
 </sst>
 </file>
@@ -5972,7 +6008,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M1529"/>
+  <dimension ref="A1:M1586"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -62549,6 +62585,2115 @@
       </c>
       <c r="M1529" s="0"/>
     </row>
+    <row r="1530">
+      <c r="A1530" t="n" s="0">
+        <v>1529.0</v>
+      </c>
+      <c r="B1530" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1530" t="s" s="0">
+        <v>1052</v>
+      </c>
+      <c r="D1530" t="s" s="0">
+        <v>1053</v>
+      </c>
+      <c r="E1530" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="F1530" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G1530" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H1530" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="I1530" t="s" s="0">
+        <v>1972</v>
+      </c>
+      <c r="J1530" t="s" s="0">
+        <v>1584</v>
+      </c>
+      <c r="K1530" s="0"/>
+      <c r="L1530" t="s" s="0">
+        <v>538</v>
+      </c>
+      <c r="M1530" s="0"/>
+    </row>
+    <row r="1531">
+      <c r="A1531" t="n" s="0">
+        <v>1530.0</v>
+      </c>
+      <c r="B1531" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1531" t="s" s="0">
+        <v>640</v>
+      </c>
+      <c r="D1531" t="s" s="0">
+        <v>646</v>
+      </c>
+      <c r="E1531" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F1531" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G1531" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H1531" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1531" t="s" s="0">
+        <v>1739</v>
+      </c>
+      <c r="J1531" t="s" s="0">
+        <v>631</v>
+      </c>
+      <c r="K1531" s="0"/>
+      <c r="L1531" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="M1531" s="0"/>
+    </row>
+    <row r="1532">
+      <c r="A1532" t="n" s="0">
+        <v>1531.0</v>
+      </c>
+      <c r="B1532" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1532" t="s" s="0">
+        <v>1056</v>
+      </c>
+      <c r="D1532" t="s" s="0">
+        <v>1057</v>
+      </c>
+      <c r="E1532" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="F1532" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="G1532" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="H1532" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1532" t="s" s="0">
+        <v>1058</v>
+      </c>
+      <c r="J1532" t="s" s="0">
+        <v>1304</v>
+      </c>
+      <c r="K1532" s="0"/>
+      <c r="L1532" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="M1532" s="0"/>
+    </row>
+    <row r="1533">
+      <c r="A1533" t="n" s="0">
+        <v>1532.0</v>
+      </c>
+      <c r="B1533" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1533" t="s" s="0">
+        <v>650</v>
+      </c>
+      <c r="D1533" t="s" s="0">
+        <v>651</v>
+      </c>
+      <c r="E1533" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="F1533" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="G1533" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1533" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I1533" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="J1533" t="s" s="0">
+        <v>1302</v>
+      </c>
+      <c r="K1533" s="0"/>
+      <c r="L1533" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="M1533" s="0"/>
+    </row>
+    <row r="1534">
+      <c r="A1534" t="n" s="0">
+        <v>1533.0</v>
+      </c>
+      <c r="B1534" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1534" t="s" s="0">
+        <v>654</v>
+      </c>
+      <c r="D1534" t="s" s="0">
+        <v>1060</v>
+      </c>
+      <c r="E1534" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F1534" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="G1534" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="H1534" t="s" s="0">
+        <v>627</v>
+      </c>
+      <c r="I1534" t="s" s="0">
+        <v>1973</v>
+      </c>
+      <c r="J1534" t="s" s="0">
+        <v>1703</v>
+      </c>
+      <c r="K1534" s="0"/>
+      <c r="L1534" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="M1534" s="0"/>
+    </row>
+    <row r="1535">
+      <c r="A1535" t="n" s="0">
+        <v>1534.0</v>
+      </c>
+      <c r="B1535" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1535" t="s" s="0">
+        <v>660</v>
+      </c>
+      <c r="D1535" t="s" s="0">
+        <v>664</v>
+      </c>
+      <c r="E1535" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F1535" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="G1535" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1535" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1535" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="J1535" t="s" s="0">
+        <v>1300</v>
+      </c>
+      <c r="K1535" s="0"/>
+      <c r="L1535" t="s" s="0">
+        <v>538</v>
+      </c>
+      <c r="M1535" s="0"/>
+    </row>
+    <row r="1536">
+      <c r="A1536" t="n" s="0">
+        <v>1535.0</v>
+      </c>
+      <c r="B1536" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1536" t="s" s="0">
+        <v>660</v>
+      </c>
+      <c r="D1536" t="s" s="0">
+        <v>666</v>
+      </c>
+      <c r="E1536" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="F1536" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="G1536" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1536" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1536" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="J1536" t="s" s="0">
+        <v>1908</v>
+      </c>
+      <c r="K1536" s="0"/>
+      <c r="L1536" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="M1536" s="0"/>
+    </row>
+    <row r="1537">
+      <c r="A1537" t="n" s="0">
+        <v>1536.0</v>
+      </c>
+      <c r="B1537" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1537" t="s" s="0">
+        <v>672</v>
+      </c>
+      <c r="D1537" t="s" s="0">
+        <v>675</v>
+      </c>
+      <c r="E1537" t="s" s="0">
+        <v>454</v>
+      </c>
+      <c r="F1537" t="s" s="0">
+        <v>455</v>
+      </c>
+      <c r="G1537" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="H1537" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1537" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="J1537" t="s" s="0">
+        <v>1588</v>
+      </c>
+      <c r="K1537" s="0"/>
+      <c r="L1537" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="M1537" s="0"/>
+    </row>
+    <row r="1538">
+      <c r="A1538" t="n" s="0">
+        <v>1537.0</v>
+      </c>
+      <c r="B1538" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1538" t="s" s="0">
+        <v>678</v>
+      </c>
+      <c r="D1538" t="s" s="0">
+        <v>679</v>
+      </c>
+      <c r="E1538" t="s" s="0">
+        <v>498</v>
+      </c>
+      <c r="F1538" t="s" s="0">
+        <v>499</v>
+      </c>
+      <c r="G1538" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1538" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1538" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="J1538" t="s" s="0">
+        <v>683</v>
+      </c>
+      <c r="K1538" s="0"/>
+      <c r="L1538" t="s" s="0">
+        <v>538</v>
+      </c>
+      <c r="M1538" s="0"/>
+    </row>
+    <row r="1539">
+      <c r="A1539" t="n" s="0">
+        <v>1538.0</v>
+      </c>
+      <c r="B1539" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1539" t="s" s="0">
+        <v>681</v>
+      </c>
+      <c r="D1539" t="s" s="0">
+        <v>704</v>
+      </c>
+      <c r="E1539" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="F1539" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="G1539" t="s" s="0">
+        <v>705</v>
+      </c>
+      <c r="H1539" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I1539" t="s" s="0">
+        <v>1974</v>
+      </c>
+      <c r="J1539" t="s" s="0">
+        <v>1068</v>
+      </c>
+      <c r="K1539" s="0"/>
+      <c r="L1539" t="s" s="0">
+        <v>806</v>
+      </c>
+      <c r="M1539" s="0"/>
+    </row>
+    <row r="1540">
+      <c r="A1540" t="n" s="0">
+        <v>1539.0</v>
+      </c>
+      <c r="B1540" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1540" t="s" s="0">
+        <v>681</v>
+      </c>
+      <c r="D1540" t="s" s="0">
+        <v>1306</v>
+      </c>
+      <c r="E1540" t="s" s="0">
+        <v>1116</v>
+      </c>
+      <c r="F1540" t="s" s="0">
+        <v>1117</v>
+      </c>
+      <c r="G1540" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1540" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I1540" t="s" s="0">
+        <v>567</v>
+      </c>
+      <c r="J1540" t="s" s="0">
+        <v>685</v>
+      </c>
+      <c r="K1540" s="0"/>
+      <c r="L1540" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="M1540" s="0"/>
+    </row>
+    <row r="1541">
+      <c r="A1541" t="n" s="0">
+        <v>1540.0</v>
+      </c>
+      <c r="B1541" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1541" t="s" s="0">
+        <v>681</v>
+      </c>
+      <c r="D1541" t="s" s="0">
+        <v>621</v>
+      </c>
+      <c r="E1541" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F1541" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G1541" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1541" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1541" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="J1541" t="s" s="0">
+        <v>678</v>
+      </c>
+      <c r="K1541" s="0"/>
+      <c r="L1541" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="M1541" s="0"/>
+    </row>
+    <row r="1542">
+      <c r="A1542" t="n" s="0">
+        <v>1541.0</v>
+      </c>
+      <c r="B1542" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1542" t="s" s="0">
+        <v>681</v>
+      </c>
+      <c r="D1542" t="s" s="0">
+        <v>1066</v>
+      </c>
+      <c r="E1542" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="F1542" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="G1542" t="s" s="0">
+        <v>1185</v>
+      </c>
+      <c r="H1542" t="s" s="0">
+        <v>824</v>
+      </c>
+      <c r="I1542" t="s" s="0">
+        <v>1708</v>
+      </c>
+      <c r="J1542" t="s" s="0">
+        <v>1065</v>
+      </c>
+      <c r="K1542" s="0"/>
+      <c r="L1542" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="M1542" s="0"/>
+    </row>
+    <row r="1543">
+      <c r="A1543" t="n" s="0">
+        <v>1542.0</v>
+      </c>
+      <c r="B1543" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1543" t="s" s="0">
+        <v>685</v>
+      </c>
+      <c r="D1543" t="s" s="0">
+        <v>686</v>
+      </c>
+      <c r="E1543" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="F1543" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="G1543" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1543" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1543" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="J1543" t="s" s="0">
+        <v>654</v>
+      </c>
+      <c r="K1543" s="0"/>
+      <c r="L1543" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="M1543" s="0"/>
+    </row>
+    <row r="1544">
+      <c r="A1544" t="n" s="0">
+        <v>1543.0</v>
+      </c>
+      <c r="B1544" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1544" t="s" s="0">
+        <v>685</v>
+      </c>
+      <c r="D1544" t="s" s="0">
+        <v>688</v>
+      </c>
+      <c r="E1544" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="F1544" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="G1544" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1544" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1544" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="J1544" t="s" s="0">
+        <v>681</v>
+      </c>
+      <c r="K1544" s="0"/>
+      <c r="L1544" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="M1544" s="0"/>
+    </row>
+    <row r="1545">
+      <c r="A1545" t="n" s="0">
+        <v>1544.0</v>
+      </c>
+      <c r="B1545" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1545" t="s" s="0">
+        <v>685</v>
+      </c>
+      <c r="D1545" t="s" s="0">
+        <v>1070</v>
+      </c>
+      <c r="E1545" t="s" s="0">
+        <v>532</v>
+      </c>
+      <c r="F1545" t="s" s="0">
+        <v>533</v>
+      </c>
+      <c r="G1545" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1545" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1545" t="s" s="0">
+        <v>891</v>
+      </c>
+      <c r="J1545" t="s" s="0">
+        <v>638</v>
+      </c>
+      <c r="K1545" s="0"/>
+      <c r="L1545" t="s" s="0">
+        <v>649</v>
+      </c>
+      <c r="M1545" s="0"/>
+    </row>
+    <row r="1546">
+      <c r="A1546" t="n" s="0">
+        <v>1545.0</v>
+      </c>
+      <c r="B1546" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1546" t="s" s="0">
+        <v>1073</v>
+      </c>
+      <c r="D1546" t="s" s="0">
+        <v>1643</v>
+      </c>
+      <c r="E1546" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="F1546" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="G1546" t="s" s="0">
+        <v>919</v>
+      </c>
+      <c r="H1546" t="s" s="0">
+        <v>920</v>
+      </c>
+      <c r="I1546" t="s" s="0">
+        <v>1644</v>
+      </c>
+      <c r="J1546" t="s" s="0">
+        <v>1600</v>
+      </c>
+      <c r="K1546" s="0"/>
+      <c r="L1546" t="s" s="0">
+        <v>871</v>
+      </c>
+      <c r="M1546" s="0"/>
+    </row>
+    <row r="1547">
+      <c r="A1547" t="n" s="0">
+        <v>1546.0</v>
+      </c>
+      <c r="B1547" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1547" t="s" s="0">
+        <v>690</v>
+      </c>
+      <c r="D1547" t="s" s="0">
+        <v>691</v>
+      </c>
+      <c r="E1547" t="s" s="0">
+        <v>513</v>
+      </c>
+      <c r="F1547" t="s" s="0">
+        <v>514</v>
+      </c>
+      <c r="G1547" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1547" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I1547" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="J1547" t="s" s="0">
+        <v>1909</v>
+      </c>
+      <c r="K1547" s="0"/>
+      <c r="L1547" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="M1547" s="0"/>
+    </row>
+    <row r="1548">
+      <c r="A1548" t="n" s="0">
+        <v>1547.0</v>
+      </c>
+      <c r="B1548" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1548" t="s" s="0">
+        <v>693</v>
+      </c>
+      <c r="D1548" t="s" s="0">
+        <v>694</v>
+      </c>
+      <c r="E1548" t="s" s="0">
+        <v>422</v>
+      </c>
+      <c r="F1548" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="G1548" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1548" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1548" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="J1548" t="s" s="0">
+        <v>689</v>
+      </c>
+      <c r="K1548" s="0"/>
+      <c r="L1548" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="M1548" s="0"/>
+    </row>
+    <row r="1549">
+      <c r="A1549" t="n" s="0">
+        <v>1548.0</v>
+      </c>
+      <c r="B1549" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1549" t="s" s="0">
+        <v>700</v>
+      </c>
+      <c r="D1549" t="s" s="0">
+        <v>701</v>
+      </c>
+      <c r="E1549" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="F1549" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="G1549" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1549" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I1549" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="J1549" t="s" s="0">
+        <v>693</v>
+      </c>
+      <c r="K1549" s="0"/>
+      <c r="L1549" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="M1549" s="0"/>
+    </row>
+    <row r="1550">
+      <c r="A1550" t="n" s="0">
+        <v>1549.0</v>
+      </c>
+      <c r="B1550" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1550" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="D1550" t="s" s="0">
+        <v>713</v>
+      </c>
+      <c r="E1550" t="s" s="0">
+        <v>393</v>
+      </c>
+      <c r="F1550" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="G1550" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1550" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1550" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="J1550" t="s" s="0">
+        <v>1079</v>
+      </c>
+      <c r="K1550" s="0"/>
+      <c r="L1550" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="M1550" s="0"/>
+    </row>
+    <row r="1551">
+      <c r="A1551" t="n" s="0">
+        <v>1550.0</v>
+      </c>
+      <c r="B1551" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1551" t="s" s="0">
+        <v>715</v>
+      </c>
+      <c r="D1551" t="s" s="0">
+        <v>716</v>
+      </c>
+      <c r="E1551" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="F1551" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="G1551" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1551" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1551" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="J1551" t="s" s="0">
+        <v>708</v>
+      </c>
+      <c r="K1551" s="0"/>
+      <c r="L1551" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="M1551" s="0"/>
+    </row>
+    <row r="1552">
+      <c r="A1552" t="n" s="0">
+        <v>1551.0</v>
+      </c>
+      <c r="B1552" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1552" t="s" s="0">
+        <v>715</v>
+      </c>
+      <c r="D1552" t="s" s="0">
+        <v>718</v>
+      </c>
+      <c r="E1552" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="F1552" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="G1552" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1552" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I1552" t="s" s="0">
+        <v>441</v>
+      </c>
+      <c r="J1552" t="s" s="0">
+        <v>1719</v>
+      </c>
+      <c r="K1552" s="0"/>
+      <c r="L1552" t="s" s="0">
+        <v>639</v>
+      </c>
+      <c r="M1552" s="0"/>
+    </row>
+    <row r="1553">
+      <c r="A1553" t="n" s="0">
+        <v>1552.0</v>
+      </c>
+      <c r="B1553" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1553" t="s" s="0">
+        <v>720</v>
+      </c>
+      <c r="D1553" t="s" s="0">
+        <v>721</v>
+      </c>
+      <c r="E1553" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="F1553" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="G1553" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1553" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1553" t="s" s="0">
+        <v>928</v>
+      </c>
+      <c r="J1553" t="s" s="0">
+        <v>1975</v>
+      </c>
+      <c r="K1553" s="0"/>
+      <c r="L1553" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="M1553" s="0"/>
+    </row>
+    <row r="1554">
+      <c r="A1554" t="n" s="0">
+        <v>1553.0</v>
+      </c>
+      <c r="B1554" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1554" t="s" s="0">
+        <v>720</v>
+      </c>
+      <c r="D1554" t="s" s="0">
+        <v>1078</v>
+      </c>
+      <c r="E1554" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="F1554" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="G1554" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1554" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1554" t="s" s="0">
+        <v>730</v>
+      </c>
+      <c r="J1554" t="s" s="0">
+        <v>1913</v>
+      </c>
+      <c r="K1554" s="0"/>
+      <c r="L1554" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="M1554" s="0"/>
+    </row>
+    <row r="1555">
+      <c r="A1555" t="n" s="0">
+        <v>1554.0</v>
+      </c>
+      <c r="B1555" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1555" t="s" s="0">
+        <v>723</v>
+      </c>
+      <c r="D1555" t="s" s="0">
+        <v>1080</v>
+      </c>
+      <c r="E1555" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="F1555" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="G1555" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1555" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1555" t="s" s="0">
+        <v>1504</v>
+      </c>
+      <c r="J1555" t="s" s="0">
+        <v>731</v>
+      </c>
+      <c r="K1555" s="0"/>
+      <c r="L1555" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="M1555" s="0"/>
+    </row>
+    <row r="1556">
+      <c r="A1556" t="n" s="0">
+        <v>1555.0</v>
+      </c>
+      <c r="B1556" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1556" t="s" s="0">
+        <v>723</v>
+      </c>
+      <c r="D1556" t="s" s="0">
+        <v>724</v>
+      </c>
+      <c r="E1556" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="F1556" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G1556" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1556" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1556" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="J1556" t="s" s="0">
+        <v>723</v>
+      </c>
+      <c r="K1556" s="0"/>
+      <c r="L1556" t="s" s="0">
+        <v>674</v>
+      </c>
+      <c r="M1556" s="0"/>
+    </row>
+    <row r="1557">
+      <c r="A1557" t="n" s="0">
+        <v>1556.0</v>
+      </c>
+      <c r="B1557" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1557" t="s" s="0">
+        <v>723</v>
+      </c>
+      <c r="D1557" t="s" s="0">
+        <v>1082</v>
+      </c>
+      <c r="E1557" t="s" s="0">
+        <v>1083</v>
+      </c>
+      <c r="F1557" t="s" s="0">
+        <v>1084</v>
+      </c>
+      <c r="G1557" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1557" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1557" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="J1557" t="s" s="0">
+        <v>1089</v>
+      </c>
+      <c r="K1557" s="0"/>
+      <c r="L1557" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="M1557" s="0"/>
+    </row>
+    <row r="1558">
+      <c r="A1558" t="n" s="0">
+        <v>1557.0</v>
+      </c>
+      <c r="B1558" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1558" t="s" s="0">
+        <v>726</v>
+      </c>
+      <c r="D1558" t="s" s="0">
+        <v>727</v>
+      </c>
+      <c r="E1558" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="F1558" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="G1558" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1558" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1558" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="J1558" t="s" s="0">
+        <v>715</v>
+      </c>
+      <c r="K1558" s="0"/>
+      <c r="L1558" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="M1558" s="0"/>
+    </row>
+    <row r="1559">
+      <c r="A1559" t="n" s="0">
+        <v>1558.0</v>
+      </c>
+      <c r="B1559" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1559" t="s" s="0">
+        <v>726</v>
+      </c>
+      <c r="D1559" t="s" s="0">
+        <v>729</v>
+      </c>
+      <c r="E1559" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="F1559" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="G1559" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1559" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1559" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="J1559" t="s" s="0">
+        <v>734</v>
+      </c>
+      <c r="K1559" s="0"/>
+      <c r="L1559" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="M1559" s="0"/>
+    </row>
+    <row r="1560">
+      <c r="A1560" t="n" s="0">
+        <v>1559.0</v>
+      </c>
+      <c r="B1560" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1560" t="s" s="0">
+        <v>726</v>
+      </c>
+      <c r="D1560" t="s" s="0">
+        <v>1088</v>
+      </c>
+      <c r="E1560" t="s" s="0">
+        <v>450</v>
+      </c>
+      <c r="F1560" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="G1560" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="H1560" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I1560" t="s" s="0">
+        <v>1429</v>
+      </c>
+      <c r="J1560" t="s" s="0">
+        <v>1976</v>
+      </c>
+      <c r="K1560" s="0"/>
+      <c r="L1560" t="s" s="0">
+        <v>1257</v>
+      </c>
+      <c r="M1560" s="0"/>
+    </row>
+    <row r="1561">
+      <c r="A1561" t="n" s="0">
+        <v>1560.0</v>
+      </c>
+      <c r="B1561" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1561" t="s" s="0">
+        <v>732</v>
+      </c>
+      <c r="D1561" t="s" s="0">
+        <v>733</v>
+      </c>
+      <c r="E1561" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="F1561" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="G1561" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1561" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1561" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="J1561" t="s" s="0">
+        <v>1508</v>
+      </c>
+      <c r="K1561" s="0"/>
+      <c r="L1561" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="M1561" s="0"/>
+    </row>
+    <row r="1562">
+      <c r="A1562" t="n" s="0">
+        <v>1561.0</v>
+      </c>
+      <c r="B1562" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1562" t="s" s="0">
+        <v>735</v>
+      </c>
+      <c r="D1562" t="s" s="0">
+        <v>736</v>
+      </c>
+      <c r="E1562" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F1562" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="G1562" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="H1562" t="s" s="0">
+        <v>627</v>
+      </c>
+      <c r="I1562" t="s" s="0">
+        <v>1977</v>
+      </c>
+      <c r="J1562" t="s" s="0">
+        <v>1081</v>
+      </c>
+      <c r="K1562" s="0"/>
+      <c r="L1562" t="s" s="0">
+        <v>1541</v>
+      </c>
+      <c r="M1562" s="0"/>
+    </row>
+    <row r="1563">
+      <c r="A1563" t="n" s="0">
+        <v>1562.0</v>
+      </c>
+      <c r="B1563" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1563" t="s" s="0">
+        <v>735</v>
+      </c>
+      <c r="D1563" t="s" s="0">
+        <v>742</v>
+      </c>
+      <c r="E1563" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="F1563" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="G1563" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1563" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I1563" t="s" s="0">
+        <v>478</v>
+      </c>
+      <c r="J1563" t="s" s="0">
+        <v>1087</v>
+      </c>
+      <c r="K1563" s="0"/>
+      <c r="L1563" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="M1563" s="0"/>
+    </row>
+    <row r="1564">
+      <c r="A1564" t="n" s="0">
+        <v>1563.0</v>
+      </c>
+      <c r="B1564" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1564" t="s" s="0">
+        <v>735</v>
+      </c>
+      <c r="D1564" t="s" s="0">
+        <v>740</v>
+      </c>
+      <c r="E1564" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="F1564" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="G1564" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="H1564" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I1564" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="J1564" t="s" s="0">
+        <v>1092</v>
+      </c>
+      <c r="K1564" s="0"/>
+      <c r="L1564" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="M1564" s="0"/>
+    </row>
+    <row r="1565">
+      <c r="A1565" t="n" s="0">
+        <v>1564.0</v>
+      </c>
+      <c r="B1565" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1565" t="s" s="0">
+        <v>735</v>
+      </c>
+      <c r="D1565" t="s" s="0">
+        <v>744</v>
+      </c>
+      <c r="E1565" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="F1565" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="G1565" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1565" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I1565" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="J1565" t="s" s="0">
+        <v>1716</v>
+      </c>
+      <c r="K1565" s="0"/>
+      <c r="L1565" t="s" s="0">
+        <v>923</v>
+      </c>
+      <c r="M1565" s="0"/>
+    </row>
+    <row r="1566">
+      <c r="A1566" t="n" s="0">
+        <v>1565.0</v>
+      </c>
+      <c r="B1566" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1566" t="s" s="0">
+        <v>1093</v>
+      </c>
+      <c r="D1566" t="s" s="0">
+        <v>1094</v>
+      </c>
+      <c r="E1566" t="s" s="0">
+        <v>1095</v>
+      </c>
+      <c r="F1566" t="s" s="0">
+        <v>1096</v>
+      </c>
+      <c r="G1566" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="H1566" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1566" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="J1566" t="s" s="0">
+        <v>1616</v>
+      </c>
+      <c r="K1566" s="0"/>
+      <c r="L1566" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="M1566" s="0"/>
+    </row>
+    <row r="1567">
+      <c r="A1567" t="n" s="0">
+        <v>1566.0</v>
+      </c>
+      <c r="B1567" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1567" t="s" s="0">
+        <v>1093</v>
+      </c>
+      <c r="D1567" t="s" s="0">
+        <v>746</v>
+      </c>
+      <c r="E1567" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F1567" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="G1567" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1567" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I1567" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="J1567" t="s" s="0">
+        <v>1091</v>
+      </c>
+      <c r="K1567" s="0"/>
+      <c r="L1567" t="s" s="0">
+        <v>649</v>
+      </c>
+      <c r="M1567" s="0"/>
+    </row>
+    <row r="1568">
+      <c r="A1568" t="n" s="0">
+        <v>1567.0</v>
+      </c>
+      <c r="B1568" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1568" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="D1568" t="s" s="0">
+        <v>750</v>
+      </c>
+      <c r="E1568" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="F1568" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="G1568" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1568" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I1568" t="s" s="0">
+        <v>751</v>
+      </c>
+      <c r="J1568" t="s" s="0">
+        <v>1815</v>
+      </c>
+      <c r="K1568" s="0"/>
+      <c r="L1568" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="M1568" s="0"/>
+    </row>
+    <row r="1569">
+      <c r="A1569" t="n" s="0">
+        <v>1568.0</v>
+      </c>
+      <c r="B1569" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1569" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="D1569" t="s" s="0">
+        <v>758</v>
+      </c>
+      <c r="E1569" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="F1569" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="G1569" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1569" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1569" t="s" s="0">
+        <v>554</v>
+      </c>
+      <c r="J1569" t="s" s="0">
+        <v>1100</v>
+      </c>
+      <c r="K1569" s="0"/>
+      <c r="L1569" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="M1569" s="0"/>
+    </row>
+    <row r="1570">
+      <c r="A1570" t="n" s="0">
+        <v>1569.0</v>
+      </c>
+      <c r="B1570" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1570" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="D1570" t="s" s="0">
+        <v>749</v>
+      </c>
+      <c r="E1570" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F1570" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G1570" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1570" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1570" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="J1570" t="s" s="0">
+        <v>1093</v>
+      </c>
+      <c r="K1570" s="0"/>
+      <c r="L1570" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="M1570" s="0"/>
+    </row>
+    <row r="1571">
+      <c r="A1571" t="n" s="0">
+        <v>1570.0</v>
+      </c>
+      <c r="B1571" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1571" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="D1571" t="s" s="0">
+        <v>1099</v>
+      </c>
+      <c r="E1571" t="s" s="0">
+        <v>904</v>
+      </c>
+      <c r="F1571" t="s" s="0">
+        <v>905</v>
+      </c>
+      <c r="G1571" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="H1571" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1571" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="J1571" t="s" s="0">
+        <v>1916</v>
+      </c>
+      <c r="K1571" s="0"/>
+      <c r="L1571" t="s" s="0">
+        <v>1122</v>
+      </c>
+      <c r="M1571" s="0"/>
+    </row>
+    <row r="1572">
+      <c r="A1572" t="n" s="0">
+        <v>1571.0</v>
+      </c>
+      <c r="B1572" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1572" t="s" s="0">
+        <v>1348</v>
+      </c>
+      <c r="D1572" t="s" s="0">
+        <v>789</v>
+      </c>
+      <c r="E1572" t="s" s="0">
+        <v>790</v>
+      </c>
+      <c r="F1572" t="s" s="0">
+        <v>791</v>
+      </c>
+      <c r="G1572" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1572" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I1572" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="J1572" t="s" s="0">
+        <v>1356</v>
+      </c>
+      <c r="K1572" s="0"/>
+      <c r="L1572" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="M1572" s="0"/>
+    </row>
+    <row r="1573">
+      <c r="A1573" t="n" s="0">
+        <v>1572.0</v>
+      </c>
+      <c r="B1573" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1573" t="s" s="0">
+        <v>743</v>
+      </c>
+      <c r="D1573" t="s" s="0">
+        <v>753</v>
+      </c>
+      <c r="E1573" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F1573" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G1573" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="H1573" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I1573" t="s" s="0">
+        <v>1978</v>
+      </c>
+      <c r="J1573" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="K1573" s="0"/>
+      <c r="L1573" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="M1573" s="0"/>
+    </row>
+    <row r="1574">
+      <c r="A1574" t="n" s="0">
+        <v>1573.0</v>
+      </c>
+      <c r="B1574" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1574" t="s" s="0">
+        <v>743</v>
+      </c>
+      <c r="D1574" t="s" s="0">
+        <v>1349</v>
+      </c>
+      <c r="E1574" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="F1574" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="G1574" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1574" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1574" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="J1574" t="s" s="0">
+        <v>1102</v>
+      </c>
+      <c r="K1574" s="0"/>
+      <c r="L1574" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="M1574" s="0"/>
+    </row>
+    <row r="1575">
+      <c r="A1575" t="n" s="0">
+        <v>1574.0</v>
+      </c>
+      <c r="B1575" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1575" t="s" s="0">
+        <v>738</v>
+      </c>
+      <c r="D1575" t="s" s="0">
+        <v>1513</v>
+      </c>
+      <c r="E1575" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F1575" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G1575" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1575" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I1575" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="J1575" t="s" s="0">
+        <v>1721</v>
+      </c>
+      <c r="K1575" s="0"/>
+      <c r="L1575" t="s" s="0">
+        <v>649</v>
+      </c>
+      <c r="M1575" s="0"/>
+    </row>
+    <row r="1576">
+      <c r="A1576" t="n" s="0">
+        <v>1575.0</v>
+      </c>
+      <c r="B1576" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1576" t="s" s="0">
+        <v>745</v>
+      </c>
+      <c r="D1576" t="s" s="0">
+        <v>760</v>
+      </c>
+      <c r="E1576" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="F1576" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="G1576" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1576" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1576" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="J1576" t="s" s="0">
+        <v>761</v>
+      </c>
+      <c r="K1576" s="0"/>
+      <c r="L1576" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="M1576" s="0"/>
+    </row>
+    <row r="1577">
+      <c r="A1577" t="n" s="0">
+        <v>1576.0</v>
+      </c>
+      <c r="B1577" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1577" t="s" s="0">
+        <v>769</v>
+      </c>
+      <c r="D1577" t="s" s="0">
+        <v>770</v>
+      </c>
+      <c r="E1577" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="F1577" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G1577" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="H1577" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I1577" t="s" s="0">
+        <v>1979</v>
+      </c>
+      <c r="J1577" t="s" s="0">
+        <v>738</v>
+      </c>
+      <c r="K1577" s="0"/>
+      <c r="L1577" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="M1577" s="0"/>
+    </row>
+    <row r="1578">
+      <c r="A1578" t="n" s="0">
+        <v>1577.0</v>
+      </c>
+      <c r="B1578" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1578" t="s" s="0">
+        <v>773</v>
+      </c>
+      <c r="D1578" t="s" s="0">
+        <v>774</v>
+      </c>
+      <c r="E1578" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="F1578" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="G1578" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="H1578" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="I1578" t="s" s="0">
+        <v>1430</v>
+      </c>
+      <c r="J1578" t="s" s="0">
+        <v>1834</v>
+      </c>
+      <c r="K1578" s="0"/>
+      <c r="L1578" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="M1578" s="0"/>
+    </row>
+    <row r="1579">
+      <c r="A1579" t="n" s="0">
+        <v>1578.0</v>
+      </c>
+      <c r="B1579" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1579" t="s" s="0">
+        <v>773</v>
+      </c>
+      <c r="D1579" t="s" s="0">
+        <v>1105</v>
+      </c>
+      <c r="E1579" t="s" s="0">
+        <v>612</v>
+      </c>
+      <c r="F1579" t="s" s="0">
+        <v>613</v>
+      </c>
+      <c r="G1579" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1579" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I1579" t="s" s="0">
+        <v>1218</v>
+      </c>
+      <c r="J1579" t="s" s="0">
+        <v>629</v>
+      </c>
+      <c r="K1579" s="0"/>
+      <c r="L1579" t="s" s="0">
+        <v>1980</v>
+      </c>
+      <c r="M1579" s="0"/>
+    </row>
+    <row r="1580">
+      <c r="A1580" t="n" s="0">
+        <v>1579.0</v>
+      </c>
+      <c r="B1580" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1580" t="s" s="0">
+        <v>1107</v>
+      </c>
+      <c r="D1580" t="s" s="0">
+        <v>1108</v>
+      </c>
+      <c r="E1580" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="F1580" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="G1580" t="s" s="0">
+        <v>1952</v>
+      </c>
+      <c r="H1580" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1580" t="s" s="0">
+        <v>1953</v>
+      </c>
+      <c r="J1580" t="s" s="0">
+        <v>1104</v>
+      </c>
+      <c r="K1580" s="0"/>
+      <c r="L1580" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="M1580" s="0"/>
+    </row>
+    <row r="1581">
+      <c r="A1581" t="n" s="0">
+        <v>1580.0</v>
+      </c>
+      <c r="B1581" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1581" t="s" s="0">
+        <v>777</v>
+      </c>
+      <c r="D1581" t="s" s="0">
+        <v>784</v>
+      </c>
+      <c r="E1581" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="F1581" t="s" s="0">
+        <v>785</v>
+      </c>
+      <c r="G1581" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1581" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I1581" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="J1581" t="s" s="0">
+        <v>1359</v>
+      </c>
+      <c r="K1581" s="0"/>
+      <c r="L1581" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="M1581" s="0"/>
+    </row>
+    <row r="1582">
+      <c r="A1582" t="n" s="0">
+        <v>1581.0</v>
+      </c>
+      <c r="B1582" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1582" t="s" s="0">
+        <v>777</v>
+      </c>
+      <c r="D1582" t="s" s="0">
+        <v>1115</v>
+      </c>
+      <c r="E1582" t="s" s="0">
+        <v>1116</v>
+      </c>
+      <c r="F1582" t="s" s="0">
+        <v>1117</v>
+      </c>
+      <c r="G1582" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1582" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I1582" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="J1582" t="s" s="0">
+        <v>799</v>
+      </c>
+      <c r="K1582" s="0"/>
+      <c r="L1582" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="M1582" s="0"/>
+    </row>
+    <row r="1583">
+      <c r="A1583" t="n" s="0">
+        <v>1582.0</v>
+      </c>
+      <c r="B1583" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1583" t="s" s="0">
+        <v>810</v>
+      </c>
+      <c r="D1583" t="s" s="0">
+        <v>811</v>
+      </c>
+      <c r="E1583" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F1583" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="G1583" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1583" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I1583" t="s" s="0">
+        <v>1761</v>
+      </c>
+      <c r="J1583" t="s" s="0">
+        <v>1981</v>
+      </c>
+      <c r="K1583" s="0"/>
+      <c r="L1583" t="s" s="0">
+        <v>864</v>
+      </c>
+      <c r="M1583" s="0"/>
+    </row>
+    <row r="1584">
+      <c r="A1584" t="n" s="0">
+        <v>1583.0</v>
+      </c>
+      <c r="B1584" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1584" t="s" s="0">
+        <v>810</v>
+      </c>
+      <c r="D1584" t="s" s="0">
+        <v>814</v>
+      </c>
+      <c r="E1584" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="F1584" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="G1584" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1584" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I1584" t="s" s="0">
+        <v>1962</v>
+      </c>
+      <c r="J1584" t="s" s="0">
+        <v>1121</v>
+      </c>
+      <c r="K1584" s="0"/>
+      <c r="L1584" t="s" s="0">
+        <v>1122</v>
+      </c>
+      <c r="M1584" s="0"/>
+    </row>
+    <row r="1585">
+      <c r="A1585" t="n" s="0">
+        <v>1584.0</v>
+      </c>
+      <c r="B1585" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1585" t="s" s="0">
+        <v>810</v>
+      </c>
+      <c r="D1585" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="E1585" t="s" s="0">
+        <v>818</v>
+      </c>
+      <c r="F1585" t="s" s="0">
+        <v>819</v>
+      </c>
+      <c r="G1585" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="H1585" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I1585" t="s" s="0">
+        <v>798</v>
+      </c>
+      <c r="J1585" t="s" s="0">
+        <v>1982</v>
+      </c>
+      <c r="K1585" s="0"/>
+      <c r="L1585" t="s" s="0">
+        <v>677</v>
+      </c>
+      <c r="M1585" s="0"/>
+    </row>
+    <row r="1586">
+      <c r="A1586" t="n" s="0">
+        <v>1585.0</v>
+      </c>
+      <c r="B1586" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="C1586" t="s" s="0">
+        <v>822</v>
+      </c>
+      <c r="D1586" t="s" s="0">
+        <v>823</v>
+      </c>
+      <c r="E1586" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="F1586" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="G1586" t="s" s="0">
+        <v>560</v>
+      </c>
+      <c r="H1586" t="s" s="0">
+        <v>1230</v>
+      </c>
+      <c r="I1586" t="s" s="0">
+        <v>1878</v>
+      </c>
+      <c r="J1586" t="s" s="0">
+        <v>1983</v>
+      </c>
+      <c r="K1586" s="0"/>
+      <c r="L1586" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="M1586" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/WAW_Arrivals.xlsx
+++ b/DataBase/WAW_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15861" uniqueCount="1984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16281" uniqueCount="1999">
   <si>
     <t>NUMBER</t>
   </si>
@@ -5964,6 +5964,51 @@
   </si>
   <si>
     <t>11:07 PM</t>
+  </si>
+  <si>
+    <t>Monday, Jan 16</t>
+  </si>
+  <si>
+    <t>5:39 AM</t>
+  </si>
+  <si>
+    <t>5:31 AM</t>
+  </si>
+  <si>
+    <t>(N431UP)</t>
+  </si>
+  <si>
+    <t>5:28 AM</t>
+  </si>
+  <si>
+    <t>6:37 AM</t>
+  </si>
+  <si>
+    <t>6:39 AM</t>
+  </si>
+  <si>
+    <t>6:05 AM</t>
+  </si>
+  <si>
+    <t>7:19 AM</t>
+  </si>
+  <si>
+    <t>(TC-JVO)</t>
+  </si>
+  <si>
+    <t>8:08 AM</t>
+  </si>
+  <si>
+    <t>8:21 AM</t>
+  </si>
+  <si>
+    <t>(TC-JSE)</t>
+  </si>
+  <si>
+    <t>(D-AIUK)</t>
+  </si>
+  <si>
+    <t>8:46 AM</t>
   </si>
 </sst>
 </file>
@@ -6008,7 +6053,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M1586"/>
+  <dimension ref="A1:M1628"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -64694,6 +64739,1560 @@
       </c>
       <c r="M1586" s="0"/>
     </row>
+    <row r="1587">
+      <c r="A1587" t="n" s="0">
+        <v>1586.0</v>
+      </c>
+      <c r="B1587" t="s" s="0">
+        <v>1984</v>
+      </c>
+      <c r="C1587" t="s" s="0">
+        <v>1126</v>
+      </c>
+      <c r="D1587" t="s" s="0">
+        <v>1142</v>
+      </c>
+      <c r="E1587" t="s" s="0">
+        <v>1143</v>
+      </c>
+      <c r="F1587" t="s" s="0">
+        <v>1144</v>
+      </c>
+      <c r="G1587" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1587" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="I1587" t="s" s="0">
+        <v>855</v>
+      </c>
+      <c r="J1587" t="s" s="0">
+        <v>1840</v>
+      </c>
+      <c r="K1587" s="0"/>
+      <c r="L1587" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="M1587" s="0"/>
+    </row>
+    <row r="1588">
+      <c r="A1588" t="n" s="0">
+        <v>1587.0</v>
+      </c>
+      <c r="B1588" t="s" s="0">
+        <v>1984</v>
+      </c>
+      <c r="C1588" t="s" s="0">
+        <v>1985</v>
+      </c>
+      <c r="D1588" t="s" s="0">
+        <v>1127</v>
+      </c>
+      <c r="E1588" t="s" s="0">
+        <v>1128</v>
+      </c>
+      <c r="F1588" t="s" s="0">
+        <v>1129</v>
+      </c>
+      <c r="G1588" t="s" s="0">
+        <v>1130</v>
+      </c>
+      <c r="H1588" t="s" s="0">
+        <v>1131</v>
+      </c>
+      <c r="I1588" t="s" s="0">
+        <v>1132</v>
+      </c>
+      <c r="J1588" t="s" s="0">
+        <v>1986</v>
+      </c>
+      <c r="K1588" s="0"/>
+      <c r="L1588" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M1588" s="0"/>
+    </row>
+    <row r="1589">
+      <c r="A1589" t="n" s="0">
+        <v>1588.0</v>
+      </c>
+      <c r="B1589" t="s" s="0">
+        <v>1984</v>
+      </c>
+      <c r="C1589" t="s" s="0">
+        <v>1388</v>
+      </c>
+      <c r="D1589" t="s" s="0">
+        <v>1134</v>
+      </c>
+      <c r="E1589" t="s" s="0">
+        <v>1135</v>
+      </c>
+      <c r="F1589" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="G1589" t="s" s="0">
+        <v>1137</v>
+      </c>
+      <c r="H1589" t="s" s="0">
+        <v>1138</v>
+      </c>
+      <c r="I1589" t="s" s="0">
+        <v>1987</v>
+      </c>
+      <c r="J1589" t="s" s="0">
+        <v>1988</v>
+      </c>
+      <c r="K1589" s="0"/>
+      <c r="L1589" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="M1589" s="0"/>
+    </row>
+    <row r="1590">
+      <c r="A1590" t="n" s="0">
+        <v>1589.0</v>
+      </c>
+      <c r="B1590" t="s" s="0">
+        <v>1984</v>
+      </c>
+      <c r="C1590" t="s" s="0">
+        <v>828</v>
+      </c>
+      <c r="D1590" t="s" s="0">
+        <v>829</v>
+      </c>
+      <c r="E1590" t="s" s="0">
+        <v>830</v>
+      </c>
+      <c r="F1590" t="s" s="0">
+        <v>831</v>
+      </c>
+      <c r="G1590" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1590" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I1590" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="J1590" t="s" s="0">
+        <v>1393</v>
+      </c>
+      <c r="K1590" s="0"/>
+      <c r="L1590" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="M1590" s="0"/>
+    </row>
+    <row r="1591">
+      <c r="A1591" t="n" s="0">
+        <v>1590.0</v>
+      </c>
+      <c r="B1591" t="s" s="0">
+        <v>1984</v>
+      </c>
+      <c r="C1591" t="s" s="0">
+        <v>850</v>
+      </c>
+      <c r="D1591" t="s" s="0">
+        <v>1148</v>
+      </c>
+      <c r="E1591" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F1591" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1591" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1591" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I1591" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="J1591" t="s" s="0">
+        <v>1989</v>
+      </c>
+      <c r="K1591" s="0"/>
+      <c r="L1591" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="M1591" s="0"/>
+    </row>
+    <row r="1592">
+      <c r="A1592" t="n" s="0">
+        <v>1591.0</v>
+      </c>
+      <c r="B1592" t="s" s="0">
+        <v>1984</v>
+      </c>
+      <c r="C1592" t="s" s="0">
+        <v>850</v>
+      </c>
+      <c r="D1592" t="s" s="0">
+        <v>1147</v>
+      </c>
+      <c r="E1592" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="F1592" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="G1592" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1592" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I1592" t="s" s="0">
+        <v>567</v>
+      </c>
+      <c r="J1592" t="s" s="0">
+        <v>1990</v>
+      </c>
+      <c r="K1592" s="0"/>
+      <c r="L1592" t="s" s="0">
+        <v>1598</v>
+      </c>
+      <c r="M1592" s="0"/>
+    </row>
+    <row r="1593">
+      <c r="A1593" t="n" s="0">
+        <v>1592.0</v>
+      </c>
+      <c r="B1593" t="s" s="0">
+        <v>1984</v>
+      </c>
+      <c r="C1593" t="s" s="0">
+        <v>1150</v>
+      </c>
+      <c r="D1593" t="s" s="0">
+        <v>1151</v>
+      </c>
+      <c r="E1593" t="s" s="0">
+        <v>502</v>
+      </c>
+      <c r="F1593" t="s" s="0">
+        <v>503</v>
+      </c>
+      <c r="G1593" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1593" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I1593" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="J1593" t="s" s="0">
+        <v>1731</v>
+      </c>
+      <c r="K1593" s="0"/>
+      <c r="L1593" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="M1593" s="0"/>
+    </row>
+    <row r="1594">
+      <c r="A1594" t="n" s="0">
+        <v>1593.0</v>
+      </c>
+      <c r="B1594" t="s" s="0">
+        <v>1984</v>
+      </c>
+      <c r="C1594" t="s" s="0">
+        <v>1150</v>
+      </c>
+      <c r="D1594" t="s" s="0">
+        <v>844</v>
+      </c>
+      <c r="E1594" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="F1594" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="G1594" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1594" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1594" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="J1594" t="s" s="0">
+        <v>847</v>
+      </c>
+      <c r="K1594" s="0"/>
+      <c r="L1594" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M1594" s="0"/>
+    </row>
+    <row r="1595">
+      <c r="A1595" t="n" s="0">
+        <v>1594.0</v>
+      </c>
+      <c r="B1595" t="s" s="0">
+        <v>1984</v>
+      </c>
+      <c r="C1595" t="s" s="0">
+        <v>1150</v>
+      </c>
+      <c r="D1595" t="s" s="0">
+        <v>1152</v>
+      </c>
+      <c r="E1595" t="s" s="0">
+        <v>498</v>
+      </c>
+      <c r="F1595" t="s" s="0">
+        <v>499</v>
+      </c>
+      <c r="G1595" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1595" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1595" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="J1595" t="s" s="0">
+        <v>1991</v>
+      </c>
+      <c r="K1595" s="0"/>
+      <c r="L1595" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="M1595" s="0"/>
+    </row>
+    <row r="1596">
+      <c r="A1596" t="n" s="0">
+        <v>1595.0</v>
+      </c>
+      <c r="B1596" t="s" s="0">
+        <v>1984</v>
+      </c>
+      <c r="C1596" t="s" s="0">
+        <v>1150</v>
+      </c>
+      <c r="D1596" t="s" s="0">
+        <v>846</v>
+      </c>
+      <c r="E1596" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="F1596" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="G1596" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1596" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1596" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="J1596" t="s" s="0">
+        <v>842</v>
+      </c>
+      <c r="K1596" s="0"/>
+      <c r="L1596" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="M1596" s="0"/>
+    </row>
+    <row r="1597">
+      <c r="A1597" t="n" s="0">
+        <v>1596.0</v>
+      </c>
+      <c r="B1597" t="s" s="0">
+        <v>1984</v>
+      </c>
+      <c r="C1597" t="s" s="0">
+        <v>843</v>
+      </c>
+      <c r="D1597" t="s" s="0">
+        <v>1155</v>
+      </c>
+      <c r="E1597" t="s" s="0">
+        <v>454</v>
+      </c>
+      <c r="F1597" t="s" s="0">
+        <v>455</v>
+      </c>
+      <c r="G1597" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1597" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1597" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="J1597" t="s" s="0">
+        <v>833</v>
+      </c>
+      <c r="K1597" s="0"/>
+      <c r="L1597" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="M1597" s="0"/>
+    </row>
+    <row r="1598">
+      <c r="A1598" t="n" s="0">
+        <v>1597.0</v>
+      </c>
+      <c r="B1598" t="s" s="0">
+        <v>1984</v>
+      </c>
+      <c r="C1598" t="s" s="0">
+        <v>848</v>
+      </c>
+      <c r="D1598" t="s" s="0">
+        <v>849</v>
+      </c>
+      <c r="E1598" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="F1598" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="G1598" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1598" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1598" t="s" s="0">
+        <v>1504</v>
+      </c>
+      <c r="J1598" t="s" s="0">
+        <v>1160</v>
+      </c>
+      <c r="K1598" s="0"/>
+      <c r="L1598" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="M1598" s="0"/>
+    </row>
+    <row r="1599">
+      <c r="A1599" t="n" s="0">
+        <v>1598.0</v>
+      </c>
+      <c r="B1599" t="s" s="0">
+        <v>1984</v>
+      </c>
+      <c r="C1599" t="s" s="0">
+        <v>848</v>
+      </c>
+      <c r="D1599" t="s" s="0">
+        <v>1161</v>
+      </c>
+      <c r="E1599" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="F1599" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="G1599" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1599" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1599" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="J1599" t="s" s="0">
+        <v>832</v>
+      </c>
+      <c r="K1599" s="0"/>
+      <c r="L1599" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="M1599" s="0"/>
+    </row>
+    <row r="1600">
+      <c r="A1600" t="n" s="0">
+        <v>1599.0</v>
+      </c>
+      <c r="B1600" t="s" s="0">
+        <v>1984</v>
+      </c>
+      <c r="C1600" t="s" s="0">
+        <v>848</v>
+      </c>
+      <c r="D1600" t="s" s="0">
+        <v>1164</v>
+      </c>
+      <c r="E1600" t="s" s="0">
+        <v>517</v>
+      </c>
+      <c r="F1600" t="s" s="0">
+        <v>518</v>
+      </c>
+      <c r="G1600" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1600" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1600" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="J1600" t="s" s="0">
+        <v>1146</v>
+      </c>
+      <c r="K1600" s="0"/>
+      <c r="L1600" t="s" s="0">
+        <v>806</v>
+      </c>
+      <c r="M1600" s="0"/>
+    </row>
+    <row r="1601">
+      <c r="A1601" t="n" s="0">
+        <v>1600.0</v>
+      </c>
+      <c r="B1601" t="s" s="0">
+        <v>1984</v>
+      </c>
+      <c r="C1601" t="s" s="0">
+        <v>848</v>
+      </c>
+      <c r="D1601" t="s" s="0">
+        <v>851</v>
+      </c>
+      <c r="E1601" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F1601" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G1601" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1601" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1601" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="J1601" t="s" s="0">
+        <v>843</v>
+      </c>
+      <c r="K1601" s="0"/>
+      <c r="L1601" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="M1601" s="0"/>
+    </row>
+    <row r="1602">
+      <c r="A1602" t="n" s="0">
+        <v>1601.0</v>
+      </c>
+      <c r="B1602" t="s" s="0">
+        <v>1984</v>
+      </c>
+      <c r="C1602" t="s" s="0">
+        <v>1154</v>
+      </c>
+      <c r="D1602" t="s" s="0">
+        <v>1166</v>
+      </c>
+      <c r="E1602" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="F1602" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="G1602" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="H1602" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1602" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="J1602" t="s" s="0">
+        <v>850</v>
+      </c>
+      <c r="K1602" s="0"/>
+      <c r="L1602" t="s" s="0">
+        <v>889</v>
+      </c>
+      <c r="M1602" s="0"/>
+    </row>
+    <row r="1603">
+      <c r="A1603" t="n" s="0">
+        <v>1602.0</v>
+      </c>
+      <c r="B1603" t="s" s="0">
+        <v>1984</v>
+      </c>
+      <c r="C1603" t="s" s="0">
+        <v>1154</v>
+      </c>
+      <c r="D1603" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="E1603" t="s" s="0">
+        <v>532</v>
+      </c>
+      <c r="F1603" t="s" s="0">
+        <v>533</v>
+      </c>
+      <c r="G1603" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1603" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1603" t="s" s="0">
+        <v>554</v>
+      </c>
+      <c r="J1603" t="s" s="0">
+        <v>848</v>
+      </c>
+      <c r="K1603" s="0"/>
+      <c r="L1603" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="M1603" s="0"/>
+    </row>
+    <row r="1604">
+      <c r="A1604" t="n" s="0">
+        <v>1603.0</v>
+      </c>
+      <c r="B1604" t="s" s="0">
+        <v>1984</v>
+      </c>
+      <c r="C1604" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1604" t="s" s="0">
+        <v>1169</v>
+      </c>
+      <c r="E1604" t="s" s="0">
+        <v>835</v>
+      </c>
+      <c r="F1604" t="s" s="0">
+        <v>836</v>
+      </c>
+      <c r="G1604" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1604" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I1604" t="s" s="0">
+        <v>441</v>
+      </c>
+      <c r="J1604" t="s" s="0">
+        <v>1992</v>
+      </c>
+      <c r="K1604" s="0"/>
+      <c r="L1604" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="M1604" s="0"/>
+    </row>
+    <row r="1605">
+      <c r="A1605" t="n" s="0">
+        <v>1604.0</v>
+      </c>
+      <c r="B1605" t="s" s="0">
+        <v>1984</v>
+      </c>
+      <c r="C1605" t="s" s="0">
+        <v>858</v>
+      </c>
+      <c r="D1605" t="s" s="0">
+        <v>859</v>
+      </c>
+      <c r="E1605" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F1605" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G1605" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="H1605" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I1605" t="s" s="0">
+        <v>1993</v>
+      </c>
+      <c r="J1605" t="s" s="0">
+        <v>1531</v>
+      </c>
+      <c r="K1605" s="0"/>
+      <c r="L1605" t="s" s="0">
+        <v>806</v>
+      </c>
+      <c r="M1605" s="0"/>
+    </row>
+    <row r="1606">
+      <c r="A1606" t="n" s="0">
+        <v>1605.0</v>
+      </c>
+      <c r="B1606" t="s" s="0">
+        <v>1984</v>
+      </c>
+      <c r="C1606" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D1606" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E1606" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F1606" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G1606" t="s" s="0">
+        <v>1174</v>
+      </c>
+      <c r="H1606" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1606" t="s" s="0">
+        <v>1175</v>
+      </c>
+      <c r="J1606" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="K1606" s="0"/>
+      <c r="L1606" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="M1606" s="0"/>
+    </row>
+    <row r="1607">
+      <c r="A1607" t="n" s="0">
+        <v>1606.0</v>
+      </c>
+      <c r="B1607" t="s" s="0">
+        <v>1984</v>
+      </c>
+      <c r="C1607" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D1607" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E1607" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F1607" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G1607" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1607" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I1607" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="J1607" t="s" s="0">
+        <v>1639</v>
+      </c>
+      <c r="K1607" s="0"/>
+      <c r="L1607" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="M1607" s="0"/>
+    </row>
+    <row r="1608">
+      <c r="A1608" t="n" s="0">
+        <v>1607.0</v>
+      </c>
+      <c r="B1608" t="s" s="0">
+        <v>1984</v>
+      </c>
+      <c r="C1608" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D1608" t="s" s="0">
+        <v>1177</v>
+      </c>
+      <c r="E1608" t="s" s="0">
+        <v>393</v>
+      </c>
+      <c r="F1608" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="G1608" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1608" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I1608" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="J1608" t="s" s="0">
+        <v>861</v>
+      </c>
+      <c r="K1608" s="0"/>
+      <c r="L1608" t="s" s="0">
+        <v>684</v>
+      </c>
+      <c r="M1608" s="0"/>
+    </row>
+    <row r="1609">
+      <c r="A1609" t="n" s="0">
+        <v>1608.0</v>
+      </c>
+      <c r="B1609" t="s" s="0">
+        <v>1984</v>
+      </c>
+      <c r="C1609" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D1609" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="E1609" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="F1609" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="G1609" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1609" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1609" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="J1609" t="s" s="0">
+        <v>1994</v>
+      </c>
+      <c r="K1609" s="0"/>
+      <c r="L1609" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="M1609" s="0"/>
+    </row>
+    <row r="1610">
+      <c r="A1610" t="n" s="0">
+        <v>1609.0</v>
+      </c>
+      <c r="B1610" t="s" s="0">
+        <v>1984</v>
+      </c>
+      <c r="C1610" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D1610" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="E1610" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F1610" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="G1610" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1610" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1610" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="J1610" t="s" s="0">
+        <v>1995</v>
+      </c>
+      <c r="K1610" s="0"/>
+      <c r="L1610" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="M1610" s="0"/>
+    </row>
+    <row r="1611">
+      <c r="A1611" t="n" s="0">
+        <v>1610.0</v>
+      </c>
+      <c r="B1611" t="s" s="0">
+        <v>1984</v>
+      </c>
+      <c r="C1611" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D1611" t="s" s="0">
+        <v>1180</v>
+      </c>
+      <c r="E1611" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="F1611" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="G1611" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1611" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I1611" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="J1611" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="K1611" s="0"/>
+      <c r="L1611" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="M1611" s="0"/>
+    </row>
+    <row r="1612">
+      <c r="A1612" t="n" s="0">
+        <v>1611.0</v>
+      </c>
+      <c r="B1612" t="s" s="0">
+        <v>1984</v>
+      </c>
+      <c r="C1612" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D1612" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="E1612" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F1612" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="G1612" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="H1612" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I1612" t="s" s="0">
+        <v>1996</v>
+      </c>
+      <c r="J1612" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="K1612" s="0"/>
+      <c r="L1612" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="M1612" s="0"/>
+    </row>
+    <row r="1613">
+      <c r="A1613" t="n" s="0">
+        <v>1612.0</v>
+      </c>
+      <c r="B1613" t="s" s="0">
+        <v>1984</v>
+      </c>
+      <c r="C1613" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="D1613" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="E1613" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="F1613" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G1613" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="H1613" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I1613" t="s" s="0">
+        <v>1997</v>
+      </c>
+      <c r="J1613" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="K1613" s="0"/>
+      <c r="L1613" t="s" s="0">
+        <v>806</v>
+      </c>
+      <c r="M1613" s="0"/>
+    </row>
+    <row r="1614">
+      <c r="A1614" t="n" s="0">
+        <v>1613.0</v>
+      </c>
+      <c r="B1614" t="s" s="0">
+        <v>1984</v>
+      </c>
+      <c r="C1614" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="D1614" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="E1614" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="F1614" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="G1614" t="s" s="0">
+        <v>1185</v>
+      </c>
+      <c r="H1614" t="s" s="0">
+        <v>1186</v>
+      </c>
+      <c r="I1614" t="s" s="0">
+        <v>1863</v>
+      </c>
+      <c r="J1614" t="s" s="0">
+        <v>1998</v>
+      </c>
+      <c r="K1614" s="0"/>
+      <c r="L1614" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="M1614" s="0"/>
+    </row>
+    <row r="1615">
+      <c r="A1615" t="n" s="0">
+        <v>1614.0</v>
+      </c>
+      <c r="B1615" t="s" s="0">
+        <v>1984</v>
+      </c>
+      <c r="C1615" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="D1615" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="E1615" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="F1615" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="G1615" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1615" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1615" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="J1615" t="s" s="0">
+        <v>1191</v>
+      </c>
+      <c r="K1615" s="0"/>
+      <c r="L1615" t="s" s="0">
+        <v>538</v>
+      </c>
+      <c r="M1615" s="0"/>
+    </row>
+    <row r="1616">
+      <c r="A1616" t="n" s="0">
+        <v>1615.0</v>
+      </c>
+      <c r="B1616" t="s" s="0">
+        <v>1984</v>
+      </c>
+      <c r="C1616" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="D1616" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="E1616" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="F1616" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G1616" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1616" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1616" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="J1616" t="s" s="0">
+        <v>1190</v>
+      </c>
+      <c r="K1616" s="0"/>
+      <c r="L1616" t="s" s="0">
+        <v>649</v>
+      </c>
+      <c r="M1616" s="0"/>
+    </row>
+    <row r="1617">
+      <c r="A1617" t="n" s="0">
+        <v>1616.0</v>
+      </c>
+      <c r="B1617" t="s" s="0">
+        <v>1984</v>
+      </c>
+      <c r="C1617" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="D1617" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="E1617" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="F1617" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="G1617" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1617" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1617" t="s" s="0">
+        <v>891</v>
+      </c>
+      <c r="J1617" t="s" s="0">
+        <v>1536</v>
+      </c>
+      <c r="K1617" s="0"/>
+      <c r="L1617" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="M1617" s="0"/>
+    </row>
+    <row r="1618">
+      <c r="A1618" t="n" s="0">
+        <v>1617.0</v>
+      </c>
+      <c r="B1618" t="s" s="0">
+        <v>1984</v>
+      </c>
+      <c r="C1618" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="D1618" t="s" s="0">
+        <v>1192</v>
+      </c>
+      <c r="E1618" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="F1618" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="G1618" t="s" s="0">
+        <v>1040</v>
+      </c>
+      <c r="H1618" t="s" s="0">
+        <v>1008</v>
+      </c>
+      <c r="I1618" t="s" s="0">
+        <v>1041</v>
+      </c>
+      <c r="J1618" t="s" s="0">
+        <v>1410</v>
+      </c>
+      <c r="K1618" s="0"/>
+      <c r="L1618" t="s" s="0">
+        <v>1122</v>
+      </c>
+      <c r="M1618" s="0"/>
+    </row>
+    <row r="1619">
+      <c r="A1619" t="n" s="0">
+        <v>1618.0</v>
+      </c>
+      <c r="B1619" t="s" s="0">
+        <v>1984</v>
+      </c>
+      <c r="C1619" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="D1619" t="s" s="0">
+        <v>1196</v>
+      </c>
+      <c r="E1619" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="F1619" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="G1619" t="s" s="0">
+        <v>1040</v>
+      </c>
+      <c r="H1619" t="s" s="0">
+        <v>1008</v>
+      </c>
+      <c r="I1619" t="s" s="0">
+        <v>1969</v>
+      </c>
+      <c r="J1619" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="K1619" s="0"/>
+      <c r="L1619" t="s" s="0">
+        <v>864</v>
+      </c>
+      <c r="M1619" s="0"/>
+    </row>
+    <row r="1620">
+      <c r="A1620" t="n" s="0">
+        <v>1619.0</v>
+      </c>
+      <c r="B1620" t="s" s="0">
+        <v>1984</v>
+      </c>
+      <c r="C1620" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="D1620" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="E1620" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="F1620" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="G1620" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="H1620" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1620" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="J1620" t="s" s="0">
+        <v>1194</v>
+      </c>
+      <c r="K1620" s="0"/>
+      <c r="L1620" t="s" s="0">
+        <v>684</v>
+      </c>
+      <c r="M1620" s="0"/>
+    </row>
+    <row r="1621">
+      <c r="A1621" t="n" s="0">
+        <v>1620.0</v>
+      </c>
+      <c r="B1621" t="s" s="0">
+        <v>1984</v>
+      </c>
+      <c r="C1621" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="D1621" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="E1621" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="F1621" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="G1621" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="H1621" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1621" t="s" s="0">
+        <v>1864</v>
+      </c>
+      <c r="J1621" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="K1621" s="0"/>
+      <c r="L1621" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="M1621" s="0"/>
+    </row>
+    <row r="1622">
+      <c r="A1622" t="n" s="0">
+        <v>1621.0</v>
+      </c>
+      <c r="B1622" t="s" s="0">
+        <v>1984</v>
+      </c>
+      <c r="C1622" t="s" s="0">
+        <v>877</v>
+      </c>
+      <c r="D1622" t="s" s="0">
+        <v>1200</v>
+      </c>
+      <c r="E1622" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="F1622" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="G1622" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1622" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I1622" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="J1622" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="K1622" s="0"/>
+      <c r="L1622" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="M1622" s="0"/>
+    </row>
+    <row r="1623">
+      <c r="A1623" t="n" s="0">
+        <v>1622.0</v>
+      </c>
+      <c r="B1623" t="s" s="0">
+        <v>1984</v>
+      </c>
+      <c r="C1623" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="D1623" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="E1623" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="F1623" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="G1623" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="H1623" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1623" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="J1623" t="s" s="0">
+        <v>1193</v>
+      </c>
+      <c r="K1623" s="0"/>
+      <c r="L1623" t="s" s="0">
+        <v>370</v>
+      </c>
+      <c r="M1623" s="0"/>
+    </row>
+    <row r="1624">
+      <c r="A1624" t="n" s="0">
+        <v>1623.0</v>
+      </c>
+      <c r="B1624" t="s" s="0">
+        <v>1984</v>
+      </c>
+      <c r="C1624" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="D1624" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="E1624" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="F1624" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="G1624" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1624" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1624" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="J1624" t="s" s="0">
+        <v>879</v>
+      </c>
+      <c r="K1624" s="0"/>
+      <c r="L1624" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="M1624" s="0"/>
+    </row>
+    <row r="1625">
+      <c r="A1625" t="n" s="0">
+        <v>1624.0</v>
+      </c>
+      <c r="B1625" t="s" s="0">
+        <v>1984</v>
+      </c>
+      <c r="C1625" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="D1625" t="s" s="0">
+        <v>880</v>
+      </c>
+      <c r="E1625" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F1625" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G1625" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1625" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1625" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="J1625" t="s" s="0">
+        <v>881</v>
+      </c>
+      <c r="K1625" s="0"/>
+      <c r="L1625" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="M1625" s="0"/>
+    </row>
+    <row r="1626">
+      <c r="A1626" t="n" s="0">
+        <v>1625.0</v>
+      </c>
+      <c r="B1626" t="s" s="0">
+        <v>1984</v>
+      </c>
+      <c r="C1626" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="D1626" t="s" s="0">
+        <v>1203</v>
+      </c>
+      <c r="E1626" t="s" s="0">
+        <v>1204</v>
+      </c>
+      <c r="F1626" t="s" s="0">
+        <v>1205</v>
+      </c>
+      <c r="G1626" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1626" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1626" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="J1626" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="K1626" s="0"/>
+      <c r="L1626" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="M1626" s="0"/>
+    </row>
+    <row r="1627">
+      <c r="A1627" t="n" s="0">
+        <v>1626.0</v>
+      </c>
+      <c r="B1627" t="s" s="0">
+        <v>1984</v>
+      </c>
+      <c r="C1627" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="D1627" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="E1627" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="F1627" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="G1627" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1627" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1627" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="J1627" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="K1627" s="0"/>
+      <c r="L1627" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="M1627" s="0"/>
+    </row>
+    <row r="1628">
+      <c r="A1628" t="n" s="0">
+        <v>1627.0</v>
+      </c>
+      <c r="B1628" t="s" s="0">
+        <v>1984</v>
+      </c>
+      <c r="C1628" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="D1628" t="s" s="0">
+        <v>884</v>
+      </c>
+      <c r="E1628" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="F1628" t="s" s="0">
+        <v>885</v>
+      </c>
+      <c r="G1628" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H1628" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I1628" t="s" s="0">
+        <v>1962</v>
+      </c>
+      <c r="J1628" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="K1628" s="0"/>
+      <c r="L1628" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="M1628" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
